--- a/Translations/Translations.xlsx
+++ b/Translations/Translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\source\repos\BSharp\Translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622EE2A5-5641-4C51-BEBD-30A44455AAFF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91FA2ED-A1CD-4462-BE8F-B57904D317B4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09F7BBB4-81EA-4503-B8DD-8985A501E98F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="1267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="1707">
   <si>
     <t>Key</t>
   </si>
@@ -3835,13 +3835,1333 @@
   </si>
   <si>
     <t>تطبيق (authenticator) ليس في متناول يدك؟ لتسجيل دخولك باستخدام كود استرداد</t>
+  </si>
+  <si>
+    <t>zh</t>
+  </si>
+  <si>
+    <t>，</t>
+  </si>
+  <si>
+    <t>拒绝访问</t>
+  </si>
+  <si>
+    <t>您没有使用这些资源。</t>
+  </si>
+  <si>
+    <t>该行动没有通过验证，详见高亮行</t>
+  </si>
+  <si>
+    <t>活性</t>
+  </si>
+  <si>
+    <t>添加外部登录在</t>
+  </si>
+  <si>
+    <t>代理人</t>
+  </si>
+  <si>
+    <t>代理类型</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>相关的</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>税号</t>
+  </si>
+  <si>
+    <t>标题</t>
+  </si>
+  <si>
+    <t>代理</t>
+  </si>
+  <si>
+    <t>Android的</t>
+  </si>
+  <si>
+    <t>身份验证器应用</t>
+  </si>
+  <si>
+    <t>认证码</t>
+  </si>
+  <si>
+    <t>禁用2FA</t>
+  </si>
+  <si>
+    <t>取消</t>
+  </si>
+  <si>
+    <t>更改密码</t>
+  </si>
+  <si>
+    <t>点击这里</t>
+  </si>
+  <si>
+    <t>码</t>
+  </si>
+  <si>
+    <t>配置身份验证器应用</t>
+  </si>
+  <si>
+    <t>要使用认证的应用程序要经过以下步骤：</t>
+  </si>
+  <si>
+    <t>下载双因素身份验证的应用程序如谷歌身份验证：</t>
+  </si>
+  <si>
+    <t>扫描QR码或输入以下钥匙插入你的两个因素身份验证的应用程序。空间与外壳并不重要：</t>
+  </si>
+  <si>
+    <t>一旦你已经扫描上面的键QR码或输入您的身份验证的应用程序会为您提供一个密码。输入下面的确认框的代码。</t>
+  </si>
+  <si>
+    <t>确认邮件</t>
+  </si>
+  <si>
+    <t>确认新密码</t>
+  </si>
+  <si>
+    <t>确认密码</t>
+  </si>
+  <si>
+    <t>版权所有©{0}巴南IT，Ltd.保留所有权利。</t>
+  </si>
+  <si>
+    <t>创建一个密码</t>
+  </si>
+  <si>
+    <t>在创建</t>
+  </si>
+  <si>
+    <t>由...制作</t>
+  </si>
+  <si>
+    <t>当前密码</t>
+  </si>
+  <si>
+    <t>保管</t>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>托管型</t>
+  </si>
+  <si>
+    <t>数据</t>
+  </si>
+  <si>
+    <t>发生未知故障。</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>禁用双因素认证（2FA）</t>
+  </si>
+  <si>
+    <t>禁用2FA在不改变应用程序认证所使用的密钥。如果你想改变在认证应用程序使用的密钥</t>
+  </si>
+  <si>
+    <t>这个动作只禁止2FA。</t>
+  </si>
+  <si>
+    <t>电子邮件“{0}”已被使用。</t>
+  </si>
+  <si>
+    <t>角色名称“{0}”已被使用。</t>
+  </si>
+  <si>
+    <t>用户名“{0}”已被使用。</t>
+  </si>
+  <si>
+    <t>电子邮件</t>
+  </si>
+  <si>
+    <t>{0}字段是不是一个有效的E-mail地址</t>
+  </si>
+  <si>
+    <t>感谢您确认您的电子邮件</t>
+  </si>
+  <si>
+    <t>输入你的电子邮箱</t>
+  </si>
+  <si>
+    <t>A {0}路径不能与导航字段{1}终止。</t>
+  </si>
+  <si>
+    <t>发生意外错误添加外部登录与电子邮件用户“{0}”。</t>
+  </si>
+  <si>
+    <t>与电子邮件的用户“{0}”未能找到。</t>
+  </si>
+  <si>
+    <t>关键字“{0}”表示所有基本字段，它们应当出现在选择路径的末端。</t>
+  </si>
+  <si>
+    <t>无法停用自己的用户。</t>
+  </si>
+  <si>
+    <t>因为这是已经在使用无法删除{0}记录。</t>
+  </si>
+  <si>
+    <t>无法删除有孩子的树节点。</t>
+  </si>
+  <si>
+    <t>您无法删除自己的用户。</t>
+  </si>
+  <si>
+    <t>无法修改非活动项目。</t>
+  </si>
+  <si>
+    <t>该代码需要更新导入模式。</t>
+  </si>
+  <si>
+    <t>列“{0}”不是可识别的。</t>
+  </si>
+  <si>
+    <t>同时确认您的电子邮件时发生错误。</t>
+  </si>
+  <si>
+    <t>删除{0}不是从这个API的支持。</t>
+  </si>
+  <si>
+    <t>电子邮件没有被外部登录提供。</t>
+  </si>
+  <si>
+    <t>导入的文件是空的。</t>
+  </si>
+  <si>
+    <t>从外部提供错误：{0}。</t>
+  </si>
+  <si>
+    <t>导入Excel文件包含多个工作表，请注明名称为其中一个“{0}”。</t>
+  </si>
+  <si>
+    <t>字段“{0}”上型“{1}”不是一个导航领域，因此它不能被随后在选择路径中的另一个字段。</t>
+  </si>
+  <si>
+    <t>外键像“{0}”不能在选择参数中指定。</t>
+  </si>
+  <si>
+    <t>无效的语言ID '{0}'。</t>
+  </si>
+  <si>
+    <t>无效的登录尝试。如果你还没有确认您的电子邮件了，请检查您的电子邮件收件箱</t>
+  </si>
+  <si>
+    <t>错误加载外部登录信息。</t>
+  </si>
+  <si>
+    <t>不能指定导航领域“{0}”中不包括它在扩大的说法太选择的说法。</t>
+  </si>
+  <si>
+    <t>没有文件被上传。</t>
+  </si>
+  <si>
+    <t>解析API中不支持删除模式。</t>
+  </si>
+  <si>
+    <t>属性{0}不上型存在{1}。</t>
+  </si>
+  <si>
+    <t>属性{0}上式{1}是一个集合，并且因此在一个{2}路径不允许的。</t>
+  </si>
+  <si>
+    <t>中学语文不能是相同的主要语言。</t>
+  </si>
+  <si>
+    <t>该代码“{0}”不存在。</t>
+  </si>
+  <si>
+    <t>该代码“{0}”被复制。</t>
+  </si>
+  <si>
+    <t>该代码已经被使用“{0}”。</t>
+  </si>
+  <si>
+    <t>电子邮件已经被使用“{0}”。</t>
+  </si>
+  <si>
+    <t>用户邮件不能在此处修改。</t>
+  </si>
+  <si>
+    <t>与ID的实体“{0}”被指定多次。</t>
+  </si>
+  <si>
+    <t>字段{0}必须是有效的HTML十六进制颜色，如：＃AB12E5。</t>
+  </si>
+  <si>
+    <t>与ID的记录“{0}”没有被发现。也许它已经被删除，请重新整理。</t>
+  </si>
+  <si>
+    <t>名称“{0}”被复制。</t>
+  </si>
+  <si>
+    <t>“{0}”已被使用的名称。</t>
+  </si>
+  <si>
+    <t>密码和确认密码不匹配。</t>
+  </si>
+  <si>
+    <t>用户“{0}”不活跃。</t>
+  </si>
+  <si>
+    <t>值“{0}”是无效的{1}字段。</t>
+  </si>
+  <si>
+    <t>用代码的视图“{0}”不被激活。</t>
+  </si>
+  <si>
+    <t>而尝试登录您在使用外部提供商出现未知错误。</t>
+  </si>
+  <si>
+    <t>未知的文件格式。</t>
+  </si>
+  <si>
+    <t>值 '{0}' 是无效的{1}字段中，可接受的值是：{2}。</t>
+  </si>
+  <si>
+    <t>Facebook的</t>
+  </si>
+  <si>
+    <t>忘记这个浏览器</t>
+  </si>
+  <si>
+    <t>忘记密码确认</t>
+  </si>
+  <si>
+    <t>请检查您的电子邮件重置您的密码。</t>
+  </si>
+  <si>
+    <t>忘记密码了吗？</t>
+  </si>
+  <si>
+    <t>生成恢复代码</t>
+  </si>
+  <si>
+    <t>产生双因素认证（2FA）恢复代码</t>
+  </si>
+  <si>
+    <t>谷歌</t>
+  </si>
+  <si>
+    <t>转到{0}</t>
+  </si>
+  <si>
+    <t>家</t>
+  </si>
+  <si>
+    <t>电子邮件 '{0}' 是无效的。</t>
+  </si>
+  <si>
+    <t>文档</t>
+  </si>
+  <si>
+    <t>生效日期</t>
+  </si>
+  <si>
+    <t>到期日</t>
+  </si>
+  <si>
+    <t>标签</t>
+  </si>
+  <si>
+    <t>国际财务报告准则的注意事项</t>
+  </si>
+  <si>
+    <t>对于信用</t>
+  </si>
+  <si>
+    <t>对于借记卡</t>
+  </si>
+  <si>
+    <t>待用</t>
+  </si>
+  <si>
+    <t>个人</t>
+  </si>
+  <si>
+    <t>无效的认证码。</t>
+  </si>
+  <si>
+    <t>无效的恢复代码。</t>
+  </si>
+  <si>
+    <t>角色名称“{0}”是无效的。</t>
+  </si>
+  <si>
+    <t>令牌无效。</t>
+  </si>
+  <si>
+    <t>用户名“{0}”是无效的，只能包含字母或数字。</t>
+  </si>
+  <si>
+    <t>{0}已邀请您加入{1} ERP。点击下面的按钮接受邀请，并建立自己的帐户。此邀请函仅适用于{2}天。</t>
+  </si>
+  <si>
+    <t>接受邀请</t>
+  </si>
+  <si>
+    <t>此致，</t>
+  </si>
+  <si>
+    <t>你好{0}！</t>
+  </si>
+  <si>
+    <t>{0}队</t>
+  </si>
+  <si>
+    <t>邀请{0}</t>
+  </si>
+  <si>
+    <t>iOS版</t>
+  </si>
+  <si>
+    <t>活跃</t>
+  </si>
+  <si>
+    <t>被锁在外面</t>
+  </si>
+  <si>
+    <t>此帐户已被暂时锁定，请稍后再试。</t>
+  </si>
+  <si>
+    <t>用该用户名已经存在。</t>
+  </si>
+  <si>
+    <t>计量单位</t>
+  </si>
+  <si>
+    <t>测量单位</t>
+  </si>
+  <si>
+    <t>会员</t>
+  </si>
+  <si>
+    <t>备忘录</t>
+  </si>
+  <si>
+    <t>外部登录插件</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>轮廓</t>
+  </si>
+  <si>
+    <t>微软</t>
+  </si>
+  <si>
+    <t>插入</t>
+  </si>
+  <si>
+    <t>合并</t>
+  </si>
+  <si>
+    <t>更新</t>
+  </si>
+  <si>
+    <t>修改的</t>
+  </si>
+  <si>
+    <t>修改者</t>
+  </si>
+  <si>
+    <t>金额基本单元</t>
+  </si>
+  <si>
+    <t>计数</t>
+  </si>
+  <si>
+    <t>距离</t>
+  </si>
+  <si>
+    <t>块</t>
+  </si>
+  <si>
+    <t>纯</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>金额该股</t>
+  </si>
+  <si>
+    <t>单位类型</t>
+  </si>
+  <si>
+    <t>体积</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>新密码</t>
+  </si>
+  <si>
+    <t>没有</t>
+  </si>
+  <si>
+    <t>要么</t>
+  </si>
+  <si>
+    <t>组织</t>
+  </si>
+  <si>
+    <t>双因素认证（2FA）</t>
+  </si>
+  <si>
+    <t>密码错误。</t>
+  </si>
+  <si>
+    <t>密码必须具有至少一个数字（“0” - “9”）。</t>
+  </si>
+  <si>
+    <t>密码必须至少有一个小写字母（“A” - “Z”）。</t>
+  </si>
+  <si>
+    <t>密码必须至少有一个非字母数字字符。</t>
+  </si>
+  <si>
+    <t>密码必须使用至少{0}不同的字符。</t>
+  </si>
+  <si>
+    <t>密码必须至少有一个大写（“A” - “Z”）。</t>
+  </si>
+  <si>
+    <t>密码必须至少为{0}字符。</t>
+  </si>
+  <si>
+    <t>允许</t>
+  </si>
+  <si>
+    <t>行动</t>
+  </si>
+  <si>
+    <t>创造</t>
+  </si>
+  <si>
+    <t>标准</t>
+  </si>
+  <si>
+    <t>激活/停用</t>
+  </si>
+  <si>
+    <t>面具</t>
+  </si>
+  <si>
+    <t>读</t>
+  </si>
+  <si>
+    <t>读取和创建</t>
+  </si>
+  <si>
+    <t>角色</t>
+  </si>
+  <si>
+    <t>标志</t>
+  </si>
+  <si>
+    <t>视图</t>
+  </si>
+  <si>
+    <t>权限</t>
+  </si>
+  <si>
+    <t>电话号码</t>
+  </si>
+  <si>
+    <t>请确认</t>
+  </si>
+  <si>
+    <t>隐私政策</t>
+  </si>
+  <si>
+    <t>产品类别</t>
+  </si>
+  <si>
+    <t>产品分类</t>
+  </si>
+  <si>
+    <t>恢复码</t>
+  </si>
+  <si>
+    <t>恢复代码赎回失败。</t>
+  </si>
+  <si>
+    <t>恢复代码</t>
+  </si>
+  <si>
+    <t>剩余的恢复代码：{0}</t>
+  </si>
+  <si>
+    <t>如果你失去了你的身份验证的应用程序，你没有恢复代码，你将无法访问您的帐户。</t>
+  </si>
+  <si>
+    <t>把这些代码在一个安全的地方。</t>
+  </si>
+  <si>
+    <t>恢复验证码</t>
+  </si>
+  <si>
+    <t>您已请求与恢复码登录。本次会议将不会被记住，直到您提供一个认证应用程序代码或禁用双因素身份验证和重新登录。</t>
+  </si>
+  <si>
+    <t>您的外部登录插件</t>
+  </si>
+  <si>
+    <t>记住账号？</t>
+  </si>
+  <si>
+    <t>请记住这个浏览器</t>
+  </si>
+  <si>
+    <t>删除{0}从您的帐户登录</t>
+  </si>
+  <si>
+    <t>{0}字段是必需的。</t>
+  </si>
+  <si>
+    <t>重置身份验证密钥</t>
+  </si>
+  <si>
+    <t>这个过程将禁用2FA你必须先验证身份验证的应用程序。如果你没有完成身份验证的应用程序的配置，你可能无法访问您的帐户。</t>
+  </si>
+  <si>
+    <t>如果您重置您的认证密钥的认证的应用程序将无法正常工作，直到你重新配置。</t>
+  </si>
+  <si>
+    <t>重置我的密码</t>
+  </si>
+  <si>
+    <t>重置密码确认</t>
+  </si>
+  <si>
+    <t>您的密码已重置，请点击下面登录</t>
+  </si>
+  <si>
+    <t>请通过&lt;a href='{0}'&gt;点击这里&lt;/a&gt;重置您的密码。</t>
+  </si>
+  <si>
+    <t>重置恢复代码</t>
+  </si>
+  <si>
+    <t>重置您的密码</t>
+  </si>
+  <si>
+    <t>是公共</t>
+  </si>
+  <si>
+    <t>用户</t>
+  </si>
+  <si>
+    <t>行{0}</t>
+  </si>
+  <si>
+    <t>救</t>
+  </si>
+  <si>
+    <t>设置密码</t>
+  </si>
+  <si>
+    <t>你不必为这个应用程序的本地用户名/密码。添加本地密码，这样你就可以登录，无需外部登录提供商。</t>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>品牌颜色</t>
+  </si>
+  <si>
+    <t>主要语言</t>
+  </si>
+  <si>
+    <t>主要语言符号</t>
+  </si>
+  <si>
+    <t>在供应</t>
+  </si>
+  <si>
+    <t>允许用户输入2种语言的数据和查看报表</t>
+  </si>
+  <si>
+    <t>第二语言符号</t>
+  </si>
+  <si>
+    <t>公司简称</t>
+  </si>
+  <si>
+    <t>签名</t>
+  </si>
+  <si>
+    <t>登入</t>
+  </si>
+  <si>
+    <t>使用您的{0}帐户</t>
+  </si>
+  <si>
+    <t>拍在与{0}</t>
+  </si>
+  <si>
+    <t>登出</t>
+  </si>
+  <si>
+    <t>注销确认</t>
+  </si>
+  <si>
+    <t>现在您已退出</t>
+  </si>
+  <si>
+    <t>你想退出的{0}？</t>
+  </si>
+  <si>
+    <t>州</t>
+  </si>
+  <si>
+    <t>字段{0}必须用的最大长度的字符串{1}</t>
+  </si>
+  <si>
+    <t>字段{0}必须至少{2}和在最大{1}个字符长。</t>
+  </si>
+  <si>
+    <t>文化</t>
+  </si>
+  <si>
+    <t>一级</t>
+  </si>
+  <si>
+    <t>值</t>
+  </si>
+  <si>
+    <t>服务条款</t>
+  </si>
+  <si>
+    <t>目前的浏览器已经被遗忘了。当你从这个浏览器再次登录系统将提示您为您的2FA代码。</t>
+  </si>
+  <si>
+    <t>加入外部登录。</t>
+  </si>
+  <si>
+    <t>外部登录已被删除。</t>
+  </si>
+  <si>
+    <t>亲</t>
+  </si>
+  <si>
+    <t>推特</t>
+  </si>
+  <si>
+    <t>双因素验证</t>
+  </si>
+  <si>
+    <t>您的账号已被保护与验证的应用程序。请在下面输入您的认证码</t>
+  </si>
+  <si>
+    <t>不要访问您的认证设备？若要恢复码登录</t>
+  </si>
+  <si>
+    <t>2FA已被禁用。通过建立一个认证程序，你可以重新启用2FA</t>
+  </si>
+  <si>
+    <t>公司</t>
+  </si>
+  <si>
+    <t>确认</t>
+  </si>
+  <si>
+    <t>最近活动</t>
+  </si>
+  <si>
+    <t>邀请</t>
+  </si>
+  <si>
+    <t>用户已经设置密码。</t>
+  </si>
+  <si>
+    <t>用户已经在角色“{0}”。</t>
+  </si>
+  <si>
+    <t>锁定不为该用户启用。</t>
+  </si>
+  <si>
+    <t>用户名</t>
+  </si>
+  <si>
+    <t>用户不在角色“{0}”。</t>
+  </si>
+  <si>
+    <t>验证码</t>
+  </si>
+  <si>
+    <t>验证码无效。</t>
+  </si>
+  <si>
+    <t>校验</t>
+  </si>
+  <si>
+    <t>所有</t>
+  </si>
+  <si>
+    <t>查看</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>你已经产生了新的恢复代码。</t>
+  </si>
+  <si>
+    <t>您的身份验证器应用中得到验证。</t>
+  </si>
+  <si>
+    <t>您的认证应用程序键已被重置，则需要使用新密钥配置您的身份验证器应用。</t>
+  </si>
+  <si>
+    <t>您的密码已被更改。</t>
+  </si>
+  <si>
+    <t>您的密码已设置。</t>
+  </si>
+  <si>
+    <t>你的个人资料已经更新。</t>
+  </si>
+  <si>
+    <t>你应该生成一组新的恢复代码。</t>
+  </si>
+  <si>
+    <t>数据点的数超过了最大的{0}。</t>
+  </si>
+  <si>
+    <t>删除</t>
+  </si>
+  <si>
+    <t>服务器名称</t>
+  </si>
+  <si>
+    <t>密码按键</t>
+  </si>
+  <si>
+    <t>数据库名称</t>
+  </si>
+  <si>
+    <t>服务器</t>
+  </si>
+  <si>
+    <t>电子邮件“{0}”被复制。</t>
+  </si>
+  <si>
+    <t>首选语言</t>
+  </si>
+  <si>
+    <t>三元语言</t>
+  </si>
+  <si>
+    <t>三元语言符号</t>
+  </si>
+  <si>
+    <t>用户“{0}”已经接受了邀请。</t>
+  </si>
+  <si>
+    <t>角色“{0}”无效。</t>
+  </si>
+  <si>
+    <t>ID为角色“{0}”不存在或已被删除。</t>
+  </si>
+  <si>
+    <t>为叶子</t>
+  </si>
+  <si>
+    <t>货币 '{0}' 中使用的{1} '{2}'</t>
+  </si>
+  <si>
+    <t>货币</t>
+  </si>
+  <si>
+    <t>小数位数</t>
+  </si>
+  <si>
+    <t>在{0}“{1}”在一个或多个文档使用</t>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>质量单位</t>
+  </si>
+  <si>
+    <t>体积单位</t>
+  </si>
+  <si>
+    <t>面积单位</t>
+  </si>
+  <si>
+    <t>长度单位</t>
+  </si>
+  <si>
+    <t>时间单位</t>
+  </si>
+  <si>
+    <t>计数单元</t>
+  </si>
+  <si>
+    <t>海关参考</t>
+  </si>
+  <si>
+    <t>资源查找1</t>
+  </si>
+  <si>
+    <t>资源查找2</t>
+  </si>
+  <si>
+    <t>资源查找3</t>
+  </si>
+  <si>
+    <t>资源查找4</t>
+  </si>
+  <si>
+    <t>操作</t>
+  </si>
+  <si>
+    <t>启用</t>
+  </si>
+  <si>
+    <t>管理</t>
+  </si>
+  <si>
+    <t>品牌</t>
+  </si>
+  <si>
+    <t>更改公司</t>
+  </si>
+  <si>
+    <t>检查您的登录会话</t>
+  </si>
+  <si>
+    <t>清除过滤器</t>
+  </si>
+  <si>
+    <t>克隆</t>
+  </si>
+  <si>
+    <t>连</t>
+  </si>
+  <si>
+    <t>版权所有？保留{{一年}}巴南IT有限公司保留所有权利。</t>
+  </si>
+  <si>
+    <t>由我创建</t>
+  </si>
+  <si>
+    <t>创建选项</t>
+  </si>
+  <si>
+    <t>你喜欢什么类型的记录的创造？</t>
+  </si>
+  <si>
+    <t>自定义过滤器</t>
+  </si>
+  <si>
+    <t>停用</t>
+  </si>
+  <si>
+    <t>你确定要删除{{count}}个项目？这个动作是不可逆的。</t>
+  </si>
+  <si>
+    <t>有成群的删除</t>
+  </si>
+  <si>
+    <t>你确定要删除{{count}}个项目与所有他们的后裔？这个动作是不可逆的。</t>
+  </si>
+  <si>
+    <t>你确定要删除这个项目吗？这个动作是不可逆的。</t>
+  </si>
+  <si>
+    <t>解雇</t>
+  </si>
+  <si>
+    <t>下载模板</t>
+  </si>
+  <si>
+    <t>编辑</t>
+  </si>
+  <si>
+    <t>编辑列</t>
+  </si>
+  <si>
+    <t>错误</t>
+  </si>
+  <si>
+    <t>您的帐户没有足够的权限</t>
+  </si>
+  <si>
+    <t>不活动的项目无法进行编辑，请先激活它。</t>
+  </si>
+  <si>
+    <t>您选择的文件超过{{MAXSIZE}} MB的最大允许大小</t>
+  </si>
+  <si>
+    <t>错误加载公司设置</t>
+  </si>
+  <si>
+    <t>错误加载系统设置</t>
+  </si>
+  <si>
+    <t>您的会话已过期，请重新登入</t>
+  </si>
+  <si>
+    <t>404页面不存在</t>
+  </si>
+  <si>
+    <t>这个环节被打破，没有指向有效的网页。</t>
+  </si>
+  <si>
+    <t>指定的记录没有被发现。</t>
+  </si>
+  <si>
+    <t>无法连接到服务器，请检查您的设备的连接</t>
+  </si>
+  <si>
+    <t>无法验证您的凭据，这可能是由于错误配置的系统</t>
+  </si>
+  <si>
+    <t>您的帐户不再是这家公司的一员。</t>
+  </si>
+  <si>
+    <t>在服务器上出现未处理的错误，请联系您的IT部门。</t>
+  </si>
+  <si>
+    <t>在客户端上出现未知错误，请联系您的IT部门。</t>
+  </si>
+  <si>
+    <t>在服务器上出现未知错误，请联系您的IT部门。</t>
+  </si>
+  <si>
+    <t>高强</t>
+  </si>
+  <si>
+    <t>出口</t>
+  </si>
+  <si>
+    <t>出口范围</t>
+  </si>
+  <si>
+    <t>过滤</t>
+  </si>
+  <si>
+    <t>金融</t>
+  </si>
+  <si>
+    <t>第一</t>
+  </si>
+  <si>
+    <t>格式</t>
+  </si>
+  <si>
+    <t>通用设置</t>
+  </si>
+  <si>
+    <t>回去</t>
+  </si>
+  <si>
+    <t>转到{{APPNAME}}</t>
+  </si>
+  <si>
+    <t>Internet Explorer不支持使用的现代网络标准{{APPNAME}}</t>
+  </si>
+  <si>
+    <t>进口</t>
+  </si>
+  <si>
+    <t>导入文件</t>
+  </si>
+  <si>
+    <t>导入的文件没有通过验证，见下文</t>
+  </si>
+  <si>
+    <t>成功插入{{插入的}}记录（S），并在{{秒}}秒更新{{更新}}结果</t>
+  </si>
+  <si>
+    <t>下载模板文件，并填写您的数据：</t>
+  </si>
+  <si>
+    <t>指定导入模式，然后将文件上传回：</t>
+  </si>
+  <si>
+    <t>包含非活动状态</t>
+  </si>
+  <si>
+    <t>失效日期</t>
+  </si>
+  <si>
+    <t>不合规电邮</t>
+  </si>
+  <si>
+    <t>邀请电子邮件已重新发送</t>
+  </si>
+  <si>
+    <t>新一代ERP软件企业</t>
+  </si>
+  <si>
+    <t>获取更多与{{APPNAME}}</t>
+  </si>
+  <si>
+    <t>名单</t>
+  </si>
+  <si>
+    <t>载入中</t>
+  </si>
+  <si>
+    <t>加载公司设置</t>
+  </si>
+  <si>
+    <t>加载系统设置</t>
+  </si>
+  <si>
+    <t>只有{{最大值}}项目可以同时输出</t>
+  </si>
+  <si>
+    <t>模式</t>
+  </si>
+  <si>
+    <t>我{{占位符}}帐户</t>
+  </si>
+  <si>
+    <t>我的公司</t>
+  </si>
+  <si>
+    <t>新</t>
+  </si>
+  <si>
+    <t>新队</t>
+  </si>
+  <si>
+    <t>一个新的版本可用！</t>
+  </si>
+  <si>
+    <t>下一个</t>
+  </si>
+  <si>
+    <t>未找到任何项目。</t>
+  </si>
+  <si>
+    <t>不公开</t>
+  </si>
+  <si>
+    <t>{{计数}}选择项目</t>
+  </si>
+  <si>
+    <t>以前</t>
+  </si>
+  <si>
+    <t>继续</t>
+  </si>
+  <si>
+    <t>上市</t>
+  </si>
+  <si>
+    <t>警告！这个角色是公共的，因此这里的权限授予所有用户</t>
+  </si>
+  <si>
+    <t>快速访问</t>
+  </si>
+  <si>
+    <t>重定向到登录页面</t>
+  </si>
+  <si>
+    <t>重定向到注销页面</t>
+  </si>
+  <si>
+    <t>刷新</t>
+  </si>
+  <si>
+    <t>必填项目</t>
+  </si>
+  <si>
+    <t>重新发出邀请</t>
+  </si>
+  <si>
+    <t>限制信息</t>
+  </si>
+  <si>
+    <t>搜索</t>
+  </si>
+  <si>
+    <t>导航栏在用户界面的顶部的颜色</t>
+  </si>
+  <si>
+    <t>这个符号区分双语领域的语言</t>
+  </si>
+  <si>
+    <t>数据录入使用这种语言要求</t>
+  </si>
+  <si>
+    <t>这会出现在用户屏幕上的公司名称</t>
+  </si>
+  <si>
+    <t>莫</t>
+  </si>
+  <si>
+    <t>涂</t>
+  </si>
+  <si>
+    <t>我们</t>
+  </si>
+  <si>
+    <t>钍</t>
+  </si>
+  <si>
+    <t>神父</t>
+  </si>
+  <si>
+    <t>萨</t>
+  </si>
+  <si>
+    <t>苏</t>
+  </si>
+  <si>
+    <t>一月</t>
+  </si>
+  <si>
+    <t>十月</t>
+  </si>
+  <si>
+    <t>十一月</t>
+  </si>
+  <si>
+    <t>十二月</t>
+  </si>
+  <si>
+    <t>二月</t>
+  </si>
+  <si>
+    <t>损伤</t>
+  </si>
+  <si>
+    <t>四月</t>
+  </si>
+  <si>
+    <t>可以</t>
+  </si>
+  <si>
+    <t>君</t>
+  </si>
+  <si>
+    <t>七月</t>
+  </si>
+  <si>
+    <t>八月</t>
+  </si>
+  <si>
+    <t>九月</t>
+  </si>
+  <si>
+    <t>第1步</t>
+  </si>
+  <si>
+    <t>第2步</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>表</t>
+  </si>
+  <si>
+    <t>模板</t>
+  </si>
+  <si>
+    <t>瓷砖</t>
+  </si>
+  <si>
+    <t>树</t>
+  </si>
+  <si>
+    <t>再试一次</t>
+  </si>
+  <si>
+    <t>擅自</t>
+  </si>
+  <si>
+    <t>撤销删除</t>
+  </si>
+  <si>
+    <t>你未保存的更改都将被丢弃，你确定你想继续吗？</t>
+  </si>
+  <si>
+    <t>注：邀请电子邮件将被发送到“{{EMAIL}}”一旦你保存这个文件。</t>
+  </si>
+  <si>
+    <t>欢迎页面</t>
+  </si>
+  <si>
+    <t>我们建议您升级到最新的Chrome，Firefox或边缘</t>
+  </si>
+  <si>
+    <t>没有图片</t>
+  </si>
+  <si>
+    <t>随着图片</t>
+  </si>
+  <si>
+    <t>你是不是目前任何一家公司中的一员。</t>
+  </si>
+  <si>
+    <t>创建用户...</t>
+  </si>
+  <si>
+    <t>杂</t>
+  </si>
+  <si>
+    <t>无标题</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>搜索选项</t>
+  </si>
+  <si>
+    <t>你要哪一种记录进行搜索吗？</t>
+  </si>
+  <si>
+    <t>Settings_TernaryLanguageDescription</t>
+  </si>
+  <si>
+    <t>Secondary Language</t>
+  </si>
+  <si>
+    <t>Allows users to enter data and view reports in 3 languages</t>
+  </si>
+  <si>
+    <t>تتيح للمستخدمين إدخال البيانات واستعراض التقارير بثلاث لغات</t>
+  </si>
+  <si>
+    <t>允许用户输入3种语言的数据和查看报表</t>
+  </si>
+  <si>
+    <t>敏锐</t>
+  </si>
+  <si>
+    <t>机</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3856,6 +5176,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3893,9 +5219,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4210,12 +5539,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FEE134-3B22-427F-8E5A-2A7F994BE2AC}">
-  <dimension ref="A1:F461"/>
+  <dimension ref="A1:G464"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A446" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D465" sqref="D465"/>
+      <selection pane="bottomLeft" activeCell="F296" sqref="F296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4224,11 +5553,12 @@
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="80.42578125" customWidth="1"/>
-    <col min="6" max="6" width="92.85546875" customWidth="1"/>
+    <col min="5" max="5" width="53.42578125" customWidth="1"/>
+    <col min="6" max="6" width="56.140625" customWidth="1"/>
+    <col min="7" max="7" width="54.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4247,8 +5577,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>888</v>
       </c>
@@ -4264,8 +5597,11 @@
       <c r="F2" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -4281,8 +5617,11 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -4298,8 +5637,11 @@
       <c r="F4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -4315,8 +5657,11 @@
       <c r="F5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -4332,8 +5677,11 @@
       <c r="F6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -4349,8 +5697,11 @@
       <c r="F7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -4366,8 +5717,11 @@
       <c r="F8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -4383,8 +5737,11 @@
       <c r="F9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -4400,8 +5757,11 @@
       <c r="F10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -4417,8 +5777,11 @@
       <c r="F11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -4434,8 +5797,11 @@
       <c r="F12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -4451,8 +5817,11 @@
       <c r="F13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -4468,8 +5837,11 @@
       <c r="F14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -4485,8 +5857,11 @@
       <c r="F15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -4502,8 +5877,11 @@
       <c r="F16" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -4519,8 +5897,11 @@
       <c r="F17" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -4536,8 +5917,11 @@
       <c r="F18" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -4553,8 +5937,11 @@
       <c r="F19" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -4570,8 +5957,11 @@
       <c r="F20" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -4587,8 +5977,11 @@
       <c r="F21" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -4604,8 +5997,11 @@
       <c r="F22" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -4621,8 +6017,11 @@
       <c r="F23" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -4638,8 +6037,11 @@
       <c r="F24" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -4655,8 +6057,11 @@
       <c r="F25" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -4672,8 +6077,11 @@
       <c r="F26" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>74</v>
       </c>
@@ -4689,8 +6097,11 @@
       <c r="F27" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -4706,8 +6117,11 @@
       <c r="F28" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>80</v>
       </c>
@@ -4723,8 +6137,11 @@
       <c r="F29" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>83</v>
       </c>
@@ -4740,8 +6157,11 @@
       <c r="F30" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -4757,8 +6177,11 @@
       <c r="F31" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>89</v>
       </c>
@@ -4774,8 +6197,11 @@
       <c r="F32" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>92</v>
       </c>
@@ -4791,8 +6217,11 @@
       <c r="F33" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>95</v>
       </c>
@@ -4808,8 +6237,11 @@
       <c r="F34" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>98</v>
       </c>
@@ -4825,8 +6257,11 @@
       <c r="F35" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>101</v>
       </c>
@@ -4842,8 +6277,11 @@
       <c r="F36" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>104</v>
       </c>
@@ -4859,8 +6297,11 @@
       <c r="F37" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>107</v>
       </c>
@@ -4876,8 +6317,11 @@
       <c r="F38" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>110</v>
       </c>
@@ -4893,8 +6337,11 @@
       <c r="F39" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>113</v>
       </c>
@@ -4910,8 +6357,11 @@
       <c r="F40" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>115</v>
       </c>
@@ -4927,8 +6377,11 @@
       <c r="F41" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>117</v>
       </c>
@@ -4944,8 +6397,11 @@
       <c r="F42" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>120</v>
       </c>
@@ -4961,8 +6417,11 @@
       <c r="F43" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>123</v>
       </c>
@@ -4978,8 +6437,11 @@
       <c r="F44" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>125</v>
       </c>
@@ -4995,8 +6457,11 @@
       <c r="F45" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -5012,8 +6477,11 @@
       <c r="F46" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>129</v>
       </c>
@@ -5029,8 +6497,11 @@
       <c r="F47" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>131</v>
       </c>
@@ -5046,8 +6517,11 @@
       <c r="F48" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>134</v>
       </c>
@@ -5063,8 +6537,11 @@
       <c r="F49" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>137</v>
       </c>
@@ -5080,8 +6557,11 @@
       <c r="F50" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>140</v>
       </c>
@@ -5097,8 +6577,11 @@
       <c r="F51" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>143</v>
       </c>
@@ -5114,8 +6597,11 @@
       <c r="F52" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>146</v>
       </c>
@@ -5131,8 +6617,11 @@
       <c r="F53" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>148</v>
       </c>
@@ -5148,8 +6637,11 @@
       <c r="F54" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>151</v>
       </c>
@@ -5165,8 +6657,11 @@
       <c r="F55" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>154</v>
       </c>
@@ -5182,8 +6677,11 @@
       <c r="F56" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>157</v>
       </c>
@@ -5199,8 +6697,11 @@
       <c r="F57" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>160</v>
       </c>
@@ -5216,8 +6717,11 @@
       <c r="F58" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>161</v>
       </c>
@@ -5233,8 +6737,11 @@
       <c r="F59" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>164</v>
       </c>
@@ -5250,8 +6757,11 @@
       <c r="F60" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>167</v>
       </c>
@@ -5267,8 +6777,11 @@
       <c r="F61" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>170</v>
       </c>
@@ -5284,8 +6797,11 @@
       <c r="F62" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>173</v>
       </c>
@@ -5301,8 +6817,11 @@
       <c r="F63" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>176</v>
       </c>
@@ -5318,8 +6837,11 @@
       <c r="F64" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>179</v>
       </c>
@@ -5335,8 +6857,11 @@
       <c r="F65" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>182</v>
       </c>
@@ -5352,8 +6877,11 @@
       <c r="F66" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>185</v>
       </c>
@@ -5369,8 +6897,11 @@
       <c r="F67" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>188</v>
       </c>
@@ -5386,8 +6917,11 @@
       <c r="F68" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>191</v>
       </c>
@@ -5403,8 +6937,11 @@
       <c r="F69" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>194</v>
       </c>
@@ -5420,8 +6957,11 @@
       <c r="F70" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>197</v>
       </c>
@@ -5437,8 +6977,11 @@
       <c r="F71" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>200</v>
       </c>
@@ -5454,8 +6997,11 @@
       <c r="F72" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>203</v>
       </c>
@@ -5471,8 +7017,11 @@
       <c r="F73" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>206</v>
       </c>
@@ -5488,8 +7037,11 @@
       <c r="F74" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>209</v>
       </c>
@@ -5505,8 +7057,11 @@
       <c r="F75" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>212</v>
       </c>
@@ -5522,8 +7077,11 @@
       <c r="F76" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>215</v>
       </c>
@@ -5539,8 +7097,11 @@
       <c r="F77" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>218</v>
       </c>
@@ -5556,8 +7117,11 @@
       <c r="F78" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>221</v>
       </c>
@@ -5573,8 +7137,11 @@
       <c r="F79" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>224</v>
       </c>
@@ -5590,8 +7157,11 @@
       <c r="F80" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>227</v>
       </c>
@@ -5607,8 +7177,11 @@
       <c r="F81" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>230</v>
       </c>
@@ -5624,8 +7197,11 @@
       <c r="F82" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>233</v>
       </c>
@@ -5641,8 +7217,11 @@
       <c r="F83" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>236</v>
       </c>
@@ -5658,8 +7237,11 @@
       <c r="F84" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>239</v>
       </c>
@@ -5675,8 +7257,11 @@
       <c r="F85" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>242</v>
       </c>
@@ -5692,8 +7277,11 @@
       <c r="F86" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>245</v>
       </c>
@@ -5709,8 +7297,11 @@
       <c r="F87" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>248</v>
       </c>
@@ -5726,8 +7317,11 @@
       <c r="F88" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>251</v>
       </c>
@@ -5743,8 +7337,11 @@
       <c r="F89" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>254</v>
       </c>
@@ -5760,8 +7357,11 @@
       <c r="F90" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>257</v>
       </c>
@@ -5777,8 +7377,11 @@
       <c r="F91" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G91" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>260</v>
       </c>
@@ -5794,8 +7397,11 @@
       <c r="F92" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>262</v>
       </c>
@@ -5811,8 +7417,11 @@
       <c r="F93" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G93" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>265</v>
       </c>
@@ -5828,8 +7437,11 @@
       <c r="F94" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>268</v>
       </c>
@@ -5845,8 +7457,11 @@
       <c r="F95" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G95" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>271</v>
       </c>
@@ -5862,8 +7477,11 @@
       <c r="F96" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G96" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>274</v>
       </c>
@@ -5879,8 +7497,11 @@
       <c r="F97" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G97" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>277</v>
       </c>
@@ -5896,8 +7517,11 @@
       <c r="F98" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G98" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>280</v>
       </c>
@@ -5913,8 +7537,11 @@
       <c r="F99" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G99" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>283</v>
       </c>
@@ -5930,8 +7557,11 @@
       <c r="F100" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G100" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>286</v>
       </c>
@@ -5947,8 +7577,11 @@
       <c r="F101" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G101" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>289</v>
       </c>
@@ -5964,8 +7597,11 @@
       <c r="F102" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G102" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>292</v>
       </c>
@@ -5981,8 +7617,11 @@
       <c r="F103" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G103" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>294</v>
       </c>
@@ -5998,8 +7637,11 @@
       <c r="F104" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G104" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>297</v>
       </c>
@@ -6015,8 +7657,11 @@
       <c r="F105" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G105" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>300</v>
       </c>
@@ -6032,8 +7677,11 @@
       <c r="F106" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G106" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>303</v>
       </c>
@@ -6049,8 +7697,11 @@
       <c r="F107" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G107" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>306</v>
       </c>
@@ -6066,8 +7717,11 @@
       <c r="F108" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G108" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>309</v>
       </c>
@@ -6083,8 +7737,11 @@
       <c r="F109" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G109" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>312</v>
       </c>
@@ -6100,8 +7757,11 @@
       <c r="F110" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G110" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>314</v>
       </c>
@@ -6117,8 +7777,11 @@
       <c r="F111" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G111" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>317</v>
       </c>
@@ -6134,8 +7797,11 @@
       <c r="F112" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G112" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>319</v>
       </c>
@@ -6151,8 +7817,11 @@
       <c r="F113" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G113" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>322</v>
       </c>
@@ -6168,8 +7837,11 @@
       <c r="F114" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G114" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>325</v>
       </c>
@@ -6185,8 +7857,11 @@
       <c r="F115" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G115" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>328</v>
       </c>
@@ -6202,8 +7877,11 @@
       <c r="F116" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G116" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>331</v>
       </c>
@@ -6219,8 +7897,11 @@
       <c r="F117" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G117" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>334</v>
       </c>
@@ -6236,8 +7917,11 @@
       <c r="F118" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G118" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>337</v>
       </c>
@@ -6253,8 +7937,11 @@
       <c r="F119" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G119" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>340</v>
       </c>
@@ -6270,8 +7957,11 @@
       <c r="F120" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G120" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>343</v>
       </c>
@@ -6287,8 +7977,11 @@
       <c r="F121" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G121" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>345</v>
       </c>
@@ -6304,8 +7997,11 @@
       <c r="F122" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G122" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>348</v>
       </c>
@@ -6321,8 +8017,11 @@
       <c r="F123" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G123" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>351</v>
       </c>
@@ -6338,8 +8037,11 @@
       <c r="F124" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G124" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>354</v>
       </c>
@@ -6355,8 +8057,11 @@
       <c r="F125" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G125" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>357</v>
       </c>
@@ -6372,8 +8077,11 @@
       <c r="F126" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G126" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>360</v>
       </c>
@@ -6389,8 +8097,11 @@
       <c r="F127" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G127" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>363</v>
       </c>
@@ -6406,8 +8117,11 @@
       <c r="F128" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G128" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>366</v>
       </c>
@@ -6423,8 +8137,11 @@
       <c r="F129" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G129" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>369</v>
       </c>
@@ -6440,8 +8157,11 @@
       <c r="F130" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G130" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>372</v>
       </c>
@@ -6457,8 +8177,11 @@
       <c r="F131" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G131" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>375</v>
       </c>
@@ -6474,8 +8197,11 @@
       <c r="F132" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G132" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>378</v>
       </c>
@@ -6491,8 +8217,11 @@
       <c r="F133" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G133" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>381</v>
       </c>
@@ -6508,8 +8237,11 @@
       <c r="F134" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G134" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>383</v>
       </c>
@@ -6525,8 +8257,11 @@
       <c r="F135" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G135" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>385</v>
       </c>
@@ -6542,8 +8277,11 @@
       <c r="F136" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G136" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>388</v>
       </c>
@@ -6559,8 +8297,11 @@
       <c r="F137" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G137" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>391</v>
       </c>
@@ -6576,8 +8317,11 @@
       <c r="F138" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G138" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>394</v>
       </c>
@@ -6593,8 +8337,11 @@
       <c r="F139" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G139" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>397</v>
       </c>
@@ -6610,8 +8357,11 @@
       <c r="F140" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G140" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>400</v>
       </c>
@@ -6627,8 +8377,11 @@
       <c r="F141" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G141" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>402</v>
       </c>
@@ -6644,8 +8397,11 @@
       <c r="F142" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G142" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>404</v>
       </c>
@@ -6661,8 +8417,11 @@
       <c r="F143" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G143" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>407</v>
       </c>
@@ -6678,8 +8437,11 @@
       <c r="F144" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G144" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>410</v>
       </c>
@@ -6695,8 +8457,11 @@
       <c r="F145" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G145" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>413</v>
       </c>
@@ -6712,8 +8477,11 @@
       <c r="F146" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G146" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>416</v>
       </c>
@@ -6729,8 +8497,11 @@
       <c r="F147" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G147" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>418</v>
       </c>
@@ -6746,8 +8517,11 @@
       <c r="F148" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G148" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>421</v>
       </c>
@@ -6763,8 +8537,11 @@
       <c r="F149" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G149" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>424</v>
       </c>
@@ -6780,8 +8557,11 @@
       <c r="F150" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G150" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>427</v>
       </c>
@@ -6797,8 +8577,11 @@
       <c r="F151" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G151" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>430</v>
       </c>
@@ -6814,8 +8597,11 @@
       <c r="F152" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G152" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>433</v>
       </c>
@@ -6831,8 +8617,11 @@
       <c r="F153" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G153" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>436</v>
       </c>
@@ -6848,8 +8637,11 @@
       <c r="F154" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G154" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>439</v>
       </c>
@@ -6865,8 +8657,11 @@
       <c r="F155" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G155" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>442</v>
       </c>
@@ -6882,8 +8677,11 @@
       <c r="F156" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G156" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>445</v>
       </c>
@@ -6899,8 +8697,11 @@
       <c r="F157" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G157" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>448</v>
       </c>
@@ -6916,8 +8717,11 @@
       <c r="F158" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G158" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>451</v>
       </c>
@@ -6933,8 +8737,11 @@
       <c r="F159" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G159" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>454</v>
       </c>
@@ -6950,8 +8757,11 @@
       <c r="F160" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G160" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>457</v>
       </c>
@@ -6967,8 +8777,11 @@
       <c r="F161" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G161" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>8</v>
       </c>
@@ -6984,8 +8797,11 @@
       <c r="F162" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G162" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>460</v>
       </c>
@@ -7001,8 +8817,11 @@
       <c r="F163" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G163" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>463</v>
       </c>
@@ -7018,8 +8837,11 @@
       <c r="F164" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G164" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>465</v>
       </c>
@@ -7035,8 +8857,11 @@
       <c r="F165" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G165" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>467</v>
       </c>
@@ -7052,8 +8877,11 @@
       <c r="F166" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G166" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>470</v>
       </c>
@@ -7069,8 +8897,11 @@
       <c r="F167" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G167" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>409</v>
       </c>
@@ -7086,8 +8917,11 @@
       <c r="F168" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G168" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>472</v>
       </c>
@@ -7103,8 +8937,11 @@
       <c r="F169" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G169" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>475</v>
       </c>
@@ -7120,8 +8957,11 @@
       <c r="F170" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G170" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>478</v>
       </c>
@@ -7137,8 +8977,11 @@
       <c r="F171" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G171" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>481</v>
       </c>
@@ -7154,8 +8997,11 @@
       <c r="F172" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G172" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>484</v>
       </c>
@@ -7171,8 +9017,11 @@
       <c r="F173" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G173" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>487</v>
       </c>
@@ -7188,8 +9037,11 @@
       <c r="F174" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G174" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>490</v>
       </c>
@@ -7205,8 +9057,11 @@
       <c r="F175" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G175" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>493</v>
       </c>
@@ -7222,8 +9077,11 @@
       <c r="F176" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G176" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>495</v>
       </c>
@@ -7239,8 +9097,11 @@
       <c r="F177" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G177" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>498</v>
       </c>
@@ -7256,8 +9117,11 @@
       <c r="F178" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G178" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>501</v>
       </c>
@@ -7273,8 +9137,11 @@
       <c r="F179" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G179" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>504</v>
       </c>
@@ -7290,8 +9157,11 @@
       <c r="F180" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G180" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>507</v>
       </c>
@@ -7307,8 +9177,11 @@
       <c r="F181" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G181" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>510</v>
       </c>
@@ -7324,8 +9197,11 @@
       <c r="F182" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G182" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>513</v>
       </c>
@@ -7341,8 +9217,11 @@
       <c r="F183" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G183" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>516</v>
       </c>
@@ -7358,8 +9237,11 @@
       <c r="F184" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G184" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>519</v>
       </c>
@@ -7375,8 +9257,11 @@
       <c r="F185" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G185" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>522</v>
       </c>
@@ -7392,8 +9277,11 @@
       <c r="F186" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G186" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>523</v>
       </c>
@@ -7409,8 +9297,11 @@
       <c r="F187" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G187" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>526</v>
       </c>
@@ -7426,8 +9317,11 @@
       <c r="F188" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G188" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>528</v>
       </c>
@@ -7443,8 +9337,11 @@
       <c r="F189" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G189" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>531</v>
       </c>
@@ -7460,8 +9357,11 @@
       <c r="F190" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G190" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>534</v>
       </c>
@@ -7477,8 +9377,11 @@
       <c r="F191" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G191" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>537</v>
       </c>
@@ -7494,8 +9397,11 @@
       <c r="F192" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G192" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>540</v>
       </c>
@@ -7511,8 +9417,11 @@
       <c r="F193" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G193" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>543</v>
       </c>
@@ -7528,8 +9437,11 @@
       <c r="F194" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G194" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>546</v>
       </c>
@@ -7545,8 +9457,11 @@
       <c r="F195" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G195" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>549</v>
       </c>
@@ -7562,8 +9477,11 @@
       <c r="F196" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G196" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>552</v>
       </c>
@@ -7579,8 +9497,11 @@
       <c r="F197" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G197" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>555</v>
       </c>
@@ -7596,8 +9517,11 @@
       <c r="F198" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G198" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>558</v>
       </c>
@@ -7613,8 +9537,11 @@
       <c r="F199" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G199" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>561</v>
       </c>
@@ -7630,8 +9557,11 @@
       <c r="F200" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G200" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>564</v>
       </c>
@@ -7647,8 +9577,11 @@
       <c r="F201" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G201" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>567</v>
       </c>
@@ -7664,8 +9597,11 @@
       <c r="F202" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G202" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>570</v>
       </c>
@@ -7681,8 +9617,11 @@
       <c r="F203" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G203" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>573</v>
       </c>
@@ -7698,8 +9637,11 @@
       <c r="F204" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G204" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>576</v>
       </c>
@@ -7715,8 +9657,11 @@
       <c r="F205" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G205" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>579</v>
       </c>
@@ -7732,8 +9677,11 @@
       <c r="F206" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G206" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>582</v>
       </c>
@@ -7749,8 +9697,11 @@
       <c r="F207" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G207" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>585</v>
       </c>
@@ -7766,8 +9717,11 @@
       <c r="F208" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G208" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>588</v>
       </c>
@@ -7783,8 +9737,11 @@
       <c r="F209" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G209" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>591</v>
       </c>
@@ -7800,8 +9757,11 @@
       <c r="F210" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G210" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>594</v>
       </c>
@@ -7817,8 +9777,11 @@
       <c r="F211" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G211" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>597</v>
       </c>
@@ -7834,8 +9797,11 @@
       <c r="F212" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G212" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>600</v>
       </c>
@@ -7851,8 +9817,11 @@
       <c r="F213" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G213" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>603</v>
       </c>
@@ -7868,8 +9837,11 @@
       <c r="F214" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G214" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>606</v>
       </c>
@@ -7885,8 +9857,11 @@
       <c r="F215" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G215" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>518</v>
       </c>
@@ -7902,8 +9877,11 @@
       <c r="F216" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G216" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>609</v>
       </c>
@@ -7919,8 +9897,11 @@
       <c r="F217" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G217" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>612</v>
       </c>
@@ -7936,8 +9917,11 @@
       <c r="F218" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G218" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>613</v>
       </c>
@@ -7953,8 +9937,11 @@
       <c r="F219" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G219" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>616</v>
       </c>
@@ -7970,8 +9957,11 @@
       <c r="F220" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G220" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>618</v>
       </c>
@@ -7987,8 +9977,11 @@
       <c r="F221" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G221" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>621</v>
       </c>
@@ -8004,8 +9997,11 @@
       <c r="F222" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G222" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>623</v>
       </c>
@@ -8021,8 +10017,11 @@
       <c r="F223" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G223" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>625</v>
       </c>
@@ -8038,8 +10037,11 @@
       <c r="F224" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G224" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>628</v>
       </c>
@@ -8055,8 +10057,11 @@
       <c r="F225" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G225" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>630</v>
       </c>
@@ -8072,8 +10077,11 @@
       <c r="F226" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G226" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>633</v>
       </c>
@@ -8089,8 +10097,11 @@
       <c r="F227" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G227" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>636</v>
       </c>
@@ -8106,8 +10117,11 @@
       <c r="F228" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G228" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>639</v>
       </c>
@@ -8123,8 +10137,11 @@
       <c r="F229" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G229" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>641</v>
       </c>
@@ -8138,10 +10155,13 @@
         <v>642</v>
       </c>
       <c r="F230" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1701</v>
+      </c>
+      <c r="G230" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>644</v>
       </c>
@@ -8157,8 +10177,11 @@
       <c r="F231" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G231" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>647</v>
       </c>
@@ -8174,8 +10197,11 @@
       <c r="F232" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G232" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>650</v>
       </c>
@@ -8191,8 +10217,11 @@
       <c r="F233" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G233" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>652</v>
       </c>
@@ -8208,8 +10237,11 @@
       <c r="F234" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G234" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>655</v>
       </c>
@@ -8225,8 +10257,11 @@
       <c r="F235" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G235" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>658</v>
       </c>
@@ -8242,8 +10277,11 @@
       <c r="F236" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G236" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>661</v>
       </c>
@@ -8259,8 +10297,11 @@
       <c r="F237" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G237" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>664</v>
       </c>
@@ -8276,8 +10317,11 @@
       <c r="F238" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G238" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>667</v>
       </c>
@@ -8293,8 +10337,11 @@
       <c r="F239" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G239" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>670</v>
       </c>
@@ -8310,8 +10357,11 @@
       <c r="F240" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G240" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>673</v>
       </c>
@@ -8327,8 +10377,11 @@
       <c r="F241" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G241" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>675</v>
       </c>
@@ -8344,8 +10397,11 @@
       <c r="F242" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G242" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>678</v>
       </c>
@@ -8361,8 +10417,11 @@
       <c r="F243" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G243" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>681</v>
       </c>
@@ -8378,8 +10437,11 @@
       <c r="F244" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G244" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>684</v>
       </c>
@@ -8395,8 +10457,11 @@
       <c r="F245" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G245" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>685</v>
       </c>
@@ -8412,8 +10477,11 @@
       <c r="F246" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G246" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>688</v>
       </c>
@@ -8429,8 +10497,11 @@
       <c r="F247" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G247" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>691</v>
       </c>
@@ -8446,8 +10517,11 @@
       <c r="F248" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G248" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>694</v>
       </c>
@@ -8463,8 +10537,11 @@
       <c r="F249" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G249" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>697</v>
       </c>
@@ -8480,8 +10557,11 @@
       <c r="F250" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G250" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>700</v>
       </c>
@@ -8497,8 +10577,11 @@
       <c r="F251" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G251" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>703</v>
       </c>
@@ -8514,8 +10597,11 @@
       <c r="F252" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G252" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>706</v>
       </c>
@@ -8531,8 +10617,11 @@
       <c r="F253" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G253" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>708</v>
       </c>
@@ -8548,8 +10637,11 @@
       <c r="F254" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G254" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>711</v>
       </c>
@@ -8565,8 +10657,11 @@
       <c r="F255" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G255" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>714</v>
       </c>
@@ -8582,8 +10677,11 @@
       <c r="F256" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G256" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>716</v>
       </c>
@@ -8599,8 +10697,11 @@
       <c r="F257" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G257" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>615</v>
       </c>
@@ -8616,8 +10717,11 @@
       <c r="F258" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G258" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>720</v>
       </c>
@@ -8633,8 +10737,11 @@
       <c r="F259" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G259" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>722</v>
       </c>
@@ -8650,8 +10757,11 @@
       <c r="F260" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G260" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>725</v>
       </c>
@@ -8667,8 +10777,11 @@
       <c r="F261" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G261" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>728</v>
       </c>
@@ -8684,8 +10797,11 @@
       <c r="F262" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G262" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>729</v>
       </c>
@@ -8701,8 +10817,11 @@
       <c r="F263" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G263" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>732</v>
       </c>
@@ -8718,8 +10837,11 @@
       <c r="F264" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G264" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>735</v>
       </c>
@@ -8735,8 +10857,11 @@
       <c r="F265" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G265" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>737</v>
       </c>
@@ -8752,8 +10877,11 @@
       <c r="F266" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G266" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>740</v>
       </c>
@@ -8769,8 +10897,11 @@
       <c r="F267" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G267" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>743</v>
       </c>
@@ -8786,8 +10917,11 @@
       <c r="F268" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G268" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>746</v>
       </c>
@@ -8803,8 +10937,11 @@
       <c r="F269" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G269" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>749</v>
       </c>
@@ -8820,8 +10957,11 @@
       <c r="F270" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G270" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>752</v>
       </c>
@@ -8837,8 +10977,11 @@
       <c r="F271" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G271" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>754</v>
       </c>
@@ -8854,8 +10997,11 @@
       <c r="F272" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G272" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>757</v>
       </c>
@@ -8871,8 +11017,11 @@
       <c r="F273" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G273" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>760</v>
       </c>
@@ -8888,8 +11037,11 @@
       <c r="F274" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G274" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>525</v>
       </c>
@@ -8905,8 +11057,11 @@
       <c r="F275" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G275" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>763</v>
       </c>
@@ -8922,8 +11077,11 @@
       <c r="F276" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G276" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>766</v>
       </c>
@@ -8939,8 +11097,11 @@
       <c r="F277" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G277" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>768</v>
       </c>
@@ -8956,8 +11117,11 @@
       <c r="F278" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G278" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>770</v>
       </c>
@@ -8973,8 +11137,11 @@
       <c r="F279" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G279" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>773</v>
       </c>
@@ -8990,8 +11157,11 @@
       <c r="F280" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G280" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>776</v>
       </c>
@@ -9007,8 +11177,11 @@
       <c r="F281" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G281" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>779</v>
       </c>
@@ -9024,8 +11197,11 @@
       <c r="F282" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G282" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>782</v>
       </c>
@@ -9041,8 +11217,11 @@
       <c r="F283" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G283" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>785</v>
       </c>
@@ -9058,8 +11237,11 @@
       <c r="F284" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G284" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>788</v>
       </c>
@@ -9075,8 +11257,11 @@
       <c r="F285" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G285" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>791</v>
       </c>
@@ -9092,8 +11277,11 @@
       <c r="F286" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G286" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>794</v>
       </c>
@@ -9109,8 +11297,11 @@
       <c r="F287" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G287" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>797</v>
       </c>
@@ -9126,8 +11317,11 @@
       <c r="F288" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G288" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>800</v>
       </c>
@@ -9143,8 +11337,11 @@
       <c r="F289" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G289" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>802</v>
       </c>
@@ -9160,8 +11357,11 @@
       <c r="F290" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G290" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>805</v>
       </c>
@@ -9177,8 +11377,11 @@
       <c r="F291" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G291" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>808</v>
       </c>
@@ -9194,8 +11397,11 @@
       <c r="F292" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G292" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>810</v>
       </c>
@@ -9211,8 +11417,11 @@
       <c r="F293" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G293" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>813</v>
       </c>
@@ -9228,8 +11437,11 @@
       <c r="F294" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G294" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>814</v>
       </c>
@@ -9245,8 +11457,11 @@
       <c r="F295" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G295" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>817</v>
       </c>
@@ -9262,8 +11477,11 @@
       <c r="F296" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G296" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>820</v>
       </c>
@@ -9279,8 +11497,11 @@
       <c r="F297" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G297" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>823</v>
       </c>
@@ -9296,8 +11517,11 @@
       <c r="F298" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G298" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>826</v>
       </c>
@@ -9308,13 +11532,16 @@
         <v>1</v>
       </c>
       <c r="E299" t="s">
+        <v>828</v>
+      </c>
+      <c r="F299" t="s">
         <v>827</v>
       </c>
-      <c r="F299" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G299" s="4" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>829</v>
       </c>
@@ -9330,8 +11557,11 @@
       <c r="F300" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G300" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>832</v>
       </c>
@@ -9347,8 +11577,11 @@
       <c r="F301" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G301" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>835</v>
       </c>
@@ -9364,8 +11597,11 @@
       <c r="F302" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G302" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>838</v>
       </c>
@@ -9381,8 +11617,11 @@
       <c r="F303" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G303" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>841</v>
       </c>
@@ -9398,8 +11637,11 @@
       <c r="F304" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G304" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>843</v>
       </c>
@@ -9415,8 +11657,11 @@
       <c r="F305" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G305" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>845</v>
       </c>
@@ -9432,8 +11677,11 @@
       <c r="F306" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G306" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>848</v>
       </c>
@@ -9449,8 +11697,11 @@
       <c r="F307" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G307" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>851</v>
       </c>
@@ -9466,8 +11717,11 @@
       <c r="F308" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G308" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>853</v>
       </c>
@@ -9483,8 +11737,11 @@
       <c r="F309" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G309" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>855</v>
       </c>
@@ -9500,8 +11757,11 @@
       <c r="F310" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G310" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>858</v>
       </c>
@@ -9517,8 +11777,11 @@
       <c r="F311" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G311" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>861</v>
       </c>
@@ -9528,14 +11791,17 @@
       <c r="C312" t="b">
         <v>1</v>
       </c>
-      <c r="E312" t="s">
+      <c r="E312" s="3" t="s">
         <v>862</v>
       </c>
       <c r="F312" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G312" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>864</v>
       </c>
@@ -9551,8 +11817,11 @@
       <c r="F313" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G313" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>867</v>
       </c>
@@ -9568,8 +11837,11 @@
       <c r="F314" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G314" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>870</v>
       </c>
@@ -9585,8 +11857,11 @@
       <c r="F315" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G315" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>873</v>
       </c>
@@ -9602,8 +11877,11 @@
       <c r="F316" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G316" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>876</v>
       </c>
@@ -9619,8 +11897,11 @@
       <c r="F317" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G317" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>879</v>
       </c>
@@ -9636,8 +11917,11 @@
       <c r="F318" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G318" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>882</v>
       </c>
@@ -9653,8 +11937,11 @@
       <c r="F319" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G319" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>885</v>
       </c>
@@ -9670,8 +11957,11 @@
       <c r="F320" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G320" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>889</v>
       </c>
@@ -9687,8 +11977,11 @@
       <c r="F321" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G321" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>890</v>
       </c>
@@ -9704,8 +11997,11 @@
       <c r="F322" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G322" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>891</v>
       </c>
@@ -9721,8 +12017,11 @@
       <c r="F323" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G323" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>892</v>
       </c>
@@ -9738,8 +12037,11 @@
       <c r="F324" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G324" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>1027</v>
       </c>
@@ -9755,8 +12057,11 @@
       <c r="F325" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G325" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>1028</v>
       </c>
@@ -9772,8 +12077,11 @@
       <c r="F326" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G326" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>1029</v>
       </c>
@@ -9789,8 +12097,11 @@
       <c r="F327" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G327" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>896</v>
       </c>
@@ -9806,8 +12117,11 @@
       <c r="F328" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G328" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>897</v>
       </c>
@@ -9823,8 +12137,11 @@
       <c r="F329" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G329" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>898</v>
       </c>
@@ -9840,8 +12157,11 @@
       <c r="F330" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G330" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>1030</v>
       </c>
@@ -9857,8 +12177,11 @@
       <c r="F331" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G331" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>500</v>
       </c>
@@ -9874,8 +12197,11 @@
       <c r="F332" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G332" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>1031</v>
       </c>
@@ -9891,8 +12217,11 @@
       <c r="F333" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G333" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>1032</v>
       </c>
@@ -9908,8 +12237,11 @@
       <c r="F334" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G334" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>1033</v>
       </c>
@@ -9925,8 +12257,11 @@
       <c r="F335" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G335" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>903</v>
       </c>
@@ -9942,8 +12277,11 @@
       <c r="F336" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G336" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>1034</v>
       </c>
@@ -9959,8 +12297,11 @@
       <c r="F337" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G337" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>905</v>
       </c>
@@ -9976,8 +12317,11 @@
       <c r="F338" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G338" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>796</v>
       </c>
@@ -9993,8 +12337,11 @@
       <c r="F339" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G339" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>1035</v>
       </c>
@@ -10010,8 +12357,11 @@
       <c r="F340" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G340" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>907</v>
       </c>
@@ -10027,8 +12377,11 @@
       <c r="F341" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G341" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>1036</v>
       </c>
@@ -10044,8 +12397,11 @@
       <c r="F342" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G342" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>1037</v>
       </c>
@@ -10061,8 +12417,11 @@
       <c r="F343" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G343" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>1038</v>
       </c>
@@ -10078,8 +12437,11 @@
       <c r="F344" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G344" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>911</v>
       </c>
@@ -10095,8 +12457,11 @@
       <c r="F345" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G345" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>1039</v>
       </c>
@@ -10112,8 +12477,11 @@
       <c r="F346" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G346" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>913</v>
       </c>
@@ -10129,8 +12497,11 @@
       <c r="F347" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G347" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>1040</v>
       </c>
@@ -10146,8 +12517,11 @@
       <c r="F348" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G348" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>915</v>
       </c>
@@ -10163,8 +12537,11 @@
       <c r="F349" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G349" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>1041</v>
       </c>
@@ -10180,8 +12557,11 @@
       <c r="F350" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G350" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>1042</v>
       </c>
@@ -10197,8 +12577,11 @@
       <c r="F351" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G351" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>1043</v>
       </c>
@@ -10214,8 +12597,11 @@
       <c r="F352" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G352" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>1044</v>
       </c>
@@ -10231,8 +12617,11 @@
       <c r="F353" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G353" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>1045</v>
       </c>
@@ -10248,8 +12637,11 @@
       <c r="F354" t="s">
         <v>920</v>
       </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G354" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>1046</v>
       </c>
@@ -10265,8 +12657,11 @@
       <c r="F355" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G355" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>1047</v>
       </c>
@@ -10282,8 +12677,11 @@
       <c r="F356" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G356" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>1048</v>
       </c>
@@ -10299,8 +12697,11 @@
       <c r="F357" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G357" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>1049</v>
       </c>
@@ -10316,8 +12717,11 @@
       <c r="F358" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G358" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>1050</v>
       </c>
@@ -10333,8 +12737,11 @@
       <c r="F359" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G359" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>1051</v>
       </c>
@@ -10350,8 +12757,11 @@
       <c r="F360" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G360" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>1052</v>
       </c>
@@ -10367,8 +12777,11 @@
       <c r="F361" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G361" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>1053</v>
       </c>
@@ -10384,8 +12797,11 @@
       <c r="F362" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G362" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>1054</v>
       </c>
@@ -10401,8 +12817,11 @@
       <c r="F363" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G363" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>1055</v>
       </c>
@@ -10418,8 +12837,11 @@
       <c r="F364" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G364" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>931</v>
       </c>
@@ -10435,8 +12857,11 @@
       <c r="F365" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G365" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>932</v>
       </c>
@@ -10452,8 +12877,11 @@
       <c r="F366" t="s">
         <v>932</v>
       </c>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G366" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>1056</v>
       </c>
@@ -10469,8 +12897,11 @@
       <c r="F367" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G367" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>934</v>
       </c>
@@ -10486,8 +12917,11 @@
       <c r="F368" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G368" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>935</v>
       </c>
@@ -10503,8 +12937,11 @@
       <c r="F369" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G369" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>936</v>
       </c>
@@ -10520,8 +12957,11 @@
       <c r="F370" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G370" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>937</v>
       </c>
@@ -10537,8 +12977,11 @@
       <c r="F371" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G371" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>1057</v>
       </c>
@@ -10554,8 +12997,11 @@
       <c r="F372" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G372" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>1058</v>
       </c>
@@ -10571,8 +13017,11 @@
       <c r="F373" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G373" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>1059</v>
       </c>
@@ -10588,8 +13037,11 @@
       <c r="F374" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G374" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>1060</v>
       </c>
@@ -10605,8 +13057,11 @@
       <c r="F375" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G375" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>942</v>
       </c>
@@ -10622,8 +13077,11 @@
       <c r="F376" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G376" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>1061</v>
       </c>
@@ -10639,8 +13097,11 @@
       <c r="F377" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G377" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>1062</v>
       </c>
@@ -10656,8 +13117,11 @@
       <c r="F378" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G378" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>1063</v>
       </c>
@@ -10673,8 +13137,11 @@
       <c r="F379" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G379" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>1064</v>
       </c>
@@ -10690,8 +13157,11 @@
       <c r="F380" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G380" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>1065</v>
       </c>
@@ -10707,8 +13177,11 @@
       <c r="F381" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G381" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>1066</v>
       </c>
@@ -10724,8 +13197,11 @@
       <c r="F382" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G382" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>1067</v>
       </c>
@@ -10741,8 +13217,11 @@
       <c r="F383" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G383" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>1068</v>
       </c>
@@ -10758,8 +13237,11 @@
       <c r="F384" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G384" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>1069</v>
       </c>
@@ -10775,8 +13257,11 @@
       <c r="F385" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G385" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>1070</v>
       </c>
@@ -10792,8 +13277,11 @@
       <c r="F386" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G386" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>1071</v>
       </c>
@@ -10809,8 +13297,11 @@
       <c r="F387" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G387" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>954</v>
       </c>
@@ -10826,8 +13317,11 @@
       <c r="F388" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G388" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>955</v>
       </c>
@@ -10843,8 +13337,11 @@
       <c r="F389" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G389" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>1072</v>
       </c>
@@ -10860,8 +13357,11 @@
       <c r="F390" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G390" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>1073</v>
       </c>
@@ -10877,8 +13377,11 @@
       <c r="F391" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G391" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>1074</v>
       </c>
@@ -10894,8 +13397,11 @@
       <c r="F392" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G392" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>959</v>
       </c>
@@ -10911,8 +13417,11 @@
       <c r="F393" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G393" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>1075</v>
       </c>
@@ -10928,8 +13437,11 @@
       <c r="F394" t="s">
         <v>960</v>
       </c>
-    </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G394" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>1076</v>
       </c>
@@ -10945,8 +13457,11 @@
       <c r="F395" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G395" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>962</v>
       </c>
@@ -10962,8 +13477,11 @@
       <c r="F396" t="s">
         <v>962</v>
       </c>
-    </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G396" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>1077</v>
       </c>
@@ -10979,8 +13497,11 @@
       <c r="F397" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G397" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>1078</v>
       </c>
@@ -10996,8 +13517,11 @@
       <c r="F398" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G398" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>965</v>
       </c>
@@ -11013,8 +13537,11 @@
       <c r="F399" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G399" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>1079</v>
       </c>
@@ -11030,8 +13557,11 @@
       <c r="F400" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G400" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>1080</v>
       </c>
@@ -11047,8 +13577,11 @@
       <c r="F401" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G401" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>1081</v>
       </c>
@@ -11064,8 +13597,11 @@
       <c r="F402" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G402" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>969</v>
       </c>
@@ -11081,8 +13617,11 @@
       <c r="F403" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G403" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>970</v>
       </c>
@@ -11098,8 +13637,11 @@
       <c r="F404" t="s">
         <v>970</v>
       </c>
-    </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G404" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>971</v>
       </c>
@@ -11115,8 +13657,11 @@
       <c r="F405" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G405" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>1082</v>
       </c>
@@ -11132,8 +13677,11 @@
       <c r="F406" t="s">
         <v>972</v>
       </c>
-    </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G406" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>1083</v>
       </c>
@@ -11149,8 +13697,11 @@
       <c r="F407" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G407" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>1084</v>
       </c>
@@ -11166,8 +13717,11 @@
       <c r="F408" t="s">
         <v>974</v>
       </c>
-    </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G408" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>1085</v>
       </c>
@@ -11183,8 +13737,11 @@
       <c r="F409" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G409" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>976</v>
       </c>
@@ -11200,8 +13757,11 @@
       <c r="F410" t="s">
         <v>976</v>
       </c>
-    </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G410" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>1086</v>
       </c>
@@ -11217,8 +13777,11 @@
       <c r="F411" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G411" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>1087</v>
       </c>
@@ -11234,8 +13797,11 @@
       <c r="F412" t="s">
         <v>978</v>
       </c>
-    </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G412" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>1088</v>
       </c>
@@ -11251,8 +13817,11 @@
       <c r="F413" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G413" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>980</v>
       </c>
@@ -11268,8 +13837,11 @@
       <c r="F414" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G414" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>1089</v>
       </c>
@@ -11285,8 +13857,11 @@
       <c r="F415" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G415" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>1090</v>
       </c>
@@ -11302,8 +13877,11 @@
       <c r="F416" t="s">
         <v>982</v>
       </c>
-    </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G416" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>1091</v>
       </c>
@@ -11319,8 +13897,11 @@
       <c r="F417" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G417" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>1092</v>
       </c>
@@ -11336,8 +13917,11 @@
       <c r="F418" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G418" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>1093</v>
       </c>
@@ -11353,8 +13937,11 @@
       <c r="F419" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G419" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>1094</v>
       </c>
@@ -11370,8 +13957,11 @@
       <c r="F420" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G420" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>1095</v>
       </c>
@@ -11387,8 +13977,11 @@
       <c r="F421" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G421" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>1096</v>
       </c>
@@ -11404,8 +13997,11 @@
       <c r="F422" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G422" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>1097</v>
       </c>
@@ -11421,8 +14017,11 @@
       <c r="F423" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G423" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>1098</v>
       </c>
@@ -11438,8 +14037,11 @@
       <c r="F424" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G424" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>1099</v>
       </c>
@@ -11455,8 +14057,11 @@
       <c r="F425" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G425" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>1100</v>
       </c>
@@ -11472,8 +14077,11 @@
       <c r="F426" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G426" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>1101</v>
       </c>
@@ -11489,8 +14097,11 @@
       <c r="F427" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G427" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>1102</v>
       </c>
@@ -11506,8 +14117,11 @@
       <c r="F428" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G428" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>1103</v>
       </c>
@@ -11523,8 +14137,11 @@
       <c r="F429" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G429" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>1104</v>
       </c>
@@ -11540,8 +14157,11 @@
       <c r="F430" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G430" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>1105</v>
       </c>
@@ -11557,8 +14177,11 @@
       <c r="F431" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G431" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>1106</v>
       </c>
@@ -11574,8 +14197,11 @@
       <c r="F432" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G432" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>1107</v>
       </c>
@@ -11591,8 +14217,11 @@
       <c r="F433" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G433" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>1108</v>
       </c>
@@ -11608,8 +14237,11 @@
       <c r="F434" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G434" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>1109</v>
       </c>
@@ -11625,8 +14257,11 @@
       <c r="F435" t="s">
         <v>1000</v>
       </c>
-    </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G435" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>1110</v>
       </c>
@@ -11642,8 +14277,11 @@
       <c r="F436" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G436" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>1111</v>
       </c>
@@ -11659,8 +14297,11 @@
       <c r="F437" t="s">
         <v>1002</v>
       </c>
-    </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G437" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>1112</v>
       </c>
@@ -11676,8 +14317,11 @@
       <c r="F438" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G438" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>1113</v>
       </c>
@@ -11693,8 +14337,11 @@
       <c r="F439" t="s">
         <v>1004</v>
       </c>
-    </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G439" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>1114</v>
       </c>
@@ -11710,8 +14357,11 @@
       <c r="F440" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G440" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>1006</v>
       </c>
@@ -11727,8 +14377,11 @@
       <c r="F441" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G441" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>1007</v>
       </c>
@@ -11744,8 +14397,11 @@
       <c r="F442" t="s">
         <v>1007</v>
       </c>
-    </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G442" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>1008</v>
       </c>
@@ -11761,8 +14417,11 @@
       <c r="F443" t="s">
         <v>1008</v>
       </c>
-    </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G443" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>1009</v>
       </c>
@@ -11778,8 +14437,11 @@
       <c r="F444" t="s">
         <v>1009</v>
       </c>
-    </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G444" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>1010</v>
       </c>
@@ -11795,8 +14457,11 @@
       <c r="F445" t="s">
         <v>1010</v>
       </c>
-    </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G445" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>1115</v>
       </c>
@@ -11812,8 +14477,11 @@
       <c r="F446" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G446" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>1012</v>
       </c>
@@ -11829,8 +14497,11 @@
       <c r="F447" t="s">
         <v>1012</v>
       </c>
-    </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G447" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>1116</v>
       </c>
@@ -11846,8 +14517,11 @@
       <c r="F448" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G448" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>1117</v>
       </c>
@@ -11863,8 +14537,11 @@
       <c r="F449" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G449" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>1118</v>
       </c>
@@ -11880,8 +14557,11 @@
       <c r="F450" t="s">
         <v>1015</v>
       </c>
-    </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G450" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>1119</v>
       </c>
@@ -11897,8 +14577,11 @@
       <c r="F451" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G451" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>1120</v>
       </c>
@@ -11914,8 +14597,11 @@
       <c r="F452" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G452" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>1121</v>
       </c>
@@ -11931,8 +14617,11 @@
       <c r="F453" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G453" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>1122</v>
       </c>
@@ -11948,8 +14637,11 @@
       <c r="F454" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G454" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>1123</v>
       </c>
@@ -11965,8 +14657,11 @@
       <c r="F455" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G455" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>1124</v>
       </c>
@@ -11982,8 +14677,11 @@
       <c r="F456" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G456" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>1022</v>
       </c>
@@ -11999,8 +14697,11 @@
       <c r="F457" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G457" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>1023</v>
       </c>
@@ -12016,8 +14717,11 @@
       <c r="F458" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G458" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>1024</v>
       </c>
@@ -12033,8 +14737,11 @@
       <c r="F459" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G459" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>1125</v>
       </c>
@@ -12050,8 +14757,11 @@
       <c r="F460" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G460" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>1126</v>
       </c>
@@ -12066,10 +14776,74 @@
       </c>
       <c r="F461" t="s">
         <v>1026</v>
+      </c>
+      <c r="G461" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>817</v>
+      </c>
+      <c r="B462" t="b">
+        <v>1</v>
+      </c>
+      <c r="C462" t="b">
+        <v>1</v>
+      </c>
+      <c r="E462" t="s">
+        <v>818</v>
+      </c>
+      <c r="F462" t="s">
+        <v>819</v>
+      </c>
+      <c r="G462" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>820</v>
+      </c>
+      <c r="B463" t="b">
+        <v>1</v>
+      </c>
+      <c r="C463" t="b">
+        <v>1</v>
+      </c>
+      <c r="E463" t="s">
+        <v>821</v>
+      </c>
+      <c r="F463" t="s">
+        <v>822</v>
+      </c>
+      <c r="G463" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B464" t="b">
+        <v>0</v>
+      </c>
+      <c r="C464" t="b">
+        <v>1</v>
+      </c>
+      <c r="E464" t="s">
+        <v>1703</v>
+      </c>
+      <c r="F464" t="s">
+        <v>1702</v>
+      </c>
+      <c r="G464" t="s">
+        <v>1704</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F461" xr:uid="{F9D2ECFD-3596-4835-AF6F-A339FDE8D0B0}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Translations/Translations.xlsx
+++ b/Translations/Translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\source\repos\BSharp\Translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE891E1F-152E-436C-8B31-1ECC56634DDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A5E0B9-914D-4A6D-8AD8-23D665FB7F99}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09F7BBB4-81EA-4503-B8DD-8985A501E98F}"/>
   </bookViews>
@@ -4758,9 +4758,6 @@
     <t>连</t>
   </si>
   <si>
-    <t>版权所有？保留{{一年}}巴南IT有限公司保留所有权利。</t>
-  </si>
-  <si>
     <t>由我创建</t>
   </si>
   <si>
@@ -4809,9 +4806,6 @@
     <t>不活动的项目无法进行编辑，请先激活它。</t>
   </si>
   <si>
-    <t>您选择的文件超过{{MAXSIZE}} MB的最大允许大小</t>
-  </si>
-  <si>
     <t>错误加载公司设置</t>
   </si>
   <si>
@@ -4884,9 +4878,6 @@
     <t>导入的文件没有通过验证，见下文</t>
   </si>
   <si>
-    <t>成功插入{{插入的}}记录（S），并在{{秒}}秒更新{{更新}}结果</t>
-  </si>
-  <si>
     <t>下载模板文件，并填写您的数据：</t>
   </si>
   <si>
@@ -4920,15 +4911,9 @@
     <t>加载系统设置</t>
   </si>
   <si>
-    <t>只有{{最大值}}项目可以同时输出</t>
-  </si>
-  <si>
     <t>模式</t>
   </si>
   <si>
-    <t>我{{占位符}}帐户</t>
-  </si>
-  <si>
     <t>我的公司</t>
   </si>
   <si>
@@ -4950,9 +4935,6 @@
     <t>不公开</t>
   </si>
   <si>
-    <t>{{计数}}选择项目</t>
-  </si>
-  <si>
     <t>以前</t>
   </si>
   <si>
@@ -5091,9 +5073,6 @@
     <t>你未保存的更改都将被丢弃，你确定你想继续吗？</t>
   </si>
   <si>
-    <t>注：邀请电子邮件将被发送到“{{EMAIL}}”一旦你保存这个文件。</t>
-  </si>
-  <si>
     <t>欢迎页面</t>
   </si>
   <si>
@@ -5158,6 +5137,27 @@
   </si>
   <si>
     <t>获取更多与{{appName}}</t>
+  </si>
+  <si>
+    <t>版权所有？保留{{year}}巴南IT有限公司保留所有权利。</t>
+  </si>
+  <si>
+    <t>您选择的文件超过{{maxSize}} MB的最大允许大小</t>
+  </si>
+  <si>
+    <t>成功插入{{Inserted}}记录，并在{{Updated}}秒更新{{Seconds}}结果</t>
+  </si>
+  <si>
+    <t>只有{{max}}项目可以同时输出</t>
+  </si>
+  <si>
+    <t>我{{placeholder}}帐户</t>
+  </si>
+  <si>
+    <t>注：邀请电子邮件将被发送到“{{email}}”一旦你保存这个文件。</t>
+  </si>
+  <si>
+    <t>{{count}}选择项目</t>
   </si>
 </sst>
 </file>
@@ -5545,9 +5545,9 @@
   <dimension ref="A1:G464"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomLeft" activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5861,7 +5861,7 @@
         <v>827</v>
       </c>
       <c r="G15" t="s">
-        <v>1703</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -6081,7 +6081,7 @@
         <v>52</v>
       </c>
       <c r="G26" t="s">
-        <v>1702</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -6581,7 +6581,7 @@
         <v>899</v>
       </c>
       <c r="G51" t="s">
-        <v>1574</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -6681,7 +6681,7 @@
         <v>900</v>
       </c>
       <c r="G56" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -6701,7 +6701,7 @@
         <v>901</v>
       </c>
       <c r="G57" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -6721,7 +6721,7 @@
         <v>902</v>
       </c>
       <c r="G58" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -6741,7 +6741,7 @@
         <v>1021</v>
       </c>
       <c r="G59" t="s">
-        <v>1691</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -6941,7 +6941,7 @@
         <v>904</v>
       </c>
       <c r="G69" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -6981,7 +6981,7 @@
         <v>905</v>
       </c>
       <c r="G71" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -7041,7 +7041,7 @@
         <v>906</v>
       </c>
       <c r="G74" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -7081,7 +7081,7 @@
         <v>908</v>
       </c>
       <c r="G76" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -7101,7 +7101,7 @@
         <v>909</v>
       </c>
       <c r="G77" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -7141,7 +7141,7 @@
         <v>910</v>
       </c>
       <c r="G79" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -7221,7 +7221,7 @@
         <v>911</v>
       </c>
       <c r="G83" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -7241,7 +7241,7 @@
         <v>912</v>
       </c>
       <c r="G84" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -7321,7 +7321,7 @@
         <v>913</v>
       </c>
       <c r="G88" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -7341,7 +7341,7 @@
         <v>914</v>
       </c>
       <c r="G89" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -7441,7 +7441,7 @@
         <v>915</v>
       </c>
       <c r="G94" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -7501,7 +7501,7 @@
         <v>916</v>
       </c>
       <c r="G97" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -7681,7 +7681,7 @@
         <v>917</v>
       </c>
       <c r="G106" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -7901,7 +7901,7 @@
         <v>918</v>
       </c>
       <c r="G117" t="s">
-        <v>1591</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -7961,7 +7961,7 @@
         <v>919</v>
       </c>
       <c r="G120" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -8001,7 +8001,7 @@
         <v>920</v>
       </c>
       <c r="G122" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -8021,7 +8021,7 @@
         <v>921</v>
       </c>
       <c r="G123" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -8101,7 +8101,7 @@
         <v>922</v>
       </c>
       <c r="G127" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -8121,7 +8121,7 @@
         <v>923</v>
       </c>
       <c r="G128" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -8201,7 +8201,7 @@
         <v>924</v>
       </c>
       <c r="G132" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -8641,7 +8641,7 @@
         <v>925</v>
       </c>
       <c r="G154" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -8661,7 +8661,7 @@
         <v>926</v>
       </c>
       <c r="G155" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -8681,7 +8681,7 @@
         <v>927</v>
       </c>
       <c r="G156" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -8701,7 +8701,7 @@
         <v>928</v>
       </c>
       <c r="G157" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -8741,7 +8741,7 @@
         <v>929</v>
       </c>
       <c r="G159" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -8761,7 +8761,7 @@
         <v>930</v>
       </c>
       <c r="G160" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -8821,7 +8821,7 @@
         <v>931</v>
       </c>
       <c r="G163" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -8841,7 +8841,7 @@
         <v>932</v>
       </c>
       <c r="G164" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -8861,7 +8861,7 @@
         <v>933</v>
       </c>
       <c r="G165" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -8901,7 +8901,7 @@
         <v>934</v>
       </c>
       <c r="G167" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -8921,7 +8921,7 @@
         <v>935</v>
       </c>
       <c r="G168" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -8941,7 +8941,7 @@
         <v>936</v>
       </c>
       <c r="G169" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -9041,7 +9041,7 @@
         <v>937</v>
       </c>
       <c r="G174" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -9061,7 +9061,7 @@
         <v>938</v>
       </c>
       <c r="G175" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -9121,7 +9121,7 @@
         <v>939</v>
       </c>
       <c r="G178" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -9181,7 +9181,7 @@
         <v>940</v>
       </c>
       <c r="G181" t="s">
-        <v>1705</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -9221,7 +9221,7 @@
         <v>1024</v>
       </c>
       <c r="G183" t="s">
-        <v>1694</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -9261,7 +9261,7 @@
         <v>941</v>
       </c>
       <c r="G185" t="s">
-        <v>1706</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -9441,7 +9441,7 @@
         <v>942</v>
       </c>
       <c r="G194" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -9461,7 +9461,7 @@
         <v>943</v>
       </c>
       <c r="G195" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -9481,7 +9481,7 @@
         <v>944</v>
       </c>
       <c r="G196" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -9501,7 +9501,7 @@
         <v>945</v>
       </c>
       <c r="G197" t="s">
-        <v>1616</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -9521,7 +9521,7 @@
         <v>946</v>
       </c>
       <c r="G198" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -9541,7 +9541,7 @@
         <v>947</v>
       </c>
       <c r="G199" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -9581,7 +9581,7 @@
         <v>948</v>
       </c>
       <c r="G201" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -9621,7 +9621,7 @@
         <v>949</v>
       </c>
       <c r="G203" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -9641,7 +9641,7 @@
         <v>950</v>
       </c>
       <c r="G204" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -9821,7 +9821,7 @@
         <v>951</v>
       </c>
       <c r="G213" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -9921,7 +9921,7 @@
         <v>952</v>
       </c>
       <c r="G218" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -9941,7 +9941,7 @@
         <v>953</v>
       </c>
       <c r="G219" t="s">
-        <v>1707</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -9961,7 +9961,7 @@
         <v>954</v>
       </c>
       <c r="G220" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -9981,7 +9981,7 @@
         <v>955</v>
       </c>
       <c r="G221" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -10001,7 +10001,7 @@
         <v>956</v>
       </c>
       <c r="G222" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -10021,7 +10021,7 @@
         <v>957</v>
       </c>
       <c r="G223" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -10101,7 +10101,7 @@
         <v>958</v>
       </c>
       <c r="G227" t="s">
-        <v>1628</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -10301,7 +10301,7 @@
         <v>1022</v>
       </c>
       <c r="G237" t="s">
-        <v>1692</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
@@ -10321,7 +10321,7 @@
         <v>959</v>
       </c>
       <c r="G238" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -10621,7 +10621,7 @@
         <v>960</v>
       </c>
       <c r="G253" t="s">
-        <v>1630</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -10641,7 +10641,7 @@
         <v>961</v>
       </c>
       <c r="G254" t="s">
-        <v>1631</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -10681,7 +10681,7 @@
         <v>962</v>
       </c>
       <c r="G256" t="s">
-        <v>1632</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -10701,7 +10701,7 @@
         <v>963</v>
       </c>
       <c r="G257" t="s">
-        <v>1633</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -10741,7 +10741,7 @@
         <v>964</v>
       </c>
       <c r="G259" t="s">
-        <v>1634</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -10761,7 +10761,7 @@
         <v>965</v>
       </c>
       <c r="G260" t="s">
-        <v>1635</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -10801,7 +10801,7 @@
         <v>966</v>
       </c>
       <c r="G262" t="s">
-        <v>1636</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
@@ -10821,7 +10821,7 @@
         <v>1020</v>
       </c>
       <c r="G263" t="s">
-        <v>1690</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
@@ -10841,7 +10841,7 @@
         <v>967</v>
       </c>
       <c r="G264" t="s">
-        <v>1637</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
@@ -10861,7 +10861,7 @@
         <v>968</v>
       </c>
       <c r="G265" t="s">
-        <v>1638</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
@@ -11401,7 +11401,7 @@
         <v>969</v>
       </c>
       <c r="G292" t="s">
-        <v>1639</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
@@ -11441,7 +11441,7 @@
         <v>970</v>
       </c>
       <c r="G294" t="s">
-        <v>1640</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
@@ -11501,7 +11501,7 @@
         <v>971</v>
       </c>
       <c r="G297" t="s">
-        <v>1641</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
@@ -11521,7 +11521,7 @@
         <v>972</v>
       </c>
       <c r="G298" t="s">
-        <v>1642</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
@@ -11541,7 +11541,7 @@
         <v>973</v>
       </c>
       <c r="G299" s="4" t="s">
-        <v>1643</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
@@ -11721,7 +11721,7 @@
         <v>974</v>
       </c>
       <c r="G308" t="s">
-        <v>1644</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
@@ -11741,7 +11741,7 @@
         <v>975</v>
       </c>
       <c r="G309" t="s">
-        <v>1645</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
@@ -11761,7 +11761,7 @@
         <v>976</v>
       </c>
       <c r="G310" t="s">
-        <v>1646</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
@@ -11881,7 +11881,7 @@
         <v>977</v>
       </c>
       <c r="G316" t="s">
-        <v>1647</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
@@ -11901,7 +11901,7 @@
         <v>978</v>
       </c>
       <c r="G317" t="s">
-        <v>1648</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
@@ -12361,7 +12361,7 @@
         <v>979</v>
       </c>
       <c r="G340" t="s">
-        <v>1649</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
@@ -12521,7 +12521,7 @@
         <v>980</v>
       </c>
       <c r="G348" t="s">
-        <v>1650</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
@@ -12541,7 +12541,7 @@
         <v>1025</v>
       </c>
       <c r="G349" t="s">
-        <v>1695</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
@@ -12561,7 +12561,7 @@
         <v>1026</v>
       </c>
       <c r="G350" t="s">
-        <v>1696</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
@@ -12661,7 +12661,7 @@
         <v>981</v>
       </c>
       <c r="G355" t="s">
-        <v>1651</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
@@ -12681,7 +12681,7 @@
         <v>982</v>
       </c>
       <c r="G356" t="s">
-        <v>1652</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
@@ -12721,7 +12721,7 @@
         <v>983</v>
       </c>
       <c r="G358" t="s">
-        <v>1653</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
@@ -12778,10 +12778,10 @@
         <v>642</v>
       </c>
       <c r="F361" t="s">
-        <v>1698</v>
+        <v>1691</v>
       </c>
       <c r="G361" t="s">
-        <v>1704</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
@@ -12861,7 +12861,7 @@
         <v>984</v>
       </c>
       <c r="G365" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
@@ -12906,7 +12906,7 @@
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>1697</v>
+        <v>1690</v>
       </c>
       <c r="B368" t="b">
         <v>0</v>
@@ -12915,13 +12915,13 @@
         <v>1</v>
       </c>
       <c r="E368" t="s">
-        <v>1700</v>
+        <v>1693</v>
       </c>
       <c r="F368" t="s">
-        <v>1699</v>
+        <v>1692</v>
       </c>
       <c r="G368" t="s">
-        <v>1701</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
@@ -12981,7 +12981,7 @@
         <v>985</v>
       </c>
       <c r="G371" t="s">
-        <v>1655</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
@@ -13001,7 +13001,7 @@
         <v>986</v>
       </c>
       <c r="G372" t="s">
-        <v>1656</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
@@ -13021,7 +13021,7 @@
         <v>987</v>
       </c>
       <c r="G373" t="s">
-        <v>1657</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
@@ -13041,7 +13041,7 @@
         <v>988</v>
       </c>
       <c r="G374" t="s">
-        <v>1658</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
@@ -13061,7 +13061,7 @@
         <v>989</v>
       </c>
       <c r="G375" t="s">
-        <v>1659</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
@@ -13081,7 +13081,7 @@
         <v>990</v>
       </c>
       <c r="G376" t="s">
-        <v>1660</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
@@ -13101,7 +13101,7 @@
         <v>991</v>
       </c>
       <c r="G377" t="s">
-        <v>1661</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
@@ -13121,7 +13121,7 @@
         <v>992</v>
       </c>
       <c r="G378" t="s">
-        <v>1662</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
@@ -13141,7 +13141,7 @@
         <v>993</v>
       </c>
       <c r="G379" t="s">
-        <v>1663</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
@@ -13161,7 +13161,7 @@
         <v>994</v>
       </c>
       <c r="G380" t="s">
-        <v>1664</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
@@ -13181,7 +13181,7 @@
         <v>995</v>
       </c>
       <c r="G381" t="s">
-        <v>1665</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
@@ -13201,7 +13201,7 @@
         <v>996</v>
       </c>
       <c r="G382" t="s">
-        <v>1666</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
@@ -13221,7 +13221,7 @@
         <v>997</v>
       </c>
       <c r="G383" t="s">
-        <v>1667</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
@@ -13241,7 +13241,7 @@
         <v>998</v>
       </c>
       <c r="G384" t="s">
-        <v>1668</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
@@ -13261,7 +13261,7 @@
         <v>999</v>
       </c>
       <c r="G385" t="s">
-        <v>1669</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
@@ -13281,7 +13281,7 @@
         <v>1000</v>
       </c>
       <c r="G386" t="s">
-        <v>1670</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
@@ -13301,7 +13301,7 @@
         <v>1001</v>
       </c>
       <c r="G387" t="s">
-        <v>1671</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
@@ -13321,7 +13321,7 @@
         <v>1002</v>
       </c>
       <c r="G388" t="s">
-        <v>1672</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
@@ -13341,7 +13341,7 @@
         <v>1003</v>
       </c>
       <c r="G389" t="s">
-        <v>1673</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
@@ -13641,7 +13641,7 @@
         <v>1004</v>
       </c>
       <c r="G404" t="s">
-        <v>1674</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
@@ -13661,7 +13661,7 @@
         <v>1005</v>
       </c>
       <c r="G405" t="s">
-        <v>1675</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
@@ -13721,7 +13721,7 @@
         <v>1006</v>
       </c>
       <c r="G408" t="s">
-        <v>1676</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
@@ -13821,7 +13821,7 @@
         <v>1007</v>
       </c>
       <c r="G413" t="s">
-        <v>1677</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
@@ -13841,7 +13841,7 @@
         <v>1008</v>
       </c>
       <c r="G414" t="s">
-        <v>1678</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
@@ -13941,7 +13941,7 @@
         <v>1009</v>
       </c>
       <c r="G419" t="s">
-        <v>1679</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
@@ -13961,7 +13961,7 @@
         <v>1010</v>
       </c>
       <c r="G420" t="s">
-        <v>1680</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
@@ -14001,7 +14001,7 @@
         <v>1011</v>
       </c>
       <c r="G422" t="s">
-        <v>1681</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
@@ -14121,7 +14121,7 @@
         <v>1012</v>
       </c>
       <c r="G428" t="s">
-        <v>1682</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
@@ -14141,7 +14141,7 @@
         <v>1013</v>
       </c>
       <c r="G429" t="s">
-        <v>1683</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
@@ -14161,7 +14161,7 @@
         <v>1014</v>
       </c>
       <c r="G430" t="s">
-        <v>1684</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
@@ -14181,7 +14181,7 @@
         <v>1023</v>
       </c>
       <c r="G431" t="s">
-        <v>1693</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
@@ -14401,7 +14401,7 @@
         <v>1015</v>
       </c>
       <c r="G442" t="s">
-        <v>1685</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
@@ -14621,7 +14621,7 @@
         <v>1016</v>
       </c>
       <c r="G453" t="s">
-        <v>1686</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
@@ -14641,7 +14641,7 @@
         <v>1017</v>
       </c>
       <c r="G454" t="s">
-        <v>1687</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
@@ -14661,7 +14661,7 @@
         <v>1018</v>
       </c>
       <c r="G455" t="s">
-        <v>1688</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
@@ -14681,7 +14681,7 @@
         <v>1019</v>
       </c>
       <c r="G456" t="s">
-        <v>1689</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">

--- a/Translations/Translations.xlsx
+++ b/Translations/Translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\source\repos\BSharp\Translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5C4A9C-ADBD-4CF6-A716-5AC6891E2020}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7420A6D4-C714-4D3F-9F43-98D180DEB2A9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09F7BBB4-81EA-4503-B8DD-8985A501E98F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="1817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1991" uniqueCount="1814">
   <si>
     <t>Key</t>
   </si>
@@ -1647,24 +1647,6 @@
     <t>Privacy Policy</t>
   </si>
   <si>
-    <t>ProductCategories</t>
-  </si>
-  <si>
-    <t>أصناف المنتجات</t>
-  </si>
-  <si>
-    <t>Product Categories</t>
-  </si>
-  <si>
-    <t>ProductCategory</t>
-  </si>
-  <si>
-    <t>صنف المنتج</t>
-  </si>
-  <si>
-    <t>Product Category</t>
-  </si>
-  <si>
     <t>RecoveryCode</t>
   </si>
   <si>
@@ -4377,12 +4359,6 @@
     <t>隐私政策</t>
   </si>
   <si>
-    <t>产品类别</t>
-  </si>
-  <si>
-    <t>产品分类</t>
-  </si>
-  <si>
     <t>恢复码</t>
   </si>
   <si>
@@ -5485,6 +5461,21 @@
   </si>
   <si>
     <t>العدد</t>
+  </si>
+  <si>
+    <t>المورد المحدد</t>
+  </si>
+  <si>
+    <t>Classifications</t>
+  </si>
+  <si>
+    <t>تصنيفات</t>
+  </si>
+  <si>
+    <t>تصنيف</t>
+  </si>
+  <si>
+    <t>ResourceClassification_IsLeaf</t>
   </si>
 </sst>
 </file>
@@ -5875,12 +5866,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FEE134-3B22-427F-8E5A-2A7F994BE2AC}">
-  <dimension ref="A1:G506"/>
+  <dimension ref="A1:G507"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A476" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A486" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F507" sqref="F507"/>
+      <selection pane="bottomLeft" activeCell="G502" sqref="G502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5891,7 +5882,7 @@
     <col min="4" max="4" width="23.28515625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="43.85546875" customWidth="1"/>
     <col min="6" max="6" width="45.28515625" customWidth="1"/>
-    <col min="7" max="7" width="54.85546875" customWidth="1"/>
+    <col min="7" max="7" width="47.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -5914,12 +5905,12 @@
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -5928,13 +5919,13 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="F2" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="G2" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -5954,7 +5945,7 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -5974,7 +5965,7 @@
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -5994,12 +5985,12 @@
         <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
@@ -6008,18 +5999,18 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="F6" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="G6" t="s">
-        <v>1561</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="B7" t="b">
         <v>0</v>
@@ -6028,13 +6019,13 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="F7" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="G7" t="s">
-        <v>1562</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -6054,7 +6045,7 @@
         <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -6074,12 +6065,12 @@
         <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
@@ -6088,13 +6079,13 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="F10" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="G10" t="s">
-        <v>1563</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -6114,7 +6105,7 @@
         <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -6134,7 +6125,7 @@
         <v>26</v>
       </c>
       <c r="G12" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -6154,7 +6145,7 @@
         <v>346</v>
       </c>
       <c r="G13" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -6174,12 +6165,12 @@
         <v>468</v>
       </c>
       <c r="G14" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -6188,13 +6179,13 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="F15" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="G15" t="s">
-        <v>1693</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -6214,7 +6205,7 @@
         <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -6234,7 +6225,7 @@
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -6254,7 +6245,7 @@
         <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -6274,12 +6265,12 @@
         <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -6288,13 +6279,13 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="F20" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="G20" t="s">
-        <v>1538</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -6314,7 +6305,7 @@
         <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -6334,12 +6325,12 @@
         <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
@@ -6348,13 +6339,13 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="F23" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="G23" t="s">
-        <v>1472</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -6374,7 +6365,7 @@
         <v>47</v>
       </c>
       <c r="G24" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -6394,7 +6385,7 @@
         <v>49</v>
       </c>
       <c r="G25" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -6414,7 +6405,7 @@
         <v>51</v>
       </c>
       <c r="G26" t="s">
-        <v>1691</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -6434,7 +6425,7 @@
         <v>54</v>
       </c>
       <c r="G27" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -6454,12 +6445,12 @@
         <v>57</v>
       </c>
       <c r="G28" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -6468,13 +6459,13 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="F29" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="G29" t="s">
-        <v>1564</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -6494,7 +6485,7 @@
         <v>60</v>
       </c>
       <c r="G30" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -6514,12 +6505,12 @@
         <v>63</v>
       </c>
       <c r="G31" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -6528,13 +6519,13 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="F32" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="G32" t="s">
-        <v>1565</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -6554,12 +6545,12 @@
         <v>65</v>
       </c>
       <c r="G33" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -6568,18 +6559,18 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="F34" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="G34" t="s">
-        <v>1566</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -6588,13 +6579,13 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="F35" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="G35" t="s">
-        <v>1567</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -6614,7 +6605,7 @@
         <v>68</v>
       </c>
       <c r="G36" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -6634,12 +6625,12 @@
         <v>68</v>
       </c>
       <c r="G37" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="B38" t="b">
         <v>0</v>
@@ -6648,13 +6639,13 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="F38" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="G38" t="s">
-        <v>1568</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -6674,7 +6665,7 @@
         <v>73</v>
       </c>
       <c r="G39" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -6694,7 +6685,7 @@
         <v>75</v>
       </c>
       <c r="G40" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -6714,7 +6705,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -6734,7 +6725,7 @@
         <v>81</v>
       </c>
       <c r="G42" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -6754,7 +6745,7 @@
         <v>84</v>
       </c>
       <c r="G43" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -6774,12 +6765,12 @@
         <v>87</v>
       </c>
       <c r="G44" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="B45" t="b">
         <v>0</v>
@@ -6788,13 +6779,13 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="F45" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="G45" t="s">
-        <v>1510</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -6814,7 +6805,7 @@
         <v>90</v>
       </c>
       <c r="G46" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -6834,7 +6825,7 @@
         <v>93</v>
       </c>
       <c r="G47" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -6854,12 +6845,12 @@
         <v>96</v>
       </c>
       <c r="G48" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="B49" t="b">
         <v>0</v>
@@ -6868,13 +6859,13 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="F49" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="G49" t="s">
-        <v>1569</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -6894,12 +6885,12 @@
         <v>99</v>
       </c>
       <c r="G50" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B51" t="b">
         <v>0</v>
@@ -6908,13 +6899,13 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="F51" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="G51" t="s">
-        <v>1698</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -6934,7 +6925,7 @@
         <v>499</v>
       </c>
       <c r="G52" t="s">
-        <v>1434</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -6954,7 +6945,7 @@
         <v>102</v>
       </c>
       <c r="G53" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -6974,7 +6965,7 @@
         <v>105</v>
       </c>
       <c r="G54" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -6994,12 +6985,12 @@
         <v>108</v>
       </c>
       <c r="G55" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="B56" t="b">
         <v>0</v>
@@ -7008,18 +6999,18 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="F56" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="G56" t="s">
-        <v>1570</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="B57" t="b">
         <v>0</v>
@@ -7028,18 +7019,18 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="F57" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="G57" t="s">
-        <v>1571</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="B58" t="b">
         <v>0</v>
@@ -7048,18 +7039,18 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="F58" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="G58" t="s">
-        <v>1572</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="B59" t="b">
         <v>0</v>
@@ -7068,18 +7059,18 @@
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="F59" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="G59" t="s">
-        <v>1680</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="B60" t="b">
         <v>0</v>
@@ -7088,18 +7079,18 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="F60" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="G60" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="B61" t="b">
         <v>1</v>
@@ -7108,18 +7099,18 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="F61" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="G61" t="s">
-        <v>1546</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="B62" t="b">
         <v>1</v>
@@ -7128,18 +7119,18 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="F62" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="G62" t="s">
-        <v>1546</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="B63" t="b">
         <v>1</v>
@@ -7148,13 +7139,13 @@
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="F63" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="G63" t="s">
-        <v>1547</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -7174,7 +7165,7 @@
         <v>111</v>
       </c>
       <c r="G64" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -7214,7 +7205,7 @@
         <v>116</v>
       </c>
       <c r="G66" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -7234,7 +7225,7 @@
         <v>118</v>
       </c>
       <c r="G67" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -7254,12 +7245,12 @@
         <v>121</v>
       </c>
       <c r="G68" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="B69" t="b">
         <v>0</v>
@@ -7268,13 +7259,13 @@
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="F69" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="G69" t="s">
-        <v>1573</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -7294,12 +7285,12 @@
         <v>124</v>
       </c>
       <c r="G70" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="B71" t="b">
         <v>0</v>
@@ -7308,13 +7299,13 @@
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="F71" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="G71" t="s">
-        <v>1574</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -7334,12 +7325,12 @@
         <v>126</v>
       </c>
       <c r="G72" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="B73" t="b">
         <v>0</v>
@@ -7348,18 +7339,18 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="F73" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="G73" t="s">
-        <v>1532</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="B74" t="b">
         <v>0</v>
@@ -7368,18 +7359,18 @@
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="F74" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="G74" t="s">
-        <v>1575</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="B75" t="b">
         <v>0</v>
@@ -7388,18 +7379,18 @@
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="F75" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="G75" t="s">
-        <v>1532</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="B76" t="b">
         <v>0</v>
@@ -7408,18 +7399,18 @@
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="F76" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="G76" t="s">
-        <v>1576</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="B77" t="b">
         <v>0</v>
@@ -7428,13 +7419,13 @@
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="F77" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="G77" t="s">
-        <v>1577</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -7454,12 +7445,12 @@
         <v>128</v>
       </c>
       <c r="G78" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="B79" t="b">
         <v>0</v>
@@ -7468,13 +7459,13 @@
         <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="F79" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="G79" t="s">
-        <v>1578</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -7494,7 +7485,7 @@
         <v>60</v>
       </c>
       <c r="G80" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -7514,7 +7505,7 @@
         <v>132</v>
       </c>
       <c r="G81" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -7534,12 +7525,12 @@
         <v>135</v>
       </c>
       <c r="G82" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="B83" t="b">
         <v>0</v>
@@ -7548,18 +7539,18 @@
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="F83" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="G83" t="s">
-        <v>1579</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="B84" t="b">
         <v>0</v>
@@ -7568,13 +7559,13 @@
         <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="F84" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="G84" t="s">
-        <v>1580</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -7594,7 +7585,7 @@
         <v>138</v>
       </c>
       <c r="G85" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -7614,7 +7605,7 @@
         <v>141</v>
       </c>
       <c r="G86" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -7634,12 +7625,12 @@
         <v>144</v>
       </c>
       <c r="G87" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="B88" t="b">
         <v>0</v>
@@ -7648,18 +7639,18 @@
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="F88" t="s">
         <v>425</v>
       </c>
       <c r="G88" t="s">
-        <v>1581</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="B89" t="b">
         <v>0</v>
@@ -7668,13 +7659,13 @@
         <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="F89" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="G89" t="s">
-        <v>1582</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -7694,7 +7685,7 @@
         <v>147</v>
       </c>
       <c r="G90" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -7714,7 +7705,7 @@
         <v>149</v>
       </c>
       <c r="G91" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -7734,7 +7725,7 @@
         <v>152</v>
       </c>
       <c r="G92" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -7754,12 +7745,12 @@
         <v>155</v>
       </c>
       <c r="G93" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="B94" t="b">
         <v>0</v>
@@ -7768,13 +7759,13 @@
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="F94" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="G94" t="s">
-        <v>1583</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -7794,7 +7785,7 @@
         <v>158</v>
       </c>
       <c r="G95" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -7814,12 +7805,12 @@
         <v>158</v>
       </c>
       <c r="G96" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="B97" t="b">
         <v>0</v>
@@ -7828,13 +7819,13 @@
         <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="F97" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="G97" t="s">
-        <v>1584</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -7854,7 +7845,7 @@
         <v>162</v>
       </c>
       <c r="G98" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -7874,7 +7865,7 @@
         <v>165</v>
       </c>
       <c r="G99" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -7894,7 +7885,7 @@
         <v>168</v>
       </c>
       <c r="G100" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -7914,7 +7905,7 @@
         <v>171</v>
       </c>
       <c r="G101" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -7934,7 +7925,7 @@
         <v>174</v>
       </c>
       <c r="G102" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -7954,7 +7945,7 @@
         <v>177</v>
       </c>
       <c r="G103" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -7974,7 +7965,7 @@
         <v>180</v>
       </c>
       <c r="G104" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -7994,12 +7985,12 @@
         <v>183</v>
       </c>
       <c r="G105" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="B106" t="b">
         <v>0</v>
@@ -8008,13 +7999,13 @@
         <v>1</v>
       </c>
       <c r="E106" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="F106" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="G106" t="s">
-        <v>1585</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -8034,7 +8025,7 @@
         <v>186</v>
       </c>
       <c r="G107" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -8054,7 +8045,7 @@
         <v>189</v>
       </c>
       <c r="G108" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -8074,7 +8065,7 @@
         <v>192</v>
       </c>
       <c r="G109" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -8094,7 +8085,7 @@
         <v>195</v>
       </c>
       <c r="G110" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -8114,7 +8105,7 @@
         <v>198</v>
       </c>
       <c r="G111" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -8134,7 +8125,7 @@
         <v>201</v>
       </c>
       <c r="G112" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -8154,7 +8145,7 @@
         <v>204</v>
       </c>
       <c r="G113" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -8174,7 +8165,7 @@
         <v>207</v>
       </c>
       <c r="G114" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -8194,7 +8185,7 @@
         <v>210</v>
       </c>
       <c r="G115" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -8214,12 +8205,12 @@
         <v>213</v>
       </c>
       <c r="G116" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="B117" t="b">
         <v>0</v>
@@ -8228,13 +8219,13 @@
         <v>1</v>
       </c>
       <c r="E117" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="F117" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="G117" t="s">
-        <v>1699</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -8254,7 +8245,7 @@
         <v>216</v>
       </c>
       <c r="G118" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -8274,12 +8265,12 @@
         <v>219</v>
       </c>
       <c r="G119" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="B120" t="b">
         <v>0</v>
@@ -8288,13 +8279,13 @@
         <v>1</v>
       </c>
       <c r="E120" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="F120" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="G120" t="s">
-        <v>1586</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -8314,12 +8305,12 @@
         <v>222</v>
       </c>
       <c r="G121" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="B122" t="b">
         <v>0</v>
@@ -8328,18 +8319,18 @@
         <v>1</v>
       </c>
       <c r="E122" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="F122" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="G122" t="s">
-        <v>1587</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="B123" t="b">
         <v>0</v>
@@ -8348,13 +8339,13 @@
         <v>1</v>
       </c>
       <c r="E123" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="F123" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="G123" t="s">
-        <v>1588</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -8374,7 +8365,7 @@
         <v>225</v>
       </c>
       <c r="G124" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -8394,12 +8385,12 @@
         <v>228</v>
       </c>
       <c r="G125" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="B126" t="b">
         <v>1</v>
@@ -8408,18 +8399,18 @@
         <v>0</v>
       </c>
       <c r="E126" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="F126" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="G126" t="s">
-        <v>1531</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="B127" t="b">
         <v>0</v>
@@ -8428,18 +8419,18 @@
         <v>1</v>
       </c>
       <c r="E127" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="F127" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="G127" t="s">
-        <v>1589</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="B128" t="b">
         <v>0</v>
@@ -8448,13 +8439,13 @@
         <v>1</v>
       </c>
       <c r="E128" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="F128" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="G128" t="s">
-        <v>1590</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -8474,7 +8465,7 @@
         <v>231</v>
       </c>
       <c r="G129" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -8494,7 +8485,7 @@
         <v>234</v>
       </c>
       <c r="G130" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -8514,12 +8505,12 @@
         <v>237</v>
       </c>
       <c r="G131" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="B132" t="b">
         <v>0</v>
@@ -8528,13 +8519,13 @@
         <v>1</v>
       </c>
       <c r="E132" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="F132" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="G132" t="s">
-        <v>1591</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -8554,12 +8545,12 @@
         <v>240</v>
       </c>
       <c r="G133" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="B134" t="b">
         <v>1</v>
@@ -8568,13 +8559,13 @@
         <v>0</v>
       </c>
       <c r="E134" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="F134" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="G134" t="s">
-        <v>1548</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -8594,7 +8585,7 @@
         <v>243</v>
       </c>
       <c r="G135" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -8614,7 +8605,7 @@
         <v>246</v>
       </c>
       <c r="G136" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -8634,12 +8625,12 @@
         <v>249</v>
       </c>
       <c r="G137" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="B138" t="b">
         <v>1</v>
@@ -8648,18 +8639,18 @@
         <v>0</v>
       </c>
       <c r="E138" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="F138" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="G138" t="s">
-        <v>1545</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="B139" t="b">
         <v>1</v>
@@ -8668,13 +8659,13 @@
         <v>0</v>
       </c>
       <c r="E139" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="F139" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="G139" t="s">
-        <v>1537</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -8694,7 +8685,7 @@
         <v>252</v>
       </c>
       <c r="G140" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -8714,7 +8705,7 @@
         <v>255</v>
       </c>
       <c r="G141" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -8734,7 +8725,7 @@
         <v>258</v>
       </c>
       <c r="G142" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -8751,10 +8742,10 @@
         <v>261</v>
       </c>
       <c r="F143" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="G143" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -8774,7 +8765,7 @@
         <v>263</v>
       </c>
       <c r="G144" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -8794,7 +8785,7 @@
         <v>266</v>
       </c>
       <c r="G145" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -8814,7 +8805,7 @@
         <v>269</v>
       </c>
       <c r="G146" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -8834,12 +8825,12 @@
         <v>272</v>
       </c>
       <c r="G147" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="B148" t="b">
         <v>1</v>
@@ -8848,18 +8839,18 @@
         <v>0</v>
       </c>
       <c r="E148" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="F148" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="G148" t="s">
-        <v>1542</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="B149" t="b">
         <v>1</v>
@@ -8868,13 +8859,13 @@
         <v>0</v>
       </c>
       <c r="E149" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="F149" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="G149" t="s">
-        <v>1543</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -8894,7 +8885,7 @@
         <v>275</v>
       </c>
       <c r="G150" t="s">
-        <v>1355</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -8914,7 +8905,7 @@
         <v>278</v>
       </c>
       <c r="G151" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -8934,7 +8925,7 @@
         <v>281</v>
       </c>
       <c r="G152" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -8954,12 +8945,12 @@
         <v>284</v>
       </c>
       <c r="G153" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="B154" t="b">
         <v>0</v>
@@ -8968,18 +8959,18 @@
         <v>1</v>
       </c>
       <c r="E154" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="F154" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="G154" t="s">
-        <v>1592</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="B155" t="b">
         <v>0</v>
@@ -8988,18 +8979,18 @@
         <v>1</v>
       </c>
       <c r="E155" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="F155" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="G155" t="s">
-        <v>1593</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="B156" t="b">
         <v>0</v>
@@ -9008,18 +8999,18 @@
         <v>1</v>
       </c>
       <c r="E156" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="F156" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="G156" t="s">
-        <v>1594</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="B157" t="b">
         <v>0</v>
@@ -9028,13 +9019,13 @@
         <v>1</v>
       </c>
       <c r="E157" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="F157" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="G157" t="s">
-        <v>1595</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -9054,12 +9045,12 @@
         <v>287</v>
       </c>
       <c r="G158" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="B159" t="b">
         <v>0</v>
@@ -9068,18 +9059,18 @@
         <v>1</v>
       </c>
       <c r="E159" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="F159" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="G159" t="s">
-        <v>1596</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="B160" t="b">
         <v>0</v>
@@ -9088,18 +9079,18 @@
         <v>1</v>
       </c>
       <c r="E160" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="F160" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="G160" t="s">
-        <v>1597</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="B161" t="b">
         <v>1</v>
@@ -9108,13 +9099,13 @@
         <v>0</v>
       </c>
       <c r="E161" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="F161" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="G161" t="s">
-        <v>1541</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -9134,12 +9125,12 @@
         <v>290</v>
       </c>
       <c r="G162" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="B163" t="b">
         <v>0</v>
@@ -9148,18 +9139,18 @@
         <v>1</v>
       </c>
       <c r="E163" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="F163" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="G163" t="s">
-        <v>1598</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="B164" t="b">
         <v>0</v>
@@ -9168,18 +9159,18 @@
         <v>1</v>
       </c>
       <c r="E164" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="F164" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="G164" t="s">
-        <v>1599</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="B165" t="b">
         <v>0</v>
@@ -9188,13 +9179,13 @@
         <v>1</v>
       </c>
       <c r="E165" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="F165" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="G165" t="s">
-        <v>1600</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -9214,12 +9205,12 @@
         <v>293</v>
       </c>
       <c r="G166" t="s">
-        <v>1361</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="B167" t="b">
         <v>0</v>
@@ -9228,18 +9219,18 @@
         <v>1</v>
       </c>
       <c r="E167" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="F167" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="G167" t="s">
-        <v>1601</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="B168" t="b">
         <v>0</v>
@@ -9248,18 +9239,18 @@
         <v>1</v>
       </c>
       <c r="E168" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="F168" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="G168" t="s">
-        <v>1602</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="B169" t="b">
         <v>0</v>
@@ -9268,13 +9259,13 @@
         <v>1</v>
       </c>
       <c r="E169" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="F169" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="G169" t="s">
-        <v>1603</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -9294,7 +9285,7 @@
         <v>295</v>
       </c>
       <c r="G170" t="s">
-        <v>1362</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -9314,7 +9305,7 @@
         <v>298</v>
       </c>
       <c r="G171" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -9334,7 +9325,7 @@
         <v>301</v>
       </c>
       <c r="G172" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -9354,12 +9345,12 @@
         <v>304</v>
       </c>
       <c r="G173" t="s">
-        <v>1365</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="B174" t="b">
         <v>0</v>
@@ -9368,18 +9359,18 @@
         <v>1</v>
       </c>
       <c r="E174" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="F174" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="G174" t="s">
-        <v>1604</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="B175" t="b">
         <v>0</v>
@@ -9388,13 +9379,13 @@
         <v>1</v>
       </c>
       <c r="E175" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="F175" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="G175" t="s">
-        <v>1605</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -9414,7 +9405,7 @@
         <v>307</v>
       </c>
       <c r="G176" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -9434,12 +9425,12 @@
         <v>310</v>
       </c>
       <c r="G177" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="B178" t="b">
         <v>0</v>
@@ -9448,13 +9439,13 @@
         <v>1</v>
       </c>
       <c r="E178" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="F178" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="G178" t="s">
-        <v>1606</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -9474,7 +9465,7 @@
         <v>313</v>
       </c>
       <c r="G179" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -9494,12 +9485,12 @@
         <v>315</v>
       </c>
       <c r="G180" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="B181" t="b">
         <v>0</v>
@@ -9508,13 +9499,13 @@
         <v>1</v>
       </c>
       <c r="E181" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="F181" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="G181" t="s">
-        <v>1695</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -9534,12 +9525,12 @@
         <v>318</v>
       </c>
       <c r="G182" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="B183" t="b">
         <v>0</v>
@@ -9548,13 +9539,13 @@
         <v>1</v>
       </c>
       <c r="E183" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="F183" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="G183" t="s">
-        <v>1683</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -9574,12 +9565,12 @@
         <v>320</v>
       </c>
       <c r="G184" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="B185" t="b">
         <v>0</v>
@@ -9588,13 +9579,13 @@
         <v>1</v>
       </c>
       <c r="E185" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="F185" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="G185" t="s">
-        <v>1696</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -9614,7 +9605,7 @@
         <v>323</v>
       </c>
       <c r="G186" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -9634,7 +9625,7 @@
         <v>326</v>
       </c>
       <c r="G187" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -9654,12 +9645,12 @@
         <v>329</v>
       </c>
       <c r="G188" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="B189" t="b">
         <v>1</v>
@@ -9668,13 +9659,13 @@
         <v>1</v>
       </c>
       <c r="E189" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="F189" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="G189" t="s">
-        <v>1544</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -9694,7 +9685,7 @@
         <v>332</v>
       </c>
       <c r="G190" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -9714,7 +9705,7 @@
         <v>335</v>
       </c>
       <c r="G191" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -9734,7 +9725,7 @@
         <v>338</v>
       </c>
       <c r="G192" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -9754,12 +9745,12 @@
         <v>341</v>
       </c>
       <c r="G193" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="B194" t="b">
         <v>0</v>
@@ -9768,18 +9759,18 @@
         <v>1</v>
       </c>
       <c r="E194" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="F194" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="G194" t="s">
-        <v>1607</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="B195" t="b">
         <v>0</v>
@@ -9788,18 +9779,18 @@
         <v>1</v>
       </c>
       <c r="E195" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="F195" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="G195" t="s">
-        <v>1608</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="B196" t="b">
         <v>0</v>
@@ -9808,18 +9799,18 @@
         <v>1</v>
       </c>
       <c r="E196" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="F196" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="G196" t="s">
-        <v>1609</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="B197" t="b">
         <v>0</v>
@@ -9828,18 +9819,18 @@
         <v>1</v>
       </c>
       <c r="E197" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="F197" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="G197" t="s">
-        <v>1700</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="B198" t="b">
         <v>0</v>
@@ -9848,18 +9839,18 @@
         <v>1</v>
       </c>
       <c r="E198" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="F198" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="G198" t="s">
-        <v>1610</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="B199" t="b">
         <v>0</v>
@@ -9868,13 +9859,13 @@
         <v>1</v>
       </c>
       <c r="E199" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="F199" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="G199" t="s">
-        <v>1611</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -9894,12 +9885,12 @@
         <v>344</v>
       </c>
       <c r="G200" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="B201" t="b">
         <v>0</v>
@@ -9908,13 +9899,13 @@
         <v>1</v>
       </c>
       <c r="E201" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="F201" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="G201" t="s">
-        <v>1612</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -9934,12 +9925,12 @@
         <v>349</v>
       </c>
       <c r="G202" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="B203" t="b">
         <v>0</v>
@@ -9948,18 +9939,18 @@
         <v>1</v>
       </c>
       <c r="E203" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="F203" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="G203" t="s">
-        <v>1613</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="B204" t="b">
         <v>0</v>
@@ -9968,13 +9959,13 @@
         <v>1</v>
       </c>
       <c r="E204" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="F204" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="G204" t="s">
-        <v>1614</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -9994,7 +9985,7 @@
         <v>352</v>
       </c>
       <c r="G205" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -10014,7 +10005,7 @@
         <v>355</v>
       </c>
       <c r="G206" t="s">
-        <v>1383</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -10034,7 +10025,7 @@
         <v>358</v>
       </c>
       <c r="G207" t="s">
-        <v>1384</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -10054,7 +10045,7 @@
         <v>361</v>
       </c>
       <c r="G208" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -10074,7 +10065,7 @@
         <v>364</v>
       </c>
       <c r="G209" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -10094,7 +10085,7 @@
         <v>367</v>
       </c>
       <c r="G210" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -10114,7 +10105,7 @@
         <v>370</v>
       </c>
       <c r="G211" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -10134,12 +10125,12 @@
         <v>373</v>
       </c>
       <c r="G212" t="s">
-        <v>1389</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="B213" t="b">
         <v>0</v>
@@ -10148,13 +10139,13 @@
         <v>1</v>
       </c>
       <c r="E213" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="F213" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="G213" t="s">
-        <v>1615</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -10174,7 +10165,7 @@
         <v>376</v>
       </c>
       <c r="G214" t="s">
-        <v>1390</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -10194,7 +10185,7 @@
         <v>379</v>
       </c>
       <c r="G215" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -10214,7 +10205,7 @@
         <v>382</v>
       </c>
       <c r="G216" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -10234,12 +10225,12 @@
         <v>19</v>
       </c>
       <c r="G217" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="B218" t="b">
         <v>0</v>
@@ -10248,18 +10239,18 @@
         <v>1</v>
       </c>
       <c r="E218" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="F218" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="G218" t="s">
-        <v>1616</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="B219" t="b">
         <v>0</v>
@@ -10268,18 +10259,18 @@
         <v>1</v>
       </c>
       <c r="E219" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="F219" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="G219" t="s">
-        <v>1697</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="B220" t="b">
         <v>0</v>
@@ -10288,18 +10279,18 @@
         <v>1</v>
       </c>
       <c r="E220" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="F220" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="G220" t="s">
-        <v>1617</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="B221" t="b">
         <v>0</v>
@@ -10308,18 +10299,18 @@
         <v>1</v>
       </c>
       <c r="E221" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="F221" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="G221" t="s">
-        <v>1618</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="B222" t="b">
         <v>0</v>
@@ -10328,18 +10319,18 @@
         <v>1</v>
       </c>
       <c r="E222" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="F222" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="G222" t="s">
-        <v>1619</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="B223" t="b">
         <v>0</v>
@@ -10348,13 +10339,13 @@
         <v>1</v>
       </c>
       <c r="E223" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="F223" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="G223" t="s">
-        <v>1620</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -10374,7 +10365,7 @@
         <v>386</v>
       </c>
       <c r="G224" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -10394,7 +10385,7 @@
         <v>389</v>
       </c>
       <c r="G225" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -10414,12 +10405,12 @@
         <v>392</v>
       </c>
       <c r="G226" t="s">
-        <v>1396</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="B227" t="b">
         <v>0</v>
@@ -10428,13 +10419,13 @@
         <v>1</v>
       </c>
       <c r="E227" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="F227" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="G227" t="s">
-        <v>1701</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -10454,7 +10445,7 @@
         <v>395</v>
       </c>
       <c r="G228" t="s">
-        <v>1397</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -10474,7 +10465,7 @@
         <v>398</v>
       </c>
       <c r="G229" t="s">
-        <v>1398</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -10494,7 +10485,7 @@
         <v>401</v>
       </c>
       <c r="G230" t="s">
-        <v>1399</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -10514,7 +10505,7 @@
         <v>403</v>
       </c>
       <c r="G231" t="s">
-        <v>1400</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
@@ -10534,7 +10525,7 @@
         <v>405</v>
       </c>
       <c r="G232" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -10554,7 +10545,7 @@
         <v>408</v>
       </c>
       <c r="G233" t="s">
-        <v>1402</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -10574,7 +10565,7 @@
         <v>411</v>
       </c>
       <c r="G234" t="s">
-        <v>1403</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -10614,12 +10605,12 @@
         <v>417</v>
       </c>
       <c r="G236" t="s">
-        <v>1404</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="B237" t="b">
         <v>0</v>
@@ -10628,18 +10619,18 @@
         <v>1</v>
       </c>
       <c r="E237" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="F237" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="G237" t="s">
-        <v>1681</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B238" t="b">
         <v>0</v>
@@ -10648,13 +10639,13 @@
         <v>1</v>
       </c>
       <c r="E238" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="F238" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="G238" t="s">
-        <v>1621</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -10674,7 +10665,7 @@
         <v>419</v>
       </c>
       <c r="G239" t="s">
-        <v>1405</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
@@ -10694,7 +10685,7 @@
         <v>422</v>
       </c>
       <c r="G240" t="s">
-        <v>1406</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
@@ -10714,7 +10705,7 @@
         <v>425</v>
       </c>
       <c r="G241" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -10734,7 +10725,7 @@
         <v>428</v>
       </c>
       <c r="G242" t="s">
-        <v>1408</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -10754,7 +10745,7 @@
         <v>431</v>
       </c>
       <c r="G243" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -10774,7 +10765,7 @@
         <v>434</v>
       </c>
       <c r="G244" t="s">
-        <v>1410</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -10794,7 +10785,7 @@
         <v>437</v>
       </c>
       <c r="G245" t="s">
-        <v>1411</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -10814,7 +10805,7 @@
         <v>440</v>
       </c>
       <c r="G246" t="s">
-        <v>1412</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -10834,7 +10825,7 @@
         <v>443</v>
       </c>
       <c r="G247" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -10854,7 +10845,7 @@
         <v>446</v>
       </c>
       <c r="G248" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
@@ -10874,7 +10865,7 @@
         <v>449</v>
       </c>
       <c r="G249" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -10894,7 +10885,7 @@
         <v>452</v>
       </c>
       <c r="G250" t="s">
-        <v>1416</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -10914,7 +10905,7 @@
         <v>455</v>
       </c>
       <c r="G251" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
@@ -10934,12 +10925,12 @@
         <v>458</v>
       </c>
       <c r="G252" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="B253" t="b">
         <v>0</v>
@@ -10948,18 +10939,18 @@
         <v>1</v>
       </c>
       <c r="E253" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="F253" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="G253" t="s">
-        <v>1702</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="B254" t="b">
         <v>0</v>
@@ -10968,13 +10959,13 @@
         <v>1</v>
       </c>
       <c r="E254" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="F254" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="G254" t="s">
-        <v>1622</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -10994,12 +10985,12 @@
         <v>332</v>
       </c>
       <c r="G255" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="B256" t="b">
         <v>0</v>
@@ -11008,18 +10999,18 @@
         <v>1</v>
       </c>
       <c r="E256" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="F256" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="G256" t="s">
-        <v>1623</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="B257" t="b">
         <v>0</v>
@@ -11028,13 +11019,13 @@
         <v>1</v>
       </c>
       <c r="E257" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="F257" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="G257" t="s">
-        <v>1624</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -11054,12 +11045,12 @@
         <v>461</v>
       </c>
       <c r="G258" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="B259" t="b">
         <v>0</v>
@@ -11068,18 +11059,18 @@
         <v>1</v>
       </c>
       <c r="E259" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="F259" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="G259" t="s">
-        <v>1625</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="B260" t="b">
         <v>0</v>
@@ -11088,13 +11079,13 @@
         <v>1</v>
       </c>
       <c r="E260" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="F260" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="G260" t="s">
-        <v>1626</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -11114,12 +11105,12 @@
         <v>464</v>
       </c>
       <c r="G261" t="s">
-        <v>1421</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="B262" t="b">
         <v>0</v>
@@ -11128,18 +11119,18 @@
         <v>1</v>
       </c>
       <c r="E262" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="F262" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="G262" t="s">
-        <v>1627</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="B263" t="b">
         <v>0</v>
@@ -11148,18 +11139,18 @@
         <v>1</v>
       </c>
       <c r="E263" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="F263" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
       <c r="G263" t="s">
-        <v>1679</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="B264" t="b">
         <v>0</v>
@@ -11168,18 +11159,18 @@
         <v>1</v>
       </c>
       <c r="E264" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="F264" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="G264" t="s">
-        <v>1628</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="B265" t="b">
         <v>0</v>
@@ -11188,13 +11179,13 @@
         <v>1</v>
       </c>
       <c r="E265" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="F265" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="G265" t="s">
-        <v>1704</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
@@ -11214,7 +11205,7 @@
         <v>466</v>
       </c>
       <c r="G266" t="s">
-        <v>1422</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
@@ -11234,7 +11225,7 @@
         <v>414</v>
       </c>
       <c r="G267" t="s">
-        <v>1424</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
@@ -11254,7 +11245,7 @@
         <v>408</v>
       </c>
       <c r="G268" t="s">
-        <v>1402</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
@@ -11274,7 +11265,7 @@
         <v>473</v>
       </c>
       <c r="G269" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
@@ -11294,7 +11285,7 @@
         <v>476</v>
       </c>
       <c r="G270" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
@@ -11314,7 +11305,7 @@
         <v>479</v>
       </c>
       <c r="G271" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
@@ -11334,7 +11325,7 @@
         <v>482</v>
       </c>
       <c r="G272" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
@@ -11354,7 +11345,7 @@
         <v>485</v>
       </c>
       <c r="G273" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
@@ -11374,7 +11365,7 @@
         <v>488</v>
       </c>
       <c r="G274" t="s">
-        <v>1430</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
@@ -11394,7 +11385,7 @@
         <v>491</v>
       </c>
       <c r="G275" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
@@ -11414,7 +11405,7 @@
         <v>494</v>
       </c>
       <c r="G276" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
@@ -11434,7 +11425,7 @@
         <v>496</v>
       </c>
       <c r="G277" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
@@ -11454,7 +11445,7 @@
         <v>499</v>
       </c>
       <c r="G278" t="s">
-        <v>1434</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
@@ -11474,12 +11465,12 @@
         <v>502</v>
       </c>
       <c r="G279" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="B280" t="b">
         <v>1</v>
@@ -11488,13 +11479,13 @@
         <v>1</v>
       </c>
       <c r="E280" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="F280" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="G280" t="s">
-        <v>1532</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
@@ -11514,7 +11505,7 @@
         <v>505</v>
       </c>
       <c r="G281" t="s">
-        <v>1436</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
@@ -11534,7 +11525,7 @@
         <v>508</v>
       </c>
       <c r="G282" t="s">
-        <v>1437</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
@@ -11554,7 +11545,7 @@
         <v>511</v>
       </c>
       <c r="G283" t="s">
-        <v>1438</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
@@ -11574,7 +11565,7 @@
         <v>514</v>
       </c>
       <c r="G284" t="s">
-        <v>1439</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
@@ -11594,7 +11585,7 @@
         <v>517</v>
       </c>
       <c r="G285" t="s">
-        <v>1440</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
@@ -11614,7 +11605,7 @@
         <v>520</v>
       </c>
       <c r="G286" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
@@ -11634,7 +11625,7 @@
         <v>425</v>
       </c>
       <c r="G287" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
@@ -11654,7 +11645,7 @@
         <v>524</v>
       </c>
       <c r="G288" t="s">
-        <v>1442</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
@@ -11674,7 +11665,7 @@
         <v>527</v>
       </c>
       <c r="G289" t="s">
-        <v>1443</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
@@ -11694,7 +11685,7 @@
         <v>529</v>
       </c>
       <c r="G290" t="s">
-        <v>1444</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
@@ -11714,12 +11705,12 @@
         <v>532</v>
       </c>
       <c r="G291" t="s">
-        <v>1445</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="B292" t="b">
         <v>0</v>
@@ -11728,13 +11719,13 @@
         <v>1</v>
       </c>
       <c r="E292" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="F292" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="G292" t="s">
-        <v>1629</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
@@ -11754,12 +11745,12 @@
         <v>535</v>
       </c>
       <c r="G293" t="s">
-        <v>1446</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="B294" t="b">
         <v>0</v>
@@ -11768,58 +11759,58 @@
         <v>1</v>
       </c>
       <c r="E294" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="F294" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="G294" t="s">
-        <v>1630</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>537</v>
+        <v>961</v>
       </c>
       <c r="B295" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C295" t="b">
         <v>1</v>
       </c>
       <c r="E295" t="s">
-        <v>539</v>
+        <v>961</v>
       </c>
       <c r="F295" t="s">
-        <v>538</v>
+        <v>604</v>
       </c>
       <c r="G295" t="s">
-        <v>1447</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>540</v>
+        <v>1072</v>
       </c>
       <c r="B296" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C296" t="b">
         <v>1</v>
       </c>
       <c r="E296" t="s">
-        <v>542</v>
+        <v>962</v>
       </c>
       <c r="F296" t="s">
-        <v>541</v>
+        <v>1198</v>
       </c>
       <c r="G296" t="s">
-        <v>1448</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>967</v>
+        <v>1073</v>
       </c>
       <c r="B297" t="b">
         <v>0</v>
@@ -11828,53 +11819,53 @@
         <v>1</v>
       </c>
       <c r="E297" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="F297" t="s">
-        <v>610</v>
-      </c>
-      <c r="G297" t="s">
-        <v>1631</v>
+        <v>1199</v>
+      </c>
+      <c r="G297" s="4" t="s">
+        <v>1625</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>1078</v>
+        <v>537</v>
       </c>
       <c r="B298" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C298" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E298" t="s">
-        <v>968</v>
+        <v>539</v>
       </c>
       <c r="F298" t="s">
-        <v>1204</v>
+        <v>538</v>
       </c>
       <c r="G298" t="s">
-        <v>1632</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>1079</v>
+        <v>540</v>
       </c>
       <c r="B299" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C299" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E299" t="s">
-        <v>969</v>
+        <v>542</v>
       </c>
       <c r="F299" t="s">
-        <v>1205</v>
-      </c>
-      <c r="G299" s="4" t="s">
-        <v>1633</v>
+        <v>541</v>
+      </c>
+      <c r="G299" t="s">
+        <v>1442</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
@@ -11894,7 +11885,7 @@
         <v>544</v>
       </c>
       <c r="G300" t="s">
-        <v>1449</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
@@ -11914,7 +11905,7 @@
         <v>547</v>
       </c>
       <c r="G301" t="s">
-        <v>1450</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
@@ -11934,7 +11925,7 @@
         <v>550</v>
       </c>
       <c r="G302" t="s">
-        <v>1451</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
@@ -11954,7 +11945,7 @@
         <v>553</v>
       </c>
       <c r="G303" t="s">
-        <v>1452</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
@@ -11974,7 +11965,7 @@
         <v>556</v>
       </c>
       <c r="G304" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
@@ -11994,52 +11985,52 @@
         <v>559</v>
       </c>
       <c r="G305" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>561</v>
+        <v>1074</v>
       </c>
       <c r="B306" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C306" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E306" t="s">
-        <v>563</v>
+        <v>964</v>
       </c>
       <c r="F306" t="s">
-        <v>562</v>
+        <v>1200</v>
       </c>
       <c r="G306" t="s">
-        <v>1455</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>564</v>
+        <v>1075</v>
       </c>
       <c r="B307" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C307" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E307" t="s">
-        <v>566</v>
+        <v>965</v>
       </c>
       <c r="F307" t="s">
-        <v>565</v>
+        <v>1201</v>
       </c>
       <c r="G307" t="s">
-        <v>1456</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>1080</v>
+        <v>966</v>
       </c>
       <c r="B308" t="b">
         <v>0</v>
@@ -12048,53 +12039,53 @@
         <v>1</v>
       </c>
       <c r="E308" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="F308" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="G308" t="s">
-        <v>1634</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>1081</v>
+        <v>561</v>
       </c>
       <c r="B309" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C309" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E309" t="s">
-        <v>971</v>
+        <v>563</v>
       </c>
       <c r="F309" t="s">
-        <v>1207</v>
+        <v>562</v>
       </c>
       <c r="G309" t="s">
-        <v>1635</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>972</v>
+        <v>564</v>
       </c>
       <c r="B310" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C310" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E310" t="s">
-        <v>972</v>
+        <v>566</v>
       </c>
       <c r="F310" t="s">
-        <v>1208</v>
+        <v>565</v>
       </c>
       <c r="G310" t="s">
-        <v>1636</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
@@ -12114,7 +12105,7 @@
         <v>568</v>
       </c>
       <c r="G311" t="s">
-        <v>1457</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
@@ -12134,7 +12125,7 @@
         <v>571</v>
       </c>
       <c r="G312" t="s">
-        <v>1458</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
@@ -12154,87 +12145,87 @@
         <v>574</v>
       </c>
       <c r="G313" t="s">
-        <v>1459</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>576</v>
+        <v>1076</v>
       </c>
       <c r="B314" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C314" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E314" t="s">
-        <v>578</v>
+        <v>967</v>
       </c>
       <c r="F314" t="s">
-        <v>577</v>
+        <v>1203</v>
       </c>
       <c r="G314" t="s">
-        <v>1460</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>579</v>
+        <v>1077</v>
       </c>
       <c r="B315" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C315" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E315" t="s">
-        <v>581</v>
+        <v>968</v>
       </c>
       <c r="F315" t="s">
-        <v>580</v>
+        <v>1204</v>
       </c>
       <c r="G315" t="s">
-        <v>1461</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>1082</v>
+        <v>576</v>
       </c>
       <c r="B316" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C316" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E316" t="s">
-        <v>973</v>
+        <v>578</v>
       </c>
       <c r="F316" t="s">
-        <v>1209</v>
+        <v>577</v>
       </c>
       <c r="G316" t="s">
-        <v>1637</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>1083</v>
+        <v>579</v>
       </c>
       <c r="B317" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C317" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E317" t="s">
-        <v>974</v>
+        <v>581</v>
       </c>
       <c r="F317" t="s">
-        <v>1210</v>
+        <v>580</v>
       </c>
       <c r="G317" t="s">
-        <v>1638</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
@@ -12254,7 +12245,7 @@
         <v>583</v>
       </c>
       <c r="G318" t="s">
-        <v>1462</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
@@ -12274,7 +12265,7 @@
         <v>586</v>
       </c>
       <c r="G319" t="s">
-        <v>1463</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
@@ -12294,7 +12285,7 @@
         <v>589</v>
       </c>
       <c r="G320" t="s">
-        <v>1464</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
@@ -12314,7 +12305,7 @@
         <v>592</v>
       </c>
       <c r="G321" t="s">
-        <v>1465</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
@@ -12334,7 +12325,7 @@
         <v>595</v>
       </c>
       <c r="G322" t="s">
-        <v>1466</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
@@ -12354,7 +12345,7 @@
         <v>598</v>
       </c>
       <c r="G323" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
@@ -12368,58 +12359,58 @@
         <v>0</v>
       </c>
       <c r="E324" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F324" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="G324" t="s">
-        <v>1468</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>603</v>
+        <v>855</v>
       </c>
       <c r="B325" t="b">
         <v>1</v>
       </c>
       <c r="C325" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E325" t="s">
-        <v>605</v>
-      </c>
-      <c r="F325" t="s">
-        <v>604</v>
+        <v>857</v>
+      </c>
+      <c r="F325" s="3" t="s">
+        <v>856</v>
       </c>
       <c r="G325" t="s">
-        <v>1469</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>606</v>
+        <v>845</v>
       </c>
       <c r="B326" t="b">
         <v>1</v>
       </c>
       <c r="C326" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E326" t="s">
-        <v>607</v>
+        <v>846</v>
       </c>
       <c r="F326" t="s">
-        <v>592</v>
+        <v>455</v>
       </c>
       <c r="G326" t="s">
-        <v>1470</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="B327" t="b">
         <v>1</v>
@@ -12428,18 +12419,18 @@
         <v>1</v>
       </c>
       <c r="E327" t="s">
-        <v>863</v>
-      </c>
-      <c r="F327" s="3" t="s">
-        <v>862</v>
+        <v>866</v>
+      </c>
+      <c r="F327" t="s">
+        <v>865</v>
       </c>
       <c r="G327" t="s">
-        <v>1552</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B328" t="b">
         <v>1</v>
@@ -12448,18 +12439,18 @@
         <v>1</v>
       </c>
       <c r="E328" t="s">
-        <v>852</v>
+        <v>835</v>
       </c>
       <c r="F328" t="s">
-        <v>455</v>
+        <v>848</v>
       </c>
       <c r="G328" t="s">
-        <v>1549</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B329" t="b">
         <v>1</v>
@@ -12468,18 +12459,18 @@
         <v>1</v>
       </c>
       <c r="E329" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="F329" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="G329" t="s">
-        <v>1555</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="B330" t="b">
         <v>1</v>
@@ -12488,18 +12479,18 @@
         <v>1</v>
       </c>
       <c r="E330" t="s">
-        <v>841</v>
+        <v>860</v>
       </c>
       <c r="F330" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="G330" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>873</v>
+        <v>849</v>
       </c>
       <c r="B331" t="b">
         <v>1</v>
@@ -12508,18 +12499,18 @@
         <v>1</v>
       </c>
       <c r="E331" t="s">
-        <v>875</v>
+        <v>851</v>
       </c>
       <c r="F331" t="s">
-        <v>874</v>
+        <v>850</v>
       </c>
       <c r="G331" t="s">
-        <v>1556</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="B332" t="b">
         <v>1</v>
@@ -12528,18 +12519,18 @@
         <v>1</v>
       </c>
       <c r="E332" t="s">
-        <v>866</v>
+        <v>1740</v>
       </c>
       <c r="F332" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="G332" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>855</v>
+        <v>872</v>
       </c>
       <c r="B333" t="b">
         <v>1</v>
@@ -12548,10 +12539,10 @@
         <v>1</v>
       </c>
       <c r="E333" t="s">
-        <v>857</v>
+        <v>1741</v>
       </c>
       <c r="F333" t="s">
-        <v>856</v>
+        <v>873</v>
       </c>
       <c r="G333" t="s">
         <v>1550</v>
@@ -12559,7 +12550,7 @@
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B334" t="b">
         <v>1</v>
@@ -12568,18 +12559,18 @@
         <v>1</v>
       </c>
       <c r="E334" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
       <c r="F334" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="G334" t="s">
-        <v>1557</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B335" t="b">
         <v>1</v>
@@ -12588,18 +12579,18 @@
         <v>1</v>
       </c>
       <c r="E335" t="s">
-        <v>1749</v>
+        <v>1743</v>
       </c>
       <c r="F335" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="G335" t="s">
-        <v>1558</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>880</v>
+        <v>861</v>
       </c>
       <c r="B336" t="b">
         <v>1</v>
@@ -12608,18 +12599,18 @@
         <v>1</v>
       </c>
       <c r="E336" t="s">
-        <v>1750</v>
+        <v>863</v>
       </c>
       <c r="F336" t="s">
-        <v>881</v>
+        <v>862</v>
       </c>
       <c r="G336" t="s">
-        <v>1559</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>882</v>
+        <v>852</v>
       </c>
       <c r="B337" t="b">
         <v>1</v>
@@ -12628,38 +12619,38 @@
         <v>1</v>
       </c>
       <c r="E337" t="s">
-        <v>1751</v>
+        <v>854</v>
       </c>
       <c r="F337" t="s">
-        <v>883</v>
+        <v>853</v>
       </c>
       <c r="G337" t="s">
-        <v>1560</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>867</v>
+        <v>1078</v>
       </c>
       <c r="B338" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C338" t="b">
         <v>1</v>
       </c>
       <c r="E338" t="s">
-        <v>869</v>
+        <v>969</v>
       </c>
       <c r="F338" t="s">
-        <v>868</v>
+        <v>1205</v>
       </c>
       <c r="G338" t="s">
-        <v>1554</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>858</v>
+        <v>518</v>
       </c>
       <c r="B339" t="b">
         <v>1</v>
@@ -12668,38 +12659,38 @@
         <v>1</v>
       </c>
       <c r="E339" t="s">
-        <v>860</v>
+        <v>518</v>
       </c>
       <c r="F339" t="s">
-        <v>859</v>
+        <v>602</v>
       </c>
       <c r="G339" t="s">
-        <v>1551</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>1084</v>
+        <v>603</v>
       </c>
       <c r="B340" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C340" t="b">
         <v>1</v>
       </c>
       <c r="E340" t="s">
-        <v>975</v>
+        <v>605</v>
       </c>
       <c r="F340" t="s">
-        <v>1211</v>
+        <v>604</v>
       </c>
       <c r="G340" t="s">
-        <v>1639</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>518</v>
+        <v>606</v>
       </c>
       <c r="B341" t="b">
         <v>1</v>
@@ -12711,35 +12702,35 @@
         <v>518</v>
       </c>
       <c r="F341" t="s">
-        <v>608</v>
+        <v>517</v>
       </c>
       <c r="G341" t="s">
-        <v>1440</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
+        <v>607</v>
+      </c>
+      <c r="B342" t="b">
+        <v>1</v>
+      </c>
+      <c r="C342" t="b">
+        <v>1</v>
+      </c>
+      <c r="E342" t="s">
         <v>609</v>
       </c>
-      <c r="B342" t="b">
-        <v>1</v>
-      </c>
-      <c r="C342" t="b">
-        <v>1</v>
-      </c>
-      <c r="E342" t="s">
-        <v>611</v>
-      </c>
       <c r="F342" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G342" t="s">
-        <v>1471</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B343" t="b">
         <v>1</v>
@@ -12748,98 +12739,98 @@
         <v>1</v>
       </c>
       <c r="E343" t="s">
-        <v>518</v>
+        <v>610</v>
       </c>
       <c r="F343" t="s">
-        <v>517</v>
+        <v>611</v>
       </c>
       <c r="G343" t="s">
-        <v>1440</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
+        <v>612</v>
+      </c>
+      <c r="B344" t="b">
+        <v>1</v>
+      </c>
+      <c r="C344" t="b">
+        <v>1</v>
+      </c>
+      <c r="E344" t="s">
+        <v>614</v>
+      </c>
+      <c r="F344" t="s">
         <v>613</v>
       </c>
-      <c r="B344" t="b">
-        <v>1</v>
-      </c>
-      <c r="C344" t="b">
-        <v>1</v>
-      </c>
-      <c r="E344" t="s">
-        <v>615</v>
-      </c>
-      <c r="F344" t="s">
-        <v>614</v>
-      </c>
       <c r="G344" t="s">
-        <v>1472</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
+        <v>615</v>
+      </c>
+      <c r="B345" t="b">
+        <v>1</v>
+      </c>
+      <c r="C345" t="b">
+        <v>1</v>
+      </c>
+      <c r="E345" t="s">
+        <v>615</v>
+      </c>
+      <c r="F345" t="s">
         <v>616</v>
       </c>
-      <c r="B345" t="b">
-        <v>1</v>
-      </c>
-      <c r="C345" t="b">
-        <v>1</v>
-      </c>
-      <c r="E345" t="s">
-        <v>616</v>
-      </c>
-      <c r="F345" t="s">
-        <v>617</v>
-      </c>
       <c r="G345" t="s">
-        <v>1440</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>618</v>
+        <v>970</v>
       </c>
       <c r="B346" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C346" t="b">
         <v>1</v>
       </c>
       <c r="E346" t="s">
-        <v>620</v>
+        <v>970</v>
       </c>
       <c r="F346" t="s">
-        <v>619</v>
+        <v>1206</v>
       </c>
       <c r="G346" t="s">
-        <v>1473</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>621</v>
+        <v>1115</v>
       </c>
       <c r="B347" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C347" t="b">
         <v>1</v>
       </c>
       <c r="E347" t="s">
-        <v>621</v>
+        <v>1015</v>
       </c>
       <c r="F347" t="s">
-        <v>622</v>
+        <v>1252</v>
       </c>
       <c r="G347" t="s">
-        <v>1474</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>976</v>
+        <v>1116</v>
       </c>
       <c r="B348" t="b">
         <v>0</v>
@@ -12848,158 +12839,158 @@
         <v>1</v>
       </c>
       <c r="E348" t="s">
-        <v>976</v>
+        <v>1016</v>
       </c>
       <c r="F348" t="s">
-        <v>1212</v>
+        <v>1253</v>
       </c>
       <c r="G348" t="s">
-        <v>1640</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>1121</v>
+        <v>617</v>
       </c>
       <c r="B349" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C349" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E349" t="s">
-        <v>1021</v>
+        <v>618</v>
       </c>
       <c r="F349" t="s">
-        <v>1258</v>
+        <v>102</v>
       </c>
       <c r="G349" t="s">
-        <v>1684</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>1122</v>
+        <v>619</v>
       </c>
       <c r="B350" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C350" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E350" t="s">
-        <v>1022</v>
+        <v>621</v>
       </c>
       <c r="F350" t="s">
-        <v>1259</v>
+        <v>620</v>
       </c>
       <c r="G350" t="s">
-        <v>1685</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
+        <v>622</v>
+      </c>
+      <c r="B351" t="b">
+        <v>1</v>
+      </c>
+      <c r="C351" t="b">
+        <v>1</v>
+      </c>
+      <c r="E351" t="s">
+        <v>622</v>
+      </c>
+      <c r="F351" t="s">
         <v>623</v>
       </c>
-      <c r="B351" t="b">
-        <v>1</v>
-      </c>
-      <c r="C351" t="b">
-        <v>0</v>
-      </c>
-      <c r="E351" t="s">
-        <v>624</v>
-      </c>
-      <c r="F351" t="s">
-        <v>102</v>
-      </c>
       <c r="G351" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
+        <v>624</v>
+      </c>
+      <c r="B352" t="b">
+        <v>1</v>
+      </c>
+      <c r="C352" t="b">
+        <v>1</v>
+      </c>
+      <c r="E352" t="s">
+        <v>626</v>
+      </c>
+      <c r="F352" t="s">
         <v>625</v>
       </c>
-      <c r="B352" t="b">
-        <v>1</v>
-      </c>
-      <c r="C352" t="b">
-        <v>0</v>
-      </c>
-      <c r="E352" t="s">
-        <v>627</v>
-      </c>
-      <c r="F352" t="s">
-        <v>626</v>
-      </c>
       <c r="G352" t="s">
-        <v>1476</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>628</v>
+        <v>1079</v>
       </c>
       <c r="B353" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C353" t="b">
         <v>1</v>
       </c>
       <c r="E353" t="s">
-        <v>628</v>
+        <v>971</v>
       </c>
       <c r="F353" t="s">
-        <v>629</v>
+        <v>1207</v>
       </c>
       <c r="G353" t="s">
-        <v>1477</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>630</v>
+        <v>1080</v>
       </c>
       <c r="B354" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C354" t="b">
         <v>1</v>
       </c>
       <c r="E354" t="s">
-        <v>632</v>
+        <v>972</v>
       </c>
       <c r="F354" t="s">
-        <v>631</v>
+        <v>1208</v>
       </c>
       <c r="G354" t="s">
-        <v>1478</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>1085</v>
+        <v>627</v>
       </c>
       <c r="B355" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C355" t="b">
         <v>1</v>
       </c>
       <c r="E355" t="s">
-        <v>977</v>
+        <v>629</v>
       </c>
       <c r="F355" t="s">
-        <v>1213</v>
+        <v>628</v>
       </c>
       <c r="G355" t="s">
-        <v>1641</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="B356" t="b">
         <v>0</v>
@@ -13008,18 +12999,18 @@
         <v>1</v>
       </c>
       <c r="E356" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="F356" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="G356" t="s">
-        <v>1642</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B357" t="b">
         <v>1</v>
@@ -13028,78 +13019,78 @@
         <v>1</v>
       </c>
       <c r="E357" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F357" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G357" t="s">
-        <v>1479</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>1087</v>
+        <v>633</v>
       </c>
       <c r="B358" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C358" t="b">
         <v>1</v>
       </c>
       <c r="E358" t="s">
-        <v>979</v>
+        <v>634</v>
       </c>
       <c r="F358" t="s">
-        <v>1215</v>
+        <v>105</v>
       </c>
       <c r="G358" t="s">
-        <v>1643</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
+        <v>635</v>
+      </c>
+      <c r="B359" t="b">
+        <v>1</v>
+      </c>
+      <c r="C359" t="b">
+        <v>1</v>
+      </c>
+      <c r="E359" t="s">
+        <v>1679</v>
+      </c>
+      <c r="F359" t="s">
         <v>636</v>
       </c>
-      <c r="B359" t="b">
-        <v>1</v>
-      </c>
-      <c r="C359" t="b">
-        <v>1</v>
-      </c>
-      <c r="E359" t="s">
-        <v>638</v>
-      </c>
-      <c r="F359" t="s">
-        <v>637</v>
-      </c>
       <c r="G359" t="s">
-        <v>1480</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>639</v>
+        <v>1082</v>
       </c>
       <c r="B360" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C360" t="b">
         <v>1</v>
       </c>
       <c r="E360" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="F360" t="s">
-        <v>105</v>
+        <v>1210</v>
       </c>
       <c r="G360" t="s">
-        <v>1481</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B361" t="b">
         <v>1</v>
@@ -13108,21 +13099,21 @@
         <v>1</v>
       </c>
       <c r="E361" t="s">
-        <v>1687</v>
+        <v>640</v>
       </c>
       <c r="F361" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G361" t="s">
-        <v>1694</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>1088</v>
+        <v>641</v>
       </c>
       <c r="B362" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C362" t="b">
         <v>1</v>
@@ -13131,35 +13122,35 @@
         <v>643</v>
       </c>
       <c r="F362" t="s">
-        <v>1216</v>
+        <v>642</v>
       </c>
       <c r="G362" t="s">
-        <v>1482</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>644</v>
+        <v>1083</v>
       </c>
       <c r="B363" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C363" t="b">
         <v>1</v>
       </c>
       <c r="E363" t="s">
-        <v>646</v>
+        <v>974</v>
       </c>
       <c r="F363" t="s">
-        <v>645</v>
+        <v>1211</v>
       </c>
       <c r="G363" t="s">
-        <v>1483</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>647</v>
+        <v>811</v>
       </c>
       <c r="B364" t="b">
         <v>1</v>
@@ -13168,58 +13159,58 @@
         <v>1</v>
       </c>
       <c r="E364" t="s">
-        <v>649</v>
+        <v>813</v>
       </c>
       <c r="F364" t="s">
-        <v>648</v>
+        <v>812</v>
       </c>
       <c r="G364" t="s">
-        <v>1484</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>1089</v>
+        <v>811</v>
       </c>
       <c r="B365" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C365" t="b">
         <v>1</v>
       </c>
       <c r="E365" t="s">
-        <v>980</v>
+        <v>813</v>
       </c>
       <c r="F365" t="s">
-        <v>1217</v>
+        <v>812</v>
       </c>
       <c r="G365" t="s">
-        <v>1644</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>817</v>
+        <v>1678</v>
       </c>
       <c r="B366" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C366" t="b">
         <v>1</v>
       </c>
       <c r="E366" t="s">
-        <v>819</v>
+        <v>1680</v>
       </c>
       <c r="F366" t="s">
-        <v>818</v>
+        <v>1681</v>
       </c>
       <c r="G366" t="s">
-        <v>1539</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B367" t="b">
         <v>1</v>
@@ -13228,78 +13219,78 @@
         <v>1</v>
       </c>
       <c r="E367" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="F367" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="G367" t="s">
-        <v>1539</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>1686</v>
+        <v>814</v>
       </c>
       <c r="B368" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C368" t="b">
         <v>1</v>
       </c>
       <c r="E368" t="s">
-        <v>1688</v>
+        <v>816</v>
       </c>
       <c r="F368" t="s">
-        <v>1689</v>
+        <v>815</v>
       </c>
       <c r="G368" t="s">
-        <v>1690</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>820</v>
+        <v>1084</v>
       </c>
       <c r="B369" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C369" t="b">
         <v>1</v>
       </c>
       <c r="E369" t="s">
-        <v>822</v>
+        <v>975</v>
       </c>
       <c r="F369" t="s">
-        <v>821</v>
+        <v>1212</v>
       </c>
       <c r="G369" t="s">
-        <v>1540</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>820</v>
+        <v>1085</v>
       </c>
       <c r="B370" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C370" t="b">
         <v>1</v>
       </c>
       <c r="E370" t="s">
-        <v>822</v>
+        <v>976</v>
       </c>
       <c r="F370" t="s">
-        <v>821</v>
+        <v>1213</v>
       </c>
       <c r="G370" t="s">
-        <v>1540</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="B371" t="b">
         <v>0</v>
@@ -13308,18 +13299,18 @@
         <v>1</v>
       </c>
       <c r="E371" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="F371" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="G371" t="s">
-        <v>1645</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="B372" t="b">
         <v>0</v>
@@ -13328,18 +13319,18 @@
         <v>1</v>
       </c>
       <c r="E372" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="F372" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="G372" t="s">
-        <v>1646</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="B373" t="b">
         <v>0</v>
@@ -13348,18 +13339,18 @@
         <v>1</v>
       </c>
       <c r="E373" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="F373" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="G373" t="s">
-        <v>1647</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="B374" t="b">
         <v>0</v>
@@ -13368,18 +13359,18 @@
         <v>1</v>
       </c>
       <c r="E374" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="F374" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="G374" t="s">
-        <v>1648</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="B375" t="b">
         <v>0</v>
@@ -13388,18 +13379,18 @@
         <v>1</v>
       </c>
       <c r="E375" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="F375" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="G375" t="s">
-        <v>1649</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="B376" t="b">
         <v>0</v>
@@ -13408,18 +13399,18 @@
         <v>1</v>
       </c>
       <c r="E376" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="F376" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="G376" t="s">
-        <v>1650</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B377" t="b">
         <v>0</v>
@@ -13428,18 +13419,18 @@
         <v>1</v>
       </c>
       <c r="E377" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="F377" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="G377" t="s">
-        <v>1651</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="B378" t="b">
         <v>0</v>
@@ -13448,18 +13439,18 @@
         <v>1</v>
       </c>
       <c r="E378" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="F378" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="G378" t="s">
-        <v>1652</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="B379" t="b">
         <v>0</v>
@@ -13468,18 +13459,18 @@
         <v>1</v>
       </c>
       <c r="E379" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="F379" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="G379" t="s">
-        <v>1653</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="B380" t="b">
         <v>0</v>
@@ -13488,18 +13479,18 @@
         <v>1</v>
       </c>
       <c r="E380" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="F380" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="G380" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="B381" t="b">
         <v>0</v>
@@ -13508,18 +13499,18 @@
         <v>1</v>
       </c>
       <c r="E381" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="F381" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="G381" t="s">
-        <v>1655</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="B382" t="b">
         <v>0</v>
@@ -13528,18 +13519,18 @@
         <v>1</v>
       </c>
       <c r="E382" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="F382" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="G382" t="s">
-        <v>1656</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="B383" t="b">
         <v>0</v>
@@ -13548,18 +13539,18 @@
         <v>1</v>
       </c>
       <c r="E383" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="F383" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="G383" t="s">
-        <v>1657</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="B384" t="b">
         <v>0</v>
@@ -13568,18 +13559,18 @@
         <v>1</v>
       </c>
       <c r="E384" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="F384" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="G384" t="s">
-        <v>1658</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="B385" t="b">
         <v>0</v>
@@ -13588,18 +13579,18 @@
         <v>1</v>
       </c>
       <c r="E385" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="F385" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="G385" t="s">
-        <v>1659</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="B386" t="b">
         <v>0</v>
@@ -13608,18 +13599,18 @@
         <v>1</v>
       </c>
       <c r="E386" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="F386" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="G386" t="s">
-        <v>1660</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="B387" t="b">
         <v>0</v>
@@ -13628,73 +13619,73 @@
         <v>1</v>
       </c>
       <c r="E387" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="F387" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="G387" t="s">
-        <v>1661</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>1107</v>
+        <v>644</v>
       </c>
       <c r="B388" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C388" t="b">
         <v>1</v>
       </c>
       <c r="E388" t="s">
-        <v>998</v>
+        <v>644</v>
       </c>
       <c r="F388" t="s">
-        <v>1235</v>
+        <v>645</v>
       </c>
       <c r="G388" t="s">
-        <v>1662</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>1108</v>
+        <v>646</v>
       </c>
       <c r="B389" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C389" t="b">
         <v>1</v>
       </c>
       <c r="E389" t="s">
-        <v>999</v>
+        <v>648</v>
       </c>
       <c r="F389" t="s">
-        <v>1236</v>
+        <v>647</v>
       </c>
       <c r="G389" t="s">
-        <v>1663</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
+        <v>649</v>
+      </c>
+      <c r="B390" t="b">
+        <v>1</v>
+      </c>
+      <c r="C390" t="b">
+        <v>0</v>
+      </c>
+      <c r="E390" t="s">
+        <v>651</v>
+      </c>
+      <c r="F390" t="s">
         <v>650</v>
       </c>
-      <c r="B390" t="b">
-        <v>1</v>
-      </c>
-      <c r="C390" t="b">
-        <v>1</v>
-      </c>
-      <c r="E390" t="s">
-        <v>650</v>
-      </c>
-      <c r="F390" t="s">
-        <v>651</v>
-      </c>
       <c r="G390" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
@@ -13705,7 +13696,7 @@
         <v>1</v>
       </c>
       <c r="C391" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E391" t="s">
         <v>654</v>
@@ -13714,7 +13705,7 @@
         <v>653</v>
       </c>
       <c r="G391" t="s">
-        <v>1486</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
@@ -13725,7 +13716,7 @@
         <v>1</v>
       </c>
       <c r="C392" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E392" t="s">
         <v>657</v>
@@ -13734,7 +13725,7 @@
         <v>656</v>
       </c>
       <c r="G392" t="s">
-        <v>1487</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
@@ -13754,7 +13745,7 @@
         <v>659</v>
       </c>
       <c r="G393" t="s">
-        <v>1488</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
@@ -13765,7 +13756,7 @@
         <v>1</v>
       </c>
       <c r="C394" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E394" t="s">
         <v>663</v>
@@ -13774,7 +13765,7 @@
         <v>662</v>
       </c>
       <c r="G394" t="s">
-        <v>1489</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
@@ -13794,52 +13785,52 @@
         <v>665</v>
       </c>
       <c r="G395" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>667</v>
+        <v>799</v>
       </c>
       <c r="B396" t="b">
         <v>1</v>
       </c>
       <c r="C396" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E396" t="s">
-        <v>669</v>
+        <v>801</v>
       </c>
       <c r="F396" t="s">
-        <v>668</v>
+        <v>800</v>
       </c>
       <c r="G396" t="s">
-        <v>1491</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>670</v>
+        <v>802</v>
       </c>
       <c r="B397" t="b">
         <v>1</v>
       </c>
       <c r="C397" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E397" t="s">
-        <v>672</v>
+        <v>2</v>
       </c>
       <c r="F397" t="s">
-        <v>671</v>
+        <v>803</v>
       </c>
       <c r="G397" t="s">
-        <v>1492</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="B398" t="b">
         <v>1</v>
@@ -13848,18 +13839,18 @@
         <v>1</v>
       </c>
       <c r="E398" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="F398" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="G398" t="s">
-        <v>1535</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>808</v>
+        <v>791</v>
       </c>
       <c r="B399" t="b">
         <v>1</v>
@@ -13868,18 +13859,18 @@
         <v>1</v>
       </c>
       <c r="E399" t="s">
-        <v>2</v>
+        <v>793</v>
       </c>
       <c r="F399" t="s">
-        <v>809</v>
+        <v>792</v>
       </c>
       <c r="G399" t="s">
-        <v>1536</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="B400" t="b">
         <v>1</v>
@@ -13888,18 +13879,18 @@
         <v>1</v>
       </c>
       <c r="E400" t="s">
-        <v>804</v>
+        <v>742</v>
       </c>
       <c r="F400" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="G400" t="s">
-        <v>1534</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>797</v>
+        <v>667</v>
       </c>
       <c r="B401" t="b">
         <v>1</v>
@@ -13908,273 +13899,273 @@
         <v>1</v>
       </c>
       <c r="E401" t="s">
-        <v>799</v>
+        <v>667</v>
       </c>
       <c r="F401" t="s">
-        <v>798</v>
+        <v>668</v>
       </c>
       <c r="G401" t="s">
-        <v>1533</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>800</v>
+        <v>1103</v>
       </c>
       <c r="B402" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C402" t="b">
         <v>1</v>
       </c>
       <c r="E402" t="s">
-        <v>748</v>
+        <v>994</v>
       </c>
       <c r="F402" t="s">
-        <v>801</v>
+        <v>1231</v>
       </c>
       <c r="G402" t="s">
-        <v>1516</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>673</v>
+        <v>1104</v>
       </c>
       <c r="B403" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C403" t="b">
         <v>1</v>
       </c>
       <c r="E403" t="s">
-        <v>673</v>
+        <v>995</v>
       </c>
       <c r="F403" t="s">
-        <v>674</v>
+        <v>1232</v>
       </c>
       <c r="G403" t="s">
-        <v>1493</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>1109</v>
+        <v>669</v>
       </c>
       <c r="B404" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C404" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E404" t="s">
-        <v>1000</v>
+        <v>671</v>
       </c>
       <c r="F404" t="s">
-        <v>1237</v>
+        <v>670</v>
       </c>
       <c r="G404" t="s">
-        <v>1664</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>1110</v>
+        <v>672</v>
       </c>
       <c r="B405" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C405" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E405" t="s">
-        <v>1001</v>
+        <v>674</v>
       </c>
       <c r="F405" t="s">
-        <v>1238</v>
+        <v>673</v>
       </c>
       <c r="G405" t="s">
-        <v>1665</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>675</v>
+        <v>996</v>
       </c>
       <c r="B406" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C406" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E406" t="s">
-        <v>677</v>
+        <v>996</v>
       </c>
       <c r="F406" t="s">
-        <v>676</v>
+        <v>1233</v>
       </c>
       <c r="G406" t="s">
-        <v>1494</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B407" t="b">
         <v>1</v>
       </c>
       <c r="C407" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E407" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="F407" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="G407" t="s">
-        <v>1495</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>1002</v>
+        <v>678</v>
       </c>
       <c r="B408" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C408" t="b">
         <v>1</v>
       </c>
       <c r="E408" t="s">
-        <v>1002</v>
+        <v>8</v>
       </c>
       <c r="F408" t="s">
-        <v>1239</v>
+        <v>332</v>
       </c>
       <c r="G408" t="s">
-        <v>1666</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
+        <v>679</v>
+      </c>
+      <c r="B409" t="b">
+        <v>1</v>
+      </c>
+      <c r="C409" t="b">
+        <v>1</v>
+      </c>
+      <c r="E409" t="s">
         <v>681</v>
       </c>
-      <c r="B409" t="b">
-        <v>1</v>
-      </c>
-      <c r="C409" t="b">
-        <v>1</v>
-      </c>
-      <c r="E409" t="s">
-        <v>683</v>
-      </c>
       <c r="F409" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G409" t="s">
-        <v>1496</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
+        <v>682</v>
+      </c>
+      <c r="B410" t="b">
+        <v>1</v>
+      </c>
+      <c r="C410" t="b">
+        <v>1</v>
+      </c>
+      <c r="E410" t="s">
         <v>684</v>
       </c>
-      <c r="B410" t="b">
-        <v>1</v>
-      </c>
-      <c r="C410" t="b">
-        <v>1</v>
-      </c>
-      <c r="E410" t="s">
-        <v>8</v>
-      </c>
       <c r="F410" t="s">
-        <v>332</v>
+        <v>683</v>
       </c>
       <c r="G410" t="s">
-        <v>1419</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>685</v>
+        <v>997</v>
       </c>
       <c r="B411" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C411" t="b">
         <v>1</v>
       </c>
       <c r="E411" t="s">
-        <v>687</v>
+        <v>997</v>
       </c>
       <c r="F411" t="s">
-        <v>686</v>
+        <v>1234</v>
       </c>
       <c r="G411" t="s">
-        <v>1497</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>688</v>
+        <v>998</v>
       </c>
       <c r="B412" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C412" t="b">
         <v>1</v>
       </c>
       <c r="E412" t="s">
-        <v>690</v>
+        <v>998</v>
       </c>
       <c r="F412" t="s">
-        <v>689</v>
+        <v>1235</v>
       </c>
       <c r="G412" t="s">
-        <v>1498</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>1003</v>
+        <v>685</v>
       </c>
       <c r="B413" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C413" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E413" t="s">
-        <v>1003</v>
+        <v>687</v>
       </c>
       <c r="F413" t="s">
-        <v>1240</v>
+        <v>686</v>
       </c>
       <c r="G413" t="s">
-        <v>1667</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>1004</v>
+        <v>688</v>
       </c>
       <c r="B414" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C414" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E414" t="s">
-        <v>1004</v>
+        <v>690</v>
       </c>
       <c r="F414" t="s">
-        <v>1241</v>
+        <v>689</v>
       </c>
       <c r="G414" t="s">
-        <v>1668</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
@@ -14194,7 +14185,7 @@
         <v>692</v>
       </c>
       <c r="G415" t="s">
-        <v>1499</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
@@ -14214,72 +14205,72 @@
         <v>695</v>
       </c>
       <c r="G416" t="s">
-        <v>1500</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>697</v>
+        <v>999</v>
       </c>
       <c r="B417" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C417" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E417" t="s">
-        <v>699</v>
+        <v>999</v>
       </c>
       <c r="F417" t="s">
-        <v>698</v>
+        <v>1236</v>
       </c>
       <c r="G417" t="s">
-        <v>1501</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="B418" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C418" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E418" t="s">
-        <v>702</v>
+        <v>1000</v>
       </c>
       <c r="F418" t="s">
-        <v>701</v>
+        <v>1237</v>
       </c>
       <c r="G418" t="s">
-        <v>1502</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>1005</v>
+        <v>697</v>
       </c>
       <c r="B419" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C419" t="b">
         <v>1</v>
       </c>
       <c r="E419" t="s">
-        <v>1005</v>
+        <v>699</v>
       </c>
       <c r="F419" t="s">
-        <v>1242</v>
+        <v>698</v>
       </c>
       <c r="G419" t="s">
-        <v>1669</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>1006</v>
+        <v>1105</v>
       </c>
       <c r="B420" t="b">
         <v>0</v>
@@ -14288,73 +14279,73 @@
         <v>1</v>
       </c>
       <c r="E420" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="F420" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="G420" t="s">
-        <v>1670</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B421" t="b">
         <v>1</v>
       </c>
       <c r="C421" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E421" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="F421" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G421" t="s">
-        <v>1503</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>1111</v>
+        <v>702</v>
       </c>
       <c r="B422" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C422" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E422" t="s">
-        <v>1007</v>
+        <v>704</v>
       </c>
       <c r="F422" t="s">
-        <v>1244</v>
+        <v>703</v>
       </c>
       <c r="G422" t="s">
-        <v>1671</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
+        <v>705</v>
+      </c>
+      <c r="B423" t="b">
+        <v>1</v>
+      </c>
+      <c r="C423" t="b">
+        <v>0</v>
+      </c>
+      <c r="E423" t="s">
+        <v>707</v>
+      </c>
+      <c r="F423" t="s">
         <v>706</v>
       </c>
-      <c r="B423" t="b">
-        <v>1</v>
-      </c>
-      <c r="C423" t="b">
-        <v>0</v>
-      </c>
-      <c r="E423" t="s">
-        <v>706</v>
-      </c>
-      <c r="F423" t="s">
-        <v>707</v>
-      </c>
       <c r="G423" t="s">
-        <v>1504</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
@@ -14368,78 +14359,78 @@
         <v>0</v>
       </c>
       <c r="E424" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F424" t="s">
-        <v>709</v>
+        <v>1256</v>
       </c>
       <c r="G424" t="s">
-        <v>1505</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
+        <v>710</v>
+      </c>
+      <c r="B425" t="b">
+        <v>1</v>
+      </c>
+      <c r="C425" t="b">
+        <v>0</v>
+      </c>
+      <c r="E425" t="s">
+        <v>712</v>
+      </c>
+      <c r="F425" t="s">
         <v>711</v>
       </c>
-      <c r="B425" t="b">
-        <v>1</v>
-      </c>
-      <c r="C425" t="b">
-        <v>0</v>
-      </c>
-      <c r="E425" t="s">
-        <v>713</v>
-      </c>
-      <c r="F425" t="s">
-        <v>712</v>
-      </c>
       <c r="G425" t="s">
-        <v>1506</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>714</v>
+        <v>1002</v>
       </c>
       <c r="B426" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C426" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E426" t="s">
-        <v>715</v>
+        <v>1002</v>
       </c>
       <c r="F426" t="s">
-        <v>1262</v>
+        <v>1239</v>
       </c>
       <c r="G426" t="s">
-        <v>1507</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>716</v>
+        <v>1106</v>
       </c>
       <c r="B427" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C427" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E427" t="s">
-        <v>718</v>
+        <v>1003</v>
       </c>
       <c r="F427" t="s">
-        <v>717</v>
+        <v>1240</v>
       </c>
       <c r="G427" t="s">
-        <v>1508</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>1008</v>
+        <v>1107</v>
       </c>
       <c r="B428" t="b">
         <v>0</v>
@@ -14448,18 +14439,18 @@
         <v>1</v>
       </c>
       <c r="E428" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="F428" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="G428" t="s">
-        <v>1672</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>1112</v>
+        <v>1013</v>
       </c>
       <c r="B429" t="b">
         <v>0</v>
@@ -14468,58 +14459,58 @@
         <v>1</v>
       </c>
       <c r="E429" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="F429" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="G429" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>1113</v>
+        <v>609</v>
       </c>
       <c r="B430" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C430" t="b">
         <v>1</v>
       </c>
       <c r="E430" t="s">
-        <v>1010</v>
+        <v>609</v>
       </c>
       <c r="F430" t="s">
-        <v>1247</v>
+        <v>713</v>
       </c>
       <c r="G430" t="s">
-        <v>1674</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>1019</v>
+        <v>714</v>
       </c>
       <c r="B431" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C431" t="b">
         <v>1</v>
       </c>
       <c r="E431" t="s">
-        <v>1019</v>
+        <v>23</v>
       </c>
       <c r="F431" t="s">
-        <v>1256</v>
+        <v>715</v>
       </c>
       <c r="G431" t="s">
-        <v>1682</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>615</v>
+        <v>716</v>
       </c>
       <c r="B432" t="b">
         <v>1</v>
@@ -14528,33 +14519,33 @@
         <v>1</v>
       </c>
       <c r="E432" t="s">
-        <v>615</v>
+        <v>718</v>
       </c>
       <c r="F432" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="G432" t="s">
-        <v>1472</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
+        <v>719</v>
+      </c>
+      <c r="B433" t="b">
+        <v>1</v>
+      </c>
+      <c r="C433" t="b">
+        <v>1</v>
+      </c>
+      <c r="E433" t="s">
+        <v>721</v>
+      </c>
+      <c r="F433" t="s">
         <v>720</v>
       </c>
-      <c r="B433" t="b">
-        <v>1</v>
-      </c>
-      <c r="C433" t="b">
-        <v>1</v>
-      </c>
-      <c r="E433" t="s">
-        <v>23</v>
-      </c>
-      <c r="F433" t="s">
-        <v>721</v>
-      </c>
       <c r="G433" t="s">
-        <v>1270</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
@@ -14568,53 +14559,53 @@
         <v>1</v>
       </c>
       <c r="E434" t="s">
-        <v>724</v>
+        <v>146</v>
       </c>
       <c r="F434" t="s">
-        <v>723</v>
+        <v>147</v>
       </c>
       <c r="G434" t="s">
-        <v>1509</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
+        <v>723</v>
+      </c>
+      <c r="B435" t="b">
+        <v>1</v>
+      </c>
+      <c r="C435" t="b">
+        <v>1</v>
+      </c>
+      <c r="E435" t="s">
         <v>725</v>
       </c>
-      <c r="B435" t="b">
-        <v>1</v>
-      </c>
-      <c r="C435" t="b">
-        <v>1</v>
-      </c>
-      <c r="E435" t="s">
-        <v>727</v>
-      </c>
       <c r="F435" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G435" t="s">
-        <v>1510</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
+        <v>726</v>
+      </c>
+      <c r="B436" t="b">
+        <v>1</v>
+      </c>
+      <c r="C436" t="b">
+        <v>1</v>
+      </c>
+      <c r="E436" t="s">
         <v>728</v>
       </c>
-      <c r="B436" t="b">
-        <v>1</v>
-      </c>
-      <c r="C436" t="b">
-        <v>1</v>
-      </c>
-      <c r="E436" t="s">
-        <v>146</v>
-      </c>
       <c r="F436" t="s">
-        <v>147</v>
+        <v>727</v>
       </c>
       <c r="G436" t="s">
-        <v>1312</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
@@ -14628,78 +14619,78 @@
         <v>1</v>
       </c>
       <c r="E437" t="s">
-        <v>731</v>
+        <v>610</v>
       </c>
       <c r="F437" t="s">
         <v>730</v>
       </c>
       <c r="G437" t="s">
-        <v>1511</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
+        <v>731</v>
+      </c>
+      <c r="B438" t="b">
+        <v>1</v>
+      </c>
+      <c r="C438" t="b">
+        <v>0</v>
+      </c>
+      <c r="E438" t="s">
+        <v>733</v>
+      </c>
+      <c r="F438" t="s">
         <v>732</v>
       </c>
-      <c r="B438" t="b">
-        <v>1</v>
-      </c>
-      <c r="C438" t="b">
-        <v>1</v>
-      </c>
-      <c r="E438" t="s">
-        <v>734</v>
-      </c>
-      <c r="F438" t="s">
-        <v>733</v>
-      </c>
       <c r="G438" t="s">
-        <v>1512</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
+        <v>734</v>
+      </c>
+      <c r="B439" t="b">
+        <v>1</v>
+      </c>
+      <c r="C439" t="b">
+        <v>0</v>
+      </c>
+      <c r="E439" t="s">
+        <v>736</v>
+      </c>
+      <c r="F439" t="s">
         <v>735</v>
       </c>
-      <c r="B439" t="b">
-        <v>1</v>
-      </c>
-      <c r="C439" t="b">
-        <v>1</v>
-      </c>
-      <c r="E439" t="s">
-        <v>616</v>
-      </c>
-      <c r="F439" t="s">
-        <v>736</v>
-      </c>
       <c r="G439" t="s">
-        <v>1440</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>737</v>
+        <v>1108</v>
       </c>
       <c r="B440" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C440" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E440" t="s">
-        <v>739</v>
+        <v>1005</v>
       </c>
       <c r="F440" t="s">
-        <v>738</v>
+        <v>1242</v>
       </c>
       <c r="G440" t="s">
-        <v>1513</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B441" t="b">
         <v>1</v>
@@ -14708,33 +14699,33 @@
         <v>0</v>
       </c>
       <c r="E441" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="F441" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="G441" t="s">
-        <v>1514</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>1114</v>
+        <v>740</v>
       </c>
       <c r="B442" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C442" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E442" t="s">
-        <v>1011</v>
+        <v>742</v>
       </c>
       <c r="F442" t="s">
-        <v>1248</v>
+        <v>741</v>
       </c>
       <c r="G442" t="s">
-        <v>1703</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
@@ -14754,7 +14745,7 @@
         <v>744</v>
       </c>
       <c r="G443" t="s">
-        <v>1515</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
@@ -14765,56 +14756,56 @@
         <v>1</v>
       </c>
       <c r="C444" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E444" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F444" t="s">
         <v>747</v>
       </c>
       <c r="G444" t="s">
-        <v>1516</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
+        <v>748</v>
+      </c>
+      <c r="B445" t="b">
+        <v>1</v>
+      </c>
+      <c r="C445" t="b">
+        <v>0</v>
+      </c>
+      <c r="E445" t="s">
+        <v>750</v>
+      </c>
+      <c r="F445" t="s">
         <v>749</v>
       </c>
-      <c r="B445" t="b">
-        <v>1</v>
-      </c>
-      <c r="C445" t="b">
-        <v>0</v>
-      </c>
-      <c r="E445" t="s">
-        <v>751</v>
-      </c>
-      <c r="F445" t="s">
-        <v>750</v>
-      </c>
       <c r="G445" t="s">
-        <v>1517</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
+        <v>751</v>
+      </c>
+      <c r="B446" t="b">
+        <v>1</v>
+      </c>
+      <c r="C446" t="b">
+        <v>0</v>
+      </c>
+      <c r="E446" t="s">
+        <v>753</v>
+      </c>
+      <c r="F446" t="s">
         <v>752</v>
       </c>
-      <c r="B446" t="b">
-        <v>1</v>
-      </c>
-      <c r="C446" t="b">
-        <v>1</v>
-      </c>
-      <c r="E446" t="s">
-        <v>752</v>
-      </c>
-      <c r="F446" t="s">
-        <v>753</v>
-      </c>
       <c r="G446" t="s">
-        <v>1472</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
@@ -14828,58 +14819,58 @@
         <v>0</v>
       </c>
       <c r="E447" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F447" t="s">
         <v>755</v>
       </c>
       <c r="G447" t="s">
-        <v>1518</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>757</v>
+        <v>525</v>
       </c>
       <c r="B448" t="b">
         <v>1</v>
       </c>
       <c r="C448" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E448" t="s">
-        <v>759</v>
+        <v>525</v>
       </c>
       <c r="F448" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="G448" t="s">
-        <v>1519</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B449" t="b">
         <v>1</v>
       </c>
       <c r="C449" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E449" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F449" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="G449" t="s">
-        <v>1520</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>525</v>
+        <v>760</v>
       </c>
       <c r="B450" t="b">
         <v>1</v>
@@ -14888,58 +14879,58 @@
         <v>1</v>
       </c>
       <c r="E450" t="s">
-        <v>525</v>
+        <v>760</v>
       </c>
       <c r="F450" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G450" t="s">
-        <v>1442</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>763</v>
+        <v>1109</v>
       </c>
       <c r="B451" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C451" t="b">
         <v>1</v>
       </c>
       <c r="E451" t="s">
-        <v>765</v>
+        <v>1006</v>
       </c>
       <c r="F451" t="s">
-        <v>764</v>
+        <v>1243</v>
       </c>
       <c r="G451" t="s">
-        <v>1521</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>766</v>
+        <v>1110</v>
       </c>
       <c r="B452" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C452" t="b">
         <v>1</v>
       </c>
       <c r="E452" t="s">
-        <v>766</v>
+        <v>1007</v>
       </c>
       <c r="F452" t="s">
-        <v>767</v>
+        <v>1244</v>
       </c>
       <c r="G452" t="s">
-        <v>1522</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="B453" t="b">
         <v>0</v>
@@ -14948,18 +14939,18 @@
         <v>1</v>
       </c>
       <c r="E453" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="F453" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="G453" t="s">
-        <v>1675</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="B454" t="b">
         <v>0</v>
@@ -14968,73 +14959,73 @@
         <v>1</v>
       </c>
       <c r="E454" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="F454" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="G454" t="s">
-        <v>1676</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>1117</v>
+        <v>762</v>
       </c>
       <c r="B455" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C455" t="b">
         <v>1</v>
       </c>
       <c r="E455" t="s">
-        <v>1014</v>
+        <v>762</v>
       </c>
       <c r="F455" t="s">
-        <v>1251</v>
+        <v>763</v>
       </c>
       <c r="G455" t="s">
-        <v>1677</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>1118</v>
+        <v>764</v>
       </c>
       <c r="B456" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C456" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E456" t="s">
-        <v>1015</v>
+        <v>766</v>
       </c>
       <c r="F456" t="s">
-        <v>1252</v>
+        <v>765</v>
       </c>
       <c r="G456" t="s">
-        <v>1678</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
+        <v>767</v>
+      </c>
+      <c r="B457" t="b">
+        <v>1</v>
+      </c>
+      <c r="C457" t="b">
+        <v>0</v>
+      </c>
+      <c r="E457" t="s">
+        <v>769</v>
+      </c>
+      <c r="F457" t="s">
         <v>768</v>
       </c>
-      <c r="B457" t="b">
-        <v>1</v>
-      </c>
-      <c r="C457" t="b">
-        <v>1</v>
-      </c>
-      <c r="E457" t="s">
-        <v>768</v>
-      </c>
-      <c r="F457" t="s">
-        <v>769</v>
-      </c>
       <c r="G457" t="s">
-        <v>1523</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
@@ -15054,7 +15045,7 @@
         <v>771</v>
       </c>
       <c r="G458" t="s">
-        <v>1524</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
@@ -15074,7 +15065,7 @@
         <v>774</v>
       </c>
       <c r="G459" t="s">
-        <v>1525</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
@@ -15094,7 +15085,7 @@
         <v>777</v>
       </c>
       <c r="G460" t="s">
-        <v>1526</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
@@ -15114,7 +15105,7 @@
         <v>780</v>
       </c>
       <c r="G461" t="s">
-        <v>1527</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
@@ -15134,52 +15125,46 @@
         <v>783</v>
       </c>
       <c r="G462" t="s">
-        <v>1528</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>785</v>
+        <v>1697</v>
       </c>
       <c r="B463" t="b">
         <v>1</v>
       </c>
       <c r="C463" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E463" t="s">
-        <v>787</v>
+        <v>1698</v>
       </c>
       <c r="F463" t="s">
-        <v>786</v>
-      </c>
-      <c r="G463" t="s">
-        <v>1529</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>788</v>
+        <v>1700</v>
       </c>
       <c r="B464" t="b">
         <v>1</v>
       </c>
       <c r="C464" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E464" t="s">
-        <v>790</v>
+        <v>1702</v>
       </c>
       <c r="F464" t="s">
-        <v>789</v>
-      </c>
-      <c r="G464" t="s">
-        <v>1530</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="B465" t="b">
         <v>1</v>
@@ -15188,15 +15173,15 @@
         <v>1</v>
       </c>
       <c r="E465" t="s">
-        <v>1706</v>
+        <v>667</v>
       </c>
       <c r="F465" t="s">
-        <v>1707</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>1708</v>
+        <v>1713</v>
       </c>
       <c r="B466" t="b">
         <v>1</v>
@@ -15205,15 +15190,15 @@
         <v>1</v>
       </c>
       <c r="E466" t="s">
-        <v>1710</v>
+        <v>1704</v>
       </c>
       <c r="F466" t="s">
-        <v>1709</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>1711</v>
+        <v>1714</v>
       </c>
       <c r="B467" t="b">
         <v>1</v>
@@ -15222,15 +15207,15 @@
         <v>1</v>
       </c>
       <c r="E467" t="s">
-        <v>673</v>
+        <v>1705</v>
       </c>
       <c r="F467" t="s">
-        <v>1737</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>1721</v>
+        <v>1715</v>
       </c>
       <c r="B468" t="b">
         <v>1</v>
@@ -15239,15 +15224,15 @@
         <v>1</v>
       </c>
       <c r="E468" t="s">
-        <v>1712</v>
+        <v>1706</v>
       </c>
       <c r="F468" t="s">
-        <v>1195</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>1722</v>
+        <v>1716</v>
       </c>
       <c r="B469" t="b">
         <v>1</v>
@@ -15256,15 +15241,15 @@
         <v>1</v>
       </c>
       <c r="E469" t="s">
-        <v>1713</v>
+        <v>1707</v>
       </c>
       <c r="F469" t="s">
-        <v>1730</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>1723</v>
+        <v>1717</v>
       </c>
       <c r="B470" t="b">
         <v>1</v>
@@ -15273,15 +15258,15 @@
         <v>1</v>
       </c>
       <c r="E470" t="s">
-        <v>1714</v>
+        <v>1708</v>
       </c>
       <c r="F470" t="s">
-        <v>1738</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>1724</v>
+        <v>1718</v>
       </c>
       <c r="B471" t="b">
         <v>1</v>
@@ -15290,15 +15275,15 @@
         <v>1</v>
       </c>
       <c r="E471" t="s">
-        <v>1715</v>
+        <v>1709</v>
       </c>
       <c r="F471" t="s">
-        <v>1731</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>1725</v>
+        <v>1719</v>
       </c>
       <c r="B472" t="b">
         <v>1</v>
@@ -15307,15 +15292,15 @@
         <v>1</v>
       </c>
       <c r="E472" t="s">
-        <v>1716</v>
+        <v>1710</v>
       </c>
       <c r="F472" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>1726</v>
+        <v>1720</v>
       </c>
       <c r="B473" t="b">
         <v>1</v>
@@ -15324,15 +15309,15 @@
         <v>1</v>
       </c>
       <c r="E473" t="s">
-        <v>1717</v>
+        <v>1711</v>
       </c>
       <c r="F473" t="s">
-        <v>1733</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>1727</v>
+        <v>1721</v>
       </c>
       <c r="B474" t="b">
         <v>1</v>
@@ -15341,15 +15326,15 @@
         <v>1</v>
       </c>
       <c r="E474" t="s">
-        <v>1718</v>
+        <v>1712</v>
       </c>
       <c r="F474" t="s">
-        <v>1734</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1728</v>
+        <v>1731</v>
       </c>
       <c r="B475" t="b">
         <v>1</v>
@@ -15358,15 +15343,15 @@
         <v>1</v>
       </c>
       <c r="E475" t="s">
-        <v>1719</v>
+        <v>1732</v>
       </c>
       <c r="F475" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1729</v>
+        <v>1734</v>
       </c>
       <c r="B476" t="b">
         <v>1</v>
@@ -15375,15 +15360,15 @@
         <v>1</v>
       </c>
       <c r="E476" t="s">
-        <v>1720</v>
+        <v>1736</v>
       </c>
       <c r="F476" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="B477" t="b">
         <v>1</v>
@@ -15395,12 +15380,15 @@
         <v>1740</v>
       </c>
       <c r="F477" t="s">
-        <v>1741</v>
+        <v>871</v>
+      </c>
+      <c r="G477" t="s">
+        <v>1549</v>
       </c>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>1742</v>
+        <v>1738</v>
       </c>
       <c r="B478" t="b">
         <v>1</v>
@@ -15409,15 +15397,18 @@
         <v>1</v>
       </c>
       <c r="E478" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
       <c r="F478" t="s">
-        <v>1743</v>
+        <v>873</v>
+      </c>
+      <c r="G478" t="s">
+        <v>1550</v>
       </c>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>1745</v>
+        <v>1739</v>
       </c>
       <c r="B479" t="b">
         <v>1</v>
@@ -15426,127 +15417,121 @@
         <v>1</v>
       </c>
       <c r="E479" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
       <c r="F479" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="G479" t="s">
-        <v>1557</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B480" t="b">
+        <v>1</v>
+      </c>
+      <c r="C480" t="b">
+        <v>1</v>
+      </c>
+      <c r="E480" t="s">
         <v>1746</v>
       </c>
-      <c r="B480" t="b">
-        <v>1</v>
-      </c>
-      <c r="C480" t="b">
-        <v>1</v>
-      </c>
-      <c r="E480" t="s">
+      <c r="F480" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B481" t="b">
+        <v>1</v>
+      </c>
+      <c r="C481" t="b">
+        <v>1</v>
+      </c>
+      <c r="E481" t="s">
+        <v>1747</v>
+      </c>
+      <c r="F481" t="s">
         <v>1749</v>
       </c>
-      <c r="F480" t="s">
-        <v>879</v>
-      </c>
-      <c r="G480" t="s">
-        <v>1558</v>
-      </c>
-    </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A481" t="s">
-        <v>1747</v>
-      </c>
-      <c r="B481" t="b">
-        <v>1</v>
-      </c>
-      <c r="C481" t="b">
-        <v>1</v>
-      </c>
-      <c r="E481" t="s">
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
         <v>1750</v>
       </c>
-      <c r="F481" t="s">
-        <v>881</v>
-      </c>
-      <c r="G481" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A482" t="s">
+      <c r="B482" t="b">
+        <v>1</v>
+      </c>
+      <c r="C482" t="b">
+        <v>1</v>
+      </c>
+      <c r="E482" t="s">
+        <v>1751</v>
+      </c>
+      <c r="F482" t="s">
         <v>1752</v>
       </c>
-      <c r="B482" t="b">
-        <v>1</v>
-      </c>
-      <c r="C482" t="b">
-        <v>1</v>
-      </c>
-      <c r="E482" t="s">
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
         <v>1754</v>
       </c>
-      <c r="F482" t="s">
+      <c r="B483" t="b">
+        <v>1</v>
+      </c>
+      <c r="C483" t="b">
+        <v>1</v>
+      </c>
+      <c r="E483" t="s">
         <v>1756</v>
       </c>
-    </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A483" t="s">
+      <c r="F483" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
         <v>1753</v>
       </c>
-      <c r="B483" t="b">
-        <v>1</v>
-      </c>
-      <c r="C483" t="b">
-        <v>1</v>
-      </c>
-      <c r="E483" t="s">
-        <v>1755</v>
-      </c>
-      <c r="F483" t="s">
+      <c r="B484" t="b">
+        <v>1</v>
+      </c>
+      <c r="C484" t="b">
+        <v>1</v>
+      </c>
+      <c r="E484" t="s">
         <v>1757</v>
-      </c>
-    </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A484" t="s">
-        <v>1758</v>
-      </c>
-      <c r="B484" t="b">
-        <v>1</v>
-      </c>
-      <c r="C484" t="b">
-        <v>1</v>
-      </c>
-      <c r="E484" t="s">
-        <v>1759</v>
       </c>
       <c r="F484" t="s">
         <v>1760</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B485" t="b">
+        <v>1</v>
+      </c>
+      <c r="C485" t="b">
+        <v>1</v>
+      </c>
+      <c r="E485" t="s">
+        <v>1758</v>
+      </c>
+      <c r="F485" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
         <v>1762</v>
       </c>
-      <c r="B485" t="b">
-        <v>1</v>
-      </c>
-      <c r="C485" t="b">
-        <v>1</v>
-      </c>
-      <c r="E485" t="s">
-        <v>1764</v>
-      </c>
-      <c r="F485" t="s">
-        <v>1767</v>
-      </c>
-    </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A486" t="s">
-        <v>1761</v>
-      </c>
       <c r="B486" t="b">
         <v>1</v>
       </c>
@@ -15554,13 +15539,13 @@
         <v>1</v>
       </c>
       <c r="E486" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="F486" t="s">
-        <v>1768</v>
-      </c>
-    </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>1763</v>
       </c>
@@ -15571,330 +15556,356 @@
         <v>1</v>
       </c>
       <c r="E487" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="F487" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B488" t="b">
+        <v>1</v>
+      </c>
+      <c r="C488" t="b">
+        <v>1</v>
+      </c>
+      <c r="E488" t="s">
+        <v>1768</v>
+      </c>
+      <c r="F488" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B489" t="b">
+        <v>1</v>
+      </c>
+      <c r="C489" t="b">
+        <v>1</v>
+      </c>
+      <c r="E489" t="s">
         <v>1769</v>
       </c>
-    </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A488" t="s">
-        <v>1770</v>
-      </c>
-      <c r="B488" t="b">
-        <v>1</v>
-      </c>
-      <c r="C488" t="b">
-        <v>1</v>
-      </c>
-      <c r="E488" t="s">
+      <c r="F489" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
         <v>1774</v>
       </c>
-      <c r="F488" t="s">
+      <c r="B490" t="b">
+        <v>1</v>
+      </c>
+      <c r="C490" t="b">
+        <v>1</v>
+      </c>
+      <c r="E490" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F490" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B491" t="b">
+        <v>1</v>
+      </c>
+      <c r="C491" t="b">
+        <v>1</v>
+      </c>
+      <c r="E491" t="s">
+        <v>1792</v>
+      </c>
+      <c r="F491" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B492" t="b">
+        <v>1</v>
+      </c>
+      <c r="C492" t="b">
+        <v>1</v>
+      </c>
+      <c r="E492" t="s">
+        <v>23</v>
+      </c>
+      <c r="F492" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B493" t="b">
+        <v>1</v>
+      </c>
+      <c r="C493" t="b">
+        <v>1</v>
+      </c>
+      <c r="E493" t="s">
+        <v>1793</v>
+      </c>
+      <c r="F493" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
         <v>1778</v>
       </c>
-    </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A489" t="s">
-        <v>1771</v>
-      </c>
-      <c r="B489" t="b">
-        <v>1</v>
-      </c>
-      <c r="C489" t="b">
-        <v>1</v>
-      </c>
-      <c r="E489" t="s">
-        <v>1775</v>
-      </c>
-      <c r="F489" t="s">
+      <c r="B494" t="b">
+        <v>1</v>
+      </c>
+      <c r="C494" t="b">
+        <v>1</v>
+      </c>
+      <c r="E494" t="s">
+        <v>1789</v>
+      </c>
+      <c r="F494" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
         <v>1779</v>
       </c>
-    </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A490" t="s">
-        <v>1772</v>
-      </c>
-      <c r="B490" t="b">
-        <v>1</v>
-      </c>
-      <c r="C490" t="b">
-        <v>1</v>
-      </c>
-      <c r="E490" t="s">
-        <v>1776</v>
-      </c>
-      <c r="F490" t="s">
+      <c r="B495" t="b">
+        <v>1</v>
+      </c>
+      <c r="C495" t="b">
+        <v>1</v>
+      </c>
+      <c r="E495" t="s">
+        <v>1794</v>
+      </c>
+      <c r="F495" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
         <v>1780</v>
       </c>
-    </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A491" t="s">
-        <v>1773</v>
-      </c>
-      <c r="B491" t="b">
-        <v>1</v>
-      </c>
-      <c r="C491" t="b">
-        <v>1</v>
-      </c>
-      <c r="E491" t="s">
-        <v>1777</v>
-      </c>
-      <c r="F491" t="s">
+      <c r="B496" t="b">
+        <v>1</v>
+      </c>
+      <c r="C496" t="b">
+        <v>1</v>
+      </c>
+      <c r="E496" t="s">
+        <v>1795</v>
+      </c>
+      <c r="F496" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
         <v>1781</v>
       </c>
-    </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A492" t="s">
+      <c r="B497" t="b">
+        <v>1</v>
+      </c>
+      <c r="C497" t="b">
+        <v>1</v>
+      </c>
+      <c r="E497" t="s">
+        <v>1796</v>
+      </c>
+      <c r="F497" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
         <v>1782</v>
       </c>
-      <c r="B492" t="b">
-        <v>1</v>
-      </c>
-      <c r="C492" t="b">
-        <v>1</v>
-      </c>
-      <c r="E492" t="s">
-        <v>1692</v>
-      </c>
-      <c r="F492" t="s">
+      <c r="B498" t="b">
+        <v>1</v>
+      </c>
+      <c r="C498" t="b">
+        <v>1</v>
+      </c>
+      <c r="E498" t="s">
+        <v>444</v>
+      </c>
+      <c r="F498" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B499" t="b">
+        <v>1</v>
+      </c>
+      <c r="C499" t="b">
+        <v>1</v>
+      </c>
+      <c r="E499" t="s">
+        <v>459</v>
+      </c>
+      <c r="F499" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B500" t="b">
+        <v>1</v>
+      </c>
+      <c r="C500" t="b">
+        <v>1</v>
+      </c>
+      <c r="E500" t="s">
+        <v>1790</v>
+      </c>
+      <c r="F500" t="s">
         <v>1805</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A493" t="s">
-        <v>1783</v>
-      </c>
-      <c r="B493" t="b">
-        <v>1</v>
-      </c>
-      <c r="C493" t="b">
-        <v>1</v>
-      </c>
-      <c r="E493" t="s">
-        <v>1800</v>
-      </c>
-      <c r="F493" t="s">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B501" t="b">
+        <v>1</v>
+      </c>
+      <c r="C501" t="b">
+        <v>1</v>
+      </c>
+      <c r="E501" t="s">
+        <v>1791</v>
+      </c>
+      <c r="F501" t="s">
         <v>1806</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A494" t="s">
-        <v>1784</v>
-      </c>
-      <c r="B494" t="b">
-        <v>1</v>
-      </c>
-      <c r="C494" t="b">
-        <v>1</v>
-      </c>
-      <c r="E494" t="s">
-        <v>23</v>
-      </c>
-      <c r="F494" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A495" t="s">
-        <v>1785</v>
-      </c>
-      <c r="B495" t="b">
-        <v>1</v>
-      </c>
-      <c r="C495" t="b">
-        <v>1</v>
-      </c>
-      <c r="E495" t="s">
-        <v>1801</v>
-      </c>
-      <c r="F495" t="s">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B502" t="b">
+        <v>1</v>
+      </c>
+      <c r="C502" t="b">
+        <v>1</v>
+      </c>
+      <c r="E502" t="s">
+        <v>450</v>
+      </c>
+      <c r="F502" t="s">
         <v>1807</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A496" t="s">
-        <v>1786</v>
-      </c>
-      <c r="B496" t="b">
-        <v>1</v>
-      </c>
-      <c r="C496" t="b">
-        <v>1</v>
-      </c>
-      <c r="E496" t="s">
-        <v>1797</v>
-      </c>
-      <c r="F496" t="s">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B503" t="b">
+        <v>1</v>
+      </c>
+      <c r="C503" t="b">
+        <v>1</v>
+      </c>
+      <c r="E503" t="s">
+        <v>438</v>
+      </c>
+      <c r="F503" t="s">
         <v>1808</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A497" t="s">
-        <v>1787</v>
-      </c>
-      <c r="B497" t="b">
-        <v>1</v>
-      </c>
-      <c r="C497" t="b">
-        <v>1</v>
-      </c>
-      <c r="E497" t="s">
-        <v>1802</v>
-      </c>
-    </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A498" t="s">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
         <v>1788</v>
       </c>
-      <c r="B498" t="b">
-        <v>1</v>
-      </c>
-      <c r="C498" t="b">
-        <v>1</v>
-      </c>
-      <c r="E498" t="s">
-        <v>1803</v>
-      </c>
-      <c r="F498" t="s">
-        <v>1809</v>
-      </c>
-    </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A499" t="s">
-        <v>1789</v>
-      </c>
-      <c r="B499" t="b">
-        <v>1</v>
-      </c>
-      <c r="C499" t="b">
-        <v>1</v>
-      </c>
-      <c r="E499" t="s">
-        <v>1804</v>
-      </c>
-      <c r="F499" t="s">
+      <c r="B504" t="b">
+        <v>1</v>
+      </c>
+      <c r="C504" t="b">
+        <v>1</v>
+      </c>
+      <c r="E504" t="s">
+        <v>684</v>
+      </c>
+      <c r="F504" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>846</v>
+      </c>
+      <c r="B505" t="b">
+        <v>1</v>
+      </c>
+      <c r="C505" t="b">
+        <v>1</v>
+      </c>
+      <c r="E505" t="s">
+        <v>846</v>
+      </c>
+      <c r="F505" t="s">
+        <v>1812</v>
+      </c>
+      <c r="G505" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
         <v>1810</v>
       </c>
-    </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A500" t="s">
-        <v>1790</v>
-      </c>
-      <c r="B500" t="b">
-        <v>1</v>
-      </c>
-      <c r="C500" t="b">
-        <v>1</v>
-      </c>
-      <c r="E500" t="s">
-        <v>444</v>
-      </c>
-      <c r="F500" t="s">
+      <c r="B506" t="b">
+        <v>1</v>
+      </c>
+      <c r="C506" t="b">
+        <v>1</v>
+      </c>
+      <c r="E506" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F506" t="s">
         <v>1811</v>
       </c>
-    </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A501" t="s">
-        <v>1791</v>
-      </c>
-      <c r="B501" t="b">
-        <v>1</v>
-      </c>
-      <c r="C501" t="b">
-        <v>1</v>
-      </c>
-      <c r="E501" t="s">
-        <v>459</v>
-      </c>
-      <c r="F501" t="s">
-        <v>1812</v>
-      </c>
-    </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A502" t="s">
-        <v>1792</v>
-      </c>
-      <c r="B502" t="b">
-        <v>1</v>
-      </c>
-      <c r="C502" t="b">
-        <v>1</v>
-      </c>
-      <c r="E502" t="s">
-        <v>1798</v>
-      </c>
-      <c r="F502" t="s">
+      <c r="G506" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
         <v>1813</v>
       </c>
-    </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A503" t="s">
-        <v>1793</v>
-      </c>
-      <c r="B503" t="b">
-        <v>1</v>
-      </c>
-      <c r="C503" t="b">
-        <v>1</v>
-      </c>
-      <c r="E503" t="s">
-        <v>1799</v>
-      </c>
-      <c r="F503" t="s">
-        <v>1814</v>
-      </c>
-    </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A504" t="s">
-        <v>1794</v>
-      </c>
-      <c r="B504" t="b">
-        <v>1</v>
-      </c>
-      <c r="C504" t="b">
-        <v>1</v>
-      </c>
-      <c r="E504" t="s">
-        <v>450</v>
-      </c>
-      <c r="F504" t="s">
-        <v>1815</v>
-      </c>
-    </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A505" t="s">
-        <v>1795</v>
-      </c>
-      <c r="B505" t="b">
-        <v>1</v>
-      </c>
-      <c r="C505" t="b">
-        <v>1</v>
-      </c>
-      <c r="E505" t="s">
-        <v>438</v>
-      </c>
-      <c r="F505" t="s">
-        <v>1816</v>
-      </c>
-    </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A506" t="s">
-        <v>1796</v>
-      </c>
-      <c r="B506" t="b">
-        <v>1</v>
-      </c>
-      <c r="C506" t="b">
-        <v>1</v>
-      </c>
-      <c r="E506" t="s">
-        <v>690</v>
-      </c>
-      <c r="F506" t="s">
-        <v>689</v>
+      <c r="B507" t="b">
+        <v>1</v>
+      </c>
+      <c r="C507" t="b">
+        <v>1</v>
+      </c>
+      <c r="E507" t="s">
+        <v>831</v>
+      </c>
+      <c r="F507" t="s">
+        <v>830</v>
       </c>
     </row>
   </sheetData>

--- a/Translations/Translations.xlsx
+++ b/Translations/Translations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MA-SB-02\source\repos\BSharp\Translations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\source\repos\BSharp\Translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAA6C4A-BDC2-4C51-8B27-82B975653F5E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DB7667-1E53-41A6-A4BF-2D0C0B652B07}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="277" yWindow="322" windowWidth="24023" windowHeight="15278" xr2:uid="{09F7BBB4-81EA-4503-B8DD-8985A501E98F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09F7BBB4-81EA-4503-B8DD-8985A501E98F}"/>
   </bookViews>
   <sheets>
     <sheet name="Translations" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="1849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="1875">
   <si>
     <t>Key</t>
   </si>
@@ -5581,6 +5581,84 @@
   </si>
   <si>
     <t>{0}'{1}'用于一个或多个帐户</t>
+  </si>
+  <si>
+    <t>AccountClassification</t>
+  </si>
+  <si>
+    <t>AccountClassifications</t>
+  </si>
+  <si>
+    <t>AccountClassification_IsDeprecated</t>
+  </si>
+  <si>
+    <t>Is Deprecated</t>
+  </si>
+  <si>
+    <t>Account Classifications</t>
+  </si>
+  <si>
+    <t>Account Classification</t>
+  </si>
+  <si>
+    <t>تصنيف حساب</t>
+  </si>
+  <si>
+    <t>تصنيفات حسابات</t>
+  </si>
+  <si>
+    <t>مؤرشف</t>
+  </si>
+  <si>
+    <t>帐户分类</t>
+  </si>
+  <si>
+    <t>已弃用</t>
+  </si>
+  <si>
+    <t>Error_TheAccountClassification0IsUsedInAccount1</t>
+  </si>
+  <si>
+    <t>The account classification '{0}' is used in account '{1}'</t>
+  </si>
+  <si>
+    <t>تصنيف الحساب ({0}) مستخدم في الحساب ({1})</t>
+  </si>
+  <si>
+    <t>帐户“ {1}”中使用了帐户分类“ {0}”</t>
+  </si>
+  <si>
+    <t>Permission_IsDeprecated</t>
+  </si>
+  <si>
+    <t>Activate/Deprecate</t>
+  </si>
+  <si>
+    <t>تنشيط - أرشفة</t>
+  </si>
+  <si>
+    <t>激活/弃用</t>
+  </si>
+  <si>
+    <t>Deprecate</t>
+  </si>
+  <si>
+    <t>أرشفة</t>
+  </si>
+  <si>
+    <t>藐视</t>
+  </si>
+  <si>
+    <t>IncludeDeprecated</t>
+  </si>
+  <si>
+    <t>Include Deprecated</t>
+  </si>
+  <si>
+    <t>إشمل المؤرشف</t>
+  </si>
+  <si>
+    <t>包括已弃用</t>
   </si>
 </sst>
 </file>
@@ -5971,26 +6049,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FEE134-3B22-427F-8E5A-2A7F994BE2AC}">
-  <dimension ref="A1:G507"/>
+  <dimension ref="A1:G514"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A492" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H134" sqref="H134"/>
+      <selection pane="bottomLeft" activeCell="G514" sqref="G514"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.265625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="43.86328125" customWidth="1"/>
-    <col min="6" max="6" width="45.265625" customWidth="1"/>
-    <col min="7" max="7" width="47.1328125" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" customWidth="1"/>
+    <col min="6" max="6" width="45.28515625" customWidth="1"/>
+    <col min="7" max="7" width="47.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6013,7 +6091,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>874</v>
       </c>
@@ -6033,7 +6111,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -6053,7 +6131,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -6073,7 +6151,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -6093,7 +6171,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>875</v>
       </c>
@@ -6113,7 +6191,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>876</v>
       </c>
@@ -6133,7 +6211,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -6153,7 +6231,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -6173,7 +6251,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>877</v>
       </c>
@@ -6193,7 +6271,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -6213,7 +6291,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -6233,7 +6311,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>344</v>
       </c>
@@ -6253,7 +6331,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>466</v>
       </c>
@@ -6273,7 +6351,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>819</v>
       </c>
@@ -6293,7 +6371,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -6313,7 +6391,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -6333,7 +6411,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -6353,7 +6431,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -6373,7 +6451,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>807</v>
       </c>
@@ -6393,7 +6471,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -6413,7 +6491,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -6433,7 +6511,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>806</v>
       </c>
@@ -6453,7 +6531,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -6473,7 +6551,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -6493,7 +6571,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -6513,7 +6591,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -6533,7 +6611,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -6553,7 +6631,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>878</v>
       </c>
@@ -6573,7 +6651,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -6593,7 +6671,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -6613,7 +6691,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1013</v>
       </c>
@@ -6633,7 +6711,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -6653,7 +6731,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1014</v>
       </c>
@@ -6673,7 +6751,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1015</v>
       </c>
@@ -6693,7 +6771,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>67</v>
       </c>
@@ -6713,7 +6791,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -6733,7 +6811,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>882</v>
       </c>
@@ -6753,7 +6831,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>72</v>
       </c>
@@ -6773,7 +6851,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>74</v>
       </c>
@@ -6793,7 +6871,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -6813,7 +6891,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -6833,7 +6911,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>83</v>
       </c>
@@ -6853,7 +6931,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -6873,7 +6951,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>883</v>
       </c>
@@ -6893,7 +6971,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>89</v>
       </c>
@@ -6913,7 +6991,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -6933,7 +7011,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -6953,7 +7031,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>884</v>
       </c>
@@ -6973,7 +7051,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>98</v>
       </c>
@@ -6993,7 +7071,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1016</v>
       </c>
@@ -7013,7 +7091,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>499</v>
       </c>
@@ -7033,7 +7111,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>101</v>
       </c>
@@ -7053,7 +7131,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>104</v>
       </c>
@@ -7073,7 +7151,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>107</v>
       </c>
@@ -7093,7 +7171,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1017</v>
       </c>
@@ -7113,7 +7191,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1018</v>
       </c>
@@ -7133,7 +7211,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>1019</v>
       </c>
@@ -7153,7 +7231,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1110</v>
       </c>
@@ -7173,7 +7251,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>889</v>
       </c>
@@ -7193,7 +7271,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>836</v>
       </c>
@@ -7213,7 +7291,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>834</v>
       </c>
@@ -7233,7 +7311,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>838</v>
       </c>
@@ -7253,7 +7331,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>110</v>
       </c>
@@ -7273,7 +7351,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>113</v>
       </c>
@@ -7293,7 +7371,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>115</v>
       </c>
@@ -7313,7 +7391,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>117</v>
       </c>
@@ -7333,7 +7411,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>120</v>
       </c>
@@ -7353,7 +7431,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1020</v>
       </c>
@@ -7373,7 +7451,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>123</v>
       </c>
@@ -7393,7 +7471,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>891</v>
       </c>
@@ -7413,7 +7491,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>125</v>
       </c>
@@ -7433,7 +7511,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>789</v>
       </c>
@@ -7453,7 +7531,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>1021</v>
       </c>
@@ -7473,7 +7551,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>893</v>
       </c>
@@ -7493,7 +7571,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1022</v>
       </c>
@@ -7513,7 +7591,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>1023</v>
       </c>
@@ -7533,7 +7611,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>1</v>
       </c>
@@ -7553,7 +7631,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>1024</v>
       </c>
@@ -7573,7 +7651,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>129</v>
       </c>
@@ -7593,7 +7671,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>131</v>
       </c>
@@ -7613,7 +7691,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>134</v>
       </c>
@@ -7633,7 +7711,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>897</v>
       </c>
@@ -7653,7 +7731,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1025</v>
       </c>
@@ -7673,7 +7751,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>137</v>
       </c>
@@ -7693,7 +7771,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>140</v>
       </c>
@@ -7713,7 +7791,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>143</v>
       </c>
@@ -7733,7 +7811,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>899</v>
       </c>
@@ -7753,7 +7831,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1026</v>
       </c>
@@ -7773,7 +7851,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>146</v>
       </c>
@@ -7793,7 +7871,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>148</v>
       </c>
@@ -7813,7 +7891,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>151</v>
       </c>
@@ -7833,7 +7911,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>154</v>
       </c>
@@ -7853,7 +7931,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>901</v>
       </c>
@@ -7873,7 +7951,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>157</v>
       </c>
@@ -7893,7 +7971,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>160</v>
       </c>
@@ -7913,7 +7991,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1027</v>
       </c>
@@ -7933,7 +8011,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>161</v>
       </c>
@@ -7953,7 +8031,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>164</v>
       </c>
@@ -7973,7 +8051,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>167</v>
       </c>
@@ -7993,7 +8071,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>170</v>
       </c>
@@ -8013,7 +8091,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>173</v>
       </c>
@@ -8033,7 +8111,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>175</v>
       </c>
@@ -8053,7 +8131,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>178</v>
       </c>
@@ -8073,7 +8151,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>181</v>
       </c>
@@ -8093,7 +8171,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1028</v>
       </c>
@@ -8113,7 +8191,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>184</v>
       </c>
@@ -8133,7 +8211,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>187</v>
       </c>
@@ -8153,7 +8231,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>190</v>
       </c>
@@ -8173,7 +8251,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>193</v>
       </c>
@@ -8193,7 +8271,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>196</v>
       </c>
@@ -8213,7 +8291,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>199</v>
       </c>
@@ -8233,7 +8311,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>202</v>
       </c>
@@ -8253,7 +8331,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>205</v>
       </c>
@@ -8273,7 +8351,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>208</v>
       </c>
@@ -8293,7 +8371,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>211</v>
       </c>
@@ -8313,7 +8391,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>1029</v>
       </c>
@@ -8333,7 +8411,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>214</v>
       </c>
@@ -8353,7 +8431,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>217</v>
       </c>
@@ -8373,7 +8451,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>1030</v>
       </c>
@@ -8393,7 +8471,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>220</v>
       </c>
@@ -8413,7 +8491,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>1031</v>
       </c>
@@ -8433,7 +8511,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>1032</v>
       </c>
@@ -8453,7 +8531,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>223</v>
       </c>
@@ -8473,7 +8551,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>226</v>
       </c>
@@ -8493,7 +8571,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>784</v>
       </c>
@@ -8513,7 +8591,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>1033</v>
       </c>
@@ -8533,7 +8611,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>1034</v>
       </c>
@@ -8553,7 +8631,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>229</v>
       </c>
@@ -8573,7 +8651,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>232</v>
       </c>
@@ -8593,7 +8671,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>235</v>
       </c>
@@ -8613,7 +8691,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>1035</v>
       </c>
@@ -8633,7 +8711,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>238</v>
       </c>
@@ -8653,7 +8731,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>1845</v>
       </c>
@@ -8673,7 +8751,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>241</v>
       </c>
@@ -8693,7 +8771,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>244</v>
       </c>
@@ -8713,7 +8791,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>247</v>
       </c>
@@ -8733,7 +8811,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>831</v>
       </c>
@@ -8753,7 +8831,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>803</v>
       </c>
@@ -8773,7 +8851,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>250</v>
       </c>
@@ -8793,7 +8871,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>253</v>
       </c>
@@ -8813,7 +8891,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>256</v>
       </c>
@@ -8833,7 +8911,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>259</v>
       </c>
@@ -8853,7 +8931,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>261</v>
       </c>
@@ -8873,7 +8951,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>264</v>
       </c>
@@ -8893,7 +8971,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>267</v>
       </c>
@@ -8913,7 +8991,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>270</v>
       </c>
@@ -8933,7 +9011,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>822</v>
       </c>
@@ -8953,7 +9031,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>825</v>
       </c>
@@ -8973,7 +9051,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>273</v>
       </c>
@@ -8993,7 +9071,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>276</v>
       </c>
@@ -9013,7 +9091,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>279</v>
       </c>
@@ -9033,7 +9111,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>282</v>
       </c>
@@ -9053,7 +9131,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>1036</v>
       </c>
@@ -9073,7 +9151,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>1037</v>
       </c>
@@ -9093,7 +9171,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>1038</v>
       </c>
@@ -9113,7 +9191,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>1039</v>
       </c>
@@ -9133,7 +9211,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>285</v>
       </c>
@@ -9153,7 +9231,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>1040</v>
       </c>
@@ -9173,7 +9251,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>1041</v>
       </c>
@@ -9193,7 +9271,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>816</v>
       </c>
@@ -9213,7 +9291,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>288</v>
       </c>
@@ -9233,7 +9311,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>917</v>
       </c>
@@ -9253,7 +9331,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>918</v>
       </c>
@@ -9273,7 +9351,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1042</v>
       </c>
@@ -9293,7 +9371,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>291</v>
       </c>
@@ -9313,7 +9391,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>920</v>
       </c>
@@ -9333,7 +9411,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>921</v>
       </c>
@@ -9353,7 +9431,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>922</v>
       </c>
@@ -9373,7 +9451,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>293</v>
       </c>
@@ -9393,7 +9471,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>296</v>
       </c>
@@ -9413,7 +9491,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>299</v>
       </c>
@@ -9433,7 +9511,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>302</v>
       </c>
@@ -9453,7 +9531,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>923</v>
       </c>
@@ -9473,7 +9551,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>1043</v>
       </c>
@@ -9493,7 +9571,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>305</v>
       </c>
@@ -9513,7 +9591,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>308</v>
       </c>
@@ -9533,7 +9611,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>1044</v>
       </c>
@@ -9553,7 +9631,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>311</v>
       </c>
@@ -9573,7 +9651,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>313</v>
       </c>
@@ -9593,7 +9671,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>1045</v>
       </c>
@@ -9613,7 +9691,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>316</v>
       </c>
@@ -9633,7 +9711,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>1010</v>
       </c>
@@ -9653,7 +9731,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>318</v>
       </c>
@@ -9673,7 +9751,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>1046</v>
       </c>
@@ -9693,7 +9771,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>321</v>
       </c>
@@ -9713,7 +9791,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>324</v>
       </c>
@@ -9733,7 +9811,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>327</v>
       </c>
@@ -9753,7 +9831,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>828</v>
       </c>
@@ -9773,7 +9851,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>330</v>
       </c>
@@ -9793,7 +9871,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>333</v>
       </c>
@@ -9813,7 +9891,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>336</v>
       </c>
@@ -9833,7 +9911,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>339</v>
       </c>
@@ -9853,7 +9931,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>928</v>
       </c>
@@ -9873,7 +9951,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>1047</v>
       </c>
@@ -9893,7 +9971,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>1048</v>
       </c>
@@ -9913,7 +9991,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>1049</v>
       </c>
@@ -9933,7 +10011,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>1050</v>
       </c>
@@ -9953,7 +10031,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>1051</v>
       </c>
@@ -9973,7 +10051,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>342</v>
       </c>
@@ -9993,7 +10071,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>1052</v>
       </c>
@@ -10013,7 +10091,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>347</v>
       </c>
@@ -10033,7 +10111,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>1053</v>
       </c>
@@ -10053,7 +10131,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>1054</v>
       </c>
@@ -10073,7 +10151,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>350</v>
       </c>
@@ -10093,7 +10171,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>353</v>
       </c>
@@ -10113,7 +10191,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>356</v>
       </c>
@@ -10133,7 +10211,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>359</v>
       </c>
@@ -10153,7 +10231,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>362</v>
       </c>
@@ -10173,7 +10251,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>365</v>
       </c>
@@ -10193,7 +10271,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>368</v>
       </c>
@@ -10213,7 +10291,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>371</v>
       </c>
@@ -10233,7 +10311,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>1055</v>
       </c>
@@ -10253,7 +10331,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>374</v>
       </c>
@@ -10273,7 +10351,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>377</v>
       </c>
@@ -10293,7 +10371,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>380</v>
       </c>
@@ -10313,7 +10391,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>382</v>
       </c>
@@ -10333,7 +10411,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>1056</v>
       </c>
@@ -10353,7 +10431,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>1057</v>
       </c>
@@ -10373,7 +10451,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>940</v>
       </c>
@@ -10393,7 +10471,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>941</v>
       </c>
@@ -10413,7 +10491,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>1058</v>
       </c>
@@ -10433,7 +10511,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>1059</v>
       </c>
@@ -10453,7 +10531,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>384</v>
       </c>
@@ -10473,7 +10551,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>387</v>
       </c>
@@ -10493,7 +10571,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>390</v>
       </c>
@@ -10513,7 +10591,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>1060</v>
       </c>
@@ -10533,7 +10611,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>393</v>
       </c>
@@ -10553,7 +10631,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>396</v>
       </c>
@@ -10573,7 +10651,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>399</v>
       </c>
@@ -10593,7 +10671,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>401</v>
       </c>
@@ -10613,7 +10691,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>403</v>
       </c>
@@ -10633,7 +10711,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>406</v>
       </c>
@@ -10653,7 +10731,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>409</v>
       </c>
@@ -10673,7 +10751,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>412</v>
       </c>
@@ -10693,7 +10771,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>415</v>
       </c>
@@ -10713,7 +10791,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>1008</v>
       </c>
@@ -10733,7 +10811,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>945</v>
       </c>
@@ -10753,7 +10831,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>417</v>
       </c>
@@ -10773,7 +10851,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>420</v>
       </c>
@@ -10793,7 +10871,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>423</v>
       </c>
@@ -10813,7 +10891,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>426</v>
       </c>
@@ -10833,7 +10911,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>429</v>
       </c>
@@ -10853,7 +10931,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>432</v>
       </c>
@@ -10873,7 +10951,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>435</v>
       </c>
@@ -10893,7 +10971,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>438</v>
       </c>
@@ -10913,7 +10991,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>441</v>
       </c>
@@ -10933,7 +11011,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>444</v>
       </c>
@@ -10953,7 +11031,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>447</v>
       </c>
@@ -10973,7 +11051,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>450</v>
       </c>
@@ -10993,7 +11071,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>453</v>
       </c>
@@ -11013,7 +11091,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>456</v>
       </c>
@@ -11033,7 +11111,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>1061</v>
       </c>
@@ -11053,7 +11131,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>1062</v>
       </c>
@@ -11073,7 +11151,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>8</v>
       </c>
@@ -11093,7 +11171,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>948</v>
       </c>
@@ -11113,7 +11191,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>1063</v>
       </c>
@@ -11133,7 +11211,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>459</v>
       </c>
@@ -11153,7 +11231,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>1064</v>
       </c>
@@ -11173,7 +11251,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>951</v>
       </c>
@@ -11193,7 +11271,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>462</v>
       </c>
@@ -11213,7 +11291,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>1065</v>
       </c>
@@ -11233,7 +11311,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>1109</v>
       </c>
@@ -11253,7 +11331,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>1066</v>
       </c>
@@ -11273,7 +11351,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>1067</v>
       </c>
@@ -11293,7 +11371,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>464</v>
       </c>
@@ -11313,7 +11391,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>469</v>
       </c>
@@ -11333,7 +11411,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>408</v>
       </c>
@@ -11353,7 +11431,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>471</v>
       </c>
@@ -11373,7 +11451,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>474</v>
       </c>
@@ -11393,7 +11471,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>477</v>
       </c>
@@ -11413,7 +11491,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>480</v>
       </c>
@@ -11433,7 +11511,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>483</v>
       </c>
@@ -11453,7 +11531,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>486</v>
       </c>
@@ -11473,7 +11551,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>489</v>
       </c>
@@ -11493,7 +11571,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>492</v>
       </c>
@@ -11513,7 +11591,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>494</v>
       </c>
@@ -11533,7 +11611,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>497</v>
       </c>
@@ -11553,7 +11631,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>500</v>
       </c>
@@ -11573,7 +11651,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>787</v>
       </c>
@@ -11593,7 +11671,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>503</v>
       </c>
@@ -11613,7 +11691,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>506</v>
       </c>
@@ -11633,7 +11711,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>509</v>
       </c>
@@ -11653,7 +11731,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>512</v>
       </c>
@@ -11673,7 +11751,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>515</v>
       </c>
@@ -11693,7 +11771,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>518</v>
       </c>
@@ -11713,7 +11791,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>521</v>
       </c>
@@ -11733,7 +11811,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>522</v>
       </c>
@@ -11753,7 +11831,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>525</v>
       </c>
@@ -11773,7 +11851,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>527</v>
       </c>
@@ -11793,7 +11871,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>530</v>
       </c>
@@ -11813,7 +11891,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>955</v>
       </c>
@@ -11833,7 +11911,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>533</v>
       </c>
@@ -11853,7 +11931,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>956</v>
       </c>
@@ -11873,7 +11951,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>957</v>
       </c>
@@ -11893,7 +11971,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>1068</v>
       </c>
@@ -11913,7 +11991,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>1069</v>
       </c>
@@ -11933,7 +12011,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>536</v>
       </c>
@@ -11953,7 +12031,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>539</v>
       </c>
@@ -11973,7 +12051,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>542</v>
       </c>
@@ -11993,7 +12071,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>545</v>
       </c>
@@ -12013,7 +12091,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>548</v>
       </c>
@@ -12033,7 +12111,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>551</v>
       </c>
@@ -12053,7 +12131,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>554</v>
       </c>
@@ -12073,7 +12151,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>557</v>
       </c>
@@ -12093,7 +12171,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>1070</v>
       </c>
@@ -12113,7 +12191,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>1071</v>
       </c>
@@ -12133,7 +12211,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>962</v>
       </c>
@@ -12153,7 +12231,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>560</v>
       </c>
@@ -12173,7 +12251,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>563</v>
       </c>
@@ -12193,7 +12271,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>566</v>
       </c>
@@ -12213,7 +12291,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>569</v>
       </c>
@@ -12233,7 +12311,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>572</v>
       </c>
@@ -12253,7 +12331,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>1072</v>
       </c>
@@ -12273,7 +12351,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>1073</v>
       </c>
@@ -12293,7 +12371,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>575</v>
       </c>
@@ -12313,7 +12391,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>578</v>
       </c>
@@ -12333,7 +12411,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>581</v>
       </c>
@@ -12353,7 +12431,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>584</v>
       </c>
@@ -12373,7 +12451,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>587</v>
       </c>
@@ -12393,7 +12471,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>590</v>
       </c>
@@ -12413,7 +12491,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>593</v>
       </c>
@@ -12433,7 +12511,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>596</v>
       </c>
@@ -12453,7 +12531,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>599</v>
       </c>
@@ -12473,7 +12551,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>851</v>
       </c>
@@ -12493,7 +12571,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>841</v>
       </c>
@@ -12513,7 +12591,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>860</v>
       </c>
@@ -12533,7 +12611,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>843</v>
       </c>
@@ -12553,7 +12631,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>863</v>
       </c>
@@ -12573,7 +12651,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>854</v>
       </c>
@@ -12593,7 +12671,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>845</v>
       </c>
@@ -12613,7 +12691,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>866</v>
       </c>
@@ -12633,7 +12711,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>868</v>
       </c>
@@ -12653,7 +12731,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>870</v>
       </c>
@@ -12673,7 +12751,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>872</v>
       </c>
@@ -12693,7 +12771,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>857</v>
       </c>
@@ -12713,7 +12791,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>848</v>
       </c>
@@ -12733,7 +12811,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>1074</v>
       </c>
@@ -12753,7 +12831,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>517</v>
       </c>
@@ -12773,7 +12851,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>602</v>
       </c>
@@ -12793,7 +12871,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>605</v>
       </c>
@@ -12813,7 +12891,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>606</v>
       </c>
@@ -12833,7 +12911,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>609</v>
       </c>
@@ -12853,7 +12931,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>611</v>
       </c>
@@ -12873,7 +12951,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>614</v>
       </c>
@@ -12893,7 +12971,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>966</v>
       </c>
@@ -12913,7 +12991,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>1111</v>
       </c>
@@ -12933,7 +13011,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>1112</v>
       </c>
@@ -12953,7 +13031,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>616</v>
       </c>
@@ -12973,7 +13051,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>618</v>
       </c>
@@ -12993,7 +13071,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>621</v>
       </c>
@@ -13013,7 +13091,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>623</v>
       </c>
@@ -13033,7 +13111,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>1075</v>
       </c>
@@ -13053,7 +13131,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>1076</v>
       </c>
@@ -13073,7 +13151,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>626</v>
       </c>
@@ -13093,7 +13171,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>1077</v>
       </c>
@@ -13113,7 +13191,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>629</v>
       </c>
@@ -13133,7 +13211,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>632</v>
       </c>
@@ -13153,7 +13231,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>634</v>
       </c>
@@ -13173,7 +13251,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>1078</v>
       </c>
@@ -13193,7 +13271,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>637</v>
       </c>
@@ -13213,7 +13291,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>640</v>
       </c>
@@ -13233,7 +13311,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>1079</v>
       </c>
@@ -13253,7 +13331,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>810</v>
       </c>
@@ -13273,7 +13351,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>810</v>
       </c>
@@ -13293,7 +13371,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>1673</v>
       </c>
@@ -13313,7 +13391,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>813</v>
       </c>
@@ -13333,7 +13411,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>813</v>
       </c>
@@ -13353,7 +13431,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>1080</v>
       </c>
@@ -13373,7 +13451,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>1081</v>
       </c>
@@ -13393,7 +13471,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>1082</v>
       </c>
@@ -13413,7 +13491,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>1083</v>
       </c>
@@ -13433,7 +13511,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>1084</v>
       </c>
@@ -13453,7 +13531,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>1085</v>
       </c>
@@ -13473,7 +13551,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>1086</v>
       </c>
@@ -13493,7 +13571,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>1087</v>
       </c>
@@ -13513,7 +13591,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>1088</v>
       </c>
@@ -13533,7 +13611,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>1089</v>
       </c>
@@ -13553,7 +13631,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>1090</v>
       </c>
@@ -13573,7 +13651,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>1091</v>
       </c>
@@ -13593,7 +13671,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>1092</v>
       </c>
@@ -13613,7 +13691,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>1093</v>
       </c>
@@ -13633,7 +13711,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>1094</v>
       </c>
@@ -13653,7 +13731,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>1095</v>
       </c>
@@ -13673,7 +13751,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>1096</v>
       </c>
@@ -13693,7 +13771,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>1097</v>
       </c>
@@ -13713,7 +13791,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>1098</v>
       </c>
@@ -13733,7 +13811,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>643</v>
       </c>
@@ -13753,7 +13831,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>645</v>
       </c>
@@ -13773,7 +13851,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>648</v>
       </c>
@@ -13793,7 +13871,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>651</v>
       </c>
@@ -13813,7 +13891,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>654</v>
       </c>
@@ -13833,7 +13911,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>657</v>
       </c>
@@ -13853,7 +13931,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>660</v>
       </c>
@@ -13873,7 +13951,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>663</v>
       </c>
@@ -13893,7 +13971,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>798</v>
       </c>
@@ -13913,7 +13991,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>801</v>
       </c>
@@ -13933,7 +14011,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>795</v>
       </c>
@@ -13953,7 +14031,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>790</v>
       </c>
@@ -13973,7 +14051,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>793</v>
       </c>
@@ -13993,7 +14071,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>666</v>
       </c>
@@ -14013,7 +14091,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>1099</v>
       </c>
@@ -14033,7 +14111,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>1100</v>
       </c>
@@ -14053,7 +14131,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>668</v>
       </c>
@@ -14073,7 +14151,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>671</v>
       </c>
@@ -14093,7 +14171,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>992</v>
       </c>
@@ -14113,7 +14191,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>674</v>
       </c>
@@ -14133,7 +14211,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>677</v>
       </c>
@@ -14153,7 +14231,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>678</v>
       </c>
@@ -14173,7 +14251,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>681</v>
       </c>
@@ -14193,7 +14271,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>993</v>
       </c>
@@ -14213,7 +14291,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>994</v>
       </c>
@@ -14233,7 +14311,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>684</v>
       </c>
@@ -14253,7 +14331,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>687</v>
       </c>
@@ -14273,7 +14351,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>690</v>
       </c>
@@ -14293,7 +14371,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>693</v>
       </c>
@@ -14313,7 +14391,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>995</v>
       </c>
@@ -14333,7 +14411,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>996</v>
       </c>
@@ -14353,7 +14431,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>696</v>
       </c>
@@ -14373,7 +14451,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>1101</v>
       </c>
@@ -14393,7 +14471,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>699</v>
       </c>
@@ -14413,7 +14491,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>701</v>
       </c>
@@ -14433,7 +14511,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>704</v>
       </c>
@@ -14453,7 +14531,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>707</v>
       </c>
@@ -14473,7 +14551,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>709</v>
       </c>
@@ -14493,7 +14571,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>998</v>
       </c>
@@ -14513,7 +14591,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>1102</v>
       </c>
@@ -14533,7 +14611,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>1103</v>
       </c>
@@ -14553,7 +14631,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>1009</v>
       </c>
@@ -14573,7 +14651,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>608</v>
       </c>
@@ -14593,7 +14671,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>713</v>
       </c>
@@ -14613,7 +14691,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>715</v>
       </c>
@@ -14633,7 +14711,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>718</v>
       </c>
@@ -14653,7 +14731,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>721</v>
       </c>
@@ -14673,7 +14751,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>722</v>
       </c>
@@ -14693,7 +14771,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>725</v>
       </c>
@@ -14713,7 +14791,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>728</v>
       </c>
@@ -14733,7 +14811,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>730</v>
       </c>
@@ -14753,7 +14831,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>733</v>
       </c>
@@ -14773,7 +14851,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>1104</v>
       </c>
@@ -14793,7 +14871,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>736</v>
       </c>
@@ -14813,7 +14891,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>739</v>
       </c>
@@ -14833,7 +14911,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>742</v>
       </c>
@@ -14853,7 +14931,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>745</v>
       </c>
@@ -14873,7 +14951,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>747</v>
       </c>
@@ -14893,7 +14971,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>750</v>
       </c>
@@ -14913,7 +14991,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>753</v>
       </c>
@@ -14933,7 +15011,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>524</v>
       </c>
@@ -14953,7 +15031,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>756</v>
       </c>
@@ -14973,7 +15051,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>759</v>
       </c>
@@ -14993,7 +15071,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>1105</v>
       </c>
@@ -15013,7 +15091,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>1106</v>
       </c>
@@ -15033,7 +15111,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>1107</v>
       </c>
@@ -15053,7 +15131,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>1108</v>
       </c>
@@ -15073,7 +15151,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>761</v>
       </c>
@@ -15093,7 +15171,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>763</v>
       </c>
@@ -15113,7 +15191,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>766</v>
       </c>
@@ -15133,7 +15211,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>769</v>
       </c>
@@ -15153,7 +15231,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>772</v>
       </c>
@@ -15173,7 +15251,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>775</v>
       </c>
@@ -15193,7 +15271,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>778</v>
       </c>
@@ -15213,7 +15291,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>781</v>
       </c>
@@ -15233,7 +15311,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>1692</v>
       </c>
@@ -15253,7 +15331,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>1695</v>
       </c>
@@ -15273,7 +15351,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>1698</v>
       </c>
@@ -15293,7 +15371,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>1708</v>
       </c>
@@ -15313,7 +15391,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>1709</v>
       </c>
@@ -15333,7 +15411,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>1710</v>
       </c>
@@ -15353,7 +15431,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>1711</v>
       </c>
@@ -15373,7 +15451,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>1712</v>
       </c>
@@ -15393,7 +15471,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>1713</v>
       </c>
@@ -15413,7 +15491,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>1714</v>
       </c>
@@ -15433,7 +15511,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>1715</v>
       </c>
@@ -15453,7 +15531,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>1716</v>
       </c>
@@ -15473,7 +15551,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>1726</v>
       </c>
@@ -15493,7 +15571,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>1729</v>
       </c>
@@ -15513,7 +15591,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>1732</v>
       </c>
@@ -15533,7 +15611,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>1733</v>
       </c>
@@ -15553,7 +15631,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>1734</v>
       </c>
@@ -15573,7 +15651,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>1739</v>
       </c>
@@ -15593,7 +15671,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>1740</v>
       </c>
@@ -15613,7 +15691,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>1745</v>
       </c>
@@ -15633,7 +15711,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>1749</v>
       </c>
@@ -15653,7 +15731,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>1748</v>
       </c>
@@ -15673,7 +15751,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>1750</v>
       </c>
@@ -15693,7 +15771,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>1757</v>
       </c>
@@ -15713,7 +15791,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>1758</v>
       </c>
@@ -15733,7 +15811,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>1759</v>
       </c>
@@ -15753,7 +15831,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>1760</v>
       </c>
@@ -15773,7 +15851,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>1769</v>
       </c>
@@ -15793,7 +15871,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>1770</v>
       </c>
@@ -15813,7 +15891,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>1771</v>
       </c>
@@ -15833,7 +15911,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>1772</v>
       </c>
@@ -15853,7 +15931,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>1773</v>
       </c>
@@ -15873,7 +15951,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>1774</v>
       </c>
@@ -15893,7 +15971,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>1775</v>
       </c>
@@ -15913,7 +15991,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>1776</v>
       </c>
@@ -15933,7 +16011,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>1777</v>
       </c>
@@ -15953,7 +16031,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>1778</v>
       </c>
@@ -15973,7 +16051,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>1779</v>
       </c>
@@ -15993,7 +16071,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>1780</v>
       </c>
@@ -16013,7 +16091,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>1781</v>
       </c>
@@ -16033,7 +16111,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>1782</v>
       </c>
@@ -16053,7 +16131,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>1783</v>
       </c>
@@ -16073,7 +16151,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>842</v>
       </c>
@@ -16093,7 +16171,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>1805</v>
       </c>
@@ -16113,7 +16191,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>1808</v>
       </c>
@@ -16131,6 +16209,146 @@
       </c>
       <c r="G507" t="s">
         <v>1532</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B508" t="b">
+        <v>1</v>
+      </c>
+      <c r="C508" t="b">
+        <v>1</v>
+      </c>
+      <c r="E508" t="s">
+        <v>1854</v>
+      </c>
+      <c r="F508" t="s">
+        <v>1855</v>
+      </c>
+      <c r="G508" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B509" t="b">
+        <v>1</v>
+      </c>
+      <c r="C509" t="b">
+        <v>1</v>
+      </c>
+      <c r="E509" t="s">
+        <v>1853</v>
+      </c>
+      <c r="F509" t="s">
+        <v>1856</v>
+      </c>
+      <c r="G509" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B510" t="b">
+        <v>1</v>
+      </c>
+      <c r="C510" t="b">
+        <v>1</v>
+      </c>
+      <c r="E510" t="s">
+        <v>1852</v>
+      </c>
+      <c r="F510" t="s">
+        <v>1857</v>
+      </c>
+      <c r="G510" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B511" t="b">
+        <v>1</v>
+      </c>
+      <c r="C511" t="b">
+        <v>0</v>
+      </c>
+      <c r="E511" t="s">
+        <v>1861</v>
+      </c>
+      <c r="F511" t="s">
+        <v>1862</v>
+      </c>
+      <c r="G511" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B512" t="b">
+        <v>1</v>
+      </c>
+      <c r="C512" t="b">
+        <v>1</v>
+      </c>
+      <c r="E512" t="s">
+        <v>1865</v>
+      </c>
+      <c r="F512" t="s">
+        <v>1866</v>
+      </c>
+      <c r="G512" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B513" t="b">
+        <v>0</v>
+      </c>
+      <c r="C513" t="b">
+        <v>1</v>
+      </c>
+      <c r="E513" t="s">
+        <v>1868</v>
+      </c>
+      <c r="F513" t="s">
+        <v>1869</v>
+      </c>
+      <c r="G513" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B514" t="b">
+        <v>0</v>
+      </c>
+      <c r="C514" t="b">
+        <v>1</v>
+      </c>
+      <c r="E514" t="s">
+        <v>1872</v>
+      </c>
+      <c r="F514" t="s">
+        <v>1873</v>
+      </c>
+      <c r="G514" t="s">
+        <v>1874</v>
       </c>
     </row>
   </sheetData>

--- a/Translations/Translations.xlsx
+++ b/Translations/Translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\source\repos\BSharp\Translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DB7667-1E53-41A6-A4BF-2D0C0B652B07}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341A1B2E-E75F-4865-B113-AFF2A7E2DDFD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09F7BBB4-81EA-4503-B8DD-8985A501E98F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="1875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="1887">
   <si>
     <t>Key</t>
   </si>
@@ -5659,6 +5659,42 @@
   </si>
   <si>
     <t>包括已弃用</t>
+  </si>
+  <si>
+    <t>AccountType</t>
+  </si>
+  <si>
+    <t>Account Type</t>
+  </si>
+  <si>
+    <t>نوع حساب</t>
+  </si>
+  <si>
+    <t>帐户类型</t>
+  </si>
+  <si>
+    <t>AccountTypes</t>
+  </si>
+  <si>
+    <t>Account Types</t>
+  </si>
+  <si>
+    <t>أنواع حسابات</t>
+  </si>
+  <si>
+    <t>账户类型</t>
+  </si>
+  <si>
+    <t>AccountType_IsAssignable</t>
+  </si>
+  <si>
+    <t>Is Assignable</t>
+  </si>
+  <si>
+    <t>متاح للاستخدام</t>
+  </si>
+  <si>
+    <t>可分配</t>
   </si>
 </sst>
 </file>
@@ -5729,12 +5765,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6049,12 +6086,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FEE134-3B22-427F-8E5A-2A7F994BE2AC}">
-  <dimension ref="A1:G514"/>
+  <dimension ref="A1:G517"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A492" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G514" sqref="G514"/>
+      <selection pane="bottomLeft" activeCell="F506" sqref="F506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16351,6 +16388,69 @@
         <v>1874</v>
       </c>
     </row>
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A515" s="5" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B515" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C515" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D515" s="5"/>
+      <c r="E515" s="5" t="s">
+        <v>1876</v>
+      </c>
+      <c r="F515" s="5" t="s">
+        <v>1877</v>
+      </c>
+      <c r="G515" s="5" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A516" s="5" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B516" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C516" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D516" s="5"/>
+      <c r="E516" s="5" t="s">
+        <v>1880</v>
+      </c>
+      <c r="F516" s="5" t="s">
+        <v>1881</v>
+      </c>
+      <c r="G516" s="5" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A517" s="5" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B517" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C517" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D517" s="5"/>
+      <c r="E517" s="5" t="s">
+        <v>1884</v>
+      </c>
+      <c r="F517" s="5" t="s">
+        <v>1885</v>
+      </c>
+      <c r="G517" s="5" t="s">
+        <v>1886</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{166F55E6-F4CB-49C4-A0B4-8593C255C448}"/>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Translations/Translations.xlsx
+++ b/Translations/Translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\source\repos\BSharp\Translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341A1B2E-E75F-4865-B113-AFF2A7E2DDFD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE33284-4267-4BF8-A4FE-146573E507BD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09F7BBB4-81EA-4503-B8DD-8985A501E98F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="1887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2079" uniqueCount="1895">
   <si>
     <t>Key</t>
   </si>
@@ -5695,13 +5695,37 @@
   </si>
   <si>
     <t>可分配</t>
+  </si>
+  <si>
+    <t>CollapseAll</t>
+  </si>
+  <si>
+    <t>Collapse All</t>
+  </si>
+  <si>
+    <t>طوي الكل</t>
+  </si>
+  <si>
+    <t>全部收缩</t>
+  </si>
+  <si>
+    <t>展开级别{{level}}</t>
+  </si>
+  <si>
+    <t>AutoExpandLevel0</t>
+  </si>
+  <si>
+    <t>Auto Expand Level {{level}}</t>
+  </si>
+  <si>
+    <t>توسيع الدرجة {{level}} تلقائيا</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5728,6 +5752,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -5765,13 +5795,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6086,12 +6119,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FEE134-3B22-427F-8E5A-2A7F994BE2AC}">
-  <dimension ref="A1:G517"/>
+  <dimension ref="A1:G521"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A492" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A496" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F506" sqref="F506"/>
+      <selection pane="bottomLeft" activeCell="E521" sqref="E521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16451,6 +16484,52 @@
         <v>1886</v>
       </c>
     </row>
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A518" s="6" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B518" t="b">
+        <v>0</v>
+      </c>
+      <c r="C518" t="b">
+        <v>1</v>
+      </c>
+      <c r="E518" t="s">
+        <v>1893</v>
+      </c>
+      <c r="F518" t="s">
+        <v>1894</v>
+      </c>
+      <c r="G518" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A519" s="5" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B519" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C519" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E519" t="s">
+        <v>1888</v>
+      </c>
+      <c r="F519" t="s">
+        <v>1889</v>
+      </c>
+      <c r="G519" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A520" s="6"/>
+    </row>
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E521" s="5"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{166F55E6-F4CB-49C4-A0B4-8593C255C448}"/>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Translations/Translations.xlsx
+++ b/Translations/Translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\source\repos\BSharp\Translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE33284-4267-4BF8-A4FE-146573E507BD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291E2458-12AF-4749-A41F-43A51389AB71}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09F7BBB4-81EA-4503-B8DD-8985A501E98F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2079" uniqueCount="1895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2123" uniqueCount="1928">
   <si>
     <t>Key</t>
   </si>
@@ -5709,16 +5709,115 @@
     <t>全部收缩</t>
   </si>
   <si>
+    <t>ExpandLevel0</t>
+  </si>
+  <si>
+    <t>Expand Level {{level}}</t>
+  </si>
+  <si>
+    <t>توسيع الدرجة {{level}}</t>
+  </si>
+  <si>
     <t>展开级别{{level}}</t>
   </si>
   <si>
-    <t>AutoExpandLevel0</t>
-  </si>
-  <si>
-    <t>Auto Expand Level {{level}}</t>
-  </si>
-  <si>
-    <t>توسيع الدرجة {{level}} تلقائيا</t>
+    <t>Error_TernaryLanguageCannotBeTheSameAsPrimaryLanguage</t>
+  </si>
+  <si>
+    <t>Ternary language cannot be the same as the primary language.</t>
+  </si>
+  <si>
+    <t>اللغة الثالثة هي نفسها اللغة الرئيسية</t>
+  </si>
+  <si>
+    <t>Error_TernaryLanguageCannotBeTheSameAsSecondaryLanguage</t>
+  </si>
+  <si>
+    <t>Ternary language cannot be the same as the secondary language.</t>
+  </si>
+  <si>
+    <t>اللغة الثالثة هي نفسها اللغة الثانية</t>
+  </si>
+  <si>
+    <t>三元语言不能与主要语言相同。</t>
+  </si>
+  <si>
+    <t>三元语言不能与第二语言相同。</t>
+  </si>
+  <si>
+    <t>Account_ResponsibilityCenter</t>
+  </si>
+  <si>
+    <t>Account_PartyReference</t>
+  </si>
+  <si>
+    <t>Account_Custodian</t>
+  </si>
+  <si>
+    <t>Account_Resource</t>
+  </si>
+  <si>
+    <t>Account_Location</t>
+  </si>
+  <si>
+    <t>Accounts</t>
+  </si>
+  <si>
+    <t>Party Reference</t>
+  </si>
+  <si>
+    <t>Custodian</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>حساب</t>
+  </si>
+  <si>
+    <t>حسابات</t>
+  </si>
+  <si>
+    <t>الذمة</t>
+  </si>
+  <si>
+    <t>الموقع</t>
+  </si>
+  <si>
+    <t>الرقم الخارجي</t>
+  </si>
+  <si>
+    <t>帐号</t>
+  </si>
+  <si>
+    <t>党的文献</t>
+  </si>
+  <si>
+    <t>保管人</t>
+  </si>
+  <si>
+    <t>位置</t>
+  </si>
+  <si>
+    <t>Account_IsDeprecated</t>
+  </si>
+  <si>
+    <t>Account_Type</t>
+  </si>
+  <si>
+    <t>Account_Classification</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>النوع</t>
+  </si>
+  <si>
+    <t>Resource_Type</t>
+  </si>
+  <si>
+    <t>类型</t>
   </si>
 </sst>
 </file>
@@ -6119,17 +6218,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FEE134-3B22-427F-8E5A-2A7F994BE2AC}">
-  <dimension ref="A1:G521"/>
+  <dimension ref="A1:G530"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A496" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A500" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E521" sqref="E521"/>
+      <selection pane="bottomLeft" activeCell="F533" sqref="F533"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="1" max="1" width="48.28515625" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" hidden="1" customWidth="1"/>
@@ -13423,87 +13522,87 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>810</v>
+        <v>1673</v>
       </c>
       <c r="B365" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C365" t="b">
         <v>1</v>
       </c>
       <c r="E365" t="s">
-        <v>812</v>
+        <v>1675</v>
       </c>
       <c r="F365" t="s">
-        <v>811</v>
+        <v>1676</v>
       </c>
       <c r="G365" t="s">
-        <v>1527</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>1673</v>
+        <v>813</v>
       </c>
       <c r="B366" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C366" t="b">
         <v>1</v>
       </c>
       <c r="E366" t="s">
-        <v>1675</v>
+        <v>815</v>
       </c>
       <c r="F366" t="s">
-        <v>1676</v>
+        <v>814</v>
       </c>
       <c r="G366" t="s">
-        <v>1677</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>813</v>
+        <v>1080</v>
       </c>
       <c r="B367" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C367" t="b">
         <v>1</v>
       </c>
       <c r="E367" t="s">
-        <v>815</v>
+        <v>971</v>
       </c>
       <c r="F367" t="s">
-        <v>814</v>
+        <v>1208</v>
       </c>
       <c r="G367" t="s">
-        <v>1528</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>813</v>
+        <v>1081</v>
       </c>
       <c r="B368" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C368" t="b">
         <v>1</v>
       </c>
       <c r="E368" t="s">
-        <v>815</v>
+        <v>972</v>
       </c>
       <c r="F368" t="s">
-        <v>814</v>
+        <v>1209</v>
       </c>
       <c r="G368" t="s">
-        <v>1528</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="B369" t="b">
         <v>0</v>
@@ -13512,18 +13611,18 @@
         <v>1</v>
       </c>
       <c r="E369" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="F369" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="G369" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="B370" t="b">
         <v>0</v>
@@ -13532,18 +13631,18 @@
         <v>1</v>
       </c>
       <c r="E370" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="F370" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="G370" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="B371" t="b">
         <v>0</v>
@@ -13552,18 +13651,18 @@
         <v>1</v>
       </c>
       <c r="E371" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="F371" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="G371" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="B372" t="b">
         <v>0</v>
@@ -13572,18 +13671,18 @@
         <v>1</v>
       </c>
       <c r="E372" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="F372" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="G372" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B373" t="b">
         <v>0</v>
@@ -13592,18 +13691,18 @@
         <v>1</v>
       </c>
       <c r="E373" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="F373" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="G373" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="B374" t="b">
         <v>0</v>
@@ -13612,18 +13711,18 @@
         <v>1</v>
       </c>
       <c r="E374" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="F374" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="G374" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="B375" t="b">
         <v>0</v>
@@ -13632,18 +13731,18 @@
         <v>1</v>
       </c>
       <c r="E375" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="F375" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="G375" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="B376" t="b">
         <v>0</v>
@@ -13652,18 +13751,18 @@
         <v>1</v>
       </c>
       <c r="E376" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="F376" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="G376" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="B377" t="b">
         <v>0</v>
@@ -13672,18 +13771,18 @@
         <v>1</v>
       </c>
       <c r="E377" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="F377" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="G377" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="B378" t="b">
         <v>0</v>
@@ -13692,18 +13791,18 @@
         <v>1</v>
       </c>
       <c r="E378" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="F378" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="G378" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="B379" t="b">
         <v>0</v>
@@ -13712,18 +13811,18 @@
         <v>1</v>
       </c>
       <c r="E379" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="F379" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="G379" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="B380" t="b">
         <v>0</v>
@@ -13732,18 +13831,18 @@
         <v>1</v>
       </c>
       <c r="E380" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="F380" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="G380" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="B381" t="b">
         <v>0</v>
@@ -13752,18 +13851,18 @@
         <v>1</v>
       </c>
       <c r="E381" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="F381" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="G381" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="B382" t="b">
         <v>0</v>
@@ -13772,18 +13871,18 @@
         <v>1</v>
       </c>
       <c r="E382" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="F382" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="G382" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="B383" t="b">
         <v>0</v>
@@ -13792,18 +13891,18 @@
         <v>1</v>
       </c>
       <c r="E383" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="F383" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="G383" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="B384" t="b">
         <v>0</v>
@@ -13812,18 +13911,18 @@
         <v>1</v>
       </c>
       <c r="E384" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="F384" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="G384" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="B385" t="b">
         <v>0</v>
@@ -13832,118 +13931,118 @@
         <v>1</v>
       </c>
       <c r="E385" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="F385" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="G385" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>1097</v>
+        <v>643</v>
       </c>
       <c r="B386" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C386" t="b">
         <v>1</v>
       </c>
       <c r="E386" t="s">
-        <v>988</v>
+        <v>643</v>
       </c>
       <c r="F386" t="s">
-        <v>1225</v>
+        <v>644</v>
       </c>
       <c r="G386" t="s">
-        <v>1649</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>1098</v>
+        <v>645</v>
       </c>
       <c r="B387" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C387" t="b">
         <v>1</v>
       </c>
       <c r="E387" t="s">
-        <v>989</v>
+        <v>647</v>
       </c>
       <c r="F387" t="s">
-        <v>1226</v>
+        <v>646</v>
       </c>
       <c r="G387" t="s">
-        <v>1650</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="B388" t="b">
         <v>1</v>
       </c>
       <c r="C388" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E388" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="F388" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="G388" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="B389" t="b">
         <v>1</v>
       </c>
       <c r="C389" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E389" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="F389" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="G389" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="B390" t="b">
         <v>1</v>
       </c>
       <c r="C390" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E390" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="F390" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="G390" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="B391" t="b">
         <v>1</v>
@@ -13952,38 +14051,38 @@
         <v>0</v>
       </c>
       <c r="E391" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="F391" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="G391" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="B392" t="b">
         <v>1</v>
       </c>
       <c r="C392" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E392" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="F392" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="G392" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="B393" t="b">
         <v>1</v>
@@ -13992,58 +14091,58 @@
         <v>0</v>
       </c>
       <c r="E393" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="F393" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="G393" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>660</v>
+        <v>798</v>
       </c>
       <c r="B394" t="b">
         <v>1</v>
       </c>
       <c r="C394" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E394" t="s">
-        <v>662</v>
+        <v>800</v>
       </c>
       <c r="F394" t="s">
-        <v>661</v>
+        <v>799</v>
       </c>
       <c r="G394" t="s">
-        <v>1479</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>663</v>
+        <v>801</v>
       </c>
       <c r="B395" t="b">
         <v>1</v>
       </c>
       <c r="C395" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E395" t="s">
-        <v>665</v>
+        <v>2</v>
       </c>
       <c r="F395" t="s">
-        <v>664</v>
+        <v>802</v>
       </c>
       <c r="G395" t="s">
-        <v>1480</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B396" t="b">
         <v>1</v>
@@ -14052,18 +14151,18 @@
         <v>1</v>
       </c>
       <c r="E396" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="F396" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="G396" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="B397" t="b">
         <v>1</v>
@@ -14072,18 +14171,18 @@
         <v>1</v>
       </c>
       <c r="E397" t="s">
-        <v>2</v>
+        <v>792</v>
       </c>
       <c r="F397" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="G397" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B398" t="b">
         <v>1</v>
@@ -14092,18 +14191,18 @@
         <v>1</v>
       </c>
       <c r="E398" t="s">
-        <v>797</v>
+        <v>741</v>
       </c>
       <c r="F398" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="G398" t="s">
-        <v>1522</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>790</v>
+        <v>666</v>
       </c>
       <c r="B399" t="b">
         <v>1</v>
@@ -14112,158 +14211,158 @@
         <v>1</v>
       </c>
       <c r="E399" t="s">
-        <v>792</v>
+        <v>666</v>
       </c>
       <c r="F399" t="s">
-        <v>791</v>
+        <v>667</v>
       </c>
       <c r="G399" t="s">
-        <v>1521</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>793</v>
+        <v>1099</v>
       </c>
       <c r="B400" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C400" t="b">
         <v>1</v>
       </c>
       <c r="E400" t="s">
-        <v>741</v>
+        <v>990</v>
       </c>
       <c r="F400" t="s">
-        <v>794</v>
+        <v>1227</v>
       </c>
       <c r="G400" t="s">
-        <v>1504</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>666</v>
+        <v>1100</v>
       </c>
       <c r="B401" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C401" t="b">
         <v>1</v>
       </c>
       <c r="E401" t="s">
-        <v>666</v>
+        <v>991</v>
       </c>
       <c r="F401" t="s">
-        <v>667</v>
+        <v>1228</v>
       </c>
       <c r="G401" t="s">
-        <v>1481</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>1099</v>
+        <v>668</v>
       </c>
       <c r="B402" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C402" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E402" t="s">
-        <v>990</v>
+        <v>670</v>
       </c>
       <c r="F402" t="s">
-        <v>1227</v>
+        <v>669</v>
       </c>
       <c r="G402" t="s">
-        <v>1651</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>1100</v>
+        <v>671</v>
       </c>
       <c r="B403" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C403" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E403" t="s">
-        <v>991</v>
+        <v>673</v>
       </c>
       <c r="F403" t="s">
-        <v>1228</v>
+        <v>672</v>
       </c>
       <c r="G403" t="s">
-        <v>1652</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>668</v>
+        <v>992</v>
       </c>
       <c r="B404" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C404" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E404" t="s">
-        <v>670</v>
+        <v>992</v>
       </c>
       <c r="F404" t="s">
-        <v>669</v>
+        <v>1229</v>
       </c>
       <c r="G404" t="s">
-        <v>1482</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="B405" t="b">
         <v>1</v>
       </c>
       <c r="C405" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E405" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="F405" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="G405" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>992</v>
+        <v>677</v>
       </c>
       <c r="B406" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C406" t="b">
         <v>1</v>
       </c>
       <c r="E406" t="s">
-        <v>992</v>
+        <v>8</v>
       </c>
       <c r="F406" t="s">
-        <v>1229</v>
+        <v>331</v>
       </c>
       <c r="G406" t="s">
-        <v>1653</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="B407" t="b">
         <v>1</v>
@@ -14272,18 +14371,18 @@
         <v>1</v>
       </c>
       <c r="E407" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="F407" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="G407" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="B408" t="b">
         <v>1</v>
@@ -14292,98 +14391,98 @@
         <v>1</v>
       </c>
       <c r="E408" t="s">
-        <v>8</v>
+        <v>683</v>
       </c>
       <c r="F408" t="s">
-        <v>331</v>
+        <v>682</v>
       </c>
       <c r="G408" t="s">
-        <v>1409</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>678</v>
+        <v>993</v>
       </c>
       <c r="B409" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C409" t="b">
         <v>1</v>
       </c>
       <c r="E409" t="s">
-        <v>680</v>
+        <v>993</v>
       </c>
       <c r="F409" t="s">
-        <v>679</v>
+        <v>1230</v>
       </c>
       <c r="G409" t="s">
-        <v>1485</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>681</v>
+        <v>994</v>
       </c>
       <c r="B410" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C410" t="b">
         <v>1</v>
       </c>
       <c r="E410" t="s">
-        <v>683</v>
+        <v>994</v>
       </c>
       <c r="F410" t="s">
-        <v>682</v>
+        <v>1231</v>
       </c>
       <c r="G410" t="s">
-        <v>1486</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>993</v>
+        <v>684</v>
       </c>
       <c r="B411" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C411" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E411" t="s">
-        <v>993</v>
+        <v>686</v>
       </c>
       <c r="F411" t="s">
-        <v>1230</v>
+        <v>685</v>
       </c>
       <c r="G411" t="s">
-        <v>1654</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>994</v>
+        <v>687</v>
       </c>
       <c r="B412" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C412" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E412" t="s">
-        <v>994</v>
+        <v>689</v>
       </c>
       <c r="F412" t="s">
-        <v>1231</v>
+        <v>688</v>
       </c>
       <c r="G412" t="s">
-        <v>1655</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="B413" t="b">
         <v>1</v>
@@ -14392,18 +14491,18 @@
         <v>0</v>
       </c>
       <c r="E413" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="F413" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="G413" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="B414" t="b">
         <v>1</v>
@@ -14412,78 +14511,78 @@
         <v>0</v>
       </c>
       <c r="E414" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="F414" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="G414" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>690</v>
+        <v>995</v>
       </c>
       <c r="B415" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C415" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E415" t="s">
-        <v>692</v>
+        <v>995</v>
       </c>
       <c r="F415" t="s">
-        <v>691</v>
+        <v>1232</v>
       </c>
       <c r="G415" t="s">
-        <v>1489</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>693</v>
+        <v>996</v>
       </c>
       <c r="B416" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C416" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E416" t="s">
-        <v>695</v>
+        <v>996</v>
       </c>
       <c r="F416" t="s">
-        <v>694</v>
+        <v>1233</v>
       </c>
       <c r="G416" t="s">
-        <v>1490</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>995</v>
+        <v>696</v>
       </c>
       <c r="B417" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C417" t="b">
         <v>1</v>
       </c>
       <c r="E417" t="s">
-        <v>995</v>
+        <v>698</v>
       </c>
       <c r="F417" t="s">
-        <v>1232</v>
+        <v>697</v>
       </c>
       <c r="G417" t="s">
-        <v>1656</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>996</v>
+        <v>1101</v>
       </c>
       <c r="B418" t="b">
         <v>0</v>
@@ -14492,58 +14591,58 @@
         <v>1</v>
       </c>
       <c r="E418" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="F418" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="G418" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="B419" t="b">
         <v>1</v>
       </c>
       <c r="C419" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E419" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F419" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="G419" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>1101</v>
+        <v>701</v>
       </c>
       <c r="B420" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C420" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E420" t="s">
-        <v>997</v>
+        <v>703</v>
       </c>
       <c r="F420" t="s">
-        <v>1234</v>
+        <v>702</v>
       </c>
       <c r="G420" t="s">
-        <v>1658</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="B421" t="b">
         <v>1</v>
@@ -14552,18 +14651,18 @@
         <v>0</v>
       </c>
       <c r="E421" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="F421" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="G421" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="B422" t="b">
         <v>1</v>
@@ -14572,18 +14671,18 @@
         <v>0</v>
       </c>
       <c r="E422" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="F422" t="s">
-        <v>702</v>
+        <v>1252</v>
       </c>
       <c r="G422" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="B423" t="b">
         <v>1</v>
@@ -14592,58 +14691,58 @@
         <v>0</v>
       </c>
       <c r="E423" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="F423" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="G423" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>707</v>
+        <v>998</v>
       </c>
       <c r="B424" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C424" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E424" t="s">
-        <v>708</v>
+        <v>998</v>
       </c>
       <c r="F424" t="s">
-        <v>1252</v>
+        <v>1235</v>
       </c>
       <c r="G424" t="s">
-        <v>1495</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>709</v>
+        <v>1102</v>
       </c>
       <c r="B425" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C425" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E425" t="s">
-        <v>711</v>
+        <v>999</v>
       </c>
       <c r="F425" t="s">
-        <v>710</v>
+        <v>1236</v>
       </c>
       <c r="G425" t="s">
-        <v>1496</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>998</v>
+        <v>1103</v>
       </c>
       <c r="B426" t="b">
         <v>0</v>
@@ -14652,18 +14751,18 @@
         <v>1</v>
       </c>
       <c r="E426" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="F426" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G426" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>1102</v>
+        <v>1009</v>
       </c>
       <c r="B427" t="b">
         <v>0</v>
@@ -14672,58 +14771,58 @@
         <v>1</v>
       </c>
       <c r="E427" t="s">
-        <v>999</v>
+        <v>1009</v>
       </c>
       <c r="F427" t="s">
-        <v>1236</v>
+        <v>1246</v>
       </c>
       <c r="G427" t="s">
-        <v>1660</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>1103</v>
+        <v>608</v>
       </c>
       <c r="B428" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C428" t="b">
         <v>1</v>
       </c>
       <c r="E428" t="s">
-        <v>1000</v>
+        <v>608</v>
       </c>
       <c r="F428" t="s">
-        <v>1237</v>
+        <v>712</v>
       </c>
       <c r="G428" t="s">
-        <v>1661</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>1009</v>
+        <v>713</v>
       </c>
       <c r="B429" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C429" t="b">
         <v>1</v>
       </c>
       <c r="E429" t="s">
-        <v>1009</v>
+        <v>23</v>
       </c>
       <c r="F429" t="s">
-        <v>1246</v>
+        <v>714</v>
       </c>
       <c r="G429" t="s">
-        <v>1669</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>608</v>
+        <v>715</v>
       </c>
       <c r="B430" t="b">
         <v>1</v>
@@ -14732,18 +14831,18 @@
         <v>1</v>
       </c>
       <c r="E430" t="s">
-        <v>608</v>
+        <v>717</v>
       </c>
       <c r="F430" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="G430" t="s">
-        <v>1460</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="B431" t="b">
         <v>1</v>
@@ -14752,18 +14851,18 @@
         <v>1</v>
       </c>
       <c r="E431" t="s">
-        <v>23</v>
+        <v>720</v>
       </c>
       <c r="F431" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="G431" t="s">
-        <v>1260</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="B432" t="b">
         <v>1</v>
@@ -14772,18 +14871,18 @@
         <v>1</v>
       </c>
       <c r="E432" t="s">
-        <v>717</v>
+        <v>146</v>
       </c>
       <c r="F432" t="s">
-        <v>716</v>
+        <v>147</v>
       </c>
       <c r="G432" t="s">
-        <v>1497</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="B433" t="b">
         <v>1</v>
@@ -14792,18 +14891,18 @@
         <v>1</v>
       </c>
       <c r="E433" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="F433" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="G433" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="B434" t="b">
         <v>1</v>
@@ -14812,18 +14911,18 @@
         <v>1</v>
       </c>
       <c r="E434" t="s">
-        <v>146</v>
+        <v>727</v>
       </c>
       <c r="F434" t="s">
-        <v>147</v>
+        <v>726</v>
       </c>
       <c r="G434" t="s">
-        <v>1302</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="B435" t="b">
         <v>1</v>
@@ -14832,78 +14931,78 @@
         <v>1</v>
       </c>
       <c r="E435" t="s">
-        <v>724</v>
+        <v>609</v>
       </c>
       <c r="F435" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="G435" t="s">
-        <v>1499</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="B436" t="b">
         <v>1</v>
       </c>
       <c r="C436" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E436" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="F436" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="G436" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="B437" t="b">
         <v>1</v>
       </c>
       <c r="C437" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E437" t="s">
-        <v>609</v>
+        <v>735</v>
       </c>
       <c r="F437" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="G437" t="s">
-        <v>1430</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>730</v>
+        <v>1104</v>
       </c>
       <c r="B438" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C438" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E438" t="s">
-        <v>732</v>
+        <v>1001</v>
       </c>
       <c r="F438" t="s">
-        <v>731</v>
+        <v>1238</v>
       </c>
       <c r="G438" t="s">
-        <v>1501</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="B439" t="b">
         <v>1</v>
@@ -14912,38 +15011,38 @@
         <v>0</v>
       </c>
       <c r="E439" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="F439" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="G439" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>1104</v>
+        <v>739</v>
       </c>
       <c r="B440" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C440" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E440" t="s">
-        <v>1001</v>
+        <v>741</v>
       </c>
       <c r="F440" t="s">
-        <v>1238</v>
+        <v>740</v>
       </c>
       <c r="G440" t="s">
-        <v>1690</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="B441" t="b">
         <v>1</v>
@@ -14952,38 +15051,38 @@
         <v>0</v>
       </c>
       <c r="E441" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="F441" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="G441" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="B442" t="b">
         <v>1</v>
       </c>
       <c r="C442" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E442" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="F442" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="G442" t="s">
-        <v>1504</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="B443" t="b">
         <v>1</v>
@@ -14992,38 +15091,38 @@
         <v>0</v>
       </c>
       <c r="E443" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="F443" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="G443" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="B444" t="b">
         <v>1</v>
       </c>
       <c r="C444" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E444" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
       <c r="F444" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="G444" t="s">
-        <v>1460</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="B445" t="b">
         <v>1</v>
@@ -15032,58 +15131,58 @@
         <v>0</v>
       </c>
       <c r="E445" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="F445" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="G445" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>750</v>
+        <v>524</v>
       </c>
       <c r="B446" t="b">
         <v>1</v>
       </c>
       <c r="C446" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E446" t="s">
-        <v>752</v>
+        <v>524</v>
       </c>
       <c r="F446" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="G446" t="s">
-        <v>1507</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="B447" t="b">
         <v>1</v>
       </c>
       <c r="C447" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E447" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="F447" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="G447" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>524</v>
+        <v>759</v>
       </c>
       <c r="B448" t="b">
         <v>1</v>
@@ -15092,58 +15191,58 @@
         <v>1</v>
       </c>
       <c r="E448" t="s">
-        <v>524</v>
+        <v>759</v>
       </c>
       <c r="F448" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="G448" t="s">
-        <v>1432</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>756</v>
+        <v>1105</v>
       </c>
       <c r="B449" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C449" t="b">
         <v>1</v>
       </c>
       <c r="E449" t="s">
-        <v>758</v>
+        <v>1002</v>
       </c>
       <c r="F449" t="s">
-        <v>757</v>
+        <v>1239</v>
       </c>
       <c r="G449" t="s">
-        <v>1509</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>759</v>
+        <v>1106</v>
       </c>
       <c r="B450" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C450" t="b">
         <v>1</v>
       </c>
       <c r="E450" t="s">
-        <v>759</v>
+        <v>1003</v>
       </c>
       <c r="F450" t="s">
-        <v>760</v>
+        <v>1240</v>
       </c>
       <c r="G450" t="s">
-        <v>1510</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="B451" t="b">
         <v>0</v>
@@ -15152,18 +15251,18 @@
         <v>1</v>
       </c>
       <c r="E451" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="F451" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="G451" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="B452" t="b">
         <v>0</v>
@@ -15172,78 +15271,78 @@
         <v>1</v>
       </c>
       <c r="E452" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="F452" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="G452" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>1107</v>
+        <v>761</v>
       </c>
       <c r="B453" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C453" t="b">
         <v>1</v>
       </c>
       <c r="E453" t="s">
-        <v>1004</v>
+        <v>761</v>
       </c>
       <c r="F453" t="s">
-        <v>1241</v>
+        <v>762</v>
       </c>
       <c r="G453" t="s">
-        <v>1664</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>1108</v>
+        <v>763</v>
       </c>
       <c r="B454" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C454" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E454" t="s">
-        <v>1005</v>
+        <v>765</v>
       </c>
       <c r="F454" t="s">
-        <v>1242</v>
+        <v>764</v>
       </c>
       <c r="G454" t="s">
-        <v>1665</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="B455" t="b">
         <v>1</v>
       </c>
       <c r="C455" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E455" t="s">
-        <v>761</v>
+        <v>768</v>
       </c>
       <c r="F455" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="G455" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="B456" t="b">
         <v>1</v>
@@ -15252,18 +15351,18 @@
         <v>0</v>
       </c>
       <c r="E456" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="F456" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="G456" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="B457" t="b">
         <v>1</v>
@@ -15272,18 +15371,18 @@
         <v>0</v>
       </c>
       <c r="E457" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="F457" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="G457" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="B458" t="b">
         <v>1</v>
@@ -15292,18 +15391,18 @@
         <v>0</v>
       </c>
       <c r="E458" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="F458" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="G458" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="B459" t="b">
         <v>1</v>
@@ -15312,18 +15411,18 @@
         <v>0</v>
       </c>
       <c r="E459" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="F459" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="G459" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="B460" t="b">
         <v>1</v>
@@ -15332,58 +15431,58 @@
         <v>0</v>
       </c>
       <c r="E460" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="F460" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="G460" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>778</v>
+        <v>1692</v>
       </c>
       <c r="B461" t="b">
         <v>1</v>
       </c>
       <c r="C461" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E461" t="s">
-        <v>780</v>
+        <v>1693</v>
       </c>
       <c r="F461" t="s">
-        <v>779</v>
+        <v>1694</v>
       </c>
       <c r="G461" t="s">
-        <v>1517</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>781</v>
+        <v>1695</v>
       </c>
       <c r="B462" t="b">
         <v>1</v>
       </c>
       <c r="C462" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E462" t="s">
-        <v>783</v>
+        <v>1697</v>
       </c>
       <c r="F462" t="s">
-        <v>782</v>
+        <v>1696</v>
       </c>
       <c r="G462" t="s">
-        <v>1518</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>1692</v>
+        <v>1698</v>
       </c>
       <c r="B463" t="b">
         <v>1</v>
@@ -15392,18 +15491,18 @@
         <v>1</v>
       </c>
       <c r="E463" t="s">
-        <v>1693</v>
+        <v>666</v>
       </c>
       <c r="F463" t="s">
-        <v>1694</v>
+        <v>1724</v>
       </c>
       <c r="G463" t="s">
-        <v>1810</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>1695</v>
+        <v>1708</v>
       </c>
       <c r="B464" t="b">
         <v>1</v>
@@ -15412,18 +15511,18 @@
         <v>1</v>
       </c>
       <c r="E464" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="F464" t="s">
-        <v>1696</v>
+        <v>1185</v>
       </c>
       <c r="G464" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>1698</v>
+        <v>1709</v>
       </c>
       <c r="B465" t="b">
         <v>1</v>
@@ -15432,18 +15531,18 @@
         <v>1</v>
       </c>
       <c r="E465" t="s">
-        <v>666</v>
+        <v>1700</v>
       </c>
       <c r="F465" t="s">
-        <v>1724</v>
+        <v>1717</v>
       </c>
       <c r="G465" t="s">
-        <v>1481</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="B466" t="b">
         <v>1</v>
@@ -15452,18 +15551,18 @@
         <v>1</v>
       </c>
       <c r="E466" t="s">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="F466" t="s">
-        <v>1185</v>
+        <v>1725</v>
       </c>
       <c r="G466" t="s">
-        <v>1812</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="B467" t="b">
         <v>1</v>
@@ -15472,18 +15571,18 @@
         <v>1</v>
       </c>
       <c r="E467" t="s">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c r="F467" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="G467" t="s">
-        <v>1813</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="B468" t="b">
         <v>1</v>
@@ -15492,18 +15591,18 @@
         <v>1</v>
       </c>
       <c r="E468" t="s">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="F468" t="s">
-        <v>1725</v>
+        <v>1719</v>
       </c>
       <c r="G468" t="s">
-        <v>1814</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="B469" t="b">
         <v>1</v>
@@ -15512,18 +15611,18 @@
         <v>1</v>
       </c>
       <c r="E469" t="s">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="F469" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="G469" t="s">
-        <v>1815</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="B470" t="b">
         <v>1</v>
@@ -15532,18 +15631,18 @@
         <v>1</v>
       </c>
       <c r="E470" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="F470" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="G470" t="s">
-        <v>1816</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="B471" t="b">
         <v>1</v>
@@ -15552,18 +15651,18 @@
         <v>1</v>
       </c>
       <c r="E471" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="F471" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="G471" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="B472" t="b">
         <v>1</v>
@@ -15572,18 +15671,18 @@
         <v>1</v>
       </c>
       <c r="E472" t="s">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="F472" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="G472" t="s">
-        <v>1818</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>1715</v>
+        <v>1726</v>
       </c>
       <c r="B473" t="b">
         <v>1</v>
@@ -15592,18 +15691,18 @@
         <v>1</v>
       </c>
       <c r="E473" t="s">
-        <v>1706</v>
+        <v>1727</v>
       </c>
       <c r="F473" t="s">
-        <v>1722</v>
+        <v>1728</v>
       </c>
       <c r="G473" t="s">
-        <v>1819</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>1716</v>
+        <v>1729</v>
       </c>
       <c r="B474" t="b">
         <v>1</v>
@@ -15612,18 +15711,18 @@
         <v>1</v>
       </c>
       <c r="E474" t="s">
-        <v>1707</v>
+        <v>1731</v>
       </c>
       <c r="F474" t="s">
-        <v>1723</v>
+        <v>1730</v>
       </c>
       <c r="G474" t="s">
-        <v>1820</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1726</v>
+        <v>1732</v>
       </c>
       <c r="B475" t="b">
         <v>1</v>
@@ -15632,18 +15731,18 @@
         <v>1</v>
       </c>
       <c r="E475" t="s">
-        <v>1727</v>
+        <v>1735</v>
       </c>
       <c r="F475" t="s">
-        <v>1728</v>
+        <v>867</v>
       </c>
       <c r="G475" t="s">
-        <v>1821</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1729</v>
+        <v>1733</v>
       </c>
       <c r="B476" t="b">
         <v>1</v>
@@ -15652,18 +15751,18 @@
         <v>1</v>
       </c>
       <c r="E476" t="s">
-        <v>1731</v>
+        <v>1736</v>
       </c>
       <c r="F476" t="s">
-        <v>1730</v>
+        <v>869</v>
       </c>
       <c r="G476" t="s">
-        <v>1822</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="B477" t="b">
         <v>1</v>
@@ -15672,18 +15771,18 @@
         <v>1</v>
       </c>
       <c r="E477" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="F477" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="G477" t="s">
-        <v>1823</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>1733</v>
+        <v>1739</v>
       </c>
       <c r="B478" t="b">
         <v>1</v>
@@ -15692,18 +15791,18 @@
         <v>1</v>
       </c>
       <c r="E478" t="s">
-        <v>1736</v>
+        <v>1741</v>
       </c>
       <c r="F478" t="s">
-        <v>869</v>
+        <v>1743</v>
       </c>
       <c r="G478" t="s">
-        <v>1824</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>1734</v>
+        <v>1740</v>
       </c>
       <c r="B479" t="b">
         <v>1</v>
@@ -15712,18 +15811,18 @@
         <v>1</v>
       </c>
       <c r="E479" t="s">
-        <v>1737</v>
+        <v>1742</v>
       </c>
       <c r="F479" t="s">
-        <v>871</v>
+        <v>1744</v>
       </c>
       <c r="G479" t="s">
-        <v>1825</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>1739</v>
+        <v>1745</v>
       </c>
       <c r="B480" t="b">
         <v>1</v>
@@ -15732,18 +15831,18 @@
         <v>1</v>
       </c>
       <c r="E480" t="s">
-        <v>1741</v>
+        <v>1746</v>
       </c>
       <c r="F480" t="s">
-        <v>1743</v>
+        <v>1747</v>
       </c>
       <c r="G480" t="s">
-        <v>1826</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>1740</v>
+        <v>1749</v>
       </c>
       <c r="B481" t="b">
         <v>1</v>
@@ -15752,18 +15851,18 @@
         <v>1</v>
       </c>
       <c r="E481" t="s">
-        <v>1742</v>
+        <v>1751</v>
       </c>
       <c r="F481" t="s">
-        <v>1744</v>
+        <v>1754</v>
       </c>
       <c r="G481" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B482" t="b">
         <v>1</v>
@@ -15772,18 +15871,18 @@
         <v>1</v>
       </c>
       <c r="E482" t="s">
-        <v>1746</v>
+        <v>1752</v>
       </c>
       <c r="F482" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="G482" t="s">
-        <v>1828</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="B483" t="b">
         <v>1</v>
@@ -15792,18 +15891,18 @@
         <v>1</v>
       </c>
       <c r="E483" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="F483" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="G483" t="s">
-        <v>1829</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>1748</v>
+        <v>1757</v>
       </c>
       <c r="B484" t="b">
         <v>1</v>
@@ -15812,18 +15911,18 @@
         <v>1</v>
       </c>
       <c r="E484" t="s">
-        <v>1752</v>
+        <v>1761</v>
       </c>
       <c r="F484" t="s">
-        <v>1755</v>
+        <v>1765</v>
       </c>
       <c r="G484" t="s">
-        <v>1830</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>1750</v>
+        <v>1758</v>
       </c>
       <c r="B485" t="b">
         <v>1</v>
@@ -15832,18 +15931,18 @@
         <v>1</v>
       </c>
       <c r="E485" t="s">
-        <v>1753</v>
+        <v>1762</v>
       </c>
       <c r="F485" t="s">
-        <v>1756</v>
+        <v>1766</v>
       </c>
       <c r="G485" t="s">
-        <v>1831</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="B486" t="b">
         <v>1</v>
@@ -15852,18 +15951,18 @@
         <v>1</v>
       </c>
       <c r="E486" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="F486" t="s">
-        <v>1765</v>
+        <v>1767</v>
       </c>
       <c r="G486" t="s">
-        <v>1832</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="B487" t="b">
         <v>1</v>
@@ -15872,18 +15971,18 @@
         <v>1</v>
       </c>
       <c r="E487" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
       <c r="F487" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="G487" t="s">
-        <v>1833</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>1759</v>
+        <v>1769</v>
       </c>
       <c r="B488" t="b">
         <v>1</v>
@@ -15892,18 +15991,18 @@
         <v>1</v>
       </c>
       <c r="E488" t="s">
-        <v>1763</v>
+        <v>1679</v>
       </c>
       <c r="F488" t="s">
-        <v>1767</v>
+        <v>1792</v>
       </c>
       <c r="G488" t="s">
-        <v>1834</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>1760</v>
+        <v>1770</v>
       </c>
       <c r="B489" t="b">
         <v>1</v>
@@ -15912,18 +16011,18 @@
         <v>1</v>
       </c>
       <c r="E489" t="s">
-        <v>1764</v>
+        <v>1787</v>
       </c>
       <c r="F489" t="s">
-        <v>1768</v>
+        <v>1793</v>
       </c>
       <c r="G489" t="s">
-        <v>1835</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>1769</v>
+        <v>1771</v>
       </c>
       <c r="B490" t="b">
         <v>1</v>
@@ -15932,18 +16031,18 @@
         <v>1</v>
       </c>
       <c r="E490" t="s">
-        <v>1679</v>
+        <v>23</v>
       </c>
       <c r="F490" t="s">
-        <v>1792</v>
+        <v>714</v>
       </c>
       <c r="G490" t="s">
-        <v>1836</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>1770</v>
+        <v>1772</v>
       </c>
       <c r="B491" t="b">
         <v>1</v>
@@ -15952,18 +16051,18 @@
         <v>1</v>
       </c>
       <c r="E491" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="F491" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="G491" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>1771</v>
+        <v>1773</v>
       </c>
       <c r="B492" t="b">
         <v>1</v>
@@ -15972,18 +16071,18 @@
         <v>1</v>
       </c>
       <c r="E492" t="s">
-        <v>23</v>
+        <v>1784</v>
       </c>
       <c r="F492" t="s">
-        <v>714</v>
+        <v>1795</v>
       </c>
       <c r="G492" t="s">
-        <v>1260</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>1772</v>
+        <v>1774</v>
       </c>
       <c r="B493" t="b">
         <v>1</v>
@@ -15992,18 +16091,18 @@
         <v>1</v>
       </c>
       <c r="E493" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="F493" t="s">
-        <v>1794</v>
+        <v>1804</v>
       </c>
       <c r="G493" t="s">
-        <v>1838</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
       <c r="B494" t="b">
         <v>1</v>
@@ -16012,18 +16111,18 @@
         <v>1</v>
       </c>
       <c r="E494" t="s">
-        <v>1784</v>
+        <v>1790</v>
       </c>
       <c r="F494" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="G494" t="s">
-        <v>1839</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
       <c r="B495" t="b">
         <v>1</v>
@@ -16032,18 +16131,18 @@
         <v>1</v>
       </c>
       <c r="E495" t="s">
-        <v>1789</v>
+        <v>1791</v>
       </c>
       <c r="F495" t="s">
-        <v>1804</v>
+        <v>1797</v>
       </c>
       <c r="G495" t="s">
-        <v>1840</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
       <c r="B496" t="b">
         <v>1</v>
@@ -16052,18 +16151,18 @@
         <v>1</v>
       </c>
       <c r="E496" t="s">
-        <v>1790</v>
+        <v>443</v>
       </c>
       <c r="F496" t="s">
-        <v>1796</v>
+        <v>1798</v>
       </c>
       <c r="G496" t="s">
-        <v>1841</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="B497" t="b">
         <v>1</v>
@@ -16072,18 +16171,18 @@
         <v>1</v>
       </c>
       <c r="E497" t="s">
-        <v>1791</v>
+        <v>458</v>
       </c>
       <c r="F497" t="s">
-        <v>1797</v>
+        <v>1799</v>
       </c>
       <c r="G497" t="s">
-        <v>1842</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
       <c r="B498" t="b">
         <v>1</v>
@@ -16092,18 +16191,18 @@
         <v>1</v>
       </c>
       <c r="E498" t="s">
-        <v>443</v>
+        <v>1785</v>
       </c>
       <c r="F498" t="s">
-        <v>1798</v>
+        <v>1800</v>
       </c>
       <c r="G498" t="s">
-        <v>1403</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>1778</v>
+        <v>1780</v>
       </c>
       <c r="B499" t="b">
         <v>1</v>
@@ -16112,18 +16211,18 @@
         <v>1</v>
       </c>
       <c r="E499" t="s">
-        <v>458</v>
+        <v>1786</v>
       </c>
       <c r="F499" t="s">
-        <v>1799</v>
+        <v>1801</v>
       </c>
       <c r="G499" t="s">
-        <v>1408</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
       <c r="B500" t="b">
         <v>1</v>
@@ -16132,18 +16231,18 @@
         <v>1</v>
       </c>
       <c r="E500" t="s">
-        <v>1785</v>
+        <v>449</v>
       </c>
       <c r="F500" t="s">
-        <v>1800</v>
+        <v>1802</v>
       </c>
       <c r="G500" t="s">
-        <v>1843</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>1780</v>
+        <v>1782</v>
       </c>
       <c r="B501" t="b">
         <v>1</v>
@@ -16152,18 +16251,18 @@
         <v>1</v>
       </c>
       <c r="E501" t="s">
-        <v>1786</v>
+        <v>437</v>
       </c>
       <c r="F501" t="s">
-        <v>1801</v>
+        <v>1803</v>
       </c>
       <c r="G501" t="s">
-        <v>1844</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
       <c r="B502" t="b">
         <v>1</v>
@@ -16172,18 +16271,18 @@
         <v>1</v>
       </c>
       <c r="E502" t="s">
-        <v>449</v>
+        <v>683</v>
       </c>
       <c r="F502" t="s">
-        <v>1802</v>
+        <v>682</v>
       </c>
       <c r="G502" t="s">
-        <v>1405</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>1782</v>
+        <v>842</v>
       </c>
       <c r="B503" t="b">
         <v>1</v>
@@ -16192,18 +16291,18 @@
         <v>1</v>
       </c>
       <c r="E503" t="s">
-        <v>437</v>
+        <v>842</v>
       </c>
       <c r="F503" t="s">
-        <v>1803</v>
+        <v>1807</v>
       </c>
       <c r="G503" t="s">
-        <v>1401</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>1783</v>
+        <v>1805</v>
       </c>
       <c r="B504" t="b">
         <v>1</v>
@@ -16212,18 +16311,18 @@
         <v>1</v>
       </c>
       <c r="E504" t="s">
-        <v>683</v>
+        <v>1805</v>
       </c>
       <c r="F504" t="s">
-        <v>682</v>
+        <v>1806</v>
       </c>
       <c r="G504" t="s">
-        <v>1486</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>842</v>
+        <v>1808</v>
       </c>
       <c r="B505" t="b">
         <v>1</v>
@@ -16232,18 +16331,18 @@
         <v>1</v>
       </c>
       <c r="E505" t="s">
-        <v>842</v>
+        <v>830</v>
       </c>
       <c r="F505" t="s">
-        <v>1807</v>
+        <v>829</v>
       </c>
       <c r="G505" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>1805</v>
+        <v>1849</v>
       </c>
       <c r="B506" t="b">
         <v>1</v>
@@ -16252,18 +16351,18 @@
         <v>1</v>
       </c>
       <c r="E506" t="s">
-        <v>1805</v>
+        <v>1854</v>
       </c>
       <c r="F506" t="s">
-        <v>1806</v>
+        <v>1855</v>
       </c>
       <c r="G506" t="s">
-        <v>1536</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>1808</v>
+        <v>1850</v>
       </c>
       <c r="B507" t="b">
         <v>1</v>
@@ -16272,18 +16371,18 @@
         <v>1</v>
       </c>
       <c r="E507" t="s">
-        <v>830</v>
+        <v>1853</v>
       </c>
       <c r="F507" t="s">
-        <v>829</v>
+        <v>1856</v>
       </c>
       <c r="G507" t="s">
-        <v>1532</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>1849</v>
+        <v>1851</v>
       </c>
       <c r="B508" t="b">
         <v>1</v>
@@ -16292,38 +16391,38 @@
         <v>1</v>
       </c>
       <c r="E508" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="F508" t="s">
-        <v>1855</v>
+        <v>1857</v>
       </c>
       <c r="G508" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>1850</v>
+        <v>1860</v>
       </c>
       <c r="B509" t="b">
         <v>1</v>
       </c>
       <c r="C509" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E509" t="s">
-        <v>1853</v>
+        <v>1861</v>
       </c>
       <c r="F509" t="s">
-        <v>1856</v>
+        <v>1862</v>
       </c>
       <c r="G509" t="s">
-        <v>1858</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>1851</v>
+        <v>1864</v>
       </c>
       <c r="B510" t="b">
         <v>1</v>
@@ -16332,98 +16431,100 @@
         <v>1</v>
       </c>
       <c r="E510" t="s">
-        <v>1852</v>
+        <v>1865</v>
       </c>
       <c r="F510" t="s">
-        <v>1857</v>
+        <v>1866</v>
       </c>
       <c r="G510" t="s">
-        <v>1859</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>1860</v>
+        <v>1868</v>
       </c>
       <c r="B511" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C511" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E511" t="s">
-        <v>1861</v>
+        <v>1868</v>
       </c>
       <c r="F511" t="s">
-        <v>1862</v>
+        <v>1869</v>
       </c>
       <c r="G511" t="s">
-        <v>1863</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>1864</v>
+        <v>1871</v>
       </c>
       <c r="B512" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C512" t="b">
         <v>1</v>
       </c>
       <c r="E512" t="s">
-        <v>1865</v>
+        <v>1872</v>
       </c>
       <c r="F512" t="s">
-        <v>1866</v>
+        <v>1873</v>
       </c>
       <c r="G512" t="s">
-        <v>1867</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A513" t="s">
-        <v>1868</v>
-      </c>
-      <c r="B513" t="b">
-        <v>0</v>
-      </c>
-      <c r="C513" t="b">
-        <v>1</v>
-      </c>
-      <c r="E513" t="s">
-        <v>1868</v>
-      </c>
-      <c r="F513" t="s">
-        <v>1869</v>
-      </c>
-      <c r="G513" t="s">
-        <v>1870</v>
+      <c r="A513" s="5" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B513" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C513" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D513" s="5"/>
+      <c r="E513" s="5" t="s">
+        <v>1876</v>
+      </c>
+      <c r="F513" s="5" t="s">
+        <v>1877</v>
+      </c>
+      <c r="G513" s="5" t="s">
+        <v>1878</v>
       </c>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A514" t="s">
-        <v>1871</v>
-      </c>
-      <c r="B514" t="b">
-        <v>0</v>
-      </c>
-      <c r="C514" t="b">
-        <v>1</v>
-      </c>
-      <c r="E514" t="s">
-        <v>1872</v>
-      </c>
-      <c r="F514" t="s">
-        <v>1873</v>
-      </c>
-      <c r="G514" t="s">
-        <v>1874</v>
+      <c r="A514" s="5" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B514" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C514" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D514" s="5"/>
+      <c r="E514" s="5" t="s">
+        <v>1880</v>
+      </c>
+      <c r="F514" s="5" t="s">
+        <v>1881</v>
+      </c>
+      <c r="G514" s="5" t="s">
+        <v>1882</v>
       </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="5" t="s">
-        <v>1875</v>
+        <v>1883</v>
       </c>
       <c r="B515" s="5" t="b">
         <v>1</v>
@@ -16433,102 +16534,315 @@
       </c>
       <c r="D515" s="5"/>
       <c r="E515" s="5" t="s">
-        <v>1876</v>
+        <v>1884</v>
       </c>
       <c r="F515" s="5" t="s">
-        <v>1877</v>
+        <v>1885</v>
       </c>
       <c r="G515" s="5" t="s">
-        <v>1878</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A516" s="5" t="s">
-        <v>1879</v>
-      </c>
-      <c r="B516" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C516" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D516" s="5"/>
-      <c r="E516" s="5" t="s">
-        <v>1880</v>
-      </c>
-      <c r="F516" s="5" t="s">
-        <v>1881</v>
-      </c>
-      <c r="G516" s="5" t="s">
-        <v>1882</v>
+      <c r="A516" s="6" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B516" t="b">
+        <v>0</v>
+      </c>
+      <c r="C516" t="b">
+        <v>1</v>
+      </c>
+      <c r="E516" t="s">
+        <v>1892</v>
+      </c>
+      <c r="F516" t="s">
+        <v>1893</v>
+      </c>
+      <c r="G516" t="s">
+        <v>1894</v>
       </c>
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" s="5" t="s">
-        <v>1883</v>
+        <v>1887</v>
       </c>
       <c r="B517" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C517" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="D517" s="5"/>
-      <c r="E517" s="5" t="s">
-        <v>1884</v>
-      </c>
-      <c r="F517" s="5" t="s">
-        <v>1885</v>
-      </c>
-      <c r="G517" s="5" t="s">
-        <v>1886</v>
-      </c>
-    </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A518" s="6" t="s">
-        <v>1892</v>
-      </c>
-      <c r="B518" t="b">
-        <v>0</v>
-      </c>
-      <c r="C518" t="b">
-        <v>1</v>
-      </c>
-      <c r="E518" t="s">
-        <v>1893</v>
-      </c>
-      <c r="F518" t="s">
-        <v>1894</v>
-      </c>
-      <c r="G518" t="s">
-        <v>1891</v>
+      <c r="E517" t="s">
+        <v>1888</v>
+      </c>
+      <c r="F517" t="s">
+        <v>1889</v>
+      </c>
+      <c r="G517" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A518" s="5" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B518" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C518" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E518" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="F518" s="5" t="s">
+        <v>1897</v>
+      </c>
+      <c r="G518" s="5" t="s">
+        <v>1901</v>
       </c>
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" s="5" t="s">
-        <v>1887</v>
+        <v>1898</v>
       </c>
       <c r="B519" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C519" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E519" t="s">
-        <v>1888</v>
-      </c>
-      <c r="F519" t="s">
-        <v>1889</v>
-      </c>
-      <c r="G519" t="s">
-        <v>1890</v>
+        <v>0</v>
+      </c>
+      <c r="D519" s="5"/>
+      <c r="E519" s="5" t="s">
+        <v>1899</v>
+      </c>
+      <c r="F519" s="5" t="s">
+        <v>1900</v>
+      </c>
+      <c r="G519" s="5" t="s">
+        <v>1902</v>
       </c>
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A520" s="6"/>
+      <c r="A520" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B520" t="b">
+        <v>1</v>
+      </c>
+      <c r="C520" t="b">
+        <v>1</v>
+      </c>
+      <c r="E520" t="s">
+        <v>1679</v>
+      </c>
+      <c r="F520" t="s">
+        <v>1912</v>
+      </c>
+      <c r="G520" t="s">
+        <v>1836</v>
+      </c>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E521" s="5"/>
+      <c r="A521" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B521" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C521" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E521" t="s">
+        <v>1908</v>
+      </c>
+      <c r="F521" t="s">
+        <v>1913</v>
+      </c>
+      <c r="G521" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B522" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C522" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E522" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F522" t="s">
+        <v>1925</v>
+      </c>
+      <c r="G522" s="5" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B523" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C523" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E523" t="s">
+        <v>842</v>
+      </c>
+      <c r="F523" t="s">
+        <v>454</v>
+      </c>
+      <c r="G523" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B524" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C524" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E524" t="s">
+        <v>1909</v>
+      </c>
+      <c r="F524" t="s">
+        <v>1916</v>
+      </c>
+      <c r="G524" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B525" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C525" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E525" t="s">
+        <v>1788</v>
+      </c>
+      <c r="F525" t="s">
+        <v>1794</v>
+      </c>
+      <c r="G525" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B526" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C526" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E526" t="s">
+        <v>1910</v>
+      </c>
+      <c r="F526" t="s">
+        <v>1914</v>
+      </c>
+      <c r="G526" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B527" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C527" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E527" t="s">
+        <v>1784</v>
+      </c>
+      <c r="F527" t="s">
+        <v>1795</v>
+      </c>
+      <c r="G527" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B528" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C528" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E528" t="s">
+        <v>1911</v>
+      </c>
+      <c r="F528" t="s">
+        <v>1915</v>
+      </c>
+      <c r="G528" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B529" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C529" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E529" t="s">
+        <v>1852</v>
+      </c>
+      <c r="F529" t="s">
+        <v>1857</v>
+      </c>
+      <c r="G529" s="5" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B530" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C530" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E530" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F530" t="s">
+        <v>1925</v>
+      </c>
+      <c r="G530" s="5" t="s">
+        <v>1927</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{166F55E6-F4CB-49C4-A0B4-8593C255C448}"/>

--- a/Translations/Translations.xlsx
+++ b/Translations/Translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\source\repos\BSharp\Translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291E2458-12AF-4749-A41F-43A51389AB71}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFE458C-667F-4EB5-AE8B-C5DA5168B7A1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09F7BBB4-81EA-4503-B8DD-8985A501E98F}"/>
   </bookViews>
@@ -6221,9 +6221,9 @@
   <dimension ref="A1:G530"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A500" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A509" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F533" sqref="F533"/>
+      <selection pane="bottomLeft" activeCell="E518" sqref="E518"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Translations/Translations.xlsx
+++ b/Translations/Translations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\source\repos\BSharp\Translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFE458C-667F-4EB5-AE8B-C5DA5168B7A1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5266DFEC-B28A-41C2-9CA1-71199F05A867}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09F7BBB4-81EA-4503-B8DD-8985A501E98F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2123" uniqueCount="1928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="1961">
   <si>
     <t>Key</t>
   </si>
@@ -5818,6 +5818,105 @@
   </si>
   <si>
     <t>类型</t>
+  </si>
+  <si>
+    <t>TitleSingular</t>
+  </si>
+  <si>
+    <t>الاسم المفرد</t>
+  </si>
+  <si>
+    <t>اسم الجمع</t>
+  </si>
+  <si>
+    <t>Singular Name</t>
+  </si>
+  <si>
+    <t>Plural Name</t>
+  </si>
+  <si>
+    <t>PluralName</t>
+  </si>
+  <si>
+    <t>MainMenuIcon</t>
+  </si>
+  <si>
+    <t>MainMenuSection</t>
+  </si>
+  <si>
+    <t>MainMenuSortKey</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>الترتيب في القائمة الرئيسية</t>
+  </si>
+  <si>
+    <t>القسم من القائمة الرئيسية</t>
+  </si>
+  <si>
+    <t>الأيقونة</t>
+  </si>
+  <si>
+    <t>Menu Section</t>
+  </si>
+  <si>
+    <t>Menu Sort Key</t>
+  </si>
+  <si>
+    <t>UpdateState</t>
+  </si>
+  <si>
+    <t>Update State</t>
+  </si>
+  <si>
+    <t>تعديل الحالة</t>
+  </si>
+  <si>
+    <t>奇异名称</t>
+  </si>
+  <si>
+    <t>复数名称</t>
+  </si>
+  <si>
+    <t>图标</t>
+  </si>
+  <si>
+    <t>菜单部分</t>
+  </si>
+  <si>
+    <t>菜单排序关键字</t>
+  </si>
+  <si>
+    <t>更新状态</t>
+  </si>
+  <si>
+    <t>Definition_State</t>
+  </si>
+  <si>
+    <t>Definition_State_Draft</t>
+  </si>
+  <si>
+    <t>Definition_State_Deployed</t>
+  </si>
+  <si>
+    <t>Definition_State_Archived</t>
+  </si>
+  <si>
+    <t>Deployed</t>
+  </si>
+  <si>
+    <t>Archived</t>
+  </si>
+  <si>
+    <t>مفعل</t>
+  </si>
+  <si>
+    <t>部署</t>
+  </si>
+  <si>
+    <t>存档</t>
   </si>
 </sst>
 </file>
@@ -6218,12 +6317,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FEE134-3B22-427F-8E5A-2A7F994BE2AC}">
-  <dimension ref="A1:G530"/>
+  <dimension ref="A1:G540"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A509" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A513" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E518" sqref="E518"/>
+      <selection pane="bottomLeft" activeCell="E529" sqref="E529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16844,6 +16943,206 @@
         <v>1927</v>
       </c>
     </row>
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B531" t="b">
+        <v>1</v>
+      </c>
+      <c r="C531" t="b">
+        <v>1</v>
+      </c>
+      <c r="E531" t="s">
+        <v>1931</v>
+      </c>
+      <c r="F531" t="s">
+        <v>1929</v>
+      </c>
+      <c r="G531" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B532" t="b">
+        <v>1</v>
+      </c>
+      <c r="C532" t="b">
+        <v>1</v>
+      </c>
+      <c r="E532" t="s">
+        <v>1932</v>
+      </c>
+      <c r="F532" t="s">
+        <v>1930</v>
+      </c>
+      <c r="G532" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B533" t="b">
+        <v>1</v>
+      </c>
+      <c r="C533" t="b">
+        <v>1</v>
+      </c>
+      <c r="E533" t="s">
+        <v>1937</v>
+      </c>
+      <c r="F533" t="s">
+        <v>1940</v>
+      </c>
+      <c r="G533" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B534" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C534" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E534" t="s">
+        <v>1941</v>
+      </c>
+      <c r="F534" t="s">
+        <v>1939</v>
+      </c>
+      <c r="G534" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B535" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C535" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E535" t="s">
+        <v>1942</v>
+      </c>
+      <c r="F535" t="s">
+        <v>1938</v>
+      </c>
+      <c r="G535" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B536" t="b">
+        <v>1</v>
+      </c>
+      <c r="C536" t="b">
+        <v>1</v>
+      </c>
+      <c r="E536" t="s">
+        <v>1944</v>
+      </c>
+      <c r="F536" t="s">
+        <v>1945</v>
+      </c>
+      <c r="G536" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B537" t="b">
+        <v>1</v>
+      </c>
+      <c r="C537" t="b">
+        <v>1</v>
+      </c>
+      <c r="E537" t="s">
+        <v>666</v>
+      </c>
+      <c r="F537" t="s">
+        <v>667</v>
+      </c>
+      <c r="G537" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A538" s="5" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B538" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C538" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E538" t="s">
+        <v>1699</v>
+      </c>
+      <c r="F538" t="s">
+        <v>1185</v>
+      </c>
+      <c r="G538" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A539" s="5" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B539" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C539" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E539" t="s">
+        <v>1956</v>
+      </c>
+      <c r="F539" t="s">
+        <v>1958</v>
+      </c>
+      <c r="G539" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A540" s="5" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B540" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C540" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E540" t="s">
+        <v>1957</v>
+      </c>
+      <c r="F540" t="s">
+        <v>1857</v>
+      </c>
+      <c r="G540" t="s">
+        <v>1960</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{166F55E6-F4CB-49C4-A0B4-8593C255C448}"/>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Translations/Translations.xlsx
+++ b/Translations/Translations.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\source\repos\BSharp\Translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E15F2A7-B18D-4CED-951D-CEB5BA9E139E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA80FE74-B848-485F-9D7F-389DE0E28BF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="660" windowWidth="28770" windowHeight="15570" xr2:uid="{09F7BBB4-81EA-4503-B8DD-8985A501E98F}"/>
+    <workbookView xWindow="6240" yWindow="6240" windowWidth="43200" windowHeight="23535" xr2:uid="{09F7BBB4-81EA-4503-B8DD-8985A501E98F}"/>
   </bookViews>
   <sheets>
     <sheet name="Translations" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$G$555</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$G$551</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2241" uniqueCount="2030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="2014">
   <si>
     <t>Key</t>
   </si>
@@ -5919,54 +5919,6 @@
     <t>Permission_UpdateState</t>
   </si>
   <si>
-    <t>PieChart</t>
-  </si>
-  <si>
-    <t>BarChart</t>
-  </si>
-  <si>
-    <t>LineChart</t>
-  </si>
-  <si>
-    <t>AreaChart</t>
-  </si>
-  <si>
-    <t>Bar Chart</t>
-  </si>
-  <si>
-    <t>Line Chart</t>
-  </si>
-  <si>
-    <t>Area Chart</t>
-  </si>
-  <si>
-    <t>Pie Chart</t>
-  </si>
-  <si>
-    <t>مخطط أعمدة</t>
-  </si>
-  <si>
-    <t>مخطط مساحة</t>
-  </si>
-  <si>
-    <t>مخطط دائري</t>
-  </si>
-  <si>
-    <t>خط بياني</t>
-  </si>
-  <si>
-    <t>条图</t>
-  </si>
-  <si>
-    <t>折线图</t>
-  </si>
-  <si>
-    <t>面积图</t>
-  </si>
-  <si>
-    <t>饼形图</t>
-  </si>
-  <si>
     <t>Please fill the required fields above.</t>
   </si>
   <si>
@@ -6093,15 +6045,6 @@
     <t>(undefined)</t>
   </si>
   <si>
-    <t>Card</t>
-  </si>
-  <si>
-    <t>بطاقة</t>
-  </si>
-  <si>
-    <t>卡</t>
-  </si>
-  <si>
     <t>ChartTypeDoesNotSupportNDimensions</t>
   </si>
   <si>
@@ -6124,6 +6067,15 @@
   </si>
   <si>
     <t>显示名称</t>
+  </si>
+  <si>
+    <t>Chart</t>
+  </si>
+  <si>
+    <t>مخطط</t>
+  </si>
+  <si>
+    <t>图表</t>
   </si>
 </sst>
 </file>
@@ -6523,12 +6475,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FEE134-3B22-427F-8E5A-2A7F994BE2AC}">
-  <dimension ref="A1:G559"/>
+  <dimension ref="A1:G555"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A529" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A526" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G559" sqref="G559"/>
+      <selection pane="bottomLeft" activeCell="G564" sqref="G564"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17883,52 +17835,52 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A541" t="s">
+    <row r="541" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A541" s="3" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B541" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C541" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E541" s="3" t="s">
+        <v>1961</v>
+      </c>
+      <c r="F541" s="3" t="s">
+        <v>1964</v>
+      </c>
+      <c r="G541" s="3" t="s">
         <v>1962</v>
-      </c>
-      <c r="B541" t="b">
-        <v>0</v>
-      </c>
-      <c r="C541" t="b">
-        <v>1</v>
-      </c>
-      <c r="E541" s="3" t="s">
-        <v>1965</v>
-      </c>
-      <c r="F541" t="s">
-        <v>1969</v>
-      </c>
-      <c r="G541" t="s">
-        <v>1973</v>
       </c>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>1963</v>
+        <v>1965</v>
       </c>
       <c r="B542" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C542" t="b">
         <v>1</v>
       </c>
-      <c r="E542" t="s">
-        <v>1966</v>
+      <c r="E542" s="3" t="s">
+        <v>1965</v>
       </c>
       <c r="F542" t="s">
-        <v>1972</v>
+        <v>1968</v>
       </c>
       <c r="G542" t="s">
-        <v>1974</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>1964</v>
+        <v>1966</v>
       </c>
       <c r="B543" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C543" t="b">
         <v>1</v>
@@ -17937,340 +17889,260 @@
         <v>1967</v>
       </c>
       <c r="F543" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="G543" t="s">
-        <v>1975</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>1961</v>
+        <v>1972</v>
       </c>
       <c r="B544" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C544" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D544" t="s">
+        <v>1975</v>
       </c>
       <c r="E544" s="3" t="s">
-        <v>1968</v>
+        <v>1973</v>
       </c>
       <c r="F544" t="s">
-        <v>1971</v>
-      </c>
-      <c r="G544" t="s">
+        <v>1974</v>
+      </c>
+      <c r="G544" s="3" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A545" s="3" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B545" t="b">
+        <v>0</v>
+      </c>
+      <c r="C545" t="b">
+        <v>1</v>
+      </c>
+      <c r="D545" s="3" t="s">
+        <v>1975</v>
+      </c>
+      <c r="E545" s="3" t="s">
         <v>1976</v>
       </c>
-    </row>
-    <row r="545" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A545" s="3" t="s">
-        <v>1979</v>
-      </c>
-      <c r="B545" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C545" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E545" s="3" t="s">
+      <c r="F545" s="3" t="s">
         <v>1977</v>
       </c>
-      <c r="F545" s="3" t="s">
-        <v>1980</v>
-      </c>
       <c r="G545" s="3" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>1981</v>
+        <v>1978</v>
       </c>
       <c r="B546" t="b">
         <v>1</v>
       </c>
-      <c r="C546" t="b">
+      <c r="C546" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E546" s="3" t="s">
-        <v>1981</v>
+        <v>1984</v>
       </c>
       <c r="F546" t="s">
-        <v>1984</v>
+        <v>1989</v>
       </c>
       <c r="G546" t="s">
-        <v>1986</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>1982</v>
-      </c>
-      <c r="B547" t="b">
-        <v>1</v>
-      </c>
-      <c r="C547" t="b">
+        <v>1979</v>
+      </c>
+      <c r="B547" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C547" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E547" s="3" t="s">
-        <v>1983</v>
+        <v>1985</v>
       </c>
       <c r="F547" t="s">
-        <v>1985</v>
+        <v>1990</v>
       </c>
       <c r="G547" t="s">
-        <v>1987</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A548" t="s">
-        <v>1988</v>
-      </c>
-      <c r="B548" t="b">
-        <v>1</v>
-      </c>
-      <c r="C548" t="b">
-        <v>0</v>
-      </c>
-      <c r="D548" t="s">
-        <v>1991</v>
+      <c r="A548" s="3" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B548" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C548" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="E548" s="3" t="s">
-        <v>1989</v>
+        <v>437</v>
       </c>
       <c r="F548" t="s">
-        <v>1990</v>
-      </c>
-      <c r="G548" s="3" t="s">
-        <v>1990</v>
+        <v>436</v>
+      </c>
+      <c r="G548" t="s">
+        <v>1401</v>
       </c>
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" s="3" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B549" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C549" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E549" s="3" t="s">
+        <v>1986</v>
+      </c>
+      <c r="F549" t="s">
+        <v>1993</v>
+      </c>
+      <c r="G549" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A550" s="3" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B550" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C550" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E550" t="s">
+        <v>1987</v>
+      </c>
+      <c r="F550" t="s">
+        <v>1991</v>
+      </c>
+      <c r="G550" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A551" s="3" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B551" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C551" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E551" t="s">
         <v>1988</v>
       </c>
-      <c r="B549" t="b">
-        <v>0</v>
-      </c>
-      <c r="C549" t="b">
-        <v>1</v>
-      </c>
-      <c r="D549" s="3" t="s">
-        <v>1991</v>
-      </c>
-      <c r="E549" s="3" t="s">
+      <c r="F551" t="s">
         <v>1992</v>
       </c>
-      <c r="F549" s="3" t="s">
-        <v>1993</v>
-      </c>
-      <c r="G549" s="3" t="s">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A550" t="s">
-        <v>1994</v>
-      </c>
-      <c r="B550" t="b">
-        <v>1</v>
-      </c>
-      <c r="C550" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E550" s="3" t="s">
+      <c r="G551" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B552" t="b">
+        <v>0</v>
+      </c>
+      <c r="C552" t="b">
+        <v>1</v>
+      </c>
+      <c r="E552" t="s">
+        <v>2002</v>
+      </c>
+      <c r="F552" t="s">
         <v>2000</v>
       </c>
-      <c r="F550" t="s">
+      <c r="G552" s="3" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B553" t="b">
+        <v>0</v>
+      </c>
+      <c r="C553" t="b">
+        <v>1</v>
+      </c>
+      <c r="E553" t="s">
+        <v>2011</v>
+      </c>
+      <c r="F553" t="s">
+        <v>2012</v>
+      </c>
+      <c r="G553" s="3" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B554" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C554" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E554" t="s">
+        <v>2004</v>
+      </c>
+      <c r="F554" t="s">
+        <v>2006</v>
+      </c>
+      <c r="G554" t="s">
         <v>2005</v>
       </c>
-      <c r="G550" t="s">
+    </row>
+    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B555" t="b">
+        <v>0</v>
+      </c>
+      <c r="C555" t="b">
+        <v>1</v>
+      </c>
+      <c r="E555" t="s">
+        <v>2008</v>
+      </c>
+      <c r="F555" t="s">
+        <v>2009</v>
+      </c>
+      <c r="G555" t="s">
         <v>2010</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A551" t="s">
-        <v>1995</v>
-      </c>
-      <c r="B551" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C551" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E551" s="3" t="s">
-        <v>2001</v>
-      </c>
-      <c r="F551" t="s">
-        <v>2006</v>
-      </c>
-      <c r="G551" t="s">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A552" s="3" t="s">
-        <v>1996</v>
-      </c>
-      <c r="B552" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C552" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E552" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="F552" t="s">
-        <v>436</v>
-      </c>
-      <c r="G552" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A553" s="3" t="s">
-        <v>1997</v>
-      </c>
-      <c r="B553" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C553" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E553" s="3" t="s">
-        <v>2002</v>
-      </c>
-      <c r="F553" t="s">
-        <v>2009</v>
-      </c>
-      <c r="G553" t="s">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A554" s="3" t="s">
-        <v>1998</v>
-      </c>
-      <c r="B554" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C554" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E554" t="s">
-        <v>2003</v>
-      </c>
-      <c r="F554" t="s">
-        <v>2007</v>
-      </c>
-      <c r="G554" t="s">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A555" s="3" t="s">
-        <v>1999</v>
-      </c>
-      <c r="B555" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C555" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E555" t="s">
-        <v>2004</v>
-      </c>
-      <c r="F555" t="s">
-        <v>2008</v>
-      </c>
-      <c r="G555" t="s">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A556" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B556" t="b">
-        <v>0</v>
-      </c>
-      <c r="C556" t="b">
-        <v>1</v>
-      </c>
-      <c r="E556" t="s">
-        <v>2018</v>
-      </c>
-      <c r="F556" t="s">
-        <v>2016</v>
-      </c>
-      <c r="G556" s="3" t="s">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A557" t="s">
-        <v>2019</v>
-      </c>
-      <c r="B557" t="b">
-        <v>0</v>
-      </c>
-      <c r="C557" t="b">
-        <v>1</v>
-      </c>
-      <c r="E557" t="s">
-        <v>2019</v>
-      </c>
-      <c r="F557" t="s">
-        <v>2020</v>
-      </c>
-      <c r="G557" s="3" t="s">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A558" t="s">
-        <v>2022</v>
-      </c>
-      <c r="B558" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C558" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E558" t="s">
-        <v>2023</v>
-      </c>
-      <c r="F558" t="s">
-        <v>2025</v>
-      </c>
-      <c r="G558" t="s">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A559" t="s">
-        <v>2026</v>
-      </c>
-      <c r="B559" t="b">
-        <v>0</v>
-      </c>
-      <c r="C559" t="b">
-        <v>1</v>
-      </c>
-      <c r="E559" t="s">
-        <v>2027</v>
-      </c>
-      <c r="F559" t="s">
-        <v>2028</v>
-      </c>
-      <c r="G559" t="s">
-        <v>2029</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G555" xr:uid="{166F55E6-F4CB-49C4-A0B4-8593C255C448}"/>
+  <autoFilter ref="A1:G551" xr:uid="{166F55E6-F4CB-49C4-A0B4-8593C255C448}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Translations/Translations.xlsx
+++ b/Translations/Translations.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\source\repos\BSharp\Translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA80FE74-B848-485F-9D7F-389DE0E28BF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EBA7CC-5B19-407E-8137-59AEE8DB719B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="6240" windowWidth="43200" windowHeight="23535" xr2:uid="{09F7BBB4-81EA-4503-B8DD-8985A501E98F}"/>
+    <workbookView xWindow="4860" yWindow="0" windowWidth="26370" windowHeight="15600" xr2:uid="{09F7BBB4-81EA-4503-B8DD-8985A501E98F}"/>
   </bookViews>
   <sheets>
     <sheet name="Translations" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$G$551</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$G$549</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="2014">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2485" uniqueCount="2234">
   <si>
     <t>Key</t>
   </si>
@@ -5970,33 +5970,12 @@
     <t>{{aggregation}} {{measure}}</t>
   </si>
   <si>
-    <t>MeasureDefinition_Aggregation_avg</t>
-  </si>
-  <si>
-    <t>MeasureDefinition_Aggregation_sum</t>
-  </si>
-  <si>
-    <t>MeasureDefinition_Aggregation_count</t>
-  </si>
-  <si>
-    <t>MeasureDefinition_Aggregation_dcount</t>
-  </si>
-  <si>
-    <t>MeasureDefinition_Aggregation_min</t>
-  </si>
-  <si>
-    <t>MeasureDefinition_Aggregation_max</t>
-  </si>
-  <si>
     <t>Average</t>
   </si>
   <si>
     <t>Sum</t>
   </si>
   <si>
-    <t>Distinct Count</t>
-  </si>
-  <si>
     <t>Minimum</t>
   </si>
   <si>
@@ -6015,18 +5994,12 @@
     <t>أقصى</t>
   </si>
   <si>
-    <t>عدد متميز</t>
-  </si>
-  <si>
     <t>平均</t>
   </si>
   <si>
     <t>和</t>
   </si>
   <si>
-    <t>重复计数</t>
-  </si>
-  <si>
     <t>最低限度</t>
   </si>
   <si>
@@ -6076,6 +6049,693 @@
   </si>
   <si>
     <t>图表</t>
+  </si>
+  <si>
+    <t>ReportDefinition</t>
+  </si>
+  <si>
+    <t>ReportDefinitions</t>
+  </si>
+  <si>
+    <t>Report Definition</t>
+  </si>
+  <si>
+    <t>Report Definitions</t>
+  </si>
+  <si>
+    <t>تعريف تقرير</t>
+  </si>
+  <si>
+    <t>تعاريف تقارير</t>
+  </si>
+  <si>
+    <t>ReportDefinition_Chart</t>
+  </si>
+  <si>
+    <t>ReportDefinition_Chart_Card</t>
+  </si>
+  <si>
+    <t>ReportDefinition_Chart_BarsVertical</t>
+  </si>
+  <si>
+    <t>ReportDefinition_Chart_BarsHorizontal</t>
+  </si>
+  <si>
+    <t>ReportDefinition_Chart_Line</t>
+  </si>
+  <si>
+    <t>ReportDefinition_Chart_Pie</t>
+  </si>
+  <si>
+    <t>ReportDefinition_Type</t>
+  </si>
+  <si>
+    <t>ReportDefinition_Type_Summary</t>
+  </si>
+  <si>
+    <t>ReportDefinition_Type_Details</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Line Chart</t>
+  </si>
+  <si>
+    <t>Pie Chart</t>
+  </si>
+  <si>
+    <t>إجمالي</t>
+  </si>
+  <si>
+    <t>تفصيلي</t>
+  </si>
+  <si>
+    <t>المخطط</t>
+  </si>
+  <si>
+    <t>بطاقة</t>
+  </si>
+  <si>
+    <t>مخطط دائري</t>
+  </si>
+  <si>
+    <t>خطوط بيانية</t>
+  </si>
+  <si>
+    <t>ReportDefinition_DefaultsToChart</t>
+  </si>
+  <si>
+    <t>ReportDefinition_Collection</t>
+  </si>
+  <si>
+    <t>ReportDefinition_DefinitionId</t>
+  </si>
+  <si>
+    <t>ReportDefinition_Parameters</t>
+  </si>
+  <si>
+    <t>ReportDefinition_Rows</t>
+  </si>
+  <si>
+    <t>ReportDefinition_Columns</t>
+  </si>
+  <si>
+    <t>ReportDefinition_Measures</t>
+  </si>
+  <si>
+    <t>ReportDefinition_Select</t>
+  </si>
+  <si>
+    <t>ReportDefinition_Filter</t>
+  </si>
+  <si>
+    <t>ReportDefinition_OrderBy</t>
+  </si>
+  <si>
+    <t>ReportDefinition_Top</t>
+  </si>
+  <si>
+    <t>ReportDefinition_ShowColumnsTotal</t>
+  </si>
+  <si>
+    <t>ReportDefinition_ShowRowsTotal</t>
+  </si>
+  <si>
+    <t>Defaults To Chart</t>
+  </si>
+  <si>
+    <t>Order By</t>
+  </si>
+  <si>
+    <t>Show Columns Total</t>
+  </si>
+  <si>
+    <t>Show Rows Total</t>
+  </si>
+  <si>
+    <t>Collection</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Rows</t>
+  </si>
+  <si>
+    <t>Columns</t>
+  </si>
+  <si>
+    <t>Measures</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>ReportDefinition_Path</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>ReportDefinition_OrderDirection</t>
+  </si>
+  <si>
+    <t>Order Direction</t>
+  </si>
+  <si>
+    <t>ReportDefinition_Key</t>
+  </si>
+  <si>
+    <t>Ascending</t>
+  </si>
+  <si>
+    <t>Descending</t>
+  </si>
+  <si>
+    <t>ReportDefinition_IsRequired</t>
+  </si>
+  <si>
+    <t>Is Required</t>
+  </si>
+  <si>
+    <t>ReportDefinition_Aggregation</t>
+  </si>
+  <si>
+    <t>ReportDefinition_OrderDirection_asc</t>
+  </si>
+  <si>
+    <t>ReportDefinition_OrderDirection_desc</t>
+  </si>
+  <si>
+    <t>ReportDefinition_Aggregation_count</t>
+  </si>
+  <si>
+    <t>ReportDefinition_Aggregation_sum</t>
+  </si>
+  <si>
+    <t>ReportDefinition_Aggregation_avg</t>
+  </si>
+  <si>
+    <t>ReportDefinition_Aggregation_max</t>
+  </si>
+  <si>
+    <t>ReportDefinition_Aggregation_min</t>
+  </si>
+  <si>
+    <t>ReportDefinition_AutoExpand</t>
+  </si>
+  <si>
+    <t>Auto Expand</t>
+  </si>
+  <si>
+    <t>Icon_Clipboard</t>
+  </si>
+  <si>
+    <t>Icon_ChartPie</t>
+  </si>
+  <si>
+    <t>Clipboard</t>
+  </si>
+  <si>
+    <t>Chart Pie</t>
+  </si>
+  <si>
+    <t>إظهار المخطط تلقائيا</t>
+  </si>
+  <si>
+    <t>المجموعة</t>
+  </si>
+  <si>
+    <t>المعاملات</t>
+  </si>
+  <si>
+    <t>الأسطر</t>
+  </si>
+  <si>
+    <t>الأعمدة</t>
+  </si>
+  <si>
+    <t>القيم</t>
+  </si>
+  <si>
+    <t>الحقول</t>
+  </si>
+  <si>
+    <t>المصفاة</t>
+  </si>
+  <si>
+    <t>الترتيب</t>
+  </si>
+  <si>
+    <t>أول</t>
+  </si>
+  <si>
+    <t>أظهر مجموع الأسطر</t>
+  </si>
+  <si>
+    <t>المسار</t>
+  </si>
+  <si>
+    <t>جهة الترتيب</t>
+  </si>
+  <si>
+    <t>تصاعد</t>
+  </si>
+  <si>
+    <t>تنازل</t>
+  </si>
+  <si>
+    <t>معامل مطلوب</t>
+  </si>
+  <si>
+    <t>دالة التجميع</t>
+  </si>
+  <si>
+    <t>Aggregation Function</t>
+  </si>
+  <si>
+    <t>توسيع تلقائي</t>
+  </si>
+  <si>
+    <t>حافظة</t>
+  </si>
+  <si>
+    <t>报告定义</t>
+  </si>
+  <si>
+    <t>摘要</t>
+  </si>
+  <si>
+    <t>细节</t>
+  </si>
+  <si>
+    <t>卡</t>
+  </si>
+  <si>
+    <t>垂直条形图</t>
+  </si>
+  <si>
+    <t>水平条形图</t>
+  </si>
+  <si>
+    <t>折线图</t>
+  </si>
+  <si>
+    <t>饼形图</t>
+  </si>
+  <si>
+    <t>默认到图表</t>
+  </si>
+  <si>
+    <t>采集</t>
+  </si>
+  <si>
+    <t>参数</t>
+  </si>
+  <si>
+    <t>行</t>
+  </si>
+  <si>
+    <t>列</t>
+  </si>
+  <si>
+    <t>措施</t>
+  </si>
+  <si>
+    <t>选择</t>
+  </si>
+  <si>
+    <t>最佳</t>
+  </si>
+  <si>
+    <t>显示列总计</t>
+  </si>
+  <si>
+    <t>展会共行</t>
+  </si>
+  <si>
+    <t>键</t>
+  </si>
+  <si>
+    <t>路径</t>
+  </si>
+  <si>
+    <t>为了方向</t>
+  </si>
+  <si>
+    <t>上升</t>
+  </si>
+  <si>
+    <t>降序</t>
+  </si>
+  <si>
+    <t>是必须的</t>
+  </si>
+  <si>
+    <t>聚集功能</t>
+  </si>
+  <si>
+    <t>自动扩展</t>
+  </si>
+  <si>
+    <t>剪贴板</t>
+  </si>
+  <si>
+    <t>图表派</t>
+  </si>
+  <si>
+    <t>排序</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>التعريف</t>
+  </si>
+  <si>
+    <t>定义</t>
+  </si>
+  <si>
+    <t>Preview</t>
+  </si>
+  <si>
+    <t>معاينة</t>
+  </si>
+  <si>
+    <t>预习</t>
+  </si>
+  <si>
+    <t>ResourceClassification</t>
+  </si>
+  <si>
+    <t>ResourceClassifications</t>
+  </si>
+  <si>
+    <t>Resource Classification</t>
+  </si>
+  <si>
+    <t>Resource Classifications</t>
+  </si>
+  <si>
+    <t>تصنيف أصل</t>
+  </si>
+  <si>
+    <t>تصنيفات أصول</t>
+  </si>
+  <si>
+    <t>资源分类</t>
+  </si>
+  <si>
+    <t>Lookup</t>
+  </si>
+  <si>
+    <t>Lookups</t>
+  </si>
+  <si>
+    <t>جداول اطلاع</t>
+  </si>
+  <si>
+    <t>جدول اطلاع</t>
+  </si>
+  <si>
+    <t>抬头</t>
+  </si>
+  <si>
+    <t>查找</t>
+  </si>
+  <si>
+    <t>Resources</t>
+  </si>
+  <si>
+    <t>موارد</t>
+  </si>
+  <si>
+    <t>مورد</t>
+  </si>
+  <si>
+    <t>SortKey</t>
+  </si>
+  <si>
+    <t>Sort Key</t>
+  </si>
+  <si>
+    <t>مفتاح الترتيب</t>
+  </si>
+  <si>
+    <t>Fields</t>
+  </si>
+  <si>
+    <t>DragFieldsHere</t>
+  </si>
+  <si>
+    <t>Drag data fields here</t>
+  </si>
+  <si>
+    <t>قم بجر الحقول إلى هنا</t>
+  </si>
+  <si>
+    <t>MainMenu</t>
+  </si>
+  <si>
+    <t>Main Menu</t>
+  </si>
+  <si>
+    <t>القائمة الرئيسية</t>
+  </si>
+  <si>
+    <t>字段</t>
+  </si>
+  <si>
+    <t>排序关键字</t>
+  </si>
+  <si>
+    <t>这里拖动数据字段</t>
+  </si>
+  <si>
+    <t>主菜单</t>
+  </si>
+  <si>
+    <t>Configure</t>
+  </si>
+  <si>
+    <t>Apply</t>
+  </si>
+  <si>
+    <t>تطبيق</t>
+  </si>
+  <si>
+    <t>ضبط</t>
+  </si>
+  <si>
+    <t>配置</t>
+  </si>
+  <si>
+    <t>应用</t>
+  </si>
+  <si>
+    <t>ReportDefinition_Chart_BarsVerticalGrouped</t>
+  </si>
+  <si>
+    <t>ReportDefinition_Chart_BarsVerticalStacked</t>
+  </si>
+  <si>
+    <t>ReportDefinition_Chart_BarsVerticalNormalized</t>
+  </si>
+  <si>
+    <t>ReportDefinition_Chart_BarsHorizontalGrouped</t>
+  </si>
+  <si>
+    <t>ReportDefinition_Chart_BarsHorizontalStacked</t>
+  </si>
+  <si>
+    <t>ReportDefinition_Chart_BarsHorizontalNormalized</t>
+  </si>
+  <si>
+    <t>ReportDefinition_Chart_Area</t>
+  </si>
+  <si>
+    <t>ReportDefinition_Chart_AreaStacked</t>
+  </si>
+  <si>
+    <t>ReportDefinition_Chart_AreaNormalized</t>
+  </si>
+  <si>
+    <t>ReportDefinition_Chart_Doughnut</t>
+  </si>
+  <si>
+    <t>ReportDefinition_Chart_HeatMap</t>
+  </si>
+  <si>
+    <t>ReportDefinition_Chart_TreeMap</t>
+  </si>
+  <si>
+    <t>ReportDefinition_Chart_NumberCards</t>
+  </si>
+  <si>
+    <t>ReportDefinition_Chart_Gauge</t>
+  </si>
+  <si>
+    <t>Area Chart</t>
+  </si>
+  <si>
+    <t>Doughnut Chart</t>
+  </si>
+  <si>
+    <t>Heat Map</t>
+  </si>
+  <si>
+    <t>Tree Map</t>
+  </si>
+  <si>
+    <t>Number Cards</t>
+  </si>
+  <si>
+    <t>Gauge</t>
+  </si>
+  <si>
+    <t>مساحات بيانية</t>
+  </si>
+  <si>
+    <t>مساحات بيانية مسواة</t>
+  </si>
+  <si>
+    <t>مساحات بيانية مرصوصة</t>
+  </si>
+  <si>
+    <t>مخطط دائري أجوف</t>
+  </si>
+  <si>
+    <t>خارطة حرارية</t>
+  </si>
+  <si>
+    <t>بطاقات قيم</t>
+  </si>
+  <si>
+    <t>مقياس</t>
+  </si>
+  <si>
+    <t>分组垂直条形图</t>
+  </si>
+  <si>
+    <t>堆积垂直条形图</t>
+  </si>
+  <si>
+    <t>标准化垂直条形图</t>
+  </si>
+  <si>
+    <t>分组水平条形图</t>
+  </si>
+  <si>
+    <t>堆积水平条形图</t>
+  </si>
+  <si>
+    <t>标准化水平条形图</t>
+  </si>
+  <si>
+    <t>面积图</t>
+  </si>
+  <si>
+    <t>堆积面积</t>
+  </si>
+  <si>
+    <t>归一化面积</t>
+  </si>
+  <si>
+    <t>圆环图</t>
+  </si>
+  <si>
+    <t>热图</t>
+  </si>
+  <si>
+    <t>树图</t>
+  </si>
+  <si>
+    <t>号码牌</t>
+  </si>
+  <si>
+    <t>规</t>
+  </si>
+  <si>
+    <t>خارطة شجرية</t>
+  </si>
+  <si>
+    <t>Normalized Horizontal Bars</t>
+  </si>
+  <si>
+    <t>Stacked Horizontal Bars</t>
+  </si>
+  <si>
+    <t>Grouped Horizontal Bars</t>
+  </si>
+  <si>
+    <t>Horizontal Bars</t>
+  </si>
+  <si>
+    <t>Vertical Bars</t>
+  </si>
+  <si>
+    <t>Grouped Vertical Bars</t>
+  </si>
+  <si>
+    <t>Stacked Vertical Bars</t>
+  </si>
+  <si>
+    <t>Normalized Vertical Bars</t>
+  </si>
+  <si>
+    <t>Stacked Area Chart</t>
+  </si>
+  <si>
+    <t>Normalized Area Chart</t>
+  </si>
+  <si>
+    <t>أعمدة عمودية</t>
+  </si>
+  <si>
+    <t>أعمدة عمودية مجمعة</t>
+  </si>
+  <si>
+    <t>أعمدة عمودية مرصوصة</t>
+  </si>
+  <si>
+    <t>أعمدة عمودية مسواة</t>
+  </si>
+  <si>
+    <t>أعمدة أفقية</t>
+  </si>
+  <si>
+    <t>أعمدة أفقية مجمعة</t>
+  </si>
+  <si>
+    <t>أعمدة أفقية مرصوصة</t>
+  </si>
+  <si>
+    <t>أعمدة أفقية مسواة</t>
+  </si>
+  <si>
+    <t>أظهر مجموع الأعمدة</t>
+  </si>
+  <si>
+    <t>ReportDefinition_Chart_Radar</t>
+  </si>
+  <si>
+    <t>Radar Chart</t>
+  </si>
+  <si>
+    <t>مخطط رادار</t>
+  </si>
+  <si>
+    <t>雷达图</t>
   </si>
 </sst>
 </file>
@@ -6152,7 +6812,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6161,6 +6821,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6475,12 +7138,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FEE134-3B22-427F-8E5A-2A7F994BE2AC}">
-  <dimension ref="A1:G555"/>
+  <dimension ref="A1:G620"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A526" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A599" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G564" sqref="G564"/>
+      <selection pane="bottomLeft" activeCell="E612" sqref="E612"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6690,7 +7353,7 @@
         <v>877</v>
       </c>
       <c r="B10" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3" t="b">
         <v>1</v>
@@ -10008,7 +10671,7 @@
         <v>921</v>
       </c>
       <c r="B168" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C168" s="3" t="b">
         <v>1</v>
@@ -13300,9 +13963,9 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
-        <v>851</v>
+        <v>1784</v>
       </c>
       <c r="B325" s="3" t="b">
         <v>1</v>
@@ -13310,20 +13973,19 @@
       <c r="C325" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D325" s="3"/>
       <c r="E325" s="3" t="s">
-        <v>853</v>
+        <v>1784</v>
       </c>
       <c r="F325" s="3" t="s">
-        <v>852</v>
+        <v>2148</v>
       </c>
       <c r="G325" s="3" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
-        <v>841</v>
+        <v>2146</v>
       </c>
       <c r="B326" s="3" t="b">
         <v>1</v>
@@ -13331,20 +13993,19 @@
       <c r="C326" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D326" s="3"/>
       <c r="E326" s="3" t="s">
-        <v>842</v>
+        <v>2146</v>
       </c>
       <c r="F326" s="3" t="s">
-        <v>454</v>
+        <v>2147</v>
       </c>
       <c r="G326" s="3" t="s">
-        <v>1536</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="B327" s="3" t="b">
         <v>1</v>
@@ -13354,18 +14015,18 @@
       </c>
       <c r="D327" s="3"/>
       <c r="E327" s="3" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
       <c r="F327" s="3" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="G327" s="3" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B328" s="3" t="b">
         <v>1</v>
@@ -13375,18 +14036,18 @@
       </c>
       <c r="D328" s="3"/>
       <c r="E328" s="3" t="s">
-        <v>834</v>
+        <v>842</v>
       </c>
       <c r="F328" s="3" t="s">
-        <v>844</v>
+        <v>454</v>
       </c>
       <c r="G328" s="3" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="B329" s="3" t="b">
         <v>1</v>
@@ -13396,18 +14057,18 @@
       </c>
       <c r="D329" s="3"/>
       <c r="E329" s="3" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="F329" s="3" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="G329" s="3" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
-        <v>854</v>
+        <v>843</v>
       </c>
       <c r="B330" s="3" t="b">
         <v>1</v>
@@ -13417,18 +14078,18 @@
       </c>
       <c r="D330" s="3"/>
       <c r="E330" s="3" t="s">
-        <v>856</v>
+        <v>834</v>
       </c>
       <c r="F330" s="3" t="s">
-        <v>855</v>
+        <v>844</v>
       </c>
       <c r="G330" s="3" t="s">
-        <v>1540</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
-        <v>845</v>
+        <v>863</v>
       </c>
       <c r="B331" s="3" t="b">
         <v>1</v>
@@ -13438,18 +14099,18 @@
       </c>
       <c r="D331" s="3"/>
       <c r="E331" s="3" t="s">
-        <v>847</v>
+        <v>865</v>
       </c>
       <c r="F331" s="3" t="s">
-        <v>846</v>
+        <v>864</v>
       </c>
       <c r="G331" s="3" t="s">
-        <v>1537</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
-        <v>866</v>
+        <v>854</v>
       </c>
       <c r="B332" s="3" t="b">
         <v>1</v>
@@ -13459,18 +14120,18 @@
       </c>
       <c r="D332" s="3"/>
       <c r="E332" s="3" t="s">
-        <v>1735</v>
+        <v>856</v>
       </c>
       <c r="F332" s="3" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
       <c r="G332" s="3" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
-        <v>868</v>
+        <v>845</v>
       </c>
       <c r="B333" s="3" t="b">
         <v>1</v>
@@ -13480,18 +14141,18 @@
       </c>
       <c r="D333" s="3"/>
       <c r="E333" s="3" t="s">
-        <v>1736</v>
+        <v>847</v>
       </c>
       <c r="F333" s="3" t="s">
-        <v>869</v>
+        <v>846</v>
       </c>
       <c r="G333" s="3" t="s">
-        <v>1545</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="B334" s="3" t="b">
         <v>1</v>
@@ -13501,18 +14162,18 @@
       </c>
       <c r="D334" s="3"/>
       <c r="E334" s="3" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="F334" s="3" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="G334" s="3" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="B335" s="3" t="b">
         <v>1</v>
@@ -13522,18 +14183,18 @@
       </c>
       <c r="D335" s="3"/>
       <c r="E335" s="3" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="F335" s="3" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="G335" s="3" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
       <c r="B336" s="3" t="b">
         <v>1</v>
@@ -13543,18 +14204,18 @@
       </c>
       <c r="D336" s="3"/>
       <c r="E336" s="3" t="s">
-        <v>859</v>
+        <v>1737</v>
       </c>
       <c r="F336" s="3" t="s">
-        <v>858</v>
+        <v>871</v>
       </c>
       <c r="G336" s="3" t="s">
-        <v>1541</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
-        <v>848</v>
+        <v>872</v>
       </c>
       <c r="B337" s="3" t="b">
         <v>1</v>
@@ -13564,39 +14225,39 @@
       </c>
       <c r="D337" s="3"/>
       <c r="E337" s="3" t="s">
-        <v>850</v>
+        <v>1738</v>
       </c>
       <c r="F337" s="3" t="s">
-        <v>849</v>
+        <v>873</v>
       </c>
       <c r="G337" s="3" t="s">
-        <v>1538</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
-        <v>1074</v>
+        <v>857</v>
       </c>
       <c r="B338" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C338" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D338" s="3"/>
       <c r="E338" s="3" t="s">
-        <v>965</v>
+        <v>859</v>
       </c>
       <c r="F338" s="3" t="s">
-        <v>1201</v>
+        <v>858</v>
       </c>
       <c r="G338" s="3" t="s">
-        <v>1626</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
-        <v>517</v>
+        <v>848</v>
       </c>
       <c r="B339" s="3" t="b">
         <v>1</v>
@@ -13606,39 +14267,39 @@
       </c>
       <c r="D339" s="3"/>
       <c r="E339" s="3" t="s">
-        <v>517</v>
+        <v>850</v>
       </c>
       <c r="F339" s="3" t="s">
-        <v>601</v>
+        <v>849</v>
       </c>
       <c r="G339" s="3" t="s">
-        <v>1430</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
-        <v>602</v>
+        <v>1074</v>
       </c>
       <c r="B340" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C340" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D340" s="3"/>
       <c r="E340" s="3" t="s">
-        <v>604</v>
+        <v>965</v>
       </c>
       <c r="F340" s="3" t="s">
-        <v>603</v>
+        <v>1201</v>
       </c>
       <c r="G340" s="3" t="s">
-        <v>1459</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
-        <v>605</v>
+        <v>517</v>
       </c>
       <c r="B341" s="3" t="b">
         <v>1</v>
@@ -13651,7 +14312,7 @@
         <v>517</v>
       </c>
       <c r="F341" s="3" t="s">
-        <v>516</v>
+        <v>601</v>
       </c>
       <c r="G341" s="3" t="s">
         <v>1430</v>
@@ -13659,7 +14320,7 @@
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B342" s="3" t="b">
         <v>1</v>
@@ -13669,18 +14330,18 @@
       </c>
       <c r="D342" s="3"/>
       <c r="E342" s="3" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="F342" s="3" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="G342" s="3" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B343" s="3" t="b">
         <v>1</v>
@@ -13690,10 +14351,10 @@
       </c>
       <c r="D343" s="3"/>
       <c r="E343" s="3" t="s">
-        <v>609</v>
+        <v>517</v>
       </c>
       <c r="F343" s="3" t="s">
-        <v>610</v>
+        <v>516</v>
       </c>
       <c r="G343" s="3" t="s">
         <v>1430</v>
@@ -13701,7 +14362,7 @@
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B344" s="3" t="b">
         <v>1</v>
@@ -13711,18 +14372,18 @@
       </c>
       <c r="D344" s="3"/>
       <c r="E344" s="3" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="F344" s="3" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="G344" s="3" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="B345" s="3" t="b">
         <v>1</v>
@@ -13732,60 +14393,60 @@
       </c>
       <c r="D345" s="3"/>
       <c r="E345" s="3" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="F345" s="3" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="G345" s="3" t="s">
-        <v>1462</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
-        <v>966</v>
+        <v>611</v>
       </c>
       <c r="B346" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C346" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D346" s="3"/>
       <c r="E346" s="3" t="s">
-        <v>966</v>
+        <v>613</v>
       </c>
       <c r="F346" s="3" t="s">
-        <v>1202</v>
+        <v>612</v>
       </c>
       <c r="G346" s="3" t="s">
-        <v>1627</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
-        <v>1111</v>
+        <v>614</v>
       </c>
       <c r="B347" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C347" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D347" s="3"/>
       <c r="E347" s="3" t="s">
-        <v>1011</v>
+        <v>614</v>
       </c>
       <c r="F347" s="3" t="s">
-        <v>1248</v>
+        <v>615</v>
       </c>
       <c r="G347" s="3" t="s">
-        <v>1671</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
-        <v>1112</v>
+        <v>966</v>
       </c>
       <c r="B348" s="3" t="b">
         <v>0</v>
@@ -13795,165 +14456,165 @@
       </c>
       <c r="D348" s="3"/>
       <c r="E348" s="3" t="s">
-        <v>1012</v>
+        <v>966</v>
       </c>
       <c r="F348" s="3" t="s">
-        <v>1249</v>
+        <v>1202</v>
       </c>
       <c r="G348" s="3" t="s">
-        <v>1672</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
-        <v>616</v>
+        <v>1111</v>
       </c>
       <c r="B349" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C349" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D349" s="3"/>
       <c r="E349" s="3" t="s">
-        <v>617</v>
+        <v>1011</v>
       </c>
       <c r="F349" s="3" t="s">
-        <v>102</v>
+        <v>1248</v>
       </c>
       <c r="G349" s="3" t="s">
-        <v>1463</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
-        <v>618</v>
+        <v>1112</v>
       </c>
       <c r="B350" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C350" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D350" s="3"/>
       <c r="E350" s="3" t="s">
-        <v>620</v>
+        <v>1012</v>
       </c>
       <c r="F350" s="3" t="s">
-        <v>619</v>
+        <v>1249</v>
       </c>
       <c r="G350" s="3" t="s">
-        <v>1464</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="B351" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C351" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D351" s="3"/>
       <c r="E351" s="3" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F351" s="3" t="s">
-        <v>622</v>
+        <v>102</v>
       </c>
       <c r="G351" s="3" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B352" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C352" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D352" s="3"/>
       <c r="E352" s="3" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="F352" s="3" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="G352" s="3" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
-        <v>1075</v>
+        <v>621</v>
       </c>
       <c r="B353" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C353" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D353" s="3"/>
       <c r="E353" s="3" t="s">
-        <v>967</v>
+        <v>621</v>
       </c>
       <c r="F353" s="3" t="s">
-        <v>1203</v>
+        <v>622</v>
       </c>
       <c r="G353" s="3" t="s">
-        <v>1628</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
-        <v>1076</v>
+        <v>623</v>
       </c>
       <c r="B354" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C354" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D354" s="3"/>
       <c r="E354" s="3" t="s">
-        <v>968</v>
+        <v>625</v>
       </c>
       <c r="F354" s="3" t="s">
-        <v>1204</v>
+        <v>624</v>
       </c>
       <c r="G354" s="3" t="s">
-        <v>1629</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
-        <v>626</v>
+        <v>1075</v>
       </c>
       <c r="B355" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C355" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D355" s="3"/>
       <c r="E355" s="3" t="s">
-        <v>628</v>
+        <v>967</v>
       </c>
       <c r="F355" s="3" t="s">
-        <v>627</v>
+        <v>1203</v>
       </c>
       <c r="G355" s="3" t="s">
-        <v>1467</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B356" s="3" t="b">
         <v>0</v>
@@ -13963,18 +14624,18 @@
       </c>
       <c r="D356" s="3"/>
       <c r="E356" s="3" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F356" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="G356" s="3" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B357" s="3" t="b">
         <v>1</v>
@@ -13984,39 +14645,39 @@
       </c>
       <c r="D357" s="3"/>
       <c r="E357" s="3" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F357" s="3" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G357" s="3" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
-        <v>632</v>
+        <v>1077</v>
       </c>
       <c r="B358" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C358" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D358" s="3"/>
       <c r="E358" s="3" t="s">
-        <v>633</v>
+        <v>969</v>
       </c>
       <c r="F358" s="3" t="s">
-        <v>105</v>
+        <v>1205</v>
       </c>
       <c r="G358" s="3" t="s">
-        <v>1469</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B359" s="3" t="b">
         <v>1</v>
@@ -14026,39 +14687,39 @@
       </c>
       <c r="D359" s="3"/>
       <c r="E359" s="3" t="s">
-        <v>1674</v>
+        <v>631</v>
       </c>
       <c r="F359" s="3" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="G359" s="3" t="s">
-        <v>1681</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
-        <v>1078</v>
+        <v>632</v>
       </c>
       <c r="B360" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C360" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D360" s="3"/>
       <c r="E360" s="3" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="F360" s="3" t="s">
-        <v>1206</v>
+        <v>105</v>
       </c>
       <c r="G360" s="3" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B361" s="3" t="b">
         <v>1</v>
@@ -14068,60 +14729,60 @@
       </c>
       <c r="D361" s="3"/>
       <c r="E361" s="3" t="s">
-        <v>639</v>
+        <v>1674</v>
       </c>
       <c r="F361" s="3" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G361" s="3" t="s">
-        <v>1471</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
-        <v>640</v>
+        <v>1078</v>
       </c>
       <c r="B362" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C362" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D362" s="3"/>
       <c r="E362" s="3" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="F362" s="3" t="s">
-        <v>641</v>
+        <v>1206</v>
       </c>
       <c r="G362" s="3" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
-        <v>1079</v>
+        <v>637</v>
       </c>
       <c r="B363" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C363" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D363" s="3"/>
       <c r="E363" s="3" t="s">
-        <v>970</v>
+        <v>639</v>
       </c>
       <c r="F363" s="3" t="s">
-        <v>1207</v>
+        <v>638</v>
       </c>
       <c r="G363" s="3" t="s">
-        <v>1631</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
-        <v>810</v>
+        <v>640</v>
       </c>
       <c r="B364" s="3" t="b">
         <v>1</v>
@@ -14131,18 +14792,18 @@
       </c>
       <c r="D364" s="3"/>
       <c r="E364" s="3" t="s">
-        <v>812</v>
+        <v>642</v>
       </c>
       <c r="F364" s="3" t="s">
-        <v>811</v>
+        <v>641</v>
       </c>
       <c r="G364" s="3" t="s">
-        <v>1527</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
-        <v>1673</v>
+        <v>1079</v>
       </c>
       <c r="B365" s="3" t="b">
         <v>0</v>
@@ -14152,18 +14813,18 @@
       </c>
       <c r="D365" s="3"/>
       <c r="E365" s="3" t="s">
-        <v>1675</v>
+        <v>970</v>
       </c>
       <c r="F365" s="3" t="s">
-        <v>1676</v>
+        <v>1207</v>
       </c>
       <c r="G365" s="3" t="s">
-        <v>1677</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B366" s="3" t="b">
         <v>1</v>
@@ -14173,18 +14834,18 @@
       </c>
       <c r="D366" s="3"/>
       <c r="E366" s="3" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="F366" s="3" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="G366" s="3" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
-        <v>1080</v>
+        <v>1673</v>
       </c>
       <c r="B367" s="3" t="b">
         <v>0</v>
@@ -14194,39 +14855,39 @@
       </c>
       <c r="D367" s="3"/>
       <c r="E367" s="3" t="s">
-        <v>971</v>
+        <v>1675</v>
       </c>
       <c r="F367" s="3" t="s">
-        <v>1208</v>
+        <v>1676</v>
       </c>
       <c r="G367" s="3" t="s">
-        <v>1632</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
-        <v>1081</v>
+        <v>813</v>
       </c>
       <c r="B368" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C368" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D368" s="3"/>
       <c r="E368" s="3" t="s">
-        <v>972</v>
+        <v>815</v>
       </c>
       <c r="F368" s="3" t="s">
-        <v>1209</v>
+        <v>814</v>
       </c>
       <c r="G368" s="3" t="s">
-        <v>1633</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B369" s="3" t="b">
         <v>0</v>
@@ -14236,18 +14897,18 @@
       </c>
       <c r="D369" s="3"/>
       <c r="E369" s="3" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F369" s="3" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="G369" s="3" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B370" s="3" t="b">
         <v>0</v>
@@ -14257,18 +14918,18 @@
       </c>
       <c r="D370" s="3"/>
       <c r="E370" s="3" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="F370" s="3" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="G370" s="3" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B371" s="3" t="b">
         <v>0</v>
@@ -14278,18 +14939,18 @@
       </c>
       <c r="D371" s="3"/>
       <c r="E371" s="3" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F371" s="3" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="G371" s="3" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B372" s="3" t="b">
         <v>0</v>
@@ -14299,18 +14960,18 @@
       </c>
       <c r="D372" s="3"/>
       <c r="E372" s="3" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="F372" s="3" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="G372" s="3" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B373" s="3" t="b">
         <v>0</v>
@@ -14320,18 +14981,18 @@
       </c>
       <c r="D373" s="3"/>
       <c r="E373" s="3" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="F373" s="3" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="G373" s="3" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="B374" s="3" t="b">
         <v>0</v>
@@ -14341,18 +15002,18 @@
       </c>
       <c r="D374" s="3"/>
       <c r="E374" s="3" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="F374" s="3" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="G374" s="3" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B375" s="3" t="b">
         <v>0</v>
@@ -14362,18 +15023,18 @@
       </c>
       <c r="D375" s="3"/>
       <c r="E375" s="3" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="F375" s="3" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="G375" s="3" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="B376" s="3" t="b">
         <v>0</v>
@@ -14383,18 +15044,18 @@
       </c>
       <c r="D376" s="3"/>
       <c r="E376" s="3" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="F376" s="3" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="G376" s="3" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="3" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B377" s="3" t="b">
         <v>0</v>
@@ -14404,18 +15065,18 @@
       </c>
       <c r="D377" s="3"/>
       <c r="E377" s="3" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F377" s="3" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="G377" s="3" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B378" s="3" t="b">
         <v>0</v>
@@ -14425,18 +15086,18 @@
       </c>
       <c r="D378" s="3"/>
       <c r="E378" s="3" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="F378" s="3" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="G378" s="3" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B379" s="3" t="b">
         <v>0</v>
@@ -14446,18 +15107,18 @@
       </c>
       <c r="D379" s="3"/>
       <c r="E379" s="3" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="F379" s="3" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="G379" s="3" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="B380" s="3" t="b">
         <v>0</v>
@@ -14467,18 +15128,18 @@
       </c>
       <c r="D380" s="3"/>
       <c r="E380" s="3" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="F380" s="3" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="G380" s="3" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B381" s="3" t="b">
         <v>0</v>
@@ -14488,18 +15149,18 @@
       </c>
       <c r="D381" s="3"/>
       <c r="E381" s="3" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="F381" s="3" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="G381" s="3" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="B382" s="3" t="b">
         <v>0</v>
@@ -14509,18 +15170,18 @@
       </c>
       <c r="D382" s="3"/>
       <c r="E382" s="3" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="F382" s="3" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="G382" s="3" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B383" s="3" t="b">
         <v>0</v>
@@ -14530,18 +15191,18 @@
       </c>
       <c r="D383" s="3"/>
       <c r="E383" s="3" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="F383" s="3" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="G383" s="3" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B384" s="3" t="b">
         <v>0</v>
@@ -14551,18 +15212,18 @@
       </c>
       <c r="D384" s="3"/>
       <c r="E384" s="3" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="F384" s="3" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="G384" s="3" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="B385" s="3" t="b">
         <v>0</v>
@@ -14572,123 +15233,123 @@
       </c>
       <c r="D385" s="3"/>
       <c r="E385" s="3" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="F385" s="3" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="G385" s="3" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="3" t="s">
-        <v>643</v>
+        <v>1097</v>
       </c>
       <c r="B386" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C386" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D386" s="3"/>
       <c r="E386" s="3" t="s">
-        <v>643</v>
+        <v>988</v>
       </c>
       <c r="F386" s="3" t="s">
-        <v>644</v>
+        <v>1225</v>
       </c>
       <c r="G386" s="3" t="s">
-        <v>1473</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="3" t="s">
-        <v>645</v>
+        <v>1098</v>
       </c>
       <c r="B387" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C387" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D387" s="3"/>
       <c r="E387" s="3" t="s">
-        <v>647</v>
+        <v>989</v>
       </c>
       <c r="F387" s="3" t="s">
-        <v>646</v>
+        <v>1226</v>
       </c>
       <c r="G387" s="3" t="s">
-        <v>1474</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="3" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="B388" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C388" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D388" s="3"/>
       <c r="E388" s="3" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="F388" s="3" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="G388" s="3" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="3" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="B389" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C389" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D389" s="3"/>
       <c r="E389" s="3" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="F389" s="3" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="G389" s="3" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="3" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="B390" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C390" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D390" s="3"/>
       <c r="E390" s="3" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="F390" s="3" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="G390" s="3" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="3" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="B391" s="3" t="b">
         <v>1</v>
@@ -14698,39 +15359,39 @@
       </c>
       <c r="D391" s="3"/>
       <c r="E391" s="3" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="F391" s="3" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="G391" s="3" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="3" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="B392" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C392" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D392" s="3"/>
       <c r="E392" s="3" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="F392" s="3" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="G392" s="3" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="3" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="B393" s="3" t="b">
         <v>1</v>
@@ -14740,60 +15401,60 @@
       </c>
       <c r="D393" s="3"/>
       <c r="E393" s="3" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="F393" s="3" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="G393" s="3" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
-        <v>798</v>
+        <v>660</v>
       </c>
       <c r="B394" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C394" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D394" s="3"/>
       <c r="E394" s="3" t="s">
-        <v>800</v>
+        <v>662</v>
       </c>
       <c r="F394" s="3" t="s">
-        <v>799</v>
+        <v>661</v>
       </c>
       <c r="G394" s="3" t="s">
-        <v>1523</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="3" t="s">
-        <v>801</v>
+        <v>663</v>
       </c>
       <c r="B395" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C395" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D395" s="3"/>
       <c r="E395" s="3" t="s">
-        <v>2</v>
+        <v>665</v>
       </c>
       <c r="F395" s="3" t="s">
-        <v>802</v>
+        <v>664</v>
       </c>
       <c r="G395" s="3" t="s">
-        <v>1524</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="3" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="B396" s="3" t="b">
         <v>1</v>
@@ -14803,18 +15464,18 @@
       </c>
       <c r="D396" s="3"/>
       <c r="E396" s="3" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="F396" s="3" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="G396" s="3" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="3" t="s">
-        <v>790</v>
+        <v>801</v>
       </c>
       <c r="B397" s="3" t="b">
         <v>1</v>
@@ -14824,18 +15485,18 @@
       </c>
       <c r="D397" s="3"/>
       <c r="E397" s="3" t="s">
-        <v>792</v>
+        <v>2</v>
       </c>
       <c r="F397" s="3" t="s">
-        <v>791</v>
+        <v>802</v>
       </c>
       <c r="G397" s="3" t="s">
-        <v>1521</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="3" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B398" s="3" t="b">
         <v>1</v>
@@ -14845,18 +15506,18 @@
       </c>
       <c r="D398" s="3"/>
       <c r="E398" s="3" t="s">
-        <v>741</v>
+        <v>797</v>
       </c>
       <c r="F398" s="3" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="G398" s="3" t="s">
-        <v>1504</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="3" t="s">
-        <v>666</v>
+        <v>790</v>
       </c>
       <c r="B399" s="3" t="b">
         <v>1</v>
@@ -14866,165 +15527,165 @@
       </c>
       <c r="D399" s="3"/>
       <c r="E399" s="3" t="s">
-        <v>666</v>
+        <v>792</v>
       </c>
       <c r="F399" s="3" t="s">
-        <v>667</v>
+        <v>791</v>
       </c>
       <c r="G399" s="3" t="s">
-        <v>1481</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="3" t="s">
-        <v>1099</v>
+        <v>793</v>
       </c>
       <c r="B400" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C400" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D400" s="3"/>
       <c r="E400" s="3" t="s">
-        <v>990</v>
+        <v>741</v>
       </c>
       <c r="F400" s="3" t="s">
-        <v>1227</v>
+        <v>794</v>
       </c>
       <c r="G400" s="3" t="s">
-        <v>1651</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="3" t="s">
-        <v>1100</v>
+        <v>666</v>
       </c>
       <c r="B401" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C401" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D401" s="3"/>
       <c r="E401" s="3" t="s">
-        <v>991</v>
+        <v>666</v>
       </c>
       <c r="F401" s="3" t="s">
-        <v>1228</v>
+        <v>667</v>
       </c>
       <c r="G401" s="3" t="s">
-        <v>1652</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="3" t="s">
-        <v>668</v>
+        <v>1099</v>
       </c>
       <c r="B402" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C402" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D402" s="3"/>
       <c r="E402" s="3" t="s">
-        <v>670</v>
+        <v>990</v>
       </c>
       <c r="F402" s="3" t="s">
-        <v>669</v>
+        <v>1227</v>
       </c>
       <c r="G402" s="3" t="s">
-        <v>1482</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="3" t="s">
-        <v>671</v>
+        <v>1100</v>
       </c>
       <c r="B403" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C403" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D403" s="3"/>
       <c r="E403" s="3" t="s">
-        <v>673</v>
+        <v>991</v>
       </c>
       <c r="F403" s="3" t="s">
-        <v>672</v>
+        <v>1228</v>
       </c>
       <c r="G403" s="3" t="s">
-        <v>1483</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="3" t="s">
-        <v>992</v>
+        <v>668</v>
       </c>
       <c r="B404" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C404" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D404" s="3"/>
       <c r="E404" s="3" t="s">
-        <v>992</v>
+        <v>670</v>
       </c>
       <c r="F404" s="3" t="s">
-        <v>1229</v>
+        <v>669</v>
       </c>
       <c r="G404" s="3" t="s">
-        <v>1653</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="3" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B405" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C405" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D405" s="3"/>
       <c r="E405" s="3" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="F405" s="3" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="G405" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
-        <v>677</v>
+        <v>992</v>
       </c>
       <c r="B406" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C406" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D406" s="3"/>
       <c r="E406" s="3" t="s">
-        <v>8</v>
+        <v>992</v>
       </c>
       <c r="F406" s="3" t="s">
-        <v>331</v>
+        <v>1229</v>
       </c>
       <c r="G406" s="3" t="s">
-        <v>1409</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="3" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B407" s="3" t="b">
         <v>1</v>
@@ -15034,18 +15695,18 @@
       </c>
       <c r="D407" s="3"/>
       <c r="E407" s="3" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F407" s="3" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="G407" s="3" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B408" s="3" t="b">
         <v>1</v>
@@ -15055,102 +15716,102 @@
       </c>
       <c r="D408" s="3"/>
       <c r="E408" s="3" t="s">
-        <v>683</v>
+        <v>8</v>
       </c>
       <c r="F408" s="3" t="s">
-        <v>682</v>
+        <v>331</v>
       </c>
       <c r="G408" s="3" t="s">
-        <v>1486</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="3" t="s">
-        <v>993</v>
+        <v>678</v>
       </c>
       <c r="B409" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C409" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D409" s="3"/>
       <c r="E409" s="3" t="s">
-        <v>993</v>
+        <v>680</v>
       </c>
       <c r="F409" s="3" t="s">
-        <v>1230</v>
+        <v>679</v>
       </c>
       <c r="G409" s="3" t="s">
-        <v>1654</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="3" t="s">
-        <v>994</v>
+        <v>681</v>
       </c>
       <c r="B410" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C410" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D410" s="3"/>
       <c r="E410" s="3" t="s">
-        <v>994</v>
+        <v>683</v>
       </c>
       <c r="F410" s="3" t="s">
-        <v>1231</v>
+        <v>682</v>
       </c>
       <c r="G410" s="3" t="s">
-        <v>1655</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="3" t="s">
-        <v>684</v>
+        <v>993</v>
       </c>
       <c r="B411" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C411" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D411" s="3"/>
       <c r="E411" s="3" t="s">
-        <v>686</v>
+        <v>993</v>
       </c>
       <c r="F411" s="3" t="s">
-        <v>685</v>
+        <v>1230</v>
       </c>
       <c r="G411" s="3" t="s">
-        <v>1487</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="3" t="s">
-        <v>687</v>
+        <v>994</v>
       </c>
       <c r="B412" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C412" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D412" s="3"/>
       <c r="E412" s="3" t="s">
-        <v>689</v>
+        <v>994</v>
       </c>
       <c r="F412" s="3" t="s">
-        <v>688</v>
+        <v>1231</v>
       </c>
       <c r="G412" s="3" t="s">
-        <v>1488</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="3" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="B413" s="3" t="b">
         <v>1</v>
@@ -15160,18 +15821,18 @@
       </c>
       <c r="D413" s="3"/>
       <c r="E413" s="3" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="F413" s="3" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="G413" s="3" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="3" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="B414" s="3" t="b">
         <v>1</v>
@@ -15181,81 +15842,81 @@
       </c>
       <c r="D414" s="3"/>
       <c r="E414" s="3" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F414" s="3" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G414" s="3" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="3" t="s">
-        <v>995</v>
+        <v>690</v>
       </c>
       <c r="B415" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C415" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D415" s="3"/>
       <c r="E415" s="3" t="s">
-        <v>995</v>
+        <v>692</v>
       </c>
       <c r="F415" s="3" t="s">
-        <v>1232</v>
+        <v>691</v>
       </c>
       <c r="G415" s="3" t="s">
-        <v>1656</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="3" t="s">
-        <v>996</v>
+        <v>693</v>
       </c>
       <c r="B416" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C416" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D416" s="3"/>
       <c r="E416" s="3" t="s">
-        <v>996</v>
+        <v>695</v>
       </c>
       <c r="F416" s="3" t="s">
-        <v>1233</v>
+        <v>694</v>
       </c>
       <c r="G416" s="3" t="s">
-        <v>1657</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="3" t="s">
-        <v>696</v>
+        <v>995</v>
       </c>
       <c r="B417" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C417" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D417" s="3"/>
       <c r="E417" s="3" t="s">
-        <v>698</v>
+        <v>995</v>
       </c>
       <c r="F417" s="3" t="s">
-        <v>697</v>
+        <v>1232</v>
       </c>
       <c r="G417" s="3" t="s">
-        <v>1491</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="3" t="s">
-        <v>1101</v>
+        <v>996</v>
       </c>
       <c r="B418" s="3" t="b">
         <v>0</v>
@@ -15265,60 +15926,60 @@
       </c>
       <c r="D418" s="3"/>
       <c r="E418" s="3" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F418" s="3" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="G418" s="3" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="3" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B419" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C419" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D419" s="3"/>
       <c r="E419" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F419" s="3" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="G419" s="3" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="3" t="s">
-        <v>701</v>
+        <v>1101</v>
       </c>
       <c r="B420" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C420" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D420" s="3"/>
       <c r="E420" s="3" t="s">
-        <v>703</v>
+        <v>997</v>
       </c>
       <c r="F420" s="3" t="s">
-        <v>702</v>
+        <v>1234</v>
       </c>
       <c r="G420" s="3" t="s">
-        <v>1493</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="3" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B421" s="3" t="b">
         <v>1</v>
@@ -15328,18 +15989,18 @@
       </c>
       <c r="D421" s="3"/>
       <c r="E421" s="3" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="F421" s="3" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="G421" s="3" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="3" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="B422" s="3" t="b">
         <v>1</v>
@@ -15349,18 +16010,18 @@
       </c>
       <c r="D422" s="3"/>
       <c r="E422" s="3" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="F422" s="3" t="s">
-        <v>1252</v>
+        <v>702</v>
       </c>
       <c r="G422" s="3" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="3" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="B423" s="3" t="b">
         <v>1</v>
@@ -15370,60 +16031,60 @@
       </c>
       <c r="D423" s="3"/>
       <c r="E423" s="3" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="F423" s="3" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="G423" s="3" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="3" t="s">
-        <v>998</v>
+        <v>707</v>
       </c>
       <c r="B424" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C424" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D424" s="3"/>
       <c r="E424" s="3" t="s">
-        <v>998</v>
+        <v>708</v>
       </c>
       <c r="F424" s="3" t="s">
-        <v>1235</v>
+        <v>1252</v>
       </c>
       <c r="G424" s="3" t="s">
-        <v>1659</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="3" t="s">
-        <v>1102</v>
+        <v>709</v>
       </c>
       <c r="B425" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C425" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D425" s="3"/>
       <c r="E425" s="3" t="s">
-        <v>999</v>
+        <v>711</v>
       </c>
       <c r="F425" s="3" t="s">
-        <v>1236</v>
+        <v>710</v>
       </c>
       <c r="G425" s="3" t="s">
-        <v>1660</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="3" t="s">
-        <v>1103</v>
+        <v>998</v>
       </c>
       <c r="B426" s="3" t="b">
         <v>0</v>
@@ -15433,18 +16094,18 @@
       </c>
       <c r="D426" s="3"/>
       <c r="E426" s="3" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="F426" s="3" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="G426" s="3" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="3" t="s">
-        <v>1009</v>
+        <v>1102</v>
       </c>
       <c r="B427" s="3" t="b">
         <v>0</v>
@@ -15454,60 +16115,60 @@
       </c>
       <c r="D427" s="3"/>
       <c r="E427" s="3" t="s">
-        <v>1009</v>
+        <v>999</v>
       </c>
       <c r="F427" s="3" t="s">
-        <v>1246</v>
+        <v>1236</v>
       </c>
       <c r="G427" s="3" t="s">
-        <v>1669</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="3" t="s">
-        <v>608</v>
+        <v>1103</v>
       </c>
       <c r="B428" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C428" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D428" s="3"/>
       <c r="E428" s="3" t="s">
-        <v>608</v>
+        <v>1000</v>
       </c>
       <c r="F428" s="3" t="s">
-        <v>712</v>
+        <v>1237</v>
       </c>
       <c r="G428" s="3" t="s">
-        <v>1460</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="3" t="s">
-        <v>713</v>
+        <v>1009</v>
       </c>
       <c r="B429" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C429" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D429" s="3"/>
       <c r="E429" s="3" t="s">
-        <v>23</v>
+        <v>1009</v>
       </c>
       <c r="F429" s="3" t="s">
-        <v>714</v>
+        <v>1246</v>
       </c>
       <c r="G429" s="3" t="s">
-        <v>1260</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="3" t="s">
-        <v>715</v>
+        <v>608</v>
       </c>
       <c r="B430" s="3" t="b">
         <v>1</v>
@@ -15517,18 +16178,18 @@
       </c>
       <c r="D430" s="3"/>
       <c r="E430" s="3" t="s">
-        <v>717</v>
+        <v>608</v>
       </c>
       <c r="F430" s="3" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="G430" s="3" t="s">
-        <v>1497</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="3" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="B431" s="3" t="b">
         <v>1</v>
@@ -15538,18 +16199,18 @@
       </c>
       <c r="D431" s="3"/>
       <c r="E431" s="3" t="s">
-        <v>720</v>
+        <v>23</v>
       </c>
       <c r="F431" s="3" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="G431" s="3" t="s">
-        <v>1498</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="3" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="B432" s="3" t="b">
         <v>1</v>
@@ -15559,18 +16220,18 @@
       </c>
       <c r="D432" s="3"/>
       <c r="E432" s="3" t="s">
-        <v>146</v>
+        <v>717</v>
       </c>
       <c r="F432" s="3" t="s">
-        <v>147</v>
+        <v>716</v>
       </c>
       <c r="G432" s="3" t="s">
-        <v>1302</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="3" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="B433" s="3" t="b">
         <v>1</v>
@@ -15580,18 +16241,18 @@
       </c>
       <c r="D433" s="3"/>
       <c r="E433" s="3" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="F433" s="3" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="G433" s="3" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="3" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B434" s="3" t="b">
         <v>1</v>
@@ -15601,18 +16262,18 @@
       </c>
       <c r="D434" s="3"/>
       <c r="E434" s="3" t="s">
-        <v>727</v>
+        <v>146</v>
       </c>
       <c r="F434" s="3" t="s">
-        <v>726</v>
+        <v>147</v>
       </c>
       <c r="G434" s="3" t="s">
-        <v>1500</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="3" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="B435" s="3" t="b">
         <v>1</v>
@@ -15622,81 +16283,81 @@
       </c>
       <c r="D435" s="3"/>
       <c r="E435" s="3" t="s">
-        <v>609</v>
+        <v>724</v>
       </c>
       <c r="F435" s="3" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="G435" s="3" t="s">
-        <v>1430</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="3" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="B436" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C436" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D436" s="3"/>
       <c r="E436" s="3" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="F436" s="3" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="G436" s="3" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="3" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="B437" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C437" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D437" s="3"/>
       <c r="E437" s="3" t="s">
-        <v>735</v>
+        <v>609</v>
       </c>
       <c r="F437" s="3" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="G437" s="3" t="s">
-        <v>1502</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="3" t="s">
-        <v>1104</v>
+        <v>730</v>
       </c>
       <c r="B438" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C438" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D438" s="3"/>
       <c r="E438" s="3" t="s">
-        <v>1001</v>
+        <v>732</v>
       </c>
       <c r="F438" s="3" t="s">
-        <v>1238</v>
+        <v>731</v>
       </c>
       <c r="G438" s="3" t="s">
-        <v>1690</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="3" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B439" s="3" t="b">
         <v>1</v>
@@ -15706,39 +16367,39 @@
       </c>
       <c r="D439" s="3"/>
       <c r="E439" s="3" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="F439" s="3" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="G439" s="3" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="3" t="s">
-        <v>739</v>
+        <v>1104</v>
       </c>
       <c r="B440" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C440" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D440" s="3"/>
       <c r="E440" s="3" t="s">
-        <v>741</v>
+        <v>1001</v>
       </c>
       <c r="F440" s="3" t="s">
-        <v>740</v>
+        <v>1238</v>
       </c>
       <c r="G440" s="3" t="s">
-        <v>1504</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="3" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="B441" s="3" t="b">
         <v>1</v>
@@ -15748,39 +16409,39 @@
       </c>
       <c r="D441" s="3"/>
       <c r="E441" s="3" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="F441" s="3" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="G441" s="3" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="3" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="B442" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C442" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D442" s="3"/>
       <c r="E442" s="3" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="F442" s="3" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="G442" s="3" t="s">
-        <v>1460</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="3" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B443" s="3" t="b">
         <v>1</v>
@@ -15790,39 +16451,39 @@
       </c>
       <c r="D443" s="3"/>
       <c r="E443" s="3" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="F443" s="3" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="G443" s="3" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="3" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="B444" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C444" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D444" s="3"/>
       <c r="E444" s="3" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="F444" s="3" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G444" s="3" t="s">
-        <v>1507</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="3" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="B445" s="3" t="b">
         <v>1</v>
@@ -15832,60 +16493,60 @@
       </c>
       <c r="D445" s="3"/>
       <c r="E445" s="3" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="F445" s="3" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="G445" s="3" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="3" t="s">
-        <v>524</v>
+        <v>750</v>
       </c>
       <c r="B446" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C446" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D446" s="3"/>
       <c r="E446" s="3" t="s">
-        <v>524</v>
+        <v>752</v>
       </c>
       <c r="F446" s="3" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="G446" s="3" t="s">
-        <v>1432</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="3" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="B447" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C447" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D447" s="3"/>
       <c r="E447" s="3" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="F447" s="3" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="G447" s="3" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="3" t="s">
-        <v>759</v>
+        <v>524</v>
       </c>
       <c r="B448" s="3" t="b">
         <v>1</v>
@@ -15895,60 +16556,60 @@
       </c>
       <c r="D448" s="3"/>
       <c r="E448" s="3" t="s">
-        <v>759</v>
+        <v>524</v>
       </c>
       <c r="F448" s="3" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="G448" s="3" t="s">
-        <v>1510</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="3" t="s">
-        <v>1105</v>
+        <v>756</v>
       </c>
       <c r="B449" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C449" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D449" s="3"/>
       <c r="E449" s="3" t="s">
-        <v>1002</v>
+        <v>758</v>
       </c>
       <c r="F449" s="3" t="s">
-        <v>1239</v>
+        <v>757</v>
       </c>
       <c r="G449" s="3" t="s">
-        <v>1662</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="3" t="s">
-        <v>1106</v>
+        <v>759</v>
       </c>
       <c r="B450" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C450" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D450" s="3"/>
       <c r="E450" s="3" t="s">
-        <v>1003</v>
+        <v>759</v>
       </c>
       <c r="F450" s="3" t="s">
-        <v>1240</v>
+        <v>760</v>
       </c>
       <c r="G450" s="3" t="s">
-        <v>1663</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="3" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="B451" s="3" t="b">
         <v>0</v>
@@ -15958,18 +16619,18 @@
       </c>
       <c r="D451" s="3"/>
       <c r="E451" s="3" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="F451" s="3" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="G451" s="3" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="3" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B452" s="3" t="b">
         <v>0</v>
@@ -15979,81 +16640,81 @@
       </c>
       <c r="D452" s="3"/>
       <c r="E452" s="3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="F452" s="3" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="G452" s="3" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="3" t="s">
-        <v>761</v>
+        <v>1107</v>
       </c>
       <c r="B453" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C453" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D453" s="3"/>
       <c r="E453" s="3" t="s">
-        <v>761</v>
+        <v>1004</v>
       </c>
       <c r="F453" s="3" t="s">
-        <v>762</v>
+        <v>1241</v>
       </c>
       <c r="G453" s="3" t="s">
-        <v>1511</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="3" t="s">
-        <v>763</v>
+        <v>1108</v>
       </c>
       <c r="B454" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C454" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D454" s="3"/>
       <c r="E454" s="3" t="s">
-        <v>765</v>
+        <v>1005</v>
       </c>
       <c r="F454" s="3" t="s">
-        <v>764</v>
+        <v>1242</v>
       </c>
       <c r="G454" s="3" t="s">
-        <v>1512</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="3" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="B455" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C455" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D455" s="3"/>
       <c r="E455" s="3" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="F455" s="3" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="G455" s="3" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="3" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="B456" s="3" t="b">
         <v>1</v>
@@ -16063,18 +16724,18 @@
       </c>
       <c r="D456" s="3"/>
       <c r="E456" s="3" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="F456" s="3" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="G456" s="3" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="3" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="B457" s="3" t="b">
         <v>1</v>
@@ -16084,18 +16745,18 @@
       </c>
       <c r="D457" s="3"/>
       <c r="E457" s="3" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="F457" s="3" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="G457" s="3" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="3" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="B458" s="3" t="b">
         <v>1</v>
@@ -16105,18 +16766,18 @@
       </c>
       <c r="D458" s="3"/>
       <c r="E458" s="3" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="F458" s="3" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="G458" s="3" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="3" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="B459" s="3" t="b">
         <v>1</v>
@@ -16126,18 +16787,18 @@
       </c>
       <c r="D459" s="3"/>
       <c r="E459" s="3" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="F459" s="3" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="G459" s="3" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="3" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="B460" s="3" t="b">
         <v>1</v>
@@ -16147,60 +16808,60 @@
       </c>
       <c r="D460" s="3"/>
       <c r="E460" s="3" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="F460" s="3" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="G460" s="3" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="3" t="s">
-        <v>1692</v>
+        <v>778</v>
       </c>
       <c r="B461" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C461" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D461" s="3"/>
       <c r="E461" s="3" t="s">
-        <v>1693</v>
+        <v>780</v>
       </c>
       <c r="F461" s="3" t="s">
-        <v>1694</v>
+        <v>779</v>
       </c>
       <c r="G461" s="3" t="s">
-        <v>1810</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="3" t="s">
-        <v>1695</v>
+        <v>781</v>
       </c>
       <c r="B462" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C462" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D462" s="3"/>
       <c r="E462" s="3" t="s">
-        <v>1697</v>
+        <v>783</v>
       </c>
       <c r="F462" s="3" t="s">
-        <v>1696</v>
+        <v>782</v>
       </c>
       <c r="G462" s="3" t="s">
-        <v>1811</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="3" t="s">
-        <v>1698</v>
+        <v>1692</v>
       </c>
       <c r="B463" s="3" t="b">
         <v>1</v>
@@ -16210,18 +16871,18 @@
       </c>
       <c r="D463" s="3"/>
       <c r="E463" s="3" t="s">
-        <v>666</v>
+        <v>1693</v>
       </c>
       <c r="F463" s="3" t="s">
-        <v>1724</v>
+        <v>1694</v>
       </c>
       <c r="G463" s="3" t="s">
-        <v>1481</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="3" t="s">
-        <v>1708</v>
+        <v>1695</v>
       </c>
       <c r="B464" s="3" t="b">
         <v>1</v>
@@ -16231,18 +16892,18 @@
       </c>
       <c r="D464" s="3"/>
       <c r="E464" s="3" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="F464" s="3" t="s">
-        <v>1185</v>
+        <v>1696</v>
       </c>
       <c r="G464" s="3" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="3" t="s">
-        <v>1709</v>
+        <v>1698</v>
       </c>
       <c r="B465" s="3" t="b">
         <v>1</v>
@@ -16252,18 +16913,18 @@
       </c>
       <c r="D465" s="3"/>
       <c r="E465" s="3" t="s">
-        <v>1700</v>
+        <v>666</v>
       </c>
       <c r="F465" s="3" t="s">
-        <v>1717</v>
+        <v>1724</v>
       </c>
       <c r="G465" s="3" t="s">
-        <v>1813</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="3" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="B466" s="3" t="b">
         <v>1</v>
@@ -16273,18 +16934,18 @@
       </c>
       <c r="D466" s="3"/>
       <c r="E466" s="3" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="F466" s="3" t="s">
-        <v>1725</v>
+        <v>1185</v>
       </c>
       <c r="G466" s="3" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="3" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="B467" s="3" t="b">
         <v>1</v>
@@ -16294,18 +16955,18 @@
       </c>
       <c r="D467" s="3"/>
       <c r="E467" s="3" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="F467" s="3" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="G467" s="3" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="3" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="B468" s="3" t="b">
         <v>1</v>
@@ -16315,18 +16976,18 @@
       </c>
       <c r="D468" s="3"/>
       <c r="E468" s="3" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="F468" s="3" t="s">
-        <v>1719</v>
+        <v>1725</v>
       </c>
       <c r="G468" s="3" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="3" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="B469" s="3" t="b">
         <v>1</v>
@@ -16336,18 +16997,18 @@
       </c>
       <c r="D469" s="3"/>
       <c r="E469" s="3" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="F469" s="3" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="G469" s="3" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="3" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="B470" s="3" t="b">
         <v>1</v>
@@ -16357,18 +17018,18 @@
       </c>
       <c r="D470" s="3"/>
       <c r="E470" s="3" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="F470" s="3" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="G470" s="3" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="3" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B471" s="3" t="b">
         <v>1</v>
@@ -16378,18 +17039,18 @@
       </c>
       <c r="D471" s="3"/>
       <c r="E471" s="3" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="F471" s="3" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="G471" s="3" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="3" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="B472" s="3" t="b">
         <v>1</v>
@@ -16399,18 +17060,18 @@
       </c>
       <c r="D472" s="3"/>
       <c r="E472" s="3" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="F472" s="3" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="G472" s="3" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="3" t="s">
-        <v>1726</v>
+        <v>1715</v>
       </c>
       <c r="B473" s="3" t="b">
         <v>1</v>
@@ -16420,18 +17081,18 @@
       </c>
       <c r="D473" s="3"/>
       <c r="E473" s="3" t="s">
-        <v>1727</v>
+        <v>1706</v>
       </c>
       <c r="F473" s="3" t="s">
-        <v>1728</v>
+        <v>1722</v>
       </c>
       <c r="G473" s="3" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="3" t="s">
-        <v>1729</v>
+        <v>1716</v>
       </c>
       <c r="B474" s="3" t="b">
         <v>1</v>
@@ -16441,18 +17102,18 @@
       </c>
       <c r="D474" s="3"/>
       <c r="E474" s="3" t="s">
-        <v>1731</v>
+        <v>1707</v>
       </c>
       <c r="F474" s="3" t="s">
-        <v>1730</v>
+        <v>1723</v>
       </c>
       <c r="G474" s="3" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="3" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
       <c r="B475" s="3" t="b">
         <v>1</v>
@@ -16462,18 +17123,18 @@
       </c>
       <c r="D475" s="3"/>
       <c r="E475" s="3" t="s">
-        <v>1735</v>
+        <v>1727</v>
       </c>
       <c r="F475" s="3" t="s">
-        <v>867</v>
+        <v>1728</v>
       </c>
       <c r="G475" s="3" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="3" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
       <c r="B476" s="3" t="b">
         <v>1</v>
@@ -16483,18 +17144,18 @@
       </c>
       <c r="D476" s="3"/>
       <c r="E476" s="3" t="s">
-        <v>1736</v>
+        <v>1731</v>
       </c>
       <c r="F476" s="3" t="s">
-        <v>869</v>
+        <v>1730</v>
       </c>
       <c r="G476" s="3" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="3" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="B477" s="3" t="b">
         <v>1</v>
@@ -16504,18 +17165,18 @@
       </c>
       <c r="D477" s="3"/>
       <c r="E477" s="3" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="F477" s="3" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="G477" s="3" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="3" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
       <c r="B478" s="3" t="b">
         <v>1</v>
@@ -16525,18 +17186,18 @@
       </c>
       <c r="D478" s="3"/>
       <c r="E478" s="3" t="s">
-        <v>1741</v>
+        <v>1736</v>
       </c>
       <c r="F478" s="3" t="s">
-        <v>1743</v>
+        <v>869</v>
       </c>
       <c r="G478" s="3" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="3" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
       <c r="B479" s="3" t="b">
         <v>1</v>
@@ -16546,18 +17207,18 @@
       </c>
       <c r="D479" s="3"/>
       <c r="E479" s="3" t="s">
-        <v>1742</v>
+        <v>1737</v>
       </c>
       <c r="F479" s="3" t="s">
-        <v>1744</v>
+        <v>871</v>
       </c>
       <c r="G479" s="3" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="3" t="s">
-        <v>1745</v>
+        <v>1739</v>
       </c>
       <c r="B480" s="3" t="b">
         <v>1</v>
@@ -16567,18 +17228,18 @@
       </c>
       <c r="D480" s="3"/>
       <c r="E480" s="3" t="s">
-        <v>1746</v>
+        <v>1741</v>
       </c>
       <c r="F480" s="3" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
       <c r="G480" s="3" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="3" t="s">
-        <v>1749</v>
+        <v>1740</v>
       </c>
       <c r="B481" s="3" t="b">
         <v>1</v>
@@ -16588,18 +17249,18 @@
       </c>
       <c r="D481" s="3"/>
       <c r="E481" s="3" t="s">
-        <v>1751</v>
+        <v>1742</v>
       </c>
       <c r="F481" s="3" t="s">
-        <v>1754</v>
+        <v>1744</v>
       </c>
       <c r="G481" s="3" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="3" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
       <c r="B482" s="3" t="b">
         <v>1</v>
@@ -16609,18 +17270,18 @@
       </c>
       <c r="D482" s="3"/>
       <c r="E482" s="3" t="s">
-        <v>1752</v>
+        <v>1746</v>
       </c>
       <c r="F482" s="3" t="s">
-        <v>1755</v>
+        <v>1747</v>
       </c>
       <c r="G482" s="3" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="3" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B483" s="3" t="b">
         <v>1</v>
@@ -16630,18 +17291,18 @@
       </c>
       <c r="D483" s="3"/>
       <c r="E483" s="3" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="F483" s="3" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="G483" s="3" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="3" t="s">
-        <v>1757</v>
+        <v>1748</v>
       </c>
       <c r="B484" s="3" t="b">
         <v>1</v>
@@ -16651,18 +17312,18 @@
       </c>
       <c r="D484" s="3"/>
       <c r="E484" s="3" t="s">
-        <v>1761</v>
+        <v>1752</v>
       </c>
       <c r="F484" s="3" t="s">
-        <v>1765</v>
+        <v>1755</v>
       </c>
       <c r="G484" s="3" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="3" t="s">
-        <v>1758</v>
+        <v>1750</v>
       </c>
       <c r="B485" s="3" t="b">
         <v>1</v>
@@ -16672,18 +17333,18 @@
       </c>
       <c r="D485" s="3"/>
       <c r="E485" s="3" t="s">
-        <v>1762</v>
+        <v>1753</v>
       </c>
       <c r="F485" s="3" t="s">
-        <v>1766</v>
+        <v>1756</v>
       </c>
       <c r="G485" s="3" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="3" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="B486" s="3" t="b">
         <v>1</v>
@@ -16693,18 +17354,18 @@
       </c>
       <c r="D486" s="3"/>
       <c r="E486" s="3" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="F486" s="3" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="G486" s="3" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="3" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="B487" s="3" t="b">
         <v>1</v>
@@ -16714,18 +17375,18 @@
       </c>
       <c r="D487" s="3"/>
       <c r="E487" s="3" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="F487" s="3" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="G487" s="3" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="3" t="s">
-        <v>1769</v>
+        <v>1759</v>
       </c>
       <c r="B488" s="3" t="b">
         <v>1</v>
@@ -16735,18 +17396,18 @@
       </c>
       <c r="D488" s="3"/>
       <c r="E488" s="3" t="s">
-        <v>1679</v>
+        <v>1763</v>
       </c>
       <c r="F488" s="3" t="s">
-        <v>1792</v>
+        <v>1767</v>
       </c>
       <c r="G488" s="3" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="3" t="s">
-        <v>1770</v>
+        <v>1760</v>
       </c>
       <c r="B489" s="3" t="b">
         <v>1</v>
@@ -16756,18 +17417,18 @@
       </c>
       <c r="D489" s="3"/>
       <c r="E489" s="3" t="s">
-        <v>1787</v>
+        <v>1764</v>
       </c>
       <c r="F489" s="3" t="s">
-        <v>1793</v>
+        <v>1768</v>
       </c>
       <c r="G489" s="3" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="3" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="B490" s="3" t="b">
         <v>1</v>
@@ -16777,18 +17438,18 @@
       </c>
       <c r="D490" s="3"/>
       <c r="E490" s="3" t="s">
-        <v>23</v>
+        <v>1679</v>
       </c>
       <c r="F490" s="3" t="s">
-        <v>714</v>
+        <v>1792</v>
       </c>
       <c r="G490" s="3" t="s">
-        <v>1260</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="3" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="B491" s="3" t="b">
         <v>1</v>
@@ -16798,18 +17459,18 @@
       </c>
       <c r="D491" s="3"/>
       <c r="E491" s="3" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="F491" s="3" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="G491" s="3" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="3" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="B492" s="3" t="b">
         <v>1</v>
@@ -16819,18 +17480,18 @@
       </c>
       <c r="D492" s="3"/>
       <c r="E492" s="3" t="s">
-        <v>1784</v>
+        <v>23</v>
       </c>
       <c r="F492" s="3" t="s">
-        <v>1795</v>
+        <v>714</v>
       </c>
       <c r="G492" s="3" t="s">
-        <v>1839</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="3" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="B493" s="3" t="b">
         <v>1</v>
@@ -16840,18 +17501,18 @@
       </c>
       <c r="D493" s="3"/>
       <c r="E493" s="3" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="F493" s="3" t="s">
-        <v>1804</v>
+        <v>1794</v>
       </c>
       <c r="G493" s="3" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="3" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="B494" s="3" t="b">
         <v>1</v>
@@ -16861,18 +17522,18 @@
       </c>
       <c r="D494" s="3"/>
       <c r="E494" s="3" t="s">
-        <v>1790</v>
+        <v>1784</v>
       </c>
       <c r="F494" s="3" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="G494" s="3" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="3" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="B495" s="3" t="b">
         <v>1</v>
@@ -16882,18 +17543,18 @@
       </c>
       <c r="D495" s="3"/>
       <c r="E495" s="3" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="F495" s="3" t="s">
-        <v>1797</v>
+        <v>1804</v>
       </c>
       <c r="G495" s="3" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="3" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="B496" s="3" t="b">
         <v>1</v>
@@ -16903,18 +17564,18 @@
       </c>
       <c r="D496" s="3"/>
       <c r="E496" s="3" t="s">
-        <v>443</v>
+        <v>1790</v>
       </c>
       <c r="F496" s="3" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="G496" s="3" t="s">
-        <v>1403</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="3" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="B497" s="3" t="b">
         <v>1</v>
@@ -16924,18 +17585,18 @@
       </c>
       <c r="D497" s="3"/>
       <c r="E497" s="3" t="s">
-        <v>458</v>
+        <v>1791</v>
       </c>
       <c r="F497" s="3" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="G497" s="3" t="s">
-        <v>1408</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="3" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="B498" s="3" t="b">
         <v>1</v>
@@ -16945,18 +17606,18 @@
       </c>
       <c r="D498" s="3"/>
       <c r="E498" s="3" t="s">
-        <v>1785</v>
+        <v>443</v>
       </c>
       <c r="F498" s="3" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="G498" s="3" t="s">
-        <v>1843</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" s="3" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="B499" s="3" t="b">
         <v>1</v>
@@ -16966,18 +17627,18 @@
       </c>
       <c r="D499" s="3"/>
       <c r="E499" s="3" t="s">
-        <v>1786</v>
+        <v>458</v>
       </c>
       <c r="F499" s="3" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="G499" s="3" t="s">
-        <v>1844</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="3" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="B500" s="3" t="b">
         <v>1</v>
@@ -16987,18 +17648,18 @@
       </c>
       <c r="D500" s="3"/>
       <c r="E500" s="3" t="s">
-        <v>449</v>
+        <v>1785</v>
       </c>
       <c r="F500" s="3" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="G500" s="3" t="s">
-        <v>1405</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="3" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="B501" s="3" t="b">
         <v>1</v>
@@ -17008,18 +17669,18 @@
       </c>
       <c r="D501" s="3"/>
       <c r="E501" s="3" t="s">
-        <v>437</v>
+        <v>1786</v>
       </c>
       <c r="F501" s="3" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="G501" s="3" t="s">
-        <v>1401</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" s="3" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="B502" s="3" t="b">
         <v>1</v>
@@ -17029,18 +17690,18 @@
       </c>
       <c r="D502" s="3"/>
       <c r="E502" s="3" t="s">
-        <v>683</v>
+        <v>449</v>
       </c>
       <c r="F502" s="3" t="s">
-        <v>682</v>
+        <v>1802</v>
       </c>
       <c r="G502" s="3" t="s">
-        <v>1486</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="3" t="s">
-        <v>842</v>
+        <v>1782</v>
       </c>
       <c r="B503" s="3" t="b">
         <v>1</v>
@@ -17050,18 +17711,18 @@
       </c>
       <c r="D503" s="3"/>
       <c r="E503" s="3" t="s">
-        <v>842</v>
+        <v>437</v>
       </c>
       <c r="F503" s="3" t="s">
-        <v>1807</v>
+        <v>1803</v>
       </c>
       <c r="G503" s="3" t="s">
-        <v>1536</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="3" t="s">
-        <v>1805</v>
+        <v>1783</v>
       </c>
       <c r="B504" s="3" t="b">
         <v>1</v>
@@ -17071,18 +17732,18 @@
       </c>
       <c r="D504" s="3"/>
       <c r="E504" s="3" t="s">
-        <v>1805</v>
+        <v>683</v>
       </c>
       <c r="F504" s="3" t="s">
-        <v>1806</v>
+        <v>682</v>
       </c>
       <c r="G504" s="3" t="s">
-        <v>1536</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="3" t="s">
-        <v>1808</v>
+        <v>842</v>
       </c>
       <c r="B505" s="3" t="b">
         <v>1</v>
@@ -17092,18 +17753,18 @@
       </c>
       <c r="D505" s="3"/>
       <c r="E505" s="3" t="s">
-        <v>830</v>
+        <v>842</v>
       </c>
       <c r="F505" s="3" t="s">
-        <v>829</v>
+        <v>1807</v>
       </c>
       <c r="G505" s="3" t="s">
-        <v>1532</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="3" t="s">
-        <v>1849</v>
+        <v>1805</v>
       </c>
       <c r="B506" s="3" t="b">
         <v>1</v>
@@ -17113,18 +17774,18 @@
       </c>
       <c r="D506" s="3"/>
       <c r="E506" s="3" t="s">
-        <v>1854</v>
+        <v>1805</v>
       </c>
       <c r="F506" s="3" t="s">
-        <v>1855</v>
+        <v>1806</v>
       </c>
       <c r="G506" s="3" t="s">
-        <v>1858</v>
-      </c>
-    </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A507" s="3" t="s">
-        <v>1850</v>
+        <v>2133</v>
       </c>
       <c r="B507" s="3" t="b">
         <v>1</v>
@@ -17132,20 +17793,19 @@
       <c r="C507" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D507" s="3"/>
       <c r="E507" s="3" t="s">
-        <v>1853</v>
+        <v>2135</v>
       </c>
       <c r="F507" s="3" t="s">
-        <v>1856</v>
+        <v>2137</v>
       </c>
       <c r="G507" s="3" t="s">
-        <v>1858</v>
-      </c>
-    </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A508" s="3" t="s">
-        <v>1851</v>
+        <v>2134</v>
       </c>
       <c r="B508" s="3" t="b">
         <v>1</v>
@@ -17153,41 +17813,40 @@
       <c r="C508" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D508" s="3"/>
       <c r="E508" s="3" t="s">
-        <v>1852</v>
+        <v>2136</v>
       </c>
       <c r="F508" s="3" t="s">
-        <v>1857</v>
+        <v>2138</v>
       </c>
       <c r="G508" s="3" t="s">
-        <v>1859</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="3" t="s">
-        <v>1860</v>
+        <v>1808</v>
       </c>
       <c r="B509" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C509" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D509" s="3"/>
       <c r="E509" s="3" t="s">
-        <v>1861</v>
+        <v>830</v>
       </c>
       <c r="F509" s="3" t="s">
-        <v>1862</v>
+        <v>829</v>
       </c>
       <c r="G509" s="3" t="s">
-        <v>1863</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="3" t="s">
-        <v>1864</v>
+        <v>1849</v>
       </c>
       <c r="B510" s="3" t="b">
         <v>1</v>
@@ -17197,81 +17856,81 @@
       </c>
       <c r="D510" s="3"/>
       <c r="E510" s="3" t="s">
-        <v>1865</v>
+        <v>1854</v>
       </c>
       <c r="F510" s="3" t="s">
-        <v>1866</v>
+        <v>1855</v>
       </c>
       <c r="G510" s="3" t="s">
-        <v>1867</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="3" t="s">
-        <v>1868</v>
+        <v>1850</v>
       </c>
       <c r="B511" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C511" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D511" s="3"/>
       <c r="E511" s="3" t="s">
-        <v>1868</v>
+        <v>1853</v>
       </c>
       <c r="F511" s="3" t="s">
-        <v>1869</v>
+        <v>1856</v>
       </c>
       <c r="G511" s="3" t="s">
-        <v>1870</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="3" t="s">
-        <v>1871</v>
+        <v>1851</v>
       </c>
       <c r="B512" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C512" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D512" s="3"/>
       <c r="E512" s="3" t="s">
-        <v>1872</v>
+        <v>1852</v>
       </c>
       <c r="F512" s="3" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
       <c r="G512" s="3" t="s">
-        <v>1874</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" s="3" t="s">
-        <v>1875</v>
+        <v>1860</v>
       </c>
       <c r="B513" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C513" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D513" s="3"/>
       <c r="E513" s="3" t="s">
-        <v>1876</v>
+        <v>1861</v>
       </c>
       <c r="F513" s="3" t="s">
-        <v>1877</v>
+        <v>1862</v>
       </c>
       <c r="G513" s="3" t="s">
-        <v>1878</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" s="3" t="s">
-        <v>1879</v>
+        <v>1864</v>
       </c>
       <c r="B514" s="3" t="b">
         <v>1</v>
@@ -17281,39 +17940,39 @@
       </c>
       <c r="D514" s="3"/>
       <c r="E514" s="3" t="s">
-        <v>1880</v>
+        <v>1865</v>
       </c>
       <c r="F514" s="3" t="s">
-        <v>1881</v>
+        <v>1866</v>
       </c>
       <c r="G514" s="3" t="s">
-        <v>1882</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="3" t="s">
-        <v>1883</v>
+        <v>1868</v>
       </c>
       <c r="B515" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C515" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D515" s="3"/>
       <c r="E515" s="3" t="s">
-        <v>1884</v>
+        <v>1868</v>
       </c>
       <c r="F515" s="3" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="G515" s="3" t="s">
-        <v>1886</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A516" s="4" t="s">
-        <v>1891</v>
+      <c r="A516" s="3" t="s">
+        <v>1871</v>
       </c>
       <c r="B516" s="3" t="b">
         <v>0</v>
@@ -17323,164 +17982,164 @@
       </c>
       <c r="D516" s="3"/>
       <c r="E516" s="3" t="s">
-        <v>1892</v>
+        <v>1872</v>
       </c>
       <c r="F516" s="3" t="s">
-        <v>1893</v>
+        <v>1873</v>
       </c>
       <c r="G516" s="3" t="s">
-        <v>1894</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" s="3" t="s">
-        <v>1887</v>
+        <v>1875</v>
       </c>
       <c r="B517" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C517" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D517" s="3"/>
       <c r="E517" s="3" t="s">
-        <v>1888</v>
+        <v>1876</v>
       </c>
       <c r="F517" s="3" t="s">
-        <v>1889</v>
+        <v>1877</v>
       </c>
       <c r="G517" s="3" t="s">
-        <v>1890</v>
-      </c>
-    </row>
-    <row r="518" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" s="3" t="s">
-        <v>1895</v>
+        <v>1879</v>
       </c>
       <c r="B518" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C518" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D518" s="3"/>
       <c r="E518" s="3" t="s">
-        <v>1896</v>
+        <v>1880</v>
       </c>
       <c r="F518" s="3" t="s">
-        <v>1897</v>
+        <v>1881</v>
       </c>
       <c r="G518" s="3" t="s">
-        <v>1901</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" s="3" t="s">
-        <v>1898</v>
+        <v>1883</v>
       </c>
       <c r="B519" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C519" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D519" s="3"/>
       <c r="E519" s="3" t="s">
-        <v>1899</v>
+        <v>1884</v>
       </c>
       <c r="F519" s="3" t="s">
-        <v>1900</v>
+        <v>1885</v>
       </c>
       <c r="G519" s="3" t="s">
-        <v>1902</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A520" s="3" t="s">
-        <v>1679</v>
+      <c r="A520" s="4" t="s">
+        <v>1891</v>
       </c>
       <c r="B520" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C520" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D520" s="3"/>
       <c r="E520" s="3" t="s">
-        <v>1679</v>
+        <v>1892</v>
       </c>
       <c r="F520" s="3" t="s">
-        <v>1912</v>
+        <v>1893</v>
       </c>
       <c r="G520" s="3" t="s">
-        <v>1836</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" s="3" t="s">
-        <v>1908</v>
+        <v>1887</v>
       </c>
       <c r="B521" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C521" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D521" s="3"/>
       <c r="E521" s="3" t="s">
-        <v>1908</v>
+        <v>1888</v>
       </c>
       <c r="F521" s="3" t="s">
-        <v>1913</v>
+        <v>1889</v>
       </c>
       <c r="G521" s="3" t="s">
-        <v>1917</v>
-      </c>
-    </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A522" s="3" t="s">
-        <v>1922</v>
+        <v>1895</v>
       </c>
       <c r="B522" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C522" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D522" s="3"/>
+        <v>0</v>
+      </c>
       <c r="E522" s="3" t="s">
-        <v>1924</v>
+        <v>1896</v>
       </c>
       <c r="F522" s="3" t="s">
-        <v>1925</v>
+        <v>1897</v>
       </c>
       <c r="G522" s="3" t="s">
-        <v>1927</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" s="3" t="s">
-        <v>1923</v>
+        <v>1898</v>
       </c>
       <c r="B523" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C523" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D523" s="3"/>
       <c r="E523" s="3" t="s">
-        <v>842</v>
+        <v>1899</v>
       </c>
       <c r="F523" s="3" t="s">
-        <v>454</v>
+        <v>1900</v>
       </c>
       <c r="G523" s="3" t="s">
-        <v>1536</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" s="3" t="s">
-        <v>1904</v>
+        <v>1679</v>
       </c>
       <c r="B524" s="3" t="b">
         <v>1</v>
@@ -17490,18 +18149,18 @@
       </c>
       <c r="D524" s="3"/>
       <c r="E524" s="3" t="s">
-        <v>1909</v>
+        <v>1679</v>
       </c>
       <c r="F524" s="3" t="s">
-        <v>1916</v>
+        <v>1912</v>
       </c>
       <c r="G524" s="3" t="s">
-        <v>1918</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" s="3" t="s">
-        <v>1903</v>
+        <v>1908</v>
       </c>
       <c r="B525" s="3" t="b">
         <v>1</v>
@@ -17511,18 +18170,18 @@
       </c>
       <c r="D525" s="3"/>
       <c r="E525" s="3" t="s">
-        <v>1788</v>
+        <v>1908</v>
       </c>
       <c r="F525" s="3" t="s">
-        <v>1794</v>
+        <v>1913</v>
       </c>
       <c r="G525" s="3" t="s">
-        <v>1838</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" s="3" t="s">
-        <v>1905</v>
+        <v>1922</v>
       </c>
       <c r="B526" s="3" t="b">
         <v>1</v>
@@ -17532,18 +18191,18 @@
       </c>
       <c r="D526" s="3"/>
       <c r="E526" s="3" t="s">
-        <v>1910</v>
+        <v>1924</v>
       </c>
       <c r="F526" s="3" t="s">
-        <v>1914</v>
+        <v>1925</v>
       </c>
       <c r="G526" s="3" t="s">
-        <v>1919</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" s="3" t="s">
-        <v>1906</v>
+        <v>1923</v>
       </c>
       <c r="B527" s="3" t="b">
         <v>1</v>
@@ -17553,18 +18212,18 @@
       </c>
       <c r="D527" s="3"/>
       <c r="E527" s="3" t="s">
-        <v>1784</v>
+        <v>842</v>
       </c>
       <c r="F527" s="3" t="s">
-        <v>1795</v>
+        <v>454</v>
       </c>
       <c r="G527" s="3" t="s">
-        <v>1839</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" s="3" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="B528" s="3" t="b">
         <v>1</v>
@@ -17574,18 +18233,18 @@
       </c>
       <c r="D528" s="3"/>
       <c r="E528" s="3" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="F528" s="3" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="G528" s="3" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" s="3" t="s">
-        <v>1921</v>
+        <v>1903</v>
       </c>
       <c r="B529" s="3" t="b">
         <v>1</v>
@@ -17595,18 +18254,18 @@
       </c>
       <c r="D529" s="3"/>
       <c r="E529" s="3" t="s">
-        <v>1852</v>
+        <v>1788</v>
       </c>
       <c r="F529" s="3" t="s">
-        <v>1857</v>
+        <v>1794</v>
       </c>
       <c r="G529" s="3" t="s">
-        <v>1859</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" s="3" t="s">
-        <v>1926</v>
+        <v>1905</v>
       </c>
       <c r="B530" s="3" t="b">
         <v>1</v>
@@ -17616,18 +18275,18 @@
       </c>
       <c r="D530" s="3"/>
       <c r="E530" s="3" t="s">
-        <v>1924</v>
+        <v>1910</v>
       </c>
       <c r="F530" s="3" t="s">
-        <v>1925</v>
+        <v>1914</v>
       </c>
       <c r="G530" s="3" t="s">
-        <v>1927</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" s="3" t="s">
-        <v>1928</v>
+        <v>1906</v>
       </c>
       <c r="B531" s="3" t="b">
         <v>1</v>
@@ -17637,18 +18296,18 @@
       </c>
       <c r="D531" s="3"/>
       <c r="E531" s="3" t="s">
-        <v>1931</v>
+        <v>1784</v>
       </c>
       <c r="F531" s="3" t="s">
-        <v>1929</v>
+        <v>1795</v>
       </c>
       <c r="G531" s="3" t="s">
-        <v>1945</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" s="3" t="s">
-        <v>1933</v>
+        <v>1907</v>
       </c>
       <c r="B532" s="3" t="b">
         <v>1</v>
@@ -17658,18 +18317,18 @@
       </c>
       <c r="D532" s="3"/>
       <c r="E532" s="3" t="s">
-        <v>1932</v>
+        <v>1911</v>
       </c>
       <c r="F532" s="3" t="s">
-        <v>1930</v>
+        <v>1915</v>
       </c>
       <c r="G532" s="3" t="s">
-        <v>1946</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" s="3" t="s">
-        <v>1934</v>
+        <v>1921</v>
       </c>
       <c r="B533" s="3" t="b">
         <v>1</v>
@@ -17679,18 +18338,18 @@
       </c>
       <c r="D533" s="3"/>
       <c r="E533" s="3" t="s">
-        <v>1937</v>
+        <v>1852</v>
       </c>
       <c r="F533" s="3" t="s">
-        <v>1940</v>
+        <v>1857</v>
       </c>
       <c r="G533" s="3" t="s">
-        <v>1947</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" s="3" t="s">
-        <v>1935</v>
+        <v>1926</v>
       </c>
       <c r="B534" s="3" t="b">
         <v>1</v>
@@ -17700,18 +18359,18 @@
       </c>
       <c r="D534" s="3"/>
       <c r="E534" s="3" t="s">
-        <v>1941</v>
+        <v>1924</v>
       </c>
       <c r="F534" s="3" t="s">
-        <v>1939</v>
+        <v>1925</v>
       </c>
       <c r="G534" s="3" t="s">
-        <v>1948</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" s="3" t="s">
-        <v>1936</v>
+        <v>1928</v>
       </c>
       <c r="B535" s="3" t="b">
         <v>1</v>
@@ -17721,18 +18380,18 @@
       </c>
       <c r="D535" s="3"/>
       <c r="E535" s="3" t="s">
-        <v>1942</v>
+        <v>1931</v>
       </c>
       <c r="F535" s="3" t="s">
-        <v>1938</v>
+        <v>1929</v>
       </c>
       <c r="G535" s="3" t="s">
-        <v>1949</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" s="3" t="s">
-        <v>1960</v>
+        <v>1933</v>
       </c>
       <c r="B536" s="3" t="b">
         <v>1</v>
@@ -17742,18 +18401,18 @@
       </c>
       <c r="D536" s="3"/>
       <c r="E536" s="3" t="s">
-        <v>1943</v>
+        <v>1932</v>
       </c>
       <c r="F536" s="3" t="s">
-        <v>1944</v>
+        <v>1930</v>
       </c>
       <c r="G536" s="3" t="s">
-        <v>1950</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" s="3" t="s">
-        <v>1951</v>
+        <v>1934</v>
       </c>
       <c r="B537" s="3" t="b">
         <v>1</v>
@@ -17763,18 +18422,18 @@
       </c>
       <c r="D537" s="3"/>
       <c r="E537" s="3" t="s">
-        <v>666</v>
+        <v>1937</v>
       </c>
       <c r="F537" s="3" t="s">
-        <v>667</v>
+        <v>1940</v>
       </c>
       <c r="G537" s="3" t="s">
-        <v>1481</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" s="3" t="s">
-        <v>1952</v>
+        <v>1935</v>
       </c>
       <c r="B538" s="3" t="b">
         <v>1</v>
@@ -17784,18 +18443,18 @@
       </c>
       <c r="D538" s="3"/>
       <c r="E538" s="3" t="s">
-        <v>1699</v>
+        <v>1941</v>
       </c>
       <c r="F538" s="3" t="s">
-        <v>1185</v>
+        <v>1939</v>
       </c>
       <c r="G538" s="3" t="s">
-        <v>1812</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" s="3" t="s">
-        <v>1953</v>
+        <v>1936</v>
       </c>
       <c r="B539" s="3" t="b">
         <v>1</v>
@@ -17805,18 +18464,18 @@
       </c>
       <c r="D539" s="3"/>
       <c r="E539" s="3" t="s">
-        <v>1955</v>
+        <v>1942</v>
       </c>
       <c r="F539" s="3" t="s">
-        <v>1957</v>
+        <v>1938</v>
       </c>
       <c r="G539" s="3" t="s">
-        <v>1958</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" s="3" t="s">
-        <v>1954</v>
+        <v>1960</v>
       </c>
       <c r="B540" s="3" t="b">
         <v>1</v>
@@ -17826,264 +18485,268 @@
       </c>
       <c r="D540" s="3"/>
       <c r="E540" s="3" t="s">
+        <v>1943</v>
+      </c>
+      <c r="F540" s="3" t="s">
+        <v>1944</v>
+      </c>
+      <c r="G540" s="3" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A541" s="3" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B541" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C541" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D541" s="3"/>
+      <c r="E541" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F541" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="G541" s="3" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A542" s="3" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B542" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C542" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D542" s="3"/>
+      <c r="E542" s="3" t="s">
+        <v>1699</v>
+      </c>
+      <c r="F542" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="G542" s="3" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A543" s="3" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B543" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C543" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D543" s="3"/>
+      <c r="E543" s="3" t="s">
+        <v>1955</v>
+      </c>
+      <c r="F543" s="3" t="s">
+        <v>1957</v>
+      </c>
+      <c r="G543" s="3" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A544" s="3" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B544" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C544" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D544" s="3"/>
+      <c r="E544" s="3" t="s">
         <v>1956</v>
       </c>
-      <c r="F540" s="3" t="s">
+      <c r="F544" s="3" t="s">
         <v>1857</v>
       </c>
-      <c r="G540" s="3" t="s">
+      <c r="G544" s="3" t="s">
         <v>1959</v>
       </c>
     </row>
-    <row r="541" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A541" s="3" t="s">
+    <row r="545" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A545" s="3" t="s">
         <v>1963</v>
       </c>
-      <c r="B541" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C541" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E541" s="3" t="s">
+      <c r="B545" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C545" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E545" s="3" t="s">
         <v>1961</v>
       </c>
-      <c r="F541" s="3" t="s">
+      <c r="F545" s="3" t="s">
         <v>1964</v>
       </c>
-      <c r="G541" s="3" t="s">
+      <c r="G545" s="3" t="s">
         <v>1962</v>
-      </c>
-    </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A542" t="s">
-        <v>1965</v>
-      </c>
-      <c r="B542" t="b">
-        <v>1</v>
-      </c>
-      <c r="C542" t="b">
-        <v>1</v>
-      </c>
-      <c r="E542" s="3" t="s">
-        <v>1965</v>
-      </c>
-      <c r="F542" t="s">
-        <v>1968</v>
-      </c>
-      <c r="G542" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A543" t="s">
-        <v>1966</v>
-      </c>
-      <c r="B543" t="b">
-        <v>1</v>
-      </c>
-      <c r="C543" t="b">
-        <v>1</v>
-      </c>
-      <c r="E543" s="3" t="s">
-        <v>1967</v>
-      </c>
-      <c r="F543" t="s">
-        <v>1969</v>
-      </c>
-      <c r="G543" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A544" t="s">
-        <v>1972</v>
-      </c>
-      <c r="B544" t="b">
-        <v>1</v>
-      </c>
-      <c r="C544" t="b">
-        <v>0</v>
-      </c>
-      <c r="D544" t="s">
-        <v>1975</v>
-      </c>
-      <c r="E544" s="3" t="s">
-        <v>1973</v>
-      </c>
-      <c r="F544" t="s">
-        <v>1974</v>
-      </c>
-      <c r="G544" s="3" t="s">
-        <v>1974</v>
-      </c>
-    </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A545" s="3" t="s">
-        <v>1972</v>
-      </c>
-      <c r="B545" t="b">
-        <v>0</v>
-      </c>
-      <c r="C545" t="b">
-        <v>1</v>
-      </c>
-      <c r="D545" s="3" t="s">
-        <v>1975</v>
-      </c>
-      <c r="E545" s="3" t="s">
-        <v>1976</v>
-      </c>
-      <c r="F545" s="3" t="s">
-        <v>1977</v>
-      </c>
-      <c r="G545" s="3" t="s">
-        <v>1977</v>
       </c>
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>1978</v>
+        <v>1965</v>
       </c>
       <c r="B546" t="b">
         <v>1</v>
       </c>
-      <c r="C546" s="3" t="b">
+      <c r="C546" t="b">
         <v>1</v>
       </c>
       <c r="E546" s="3" t="s">
-        <v>1984</v>
+        <v>1965</v>
       </c>
       <c r="F546" t="s">
-        <v>1989</v>
+        <v>1968</v>
       </c>
       <c r="G546" t="s">
-        <v>1994</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>1979</v>
-      </c>
-      <c r="B547" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C547" s="3" t="b">
+        <v>1966</v>
+      </c>
+      <c r="B547" t="b">
+        <v>1</v>
+      </c>
+      <c r="C547" t="b">
         <v>1</v>
       </c>
       <c r="E547" s="3" t="s">
-        <v>1985</v>
+        <v>1967</v>
       </c>
       <c r="F547" t="s">
-        <v>1990</v>
+        <v>1969</v>
       </c>
       <c r="G547" t="s">
-        <v>1995</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A548" s="3" t="s">
-        <v>1980</v>
-      </c>
-      <c r="B548" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C548" s="3" t="b">
-        <v>1</v>
+      <c r="A548" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B548" t="b">
+        <v>1</v>
+      </c>
+      <c r="C548" t="b">
+        <v>0</v>
+      </c>
+      <c r="D548" t="s">
+        <v>1975</v>
       </c>
       <c r="E548" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="F548" t="s">
-        <v>436</v>
-      </c>
-      <c r="G548" t="s">
-        <v>1401</v>
+        <v>1973</v>
+      </c>
+      <c r="F548" s="6" t="s">
+        <v>1974</v>
+      </c>
+      <c r="G548" s="3" t="s">
+        <v>1974</v>
       </c>
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" s="3" t="s">
-        <v>1981</v>
-      </c>
-      <c r="B549" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C549" s="3" t="b">
-        <v>1</v>
+        <v>1972</v>
+      </c>
+      <c r="B549" t="b">
+        <v>0</v>
+      </c>
+      <c r="C549" t="b">
+        <v>1</v>
+      </c>
+      <c r="D549" s="3" t="s">
+        <v>1975</v>
       </c>
       <c r="E549" s="3" t="s">
-        <v>1986</v>
-      </c>
-      <c r="F549" t="s">
+        <v>1976</v>
+      </c>
+      <c r="F549" s="6" t="s">
+        <v>1977</v>
+      </c>
+      <c r="G549" s="3" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B550" t="b">
+        <v>0</v>
+      </c>
+      <c r="C550" t="b">
+        <v>1</v>
+      </c>
+      <c r="E550" t="s">
         <v>1993</v>
       </c>
-      <c r="G549" t="s">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A550" s="3" t="s">
-        <v>1982</v>
-      </c>
-      <c r="B550" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C550" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E550" t="s">
-        <v>1987</v>
-      </c>
-      <c r="F550" t="s">
+      <c r="F550" s="6" t="s">
         <v>1991</v>
       </c>
-      <c r="G550" t="s">
-        <v>1997</v>
+      <c r="G550" s="3" t="s">
+        <v>1992</v>
       </c>
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A551" s="3" t="s">
-        <v>1983</v>
-      </c>
-      <c r="B551" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C551" s="3" t="b">
+      <c r="A551" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B551" t="b">
+        <v>0</v>
+      </c>
+      <c r="C551" t="b">
         <v>1</v>
       </c>
       <c r="E551" t="s">
-        <v>1988</v>
+        <v>2002</v>
       </c>
       <c r="F551" t="s">
-        <v>1992</v>
-      </c>
-      <c r="G551" t="s">
-        <v>1998</v>
+        <v>2003</v>
+      </c>
+      <c r="G551" s="3" t="s">
+        <v>2004</v>
       </c>
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>1999</v>
-      </c>
-      <c r="B552" t="b">
-        <v>0</v>
-      </c>
-      <c r="C552" t="b">
+        <v>1994</v>
+      </c>
+      <c r="B552" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C552" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E552" t="s">
-        <v>2002</v>
+        <v>1995</v>
       </c>
       <c r="F552" t="s">
-        <v>2000</v>
-      </c>
-      <c r="G552" s="3" t="s">
-        <v>2001</v>
+        <v>1997</v>
+      </c>
+      <c r="G552" t="s">
+        <v>1996</v>
       </c>
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>2011</v>
+        <v>1998</v>
       </c>
       <c r="B553" t="b">
         <v>0</v>
@@ -18092,57 +18755,1357 @@
         <v>1</v>
       </c>
       <c r="E553" t="s">
-        <v>2011</v>
+        <v>1999</v>
       </c>
       <c r="F553" t="s">
-        <v>2012</v>
-      </c>
-      <c r="G553" s="3" t="s">
-        <v>2013</v>
+        <v>2000</v>
+      </c>
+      <c r="G553" t="s">
+        <v>2001</v>
       </c>
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B554" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C554" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E554" t="s">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="F554" t="s">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="G554" t="s">
-        <v>2005</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>2007</v>
-      </c>
-      <c r="B555" t="b">
-        <v>0</v>
-      </c>
-      <c r="C555" t="b">
+        <v>2006</v>
+      </c>
+      <c r="B555" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C555" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E555" t="s">
         <v>2008</v>
       </c>
       <c r="F555" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="G555" t="s">
-        <v>2010</v>
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>45</v>
+      </c>
+      <c r="B556" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C556" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E556" t="s">
+        <v>45</v>
+      </c>
+      <c r="F556" t="s">
+        <v>118</v>
+      </c>
+      <c r="G556" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B557" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C557" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E557" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F557" t="s">
+        <v>1925</v>
+      </c>
+      <c r="G557" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B558" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C558" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E558" t="s">
+        <v>2020</v>
+      </c>
+      <c r="F558" t="s">
+        <v>2025</v>
+      </c>
+      <c r="G558" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B559" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C559" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E559" t="s">
+        <v>2021</v>
+      </c>
+      <c r="F559" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G559" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B560" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C560" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E560" t="s">
+        <v>2002</v>
+      </c>
+      <c r="F560" t="s">
+        <v>2027</v>
+      </c>
+      <c r="G560" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B561" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C561" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E561" t="s">
+        <v>2022</v>
+      </c>
+      <c r="F561" t="s">
+        <v>2028</v>
+      </c>
+      <c r="G561" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B562" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C562" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E562" t="s">
+        <v>2215</v>
+      </c>
+      <c r="F562" t="s">
+        <v>2221</v>
+      </c>
+      <c r="G562" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="563" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A563" s="3" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B563" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C563" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E563" s="3" t="s">
+        <v>2216</v>
+      </c>
+      <c r="F563" s="3" t="s">
+        <v>2222</v>
+      </c>
+      <c r="G563" s="3" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="564" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A564" s="3" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B564" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C564" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E564" s="3" t="s">
+        <v>2217</v>
+      </c>
+      <c r="F564" s="3" t="s">
+        <v>2223</v>
+      </c>
+      <c r="G564" s="3" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="565" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A565" s="3" t="s">
+        <v>2171</v>
+      </c>
+      <c r="B565" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C565" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E565" s="3" t="s">
+        <v>2218</v>
+      </c>
+      <c r="F565" s="3" t="s">
+        <v>2224</v>
+      </c>
+      <c r="G565" s="3" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B566" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C566" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E566" t="s">
+        <v>2214</v>
+      </c>
+      <c r="F566" t="s">
+        <v>2225</v>
+      </c>
+      <c r="G566" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="567" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A567" s="3" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B567" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C567" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E567" s="3" t="s">
+        <v>2213</v>
+      </c>
+      <c r="F567" s="3" t="s">
+        <v>2226</v>
+      </c>
+      <c r="G567" s="3" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="568" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A568" s="3" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B568" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C568" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E568" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F568" s="3" t="s">
+        <v>2227</v>
+      </c>
+      <c r="G568" s="3" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="569" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A569" s="3" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B569" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C569" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E569" s="3" t="s">
+        <v>2211</v>
+      </c>
+      <c r="F569" s="3" t="s">
+        <v>2228</v>
+      </c>
+      <c r="G569" s="3" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B570" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C570" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E570" t="s">
+        <v>2023</v>
+      </c>
+      <c r="F570" t="s">
+        <v>2030</v>
+      </c>
+      <c r="G570" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="571" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A571" s="3" t="s">
+        <v>2175</v>
+      </c>
+      <c r="B571" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C571" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E571" s="3" t="s">
+        <v>2183</v>
+      </c>
+      <c r="F571" s="3" t="s">
+        <v>2189</v>
+      </c>
+      <c r="G571" s="3" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="572" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A572" s="3" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B572" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C572" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E572" s="3" t="s">
+        <v>2219</v>
+      </c>
+      <c r="F572" s="3" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G572" s="3" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="573" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A573" s="3" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B573" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C573" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E573" s="3" t="s">
+        <v>2220</v>
+      </c>
+      <c r="F573" s="3" t="s">
+        <v>2190</v>
+      </c>
+      <c r="G573" s="3" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B574" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C574" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E574" t="s">
+        <v>2024</v>
+      </c>
+      <c r="F574" t="s">
+        <v>2029</v>
+      </c>
+      <c r="G574" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="575" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A575" s="3" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B575" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C575" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E575" s="3" t="s">
+        <v>2184</v>
+      </c>
+      <c r="F575" s="3" t="s">
+        <v>2192</v>
+      </c>
+      <c r="G575" s="3" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="576" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A576" s="3" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B576" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C576" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E576" s="3" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F576" s="3" t="s">
+        <v>2193</v>
+      </c>
+      <c r="G576" s="3" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="577" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A577" s="3" t="s">
+        <v>2180</v>
+      </c>
+      <c r="B577" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C577" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E577" s="3" t="s">
+        <v>2186</v>
+      </c>
+      <c r="F577" s="3" t="s">
+        <v>2210</v>
+      </c>
+      <c r="G577" s="3" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="578" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A578" s="3" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B578" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C578" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E578" s="3" t="s">
+        <v>2187</v>
+      </c>
+      <c r="F578" s="3" t="s">
+        <v>2194</v>
+      </c>
+      <c r="G578" s="3" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="579" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A579" s="3" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B579" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C579" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E579" s="3" t="s">
+        <v>2188</v>
+      </c>
+      <c r="F579" s="3" t="s">
+        <v>2195</v>
+      </c>
+      <c r="G579" s="3" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="580" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A580" s="3" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B580" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C580" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E580" s="3" t="s">
+        <v>2231</v>
+      </c>
+      <c r="F580" s="3" t="s">
+        <v>2232</v>
+      </c>
+      <c r="G580" s="3" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B581" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C581" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E581" t="s">
+        <v>2044</v>
+      </c>
+      <c r="F581" t="s">
+        <v>2078</v>
+      </c>
+      <c r="G581" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B582" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C582" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E582" t="s">
+        <v>2048</v>
+      </c>
+      <c r="F582" t="s">
+        <v>2079</v>
+      </c>
+      <c r="G582" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B583" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C583" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E583" t="s">
+        <v>2127</v>
+      </c>
+      <c r="F583" t="s">
+        <v>2128</v>
+      </c>
+      <c r="G583" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>332</v>
+      </c>
+      <c r="B584" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C584" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E584" t="s">
+        <v>332</v>
+      </c>
+      <c r="F584" t="s">
+        <v>331</v>
+      </c>
+      <c r="G584" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B585" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C585" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E585" t="s">
+        <v>2049</v>
+      </c>
+      <c r="F585" t="s">
+        <v>2080</v>
+      </c>
+      <c r="G585" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B586" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C586" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E586" t="s">
+        <v>2050</v>
+      </c>
+      <c r="F586" t="s">
+        <v>2081</v>
+      </c>
+      <c r="G586" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B587" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C587" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E587" t="s">
+        <v>2051</v>
+      </c>
+      <c r="F587" t="s">
+        <v>2082</v>
+      </c>
+      <c r="G587" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B588" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C588" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E588" t="s">
+        <v>2052</v>
+      </c>
+      <c r="F588" t="s">
+        <v>2083</v>
+      </c>
+      <c r="G588" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B589" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C589" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E589" t="s">
+        <v>2053</v>
+      </c>
+      <c r="F589" t="s">
+        <v>2084</v>
+      </c>
+      <c r="G589" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B590" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C590" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E590" t="s">
+        <v>920</v>
+      </c>
+      <c r="F590" t="s">
+        <v>2085</v>
+      </c>
+      <c r="G590" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B591" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C591" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E591" t="s">
+        <v>2045</v>
+      </c>
+      <c r="F591" t="s">
+        <v>2086</v>
+      </c>
+      <c r="G591" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B592" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C592" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E592" t="s">
+        <v>2054</v>
+      </c>
+      <c r="F592" t="s">
+        <v>2087</v>
+      </c>
+      <c r="G592" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B593" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C593" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E593" t="s">
+        <v>2046</v>
+      </c>
+      <c r="F593" t="s">
+        <v>2229</v>
+      </c>
+      <c r="G593" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B594" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C594" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E594" t="s">
+        <v>2047</v>
+      </c>
+      <c r="F594" t="s">
+        <v>2088</v>
+      </c>
+      <c r="G594" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B595" t="b">
+        <v>1</v>
+      </c>
+      <c r="C595" t="b">
+        <v>1</v>
+      </c>
+      <c r="E595" t="s">
+        <v>0</v>
+      </c>
+      <c r="F595" t="s">
+        <v>1247</v>
+      </c>
+      <c r="G595" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B596" t="b">
+        <v>1</v>
+      </c>
+      <c r="C596" t="b">
+        <v>1</v>
+      </c>
+      <c r="E596" t="s">
+        <v>2056</v>
+      </c>
+      <c r="F596" t="s">
+        <v>2089</v>
+      </c>
+      <c r="G596" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B597" t="b">
+        <v>1</v>
+      </c>
+      <c r="C597" t="b">
+        <v>1</v>
+      </c>
+      <c r="E597" t="s">
+        <v>2058</v>
+      </c>
+      <c r="F597" t="s">
+        <v>2090</v>
+      </c>
+      <c r="G597" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B598" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C598" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E598" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F598" t="s">
+        <v>2091</v>
+      </c>
+      <c r="G598" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B599" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C599" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E599" t="s">
+        <v>2061</v>
+      </c>
+      <c r="F599" t="s">
+        <v>2092</v>
+      </c>
+      <c r="G599" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>2062</v>
+      </c>
+      <c r="B600" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C600" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E600" t="s">
+        <v>2063</v>
+      </c>
+      <c r="F600" t="s">
+        <v>2093</v>
+      </c>
+      <c r="G600" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B601" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C601" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E601" t="s">
+        <v>2095</v>
+      </c>
+      <c r="F601" t="s">
+        <v>2094</v>
+      </c>
+      <c r="G601" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B602" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C602" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E602" t="s">
+        <v>437</v>
+      </c>
+      <c r="F602" t="s">
+        <v>436</v>
+      </c>
+      <c r="G602" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B603" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C603" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E603" t="s">
+        <v>1979</v>
+      </c>
+      <c r="F603" s="3" t="s">
+        <v>1983</v>
+      </c>
+      <c r="G603" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>2069</v>
+      </c>
+      <c r="B604" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C604" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E604" t="s">
+        <v>1978</v>
+      </c>
+      <c r="F604" s="3" t="s">
+        <v>1982</v>
+      </c>
+      <c r="G604" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B605" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C605" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E605" t="s">
+        <v>1981</v>
+      </c>
+      <c r="F605" s="3" t="s">
+        <v>1985</v>
+      </c>
+      <c r="G605" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B606" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C606" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E606" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F606" s="3" t="s">
+        <v>1984</v>
+      </c>
+      <c r="G606" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B607" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C607" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E607" t="s">
+        <v>2073</v>
+      </c>
+      <c r="F607" t="s">
+        <v>2096</v>
+      </c>
+      <c r="G607" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B608" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C608" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E608" t="s">
+        <v>2076</v>
+      </c>
+      <c r="F608" t="s">
+        <v>2097</v>
+      </c>
+      <c r="G608" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B609" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C609" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E609" t="s">
+        <v>2077</v>
+      </c>
+      <c r="F609" t="s">
+        <v>2029</v>
+      </c>
+      <c r="G609" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B610" t="b">
+        <v>0</v>
+      </c>
+      <c r="C610" t="b">
+        <v>1</v>
+      </c>
+      <c r="E610" t="s">
+        <v>2127</v>
+      </c>
+      <c r="F610" t="s">
+        <v>2128</v>
+      </c>
+      <c r="G610" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>2130</v>
+      </c>
+      <c r="B611" t="b">
+        <v>0</v>
+      </c>
+      <c r="C611" t="b">
+        <v>1</v>
+      </c>
+      <c r="E611" t="s">
+        <v>2130</v>
+      </c>
+      <c r="F611" t="s">
+        <v>2131</v>
+      </c>
+      <c r="G611" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B612" t="b">
+        <v>1</v>
+      </c>
+      <c r="C612" t="b">
+        <v>1</v>
+      </c>
+      <c r="E612" t="s">
+        <v>2140</v>
+      </c>
+      <c r="F612" t="s">
+        <v>2143</v>
+      </c>
+      <c r="G612" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>2141</v>
+      </c>
+      <c r="B613" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C613" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E613" t="s">
+        <v>2141</v>
+      </c>
+      <c r="F613" s="3" t="s">
+        <v>2142</v>
+      </c>
+      <c r="G613" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B614" t="b">
+        <v>0</v>
+      </c>
+      <c r="C614" t="b">
+        <v>1</v>
+      </c>
+      <c r="E614" t="s">
+        <v>2152</v>
+      </c>
+      <c r="F614" t="s">
+        <v>2084</v>
+      </c>
+      <c r="G614" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B615" t="b">
+        <v>1</v>
+      </c>
+      <c r="C615" t="b">
+        <v>1</v>
+      </c>
+      <c r="E615" t="s">
+        <v>2150</v>
+      </c>
+      <c r="F615" t="s">
+        <v>2151</v>
+      </c>
+      <c r="G615" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A616" s="3" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B616" t="b">
+        <v>0</v>
+      </c>
+      <c r="C616" t="b">
+        <v>1</v>
+      </c>
+      <c r="E616" t="s">
+        <v>2154</v>
+      </c>
+      <c r="F616" t="s">
+        <v>2155</v>
+      </c>
+      <c r="G616" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B617" t="b">
+        <v>0</v>
+      </c>
+      <c r="C617" t="b">
+        <v>1</v>
+      </c>
+      <c r="E617" t="s">
+        <v>2157</v>
+      </c>
+      <c r="F617" t="s">
+        <v>2158</v>
+      </c>
+      <c r="G617" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B618" t="b">
+        <v>0</v>
+      </c>
+      <c r="C618" t="b">
+        <v>1</v>
+      </c>
+      <c r="E618" t="s">
+        <v>2163</v>
+      </c>
+      <c r="F618" t="s">
+        <v>2166</v>
+      </c>
+      <c r="G618" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>2164</v>
+      </c>
+      <c r="B619" t="b">
+        <v>0</v>
+      </c>
+      <c r="C619" t="b">
+        <v>1</v>
+      </c>
+      <c r="E619" t="s">
+        <v>2164</v>
+      </c>
+      <c r="F619" t="s">
+        <v>2165</v>
+      </c>
+      <c r="G619" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B620" t="b">
+        <v>0</v>
+      </c>
+      <c r="C620" t="b">
+        <v>1</v>
+      </c>
+      <c r="E620" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F620" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G620" t="s">
+        <v>1669</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G551" xr:uid="{166F55E6-F4CB-49C4-A0B4-8593C255C448}"/>
+  <autoFilter ref="A1:G549" xr:uid="{166F55E6-F4CB-49C4-A0B4-8593C255C448}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Translations/Translations.xlsx
+++ b/Translations/Translations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\source\repos\BSharp\Translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EBA7CC-5B19-407E-8137-59AEE8DB719B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABC752C-4FC6-4779-ABF1-7B7BCDCC440F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="0" windowWidth="26370" windowHeight="15600" xr2:uid="{09F7BBB4-81EA-4503-B8DD-8985A501E98F}"/>
+    <workbookView xWindow="26400" yWindow="4140" windowWidth="26370" windowHeight="15600" xr2:uid="{09F7BBB4-81EA-4503-B8DD-8985A501E98F}"/>
   </bookViews>
   <sheets>
     <sheet name="Translations" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2485" uniqueCount="2234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="2250">
   <si>
     <t>Key</t>
   </si>
@@ -6736,6 +6736,54 @@
   </si>
   <si>
     <t>雷达图</t>
+  </si>
+  <si>
+    <t>DragDimensionsOrMeasures</t>
+  </si>
+  <si>
+    <t>Try adding rows, columns or measures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قم بإضافة أسطر أو أعمدة أو قيم </t>
+  </si>
+  <si>
+    <t>DragSelect</t>
+  </si>
+  <si>
+    <t>قم بإضافة بعض الأعمدة</t>
+  </si>
+  <si>
+    <t>Try adding some columns</t>
+  </si>
+  <si>
+    <t>尝试添加的行，列或措施</t>
+  </si>
+  <si>
+    <t>尝试添加一些列</t>
+  </si>
+  <si>
+    <t>SpecifyNumericMeasure</t>
+  </si>
+  <si>
+    <t>Add at least one numeric measure</t>
+  </si>
+  <si>
+    <t>قم بتحديد قيمة واحدة على الأقل ذات طبيعة عددية</t>
+  </si>
+  <si>
+    <t>添加至少一个数字量度</t>
+  </si>
+  <si>
+    <t>Error_TheFollowingKeyWordsAreReserved0</t>
+  </si>
+  <si>
+    <t>المفاتيح التالية يحتكرها النظام: {0}</t>
+  </si>
+  <si>
+    <t>系统保留了以下密钥:{0}</t>
+  </si>
+  <si>
+    <t>The following IDs are reserved by the system: {0}</t>
   </si>
 </sst>
 </file>
@@ -7138,12 +7186,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FEE134-3B22-427F-8E5A-2A7F994BE2AC}">
-  <dimension ref="A1:G620"/>
+  <dimension ref="A1:G624"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A599" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A593" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E612" sqref="E612"/>
+      <selection pane="bottomLeft" activeCell="E625" sqref="E625"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20104,6 +20152,86 @@
         <v>1669</v>
       </c>
     </row>
+    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B621" t="b">
+        <v>0</v>
+      </c>
+      <c r="C621" t="b">
+        <v>1</v>
+      </c>
+      <c r="E621" t="s">
+        <v>2235</v>
+      </c>
+      <c r="F621" t="s">
+        <v>2236</v>
+      </c>
+      <c r="G621" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>2237</v>
+      </c>
+      <c r="B622" t="b">
+        <v>0</v>
+      </c>
+      <c r="C622" t="b">
+        <v>1</v>
+      </c>
+      <c r="E622" t="s">
+        <v>2239</v>
+      </c>
+      <c r="F622" t="s">
+        <v>2238</v>
+      </c>
+      <c r="G622" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B623" t="b">
+        <v>0</v>
+      </c>
+      <c r="C623" t="b">
+        <v>1</v>
+      </c>
+      <c r="E623" t="s">
+        <v>2243</v>
+      </c>
+      <c r="F623" t="s">
+        <v>2244</v>
+      </c>
+      <c r="G623" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>2246</v>
+      </c>
+      <c r="B624" t="b">
+        <v>1</v>
+      </c>
+      <c r="C624" t="b">
+        <v>0</v>
+      </c>
+      <c r="E624" t="s">
+        <v>2249</v>
+      </c>
+      <c r="F624" t="s">
+        <v>2247</v>
+      </c>
+      <c r="G624" t="s">
+        <v>2248</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G549" xr:uid="{166F55E6-F4CB-49C4-A0B4-8593C255C448}"/>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Translations/Translations.xlsx
+++ b/Translations/Translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\source\repos\BSharp\Translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4251B6D5-71B2-4E37-BCED-70C09C506BF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2292BB85-98C0-4A17-852F-98FD293AB8C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26400" yWindow="4140" windowWidth="26370" windowHeight="15600" xr2:uid="{09F7BBB4-81EA-4503-B8DD-8985A501E98F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2508" uniqueCount="2255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="2277">
   <si>
     <t>Key</t>
   </si>
@@ -6799,6 +6799,72 @@
   </si>
   <si>
     <t>قطاع تشغيل</t>
+  </si>
+  <si>
+    <t>ResponsibilityCenter_Manager</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>المدير</t>
+  </si>
+  <si>
+    <t>ResponsibilityCenter_ResponsibilityType_Investment</t>
+  </si>
+  <si>
+    <t>ResponsibilityCenter_ResponsibilityType_Profit</t>
+  </si>
+  <si>
+    <t>ResponsibilityCenter_ResponsibilityType_Revenue</t>
+  </si>
+  <si>
+    <t>ResponsibilityCenter_ResponsibilityType_Cost</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>استثمار</t>
+  </si>
+  <si>
+    <t>ربح</t>
+  </si>
+  <si>
+    <t>إيراد</t>
+  </si>
+  <si>
+    <t>تكلفة</t>
+  </si>
+  <si>
+    <t>责任类型</t>
+  </si>
+  <si>
+    <t>投资</t>
+  </si>
+  <si>
+    <t>利润</t>
+  </si>
+  <si>
+    <t>收入</t>
+  </si>
+  <si>
+    <t>成本</t>
+  </si>
+  <si>
+    <t>是一家以经营分部</t>
+  </si>
+  <si>
+    <t>经理</t>
   </si>
 </sst>
 </file>
@@ -7201,12 +7267,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FEE134-3B22-427F-8E5A-2A7F994BE2AC}">
-  <dimension ref="A1:G627"/>
+  <dimension ref="A1:G632"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A597" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A610" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F621" sqref="F621"/>
+      <selection pane="bottomLeft" activeCell="F633" sqref="F633"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20220,6 +20286,9 @@
       <c r="F623" t="s">
         <v>2234</v>
       </c>
+      <c r="G623" t="s">
+        <v>1256</v>
+      </c>
     </row>
     <row r="624" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A624" s="3" t="s">
@@ -20237,8 +20306,11 @@
       <c r="F624" s="3" t="s">
         <v>2252</v>
       </c>
-    </row>
-    <row r="625" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G624" s="3" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="625" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A625" s="3" t="s">
         <v>2250</v>
       </c>
@@ -20254,8 +20326,11 @@
       <c r="F625" s="3" t="s">
         <v>2253</v>
       </c>
-    </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G625" s="3" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>2243</v>
       </c>
@@ -20271,22 +20346,128 @@
       <c r="F626" t="s">
         <v>2248</v>
       </c>
-    </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A627" t="s">
+      <c r="G626" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="627" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A627" s="3" t="s">
+        <v>2258</v>
+      </c>
+      <c r="B627" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C627" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E627" s="3" t="s">
+        <v>2262</v>
+      </c>
+      <c r="F627" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G627" s="3" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="628" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A628" s="3" t="s">
+        <v>2259</v>
+      </c>
+      <c r="B628" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C628" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E628" s="3" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F628" s="3" t="s">
+        <v>2267</v>
+      </c>
+      <c r="G628" s="3" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="629" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A629" s="3" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B629" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C629" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E629" s="3" t="s">
+        <v>2264</v>
+      </c>
+      <c r="F629" s="3" t="s">
+        <v>2268</v>
+      </c>
+      <c r="G629" s="3" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="630" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A630" s="3" t="s">
+        <v>2261</v>
+      </c>
+      <c r="B630" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C630" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E630" s="3" t="s">
+        <v>2265</v>
+      </c>
+      <c r="F630" s="3" t="s">
+        <v>2269</v>
+      </c>
+      <c r="G630" s="3" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
         <v>2245</v>
       </c>
-      <c r="B627" t="b">
-        <v>1</v>
-      </c>
-      <c r="C627" t="b">
-        <v>1</v>
-      </c>
-      <c r="E627" t="s">
+      <c r="B631" t="b">
+        <v>1</v>
+      </c>
+      <c r="C631" t="b">
+        <v>1</v>
+      </c>
+      <c r="E631" t="s">
         <v>2246</v>
       </c>
-      <c r="F627" t="s">
+      <c r="F631" t="s">
         <v>2254</v>
+      </c>
+      <c r="G631" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>2255</v>
+      </c>
+      <c r="B632" t="b">
+        <v>1</v>
+      </c>
+      <c r="C632" t="b">
+        <v>1</v>
+      </c>
+      <c r="E632" t="s">
+        <v>2256</v>
+      </c>
+      <c r="F632" t="s">
+        <v>2257</v>
+      </c>
+      <c r="G632" t="s">
+        <v>2276</v>
       </c>
     </row>
   </sheetData>

--- a/Translations/Translations.xlsx
+++ b/Translations/Translations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\source\repos\BSharp\Translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2292BB85-98C0-4A17-852F-98FD293AB8C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E145584B-6964-47A9-8A4C-5AE9F81EE063}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26400" yWindow="4140" windowWidth="26370" windowHeight="15600" xr2:uid="{09F7BBB4-81EA-4503-B8DD-8985A501E98F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="32040" xr2:uid="{09F7BBB4-81EA-4503-B8DD-8985A501E98F}"/>
   </bookViews>
   <sheets>
     <sheet name="Translations" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="2277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2545" uniqueCount="2289">
   <si>
     <t>Key</t>
   </si>
@@ -6865,6 +6865,42 @@
   </si>
   <si>
     <t>经理</t>
+  </si>
+  <si>
+    <t>TreeLevel</t>
+  </si>
+  <si>
+    <t>TreeChildCount</t>
+  </si>
+  <si>
+    <t>TreeActiveChildCount</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Child Count</t>
+  </si>
+  <si>
+    <t>Active Child Count</t>
+  </si>
+  <si>
+    <t>الدرجة</t>
+  </si>
+  <si>
+    <t>عدد الفروع</t>
+  </si>
+  <si>
+    <t>عدد الفروع المنشطة</t>
+  </si>
+  <si>
+    <t>水平</t>
+  </si>
+  <si>
+    <t>儿童计数</t>
+  </si>
+  <si>
+    <t>运动儿童计数</t>
   </si>
 </sst>
 </file>
@@ -7267,12 +7303,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FEE134-3B22-427F-8E5A-2A7F994BE2AC}">
-  <dimension ref="A1:G632"/>
+  <dimension ref="A1:G635"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A610" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A546" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F633" sqref="F633"/>
+      <selection pane="bottomLeft" activeCell="F609" sqref="F609"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20470,6 +20506,66 @@
         <v>2276</v>
       </c>
     </row>
+    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B633" t="b">
+        <v>1</v>
+      </c>
+      <c r="C633" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E633" t="s">
+        <v>2280</v>
+      </c>
+      <c r="F633" t="s">
+        <v>2283</v>
+      </c>
+      <c r="G633" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>2278</v>
+      </c>
+      <c r="B634" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C634" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E634" t="s">
+        <v>2281</v>
+      </c>
+      <c r="F634" t="s">
+        <v>2284</v>
+      </c>
+      <c r="G634" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B635" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C635" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E635" t="s">
+        <v>2282</v>
+      </c>
+      <c r="F635" t="s">
+        <v>2285</v>
+      </c>
+      <c r="G635" t="s">
+        <v>2288</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G547" xr:uid="{166F55E6-F4CB-49C4-A0B4-8593C255C448}"/>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Translations/Translations.xlsx
+++ b/Translations/Translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\source\repos\BSharp\Translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94EFFA3-AE0E-4FA4-9D34-2225C888D9B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B093EF26-BCE2-4A65-8937-43C35C595978}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33105" yWindow="7065" windowWidth="18150" windowHeight="12585" xr2:uid="{09F7BBB4-81EA-4503-B8DD-8985A501E98F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2529" uniqueCount="2273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="2277">
   <si>
     <t>Key</t>
   </si>
@@ -5571,9 +5571,6 @@
     <t>账户类型</t>
   </si>
   <si>
-    <t>AccountType_IsAssignable</t>
-  </si>
-  <si>
     <t>Is Assignable</t>
   </si>
   <si>
@@ -6853,6 +6850,21 @@
   </si>
   <si>
     <t>User_PreferredLanguage</t>
+  </si>
+  <si>
+    <t>IsAssignable</t>
+  </si>
+  <si>
+    <t>ResourceClassification_ResourceDefinition</t>
+  </si>
+  <si>
+    <t>Resource Definition</t>
+  </si>
+  <si>
+    <t>تعريف الموارد</t>
+  </si>
+  <si>
+    <t>资源定义</t>
   </si>
 </sst>
 </file>
@@ -7255,12 +7267,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FEE134-3B22-427F-8E5A-2A7F994BE2AC}">
-  <dimension ref="A1:G631"/>
+  <dimension ref="A1:G632"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A413" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A609" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F428" sqref="F428"/>
+      <selection pane="bottomLeft" activeCell="A632" sqref="A632:XFD632"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10050,7 +10062,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="B133" s="3" t="b">
         <v>1</v>
@@ -10060,13 +10072,13 @@
       </c>
       <c r="D133" s="3"/>
       <c r="E133" s="3" t="s">
+        <v>2268</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="G133" s="3" t="s">
         <v>2269</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>2271</v>
-      </c>
-      <c r="G133" s="3" t="s">
-        <v>2270</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -13989,7 +14001,7 @@
         <v>1750</v>
       </c>
       <c r="F320" s="3" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="G320" s="3" t="s">
         <v>1802</v>
@@ -13997,19 +14009,19 @@
     </row>
     <row r="321" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B321" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C321" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E321" s="3" t="s">
+        <v>2107</v>
+      </c>
+      <c r="F321" s="3" t="s">
         <v>2108</v>
-      </c>
-      <c r="B321" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C321" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E321" s="3" t="s">
-        <v>2108</v>
-      </c>
-      <c r="F321" s="3" t="s">
-        <v>2109</v>
       </c>
       <c r="G321" s="3" t="s">
         <v>1802</v>
@@ -14122,7 +14134,7 @@
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="B327" s="3" t="b">
         <v>1</v>
@@ -14143,7 +14155,7 @@
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="B328" s="3" t="b">
         <v>1</v>
@@ -14164,7 +14176,7 @@
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="B329" s="3" t="b">
         <v>1</v>
@@ -14185,7 +14197,7 @@
     </row>
     <row r="330" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="B330" s="3" t="b">
         <v>1</v>
@@ -14205,7 +14217,7 @@
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B331" s="3" t="b">
         <v>1</v>
@@ -14215,13 +14227,13 @@
       </c>
       <c r="D331" s="3"/>
       <c r="E331" s="3" t="s">
+        <v>2218</v>
+      </c>
+      <c r="F331" s="3" t="s">
         <v>2219</v>
       </c>
-      <c r="F331" s="3" t="s">
+      <c r="G331" s="3" t="s">
         <v>2220</v>
-      </c>
-      <c r="G331" s="3" t="s">
-        <v>2221</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
@@ -16263,7 +16275,7 @@
     </row>
     <row r="429" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A429" s="3" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="B429" s="3" t="b">
         <v>1</v>
@@ -17774,7 +17786,7 @@
     </row>
     <row r="501" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A501" s="3" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="B501" s="3" t="b">
         <v>1</v>
@@ -17783,18 +17795,18 @@
         <v>1</v>
       </c>
       <c r="E501" s="3" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="F501" s="3" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="G501" s="3" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="502" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A502" s="3" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="B502" s="3" t="b">
         <v>1</v>
@@ -17803,18 +17815,18 @@
         <v>1</v>
       </c>
       <c r="E502" s="3" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="F502" s="3" t="s">
+        <v>2099</v>
+      </c>
+      <c r="G502" s="3" t="s">
         <v>2100</v>
-      </c>
-      <c r="G502" s="3" t="s">
-        <v>2101</v>
       </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="3" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="B503" s="3" t="b">
         <v>1</v>
@@ -18024,7 +18036,7 @@
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" s="3" t="s">
-        <v>1845</v>
+        <v>2272</v>
       </c>
       <c r="B513" s="3" t="b">
         <v>1</v>
@@ -18034,18 +18046,18 @@
       </c>
       <c r="D513" s="3"/>
       <c r="E513" s="3" t="s">
+        <v>1845</v>
+      </c>
+      <c r="F513" s="3" t="s">
         <v>1846</v>
       </c>
-      <c r="F513" s="3" t="s">
+      <c r="G513" s="3" t="s">
         <v>1847</v>
-      </c>
-      <c r="G513" s="3" t="s">
-        <v>1848</v>
       </c>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" s="4" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="B514" s="3" t="b">
         <v>0</v>
@@ -18055,18 +18067,18 @@
       </c>
       <c r="D514" s="3"/>
       <c r="E514" s="3" t="s">
+        <v>1853</v>
+      </c>
+      <c r="F514" s="3" t="s">
         <v>1854</v>
       </c>
-      <c r="F514" s="3" t="s">
+      <c r="G514" s="3" t="s">
         <v>1855</v>
-      </c>
-      <c r="G514" s="3" t="s">
-        <v>1856</v>
       </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="3" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="B515" s="3" t="b">
         <v>0</v>
@@ -18076,38 +18088,38 @@
       </c>
       <c r="D515" s="3"/>
       <c r="E515" s="3" t="s">
+        <v>1849</v>
+      </c>
+      <c r="F515" s="3" t="s">
         <v>1850</v>
       </c>
-      <c r="F515" s="3" t="s">
+      <c r="G515" s="3" t="s">
         <v>1851</v>
-      </c>
-      <c r="G515" s="3" t="s">
-        <v>1852</v>
       </c>
     </row>
     <row r="516" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A516" s="3" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B516" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C516" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E516" s="3" t="s">
         <v>1857</v>
       </c>
-      <c r="B516" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C516" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E516" s="3" t="s">
+      <c r="F516" s="3" t="s">
         <v>1858</v>
       </c>
-      <c r="F516" s="3" t="s">
-        <v>1859</v>
-      </c>
       <c r="G516" s="3" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="B517" s="3" t="b">
         <v>1</v>
@@ -18117,13 +18129,13 @@
       </c>
       <c r="D517" s="3"/>
       <c r="E517" s="3" t="s">
+        <v>1860</v>
+      </c>
+      <c r="F517" s="3" t="s">
         <v>1861</v>
       </c>
-      <c r="F517" s="3" t="s">
-        <v>1862</v>
-      </c>
       <c r="G517" s="3" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
@@ -18141,7 +18153,7 @@
         <v>1647</v>
       </c>
       <c r="F518" s="3" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="G518" s="3" t="s">
         <v>1799</v>
@@ -18149,7 +18161,7 @@
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" s="3" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B519" s="3" t="b">
         <v>1</v>
@@ -18159,18 +18171,18 @@
       </c>
       <c r="D519" s="3"/>
       <c r="E519" s="3" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="F519" s="3" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="G519" s="3" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" s="3" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="B520" s="3" t="b">
         <v>1</v>
@@ -18180,18 +18192,18 @@
       </c>
       <c r="D520" s="3"/>
       <c r="E520" s="3" t="s">
+        <v>1885</v>
+      </c>
+      <c r="F520" s="3" t="s">
         <v>1886</v>
       </c>
-      <c r="F520" s="3" t="s">
-        <v>1887</v>
-      </c>
       <c r="G520" s="3" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" s="3" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="B521" s="3" t="b">
         <v>1</v>
@@ -18212,7 +18224,7 @@
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" s="3" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="B522" s="3" t="b">
         <v>1</v>
@@ -18222,18 +18234,18 @@
       </c>
       <c r="D522" s="3"/>
       <c r="E522" s="3" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="F522" s="3" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="G522" s="3" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" s="3" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="B523" s="3" t="b">
         <v>1</v>
@@ -18254,7 +18266,7 @@
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" s="3" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="B524" s="3" t="b">
         <v>1</v>
@@ -18264,18 +18276,18 @@
       </c>
       <c r="D524" s="3"/>
       <c r="E524" s="3" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="F524" s="3" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="G524" s="3" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" s="3" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="B525" s="3" t="b">
         <v>1</v>
@@ -18296,7 +18308,7 @@
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" s="3" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="B526" s="3" t="b">
         <v>1</v>
@@ -18306,18 +18318,18 @@
       </c>
       <c r="D526" s="3"/>
       <c r="E526" s="3" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="F526" s="3" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="G526" s="3" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" s="3" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B527" s="3" t="b">
         <v>1</v>
@@ -18338,7 +18350,7 @@
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" s="3" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="B528" s="3" t="b">
         <v>1</v>
@@ -18348,18 +18360,18 @@
       </c>
       <c r="D528" s="3"/>
       <c r="E528" s="3" t="s">
+        <v>1885</v>
+      </c>
+      <c r="F528" s="3" t="s">
         <v>1886</v>
       </c>
-      <c r="F528" s="3" t="s">
-        <v>1887</v>
-      </c>
       <c r="G528" s="3" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" s="3" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="B529" s="3" t="b">
         <v>1</v>
@@ -18369,18 +18381,18 @@
       </c>
       <c r="D529" s="3"/>
       <c r="E529" s="3" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="F529" s="3" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="G529" s="3" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="B530" s="3" t="b">
         <v>1</v>
@@ -18390,18 +18402,18 @@
       </c>
       <c r="D530" s="3"/>
       <c r="E530" s="3" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="F530" s="3" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="G530" s="3" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" s="3" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="B531" s="3" t="b">
         <v>1</v>
@@ -18411,18 +18423,18 @@
       </c>
       <c r="D531" s="3"/>
       <c r="E531" s="3" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="F531" s="3" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="G531" s="3" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" s="3" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="B532" s="3" t="b">
         <v>1</v>
@@ -18432,18 +18444,18 @@
       </c>
       <c r="D532" s="3"/>
       <c r="E532" s="3" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="F532" s="3" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="G532" s="3" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" s="3" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B533" s="3" t="b">
         <v>1</v>
@@ -18453,18 +18465,18 @@
       </c>
       <c r="D533" s="3"/>
       <c r="E533" s="3" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="F533" s="3" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="G533" s="3" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" s="3" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="B534" s="3" t="b">
         <v>1</v>
@@ -18474,18 +18486,18 @@
       </c>
       <c r="D534" s="3"/>
       <c r="E534" s="3" t="s">
+        <v>1904</v>
+      </c>
+      <c r="F534" s="3" t="s">
         <v>1905</v>
       </c>
-      <c r="F534" s="3" t="s">
-        <v>1906</v>
-      </c>
       <c r="G534" s="3" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" s="3" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="B535" s="3" t="b">
         <v>1</v>
@@ -18506,7 +18518,7 @@
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" s="3" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B536" s="3" t="b">
         <v>1</v>
@@ -18527,7 +18539,7 @@
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" s="3" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B537" s="3" t="b">
         <v>1</v>
@@ -18537,18 +18549,18 @@
       </c>
       <c r="D537" s="3"/>
       <c r="E537" s="3" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="F537" s="3" t="s">
+        <v>1918</v>
+      </c>
+      <c r="G537" s="3" t="s">
         <v>1919</v>
-      </c>
-      <c r="G537" s="3" t="s">
-        <v>1920</v>
       </c>
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" s="3" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="B538" s="3" t="b">
         <v>1</v>
@@ -18558,38 +18570,38 @@
       </c>
       <c r="D538" s="3"/>
       <c r="E538" s="3" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="F538" s="3" t="s">
         <v>1819</v>
       </c>
       <c r="G538" s="3" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="539" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A539" s="3" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B539" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C539" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E539" s="3" t="s">
+        <v>1922</v>
+      </c>
+      <c r="F539" s="3" t="s">
         <v>1925</v>
       </c>
-      <c r="B539" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C539" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E539" s="3" t="s">
+      <c r="G539" s="3" t="s">
         <v>1923</v>
-      </c>
-      <c r="F539" s="3" t="s">
-        <v>1926</v>
-      </c>
-      <c r="G539" s="3" t="s">
-        <v>1924</v>
       </c>
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="B540" t="b">
         <v>1</v>
@@ -18598,61 +18610,61 @@
         <v>1</v>
       </c>
       <c r="E540" s="3" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="F540" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="G540" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B541" t="b">
+        <v>1</v>
+      </c>
+      <c r="C541" t="b">
+        <v>1</v>
+      </c>
+      <c r="E541" s="3" t="s">
         <v>1928</v>
       </c>
-      <c r="B541" t="b">
-        <v>1</v>
-      </c>
-      <c r="C541" t="b">
-        <v>1</v>
-      </c>
-      <c r="E541" s="3" t="s">
-        <v>1929</v>
-      </c>
       <c r="F541" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="G541" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B542" t="b">
+        <v>1</v>
+      </c>
+      <c r="C542" t="b">
+        <v>0</v>
+      </c>
+      <c r="D542" t="s">
+        <v>1936</v>
+      </c>
+      <c r="E542" s="3" t="s">
         <v>1934</v>
       </c>
-      <c r="B542" t="b">
-        <v>1</v>
-      </c>
-      <c r="C542" t="b">
-        <v>0</v>
-      </c>
-      <c r="D542" t="s">
-        <v>1937</v>
-      </c>
-      <c r="E542" s="3" t="s">
+      <c r="F542" s="6" t="s">
         <v>1935</v>
       </c>
-      <c r="F542" s="6" t="s">
-        <v>1936</v>
-      </c>
       <c r="G542" s="3" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" s="3" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="B543" t="b">
         <v>0</v>
@@ -18661,101 +18673,101 @@
         <v>1</v>
       </c>
       <c r="D543" s="3" t="s">
+        <v>1936</v>
+      </c>
+      <c r="E543" s="3" t="s">
         <v>1937</v>
       </c>
-      <c r="E543" s="3" t="s">
+      <c r="F543" s="6" t="s">
         <v>1938</v>
       </c>
-      <c r="F543" s="6" t="s">
-        <v>1939</v>
-      </c>
       <c r="G543" s="3" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B544" t="b">
+        <v>0</v>
+      </c>
+      <c r="C544" t="b">
+        <v>1</v>
+      </c>
+      <c r="E544" t="s">
+        <v>1954</v>
+      </c>
+      <c r="F544" s="6" t="s">
         <v>1952</v>
       </c>
-      <c r="B544" t="b">
-        <v>0</v>
-      </c>
-      <c r="C544" t="b">
-        <v>1</v>
-      </c>
-      <c r="E544" t="s">
-        <v>1955</v>
-      </c>
-      <c r="F544" s="6" t="s">
+      <c r="G544" s="3" t="s">
         <v>1953</v>
-      </c>
-      <c r="G544" s="3" t="s">
-        <v>1954</v>
       </c>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B545" t="b">
+        <v>0</v>
+      </c>
+      <c r="C545" t="b">
+        <v>1</v>
+      </c>
+      <c r="E545" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F545" t="s">
         <v>1964</v>
       </c>
-      <c r="B545" t="b">
-        <v>0</v>
-      </c>
-      <c r="C545" t="b">
-        <v>1</v>
-      </c>
-      <c r="E545" t="s">
-        <v>1964</v>
-      </c>
-      <c r="F545" t="s">
+      <c r="G545" s="3" t="s">
         <v>1965</v>
-      </c>
-      <c r="G545" s="3" t="s">
-        <v>1966</v>
       </c>
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B546" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C546" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E546" t="s">
         <v>1956</v>
       </c>
-      <c r="B546" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C546" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E546" t="s">
+      <c r="F546" t="s">
+        <v>1958</v>
+      </c>
+      <c r="G546" t="s">
         <v>1957</v>
-      </c>
-      <c r="F546" t="s">
-        <v>1959</v>
-      </c>
-      <c r="G546" t="s">
-        <v>1958</v>
       </c>
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B547" t="b">
+        <v>0</v>
+      </c>
+      <c r="C547" t="b">
+        <v>1</v>
+      </c>
+      <c r="E547" t="s">
         <v>1960</v>
       </c>
-      <c r="B547" t="b">
-        <v>0</v>
-      </c>
-      <c r="C547" t="b">
-        <v>1</v>
-      </c>
-      <c r="E547" t="s">
+      <c r="F547" t="s">
         <v>1961</v>
       </c>
-      <c r="F547" t="s">
+      <c r="G547" t="s">
         <v>1962</v>
-      </c>
-      <c r="G547" t="s">
-        <v>1963</v>
       </c>
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B548" s="3" t="b">
         <v>1</v>
@@ -18764,18 +18776,18 @@
         <v>1</v>
       </c>
       <c r="E548" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="F548" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="G548" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B549" s="3" t="b">
         <v>1</v>
@@ -18784,13 +18796,13 @@
         <v>1</v>
       </c>
       <c r="E549" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="F549" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="G549" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.25">
@@ -18815,7 +18827,7 @@
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B551" s="3" t="b">
         <v>1</v>
@@ -18824,18 +18836,18 @@
         <v>1</v>
       </c>
       <c r="E551" t="s">
+        <v>1885</v>
+      </c>
+      <c r="F551" t="s">
         <v>1886</v>
       </c>
-      <c r="F551" t="s">
-        <v>1887</v>
-      </c>
       <c r="G551" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B552" s="3" t="b">
         <v>1</v>
@@ -18844,18 +18856,18 @@
         <v>1</v>
       </c>
       <c r="E552" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="F552" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="G552" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B553" s="3" t="b">
         <v>1</v>
@@ -18864,18 +18876,18 @@
         <v>1</v>
       </c>
       <c r="E553" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="F553" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="G553" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="B554" s="3" t="b">
         <v>1</v>
@@ -18884,18 +18896,18 @@
         <v>1</v>
       </c>
       <c r="E554" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="F554" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="G554" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B555" s="3" t="b">
         <v>1</v>
@@ -18904,18 +18916,18 @@
         <v>1</v>
       </c>
       <c r="E555" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="F555" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="G555" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B556" s="3" t="b">
         <v>1</v>
@@ -18924,18 +18936,18 @@
         <v>1</v>
       </c>
       <c r="E556" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="F556" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="G556" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="557" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A557" s="3" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="B557" s="3" t="b">
         <v>1</v>
@@ -18944,18 +18956,18 @@
         <v>1</v>
       </c>
       <c r="E557" s="3" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="F557" s="3" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="G557" s="3" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="558" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A558" s="3" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="B558" s="3" t="b">
         <v>1</v>
@@ -18964,18 +18976,18 @@
         <v>1</v>
       </c>
       <c r="E558" s="3" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F558" s="3" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="G558" s="3" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="559" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A559" s="3" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="B559" s="3" t="b">
         <v>1</v>
@@ -18984,18 +18996,18 @@
         <v>1</v>
       </c>
       <c r="E559" s="3" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="F559" s="3" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="G559" s="3" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B560" s="3" t="b">
         <v>1</v>
@@ -19004,18 +19016,18 @@
         <v>1</v>
       </c>
       <c r="E560" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="F560" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="G560" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="561" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A561" s="3" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="B561" s="3" t="b">
         <v>1</v>
@@ -19024,18 +19036,18 @@
         <v>1</v>
       </c>
       <c r="E561" s="3" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="F561" s="3" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="G561" s="3" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="562" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A562" s="3" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="B562" s="3" t="b">
         <v>1</v>
@@ -19044,18 +19056,18 @@
         <v>1</v>
       </c>
       <c r="E562" s="3" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="F562" s="3" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="G562" s="3" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="563" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A563" s="3" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="B563" s="3" t="b">
         <v>1</v>
@@ -19064,18 +19076,18 @@
         <v>1</v>
       </c>
       <c r="E563" s="3" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="F563" s="3" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="G563" s="3" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B564" s="3" t="b">
         <v>1</v>
@@ -19084,18 +19096,18 @@
         <v>1</v>
       </c>
       <c r="E564" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="F564" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G564" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="565" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A565" s="3" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="B565" s="3" t="b">
         <v>1</v>
@@ -19104,18 +19116,18 @@
         <v>1</v>
       </c>
       <c r="E565" s="3" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="F565" s="3" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="G565" s="3" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="566" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A566" s="3" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="B566" s="3" t="b">
         <v>1</v>
@@ -19124,18 +19136,18 @@
         <v>1</v>
       </c>
       <c r="E566" s="3" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="F566" s="3" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="G566" s="3" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="567" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A567" s="3" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="B567" s="3" t="b">
         <v>1</v>
@@ -19144,18 +19156,18 @@
         <v>1</v>
       </c>
       <c r="E567" s="3" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="F567" s="3" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="G567" s="3" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B568" s="3" t="b">
         <v>1</v>
@@ -19164,18 +19176,18 @@
         <v>1</v>
       </c>
       <c r="E568" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="F568" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G568" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="569" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A569" s="3" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="B569" s="3" t="b">
         <v>1</v>
@@ -19184,18 +19196,18 @@
         <v>1</v>
       </c>
       <c r="E569" s="3" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="F569" s="3" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="G569" s="3" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="570" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A570" s="3" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="B570" s="3" t="b">
         <v>1</v>
@@ -19204,18 +19216,18 @@
         <v>1</v>
       </c>
       <c r="E570" s="3" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="F570" s="3" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="G570" s="3" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="571" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A571" s="3" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="B571" s="3" t="b">
         <v>1</v>
@@ -19224,18 +19236,18 @@
         <v>1</v>
       </c>
       <c r="E571" s="3" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="F571" s="3" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="G571" s="3" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="572" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A572" s="3" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="B572" s="3" t="b">
         <v>1</v>
@@ -19244,18 +19256,18 @@
         <v>1</v>
       </c>
       <c r="E572" s="3" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="F572" s="3" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="G572" s="3" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="573" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A573" s="3" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="B573" s="3" t="b">
         <v>1</v>
@@ -19264,38 +19276,38 @@
         <v>1</v>
       </c>
       <c r="E573" s="3" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="F573" s="3" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="G573" s="3" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="574" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A574" s="3" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B574" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C574" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E574" s="3" t="s">
         <v>2192</v>
       </c>
-      <c r="B574" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C574" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E574" s="3" t="s">
+      <c r="F574" s="3" t="s">
         <v>2193</v>
       </c>
-      <c r="F574" s="3" t="s">
+      <c r="G574" s="3" t="s">
         <v>2194</v>
-      </c>
-      <c r="G574" s="3" t="s">
-        <v>2195</v>
       </c>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B575" s="3" t="b">
         <v>1</v>
@@ -19304,18 +19316,18 @@
         <v>1</v>
       </c>
       <c r="E575" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="F575" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="G575" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B576" s="3" t="b">
         <v>1</v>
@@ -19324,18 +19336,18 @@
         <v>1</v>
       </c>
       <c r="E576" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="F576" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="G576" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B577" s="3" t="b">
         <v>1</v>
@@ -19344,13 +19356,13 @@
         <v>1</v>
       </c>
       <c r="E577" t="s">
+        <v>2088</v>
+      </c>
+      <c r="F577" t="s">
         <v>2089</v>
       </c>
-      <c r="F577" t="s">
+      <c r="G577" t="s">
         <v>2090</v>
-      </c>
-      <c r="G577" t="s">
-        <v>2091</v>
       </c>
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.25">
@@ -19375,7 +19387,7 @@
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B579" s="3" t="b">
         <v>1</v>
@@ -19384,18 +19396,18 @@
         <v>1</v>
       </c>
       <c r="E579" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="F579" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="G579" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B580" s="3" t="b">
         <v>1</v>
@@ -19404,18 +19416,18 @@
         <v>1</v>
       </c>
       <c r="E580" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F580" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="G580" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B581" s="3" t="b">
         <v>1</v>
@@ -19424,18 +19436,18 @@
         <v>1</v>
       </c>
       <c r="E581" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F581" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="G581" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B582" s="3" t="b">
         <v>1</v>
@@ -19444,18 +19456,18 @@
         <v>1</v>
       </c>
       <c r="E582" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F582" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="G582" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B583" s="3" t="b">
         <v>1</v>
@@ -19464,18 +19476,18 @@
         <v>1</v>
       </c>
       <c r="E583" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="F583" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="G583" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B584" s="3" t="b">
         <v>1</v>
@@ -19487,7 +19499,7 @@
         <v>894</v>
       </c>
       <c r="F584" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="G584" t="s">
         <v>1556</v>
@@ -19495,7 +19507,7 @@
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B585" s="3" t="b">
         <v>1</v>
@@ -19504,18 +19516,18 @@
         <v>1</v>
       </c>
       <c r="E585" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="F585" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="G585" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B586" s="3" t="b">
         <v>1</v>
@@ -19524,18 +19536,18 @@
         <v>1</v>
       </c>
       <c r="E586" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F586" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="G586" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B587" s="3" t="b">
         <v>1</v>
@@ -19544,18 +19556,18 @@
         <v>1</v>
       </c>
       <c r="E587" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="F587" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="G587" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B588" s="3" t="b">
         <v>1</v>
@@ -19564,18 +19576,18 @@
         <v>1</v>
       </c>
       <c r="E588" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F588" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="G588" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B589" t="b">
         <v>1</v>
@@ -19590,52 +19602,52 @@
         <v>1221</v>
       </c>
       <c r="G589" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B590" t="b">
+        <v>1</v>
+      </c>
+      <c r="C590" t="b">
+        <v>1</v>
+      </c>
+      <c r="E590" t="s">
         <v>2017</v>
       </c>
-      <c r="B590" t="b">
-        <v>1</v>
-      </c>
-      <c r="C590" t="b">
-        <v>1</v>
-      </c>
-      <c r="E590" t="s">
-        <v>2018</v>
-      </c>
       <c r="F590" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="G590" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B591" t="b">
+        <v>1</v>
+      </c>
+      <c r="C591" t="b">
+        <v>1</v>
+      </c>
+      <c r="E591" t="s">
         <v>2019</v>
       </c>
-      <c r="B591" t="b">
-        <v>1</v>
-      </c>
-      <c r="C591" t="b">
-        <v>1</v>
-      </c>
-      <c r="E591" t="s">
-        <v>2020</v>
-      </c>
       <c r="F591" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="G591" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="B592" s="3" t="b">
         <v>1</v>
@@ -19644,18 +19656,18 @@
         <v>1</v>
       </c>
       <c r="E592" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F592" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="G592" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="B593" s="3" t="b">
         <v>1</v>
@@ -19664,38 +19676,38 @@
         <v>1</v>
       </c>
       <c r="E593" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F593" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="G593" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B594" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C594" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E594" t="s">
         <v>2024</v>
       </c>
-      <c r="B594" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C594" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E594" t="s">
-        <v>2025</v>
-      </c>
       <c r="F594" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="G594" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B595" s="3" t="b">
         <v>1</v>
@@ -19704,18 +19716,18 @@
         <v>1</v>
       </c>
       <c r="E595" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="F595" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="G595" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="B596" s="3" t="b">
         <v>1</v>
@@ -19735,7 +19747,7 @@
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="B597" s="3" t="b">
         <v>1</v>
@@ -19744,18 +19756,18 @@
         <v>1</v>
       </c>
       <c r="E597" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="F597" s="3" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="G597" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="B598" s="3" t="b">
         <v>1</v>
@@ -19764,18 +19776,18 @@
         <v>1</v>
       </c>
       <c r="E598" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="F598" s="3" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="G598" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="B599" s="3" t="b">
         <v>1</v>
@@ -19784,18 +19796,18 @@
         <v>1</v>
       </c>
       <c r="E599" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="F599" s="3" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="G599" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="B600" s="3" t="b">
         <v>1</v>
@@ -19804,38 +19816,38 @@
         <v>1</v>
       </c>
       <c r="E600" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="F600" s="3" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="G600" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="601" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B601" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C601" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E601" t="s">
         <v>2034</v>
       </c>
-      <c r="B601" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C601" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E601" t="s">
-        <v>2035</v>
-      </c>
       <c r="F601" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="G601" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="602" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="B602" s="3" t="b">
         <v>1</v>
@@ -19844,18 +19856,18 @@
         <v>1</v>
       </c>
       <c r="E602" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="F602" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="G602" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="603" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="B603" s="3" t="b">
         <v>1</v>
@@ -19864,58 +19876,58 @@
         <v>1</v>
       </c>
       <c r="E603" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="F603" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G603" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B604" t="b">
+        <v>0</v>
+      </c>
+      <c r="C604" t="b">
+        <v>1</v>
+      </c>
+      <c r="E604" t="s">
+        <v>2088</v>
+      </c>
+      <c r="F604" t="s">
         <v>2089</v>
       </c>
-      <c r="B604" t="b">
-        <v>0</v>
-      </c>
-      <c r="C604" t="b">
-        <v>1</v>
-      </c>
-      <c r="E604" t="s">
-        <v>2089</v>
-      </c>
-      <c r="F604" t="s">
+      <c r="G604" t="s">
         <v>2090</v>
-      </c>
-      <c r="G604" t="s">
-        <v>2091</v>
       </c>
     </row>
     <row r="605" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
+        <v>2091</v>
+      </c>
+      <c r="B605" t="b">
+        <v>0</v>
+      </c>
+      <c r="C605" t="b">
+        <v>1</v>
+      </c>
+      <c r="E605" t="s">
+        <v>2091</v>
+      </c>
+      <c r="F605" t="s">
         <v>2092</v>
       </c>
-      <c r="B605" t="b">
-        <v>0</v>
-      </c>
-      <c r="C605" t="b">
-        <v>1</v>
-      </c>
-      <c r="E605" t="s">
-        <v>2092</v>
-      </c>
-      <c r="F605" t="s">
+      <c r="G605" t="s">
         <v>2093</v>
-      </c>
-      <c r="G605" t="s">
-        <v>2094</v>
       </c>
     </row>
     <row r="606" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="B606" t="b">
         <v>1</v>
@@ -19924,38 +19936,38 @@
         <v>1</v>
       </c>
       <c r="E606" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="F606" t="s">
+        <v>2104</v>
+      </c>
+      <c r="G606" t="s">
         <v>2105</v>
-      </c>
-      <c r="G606" t="s">
-        <v>2106</v>
       </c>
     </row>
     <row r="607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B607" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C607" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E607" t="s">
+        <v>2102</v>
+      </c>
+      <c r="F607" s="3" t="s">
         <v>2103</v>
       </c>
-      <c r="B607" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C607" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E607" t="s">
-        <v>2103</v>
-      </c>
-      <c r="F607" s="3" t="s">
-        <v>2104</v>
-      </c>
       <c r="G607" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="608" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="B608" t="b">
         <v>0</v>
@@ -19964,78 +19976,78 @@
         <v>1</v>
       </c>
       <c r="E608" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="F608" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="G608" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B609" t="b">
+        <v>1</v>
+      </c>
+      <c r="C609" t="b">
+        <v>1</v>
+      </c>
+      <c r="E609" t="s">
         <v>2111</v>
       </c>
-      <c r="B609" t="b">
-        <v>1</v>
-      </c>
-      <c r="C609" t="b">
-        <v>1</v>
-      </c>
-      <c r="E609" t="s">
+      <c r="F609" t="s">
         <v>2112</v>
       </c>
-      <c r="F609" t="s">
-        <v>2113</v>
-      </c>
       <c r="G609" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A610" s="3" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B610" t="b">
+        <v>0</v>
+      </c>
+      <c r="C610" t="b">
+        <v>1</v>
+      </c>
+      <c r="E610" t="s">
         <v>2115</v>
       </c>
-      <c r="B610" t="b">
-        <v>0</v>
-      </c>
-      <c r="C610" t="b">
-        <v>1</v>
-      </c>
-      <c r="E610" t="s">
+      <c r="F610" t="s">
         <v>2116</v>
       </c>
-      <c r="F610" t="s">
-        <v>2117</v>
-      </c>
       <c r="G610" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
+        <v>2117</v>
+      </c>
+      <c r="B611" t="b">
+        <v>0</v>
+      </c>
+      <c r="C611" t="b">
+        <v>1</v>
+      </c>
+      <c r="E611" t="s">
         <v>2118</v>
       </c>
-      <c r="B611" t="b">
-        <v>0</v>
-      </c>
-      <c r="C611" t="b">
-        <v>1</v>
-      </c>
-      <c r="E611" t="s">
+      <c r="F611" t="s">
         <v>2119</v>
       </c>
-      <c r="F611" t="s">
-        <v>2120</v>
-      </c>
       <c r="G611" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="B612" t="b">
         <v>0</v>
@@ -20044,33 +20056,33 @@
         <v>1</v>
       </c>
       <c r="E612" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="F612" t="s">
+        <v>2127</v>
+      </c>
+      <c r="G612" t="s">
         <v>2128</v>
-      </c>
-      <c r="G612" t="s">
-        <v>2129</v>
       </c>
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B613" t="b">
+        <v>0</v>
+      </c>
+      <c r="C613" t="b">
+        <v>1</v>
+      </c>
+      <c r="E613" t="s">
+        <v>2125</v>
+      </c>
+      <c r="F613" t="s">
         <v>2126</v>
       </c>
-      <c r="B613" t="b">
-        <v>0</v>
-      </c>
-      <c r="C613" t="b">
-        <v>1</v>
-      </c>
-      <c r="E613" t="s">
-        <v>2126</v>
-      </c>
-      <c r="F613" t="s">
-        <v>2127</v>
-      </c>
       <c r="G613" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="614" spans="1:7" x14ac:dyDescent="0.25">
@@ -20095,82 +20107,82 @@
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
+        <v>2195</v>
+      </c>
+      <c r="B615" t="b">
+        <v>0</v>
+      </c>
+      <c r="C615" t="b">
+        <v>1</v>
+      </c>
+      <c r="E615" t="s">
         <v>2196</v>
       </c>
-      <c r="B615" t="b">
-        <v>0</v>
-      </c>
-      <c r="C615" t="b">
-        <v>1</v>
-      </c>
-      <c r="E615" t="s">
+      <c r="F615" t="s">
         <v>2197</v>
       </c>
-      <c r="F615" t="s">
-        <v>2198</v>
-      </c>
       <c r="G615" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
+        <v>2198</v>
+      </c>
+      <c r="B616" t="b">
+        <v>0</v>
+      </c>
+      <c r="C616" t="b">
+        <v>1</v>
+      </c>
+      <c r="E616" t="s">
+        <v>2200</v>
+      </c>
+      <c r="F616" t="s">
         <v>2199</v>
       </c>
-      <c r="B616" t="b">
-        <v>0</v>
-      </c>
-      <c r="C616" t="b">
-        <v>1</v>
-      </c>
-      <c r="E616" t="s">
-        <v>2201</v>
-      </c>
-      <c r="F616" t="s">
-        <v>2200</v>
-      </c>
       <c r="G616" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
+        <v>2203</v>
+      </c>
+      <c r="B617" t="b">
+        <v>0</v>
+      </c>
+      <c r="C617" t="b">
+        <v>1</v>
+      </c>
+      <c r="E617" t="s">
         <v>2204</v>
       </c>
-      <c r="B617" t="b">
-        <v>0</v>
-      </c>
-      <c r="C617" t="b">
-        <v>1</v>
-      </c>
-      <c r="E617" t="s">
+      <c r="F617" t="s">
         <v>2205</v>
       </c>
-      <c r="F617" t="s">
+      <c r="G617" t="s">
         <v>2206</v>
-      </c>
-      <c r="G617" t="s">
-        <v>2207</v>
       </c>
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B618" t="b">
+        <v>1</v>
+      </c>
+      <c r="C618" t="b">
+        <v>0</v>
+      </c>
+      <c r="E618" t="s">
+        <v>2210</v>
+      </c>
+      <c r="F618" t="s">
         <v>2208</v>
       </c>
-      <c r="B618" t="b">
-        <v>1</v>
-      </c>
-      <c r="C618" t="b">
-        <v>0</v>
-      </c>
-      <c r="E618" t="s">
-        <v>2211</v>
-      </c>
-      <c r="F618" t="s">
+      <c r="G618" t="s">
         <v>2209</v>
-      </c>
-      <c r="G618" t="s">
-        <v>2210</v>
       </c>
     </row>
     <row r="619" spans="1:7" x14ac:dyDescent="0.25">
@@ -20184,10 +20196,10 @@
         <v>1</v>
       </c>
       <c r="E619" t="s">
+        <v>2211</v>
+      </c>
+      <c r="F619" t="s">
         <v>2212</v>
-      </c>
-      <c r="F619" t="s">
-        <v>2213</v>
       </c>
       <c r="G619" t="s">
         <v>1239</v>
@@ -20195,7 +20207,7 @@
     </row>
     <row r="620" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A620" s="3" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="B620" s="3" t="b">
         <v>1</v>
@@ -20207,7 +20219,7 @@
         <v>1754</v>
       </c>
       <c r="F620" s="3" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="G620" s="3" t="s">
         <v>1801</v>
@@ -20215,19 +20227,19 @@
     </row>
     <row r="621" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A621" s="3" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B621" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C621" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E621" s="3" t="s">
         <v>2229</v>
       </c>
-      <c r="B621" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C621" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E621" s="3" t="s">
-        <v>2230</v>
-      </c>
       <c r="F621" s="3" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="G621" s="3" t="s">
         <v>1801</v>
@@ -20235,7 +20247,7 @@
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B622" t="b">
         <v>1</v>
@@ -20244,18 +20256,18 @@
         <v>1</v>
       </c>
       <c r="E622" t="s">
+        <v>2225</v>
+      </c>
+      <c r="F622" t="s">
         <v>2226</v>
       </c>
-      <c r="F622" t="s">
-        <v>2227</v>
-      </c>
       <c r="G622" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="623" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A623" s="3" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="B623" s="3" t="b">
         <v>1</v>
@@ -20264,18 +20276,18 @@
         <v>1</v>
       </c>
       <c r="E623" s="3" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="F623" s="3" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="G623" s="3" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="624" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A624" s="3" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="B624" s="3" t="b">
         <v>1</v>
@@ -20284,18 +20296,18 @@
         <v>1</v>
       </c>
       <c r="E624" s="3" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="F624" s="3" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="G624" s="3" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="625" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A625" s="3" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="B625" s="3" t="b">
         <v>1</v>
@@ -20304,18 +20316,18 @@
         <v>1</v>
       </c>
       <c r="E625" s="3" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="F625" s="3" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="G625" s="3" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="626" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A626" s="3" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="B626" s="3" t="b">
         <v>1</v>
@@ -20324,58 +20336,58 @@
         <v>1</v>
       </c>
       <c r="E626" s="3" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="F626" s="3" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="G626" s="3" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B627" t="b">
+        <v>1</v>
+      </c>
+      <c r="C627" t="b">
+        <v>1</v>
+      </c>
+      <c r="E627" t="s">
         <v>2224</v>
       </c>
-      <c r="B627" t="b">
-        <v>1</v>
-      </c>
-      <c r="C627" t="b">
-        <v>1</v>
-      </c>
-      <c r="E627" t="s">
-        <v>2225</v>
-      </c>
       <c r="F627" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="G627" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="628" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B628" t="b">
+        <v>1</v>
+      </c>
+      <c r="C628" t="b">
+        <v>1</v>
+      </c>
+      <c r="E628" t="s">
         <v>2234</v>
       </c>
-      <c r="B628" t="b">
-        <v>1</v>
-      </c>
-      <c r="C628" t="b">
-        <v>1</v>
-      </c>
-      <c r="E628" t="s">
+      <c r="F628" t="s">
         <v>2235</v>
       </c>
-      <c r="F628" t="s">
-        <v>2236</v>
-      </c>
       <c r="G628" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="B629" t="b">
         <v>1</v>
@@ -20384,18 +20396,18 @@
         <v>1</v>
       </c>
       <c r="E629" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="F629" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="G629" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="630" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="B630" s="3" t="b">
         <v>1</v>
@@ -20404,18 +20416,18 @@
         <v>1</v>
       </c>
       <c r="E630" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="F630" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="G630" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="631" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="B631" s="3" t="b">
         <v>1</v>
@@ -20424,13 +20436,33 @@
         <v>1</v>
       </c>
       <c r="E631" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="F631" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="G631" t="s">
-        <v>2267</v>
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B632" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C632" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E632" t="s">
+        <v>2274</v>
+      </c>
+      <c r="F632" t="s">
+        <v>2275</v>
+      </c>
+      <c r="G632" t="s">
+        <v>2276</v>
       </c>
     </row>
   </sheetData>

--- a/Translations/Translations.xlsx
+++ b/Translations/Translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\source\repos\BSharp\Translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B093EF26-BCE2-4A65-8937-43C35C595978}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C9A65E-C0D0-4B1B-81D3-32C3E8BBC381}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33105" yWindow="7065" windowWidth="18150" windowHeight="12585" xr2:uid="{09F7BBB4-81EA-4503-B8DD-8985A501E98F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="2277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2561" uniqueCount="2305">
   <si>
     <t>Key</t>
   </si>
@@ -6865,6 +6865,90 @@
   </si>
   <si>
     <t>资源定义</t>
+  </si>
+  <si>
+    <t>OperatingSegment</t>
+  </si>
+  <si>
+    <t>Operating Segment</t>
+  </si>
+  <si>
+    <t>قطاع التشغيل</t>
+  </si>
+  <si>
+    <t>Agent_StartDate</t>
+  </si>
+  <si>
+    <t>Agent_Job</t>
+  </si>
+  <si>
+    <t>Agent_BasicSalary</t>
+  </si>
+  <si>
+    <t>Agent_TransportationAllowance</t>
+  </si>
+  <si>
+    <t>Agent_OvertimeRate</t>
+  </si>
+  <si>
+    <t>Agent_BankAccountNumber</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>Basic Salary</t>
+  </si>
+  <si>
+    <t>Transportation Allowance</t>
+  </si>
+  <si>
+    <t>Overtime Rate</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>Bank Account Number</t>
+  </si>
+  <si>
+    <t>تاريخ البدأ</t>
+  </si>
+  <si>
+    <t>الوظيفة</t>
+  </si>
+  <si>
+    <t>الراتب الأساسي</t>
+  </si>
+  <si>
+    <t>علاوة الترحيل</t>
+  </si>
+  <si>
+    <t>أجر العمل الإضافي</t>
+  </si>
+  <si>
+    <t>رقم حساب البنك</t>
+  </si>
+  <si>
+    <t>经营分部</t>
+  </si>
+  <si>
+    <t>开始日期</t>
+  </si>
+  <si>
+    <t>工作</t>
+  </si>
+  <si>
+    <t>基础工资</t>
+  </si>
+  <si>
+    <t>交通补贴</t>
+  </si>
+  <si>
+    <t>加班费</t>
+  </si>
+  <si>
+    <t>银行帐号</t>
   </si>
 </sst>
 </file>
@@ -7267,12 +7351,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FEE134-3B22-427F-8E5A-2A7F994BE2AC}">
-  <dimension ref="A1:G632"/>
+  <dimension ref="A1:G639"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A609" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A624" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A632" sqref="A632:XFD632"/>
+      <selection pane="bottomLeft" activeCell="G633" sqref="G633:G639"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20465,6 +20549,146 @@
         <v>2276</v>
       </c>
     </row>
+    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B633" t="b">
+        <v>1</v>
+      </c>
+      <c r="C633" t="b">
+        <v>1</v>
+      </c>
+      <c r="E633" t="s">
+        <v>2278</v>
+      </c>
+      <c r="F633" t="s">
+        <v>2279</v>
+      </c>
+      <c r="G633" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>2280</v>
+      </c>
+      <c r="B634" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C634" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E634" t="s">
+        <v>2286</v>
+      </c>
+      <c r="F634" t="s">
+        <v>2292</v>
+      </c>
+      <c r="G634" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>2281</v>
+      </c>
+      <c r="B635" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C635" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E635" t="s">
+        <v>2290</v>
+      </c>
+      <c r="F635" t="s">
+        <v>2293</v>
+      </c>
+      <c r="G635" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B636" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C636" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E636" s="3" t="s">
+        <v>2287</v>
+      </c>
+      <c r="F636" t="s">
+        <v>2294</v>
+      </c>
+      <c r="G636" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>2283</v>
+      </c>
+      <c r="B637" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C637" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E637" s="3" t="s">
+        <v>2288</v>
+      </c>
+      <c r="F637" t="s">
+        <v>2295</v>
+      </c>
+      <c r="G637" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>2284</v>
+      </c>
+      <c r="B638" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C638" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E638" s="3" t="s">
+        <v>2289</v>
+      </c>
+      <c r="F638" t="s">
+        <v>2296</v>
+      </c>
+      <c r="G638" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>2285</v>
+      </c>
+      <c r="B639" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C639" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E639" s="3" t="s">
+        <v>2291</v>
+      </c>
+      <c r="F639" t="s">
+        <v>2297</v>
+      </c>
+      <c r="G639" t="s">
+        <v>2304</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G543" xr:uid="{166F55E6-F4CB-49C4-A0B4-8593C255C448}"/>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Translations/Translations.xlsx
+++ b/Translations/Translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\source\repos\BSharp\Translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0677886D-90BD-412D-BB5D-1A25390C2538}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9493B44-AAAC-4DB4-B30F-05AC98D6B87D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31995" yWindow="0" windowWidth="17790" windowHeight="14805" xr2:uid="{09F7BBB4-81EA-4503-B8DD-8985A501E98F}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Translations" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$G$524</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$G$525</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2573" uniqueCount="2307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2577" uniqueCount="2311">
   <si>
     <t>Key</t>
   </si>
@@ -6955,6 +6955,18 @@
   </si>
   <si>
     <t>Your unsaved changes will be discarded, would you like to proceed?</t>
+  </si>
+  <si>
+    <t>Settings_FunctionalCurrency</t>
+  </si>
+  <si>
+    <t>Functional Currency</t>
+  </si>
+  <si>
+    <t>功能货币</t>
+  </si>
+  <si>
+    <t>العملة الوظيفية</t>
   </si>
 </sst>
 </file>
@@ -7360,12 +7372,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FEE134-3B22-427F-8E5A-2A7F994BE2AC}">
-  <dimension ref="A1:G642"/>
+  <dimension ref="A1:G643"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A359" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E405" sqref="E405"/>
+      <selection pane="bottomLeft" activeCell="F346" sqref="F346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14605,30 +14617,29 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
-        <v>1041</v>
+        <v>2307</v>
       </c>
       <c r="B345" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C345" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D345" s="3"/>
       <c r="E345" s="3" t="s">
-        <v>933</v>
+        <v>2308</v>
       </c>
       <c r="F345" s="6" t="s">
-        <v>1169</v>
+        <v>2310</v>
       </c>
       <c r="G345" s="3" t="s">
-        <v>1583</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B346" s="3" t="b">
         <v>0</v>
@@ -14638,18 +14649,18 @@
       </c>
       <c r="D346" s="3"/>
       <c r="E346" s="3" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F346" s="6" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="G346" s="3" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B347" s="3" t="b">
         <v>0</v>
@@ -14659,18 +14670,18 @@
       </c>
       <c r="D347" s="3"/>
       <c r="E347" s="3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F347" s="6" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="G347" s="3" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B348" s="3" t="b">
         <v>0</v>
@@ -14680,18 +14691,18 @@
       </c>
       <c r="D348" s="3"/>
       <c r="E348" s="3" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F348" s="6" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="G348" s="3" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B349" s="3" t="b">
         <v>0</v>
@@ -14701,18 +14712,18 @@
       </c>
       <c r="D349" s="3"/>
       <c r="E349" s="3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F349" s="6" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="G349" s="3" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B350" s="3" t="b">
         <v>0</v>
@@ -14722,18 +14733,18 @@
       </c>
       <c r="D350" s="3"/>
       <c r="E350" s="3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F350" s="6" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="G350" s="3" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B351" s="3" t="b">
         <v>0</v>
@@ -14743,18 +14754,18 @@
       </c>
       <c r="D351" s="3"/>
       <c r="E351" s="3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F351" s="6" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="G351" s="3" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B352" s="3" t="b">
         <v>0</v>
@@ -14764,18 +14775,18 @@
       </c>
       <c r="D352" s="3"/>
       <c r="E352" s="3" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F352" s="6" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="G352" s="3" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B353" s="3" t="b">
         <v>0</v>
@@ -14785,18 +14796,18 @@
       </c>
       <c r="D353" s="3"/>
       <c r="E353" s="3" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F353" s="6" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="G353" s="3" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B354" s="3" t="b">
         <v>0</v>
@@ -14806,18 +14817,18 @@
       </c>
       <c r="D354" s="3"/>
       <c r="E354" s="3" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F354" s="6" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="G354" s="3" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B355" s="3" t="b">
         <v>0</v>
@@ -14827,18 +14838,18 @@
       </c>
       <c r="D355" s="3"/>
       <c r="E355" s="3" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F355" s="6" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="G355" s="3" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B356" s="3" t="b">
         <v>0</v>
@@ -14848,18 +14859,18 @@
       </c>
       <c r="D356" s="3"/>
       <c r="E356" s="3" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F356" s="6" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="G356" s="3" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B357" s="3" t="b">
         <v>0</v>
@@ -14869,18 +14880,18 @@
       </c>
       <c r="D357" s="3"/>
       <c r="E357" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F357" s="6" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="G357" s="3" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B358" s="3" t="b">
         <v>0</v>
@@ -14890,18 +14901,18 @@
       </c>
       <c r="D358" s="3"/>
       <c r="E358" s="3" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F358" s="6" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G358" s="3" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B359" s="3" t="b">
         <v>0</v>
@@ -14911,18 +14922,18 @@
       </c>
       <c r="D359" s="3"/>
       <c r="E359" s="3" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F359" s="6" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G359" s="3" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B360" s="3" t="b">
         <v>0</v>
@@ -14932,18 +14943,18 @@
       </c>
       <c r="D360" s="3"/>
       <c r="E360" s="3" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F360" s="6" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G360" s="3" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B361" s="3" t="b">
         <v>0</v>
@@ -14953,18 +14964,18 @@
       </c>
       <c r="D361" s="3"/>
       <c r="E361" s="3" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F361" s="6" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G361" s="3" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B362" s="3" t="b">
         <v>0</v>
@@ -14974,18 +14985,18 @@
       </c>
       <c r="D362" s="3"/>
       <c r="E362" s="3" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F362" s="6" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="G362" s="3" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B363" s="3" t="b">
         <v>0</v>
@@ -14995,39 +15006,39 @@
       </c>
       <c r="D363" s="3"/>
       <c r="E363" s="3" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F363" s="6" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="G363" s="3" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
-        <v>625</v>
+        <v>1059</v>
       </c>
       <c r="B364" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C364" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D364" s="3"/>
       <c r="E364" s="3" t="s">
-        <v>625</v>
+        <v>951</v>
       </c>
       <c r="F364" s="6" t="s">
-        <v>626</v>
+        <v>1187</v>
       </c>
       <c r="G364" s="3" t="s">
-        <v>1428</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B365" s="3" t="b">
         <v>1</v>
@@ -15037,39 +15048,39 @@
       </c>
       <c r="D365" s="3"/>
       <c r="E365" s="3" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="F365" s="6" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G365" s="3" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B366" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C366" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D366" s="3"/>
       <c r="E366" s="3" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="F366" s="6" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="G366" s="3" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B367" s="3" t="b">
         <v>1</v>
@@ -15079,60 +15090,60 @@
       </c>
       <c r="D367" s="3"/>
       <c r="E367" s="3" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F367" s="6" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G367" s="3" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B368" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C368" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D368" s="3"/>
       <c r="E368" s="3" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="F368" s="6" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="G368" s="3" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B369" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C369" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D369" s="3"/>
       <c r="E369" s="3" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F369" s="6" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G369" s="3" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B370" s="3" t="b">
         <v>1</v>
@@ -15142,18 +15153,18 @@
       </c>
       <c r="D370" s="3"/>
       <c r="E370" s="3" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="F370" s="6" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="G370" s="3" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B371" s="3" t="b">
         <v>1</v>
@@ -15163,39 +15174,39 @@
       </c>
       <c r="D371" s="3"/>
       <c r="E371" s="3" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F371" s="6" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="G371" s="3" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
-        <v>780</v>
+        <v>645</v>
       </c>
       <c r="B372" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C372" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D372" s="3"/>
       <c r="E372" s="3" t="s">
-        <v>782</v>
+        <v>647</v>
       </c>
       <c r="F372" s="6" t="s">
-        <v>781</v>
+        <v>646</v>
       </c>
       <c r="G372" s="3" t="s">
-        <v>1478</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B373" s="3" t="b">
         <v>1</v>
@@ -15205,18 +15216,18 @@
       </c>
       <c r="D373" s="3"/>
       <c r="E373" s="3" t="s">
-        <v>2</v>
+        <v>782</v>
       </c>
       <c r="F373" s="6" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="G373" s="3" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="B374" s="3" t="b">
         <v>1</v>
@@ -15226,18 +15237,18 @@
       </c>
       <c r="D374" s="3"/>
       <c r="E374" s="3" t="s">
-        <v>779</v>
+        <v>2</v>
       </c>
       <c r="F374" s="6" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="G374" s="3" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="B375" s="3" t="b">
         <v>1</v>
@@ -15247,18 +15258,18 @@
       </c>
       <c r="D375" s="3"/>
       <c r="E375" s="3" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="F375" s="6" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="G375" s="3" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B376" s="3" t="b">
         <v>1</v>
@@ -15268,18 +15279,18 @@
       </c>
       <c r="D376" s="3"/>
       <c r="E376" s="3" t="s">
-        <v>723</v>
+        <v>774</v>
       </c>
       <c r="F376" s="6" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="G376" s="3" t="s">
-        <v>1459</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="3" t="s">
-        <v>648</v>
+        <v>775</v>
       </c>
       <c r="B377" s="3" t="b">
         <v>1</v>
@@ -15289,39 +15300,39 @@
       </c>
       <c r="D377" s="3"/>
       <c r="E377" s="3" t="s">
-        <v>648</v>
+        <v>723</v>
       </c>
       <c r="F377" s="6" t="s">
-        <v>649</v>
+        <v>776</v>
       </c>
       <c r="G377" s="3" t="s">
-        <v>1436</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
-        <v>1060</v>
+        <v>648</v>
       </c>
       <c r="B378" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C378" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D378" s="3"/>
       <c r="E378" s="3" t="s">
-        <v>952</v>
+        <v>648</v>
       </c>
       <c r="F378" s="6" t="s">
-        <v>1188</v>
+        <v>649</v>
       </c>
       <c r="G378" s="3" t="s">
-        <v>1602</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B379" s="3" t="b">
         <v>0</v>
@@ -15331,39 +15342,39 @@
       </c>
       <c r="D379" s="3"/>
       <c r="E379" s="3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F379" s="6" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="G379" s="3" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
-        <v>650</v>
+        <v>1061</v>
       </c>
       <c r="B380" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C380" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D380" s="3"/>
       <c r="E380" s="3" t="s">
-        <v>652</v>
+        <v>953</v>
       </c>
       <c r="F380" s="6" t="s">
-        <v>651</v>
+        <v>1189</v>
       </c>
       <c r="G380" s="3" t="s">
-        <v>1437</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B381" s="3" t="b">
         <v>1</v>
@@ -15373,60 +15384,60 @@
       </c>
       <c r="D381" s="3"/>
       <c r="E381" s="3" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F381" s="6" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G381" s="3" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="s">
-        <v>954</v>
+        <v>653</v>
       </c>
       <c r="B382" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C382" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D382" s="3"/>
       <c r="E382" s="3" t="s">
-        <v>954</v>
+        <v>655</v>
       </c>
       <c r="F382" s="6" t="s">
-        <v>1190</v>
+        <v>654</v>
       </c>
       <c r="G382" s="3" t="s">
-        <v>1604</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
-        <v>656</v>
+        <v>954</v>
       </c>
       <c r="B383" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C383" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D383" s="3"/>
       <c r="E383" s="3" t="s">
-        <v>658</v>
+        <v>954</v>
       </c>
       <c r="F383" s="6" t="s">
-        <v>657</v>
+        <v>1190</v>
       </c>
       <c r="G383" s="3" t="s">
-        <v>1439</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B384" s="3" t="b">
         <v>1</v>
@@ -15436,18 +15447,18 @@
       </c>
       <c r="D384" s="3"/>
       <c r="E384" s="3" t="s">
-        <v>8</v>
+        <v>658</v>
       </c>
       <c r="F384" s="6" t="s">
-        <v>319</v>
+        <v>657</v>
       </c>
       <c r="G384" s="3" t="s">
-        <v>1365</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B385" s="3" t="b">
         <v>1</v>
@@ -15457,18 +15468,18 @@
       </c>
       <c r="D385" s="3"/>
       <c r="E385" s="3" t="s">
-        <v>662</v>
+        <v>8</v>
       </c>
       <c r="F385" s="6" t="s">
-        <v>661</v>
+        <v>319</v>
       </c>
       <c r="G385" s="3" t="s">
-        <v>1440</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B386" s="3" t="b">
         <v>1</v>
@@ -15478,39 +15489,39 @@
       </c>
       <c r="D386" s="3"/>
       <c r="E386" s="3" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="F386" s="6" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="G386" s="3" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="3" t="s">
-        <v>955</v>
+        <v>663</v>
       </c>
       <c r="B387" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C387" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D387" s="3"/>
       <c r="E387" s="3" t="s">
-        <v>955</v>
+        <v>665</v>
       </c>
       <c r="F387" s="6" t="s">
-        <v>1191</v>
+        <v>664</v>
       </c>
       <c r="G387" s="3" t="s">
-        <v>1605</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="3" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B388" s="3" t="b">
         <v>0</v>
@@ -15520,39 +15531,39 @@
       </c>
       <c r="D388" s="3"/>
       <c r="E388" s="3" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F388" s="6" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="G388" s="3" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="3" t="s">
-        <v>666</v>
+        <v>956</v>
       </c>
       <c r="B389" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C389" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D389" s="3"/>
       <c r="E389" s="3" t="s">
-        <v>668</v>
+        <v>956</v>
       </c>
       <c r="F389" s="6" t="s">
-        <v>667</v>
+        <v>1192</v>
       </c>
       <c r="G389" s="3" t="s">
-        <v>1442</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="3" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B390" s="3" t="b">
         <v>1</v>
@@ -15562,18 +15573,18 @@
       </c>
       <c r="D390" s="3"/>
       <c r="E390" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F390" s="6" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="G390" s="3" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="3" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B391" s="3" t="b">
         <v>1</v>
@@ -15583,18 +15594,18 @@
       </c>
       <c r="D391" s="3"/>
       <c r="E391" s="3" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="F391" s="6" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="G391" s="3" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="3" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B392" s="3" t="b">
         <v>1</v>
@@ -15604,39 +15615,39 @@
       </c>
       <c r="D392" s="3"/>
       <c r="E392" s="3" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F392" s="6" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="G392" s="3" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="3" t="s">
-        <v>957</v>
+        <v>675</v>
       </c>
       <c r="B393" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C393" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D393" s="3"/>
       <c r="E393" s="3" t="s">
-        <v>957</v>
+        <v>677</v>
       </c>
       <c r="F393" s="6" t="s">
-        <v>1193</v>
+        <v>676</v>
       </c>
       <c r="G393" s="3" t="s">
-        <v>1607</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B394" s="3" t="b">
         <v>0</v>
@@ -15646,81 +15657,81 @@
       </c>
       <c r="D394" s="3"/>
       <c r="E394" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F394" s="6" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="G394" s="3" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="3" t="s">
-        <v>678</v>
+        <v>958</v>
       </c>
       <c r="B395" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C395" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D395" s="3"/>
       <c r="E395" s="3" t="s">
-        <v>680</v>
+        <v>958</v>
       </c>
       <c r="F395" s="6" t="s">
-        <v>679</v>
+        <v>1194</v>
       </c>
       <c r="G395" s="3" t="s">
-        <v>1446</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="3" t="s">
-        <v>1062</v>
+        <v>678</v>
       </c>
       <c r="B396" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C396" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D396" s="3"/>
       <c r="E396" s="3" t="s">
-        <v>959</v>
+        <v>680</v>
       </c>
       <c r="F396" s="6" t="s">
-        <v>1195</v>
+        <v>679</v>
       </c>
       <c r="G396" s="3" t="s">
-        <v>1609</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="3" t="s">
-        <v>681</v>
+        <v>1062</v>
       </c>
       <c r="B397" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C397" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D397" s="3"/>
       <c r="E397" s="3" t="s">
-        <v>681</v>
+        <v>959</v>
       </c>
       <c r="F397" s="6" t="s">
-        <v>682</v>
+        <v>1195</v>
       </c>
       <c r="G397" s="3" t="s">
-        <v>1447</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B398" s="3" t="b">
         <v>1</v>
@@ -15730,18 +15741,18 @@
       </c>
       <c r="D398" s="3"/>
       <c r="E398" s="3" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="F398" s="6" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G398" s="3" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="3" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B399" s="3" t="b">
         <v>1</v>
@@ -15751,18 +15762,18 @@
       </c>
       <c r="D399" s="3"/>
       <c r="E399" s="3" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="F399" s="6" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="G399" s="3" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="3" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B400" s="3" t="b">
         <v>1</v>
@@ -15772,18 +15783,18 @@
       </c>
       <c r="D400" s="3"/>
       <c r="E400" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F400" s="6" t="s">
-        <v>1213</v>
+        <v>687</v>
       </c>
       <c r="G400" s="3" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="3" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B401" s="3" t="b">
         <v>1</v>
@@ -15793,39 +15804,39 @@
       </c>
       <c r="D401" s="3"/>
       <c r="E401" s="3" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F401" s="6" t="s">
-        <v>692</v>
+        <v>1213</v>
       </c>
       <c r="G401" s="3" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="3" t="s">
-        <v>960</v>
+        <v>691</v>
       </c>
       <c r="B402" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C402" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D402" s="3"/>
       <c r="E402" s="3" t="s">
-        <v>960</v>
+        <v>693</v>
       </c>
       <c r="F402" s="6" t="s">
-        <v>1196</v>
+        <v>692</v>
       </c>
       <c r="G402" s="3" t="s">
-        <v>1610</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="3" t="s">
-        <v>1063</v>
+        <v>960</v>
       </c>
       <c r="B403" s="3" t="b">
         <v>0</v>
@@ -15835,18 +15846,18 @@
       </c>
       <c r="D403" s="3"/>
       <c r="E403" s="3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F403" s="6" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="G403" s="3" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="3" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B404" s="3" t="b">
         <v>0</v>
@@ -15856,18 +15867,18 @@
       </c>
       <c r="D404" s="3"/>
       <c r="E404" s="3" t="s">
-        <v>2306</v>
+        <v>961</v>
       </c>
       <c r="F404" s="6" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="G404" s="3" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="3" t="s">
-        <v>970</v>
+        <v>1064</v>
       </c>
       <c r="B405" s="3" t="b">
         <v>0</v>
@@ -15877,39 +15888,39 @@
       </c>
       <c r="D405" s="3"/>
       <c r="E405" s="3" t="s">
-        <v>970</v>
+        <v>2306</v>
       </c>
       <c r="F405" s="6" t="s">
-        <v>1207</v>
+        <v>1198</v>
       </c>
       <c r="G405" s="3" t="s">
-        <v>1620</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
-        <v>590</v>
+        <v>970</v>
       </c>
       <c r="B406" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C406" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D406" s="3"/>
       <c r="E406" s="3" t="s">
-        <v>590</v>
+        <v>970</v>
       </c>
       <c r="F406" s="6" t="s">
-        <v>694</v>
+        <v>1207</v>
       </c>
       <c r="G406" s="3" t="s">
-        <v>1415</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="3" t="s">
-        <v>695</v>
+        <v>590</v>
       </c>
       <c r="B407" s="3" t="b">
         <v>1</v>
@@ -15919,18 +15930,18 @@
       </c>
       <c r="D407" s="3"/>
       <c r="E407" s="3" t="s">
-        <v>23</v>
+        <v>590</v>
       </c>
       <c r="F407" s="6" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G407" s="3" t="s">
-        <v>1221</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B408" s="3" t="b">
         <v>1</v>
@@ -15940,18 +15951,18 @@
       </c>
       <c r="D408" s="3"/>
       <c r="E408" s="3" t="s">
-        <v>699</v>
+        <v>23</v>
       </c>
       <c r="F408" s="6" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G408" s="3" t="s">
-        <v>1452</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="3" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B409" s="3" t="b">
         <v>1</v>
@@ -15961,18 +15972,18 @@
       </c>
       <c r="D409" s="3"/>
       <c r="E409" s="3" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="F409" s="6" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="G409" s="3" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="3" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B410" s="3" t="b">
         <v>1</v>
@@ -15982,59 +15993,59 @@
       </c>
       <c r="D410" s="3"/>
       <c r="E410" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="F410" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="G410" s="3" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A411" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="B411" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C411" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D411" s="3"/>
+      <c r="E411" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F410" s="6" t="s">
+      <c r="F411" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="G410" s="3" t="s">
+      <c r="G411" s="3" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="411" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A411" s="3" t="s">
+    <row r="412" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A412" s="3" t="s">
         <v>2253</v>
       </c>
-      <c r="B411" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C411" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E411" s="3" t="s">
+      <c r="B412" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C412" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E412" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="F411" s="6" t="s">
+      <c r="F412" s="6" t="s">
         <v>789</v>
       </c>
-      <c r="G411" s="3" t="s">
+      <c r="G412" s="3" t="s">
         <v>1481</v>
-      </c>
-    </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A412" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="B412" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C412" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D412" s="3"/>
-      <c r="E412" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="F412" s="6" t="s">
-        <v>705</v>
-      </c>
-      <c r="G412" s="3" t="s">
-        <v>1454</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="3" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B413" s="3" t="b">
         <v>1</v>
@@ -16044,18 +16055,18 @@
       </c>
       <c r="D413" s="3"/>
       <c r="E413" s="3" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="F413" s="6" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="G413" s="3" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="3" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B414" s="3" t="b">
         <v>1</v>
@@ -16065,39 +16076,39 @@
       </c>
       <c r="D414" s="3"/>
       <c r="E414" s="3" t="s">
-        <v>591</v>
+        <v>709</v>
       </c>
       <c r="F414" s="6" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="G414" s="3" t="s">
-        <v>1385</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B415" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C415" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D415" s="3"/>
       <c r="E415" s="3" t="s">
-        <v>714</v>
+        <v>591</v>
       </c>
       <c r="F415" s="6" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="G415" s="3" t="s">
-        <v>1456</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="3" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B416" s="3" t="b">
         <v>1</v>
@@ -16107,60 +16118,60 @@
       </c>
       <c r="D416" s="3"/>
       <c r="E416" s="3" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="F416" s="6" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="G416" s="3" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="3" t="s">
-        <v>1065</v>
+        <v>715</v>
       </c>
       <c r="B417" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C417" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D417" s="3"/>
       <c r="E417" s="3" t="s">
-        <v>962</v>
+        <v>717</v>
       </c>
       <c r="F417" s="6" t="s">
-        <v>1199</v>
+        <v>716</v>
       </c>
       <c r="G417" s="3" t="s">
-        <v>1640</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="3" t="s">
-        <v>718</v>
+        <v>1065</v>
       </c>
       <c r="B418" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C418" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D418" s="3"/>
       <c r="E418" s="3" t="s">
-        <v>720</v>
+        <v>962</v>
       </c>
       <c r="F418" s="6" t="s">
-        <v>719</v>
+        <v>1199</v>
       </c>
       <c r="G418" s="3" t="s">
-        <v>1458</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="3" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B419" s="3" t="b">
         <v>1</v>
@@ -16170,18 +16181,18 @@
       </c>
       <c r="D419" s="3"/>
       <c r="E419" s="3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="F419" s="6" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G419" s="3" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B420" s="3" t="b">
         <v>1</v>
@@ -16191,60 +16202,60 @@
       </c>
       <c r="D420" s="3"/>
       <c r="E420" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="F420" s="6" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="G420" s="3" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="3" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B421" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C421" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D421" s="3"/>
       <c r="E421" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F421" s="6" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="G421" s="3" t="s">
-        <v>1415</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B422" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C422" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D422" s="3"/>
       <c r="E422" s="3" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="F422" s="6" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="G422" s="3" t="s">
-        <v>1461</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="3" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B423" s="3" t="b">
         <v>1</v>
@@ -16254,18 +16265,18 @@
       </c>
       <c r="D423" s="3"/>
       <c r="E423" s="3" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="F423" s="6" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="G423" s="3" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="3" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B424" s="3" t="b">
         <v>1</v>
@@ -16275,39 +16286,39 @@
       </c>
       <c r="D424" s="3"/>
       <c r="E424" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F424" s="6" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="G424" s="3" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="3" t="s">
-        <v>506</v>
+        <v>735</v>
       </c>
       <c r="B425" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C425" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D425" s="3"/>
       <c r="E425" s="3" t="s">
-        <v>506</v>
+        <v>735</v>
       </c>
       <c r="F425" s="6" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G425" s="3" t="s">
-        <v>1387</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="3" t="s">
-        <v>738</v>
+        <v>506</v>
       </c>
       <c r="B426" s="3" t="b">
         <v>1</v>
@@ -16317,18 +16328,18 @@
       </c>
       <c r="D426" s="3"/>
       <c r="E426" s="3" t="s">
-        <v>740</v>
+        <v>506</v>
       </c>
       <c r="F426" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="G426" s="3" t="s">
-        <v>1464</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="3" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B427" s="3" t="b">
         <v>1</v>
@@ -16338,39 +16349,39 @@
       </c>
       <c r="D427" s="3"/>
       <c r="E427" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F427" s="6" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="G427" s="3" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="3" t="s">
-        <v>1066</v>
+        <v>741</v>
       </c>
       <c r="B428" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C428" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D428" s="3"/>
       <c r="E428" s="3" t="s">
-        <v>963</v>
+        <v>741</v>
       </c>
       <c r="F428" s="6" t="s">
-        <v>1200</v>
+        <v>742</v>
       </c>
       <c r="G428" s="3" t="s">
-        <v>1613</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="3" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B429" s="3" t="b">
         <v>0</v>
@@ -16380,18 +16391,18 @@
       </c>
       <c r="D429" s="3"/>
       <c r="E429" s="3" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F429" s="6" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="G429" s="3" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="3" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B430" s="3" t="b">
         <v>0</v>
@@ -16401,18 +16412,18 @@
       </c>
       <c r="D430" s="3"/>
       <c r="E430" s="3" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F430" s="6" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="G430" s="3" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="3" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B431" s="3" t="b">
         <v>0</v>
@@ -16422,60 +16433,60 @@
       </c>
       <c r="D431" s="3"/>
       <c r="E431" s="3" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F431" s="6" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="G431" s="3" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="3" t="s">
-        <v>743</v>
+        <v>1069</v>
       </c>
       <c r="B432" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C432" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D432" s="3"/>
       <c r="E432" s="3" t="s">
-        <v>743</v>
+        <v>966</v>
       </c>
       <c r="F432" s="6" t="s">
-        <v>744</v>
+        <v>1203</v>
       </c>
       <c r="G432" s="3" t="s">
-        <v>1466</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="3" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B433" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C433" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D433" s="3"/>
       <c r="E433" s="3" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="F433" s="6" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="G433" s="3" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B434" s="3" t="b">
         <v>1</v>
@@ -16485,18 +16496,18 @@
       </c>
       <c r="D434" s="3"/>
       <c r="E434" s="3" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="F434" s="6" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="G434" s="3" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="3" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="B435" s="3" t="b">
         <v>1</v>
@@ -16506,18 +16517,18 @@
       </c>
       <c r="D435" s="3"/>
       <c r="E435" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F435" s="6" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="G435" s="3" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B436" s="3" t="b">
         <v>1</v>
@@ -16527,18 +16538,18 @@
       </c>
       <c r="D436" s="3"/>
       <c r="E436" s="3" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="F436" s="6" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="G436" s="3" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="3" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B437" s="3" t="b">
         <v>1</v>
@@ -16548,18 +16559,18 @@
       </c>
       <c r="D437" s="3"/>
       <c r="E437" s="3" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="F437" s="6" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="G437" s="3" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="3" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B438" s="3" t="b">
         <v>1</v>
@@ -16569,18 +16580,18 @@
       </c>
       <c r="D438" s="3"/>
       <c r="E438" s="3" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="F438" s="6" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="G438" s="3" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="3" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B439" s="3" t="b">
         <v>1</v>
@@ -16590,39 +16601,39 @@
       </c>
       <c r="D439" s="3"/>
       <c r="E439" s="3" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="F439" s="6" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="G439" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="3" t="s">
-        <v>1642</v>
+        <v>763</v>
       </c>
       <c r="B440" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C440" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D440" s="3"/>
       <c r="E440" s="3" t="s">
-        <v>1643</v>
+        <v>765</v>
       </c>
       <c r="F440" s="6" t="s">
-        <v>1644</v>
+        <v>764</v>
       </c>
       <c r="G440" s="3" t="s">
-        <v>1756</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="3" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
       <c r="B441" s="3" t="b">
         <v>1</v>
@@ -16632,18 +16643,18 @@
       </c>
       <c r="D441" s="3"/>
       <c r="E441" s="3" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
       <c r="F441" s="6" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="G441" s="3" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="3" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="B442" s="3" t="b">
         <v>1</v>
@@ -16653,18 +16664,18 @@
       </c>
       <c r="D442" s="3"/>
       <c r="E442" s="3" t="s">
-        <v>648</v>
+        <v>1647</v>
       </c>
       <c r="F442" s="6" t="s">
-        <v>1674</v>
+        <v>1646</v>
       </c>
       <c r="G442" s="3" t="s">
-        <v>1436</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="3" t="s">
-        <v>1658</v>
+        <v>1648</v>
       </c>
       <c r="B443" s="3" t="b">
         <v>1</v>
@@ -16674,18 +16685,18 @@
       </c>
       <c r="D443" s="3"/>
       <c r="E443" s="3" t="s">
-        <v>1649</v>
+        <v>648</v>
       </c>
       <c r="F443" s="6" t="s">
-        <v>1146</v>
+        <v>1674</v>
       </c>
       <c r="G443" s="3" t="s">
-        <v>1758</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="3" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="B444" s="3" t="b">
         <v>1</v>
@@ -16695,18 +16706,18 @@
       </c>
       <c r="D444" s="3"/>
       <c r="E444" s="3" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="F444" s="6" t="s">
-        <v>1667</v>
+        <v>1146</v>
       </c>
       <c r="G444" s="3" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="3" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B445" s="3" t="b">
         <v>1</v>
@@ -16716,18 +16727,18 @@
       </c>
       <c r="D445" s="3"/>
       <c r="E445" s="3" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="F445" s="6" t="s">
-        <v>1675</v>
+        <v>1667</v>
       </c>
       <c r="G445" s="3" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="3" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="B446" s="3" t="b">
         <v>1</v>
@@ -16737,18 +16748,18 @@
       </c>
       <c r="D446" s="3"/>
       <c r="E446" s="3" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="F446" s="6" t="s">
-        <v>1668</v>
+        <v>1675</v>
       </c>
       <c r="G446" s="3" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="3" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="B447" s="3" t="b">
         <v>1</v>
@@ -16758,18 +16769,18 @@
       </c>
       <c r="D447" s="3"/>
       <c r="E447" s="3" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="F447" s="6" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="G447" s="3" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="3" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="B448" s="3" t="b">
         <v>1</v>
@@ -16779,18 +16790,18 @@
       </c>
       <c r="D448" s="3"/>
       <c r="E448" s="3" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="F448" s="6" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="G448" s="3" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="3" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="B449" s="3" t="b">
         <v>1</v>
@@ -16800,18 +16811,18 @@
       </c>
       <c r="D449" s="3"/>
       <c r="E449" s="3" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="F449" s="6" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="G449" s="3" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="3" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="B450" s="3" t="b">
         <v>1</v>
@@ -16821,18 +16832,18 @@
       </c>
       <c r="D450" s="3"/>
       <c r="E450" s="3" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="F450" s="6" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="G450" s="3" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="3" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="B451" s="3" t="b">
         <v>1</v>
@@ -16842,18 +16853,18 @@
       </c>
       <c r="D451" s="3"/>
       <c r="E451" s="3" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="F451" s="6" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="G451" s="3" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="3" t="s">
-        <v>1676</v>
+        <v>1666</v>
       </c>
       <c r="B452" s="3" t="b">
         <v>1</v>
@@ -16863,18 +16874,18 @@
       </c>
       <c r="D452" s="3"/>
       <c r="E452" s="3" t="s">
-        <v>1677</v>
+        <v>1657</v>
       </c>
       <c r="F452" s="6" t="s">
-        <v>1678</v>
+        <v>1673</v>
       </c>
       <c r="G452" s="3" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="3" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="B453" s="3" t="b">
         <v>1</v>
@@ -16884,18 +16895,18 @@
       </c>
       <c r="D453" s="3"/>
       <c r="E453" s="3" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
       <c r="F453" s="6" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="G453" s="3" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="3" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="B454" s="3" t="b">
         <v>1</v>
@@ -16905,18 +16916,18 @@
       </c>
       <c r="D454" s="3"/>
       <c r="E454" s="3" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="F454" s="6" t="s">
-        <v>832</v>
+        <v>1680</v>
       </c>
       <c r="G454" s="3" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="3" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="B455" s="3" t="b">
         <v>1</v>
@@ -16926,18 +16937,18 @@
       </c>
       <c r="D455" s="3"/>
       <c r="E455" s="3" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="F455" s="6" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G455" s="3" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="3" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="B456" s="3" t="b">
         <v>1</v>
@@ -16947,18 +16958,18 @@
       </c>
       <c r="D456" s="3"/>
       <c r="E456" s="3" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="F456" s="6" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G456" s="3" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="3" t="s">
-        <v>1689</v>
+        <v>1684</v>
       </c>
       <c r="B457" s="3" t="b">
         <v>1</v>
@@ -16968,18 +16979,18 @@
       </c>
       <c r="D457" s="3"/>
       <c r="E457" s="3" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
       <c r="F457" s="6" t="s">
-        <v>1693</v>
+        <v>834</v>
       </c>
       <c r="G457" s="3" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="3" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B458" s="3" t="b">
         <v>1</v>
@@ -16989,18 +17000,18 @@
       </c>
       <c r="D458" s="3"/>
       <c r="E458" s="3" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="F458" s="6" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="G458" s="3" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="3" t="s">
-        <v>1695</v>
+        <v>1690</v>
       </c>
       <c r="B459" s="3" t="b">
         <v>1</v>
@@ -17010,18 +17021,18 @@
       </c>
       <c r="D459" s="3"/>
       <c r="E459" s="3" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="F459" s="6" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="G459" s="3" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="3" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
       <c r="B460" s="3" t="b">
         <v>1</v>
@@ -17031,18 +17042,18 @@
       </c>
       <c r="D460" s="3"/>
       <c r="E460" s="3" t="s">
-        <v>1701</v>
+        <v>1696</v>
       </c>
       <c r="F460" s="6" t="s">
-        <v>1704</v>
+        <v>1697</v>
       </c>
       <c r="G460" s="3" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="3" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="B461" s="3" t="b">
         <v>1</v>
@@ -17052,18 +17063,18 @@
       </c>
       <c r="D461" s="3"/>
       <c r="E461" s="3" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="F461" s="6" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="G461" s="3" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="3" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="B462" s="3" t="b">
         <v>1</v>
@@ -17073,18 +17084,18 @@
       </c>
       <c r="D462" s="3"/>
       <c r="E462" s="3" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="F462" s="6" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="G462" s="3" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="3" t="s">
-        <v>1707</v>
+        <v>1700</v>
       </c>
       <c r="B463" s="3" t="b">
         <v>1</v>
@@ -17094,18 +17105,18 @@
       </c>
       <c r="D463" s="3"/>
       <c r="E463" s="3" t="s">
-        <v>1711</v>
+        <v>1703</v>
       </c>
       <c r="F463" s="6" t="s">
-        <v>1715</v>
+        <v>1706</v>
       </c>
       <c r="G463" s="3" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="3" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B464" s="3" t="b">
         <v>1</v>
@@ -17115,18 +17126,18 @@
       </c>
       <c r="D464" s="3"/>
       <c r="E464" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="F464" s="6" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="G464" s="3" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="3" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="B465" s="3" t="b">
         <v>1</v>
@@ -17136,18 +17147,18 @@
       </c>
       <c r="D465" s="3"/>
       <c r="E465" s="3" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="F465" s="6" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="G465" s="3" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="3" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B466" s="3" t="b">
         <v>1</v>
@@ -17157,18 +17168,18 @@
       </c>
       <c r="D466" s="3"/>
       <c r="E466" s="3" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="F466" s="6" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="G466" s="3" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="3" t="s">
-        <v>1719</v>
+        <v>1710</v>
       </c>
       <c r="B467" s="3" t="b">
         <v>1</v>
@@ -17178,18 +17189,18 @@
       </c>
       <c r="D467" s="3"/>
       <c r="E467" s="3" t="s">
-        <v>1630</v>
+        <v>1714</v>
       </c>
       <c r="F467" s="6" t="s">
-        <v>1740</v>
+        <v>1718</v>
       </c>
       <c r="G467" s="3" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="3" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="B468" s="3" t="b">
         <v>1</v>
@@ -17199,18 +17210,18 @@
       </c>
       <c r="D468" s="3"/>
       <c r="E468" s="3" t="s">
-        <v>1736</v>
+        <v>1630</v>
       </c>
       <c r="F468" s="6" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="G468" s="3" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="3" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="B469" s="3" t="b">
         <v>1</v>
@@ -17220,18 +17231,18 @@
       </c>
       <c r="D469" s="3"/>
       <c r="E469" s="3" t="s">
-        <v>23</v>
+        <v>1736</v>
       </c>
       <c r="F469" s="6" t="s">
-        <v>696</v>
+        <v>1741</v>
       </c>
       <c r="G469" s="3" t="s">
-        <v>1221</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="3" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B470" s="3" t="b">
         <v>1</v>
@@ -17241,18 +17252,18 @@
       </c>
       <c r="D470" s="3"/>
       <c r="E470" s="3" t="s">
-        <v>1737</v>
+        <v>23</v>
       </c>
       <c r="F470" s="6" t="s">
-        <v>1742</v>
+        <v>696</v>
       </c>
       <c r="G470" s="3" t="s">
-        <v>1784</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="3" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="B471" s="3" t="b">
         <v>1</v>
@@ -17262,18 +17273,18 @@
       </c>
       <c r="D471" s="3"/>
       <c r="E471" s="3" t="s">
-        <v>1733</v>
+        <v>1737</v>
       </c>
       <c r="F471" s="6" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="G471" s="3" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="3" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="B472" s="3" t="b">
         <v>1</v>
@@ -17283,18 +17294,18 @@
       </c>
       <c r="D472" s="3"/>
       <c r="E472" s="3" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
       <c r="F472" s="6" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="G472" s="3" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="3" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="B473" s="3" t="b">
         <v>1</v>
@@ -17304,18 +17315,18 @@
       </c>
       <c r="D473" s="3"/>
       <c r="E473" s="3" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F473" s="6" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G473" s="3" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="3" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="B474" s="3" t="b">
         <v>1</v>
@@ -17325,18 +17336,18 @@
       </c>
       <c r="D474" s="3"/>
       <c r="E474" s="3" t="s">
-        <v>428</v>
+        <v>1739</v>
       </c>
       <c r="F474" s="6" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="G474" s="3" t="s">
-        <v>1359</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="B475" s="3" t="b">
         <v>1</v>
@@ -17346,18 +17357,18 @@
       </c>
       <c r="D475" s="3"/>
       <c r="E475" s="3" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="F475" s="6" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="G475" s="3" t="s">
-        <v>1364</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="3" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="B476" s="3" t="b">
         <v>1</v>
@@ -17367,18 +17378,18 @@
       </c>
       <c r="D476" s="3"/>
       <c r="E476" s="3" t="s">
-        <v>1734</v>
+        <v>443</v>
       </c>
       <c r="F476" s="6" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="G476" s="3" t="s">
-        <v>1788</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="3" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="B477" s="3" t="b">
         <v>1</v>
@@ -17388,18 +17399,18 @@
       </c>
       <c r="D477" s="3"/>
       <c r="E477" s="3" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="F477" s="6" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="G477" s="3" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="3" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="B478" s="3" t="b">
         <v>1</v>
@@ -17409,18 +17420,18 @@
       </c>
       <c r="D478" s="3"/>
       <c r="E478" s="3" t="s">
-        <v>434</v>
+        <v>1735</v>
       </c>
       <c r="F478" s="6" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="G478" s="3" t="s">
-        <v>1361</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="3" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="B479" s="3" t="b">
         <v>1</v>
@@ -17430,18 +17441,18 @@
       </c>
       <c r="D479" s="3"/>
       <c r="E479" s="3" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="F479" s="6" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="G479" s="3" t="s">
-        <v>1357</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="3" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="B480" s="3" t="b">
         <v>1</v>
@@ -17451,18 +17462,18 @@
       </c>
       <c r="D480" s="3"/>
       <c r="E480" s="3" t="s">
-        <v>665</v>
+        <v>422</v>
       </c>
       <c r="F480" s="6" t="s">
-        <v>664</v>
+        <v>1751</v>
       </c>
       <c r="G480" s="3" t="s">
-        <v>1441</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="3" t="s">
-        <v>817</v>
+        <v>1732</v>
       </c>
       <c r="B481" s="3" t="b">
         <v>1</v>
@@ -17472,18 +17483,18 @@
       </c>
       <c r="D481" s="3"/>
       <c r="E481" s="3" t="s">
-        <v>817</v>
+        <v>665</v>
       </c>
       <c r="F481" s="6" t="s">
-        <v>1754</v>
+        <v>664</v>
       </c>
       <c r="G481" s="3" t="s">
-        <v>1490</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="3" t="s">
-        <v>1752</v>
+        <v>817</v>
       </c>
       <c r="B482" s="3" t="b">
         <v>1</v>
@@ -17493,18 +17504,18 @@
       </c>
       <c r="D482" s="3"/>
       <c r="E482" s="3" t="s">
-        <v>1752</v>
+        <v>817</v>
       </c>
       <c r="F482" s="6" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="G482" s="3" t="s">
         <v>1490</v>
       </c>
     </row>
-    <row r="483" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="3" t="s">
-        <v>2076</v>
+        <v>1752</v>
       </c>
       <c r="B483" s="3" t="b">
         <v>1</v>
@@ -17512,19 +17523,20 @@
       <c r="C483" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="D483" s="3"/>
       <c r="E483" s="3" t="s">
-        <v>2078</v>
+        <v>1752</v>
       </c>
       <c r="F483" s="6" t="s">
-        <v>2080</v>
+        <v>1753</v>
       </c>
       <c r="G483" s="3" t="s">
-        <v>2082</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="484" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A484" s="3" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="B484" s="3" t="b">
         <v>1</v>
@@ -17533,18 +17545,18 @@
         <v>1</v>
       </c>
       <c r="E484" s="3" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="F484" s="6" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="G484" s="3" t="s">
         <v>2082</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A485" s="3" t="s">
-        <v>2204</v>
+        <v>2077</v>
       </c>
       <c r="B485" s="3" t="b">
         <v>1</v>
@@ -17552,20 +17564,19 @@
       <c r="C485" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D485" s="3"/>
       <c r="E485" s="3" t="s">
-        <v>808</v>
+        <v>2079</v>
       </c>
       <c r="F485" s="6" t="s">
-        <v>807</v>
+        <v>2081</v>
       </c>
       <c r="G485" s="3" t="s">
-        <v>1487</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="3" t="s">
-        <v>1794</v>
+        <v>2204</v>
       </c>
       <c r="B486" s="3" t="b">
         <v>1</v>
@@ -17575,18 +17586,18 @@
       </c>
       <c r="D486" s="3"/>
       <c r="E486" s="3" t="s">
-        <v>1799</v>
+        <v>808</v>
       </c>
       <c r="F486" s="6" t="s">
-        <v>1800</v>
+        <v>807</v>
       </c>
       <c r="G486" s="3" t="s">
-        <v>1803</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="3" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="B487" s="3" t="b">
         <v>1</v>
@@ -17596,10 +17607,10 @@
       </c>
       <c r="D487" s="3"/>
       <c r="E487" s="3" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="F487" s="6" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="G487" s="3" t="s">
         <v>1803</v>
@@ -17607,7 +17618,7 @@
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="3" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B488" s="3" t="b">
         <v>1</v>
@@ -17617,81 +17628,81 @@
       </c>
       <c r="D488" s="3"/>
       <c r="E488" s="3" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="F488" s="6" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="G488" s="3" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="3" t="s">
-        <v>1805</v>
+        <v>1796</v>
       </c>
       <c r="B489" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C489" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D489" s="3"/>
       <c r="E489" s="3" t="s">
-        <v>1806</v>
+        <v>1797</v>
       </c>
       <c r="F489" s="6" t="s">
-        <v>1807</v>
+        <v>1802</v>
       </c>
       <c r="G489" s="3" t="s">
-        <v>1808</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="3" t="s">
-        <v>1809</v>
+        <v>1805</v>
       </c>
       <c r="B490" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C490" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D490" s="3"/>
       <c r="E490" s="3" t="s">
-        <v>1810</v>
+        <v>1806</v>
       </c>
       <c r="F490" s="6" t="s">
-        <v>1811</v>
+        <v>1807</v>
       </c>
       <c r="G490" s="3" t="s">
-        <v>1812</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="3" t="s">
-        <v>1813</v>
+        <v>1809</v>
       </c>
       <c r="B491" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C491" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D491" s="3"/>
       <c r="E491" s="3" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
       <c r="F491" s="6" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
       <c r="G491" s="3" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="3" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
       <c r="B492" s="3" t="b">
         <v>0</v>
@@ -17701,39 +17712,39 @@
       </c>
       <c r="D492" s="3"/>
       <c r="E492" s="3" t="s">
-        <v>1817</v>
+        <v>1813</v>
       </c>
       <c r="F492" s="6" t="s">
-        <v>1818</v>
+        <v>1814</v>
       </c>
       <c r="G492" s="3" t="s">
-        <v>1819</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="3" t="s">
-        <v>1820</v>
+        <v>1816</v>
       </c>
       <c r="B493" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C493" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D493" s="3"/>
       <c r="E493" s="3" t="s">
-        <v>1821</v>
+        <v>1817</v>
       </c>
       <c r="F493" s="6" t="s">
-        <v>1822</v>
+        <v>1818</v>
       </c>
       <c r="G493" s="3" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="3" t="s">
-        <v>1824</v>
+        <v>1820</v>
       </c>
       <c r="B494" s="3" t="b">
         <v>1</v>
@@ -17743,18 +17754,18 @@
       </c>
       <c r="D494" s="3"/>
       <c r="E494" s="3" t="s">
-        <v>1825</v>
+        <v>1821</v>
       </c>
       <c r="F494" s="6" t="s">
-        <v>1826</v>
+        <v>1822</v>
       </c>
       <c r="G494" s="3" t="s">
-        <v>1827</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="3" t="s">
-        <v>2254</v>
+        <v>1824</v>
       </c>
       <c r="B495" s="3" t="b">
         <v>1</v>
@@ -17764,39 +17775,39 @@
       </c>
       <c r="D495" s="3"/>
       <c r="E495" s="3" t="s">
-        <v>1828</v>
+        <v>1825</v>
       </c>
       <c r="F495" s="6" t="s">
-        <v>1829</v>
+        <v>1826</v>
       </c>
       <c r="G495" s="3" t="s">
-        <v>1830</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A496" s="4" t="s">
-        <v>1835</v>
+      <c r="A496" s="3" t="s">
+        <v>2254</v>
       </c>
       <c r="B496" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C496" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D496" s="3"/>
       <c r="E496" s="3" t="s">
-        <v>1836</v>
+        <v>1828</v>
       </c>
       <c r="F496" s="6" t="s">
-        <v>1837</v>
+        <v>1829</v>
       </c>
       <c r="G496" s="3" t="s">
-        <v>1838</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A497" s="3" t="s">
-        <v>1831</v>
+      <c r="A497" s="4" t="s">
+        <v>1835</v>
       </c>
       <c r="B497" s="3" t="b">
         <v>0</v>
@@ -17806,80 +17817,80 @@
       </c>
       <c r="D497" s="3"/>
       <c r="E497" s="3" t="s">
+        <v>1836</v>
+      </c>
+      <c r="F497" s="6" t="s">
+        <v>1837</v>
+      </c>
+      <c r="G497" s="3" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A498" s="3" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B498" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C498" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D498" s="3"/>
+      <c r="E498" s="3" t="s">
         <v>1832</v>
       </c>
-      <c r="F497" s="6" t="s">
+      <c r="F498" s="6" t="s">
         <v>1833</v>
       </c>
-      <c r="G497" s="3" t="s">
+      <c r="G498" s="3" t="s">
         <v>1834</v>
       </c>
     </row>
-    <row r="498" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A498" s="3" t="s">
+    <row r="499" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A499" s="3" t="s">
         <v>1839</v>
       </c>
-      <c r="B498" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C498" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E498" s="3" t="s">
+      <c r="B499" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C499" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E499" s="3" t="s">
         <v>1840</v>
       </c>
-      <c r="F498" s="6" t="s">
+      <c r="F499" s="6" t="s">
         <v>1841</v>
       </c>
-      <c r="G498" s="3" t="s">
+      <c r="G499" s="3" t="s">
         <v>1845</v>
-      </c>
-    </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A499" s="3" t="s">
-        <v>1842</v>
-      </c>
-      <c r="B499" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C499" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D499" s="3"/>
-      <c r="E499" s="3" t="s">
-        <v>1843</v>
-      </c>
-      <c r="F499" s="6" t="s">
-        <v>1844</v>
-      </c>
-      <c r="G499" s="3" t="s">
-        <v>1846</v>
       </c>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="3" t="s">
-        <v>1630</v>
+        <v>1842</v>
       </c>
       <c r="B500" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C500" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D500" s="3"/>
       <c r="E500" s="3" t="s">
-        <v>1630</v>
+        <v>1843</v>
       </c>
       <c r="F500" s="6" t="s">
-        <v>1856</v>
+        <v>1844</v>
       </c>
       <c r="G500" s="3" t="s">
-        <v>1782</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="3" t="s">
-        <v>1852</v>
+        <v>1630</v>
       </c>
       <c r="B501" s="3" t="b">
         <v>1</v>
@@ -17889,18 +17900,18 @@
       </c>
       <c r="D501" s="3"/>
       <c r="E501" s="3" t="s">
-        <v>1852</v>
+        <v>1630</v>
       </c>
       <c r="F501" s="6" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="G501" s="3" t="s">
-        <v>1861</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" s="3" t="s">
-        <v>1866</v>
+        <v>1852</v>
       </c>
       <c r="B502" s="3" t="b">
         <v>1</v>
@@ -17910,18 +17921,18 @@
       </c>
       <c r="D502" s="3"/>
       <c r="E502" s="3" t="s">
-        <v>1868</v>
+        <v>1852</v>
       </c>
       <c r="F502" s="6" t="s">
-        <v>1869</v>
+        <v>1857</v>
       </c>
       <c r="G502" s="3" t="s">
-        <v>1870</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="3" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="B503" s="3" t="b">
         <v>1</v>
@@ -17931,18 +17942,18 @@
       </c>
       <c r="D503" s="3"/>
       <c r="E503" s="3" t="s">
-        <v>817</v>
+        <v>1868</v>
       </c>
       <c r="F503" s="6" t="s">
-        <v>439</v>
+        <v>1869</v>
       </c>
       <c r="G503" s="3" t="s">
-        <v>1490</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="3" t="s">
-        <v>1848</v>
+        <v>1867</v>
       </c>
       <c r="B504" s="3" t="b">
         <v>1</v>
@@ -17952,18 +17963,18 @@
       </c>
       <c r="D504" s="3"/>
       <c r="E504" s="3" t="s">
-        <v>1853</v>
+        <v>817</v>
       </c>
       <c r="F504" s="6" t="s">
-        <v>1860</v>
+        <v>439</v>
       </c>
       <c r="G504" s="3" t="s">
-        <v>1862</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="3" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="B505" s="3" t="b">
         <v>1</v>
@@ -17973,18 +17984,18 @@
       </c>
       <c r="D505" s="3"/>
       <c r="E505" s="3" t="s">
-        <v>1737</v>
+        <v>1853</v>
       </c>
       <c r="F505" s="6" t="s">
-        <v>1742</v>
+        <v>1860</v>
       </c>
       <c r="G505" s="3" t="s">
-        <v>1784</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="3" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="B506" s="3" t="b">
         <v>1</v>
@@ -17994,18 +18005,18 @@
       </c>
       <c r="D506" s="3"/>
       <c r="E506" s="3" t="s">
-        <v>1854</v>
+        <v>1737</v>
       </c>
       <c r="F506" s="6" t="s">
-        <v>1858</v>
+        <v>1742</v>
       </c>
       <c r="G506" s="3" t="s">
-        <v>1863</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" s="3" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="B507" s="3" t="b">
         <v>1</v>
@@ -18015,18 +18026,18 @@
       </c>
       <c r="D507" s="3"/>
       <c r="E507" s="3" t="s">
-        <v>1733</v>
+        <v>1854</v>
       </c>
       <c r="F507" s="6" t="s">
-        <v>1743</v>
+        <v>1858</v>
       </c>
       <c r="G507" s="3" t="s">
-        <v>1785</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="3" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="B508" s="3" t="b">
         <v>1</v>
@@ -18036,18 +18047,18 @@
       </c>
       <c r="D508" s="3"/>
       <c r="E508" s="3" t="s">
-        <v>1855</v>
+        <v>1733</v>
       </c>
       <c r="F508" s="6" t="s">
-        <v>1859</v>
+        <v>1743</v>
       </c>
       <c r="G508" s="3" t="s">
-        <v>1864</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="3" t="s">
-        <v>1865</v>
+        <v>1851</v>
       </c>
       <c r="B509" s="3" t="b">
         <v>1</v>
@@ -18057,18 +18068,18 @@
       </c>
       <c r="D509" s="3"/>
       <c r="E509" s="3" t="s">
-        <v>1797</v>
+        <v>1855</v>
       </c>
       <c r="F509" s="6" t="s">
-        <v>1802</v>
+        <v>1859</v>
       </c>
       <c r="G509" s="3" t="s">
-        <v>1804</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="3" t="s">
-        <v>1871</v>
+        <v>1865</v>
       </c>
       <c r="B510" s="3" t="b">
         <v>1</v>
@@ -18078,18 +18089,18 @@
       </c>
       <c r="D510" s="3"/>
       <c r="E510" s="3" t="s">
-        <v>1874</v>
+        <v>1797</v>
       </c>
       <c r="F510" s="6" t="s">
-        <v>1872</v>
+        <v>1802</v>
       </c>
       <c r="G510" s="3" t="s">
-        <v>1888</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="3" t="s">
-        <v>1876</v>
+        <v>1871</v>
       </c>
       <c r="B511" s="3" t="b">
         <v>1</v>
@@ -18099,18 +18110,18 @@
       </c>
       <c r="D511" s="3"/>
       <c r="E511" s="3" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="F511" s="6" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="G511" s="3" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="3" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="B512" s="3" t="b">
         <v>1</v>
@@ -18120,18 +18131,18 @@
       </c>
       <c r="D512" s="3"/>
       <c r="E512" s="3" t="s">
-        <v>1880</v>
+        <v>1875</v>
       </c>
       <c r="F512" s="6" t="s">
-        <v>1883</v>
+        <v>1873</v>
       </c>
       <c r="G512" s="3" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" s="3" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="B513" s="3" t="b">
         <v>1</v>
@@ -18141,18 +18152,18 @@
       </c>
       <c r="D513" s="3"/>
       <c r="E513" s="3" t="s">
-        <v>1884</v>
+        <v>1880</v>
       </c>
       <c r="F513" s="6" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="G513" s="3" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" s="3" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="B514" s="3" t="b">
         <v>1</v>
@@ -18162,18 +18173,18 @@
       </c>
       <c r="D514" s="3"/>
       <c r="E514" s="3" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="F514" s="6" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="G514" s="3" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="3" t="s">
-        <v>1903</v>
+        <v>1879</v>
       </c>
       <c r="B515" s="3" t="b">
         <v>1</v>
@@ -18183,18 +18194,18 @@
       </c>
       <c r="D515" s="3"/>
       <c r="E515" s="3" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="F515" s="6" t="s">
-        <v>1887</v>
+        <v>1881</v>
       </c>
       <c r="G515" s="3" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" s="3" t="s">
-        <v>1894</v>
+        <v>1903</v>
       </c>
       <c r="B516" s="3" t="b">
         <v>1</v>
@@ -18204,18 +18215,18 @@
       </c>
       <c r="D516" s="3"/>
       <c r="E516" s="3" t="s">
-        <v>648</v>
+        <v>1886</v>
       </c>
       <c r="F516" s="6" t="s">
-        <v>649</v>
+        <v>1887</v>
       </c>
       <c r="G516" s="3" t="s">
-        <v>1436</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" s="3" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="B517" s="3" t="b">
         <v>1</v>
@@ -18225,18 +18236,18 @@
       </c>
       <c r="D517" s="3"/>
       <c r="E517" s="3" t="s">
-        <v>1649</v>
+        <v>648</v>
       </c>
       <c r="F517" s="6" t="s">
-        <v>1146</v>
+        <v>649</v>
       </c>
       <c r="G517" s="3" t="s">
-        <v>1758</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" s="3" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="B518" s="3" t="b">
         <v>1</v>
@@ -18246,18 +18257,18 @@
       </c>
       <c r="D518" s="3"/>
       <c r="E518" s="3" t="s">
-        <v>1898</v>
+        <v>1649</v>
       </c>
       <c r="F518" s="6" t="s">
-        <v>1900</v>
+        <v>1146</v>
       </c>
       <c r="G518" s="3" t="s">
-        <v>1901</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" s="3" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="B519" s="3" t="b">
         <v>1</v>
@@ -18267,58 +18278,59 @@
       </c>
       <c r="D519" s="3"/>
       <c r="E519" s="3" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F519" s="6" t="s">
+        <v>1900</v>
+      </c>
+      <c r="G519" s="3" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A520" s="3" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B520" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C520" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D520" s="3"/>
+      <c r="E520" s="3" t="s">
         <v>1899</v>
       </c>
-      <c r="F519" s="6" t="s">
+      <c r="F520" s="6" t="s">
         <v>1802</v>
       </c>
-      <c r="G519" s="3" t="s">
+      <c r="G520" s="3" t="s">
         <v>1902</v>
       </c>
     </row>
-    <row r="520" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A520" s="3" t="s">
+    <row r="521" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A521" s="3" t="s">
         <v>1906</v>
       </c>
-      <c r="B520" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C520" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E520" s="3" t="s">
+      <c r="B521" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C521" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E521" s="3" t="s">
         <v>1904</v>
       </c>
-      <c r="F520" s="6" t="s">
+      <c r="F521" s="6" t="s">
         <v>1907</v>
       </c>
-      <c r="G520" s="3" t="s">
+      <c r="G521" s="3" t="s">
         <v>1905</v>
-      </c>
-    </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A521" t="s">
-        <v>1908</v>
-      </c>
-      <c r="B521" t="b">
-        <v>1</v>
-      </c>
-      <c r="C521" t="b">
-        <v>1</v>
-      </c>
-      <c r="E521" s="3" t="s">
-        <v>1908</v>
-      </c>
-      <c r="F521" s="6" t="s">
-        <v>1911</v>
-      </c>
-      <c r="G521" t="s">
-        <v>1913</v>
       </c>
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="B522" t="b">
         <v>1</v>
@@ -18327,84 +18339,84 @@
         <v>1</v>
       </c>
       <c r="E522" s="3" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="F522" s="6" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="G522" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B523" t="b">
+        <v>1</v>
+      </c>
+      <c r="C523" t="b">
+        <v>1</v>
+      </c>
+      <c r="E523" s="3" t="s">
+        <v>1910</v>
+      </c>
+      <c r="F523" s="6" t="s">
+        <v>1912</v>
+      </c>
+      <c r="G523" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
         <v>1915</v>
       </c>
-      <c r="B523" t="b">
-        <v>1</v>
-      </c>
-      <c r="C523" t="b">
-        <v>0</v>
-      </c>
-      <c r="D523" t="s">
+      <c r="B524" t="b">
+        <v>1</v>
+      </c>
+      <c r="C524" t="b">
+        <v>0</v>
+      </c>
+      <c r="D524" t="s">
         <v>1918</v>
       </c>
-      <c r="E523" s="3" t="s">
+      <c r="E524" s="3" t="s">
         <v>1916</v>
       </c>
-      <c r="F523" s="6" t="s">
+      <c r="F524" s="6" t="s">
         <v>1917</v>
       </c>
-      <c r="G523" s="3" t="s">
+      <c r="G524" s="3" t="s">
         <v>1917</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A524" s="3" t="s">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A525" s="3" t="s">
         <v>1915</v>
       </c>
-      <c r="B524" t="b">
-        <v>0</v>
-      </c>
-      <c r="C524" t="b">
-        <v>1</v>
-      </c>
-      <c r="D524" s="3" t="s">
+      <c r="B525" t="b">
+        <v>0</v>
+      </c>
+      <c r="C525" t="b">
+        <v>1</v>
+      </c>
+      <c r="D525" s="3" t="s">
         <v>1918</v>
       </c>
-      <c r="E524" s="3" t="s">
+      <c r="E525" s="3" t="s">
         <v>1919</v>
       </c>
-      <c r="F524" s="6" t="s">
+      <c r="F525" s="6" t="s">
         <v>1920</v>
       </c>
-      <c r="G524" s="3" t="s">
+      <c r="G525" s="3" t="s">
         <v>1920</v>
-      </c>
-    </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A525" t="s">
-        <v>1933</v>
-      </c>
-      <c r="B525" t="b">
-        <v>0</v>
-      </c>
-      <c r="C525" t="b">
-        <v>1</v>
-      </c>
-      <c r="E525" t="s">
-        <v>1936</v>
-      </c>
-      <c r="F525" s="6" t="s">
-        <v>1934</v>
-      </c>
-      <c r="G525" s="3" t="s">
-        <v>1935</v>
       </c>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>1945</v>
+        <v>1933</v>
       </c>
       <c r="B526" t="b">
         <v>0</v>
@@ -18413,78 +18425,78 @@
         <v>1</v>
       </c>
       <c r="E526" t="s">
-        <v>1945</v>
+        <v>1936</v>
       </c>
       <c r="F526" s="6" t="s">
-        <v>1946</v>
+        <v>1934</v>
       </c>
       <c r="G526" s="3" t="s">
-        <v>1947</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>1937</v>
-      </c>
-      <c r="B527" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C527" s="3" t="b">
+        <v>1945</v>
+      </c>
+      <c r="B527" t="b">
+        <v>0</v>
+      </c>
+      <c r="C527" t="b">
         <v>1</v>
       </c>
       <c r="E527" t="s">
-        <v>1938</v>
+        <v>1945</v>
       </c>
       <c r="F527" s="6" t="s">
-        <v>1940</v>
-      </c>
-      <c r="G527" t="s">
-        <v>1939</v>
+        <v>1946</v>
+      </c>
+      <c r="G527" s="3" t="s">
+        <v>1947</v>
       </c>
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>1941</v>
-      </c>
-      <c r="B528" t="b">
-        <v>0</v>
-      </c>
-      <c r="C528" t="b">
+        <v>1937</v>
+      </c>
+      <c r="B528" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C528" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E528" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
       <c r="F528" s="6" t="s">
-        <v>1943</v>
+        <v>1940</v>
       </c>
       <c r="G528" t="s">
-        <v>1944</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>1948</v>
-      </c>
-      <c r="B529" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C529" s="3" t="b">
+        <v>1941</v>
+      </c>
+      <c r="B529" t="b">
+        <v>0</v>
+      </c>
+      <c r="C529" t="b">
         <v>1</v>
       </c>
       <c r="E529" t="s">
-        <v>1950</v>
+        <v>1942</v>
       </c>
       <c r="F529" s="6" t="s">
-        <v>1952</v>
+        <v>1943</v>
       </c>
       <c r="G529" t="s">
-        <v>2041</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B530" s="3" t="b">
         <v>1</v>
@@ -18493,10 +18505,10 @@
         <v>1</v>
       </c>
       <c r="E530" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="F530" s="6" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="G530" t="s">
         <v>2041</v>
@@ -18504,7 +18516,7 @@
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>42</v>
+        <v>1949</v>
       </c>
       <c r="B531" s="3" t="b">
         <v>1</v>
@@ -18513,18 +18525,18 @@
         <v>1</v>
       </c>
       <c r="E531" t="s">
-        <v>42</v>
+        <v>1951</v>
       </c>
       <c r="F531" s="6" t="s">
-        <v>110</v>
+        <v>1953</v>
       </c>
       <c r="G531" t="s">
-        <v>1227</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>1960</v>
+        <v>42</v>
       </c>
       <c r="B532" s="3" t="b">
         <v>1</v>
@@ -18533,18 +18545,18 @@
         <v>1</v>
       </c>
       <c r="E532" t="s">
-        <v>1868</v>
+        <v>42</v>
       </c>
       <c r="F532" s="6" t="s">
-        <v>1869</v>
+        <v>110</v>
       </c>
       <c r="G532" t="s">
-        <v>1870</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B533" s="3" t="b">
         <v>1</v>
@@ -18553,18 +18565,18 @@
         <v>1</v>
       </c>
       <c r="E533" t="s">
-        <v>1963</v>
+        <v>1868</v>
       </c>
       <c r="F533" s="6" t="s">
-        <v>1968</v>
+        <v>1869</v>
       </c>
       <c r="G533" t="s">
-        <v>2042</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B534" s="3" t="b">
         <v>1</v>
@@ -18573,18 +18585,18 @@
         <v>1</v>
       </c>
       <c r="E534" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="F534" s="6" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="G534" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>1954</v>
+        <v>1962</v>
       </c>
       <c r="B535" s="3" t="b">
         <v>1</v>
@@ -18593,18 +18605,18 @@
         <v>1</v>
       </c>
       <c r="E535" t="s">
-        <v>1945</v>
+        <v>1964</v>
       </c>
       <c r="F535" s="6" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="G535" t="s">
-        <v>1947</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B536" s="3" t="b">
         <v>1</v>
@@ -18613,58 +18625,58 @@
         <v>1</v>
       </c>
       <c r="E536" t="s">
-        <v>1965</v>
+        <v>1945</v>
       </c>
       <c r="F536" s="6" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="G536" t="s">
-        <v>2044</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B537" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C537" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E537" t="s">
+        <v>1965</v>
+      </c>
+      <c r="F537" s="6" t="s">
+        <v>1971</v>
+      </c>
+      <c r="G537" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
         <v>1956</v>
       </c>
-      <c r="B537" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C537" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E537" t="s">
+      <c r="B538" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C538" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E538" t="s">
         <v>2158</v>
       </c>
-      <c r="F537" s="6" t="s">
+      <c r="F538" s="6" t="s">
         <v>2164</v>
       </c>
-      <c r="G537" t="s">
+      <c r="G538" t="s">
         <v>2045</v>
-      </c>
-    </row>
-    <row r="538" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A538" s="3" t="s">
-        <v>2112</v>
-      </c>
-      <c r="B538" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C538" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E538" s="3" t="s">
-        <v>2159</v>
-      </c>
-      <c r="F538" s="6" t="s">
-        <v>2165</v>
-      </c>
-      <c r="G538" s="3" t="s">
-        <v>2139</v>
       </c>
     </row>
     <row r="539" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A539" s="3" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="B539" s="3" t="b">
         <v>1</v>
@@ -18673,78 +18685,78 @@
         <v>1</v>
       </c>
       <c r="E539" s="3" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="F539" s="6" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="G539" s="3" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="540" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A540" s="3" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B540" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C540" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E540" s="3" t="s">
+        <v>2160</v>
+      </c>
+      <c r="F540" s="6" t="s">
+        <v>2166</v>
+      </c>
+      <c r="G540" s="3" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A541" s="3" t="s">
         <v>2114</v>
       </c>
-      <c r="B540" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C540" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E540" s="3" t="s">
+      <c r="B541" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C541" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E541" s="3" t="s">
         <v>2161</v>
       </c>
-      <c r="F540" s="6" t="s">
+      <c r="F541" s="6" t="s">
         <v>2167</v>
       </c>
-      <c r="G540" s="3" t="s">
+      <c r="G541" s="3" t="s">
         <v>2141</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A541" t="s">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
         <v>1957</v>
       </c>
-      <c r="B541" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C541" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E541" t="s">
+      <c r="B542" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C542" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E542" t="s">
         <v>2157</v>
       </c>
-      <c r="F541" s="6" t="s">
+      <c r="F542" s="6" t="s">
         <v>2168</v>
       </c>
-      <c r="G541" t="s">
+      <c r="G542" t="s">
         <v>2046</v>
-      </c>
-    </row>
-    <row r="542" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A542" s="3" t="s">
-        <v>2115</v>
-      </c>
-      <c r="B542" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C542" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E542" s="3" t="s">
-        <v>2156</v>
-      </c>
-      <c r="F542" s="6" t="s">
-        <v>2169</v>
-      </c>
-      <c r="G542" s="3" t="s">
-        <v>2142</v>
       </c>
     </row>
     <row r="543" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A543" s="3" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B543" s="3" t="b">
         <v>1</v>
@@ -18753,78 +18765,78 @@
         <v>1</v>
       </c>
       <c r="E543" s="3" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="F543" s="6" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="G543" s="3" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="544" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A544" s="3" t="s">
+        <v>2116</v>
+      </c>
+      <c r="B544" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C544" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E544" s="3" t="s">
+        <v>2155</v>
+      </c>
+      <c r="F544" s="6" t="s">
+        <v>2170</v>
+      </c>
+      <c r="G544" s="3" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A545" s="3" t="s">
         <v>2117</v>
       </c>
-      <c r="B544" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C544" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E544" s="3" t="s">
+      <c r="B545" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C545" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E545" s="3" t="s">
         <v>2154</v>
       </c>
-      <c r="F544" s="6" t="s">
+      <c r="F545" s="6" t="s">
         <v>2171</v>
       </c>
-      <c r="G544" s="3" t="s">
+      <c r="G545" s="3" t="s">
         <v>2144</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A545" t="s">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
         <v>1958</v>
       </c>
-      <c r="B545" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C545" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E545" t="s">
+      <c r="B546" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C546" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E546" t="s">
         <v>1966</v>
       </c>
-      <c r="F545" s="6" t="s">
+      <c r="F546" s="6" t="s">
         <v>1973</v>
       </c>
-      <c r="G545" t="s">
+      <c r="G546" t="s">
         <v>2047</v>
-      </c>
-    </row>
-    <row r="546" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A546" s="3" t="s">
-        <v>2118</v>
-      </c>
-      <c r="B546" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C546" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E546" s="3" t="s">
-        <v>2126</v>
-      </c>
-      <c r="F546" s="6" t="s">
-        <v>2132</v>
-      </c>
-      <c r="G546" s="3" t="s">
-        <v>2145</v>
       </c>
     </row>
     <row r="547" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A547" s="3" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="B547" s="3" t="b">
         <v>1</v>
@@ -18833,78 +18845,78 @@
         <v>1</v>
       </c>
       <c r="E547" s="3" t="s">
-        <v>2162</v>
+        <v>2126</v>
       </c>
       <c r="F547" s="6" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="G547" s="3" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="548" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A548" s="3" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B548" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C548" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E548" s="3" t="s">
+        <v>2162</v>
+      </c>
+      <c r="F548" s="6" t="s">
+        <v>2134</v>
+      </c>
+      <c r="G548" s="3" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="549" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A549" s="3" t="s">
         <v>2120</v>
       </c>
-      <c r="B548" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C548" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E548" s="3" t="s">
+      <c r="B549" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C549" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E549" s="3" t="s">
         <v>2163</v>
       </c>
-      <c r="F548" s="6" t="s">
+      <c r="F549" s="6" t="s">
         <v>2133</v>
       </c>
-      <c r="G548" s="3" t="s">
+      <c r="G549" s="3" t="s">
         <v>2147</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A549" t="s">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
         <v>1959</v>
       </c>
-      <c r="B549" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C549" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E549" t="s">
+      <c r="B550" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C550" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E550" t="s">
         <v>1967</v>
       </c>
-      <c r="F549" s="6" t="s">
+      <c r="F550" s="6" t="s">
         <v>1972</v>
       </c>
-      <c r="G549" t="s">
+      <c r="G550" t="s">
         <v>2048</v>
-      </c>
-    </row>
-    <row r="550" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A550" s="3" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B550" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C550" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E550" s="3" t="s">
-        <v>2127</v>
-      </c>
-      <c r="F550" s="6" t="s">
-        <v>2135</v>
-      </c>
-      <c r="G550" s="3" t="s">
-        <v>2148</v>
       </c>
     </row>
     <row r="551" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A551" s="3" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="B551" s="3" t="b">
         <v>1</v>
@@ -18913,18 +18925,18 @@
         <v>1</v>
       </c>
       <c r="E551" s="3" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="F551" s="6" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="G551" s="3" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="552" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A552" s="3" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="B552" s="3" t="b">
         <v>1</v>
@@ -18933,18 +18945,18 @@
         <v>1</v>
       </c>
       <c r="E552" s="3" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="F552" s="6" t="s">
-        <v>2153</v>
+        <v>2136</v>
       </c>
       <c r="G552" s="3" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="553" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A553" s="3" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="B553" s="3" t="b">
         <v>1</v>
@@ -18953,18 +18965,18 @@
         <v>1</v>
       </c>
       <c r="E553" s="3" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="F553" s="6" t="s">
-        <v>2137</v>
+        <v>2153</v>
       </c>
       <c r="G553" s="3" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="554" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A554" s="3" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="B554" s="3" t="b">
         <v>1</v>
@@ -18973,58 +18985,58 @@
         <v>1</v>
       </c>
       <c r="E554" s="3" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="F554" s="6" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="G554" s="3" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="555" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A555" s="3" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B555" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C555" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E555" s="3" t="s">
+        <v>2131</v>
+      </c>
+      <c r="F555" s="6" t="s">
+        <v>2138</v>
+      </c>
+      <c r="G555" s="3" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A556" s="3" t="s">
         <v>2173</v>
       </c>
-      <c r="B555" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C555" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E555" s="3" t="s">
+      <c r="B556" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C556" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E556" s="3" t="s">
         <v>2174</v>
       </c>
-      <c r="F555" s="6" t="s">
+      <c r="F556" s="6" t="s">
         <v>2175</v>
       </c>
-      <c r="G555" s="3" t="s">
+      <c r="G556" s="3" t="s">
         <v>2176</v>
-      </c>
-    </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A556" t="s">
-        <v>1974</v>
-      </c>
-      <c r="B556" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C556" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E556" t="s">
-        <v>1987</v>
-      </c>
-      <c r="F556" s="6" t="s">
-        <v>2021</v>
-      </c>
-      <c r="G556" t="s">
-        <v>2049</v>
       </c>
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B557" s="3" t="b">
         <v>1</v>
@@ -19033,18 +19045,18 @@
         <v>1</v>
       </c>
       <c r="E557" t="s">
-        <v>1991</v>
+        <v>1987</v>
       </c>
       <c r="F557" s="6" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="G557" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B558" s="3" t="b">
         <v>1</v>
@@ -19053,18 +19065,18 @@
         <v>1</v>
       </c>
       <c r="E558" t="s">
-        <v>2070</v>
+        <v>1991</v>
       </c>
       <c r="F558" s="6" t="s">
-        <v>2071</v>
+        <v>2022</v>
       </c>
       <c r="G558" t="s">
-        <v>2072</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>320</v>
+        <v>1976</v>
       </c>
       <c r="B559" s="3" t="b">
         <v>1</v>
@@ -19073,18 +19085,18 @@
         <v>1</v>
       </c>
       <c r="E559" t="s">
-        <v>320</v>
+        <v>2070</v>
       </c>
       <c r="F559" s="6" t="s">
-        <v>319</v>
+        <v>2071</v>
       </c>
       <c r="G559" t="s">
-        <v>1322</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>1977</v>
+        <v>320</v>
       </c>
       <c r="B560" s="3" t="b">
         <v>1</v>
@@ -19093,18 +19105,18 @@
         <v>1</v>
       </c>
       <c r="E560" t="s">
-        <v>1992</v>
+        <v>320</v>
       </c>
       <c r="F560" s="6" t="s">
-        <v>2023</v>
+        <v>319</v>
       </c>
       <c r="G560" t="s">
-        <v>2051</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B561" s="3" t="b">
         <v>1</v>
@@ -19113,18 +19125,18 @@
         <v>1</v>
       </c>
       <c r="E561" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="F561" s="6" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="G561" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B562" s="3" t="b">
         <v>1</v>
@@ -19133,18 +19145,18 @@
         <v>1</v>
       </c>
       <c r="E562" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="F562" s="6" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="G562" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B563" s="3" t="b">
         <v>1</v>
@@ -19153,18 +19165,18 @@
         <v>1</v>
       </c>
       <c r="E563" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="F563" s="6" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="G563" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B564" s="3" t="b">
         <v>1</v>
@@ -19173,18 +19185,18 @@
         <v>1</v>
       </c>
       <c r="E564" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="F564" s="6" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="G564" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B565" s="3" t="b">
         <v>1</v>
@@ -19193,18 +19205,18 @@
         <v>1</v>
       </c>
       <c r="E565" t="s">
-        <v>882</v>
+        <v>1996</v>
       </c>
       <c r="F565" s="6" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="G565" t="s">
-        <v>1539</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B566" s="3" t="b">
         <v>1</v>
@@ -19213,18 +19225,18 @@
         <v>1</v>
       </c>
       <c r="E566" t="s">
-        <v>1988</v>
+        <v>882</v>
       </c>
       <c r="F566" s="6" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="G566" t="s">
-        <v>2069</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B567" s="3" t="b">
         <v>1</v>
@@ -19233,18 +19245,18 @@
         <v>1</v>
       </c>
       <c r="E567" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
       <c r="F567" s="6" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="G567" t="s">
-        <v>2056</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B568" s="3" t="b">
         <v>1</v>
@@ -19253,18 +19265,18 @@
         <v>1</v>
       </c>
       <c r="E568" t="s">
-        <v>1989</v>
+        <v>1997</v>
       </c>
       <c r="F568" s="6" t="s">
-        <v>2172</v>
+        <v>2030</v>
       </c>
       <c r="G568" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B569" s="3" t="b">
         <v>1</v>
@@ -19273,38 +19285,38 @@
         <v>1</v>
       </c>
       <c r="E569" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="F569" s="6" t="s">
-        <v>2031</v>
+        <v>2172</v>
       </c>
       <c r="G569" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>2002</v>
-      </c>
-      <c r="B570" t="b">
-        <v>1</v>
-      </c>
-      <c r="C570" t="b">
+        <v>1986</v>
+      </c>
+      <c r="B570" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C570" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E570" t="s">
-        <v>0</v>
+        <v>1990</v>
       </c>
       <c r="F570" s="6" t="s">
-        <v>1208</v>
+        <v>2031</v>
       </c>
       <c r="G570" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="B571" t="b">
         <v>1</v>
@@ -19313,18 +19325,18 @@
         <v>1</v>
       </c>
       <c r="E571" t="s">
-        <v>1999</v>
+        <v>0</v>
       </c>
       <c r="F571" s="6" t="s">
-        <v>2032</v>
+        <v>1208</v>
       </c>
       <c r="G571" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="B572" t="b">
         <v>1</v>
@@ -19333,38 +19345,38 @@
         <v>1</v>
       </c>
       <c r="E572" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="F572" s="6" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="G572" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>2008</v>
-      </c>
-      <c r="B573" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C573" s="3" t="b">
+        <v>2000</v>
+      </c>
+      <c r="B573" t="b">
+        <v>1</v>
+      </c>
+      <c r="C573" t="b">
         <v>1</v>
       </c>
       <c r="E573" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="F573" s="6" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="G573" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B574" s="3" t="b">
         <v>1</v>
@@ -19373,18 +19385,18 @@
         <v>1</v>
       </c>
       <c r="E574" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="F574" s="6" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="G574" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="B575" s="3" t="b">
         <v>1</v>
@@ -19393,18 +19405,18 @@
         <v>1</v>
       </c>
       <c r="E575" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="F575" s="6" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="G575" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="B576" s="3" t="b">
         <v>1</v>
@@ -19413,18 +19425,18 @@
         <v>1</v>
       </c>
       <c r="E576" t="s">
-        <v>2038</v>
+        <v>2006</v>
       </c>
       <c r="F576" s="6" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="G576" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="B577" s="3" t="b">
         <v>1</v>
@@ -19433,18 +19445,18 @@
         <v>1</v>
       </c>
       <c r="E577" t="s">
-        <v>422</v>
+        <v>2038</v>
       </c>
       <c r="F577" s="6" t="s">
-        <v>421</v>
+        <v>2037</v>
       </c>
       <c r="G577" t="s">
-        <v>1357</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B578" s="3" t="b">
         <v>1</v>
@@ -19453,18 +19465,18 @@
         <v>1</v>
       </c>
       <c r="E578" t="s">
-        <v>1922</v>
+        <v>422</v>
       </c>
       <c r="F578" s="6" t="s">
-        <v>1926</v>
+        <v>421</v>
       </c>
       <c r="G578" t="s">
-        <v>1930</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B579" s="3" t="b">
         <v>1</v>
@@ -19473,18 +19485,18 @@
         <v>1</v>
       </c>
       <c r="E579" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="F579" s="6" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="G579" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B580" s="3" t="b">
         <v>1</v>
@@ -19493,18 +19505,18 @@
         <v>1</v>
       </c>
       <c r="E580" t="s">
-        <v>1924</v>
+        <v>1921</v>
       </c>
       <c r="F580" s="6" t="s">
-        <v>1928</v>
+        <v>1925</v>
       </c>
       <c r="G580" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B581" s="3" t="b">
         <v>1</v>
@@ -19513,18 +19525,18 @@
         <v>1</v>
       </c>
       <c r="E581" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="F581" s="6" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="G581" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B582" s="3" t="b">
         <v>1</v>
@@ -19533,18 +19545,18 @@
         <v>1</v>
       </c>
       <c r="E582" t="s">
-        <v>2016</v>
+        <v>1923</v>
       </c>
       <c r="F582" s="6" t="s">
-        <v>2039</v>
+        <v>1927</v>
       </c>
       <c r="G582" t="s">
-        <v>2066</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="B583" s="3" t="b">
         <v>1</v>
@@ -19553,18 +19565,18 @@
         <v>1</v>
       </c>
       <c r="E583" t="s">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="F583" s="6" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="G583" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B584" s="3" t="b">
         <v>1</v>
@@ -19573,38 +19585,38 @@
         <v>1</v>
       </c>
       <c r="E584" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F584" s="6" t="s">
-        <v>1972</v>
+        <v>2040</v>
       </c>
       <c r="G584" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>2070</v>
-      </c>
-      <c r="B585" t="b">
-        <v>0</v>
-      </c>
-      <c r="C585" t="b">
+        <v>2018</v>
+      </c>
+      <c r="B585" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C585" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E585" t="s">
-        <v>2070</v>
+        <v>2020</v>
       </c>
       <c r="F585" s="6" t="s">
-        <v>2071</v>
+        <v>1972</v>
       </c>
       <c r="G585" t="s">
-        <v>2072</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>2073</v>
+        <v>2070</v>
       </c>
       <c r="B586" t="b">
         <v>0</v>
@@ -19613,138 +19625,138 @@
         <v>1</v>
       </c>
       <c r="E586" t="s">
-        <v>2073</v>
+        <v>2070</v>
       </c>
       <c r="F586" s="6" t="s">
-        <v>2074</v>
+        <v>2071</v>
       </c>
       <c r="G586" t="s">
-        <v>2075</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>2083</v>
+        <v>2073</v>
       </c>
       <c r="B587" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C587" t="b">
         <v>1</v>
       </c>
       <c r="E587" t="s">
-        <v>2083</v>
+        <v>2073</v>
       </c>
       <c r="F587" s="6" t="s">
-        <v>2086</v>
+        <v>2074</v>
       </c>
       <c r="G587" t="s">
-        <v>2087</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>2084</v>
-      </c>
-      <c r="B588" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C588" s="3" t="b">
+        <v>2083</v>
+      </c>
+      <c r="B588" t="b">
+        <v>1</v>
+      </c>
+      <c r="C588" t="b">
         <v>1</v>
       </c>
       <c r="E588" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="F588" s="6" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="G588" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>2095</v>
-      </c>
-      <c r="B589" t="b">
-        <v>0</v>
-      </c>
-      <c r="C589" t="b">
+        <v>2084</v>
+      </c>
+      <c r="B589" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C589" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E589" t="s">
-        <v>2095</v>
+        <v>2084</v>
       </c>
       <c r="F589" s="6" t="s">
-        <v>2027</v>
+        <v>2085</v>
       </c>
       <c r="G589" t="s">
-        <v>2102</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B590" t="b">
+        <v>0</v>
+      </c>
+      <c r="C590" t="b">
+        <v>1</v>
+      </c>
+      <c r="E590" t="s">
+        <v>2095</v>
+      </c>
+      <c r="F590" s="6" t="s">
+        <v>2027</v>
+      </c>
+      <c r="G590" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
         <v>2092</v>
       </c>
-      <c r="B590" t="b">
-        <v>1</v>
-      </c>
-      <c r="C590" t="b">
-        <v>1</v>
-      </c>
-      <c r="E590" t="s">
+      <c r="B591" t="b">
+        <v>1</v>
+      </c>
+      <c r="C591" t="b">
+        <v>1</v>
+      </c>
+      <c r="E591" t="s">
         <v>2093</v>
       </c>
-      <c r="F590" s="6" t="s">
+      <c r="F591" s="6" t="s">
         <v>2094</v>
       </c>
-      <c r="G590" t="s">
+      <c r="G591" t="s">
         <v>2103</v>
       </c>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A591" s="3" t="s">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A592" s="3" t="s">
         <v>2096</v>
       </c>
-      <c r="B591" t="b">
-        <v>0</v>
-      </c>
-      <c r="C591" t="b">
-        <v>1</v>
-      </c>
-      <c r="E591" t="s">
+      <c r="B592" t="b">
+        <v>0</v>
+      </c>
+      <c r="C592" t="b">
+        <v>1</v>
+      </c>
+      <c r="E592" t="s">
         <v>2097</v>
       </c>
-      <c r="F591" s="6" t="s">
+      <c r="F592" s="6" t="s">
         <v>2098</v>
       </c>
-      <c r="G591" t="s">
+      <c r="G592" t="s">
         <v>2104</v>
-      </c>
-    </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A592" t="s">
-        <v>2099</v>
-      </c>
-      <c r="B592" t="b">
-        <v>0</v>
-      </c>
-      <c r="C592" t="b">
-        <v>1</v>
-      </c>
-      <c r="E592" t="s">
-        <v>2100</v>
-      </c>
-      <c r="F592" s="6" t="s">
-        <v>2101</v>
-      </c>
-      <c r="G592" t="s">
-        <v>2105</v>
       </c>
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
       <c r="B593" t="b">
         <v>0</v>
@@ -19753,18 +19765,18 @@
         <v>1</v>
       </c>
       <c r="E593" t="s">
-        <v>2106</v>
+        <v>2100</v>
       </c>
       <c r="F593" s="6" t="s">
-        <v>2109</v>
+        <v>2101</v>
       </c>
       <c r="G593" t="s">
-        <v>2110</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="B594" t="b">
         <v>0</v>
@@ -19773,18 +19785,18 @@
         <v>1</v>
       </c>
       <c r="E594" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="F594" s="6" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="G594" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>970</v>
+        <v>2107</v>
       </c>
       <c r="B595" t="b">
         <v>0</v>
@@ -19793,18 +19805,18 @@
         <v>1</v>
       </c>
       <c r="E595" t="s">
-        <v>970</v>
+        <v>2107</v>
       </c>
       <c r="F595" s="6" t="s">
-        <v>1207</v>
+        <v>2108</v>
       </c>
       <c r="G595" t="s">
-        <v>1620</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>2177</v>
+        <v>970</v>
       </c>
       <c r="B596" t="b">
         <v>0</v>
@@ -19813,18 +19825,18 @@
         <v>1</v>
       </c>
       <c r="E596" t="s">
-        <v>2178</v>
+        <v>970</v>
       </c>
       <c r="F596" s="6" t="s">
-        <v>2179</v>
+        <v>1207</v>
       </c>
       <c r="G596" t="s">
-        <v>2183</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>2180</v>
+        <v>2177</v>
       </c>
       <c r="B597" t="b">
         <v>0</v>
@@ -19833,18 +19845,18 @@
         <v>1</v>
       </c>
       <c r="E597" t="s">
-        <v>2182</v>
+        <v>2178</v>
       </c>
       <c r="F597" s="6" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="G597" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>2185</v>
+        <v>2180</v>
       </c>
       <c r="B598" t="b">
         <v>0</v>
@@ -19853,78 +19865,78 @@
         <v>1</v>
       </c>
       <c r="E598" t="s">
-        <v>2186</v>
+        <v>2182</v>
       </c>
       <c r="F598" s="6" t="s">
-        <v>2187</v>
+        <v>2181</v>
       </c>
       <c r="G598" t="s">
-        <v>2188</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>2189</v>
+        <v>2185</v>
       </c>
       <c r="B599" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C599" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E599" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="F599" s="6" t="s">
-        <v>2190</v>
+        <v>2187</v>
       </c>
       <c r="G599" t="s">
-        <v>2191</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B600" t="b">
+        <v>1</v>
+      </c>
+      <c r="C600" t="b">
+        <v>0</v>
+      </c>
+      <c r="E600" t="s">
+        <v>2192</v>
+      </c>
+      <c r="F600" s="6" t="s">
+        <v>2190</v>
+      </c>
+      <c r="G600" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
         <v>37</v>
       </c>
-      <c r="B600" t="b">
-        <v>1</v>
-      </c>
-      <c r="C600" t="b">
-        <v>1</v>
-      </c>
-      <c r="E600" t="s">
+      <c r="B601" t="b">
+        <v>1</v>
+      </c>
+      <c r="C601" t="b">
+        <v>1</v>
+      </c>
+      <c r="E601" t="s">
         <v>2193</v>
       </c>
-      <c r="F600" s="6" t="s">
+      <c r="F601" s="6" t="s">
         <v>2194</v>
       </c>
-      <c r="G600" t="s">
+      <c r="G601" t="s">
         <v>1226</v>
-      </c>
-    </row>
-    <row r="601" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A601" s="3" t="s">
-        <v>2209</v>
-      </c>
-      <c r="B601" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C601" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E601" s="3" t="s">
-        <v>1737</v>
-      </c>
-      <c r="F601" s="6" t="s">
-        <v>2212</v>
-      </c>
-      <c r="G601" s="3" t="s">
-        <v>1784</v>
       </c>
     </row>
     <row r="602" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A602" s="3" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="B602" s="3" t="b">
         <v>1</v>
@@ -19933,58 +19945,58 @@
         <v>1</v>
       </c>
       <c r="E602" s="3" t="s">
-        <v>2211</v>
+        <v>1737</v>
       </c>
       <c r="F602" s="6" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="G602" s="3" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A603" t="s">
+    <row r="603" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A603" s="3" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B603" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C603" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E603" s="3" t="s">
+        <v>2211</v>
+      </c>
+      <c r="F603" s="6" t="s">
+        <v>2213</v>
+      </c>
+      <c r="G603" s="3" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
         <v>2203</v>
       </c>
-      <c r="B603" t="b">
-        <v>1</v>
-      </c>
-      <c r="C603" t="b">
-        <v>1</v>
-      </c>
-      <c r="E603" t="s">
+      <c r="B604" t="b">
+        <v>1</v>
+      </c>
+      <c r="C604" t="b">
+        <v>1</v>
+      </c>
+      <c r="E604" t="s">
         <v>2207</v>
       </c>
-      <c r="F603" s="6" t="s">
+      <c r="F604" s="6" t="s">
         <v>2208</v>
       </c>
-      <c r="G603" t="s">
+      <c r="G604" t="s">
         <v>2230</v>
-      </c>
-    </row>
-    <row r="604" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A604" s="3" t="s">
-        <v>2218</v>
-      </c>
-      <c r="B604" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C604" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E604" s="3" t="s">
-        <v>2222</v>
-      </c>
-      <c r="F604" s="6" t="s">
-        <v>2226</v>
-      </c>
-      <c r="G604" s="3" t="s">
-        <v>2231</v>
       </c>
     </row>
     <row r="605" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A605" s="3" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="B605" s="3" t="b">
         <v>1</v>
@@ -19993,18 +20005,18 @@
         <v>1</v>
       </c>
       <c r="E605" s="3" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="F605" s="6" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="G605" s="3" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="606" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A606" s="3" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="B606" s="3" t="b">
         <v>1</v>
@@ -20013,58 +20025,58 @@
         <v>1</v>
       </c>
       <c r="E606" s="3" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="F606" s="6" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="G606" s="3" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="607" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A607" s="3" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B607" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C607" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E607" s="3" t="s">
+        <v>2224</v>
+      </c>
+      <c r="F607" s="6" t="s">
+        <v>2228</v>
+      </c>
+      <c r="G607" s="3" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="608" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A608" s="3" t="s">
         <v>2221</v>
       </c>
-      <c r="B607" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C607" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E607" s="3" t="s">
+      <c r="B608" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C608" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E608" s="3" t="s">
         <v>2225</v>
       </c>
-      <c r="F607" s="6" t="s">
+      <c r="F608" s="6" t="s">
         <v>2229</v>
       </c>
-      <c r="G607" s="3" t="s">
+      <c r="G608" s="3" t="s">
         <v>2234</v>
-      </c>
-    </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A608" t="s">
-        <v>2205</v>
-      </c>
-      <c r="B608" t="b">
-        <v>1</v>
-      </c>
-      <c r="C608" t="b">
-        <v>1</v>
-      </c>
-      <c r="E608" t="s">
-        <v>2206</v>
-      </c>
-      <c r="F608" s="6" t="s">
-        <v>2214</v>
-      </c>
-      <c r="G608" t="s">
-        <v>2235</v>
       </c>
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>2215</v>
+        <v>2205</v>
       </c>
       <c r="B609" t="b">
         <v>1</v>
@@ -20073,58 +20085,58 @@
         <v>1</v>
       </c>
       <c r="E609" t="s">
-        <v>2216</v>
+        <v>2206</v>
       </c>
       <c r="F609" s="6" t="s">
-        <v>2217</v>
+        <v>2214</v>
       </c>
       <c r="G609" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>2237</v>
+        <v>2215</v>
       </c>
       <c r="B610" t="b">
         <v>1</v>
       </c>
-      <c r="C610" s="3" t="b">
+      <c r="C610" t="b">
         <v>1</v>
       </c>
       <c r="E610" t="s">
-        <v>2240</v>
+        <v>2216</v>
       </c>
       <c r="F610" s="6" t="s">
-        <v>2243</v>
+        <v>2217</v>
       </c>
       <c r="G610" t="s">
-        <v>2246</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>2238</v>
-      </c>
-      <c r="B611" s="3" t="b">
+        <v>2237</v>
+      </c>
+      <c r="B611" t="b">
         <v>1</v>
       </c>
       <c r="C611" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E611" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="F611" s="6" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="G611" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="B612" s="3" t="b">
         <v>1</v>
@@ -20133,18 +20145,18 @@
         <v>1</v>
       </c>
       <c r="E612" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="F612" s="6" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="G612" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>2255</v>
+        <v>2239</v>
       </c>
       <c r="B613" s="3" t="b">
         <v>1</v>
@@ -20153,58 +20165,58 @@
         <v>1</v>
       </c>
       <c r="E613" t="s">
-        <v>2256</v>
+        <v>2242</v>
       </c>
       <c r="F613" s="6" t="s">
-        <v>2257</v>
+        <v>2245</v>
       </c>
       <c r="G613" t="s">
-        <v>2258</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="614" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>2259</v>
-      </c>
-      <c r="B614" t="b">
-        <v>1</v>
-      </c>
-      <c r="C614" t="b">
+        <v>2255</v>
+      </c>
+      <c r="B614" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C614" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E614" t="s">
-        <v>2260</v>
+        <v>2256</v>
       </c>
       <c r="F614" s="6" t="s">
-        <v>2261</v>
+        <v>2257</v>
       </c>
       <c r="G614" t="s">
-        <v>2280</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>2262</v>
-      </c>
-      <c r="B615" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C615" s="3" t="b">
+        <v>2259</v>
+      </c>
+      <c r="B615" t="b">
+        <v>1</v>
+      </c>
+      <c r="C615" t="b">
         <v>1</v>
       </c>
       <c r="E615" t="s">
-        <v>2268</v>
+        <v>2260</v>
       </c>
       <c r="F615" s="6" t="s">
-        <v>2274</v>
+        <v>2261</v>
       </c>
       <c r="G615" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="B616" s="3" t="b">
         <v>1</v>
@@ -20213,18 +20225,18 @@
         <v>1</v>
       </c>
       <c r="E616" t="s">
-        <v>2272</v>
+        <v>2268</v>
       </c>
       <c r="F616" s="6" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="G616" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="B617" s="3" t="b">
         <v>1</v>
@@ -20232,19 +20244,19 @@
       <c r="C617" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E617" s="3" t="s">
-        <v>2269</v>
+      <c r="E617" t="s">
+        <v>2272</v>
       </c>
       <c r="F617" s="6" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="G617" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="B618" s="3" t="b">
         <v>1</v>
@@ -20253,18 +20265,18 @@
         <v>1</v>
       </c>
       <c r="E618" s="3" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="F618" s="6" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="G618" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="619" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="B619" s="3" t="b">
         <v>1</v>
@@ -20273,59 +20285,58 @@
         <v>1</v>
       </c>
       <c r="E619" s="3" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="F619" s="6" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="G619" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="620" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B620" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C620" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E620" s="3" t="s">
+        <v>2271</v>
+      </c>
+      <c r="F620" s="6" t="s">
+        <v>2278</v>
+      </c>
+      <c r="G620" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
         <v>2267</v>
       </c>
-      <c r="B620" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C620" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E620" s="3" t="s">
+      <c r="B621" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C621" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E621" s="3" t="s">
         <v>2273</v>
       </c>
-      <c r="F620" s="6" t="s">
+      <c r="F621" s="6" t="s">
         <v>2279</v>
       </c>
-      <c r="G620" t="s">
+      <c r="G621" t="s">
         <v>2286</v>
-      </c>
-    </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A621" s="3" t="s">
-        <v>1733</v>
-      </c>
-      <c r="B621" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C621" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D621" s="3"/>
-      <c r="E621" s="3" t="s">
-        <v>1733</v>
-      </c>
-      <c r="F621" s="6" t="s">
-        <v>2091</v>
-      </c>
-      <c r="G621" s="3" t="s">
-        <v>1785</v>
       </c>
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A622" s="3" t="s">
-        <v>2089</v>
+        <v>1733</v>
       </c>
       <c r="B622" s="3" t="b">
         <v>1</v>
@@ -20335,10 +20346,10 @@
       </c>
       <c r="D622" s="3"/>
       <c r="E622" s="3" t="s">
-        <v>2089</v>
+        <v>1733</v>
       </c>
       <c r="F622" s="6" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="G622" s="3" t="s">
         <v>1785</v>
@@ -20346,7 +20357,7 @@
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A623" s="3" t="s">
-        <v>816</v>
+        <v>2089</v>
       </c>
       <c r="B623" s="3" t="b">
         <v>1</v>
@@ -20356,18 +20367,18 @@
       </c>
       <c r="D623" s="3"/>
       <c r="E623" s="3" t="s">
-        <v>817</v>
+        <v>2089</v>
       </c>
       <c r="F623" s="6" t="s">
-        <v>439</v>
+        <v>2090</v>
       </c>
       <c r="G623" s="3" t="s">
-        <v>1490</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A624" s="3" t="s">
-        <v>829</v>
+        <v>816</v>
       </c>
       <c r="B624" s="3" t="b">
         <v>1</v>
@@ -20377,18 +20388,18 @@
       </c>
       <c r="D624" s="3"/>
       <c r="E624" s="3" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="F624" s="6" t="s">
-        <v>830</v>
+        <v>439</v>
       </c>
       <c r="G624" s="3" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625" s="3" t="s">
-        <v>818</v>
+        <v>829</v>
       </c>
       <c r="B625" s="3" t="b">
         <v>1</v>
@@ -20398,99 +20409,100 @@
       </c>
       <c r="D625" s="3"/>
       <c r="E625" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="F625" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="G625" s="3" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A626" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="B626" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C626" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D626" s="3"/>
+      <c r="E626" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="F625" s="6" t="s">
+      <c r="F626" s="6" t="s">
         <v>819</v>
       </c>
-      <c r="G625" s="3" t="s">
+      <c r="G626" s="3" t="s">
         <v>1488</v>
-      </c>
-    </row>
-    <row r="626" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A626" s="3" t="s">
-        <v>820</v>
-      </c>
-      <c r="B626" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C626" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E626" s="3" t="s">
-        <v>822</v>
-      </c>
-      <c r="F626" s="6" t="s">
-        <v>821</v>
-      </c>
-      <c r="G626" s="3" t="s">
-        <v>1491</v>
       </c>
     </row>
     <row r="627" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A627" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="B627" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C627" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E627" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="F627" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="G627" s="3" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="628" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A628" s="3" t="s">
         <v>2195</v>
       </c>
-      <c r="B627" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C627" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E627" s="3" t="s">
+      <c r="B628" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C628" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E628" s="3" t="s">
         <v>1685</v>
       </c>
-      <c r="F627" s="6" t="s">
+      <c r="F628" s="6" t="s">
         <v>832</v>
       </c>
-      <c r="G627" s="3" t="s">
+      <c r="G628" s="3" t="s">
         <v>1495</v>
       </c>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A628" s="3" t="s">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A629" s="3" t="s">
         <v>2196</v>
       </c>
-      <c r="B628" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C628" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D628" s="3"/>
-      <c r="E628" s="3" t="s">
+      <c r="B629" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C629" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D629" s="3"/>
+      <c r="E629" s="3" t="s">
         <v>1686</v>
       </c>
-      <c r="F628" s="6" t="s">
+      <c r="F629" s="6" t="s">
         <v>833</v>
       </c>
-      <c r="G628" s="3" t="s">
+      <c r="G629" s="3" t="s">
         <v>1496</v>
-      </c>
-    </row>
-    <row r="629" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A629" s="3" t="s">
-        <v>2197</v>
-      </c>
-      <c r="B629" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C629" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E629" s="3" t="s">
-        <v>1687</v>
-      </c>
-      <c r="F629" s="6" t="s">
-        <v>834</v>
-      </c>
-      <c r="G629" s="3" t="s">
-        <v>1497</v>
       </c>
     </row>
     <row r="630" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A630" s="3" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="B630" s="3" t="b">
         <v>1</v>
@@ -20499,59 +20511,58 @@
         <v>1</v>
       </c>
       <c r="E630" s="3" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F630" s="6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G630" s="3" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="631" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A631" s="3" t="s">
+        <v>2198</v>
+      </c>
+      <c r="B631" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C631" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E631" s="3" t="s">
+        <v>1688</v>
+      </c>
+      <c r="F631" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="G631" s="3" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="632" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A632" s="3" t="s">
         <v>2199</v>
       </c>
-      <c r="B631" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C631" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E631" s="3" t="s">
+      <c r="B632" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C632" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E632" s="3" t="s">
         <v>2200</v>
       </c>
-      <c r="F631" s="6" t="s">
+      <c r="F632" s="6" t="s">
         <v>2201</v>
       </c>
-      <c r="G631" s="3" t="s">
+      <c r="G632" s="3" t="s">
         <v>2202</v>
-      </c>
-    </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A632" s="3" t="s">
-        <v>826</v>
-      </c>
-      <c r="B632" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C632" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D632" s="3"/>
-      <c r="E632" s="3" t="s">
-        <v>828</v>
-      </c>
-      <c r="F632" s="6" t="s">
-        <v>827</v>
-      </c>
-      <c r="G632" s="3" t="s">
-        <v>1493</v>
       </c>
     </row>
     <row r="633" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A633" s="3" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="B633" s="3" t="b">
         <v>1</v>
@@ -20561,118 +20572,119 @@
       </c>
       <c r="D633" s="3"/>
       <c r="E633" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="F633" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="G633" s="3" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A634" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="B634" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C634" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D634" s="3"/>
+      <c r="E634" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="F633" s="6" t="s">
+      <c r="F634" s="6" t="s">
         <v>824</v>
       </c>
-      <c r="G633" s="3" t="s">
+      <c r="G634" s="3" t="s">
         <v>1492</v>
-      </c>
-    </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A634" t="s">
-        <v>2287</v>
-      </c>
-      <c r="B634" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C634" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E634" t="s">
-        <v>1739</v>
-      </c>
-      <c r="F634" s="6" t="s">
-        <v>2292</v>
-      </c>
-      <c r="G634" t="s">
-        <v>1787</v>
       </c>
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
+        <v>2287</v>
+      </c>
+      <c r="B635" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C635" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E635" t="s">
+        <v>1739</v>
+      </c>
+      <c r="F635" s="6" t="s">
+        <v>2292</v>
+      </c>
+      <c r="G635" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
         <v>2288</v>
       </c>
-      <c r="B635" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C635" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E635" s="3" t="s">
+      <c r="B636" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C636" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E636" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="F635" s="6" t="s">
+      <c r="F636" s="6" t="s">
         <v>1751</v>
       </c>
-      <c r="G635" t="s">
+      <c r="G636" t="s">
         <v>1357</v>
-      </c>
-    </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A636" s="3" t="s">
-        <v>2289</v>
-      </c>
-      <c r="B636" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C636" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E636" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="F636" s="6" t="s">
-        <v>2293</v>
-      </c>
-      <c r="G636" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="637" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A637" s="3" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B637" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C637" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E637" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="F637" s="6" t="s">
+        <v>2293</v>
+      </c>
+      <c r="G637" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A638" s="3" t="s">
         <v>2290</v>
       </c>
-      <c r="B637" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C637" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E637" s="3" t="s">
+      <c r="B638" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C638" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E638" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="F637" s="6" t="s">
+      <c r="F638" s="6" t="s">
         <v>1747</v>
       </c>
-      <c r="G637" t="s">
+      <c r="G638" t="s">
         <v>1364</v>
-      </c>
-    </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A638" t="s">
-        <v>2291</v>
-      </c>
-      <c r="B638" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C638" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E638" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="F638" s="6" t="s">
-        <v>1750</v>
-      </c>
-      <c r="G638" t="s">
-        <v>1361</v>
       </c>
     </row>
     <row r="639" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>2294</v>
+        <v>2291</v>
       </c>
       <c r="B639" s="3" t="b">
         <v>1</v>
@@ -20680,19 +20692,19 @@
       <c r="C639" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E639" t="s">
-        <v>2296</v>
+      <c r="E639" s="3" t="s">
+        <v>434</v>
       </c>
       <c r="F639" s="6" t="s">
-        <v>2298</v>
+        <v>1750</v>
       </c>
       <c r="G639" t="s">
-        <v>2300</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="640" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="B640" s="3" t="b">
         <v>1</v>
@@ -20701,57 +20713,77 @@
         <v>1</v>
       </c>
       <c r="E640" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="F640" s="6" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="G640" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="641" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>2302</v>
-      </c>
-      <c r="B641" t="b">
-        <v>1</v>
-      </c>
-      <c r="C641" t="b">
+        <v>2295</v>
+      </c>
+      <c r="B641" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C641" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E641" t="s">
-        <v>2303</v>
+        <v>2297</v>
       </c>
       <c r="F641" s="6" t="s">
-        <v>2304</v>
+        <v>2299</v>
       </c>
       <c r="G641" t="s">
-        <v>2305</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
+        <v>2302</v>
+      </c>
+      <c r="B642" t="b">
+        <v>1</v>
+      </c>
+      <c r="C642" t="b">
+        <v>1</v>
+      </c>
+      <c r="E642" t="s">
+        <v>2303</v>
+      </c>
+      <c r="F642" s="6" t="s">
+        <v>2304</v>
+      </c>
+      <c r="G642" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
         <v>2070</v>
       </c>
-      <c r="B642" t="b">
-        <v>1</v>
-      </c>
-      <c r="C642" t="b">
-        <v>1</v>
-      </c>
-      <c r="E642" t="s">
+      <c r="B643" t="b">
+        <v>1</v>
+      </c>
+      <c r="C643" t="b">
+        <v>1</v>
+      </c>
+      <c r="E643" t="s">
         <v>2070</v>
       </c>
-      <c r="F642" s="6" t="s">
+      <c r="F643" s="6" t="s">
         <v>2071</v>
       </c>
-      <c r="G642" s="3" t="s">
+      <c r="G643" s="3" t="s">
         <v>2072</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G524" xr:uid="{166F55E6-F4CB-49C4-A0B4-8593C255C448}"/>
+  <autoFilter ref="A1:G525" xr:uid="{166F55E6-F4CB-49C4-A0B4-8593C255C448}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Translations/Translations.xlsx
+++ b/Translations/Translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\source\repos\BSharp\Translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9493B44-AAAC-4DB4-B30F-05AC98D6B87D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3E69D2-84E3-4E0F-9CAE-BBB40641C0F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31995" yWindow="0" windowWidth="17790" windowHeight="14805" xr2:uid="{09F7BBB4-81EA-4503-B8DD-8985A501E98F}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Translations" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$G$525</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$G$521</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2577" uniqueCount="2311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2571" uniqueCount="2309">
   <si>
     <t>Key</t>
   </si>
@@ -5577,60 +5577,18 @@
     <t>三元语言不能与第二语言相同。</t>
   </si>
   <si>
-    <t>Account_ResponsibilityCenter</t>
-  </si>
-  <si>
-    <t>Account_PartyReference</t>
-  </si>
-  <si>
-    <t>Account_Custodian</t>
-  </si>
-  <si>
-    <t>Account_Resource</t>
-  </si>
-  <si>
-    <t>Account_Location</t>
-  </si>
-  <si>
     <t>Accounts</t>
   </si>
   <si>
-    <t>Party Reference</t>
-  </si>
-  <si>
-    <t>Custodian</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
     <t>حساب</t>
   </si>
   <si>
     <t>حسابات</t>
   </si>
   <si>
-    <t>الذمة</t>
-  </si>
-  <si>
-    <t>الموقع</t>
-  </si>
-  <si>
-    <t>الرقم الخارجي</t>
-  </si>
-  <si>
     <t>帐号</t>
   </si>
   <si>
-    <t>党的文献</t>
-  </si>
-  <si>
-    <t>保管人</t>
-  </si>
-  <si>
-    <t>位置</t>
-  </si>
-  <si>
     <t>Account_IsDeprecated</t>
   </si>
   <si>
@@ -6967,6 +6925,42 @@
   </si>
   <si>
     <t>العملة الوظيفية</t>
+  </si>
+  <si>
+    <t>Account_IsSmart</t>
+  </si>
+  <si>
+    <t>Is Smart</t>
+  </si>
+  <si>
+    <t>حساب ذكي</t>
+  </si>
+  <si>
+    <t>是聪明</t>
+  </si>
+  <si>
+    <t>Smart</t>
+  </si>
+  <si>
+    <t>NotSmart</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>ذكية</t>
+  </si>
+  <si>
+    <t>عادية</t>
+  </si>
+  <si>
+    <t>For accounts screen filter</t>
+  </si>
+  <si>
+    <t>聪明</t>
+  </si>
+  <si>
+    <t>定期</t>
   </si>
 </sst>
 </file>
@@ -7372,12 +7366,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FEE134-3B22-427F-8E5A-2A7F994BE2AC}">
-  <dimension ref="A1:G643"/>
+  <dimension ref="A1:G641"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A593" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F346" sqref="F346"/>
+      <selection pane="bottomLeft" activeCell="B637" sqref="B637"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7385,7 +7379,7 @@
     <col min="1" max="1" width="48.28515625" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="43.85546875" customWidth="1"/>
     <col min="6" max="6" width="45.28515625" style="6" customWidth="1"/>
     <col min="7" max="7" width="47.140625" customWidth="1"/>
@@ -10083,7 +10077,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>2249</v>
+        <v>2235</v>
       </c>
       <c r="B129" s="3" t="b">
         <v>1</v>
@@ -10093,13 +10087,13 @@
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="3" t="s">
-        <v>2250</v>
+        <v>2236</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>2252</v>
+        <v>2238</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>2251</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -14619,7 +14613,7 @@
     </row>
     <row r="345" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
-        <v>2307</v>
+        <v>2293</v>
       </c>
       <c r="B345" s="3" t="b">
         <v>1</v>
@@ -14628,13 +14622,13 @@
         <v>1</v>
       </c>
       <c r="E345" s="3" t="s">
-        <v>2308</v>
+        <v>2294</v>
       </c>
       <c r="F345" s="6" t="s">
-        <v>2310</v>
+        <v>2296</v>
       </c>
       <c r="G345" s="3" t="s">
-        <v>2309</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
@@ -15888,7 +15882,7 @@
       </c>
       <c r="D405" s="3"/>
       <c r="E405" s="3" t="s">
-        <v>2306</v>
+        <v>2292</v>
       </c>
       <c r="F405" s="6" t="s">
         <v>1198</v>
@@ -16025,7 +16019,7 @@
     </row>
     <row r="412" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A412" s="3" t="s">
-        <v>2253</v>
+        <v>2239</v>
       </c>
       <c r="B412" s="3" t="b">
         <v>1</v>
@@ -17536,7 +17530,7 @@
     </row>
     <row r="484" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A484" s="3" t="s">
-        <v>2076</v>
+        <v>2062</v>
       </c>
       <c r="B484" s="3" t="b">
         <v>1</v>
@@ -17545,18 +17539,18 @@
         <v>1</v>
       </c>
       <c r="E484" s="3" t="s">
-        <v>2078</v>
+        <v>2064</v>
       </c>
       <c r="F484" s="6" t="s">
-        <v>2080</v>
+        <v>2066</v>
       </c>
       <c r="G484" s="3" t="s">
-        <v>2082</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="485" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A485" s="3" t="s">
-        <v>2077</v>
+        <v>2063</v>
       </c>
       <c r="B485" s="3" t="b">
         <v>1</v>
@@ -17565,18 +17559,18 @@
         <v>1</v>
       </c>
       <c r="E485" s="3" t="s">
-        <v>2079</v>
+        <v>2065</v>
       </c>
       <c r="F485" s="6" t="s">
-        <v>2081</v>
+        <v>2067</v>
       </c>
       <c r="G485" s="3" t="s">
-        <v>2082</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="3" t="s">
-        <v>2204</v>
+        <v>2190</v>
       </c>
       <c r="B486" s="3" t="b">
         <v>1</v>
@@ -17786,7 +17780,7 @@
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="3" t="s">
-        <v>2254</v>
+        <v>2240</v>
       </c>
       <c r="B496" s="3" t="b">
         <v>1</v>
@@ -17903,7 +17897,7 @@
         <v>1630</v>
       </c>
       <c r="F501" s="6" t="s">
-        <v>1856</v>
+        <v>1848</v>
       </c>
       <c r="G501" s="3" t="s">
         <v>1782</v>
@@ -17911,7 +17905,7 @@
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" s="3" t="s">
-        <v>1852</v>
+        <v>1847</v>
       </c>
       <c r="B502" s="3" t="b">
         <v>1</v>
@@ -17921,18 +17915,18 @@
       </c>
       <c r="D502" s="3"/>
       <c r="E502" s="3" t="s">
-        <v>1852</v>
+        <v>1847</v>
       </c>
       <c r="F502" s="6" t="s">
-        <v>1857</v>
+        <v>1849</v>
       </c>
       <c r="G502" s="3" t="s">
-        <v>1861</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="3" t="s">
-        <v>1866</v>
+        <v>1852</v>
       </c>
       <c r="B503" s="3" t="b">
         <v>1</v>
@@ -17942,18 +17936,18 @@
       </c>
       <c r="D503" s="3"/>
       <c r="E503" s="3" t="s">
-        <v>1868</v>
+        <v>1854</v>
       </c>
       <c r="F503" s="6" t="s">
-        <v>1869</v>
+        <v>1855</v>
       </c>
       <c r="G503" s="3" t="s">
-        <v>1870</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="3" t="s">
-        <v>1867</v>
+        <v>1853</v>
       </c>
       <c r="B504" s="3" t="b">
         <v>1</v>
@@ -17972,9 +17966,9 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A505" s="3" t="s">
-        <v>1848</v>
+        <v>2297</v>
       </c>
       <c r="B505" s="3" t="b">
         <v>1</v>
@@ -17982,20 +17976,19 @@
       <c r="C505" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D505" s="3"/>
       <c r="E505" s="3" t="s">
-        <v>1853</v>
+        <v>2298</v>
       </c>
       <c r="F505" s="6" t="s">
-        <v>1860</v>
+        <v>2299</v>
       </c>
       <c r="G505" s="3" t="s">
-        <v>1862</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="3" t="s">
-        <v>1847</v>
+        <v>1851</v>
       </c>
       <c r="B506" s="3" t="b">
         <v>1</v>
@@ -18005,18 +17998,18 @@
       </c>
       <c r="D506" s="3"/>
       <c r="E506" s="3" t="s">
-        <v>1737</v>
+        <v>1797</v>
       </c>
       <c r="F506" s="6" t="s">
-        <v>1742</v>
+        <v>1802</v>
       </c>
       <c r="G506" s="3" t="s">
-        <v>1784</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" s="3" t="s">
-        <v>1849</v>
+        <v>1857</v>
       </c>
       <c r="B507" s="3" t="b">
         <v>1</v>
@@ -18026,18 +18019,18 @@
       </c>
       <c r="D507" s="3"/>
       <c r="E507" s="3" t="s">
-        <v>1854</v>
+        <v>1860</v>
       </c>
       <c r="F507" s="6" t="s">
         <v>1858</v>
       </c>
       <c r="G507" s="3" t="s">
-        <v>1863</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="3" t="s">
-        <v>1850</v>
+        <v>1862</v>
       </c>
       <c r="B508" s="3" t="b">
         <v>1</v>
@@ -18047,18 +18040,18 @@
       </c>
       <c r="D508" s="3"/>
       <c r="E508" s="3" t="s">
-        <v>1733</v>
+        <v>1861</v>
       </c>
       <c r="F508" s="6" t="s">
-        <v>1743</v>
+        <v>1859</v>
       </c>
       <c r="G508" s="3" t="s">
-        <v>1785</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="3" t="s">
-        <v>1851</v>
+        <v>1863</v>
       </c>
       <c r="B509" s="3" t="b">
         <v>1</v>
@@ -18068,18 +18061,18 @@
       </c>
       <c r="D509" s="3"/>
       <c r="E509" s="3" t="s">
-        <v>1855</v>
+        <v>1866</v>
       </c>
       <c r="F509" s="6" t="s">
-        <v>1859</v>
+        <v>1869</v>
       </c>
       <c r="G509" s="3" t="s">
-        <v>1864</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="3" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="B510" s="3" t="b">
         <v>1</v>
@@ -18089,18 +18082,18 @@
       </c>
       <c r="D510" s="3"/>
       <c r="E510" s="3" t="s">
-        <v>1797</v>
+        <v>1870</v>
       </c>
       <c r="F510" s="6" t="s">
-        <v>1802</v>
+        <v>1868</v>
       </c>
       <c r="G510" s="3" t="s">
-        <v>1804</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="3" t="s">
-        <v>1871</v>
+        <v>1865</v>
       </c>
       <c r="B511" s="3" t="b">
         <v>1</v>
@@ -18110,18 +18103,18 @@
       </c>
       <c r="D511" s="3"/>
       <c r="E511" s="3" t="s">
-        <v>1874</v>
+        <v>1871</v>
       </c>
       <c r="F511" s="6" t="s">
-        <v>1872</v>
+        <v>1867</v>
       </c>
       <c r="G511" s="3" t="s">
-        <v>1888</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="3" t="s">
-        <v>1876</v>
+        <v>1889</v>
       </c>
       <c r="B512" s="3" t="b">
         <v>1</v>
@@ -18131,18 +18124,18 @@
       </c>
       <c r="D512" s="3"/>
       <c r="E512" s="3" t="s">
-        <v>1875</v>
+        <v>1872</v>
       </c>
       <c r="F512" s="6" t="s">
         <v>1873</v>
       </c>
       <c r="G512" s="3" t="s">
-        <v>1889</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" s="3" t="s">
-        <v>1877</v>
+        <v>1880</v>
       </c>
       <c r="B513" s="3" t="b">
         <v>1</v>
@@ -18152,18 +18145,18 @@
       </c>
       <c r="D513" s="3"/>
       <c r="E513" s="3" t="s">
-        <v>1880</v>
+        <v>648</v>
       </c>
       <c r="F513" s="6" t="s">
-        <v>1883</v>
+        <v>649</v>
       </c>
       <c r="G513" s="3" t="s">
-        <v>1890</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" s="3" t="s">
-        <v>1878</v>
+        <v>1881</v>
       </c>
       <c r="B514" s="3" t="b">
         <v>1</v>
@@ -18173,18 +18166,18 @@
       </c>
       <c r="D514" s="3"/>
       <c r="E514" s="3" t="s">
-        <v>1884</v>
+        <v>1649</v>
       </c>
       <c r="F514" s="6" t="s">
-        <v>1882</v>
+        <v>1146</v>
       </c>
       <c r="G514" s="3" t="s">
-        <v>1891</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="3" t="s">
-        <v>1879</v>
+        <v>1882</v>
       </c>
       <c r="B515" s="3" t="b">
         <v>1</v>
@@ -18194,18 +18187,18 @@
       </c>
       <c r="D515" s="3"/>
       <c r="E515" s="3" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="F515" s="6" t="s">
-        <v>1881</v>
+        <v>1886</v>
       </c>
       <c r="G515" s="3" t="s">
-        <v>1892</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" s="3" t="s">
-        <v>1903</v>
+        <v>1883</v>
       </c>
       <c r="B516" s="3" t="b">
         <v>1</v>
@@ -18215,185 +18208,184 @@
       </c>
       <c r="D516" s="3"/>
       <c r="E516" s="3" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="F516" s="6" t="s">
-        <v>1887</v>
+        <v>1802</v>
       </c>
       <c r="G516" s="3" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A517" s="3" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B517" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C517" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E517" s="3" t="s">
+        <v>1890</v>
+      </c>
+      <c r="F517" s="6" t="s">
         <v>1893</v>
       </c>
-    </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A517" s="3" t="s">
+      <c r="G517" s="3" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
         <v>1894</v>
       </c>
-      <c r="B517" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C517" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D517" s="3"/>
-      <c r="E517" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="F517" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="G517" s="3" t="s">
-        <v>1436</v>
-      </c>
-    </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A518" s="3" t="s">
+      <c r="B518" t="b">
+        <v>1</v>
+      </c>
+      <c r="C518" t="b">
+        <v>1</v>
+      </c>
+      <c r="E518" s="3" t="s">
+        <v>1894</v>
+      </c>
+      <c r="F518" s="6" t="s">
+        <v>1897</v>
+      </c>
+      <c r="G518" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
         <v>1895</v>
       </c>
-      <c r="B518" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C518" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D518" s="3"/>
-      <c r="E518" s="3" t="s">
-        <v>1649</v>
-      </c>
-      <c r="F518" s="6" t="s">
-        <v>1146</v>
-      </c>
-      <c r="G518" s="3" t="s">
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A519" s="3" t="s">
+      <c r="B519" t="b">
+        <v>1</v>
+      </c>
+      <c r="C519" t="b">
+        <v>1</v>
+      </c>
+      <c r="E519" s="3" t="s">
         <v>1896</v>
       </c>
-      <c r="B519" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C519" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D519" s="3"/>
-      <c r="E519" s="3" t="s">
+      <c r="F519" s="6" t="s">
         <v>1898</v>
       </c>
-      <c r="F519" s="6" t="s">
+      <c r="G519" t="s">
         <v>1900</v>
       </c>
-      <c r="G519" s="3" t="s">
+    </row>
+    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
         <v>1901</v>
       </c>
-    </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A520" s="3" t="s">
-        <v>1897</v>
-      </c>
-      <c r="B520" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C520" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D520" s="3"/>
+      <c r="B520" t="b">
+        <v>1</v>
+      </c>
+      <c r="C520" t="b">
+        <v>0</v>
+      </c>
+      <c r="D520" t="s">
+        <v>1904</v>
+      </c>
       <c r="E520" s="3" t="s">
-        <v>1899</v>
+        <v>1902</v>
       </c>
       <c r="F520" s="6" t="s">
-        <v>1802</v>
+        <v>1903</v>
       </c>
       <c r="G520" s="3" t="s">
-        <v>1902</v>
-      </c>
-    </row>
-    <row r="521" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" s="3" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B521" t="b">
+        <v>0</v>
+      </c>
+      <c r="C521" t="b">
+        <v>1</v>
+      </c>
+      <c r="D521" s="3" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E521" s="3" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F521" s="6" t="s">
         <v>1906</v>
       </c>
-      <c r="B521" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C521" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E521" s="3" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F521" s="6" t="s">
-        <v>1907</v>
-      </c>
       <c r="G521" s="3" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>1908</v>
+        <v>1919</v>
       </c>
       <c r="B522" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C522" t="b">
         <v>1</v>
       </c>
-      <c r="E522" s="3" t="s">
-        <v>1908</v>
+      <c r="E522" t="s">
+        <v>1922</v>
       </c>
       <c r="F522" s="6" t="s">
-        <v>1911</v>
-      </c>
-      <c r="G522" t="s">
-        <v>1913</v>
+        <v>1920</v>
+      </c>
+      <c r="G522" s="3" t="s">
+        <v>1921</v>
       </c>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>1909</v>
+        <v>1931</v>
       </c>
       <c r="B523" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C523" t="b">
         <v>1</v>
       </c>
-      <c r="E523" s="3" t="s">
-        <v>1910</v>
+      <c r="E523" t="s">
+        <v>1931</v>
       </c>
       <c r="F523" s="6" t="s">
-        <v>1912</v>
-      </c>
-      <c r="G523" t="s">
-        <v>1914</v>
+        <v>1932</v>
+      </c>
+      <c r="G523" s="3" t="s">
+        <v>1933</v>
       </c>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>1915</v>
-      </c>
-      <c r="B524" t="b">
-        <v>1</v>
-      </c>
-      <c r="C524" t="b">
-        <v>0</v>
-      </c>
-      <c r="D524" t="s">
-        <v>1918</v>
-      </c>
-      <c r="E524" s="3" t="s">
-        <v>1916</v>
+        <v>1923</v>
+      </c>
+      <c r="B524" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C524" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E524" t="s">
+        <v>1924</v>
       </c>
       <c r="F524" s="6" t="s">
-        <v>1917</v>
-      </c>
-      <c r="G524" s="3" t="s">
-        <v>1917</v>
+        <v>1926</v>
+      </c>
+      <c r="G524" t="s">
+        <v>1925</v>
       </c>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A525" s="3" t="s">
-        <v>1915</v>
+      <c r="A525" t="s">
+        <v>1927</v>
       </c>
       <c r="B525" t="b">
         <v>0</v>
@@ -18401,102 +18393,99 @@
       <c r="C525" t="b">
         <v>1</v>
       </c>
-      <c r="D525" s="3" t="s">
-        <v>1918</v>
-      </c>
-      <c r="E525" s="3" t="s">
-        <v>1919</v>
+      <c r="E525" t="s">
+        <v>1928</v>
       </c>
       <c r="F525" s="6" t="s">
-        <v>1920</v>
-      </c>
-      <c r="G525" s="3" t="s">
-        <v>1920</v>
+        <v>1929</v>
+      </c>
+      <c r="G525" t="s">
+        <v>1930</v>
       </c>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>1933</v>
-      </c>
-      <c r="B526" t="b">
-        <v>0</v>
-      </c>
-      <c r="C526" t="b">
+        <v>1934</v>
+      </c>
+      <c r="B526" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C526" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E526" t="s">
         <v>1936</v>
       </c>
       <c r="F526" s="6" t="s">
-        <v>1934</v>
-      </c>
-      <c r="G526" s="3" t="s">
-        <v>1935</v>
+        <v>1938</v>
+      </c>
+      <c r="G526" t="s">
+        <v>2027</v>
       </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>1945</v>
-      </c>
-      <c r="B527" t="b">
-        <v>0</v>
-      </c>
-      <c r="C527" t="b">
+        <v>1935</v>
+      </c>
+      <c r="B527" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C527" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E527" t="s">
-        <v>1945</v>
+        <v>1937</v>
       </c>
       <c r="F527" s="6" t="s">
-        <v>1946</v>
-      </c>
-      <c r="G527" s="3" t="s">
-        <v>1947</v>
+        <v>1939</v>
+      </c>
+      <c r="G527" t="s">
+        <v>2027</v>
       </c>
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>1937</v>
+        <v>42</v>
       </c>
       <c r="B528" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C528" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E528" t="s">
-        <v>1938</v>
+        <v>42</v>
       </c>
       <c r="F528" s="6" t="s">
-        <v>1940</v>
+        <v>110</v>
       </c>
       <c r="G528" t="s">
-        <v>1939</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>1941</v>
-      </c>
-      <c r="B529" t="b">
-        <v>0</v>
-      </c>
-      <c r="C529" t="b">
+        <v>1946</v>
+      </c>
+      <c r="B529" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C529" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E529" t="s">
-        <v>1942</v>
+        <v>1854</v>
       </c>
       <c r="F529" s="6" t="s">
-        <v>1943</v>
+        <v>1855</v>
       </c>
       <c r="G529" t="s">
-        <v>1944</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B530" s="3" t="b">
         <v>1</v>
@@ -18505,18 +18494,18 @@
         <v>1</v>
       </c>
       <c r="E530" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="F530" s="6" t="s">
-        <v>1952</v>
+        <v>1954</v>
       </c>
       <c r="G530" t="s">
-        <v>2041</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B531" s="3" t="b">
         <v>1</v>
@@ -18525,18 +18514,18 @@
         <v>1</v>
       </c>
       <c r="E531" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="F531" s="6" t="s">
-        <v>1953</v>
+        <v>1955</v>
       </c>
       <c r="G531" t="s">
-        <v>2041</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>42</v>
+        <v>1940</v>
       </c>
       <c r="B532" s="3" t="b">
         <v>1</v>
@@ -18545,18 +18534,18 @@
         <v>1</v>
       </c>
       <c r="E532" t="s">
-        <v>42</v>
+        <v>1931</v>
       </c>
       <c r="F532" s="6" t="s">
-        <v>110</v>
+        <v>1956</v>
       </c>
       <c r="G532" t="s">
-        <v>1227</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>1960</v>
+        <v>1941</v>
       </c>
       <c r="B533" s="3" t="b">
         <v>1</v>
@@ -18565,18 +18554,18 @@
         <v>1</v>
       </c>
       <c r="E533" t="s">
-        <v>1868</v>
+        <v>1951</v>
       </c>
       <c r="F533" s="6" t="s">
-        <v>1869</v>
+        <v>1957</v>
       </c>
       <c r="G533" t="s">
-        <v>1870</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>1961</v>
+        <v>1942</v>
       </c>
       <c r="B534" s="3" t="b">
         <v>1</v>
@@ -18585,18 +18574,18 @@
         <v>1</v>
       </c>
       <c r="E534" t="s">
-        <v>1963</v>
+        <v>2144</v>
       </c>
       <c r="F534" s="6" t="s">
-        <v>1968</v>
+        <v>2150</v>
       </c>
       <c r="G534" t="s">
-        <v>2042</v>
-      </c>
-    </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A535" t="s">
-        <v>1962</v>
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A535" s="3" t="s">
+        <v>2098</v>
       </c>
       <c r="B535" s="3" t="b">
         <v>1</v>
@@ -18604,19 +18593,19 @@
       <c r="C535" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E535" t="s">
-        <v>1964</v>
+      <c r="E535" s="3" t="s">
+        <v>2145</v>
       </c>
       <c r="F535" s="6" t="s">
-        <v>1969</v>
-      </c>
-      <c r="G535" t="s">
-        <v>2043</v>
-      </c>
-    </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A536" t="s">
-        <v>1954</v>
+        <v>2151</v>
+      </c>
+      <c r="G535" s="3" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A536" s="3" t="s">
+        <v>2099</v>
       </c>
       <c r="B536" s="3" t="b">
         <v>1</v>
@@ -18624,19 +18613,19 @@
       <c r="C536" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E536" t="s">
-        <v>1945</v>
+      <c r="E536" s="3" t="s">
+        <v>2146</v>
       </c>
       <c r="F536" s="6" t="s">
-        <v>1970</v>
-      </c>
-      <c r="G536" t="s">
-        <v>1947</v>
-      </c>
-    </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A537" t="s">
-        <v>1955</v>
+        <v>2152</v>
+      </c>
+      <c r="G536" s="3" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A537" s="3" t="s">
+        <v>2100</v>
       </c>
       <c r="B537" s="3" t="b">
         <v>1</v>
@@ -18644,19 +18633,19 @@
       <c r="C537" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E537" t="s">
-        <v>1965</v>
+      <c r="E537" s="3" t="s">
+        <v>2147</v>
       </c>
       <c r="F537" s="6" t="s">
-        <v>1971</v>
-      </c>
-      <c r="G537" t="s">
-        <v>2044</v>
+        <v>2153</v>
+      </c>
+      <c r="G537" s="3" t="s">
+        <v>2127</v>
       </c>
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>1956</v>
+        <v>1943</v>
       </c>
       <c r="B538" s="3" t="b">
         <v>1</v>
@@ -18665,18 +18654,18 @@
         <v>1</v>
       </c>
       <c r="E538" t="s">
-        <v>2158</v>
+        <v>2143</v>
       </c>
       <c r="F538" s="6" t="s">
-        <v>2164</v>
+        <v>2154</v>
       </c>
       <c r="G538" t="s">
-        <v>2045</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="539" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A539" s="3" t="s">
-        <v>2112</v>
+        <v>2101</v>
       </c>
       <c r="B539" s="3" t="b">
         <v>1</v>
@@ -18685,18 +18674,18 @@
         <v>1</v>
       </c>
       <c r="E539" s="3" t="s">
-        <v>2159</v>
+        <v>2142</v>
       </c>
       <c r="F539" s="6" t="s">
-        <v>2165</v>
+        <v>2155</v>
       </c>
       <c r="G539" s="3" t="s">
-        <v>2139</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="540" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A540" s="3" t="s">
-        <v>2113</v>
+        <v>2102</v>
       </c>
       <c r="B540" s="3" t="b">
         <v>1</v>
@@ -18705,18 +18694,18 @@
         <v>1</v>
       </c>
       <c r="E540" s="3" t="s">
-        <v>2160</v>
+        <v>2141</v>
       </c>
       <c r="F540" s="6" t="s">
-        <v>2166</v>
+        <v>2156</v>
       </c>
       <c r="G540" s="3" t="s">
-        <v>2140</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="541" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A541" s="3" t="s">
-        <v>2114</v>
+        <v>2103</v>
       </c>
       <c r="B541" s="3" t="b">
         <v>1</v>
@@ -18725,18 +18714,18 @@
         <v>1</v>
       </c>
       <c r="E541" s="3" t="s">
-        <v>2161</v>
+        <v>2140</v>
       </c>
       <c r="F541" s="6" t="s">
-        <v>2167</v>
+        <v>2157</v>
       </c>
       <c r="G541" s="3" t="s">
-        <v>2141</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>1957</v>
+        <v>1944</v>
       </c>
       <c r="B542" s="3" t="b">
         <v>1</v>
@@ -18745,18 +18734,18 @@
         <v>1</v>
       </c>
       <c r="E542" t="s">
-        <v>2157</v>
+        <v>1952</v>
       </c>
       <c r="F542" s="6" t="s">
-        <v>2168</v>
+        <v>1959</v>
       </c>
       <c r="G542" t="s">
-        <v>2046</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="543" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A543" s="3" t="s">
-        <v>2115</v>
+        <v>2104</v>
       </c>
       <c r="B543" s="3" t="b">
         <v>1</v>
@@ -18765,18 +18754,18 @@
         <v>1</v>
       </c>
       <c r="E543" s="3" t="s">
-        <v>2156</v>
+        <v>2112</v>
       </c>
       <c r="F543" s="6" t="s">
-        <v>2169</v>
+        <v>2118</v>
       </c>
       <c r="G543" s="3" t="s">
-        <v>2142</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="544" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A544" s="3" t="s">
-        <v>2116</v>
+        <v>2105</v>
       </c>
       <c r="B544" s="3" t="b">
         <v>1</v>
@@ -18785,18 +18774,18 @@
         <v>1</v>
       </c>
       <c r="E544" s="3" t="s">
-        <v>2155</v>
+        <v>2148</v>
       </c>
       <c r="F544" s="6" t="s">
-        <v>2170</v>
+        <v>2120</v>
       </c>
       <c r="G544" s="3" t="s">
-        <v>2143</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="545" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A545" s="3" t="s">
-        <v>2117</v>
+        <v>2106</v>
       </c>
       <c r="B545" s="3" t="b">
         <v>1</v>
@@ -18805,38 +18794,38 @@
         <v>1</v>
       </c>
       <c r="E545" s="3" t="s">
-        <v>2154</v>
+        <v>2149</v>
       </c>
       <c r="F545" s="6" t="s">
-        <v>2171</v>
+        <v>2119</v>
       </c>
       <c r="G545" s="3" t="s">
-        <v>2144</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B546" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C546" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E546" t="s">
+        <v>1953</v>
+      </c>
+      <c r="F546" s="6" t="s">
         <v>1958</v>
       </c>
-      <c r="B546" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C546" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E546" t="s">
-        <v>1966</v>
-      </c>
-      <c r="F546" s="6" t="s">
-        <v>1973</v>
-      </c>
       <c r="G546" t="s">
-        <v>2047</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="547" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A547" s="3" t="s">
-        <v>2118</v>
+        <v>2107</v>
       </c>
       <c r="B547" s="3" t="b">
         <v>1</v>
@@ -18845,18 +18834,18 @@
         <v>1</v>
       </c>
       <c r="E547" s="3" t="s">
-        <v>2126</v>
+        <v>2113</v>
       </c>
       <c r="F547" s="6" t="s">
-        <v>2132</v>
+        <v>2121</v>
       </c>
       <c r="G547" s="3" t="s">
-        <v>2145</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="548" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A548" s="3" t="s">
-        <v>2119</v>
+        <v>2108</v>
       </c>
       <c r="B548" s="3" t="b">
         <v>1</v>
@@ -18865,18 +18854,18 @@
         <v>1</v>
       </c>
       <c r="E548" s="3" t="s">
-        <v>2162</v>
+        <v>2114</v>
       </c>
       <c r="F548" s="6" t="s">
-        <v>2134</v>
+        <v>2122</v>
       </c>
       <c r="G548" s="3" t="s">
-        <v>2146</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="549" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A549" s="3" t="s">
-        <v>2120</v>
+        <v>2109</v>
       </c>
       <c r="B549" s="3" t="b">
         <v>1</v>
@@ -18885,18 +18874,18 @@
         <v>1</v>
       </c>
       <c r="E549" s="3" t="s">
-        <v>2163</v>
+        <v>2115</v>
       </c>
       <c r="F549" s="6" t="s">
-        <v>2133</v>
+        <v>2139</v>
       </c>
       <c r="G549" s="3" t="s">
-        <v>2147</v>
-      </c>
-    </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A550" t="s">
-        <v>1959</v>
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="550" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A550" s="3" t="s">
+        <v>2110</v>
       </c>
       <c r="B550" s="3" t="b">
         <v>1</v>
@@ -18904,19 +18893,19 @@
       <c r="C550" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E550" t="s">
-        <v>1967</v>
+      <c r="E550" s="3" t="s">
+        <v>2116</v>
       </c>
       <c r="F550" s="6" t="s">
-        <v>1972</v>
-      </c>
-      <c r="G550" t="s">
-        <v>2048</v>
+        <v>2123</v>
+      </c>
+      <c r="G550" s="3" t="s">
+        <v>2137</v>
       </c>
     </row>
     <row r="551" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A551" s="3" t="s">
-        <v>2121</v>
+        <v>2111</v>
       </c>
       <c r="B551" s="3" t="b">
         <v>1</v>
@@ -18925,18 +18914,18 @@
         <v>1</v>
       </c>
       <c r="E551" s="3" t="s">
-        <v>2127</v>
+        <v>2117</v>
       </c>
       <c r="F551" s="6" t="s">
-        <v>2135</v>
+        <v>2124</v>
       </c>
       <c r="G551" s="3" t="s">
-        <v>2148</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="552" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A552" s="3" t="s">
-        <v>2122</v>
+        <v>2159</v>
       </c>
       <c r="B552" s="3" t="b">
         <v>1</v>
@@ -18945,18 +18934,18 @@
         <v>1</v>
       </c>
       <c r="E552" s="3" t="s">
-        <v>2128</v>
+        <v>2160</v>
       </c>
       <c r="F552" s="6" t="s">
-        <v>2136</v>
+        <v>2161</v>
       </c>
       <c r="G552" s="3" t="s">
-        <v>2149</v>
-      </c>
-    </row>
-    <row r="553" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A553" s="3" t="s">
-        <v>2123</v>
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>1960</v>
       </c>
       <c r="B553" s="3" t="b">
         <v>1</v>
@@ -18964,19 +18953,19 @@
       <c r="C553" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E553" s="3" t="s">
-        <v>2129</v>
+      <c r="E553" t="s">
+        <v>1973</v>
       </c>
       <c r="F553" s="6" t="s">
-        <v>2153</v>
-      </c>
-      <c r="G553" s="3" t="s">
-        <v>2150</v>
-      </c>
-    </row>
-    <row r="554" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A554" s="3" t="s">
-        <v>2124</v>
+        <v>2007</v>
+      </c>
+      <c r="G553" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>1961</v>
       </c>
       <c r="B554" s="3" t="b">
         <v>1</v>
@@ -18984,19 +18973,19 @@
       <c r="C554" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E554" s="3" t="s">
-        <v>2130</v>
+      <c r="E554" t="s">
+        <v>1977</v>
       </c>
       <c r="F554" s="6" t="s">
-        <v>2137</v>
-      </c>
-      <c r="G554" s="3" t="s">
-        <v>2151</v>
-      </c>
-    </row>
-    <row r="555" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A555" s="3" t="s">
-        <v>2125</v>
+        <v>2008</v>
+      </c>
+      <c r="G554" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>1962</v>
       </c>
       <c r="B555" s="3" t="b">
         <v>1</v>
@@ -19004,19 +18993,19 @@
       <c r="C555" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E555" s="3" t="s">
-        <v>2131</v>
+      <c r="E555" t="s">
+        <v>2056</v>
       </c>
       <c r="F555" s="6" t="s">
-        <v>2138</v>
-      </c>
-      <c r="G555" s="3" t="s">
-        <v>2152</v>
-      </c>
-    </row>
-    <row r="556" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A556" s="3" t="s">
-        <v>2173</v>
+        <v>2057</v>
+      </c>
+      <c r="G555" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>320</v>
       </c>
       <c r="B556" s="3" t="b">
         <v>1</v>
@@ -19024,19 +19013,19 @@
       <c r="C556" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E556" s="3" t="s">
-        <v>2174</v>
+      <c r="E556" t="s">
+        <v>320</v>
       </c>
       <c r="F556" s="6" t="s">
-        <v>2175</v>
-      </c>
-      <c r="G556" s="3" t="s">
-        <v>2176</v>
+        <v>319</v>
+      </c>
+      <c r="G556" t="s">
+        <v>1322</v>
       </c>
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>1974</v>
+        <v>1963</v>
       </c>
       <c r="B557" s="3" t="b">
         <v>1</v>
@@ -19045,18 +19034,18 @@
         <v>1</v>
       </c>
       <c r="E557" t="s">
-        <v>1987</v>
+        <v>1978</v>
       </c>
       <c r="F557" s="6" t="s">
-        <v>2021</v>
+        <v>2009</v>
       </c>
       <c r="G557" t="s">
-        <v>2049</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>1975</v>
+        <v>1964</v>
       </c>
       <c r="B558" s="3" t="b">
         <v>1</v>
@@ -19065,18 +19054,18 @@
         <v>1</v>
       </c>
       <c r="E558" t="s">
-        <v>1991</v>
+        <v>1979</v>
       </c>
       <c r="F558" s="6" t="s">
-        <v>2022</v>
+        <v>2010</v>
       </c>
       <c r="G558" t="s">
-        <v>2050</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>1976</v>
+        <v>1965</v>
       </c>
       <c r="B559" s="3" t="b">
         <v>1</v>
@@ -19085,18 +19074,18 @@
         <v>1</v>
       </c>
       <c r="E559" t="s">
-        <v>2070</v>
+        <v>1980</v>
       </c>
       <c r="F559" s="6" t="s">
-        <v>2071</v>
+        <v>2011</v>
       </c>
       <c r="G559" t="s">
-        <v>2072</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>320</v>
+        <v>1966</v>
       </c>
       <c r="B560" s="3" t="b">
         <v>1</v>
@@ -19105,18 +19094,18 @@
         <v>1</v>
       </c>
       <c r="E560" t="s">
-        <v>320</v>
+        <v>1981</v>
       </c>
       <c r="F560" s="6" t="s">
-        <v>319</v>
+        <v>2012</v>
       </c>
       <c r="G560" t="s">
-        <v>1322</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>1977</v>
+        <v>1967</v>
       </c>
       <c r="B561" s="3" t="b">
         <v>1</v>
@@ -19125,18 +19114,18 @@
         <v>1</v>
       </c>
       <c r="E561" t="s">
-        <v>1992</v>
+        <v>1982</v>
       </c>
       <c r="F561" s="6" t="s">
-        <v>2023</v>
+        <v>2013</v>
       </c>
       <c r="G561" t="s">
-        <v>2051</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>1978</v>
+        <v>1968</v>
       </c>
       <c r="B562" s="3" t="b">
         <v>1</v>
@@ -19145,18 +19134,18 @@
         <v>1</v>
       </c>
       <c r="E562" t="s">
-        <v>1993</v>
+        <v>882</v>
       </c>
       <c r="F562" s="6" t="s">
-        <v>2024</v>
+        <v>2014</v>
       </c>
       <c r="G562" t="s">
-        <v>2052</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>1979</v>
+        <v>1969</v>
       </c>
       <c r="B563" s="3" t="b">
         <v>1</v>
@@ -19165,18 +19154,18 @@
         <v>1</v>
       </c>
       <c r="E563" t="s">
-        <v>1994</v>
+        <v>1974</v>
       </c>
       <c r="F563" s="6" t="s">
-        <v>2025</v>
+        <v>2015</v>
       </c>
       <c r="G563" t="s">
-        <v>2053</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="B564" s="3" t="b">
         <v>1</v>
@@ -19185,18 +19174,18 @@
         <v>1</v>
       </c>
       <c r="E564" t="s">
-        <v>1995</v>
+        <v>1983</v>
       </c>
       <c r="F564" s="6" t="s">
-        <v>2026</v>
+        <v>2016</v>
       </c>
       <c r="G564" t="s">
-        <v>2054</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>1981</v>
+        <v>1971</v>
       </c>
       <c r="B565" s="3" t="b">
         <v>1</v>
@@ -19205,18 +19194,18 @@
         <v>1</v>
       </c>
       <c r="E565" t="s">
-        <v>1996</v>
+        <v>1975</v>
       </c>
       <c r="F565" s="6" t="s">
-        <v>2027</v>
+        <v>2158</v>
       </c>
       <c r="G565" t="s">
-        <v>2055</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>1982</v>
+        <v>1972</v>
       </c>
       <c r="B566" s="3" t="b">
         <v>1</v>
@@ -19225,78 +19214,78 @@
         <v>1</v>
       </c>
       <c r="E566" t="s">
-        <v>882</v>
+        <v>1976</v>
       </c>
       <c r="F566" s="6" t="s">
-        <v>2028</v>
+        <v>2017</v>
       </c>
       <c r="G566" t="s">
-        <v>1539</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>1983</v>
-      </c>
-      <c r="B567" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C567" s="3" t="b">
+        <v>1988</v>
+      </c>
+      <c r="B567" t="b">
+        <v>1</v>
+      </c>
+      <c r="C567" t="b">
         <v>1</v>
       </c>
       <c r="E567" t="s">
-        <v>1988</v>
+        <v>0</v>
       </c>
       <c r="F567" s="6" t="s">
-        <v>2029</v>
+        <v>1208</v>
       </c>
       <c r="G567" t="s">
-        <v>2069</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>1984</v>
       </c>
-      <c r="B568" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C568" s="3" t="b">
+      <c r="B568" t="b">
+        <v>1</v>
+      </c>
+      <c r="C568" t="b">
         <v>1</v>
       </c>
       <c r="E568" t="s">
-        <v>1997</v>
+        <v>1985</v>
       </c>
       <c r="F568" s="6" t="s">
-        <v>2030</v>
+        <v>2018</v>
       </c>
       <c r="G568" t="s">
-        <v>2056</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>1985</v>
-      </c>
-      <c r="B569" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C569" s="3" t="b">
+        <v>1986</v>
+      </c>
+      <c r="B569" t="b">
+        <v>1</v>
+      </c>
+      <c r="C569" t="b">
         <v>1</v>
       </c>
       <c r="E569" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="F569" s="6" t="s">
-        <v>2172</v>
+        <v>2019</v>
       </c>
       <c r="G569" t="s">
-        <v>2057</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>1986</v>
+        <v>1994</v>
       </c>
       <c r="B570" s="3" t="b">
         <v>1</v>
@@ -19305,78 +19294,78 @@
         <v>1</v>
       </c>
       <c r="E570" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="F570" s="6" t="s">
-        <v>2031</v>
+        <v>2020</v>
       </c>
       <c r="G570" t="s">
-        <v>2058</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>2002</v>
-      </c>
-      <c r="B571" t="b">
-        <v>1</v>
-      </c>
-      <c r="C571" t="b">
+        <v>1995</v>
+      </c>
+      <c r="B571" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C571" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E571" t="s">
-        <v>0</v>
+        <v>1990</v>
       </c>
       <c r="F571" s="6" t="s">
-        <v>1208</v>
+        <v>2021</v>
       </c>
       <c r="G571" t="s">
-        <v>2059</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>1998</v>
-      </c>
-      <c r="B572" t="b">
-        <v>1</v>
-      </c>
-      <c r="C572" t="b">
+        <v>1991</v>
+      </c>
+      <c r="B572" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C572" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E572" t="s">
-        <v>1999</v>
+        <v>1992</v>
       </c>
       <c r="F572" s="6" t="s">
-        <v>2032</v>
+        <v>2022</v>
       </c>
       <c r="G572" t="s">
-        <v>2060</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>2000</v>
-      </c>
-      <c r="B573" t="b">
-        <v>1</v>
-      </c>
-      <c r="C573" t="b">
+        <v>1993</v>
+      </c>
+      <c r="B573" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C573" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E573" t="s">
-        <v>2001</v>
+        <v>2024</v>
       </c>
       <c r="F573" s="6" t="s">
-        <v>2033</v>
+        <v>2023</v>
       </c>
       <c r="G573" t="s">
-        <v>2061</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>2008</v>
+        <v>1996</v>
       </c>
       <c r="B574" s="3" t="b">
         <v>1</v>
@@ -19385,18 +19374,18 @@
         <v>1</v>
       </c>
       <c r="E574" t="s">
-        <v>2003</v>
+        <v>422</v>
       </c>
       <c r="F574" s="6" t="s">
-        <v>2034</v>
+        <v>421</v>
       </c>
       <c r="G574" t="s">
-        <v>2062</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>2009</v>
+        <v>1997</v>
       </c>
       <c r="B575" s="3" t="b">
         <v>1</v>
@@ -19405,18 +19394,18 @@
         <v>1</v>
       </c>
       <c r="E575" t="s">
-        <v>2004</v>
+        <v>1908</v>
       </c>
       <c r="F575" s="6" t="s">
-        <v>2035</v>
+        <v>1912</v>
       </c>
       <c r="G575" t="s">
-        <v>2063</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>2005</v>
+        <v>1998</v>
       </c>
       <c r="B576" s="3" t="b">
         <v>1</v>
@@ -19425,18 +19414,18 @@
         <v>1</v>
       </c>
       <c r="E576" t="s">
-        <v>2006</v>
+        <v>1907</v>
       </c>
       <c r="F576" s="6" t="s">
-        <v>2036</v>
+        <v>1911</v>
       </c>
       <c r="G576" t="s">
-        <v>2064</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>2007</v>
+        <v>1999</v>
       </c>
       <c r="B577" s="3" t="b">
         <v>1</v>
@@ -19445,18 +19434,18 @@
         <v>1</v>
       </c>
       <c r="E577" t="s">
-        <v>2038</v>
+        <v>1910</v>
       </c>
       <c r="F577" s="6" t="s">
-        <v>2037</v>
+        <v>1914</v>
       </c>
       <c r="G577" t="s">
-        <v>2065</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="B578" s="3" t="b">
         <v>1</v>
@@ -19465,18 +19454,18 @@
         <v>1</v>
       </c>
       <c r="E578" t="s">
-        <v>422</v>
+        <v>1909</v>
       </c>
       <c r="F578" s="6" t="s">
-        <v>421</v>
+        <v>1913</v>
       </c>
       <c r="G578" t="s">
-        <v>1357</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>2011</v>
+        <v>2001</v>
       </c>
       <c r="B579" s="3" t="b">
         <v>1</v>
@@ -19485,18 +19474,18 @@
         <v>1</v>
       </c>
       <c r="E579" t="s">
-        <v>1922</v>
+        <v>2002</v>
       </c>
       <c r="F579" s="6" t="s">
-        <v>1926</v>
+        <v>2025</v>
       </c>
       <c r="G579" t="s">
-        <v>1930</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>2012</v>
+        <v>2003</v>
       </c>
       <c r="B580" s="3" t="b">
         <v>1</v>
@@ -19505,18 +19494,18 @@
         <v>1</v>
       </c>
       <c r="E580" t="s">
-        <v>1921</v>
+        <v>2005</v>
       </c>
       <c r="F580" s="6" t="s">
-        <v>1925</v>
+        <v>2026</v>
       </c>
       <c r="G580" t="s">
-        <v>1929</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>2013</v>
+        <v>2004</v>
       </c>
       <c r="B581" s="3" t="b">
         <v>1</v>
@@ -19525,78 +19514,78 @@
         <v>1</v>
       </c>
       <c r="E581" t="s">
-        <v>1924</v>
+        <v>2006</v>
       </c>
       <c r="F581" s="6" t="s">
-        <v>1928</v>
+        <v>1958</v>
       </c>
       <c r="G581" t="s">
-        <v>1932</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>2014</v>
-      </c>
-      <c r="B582" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C582" s="3" t="b">
+        <v>2056</v>
+      </c>
+      <c r="B582" t="b">
+        <v>0</v>
+      </c>
+      <c r="C582" t="b">
         <v>1</v>
       </c>
       <c r="E582" t="s">
-        <v>1923</v>
+        <v>2056</v>
       </c>
       <c r="F582" s="6" t="s">
-        <v>1927</v>
+        <v>2057</v>
       </c>
       <c r="G582" t="s">
-        <v>1931</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>2015</v>
-      </c>
-      <c r="B583" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C583" s="3" t="b">
+        <v>2059</v>
+      </c>
+      <c r="B583" t="b">
+        <v>0</v>
+      </c>
+      <c r="C583" t="b">
         <v>1</v>
       </c>
       <c r="E583" t="s">
-        <v>2016</v>
+        <v>2059</v>
       </c>
       <c r="F583" s="6" t="s">
-        <v>2039</v>
+        <v>2060</v>
       </c>
       <c r="G583" t="s">
-        <v>2066</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>2017</v>
-      </c>
-      <c r="B584" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C584" s="3" t="b">
+        <v>2069</v>
+      </c>
+      <c r="B584" t="b">
+        <v>1</v>
+      </c>
+      <c r="C584" t="b">
         <v>1</v>
       </c>
       <c r="E584" t="s">
-        <v>2019</v>
+        <v>2069</v>
       </c>
       <c r="F584" s="6" t="s">
-        <v>2040</v>
+        <v>2072</v>
       </c>
       <c r="G584" t="s">
-        <v>2067</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>2018</v>
+        <v>2070</v>
       </c>
       <c r="B585" s="3" t="b">
         <v>1</v>
@@ -19605,18 +19594,18 @@
         <v>1</v>
       </c>
       <c r="E585" t="s">
-        <v>2020</v>
+        <v>2070</v>
       </c>
       <c r="F585" s="6" t="s">
-        <v>1972</v>
+        <v>2071</v>
       </c>
       <c r="G585" t="s">
-        <v>2068</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>2070</v>
+        <v>2081</v>
       </c>
       <c r="B586" t="b">
         <v>0</v>
@@ -19625,41 +19614,41 @@
         <v>1</v>
       </c>
       <c r="E586" t="s">
-        <v>2070</v>
+        <v>2081</v>
       </c>
       <c r="F586" s="6" t="s">
-        <v>2071</v>
+        <v>2013</v>
       </c>
       <c r="G586" t="s">
-        <v>2072</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>2073</v>
+        <v>2078</v>
       </c>
       <c r="B587" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C587" t="b">
         <v>1</v>
       </c>
       <c r="E587" t="s">
-        <v>2073</v>
+        <v>2079</v>
       </c>
       <c r="F587" s="6" t="s">
-        <v>2074</v>
+        <v>2080</v>
       </c>
       <c r="G587" t="s">
-        <v>2075</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A588" t="s">
-        <v>2083</v>
+      <c r="A588" s="3" t="s">
+        <v>2082</v>
       </c>
       <c r="B588" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C588" t="b">
         <v>1</v>
@@ -19668,58 +19657,58 @@
         <v>2083</v>
       </c>
       <c r="F588" s="6" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="G588" t="s">
-        <v>2087</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>2084</v>
-      </c>
-      <c r="B589" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C589" s="3" t="b">
+        <v>2085</v>
+      </c>
+      <c r="B589" t="b">
+        <v>0</v>
+      </c>
+      <c r="C589" t="b">
         <v>1</v>
       </c>
       <c r="E589" t="s">
-        <v>2084</v>
+        <v>2086</v>
       </c>
       <c r="F589" s="6" t="s">
-        <v>2085</v>
+        <v>2087</v>
       </c>
       <c r="G589" t="s">
-        <v>2088</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B590" t="b">
+        <v>0</v>
+      </c>
+      <c r="C590" t="b">
+        <v>1</v>
+      </c>
+      <c r="E590" t="s">
+        <v>2092</v>
+      </c>
+      <c r="F590" s="6" t="s">
         <v>2095</v>
       </c>
-      <c r="B590" t="b">
-        <v>0</v>
-      </c>
-      <c r="C590" t="b">
-        <v>1</v>
-      </c>
-      <c r="E590" t="s">
-        <v>2095</v>
-      </c>
-      <c r="F590" s="6" t="s">
-        <v>2027</v>
-      </c>
       <c r="G590" t="s">
-        <v>2102</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="B591" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C591" t="b">
         <v>1</v>
@@ -19731,12 +19720,12 @@
         <v>2094</v>
       </c>
       <c r="G591" t="s">
-        <v>2103</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A592" s="3" t="s">
-        <v>2096</v>
+      <c r="A592" t="s">
+        <v>970</v>
       </c>
       <c r="B592" t="b">
         <v>0</v>
@@ -19745,18 +19734,18 @@
         <v>1</v>
       </c>
       <c r="E592" t="s">
-        <v>2097</v>
+        <v>970</v>
       </c>
       <c r="F592" s="6" t="s">
-        <v>2098</v>
+        <v>1207</v>
       </c>
       <c r="G592" t="s">
-        <v>2104</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>2099</v>
+        <v>2163</v>
       </c>
       <c r="B593" t="b">
         <v>0</v>
@@ -19765,18 +19754,18 @@
         <v>1</v>
       </c>
       <c r="E593" t="s">
-        <v>2100</v>
+        <v>2164</v>
       </c>
       <c r="F593" s="6" t="s">
-        <v>2101</v>
+        <v>2165</v>
       </c>
       <c r="G593" t="s">
-        <v>2105</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>2106</v>
+        <v>2166</v>
       </c>
       <c r="B594" t="b">
         <v>0</v>
@@ -19785,18 +19774,18 @@
         <v>1</v>
       </c>
       <c r="E594" t="s">
-        <v>2106</v>
+        <v>2168</v>
       </c>
       <c r="F594" s="6" t="s">
-        <v>2109</v>
+        <v>2167</v>
       </c>
       <c r="G594" t="s">
-        <v>2110</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>2107</v>
+        <v>2171</v>
       </c>
       <c r="B595" t="b">
         <v>0</v>
@@ -19805,93 +19794,93 @@
         <v>1</v>
       </c>
       <c r="E595" t="s">
-        <v>2107</v>
+        <v>2172</v>
       </c>
       <c r="F595" s="6" t="s">
-        <v>2108</v>
+        <v>2173</v>
       </c>
       <c r="G595" t="s">
-        <v>2111</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>970</v>
+        <v>2175</v>
       </c>
       <c r="B596" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C596" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E596" t="s">
-        <v>970</v>
+        <v>2178</v>
       </c>
       <c r="F596" s="6" t="s">
-        <v>1207</v>
+        <v>2176</v>
       </c>
       <c r="G596" t="s">
-        <v>1620</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>2177</v>
+        <v>37</v>
       </c>
       <c r="B597" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C597" t="b">
         <v>1</v>
       </c>
       <c r="E597" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="F597" s="6" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="G597" t="s">
-        <v>2183</v>
-      </c>
-    </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A598" t="s">
-        <v>2180</v>
-      </c>
-      <c r="B598" t="b">
-        <v>0</v>
-      </c>
-      <c r="C598" t="b">
-        <v>1</v>
-      </c>
-      <c r="E598" t="s">
-        <v>2182</v>
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="598" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A598" s="3" t="s">
+        <v>2195</v>
+      </c>
+      <c r="B598" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C598" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E598" s="3" t="s">
+        <v>1737</v>
       </c>
       <c r="F598" s="6" t="s">
-        <v>2181</v>
-      </c>
-      <c r="G598" t="s">
-        <v>2184</v>
-      </c>
-    </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A599" t="s">
-        <v>2185</v>
-      </c>
-      <c r="B599" t="b">
-        <v>0</v>
-      </c>
-      <c r="C599" t="b">
-        <v>1</v>
-      </c>
-      <c r="E599" t="s">
-        <v>2186</v>
+        <v>2198</v>
+      </c>
+      <c r="G598" s="3" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="599" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A599" s="3" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B599" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C599" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E599" s="3" t="s">
+        <v>2197</v>
       </c>
       <c r="F599" s="6" t="s">
-        <v>2187</v>
-      </c>
-      <c r="G599" t="s">
-        <v>2188</v>
+        <v>2199</v>
+      </c>
+      <c r="G599" s="3" t="s">
+        <v>1784</v>
       </c>
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.25">
@@ -19902,241 +19891,241 @@
         <v>1</v>
       </c>
       <c r="C600" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E600" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="F600" s="6" t="s">
-        <v>2190</v>
+        <v>2194</v>
       </c>
       <c r="G600" t="s">
-        <v>2191</v>
-      </c>
-    </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A601" t="s">
-        <v>37</v>
-      </c>
-      <c r="B601" t="b">
-        <v>1</v>
-      </c>
-      <c r="C601" t="b">
-        <v>1</v>
-      </c>
-      <c r="E601" t="s">
-        <v>2193</v>
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="601" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A601" s="3" t="s">
+        <v>2204</v>
+      </c>
+      <c r="B601" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C601" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E601" s="3" t="s">
+        <v>2208</v>
       </c>
       <c r="F601" s="6" t="s">
-        <v>2194</v>
-      </c>
-      <c r="G601" t="s">
-        <v>1226</v>
+        <v>2212</v>
+      </c>
+      <c r="G601" s="3" t="s">
+        <v>2217</v>
       </c>
     </row>
     <row r="602" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A602" s="3" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B602" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C602" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E602" s="3" t="s">
         <v>2209</v>
       </c>
-      <c r="B602" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C602" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E602" s="3" t="s">
-        <v>1737</v>
-      </c>
       <c r="F602" s="6" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="G602" s="3" t="s">
-        <v>1784</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="603" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A603" s="3" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B603" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C603" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E603" s="3" t="s">
         <v>2210</v>
       </c>
-      <c r="B603" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C603" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E603" s="3" t="s">
+      <c r="F603" s="6" t="s">
+        <v>2214</v>
+      </c>
+      <c r="G603" s="3" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="604" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A604" s="3" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B604" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C604" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E604" s="3" t="s">
         <v>2211</v>
       </c>
-      <c r="F603" s="6" t="s">
-        <v>2213</v>
-      </c>
-      <c r="G603" s="3" t="s">
-        <v>1784</v>
-      </c>
-    </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A604" t="s">
+      <c r="F604" s="6" t="s">
+        <v>2215</v>
+      </c>
+      <c r="G604" s="3" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B605" t="b">
+        <v>1</v>
+      </c>
+      <c r="C605" t="b">
+        <v>1</v>
+      </c>
+      <c r="E605" t="s">
+        <v>2192</v>
+      </c>
+      <c r="F605" s="6" t="s">
+        <v>2200</v>
+      </c>
+      <c r="G605" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>2201</v>
+      </c>
+      <c r="B606" t="b">
+        <v>1</v>
+      </c>
+      <c r="C606" t="b">
+        <v>1</v>
+      </c>
+      <c r="E606" t="s">
+        <v>2202</v>
+      </c>
+      <c r="F606" s="6" t="s">
         <v>2203</v>
       </c>
-      <c r="B604" t="b">
-        <v>1</v>
-      </c>
-      <c r="C604" t="b">
-        <v>1</v>
-      </c>
-      <c r="E604" t="s">
-        <v>2207</v>
-      </c>
-      <c r="F604" s="6" t="s">
-        <v>2208</v>
-      </c>
-      <c r="G604" t="s">
+      <c r="G606" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B607" t="b">
+        <v>1</v>
+      </c>
+      <c r="C607" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E607" t="s">
+        <v>2226</v>
+      </c>
+      <c r="F607" s="6" t="s">
+        <v>2229</v>
+      </c>
+      <c r="G607" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B608" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C608" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E608" t="s">
+        <v>2227</v>
+      </c>
+      <c r="F608" s="6" t="s">
         <v>2230</v>
       </c>
-    </row>
-    <row r="605" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A605" s="3" t="s">
-        <v>2218</v>
-      </c>
-      <c r="B605" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C605" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E605" s="3" t="s">
-        <v>2222</v>
-      </c>
-      <c r="F605" s="6" t="s">
-        <v>2226</v>
-      </c>
-      <c r="G605" s="3" t="s">
-        <v>2231</v>
-      </c>
-    </row>
-    <row r="606" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A606" s="3" t="s">
-        <v>2219</v>
-      </c>
-      <c r="B606" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C606" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E606" s="3" t="s">
-        <v>2223</v>
-      </c>
-      <c r="F606" s="6" t="s">
-        <v>2227</v>
-      </c>
-      <c r="G606" s="3" t="s">
-        <v>2232</v>
-      </c>
-    </row>
-    <row r="607" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A607" s="3" t="s">
-        <v>2220</v>
-      </c>
-      <c r="B607" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C607" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E607" s="3" t="s">
-        <v>2224</v>
-      </c>
-      <c r="F607" s="6" t="s">
-        <v>2228</v>
-      </c>
-      <c r="G607" s="3" t="s">
+      <c r="G608" t="s">
         <v>2233</v>
-      </c>
-    </row>
-    <row r="608" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A608" s="3" t="s">
-        <v>2221</v>
-      </c>
-      <c r="B608" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C608" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E608" s="3" t="s">
-        <v>2225</v>
-      </c>
-      <c r="F608" s="6" t="s">
-        <v>2229</v>
-      </c>
-      <c r="G608" s="3" t="s">
-        <v>2234</v>
       </c>
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>2205</v>
-      </c>
-      <c r="B609" t="b">
-        <v>1</v>
-      </c>
-      <c r="C609" t="b">
+        <v>2225</v>
+      </c>
+      <c r="B609" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C609" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E609" t="s">
-        <v>2206</v>
+        <v>2228</v>
       </c>
       <c r="F609" s="6" t="s">
-        <v>2214</v>
+        <v>2231</v>
       </c>
       <c r="G609" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>2215</v>
-      </c>
-      <c r="B610" t="b">
-        <v>1</v>
-      </c>
-      <c r="C610" t="b">
+        <v>2241</v>
+      </c>
+      <c r="B610" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C610" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E610" t="s">
-        <v>2216</v>
+        <v>2242</v>
       </c>
       <c r="F610" s="6" t="s">
-        <v>2217</v>
+        <v>2243</v>
       </c>
       <c r="G610" t="s">
-        <v>2236</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>2237</v>
+        <v>2245</v>
       </c>
       <c r="B611" t="b">
         <v>1</v>
       </c>
-      <c r="C611" s="3" t="b">
+      <c r="C611" t="b">
         <v>1</v>
       </c>
       <c r="E611" t="s">
-        <v>2240</v>
+        <v>2246</v>
       </c>
       <c r="F611" s="6" t="s">
-        <v>2243</v>
+        <v>2247</v>
       </c>
       <c r="G611" t="s">
-        <v>2246</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>2238</v>
+        <v>2248</v>
       </c>
       <c r="B612" s="3" t="b">
         <v>1</v>
@@ -20145,18 +20134,18 @@
         <v>1</v>
       </c>
       <c r="E612" t="s">
-        <v>2241</v>
+        <v>2254</v>
       </c>
       <c r="F612" s="6" t="s">
-        <v>2244</v>
+        <v>2260</v>
       </c>
       <c r="G612" t="s">
-        <v>2247</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>2239</v>
+        <v>2249</v>
       </c>
       <c r="B613" s="3" t="b">
         <v>1</v>
@@ -20165,58 +20154,58 @@
         <v>1</v>
       </c>
       <c r="E613" t="s">
-        <v>2242</v>
+        <v>2258</v>
       </c>
       <c r="F613" s="6" t="s">
-        <v>2245</v>
+        <v>2261</v>
       </c>
       <c r="G613" t="s">
-        <v>2248</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="614" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
+        <v>2250</v>
+      </c>
+      <c r="B614" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C614" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E614" s="3" t="s">
         <v>2255</v>
       </c>
-      <c r="B614" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C614" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E614" t="s">
-        <v>2256</v>
-      </c>
       <c r="F614" s="6" t="s">
-        <v>2257</v>
+        <v>2262</v>
       </c>
       <c r="G614" t="s">
-        <v>2258</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>2259</v>
-      </c>
-      <c r="B615" t="b">
-        <v>1</v>
-      </c>
-      <c r="C615" t="b">
-        <v>1</v>
-      </c>
-      <c r="E615" t="s">
-        <v>2260</v>
+        <v>2251</v>
+      </c>
+      <c r="B615" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C615" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E615" s="3" t="s">
+        <v>2256</v>
       </c>
       <c r="F615" s="6" t="s">
-        <v>2261</v>
+        <v>2263</v>
       </c>
       <c r="G615" t="s">
-        <v>2280</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>2262</v>
+        <v>2252</v>
       </c>
       <c r="B616" s="3" t="b">
         <v>1</v>
@@ -20224,19 +20213,19 @@
       <c r="C616" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E616" t="s">
-        <v>2268</v>
+      <c r="E616" s="3" t="s">
+        <v>2257</v>
       </c>
       <c r="F616" s="6" t="s">
-        <v>2274</v>
+        <v>2264</v>
       </c>
       <c r="G616" t="s">
-        <v>2281</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>2263</v>
+        <v>2253</v>
       </c>
       <c r="B617" s="3" t="b">
         <v>1</v>
@@ -20244,19 +20233,19 @@
       <c r="C617" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E617" t="s">
+      <c r="E617" s="3" t="s">
+        <v>2259</v>
+      </c>
+      <c r="F617" s="6" t="s">
+        <v>2265</v>
+      </c>
+      <c r="G617" t="s">
         <v>2272</v>
       </c>
-      <c r="F617" s="6" t="s">
-        <v>2275</v>
-      </c>
-      <c r="G617" t="s">
-        <v>2282</v>
-      </c>
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A618" t="s">
-        <v>2264</v>
+      <c r="A618" s="3" t="s">
+        <v>1733</v>
       </c>
       <c r="B618" s="3" t="b">
         <v>1</v>
@@ -20264,19 +20253,20 @@
       <c r="C618" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="D618" s="3"/>
       <c r="E618" s="3" t="s">
-        <v>2269</v>
+        <v>1733</v>
       </c>
       <c r="F618" s="6" t="s">
-        <v>2276</v>
-      </c>
-      <c r="G618" t="s">
-        <v>2283</v>
+        <v>2077</v>
+      </c>
+      <c r="G618" s="3" t="s">
+        <v>1785</v>
       </c>
     </row>
     <row r="619" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A619" t="s">
-        <v>2265</v>
+      <c r="A619" s="3" t="s">
+        <v>2075</v>
       </c>
       <c r="B619" s="3" t="b">
         <v>1</v>
@@ -20284,19 +20274,20 @@
       <c r="C619" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="D619" s="3"/>
       <c r="E619" s="3" t="s">
-        <v>2270</v>
+        <v>2075</v>
       </c>
       <c r="F619" s="6" t="s">
-        <v>2277</v>
-      </c>
-      <c r="G619" t="s">
-        <v>2284</v>
+        <v>2076</v>
+      </c>
+      <c r="G619" s="3" t="s">
+        <v>1785</v>
       </c>
     </row>
     <row r="620" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A620" t="s">
-        <v>2266</v>
+      <c r="A620" s="3" t="s">
+        <v>816</v>
       </c>
       <c r="B620" s="3" t="b">
         <v>1</v>
@@ -20304,19 +20295,20 @@
       <c r="C620" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="D620" s="3"/>
       <c r="E620" s="3" t="s">
-        <v>2271</v>
+        <v>817</v>
       </c>
       <c r="F620" s="6" t="s">
-        <v>2278</v>
-      </c>
-      <c r="G620" t="s">
-        <v>2285</v>
+        <v>439</v>
+      </c>
+      <c r="G620" s="3" t="s">
+        <v>1490</v>
       </c>
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A621" t="s">
-        <v>2267</v>
+      <c r="A621" s="3" t="s">
+        <v>829</v>
       </c>
       <c r="B621" s="3" t="b">
         <v>1</v>
@@ -20324,19 +20316,20 @@
       <c r="C621" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="D621" s="3"/>
       <c r="E621" s="3" t="s">
-        <v>2273</v>
+        <v>831</v>
       </c>
       <c r="F621" s="6" t="s">
-        <v>2279</v>
-      </c>
-      <c r="G621" t="s">
-        <v>2286</v>
+        <v>830</v>
+      </c>
+      <c r="G621" s="3" t="s">
+        <v>1494</v>
       </c>
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A622" s="3" t="s">
-        <v>1733</v>
+        <v>818</v>
       </c>
       <c r="B622" s="3" t="b">
         <v>1</v>
@@ -20346,18 +20339,18 @@
       </c>
       <c r="D622" s="3"/>
       <c r="E622" s="3" t="s">
-        <v>1733</v>
+        <v>809</v>
       </c>
       <c r="F622" s="6" t="s">
-        <v>2091</v>
+        <v>819</v>
       </c>
       <c r="G622" s="3" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="623" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A623" s="3" t="s">
-        <v>2089</v>
+        <v>820</v>
       </c>
       <c r="B623" s="3" t="b">
         <v>1</v>
@@ -20365,20 +20358,19 @@
       <c r="C623" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D623" s="3"/>
       <c r="E623" s="3" t="s">
-        <v>2089</v>
+        <v>822</v>
       </c>
       <c r="F623" s="6" t="s">
-        <v>2090</v>
+        <v>821</v>
       </c>
       <c r="G623" s="3" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="624" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A624" s="3" t="s">
-        <v>816</v>
+        <v>2181</v>
       </c>
       <c r="B624" s="3" t="b">
         <v>1</v>
@@ -20386,20 +20378,19 @@
       <c r="C624" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D624" s="3"/>
       <c r="E624" s="3" t="s">
-        <v>817</v>
+        <v>1685</v>
       </c>
       <c r="F624" s="6" t="s">
-        <v>439</v>
+        <v>832</v>
       </c>
       <c r="G624" s="3" t="s">
-        <v>1490</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625" s="3" t="s">
-        <v>829</v>
+        <v>2182</v>
       </c>
       <c r="B625" s="3" t="b">
         <v>1</v>
@@ -20409,18 +20400,18 @@
       </c>
       <c r="D625" s="3"/>
       <c r="E625" s="3" t="s">
-        <v>831</v>
+        <v>1686</v>
       </c>
       <c r="F625" s="6" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="G625" s="3" t="s">
-        <v>1494</v>
-      </c>
-    </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="626" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A626" s="3" t="s">
-        <v>818</v>
+        <v>2183</v>
       </c>
       <c r="B626" s="3" t="b">
         <v>1</v>
@@ -20428,20 +20419,19 @@
       <c r="C626" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D626" s="3"/>
       <c r="E626" s="3" t="s">
-        <v>809</v>
+        <v>1687</v>
       </c>
       <c r="F626" s="6" t="s">
-        <v>819</v>
+        <v>834</v>
       </c>
       <c r="G626" s="3" t="s">
-        <v>1488</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="627" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A627" s="3" t="s">
-        <v>820</v>
+        <v>2184</v>
       </c>
       <c r="B627" s="3" t="b">
         <v>1</v>
@@ -20450,18 +20440,18 @@
         <v>1</v>
       </c>
       <c r="E627" s="3" t="s">
-        <v>822</v>
+        <v>1688</v>
       </c>
       <c r="F627" s="6" t="s">
-        <v>821</v>
+        <v>835</v>
       </c>
       <c r="G627" s="3" t="s">
-        <v>1491</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="628" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A628" s="3" t="s">
-        <v>2195</v>
+        <v>2185</v>
       </c>
       <c r="B628" s="3" t="b">
         <v>1</v>
@@ -20470,18 +20460,18 @@
         <v>1</v>
       </c>
       <c r="E628" s="3" t="s">
-        <v>1685</v>
+        <v>2186</v>
       </c>
       <c r="F628" s="6" t="s">
-        <v>832</v>
+        <v>2187</v>
       </c>
       <c r="G628" s="3" t="s">
-        <v>1495</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A629" s="3" t="s">
-        <v>2196</v>
+        <v>826</v>
       </c>
       <c r="B629" s="3" t="b">
         <v>1</v>
@@ -20491,18 +20481,18 @@
       </c>
       <c r="D629" s="3"/>
       <c r="E629" s="3" t="s">
-        <v>1686</v>
+        <v>828</v>
       </c>
       <c r="F629" s="6" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="G629" s="3" t="s">
-        <v>1496</v>
-      </c>
-    </row>
-    <row r="630" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A630" s="3" t="s">
-        <v>2197</v>
+        <v>823</v>
       </c>
       <c r="B630" s="3" t="b">
         <v>1</v>
@@ -20510,19 +20500,20 @@
       <c r="C630" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="D630" s="3"/>
       <c r="E630" s="3" t="s">
-        <v>1687</v>
+        <v>825</v>
       </c>
       <c r="F630" s="6" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="G630" s="3" t="s">
-        <v>1497</v>
-      </c>
-    </row>
-    <row r="631" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A631" s="3" t="s">
-        <v>2198</v>
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>2273</v>
       </c>
       <c r="B631" s="3" t="b">
         <v>1</v>
@@ -20530,19 +20521,19 @@
       <c r="C631" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E631" s="3" t="s">
-        <v>1688</v>
+      <c r="E631" t="s">
+        <v>1739</v>
       </c>
       <c r="F631" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="G631" s="3" t="s">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="632" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A632" s="3" t="s">
-        <v>2199</v>
+        <v>2278</v>
+      </c>
+      <c r="G631" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>2274</v>
       </c>
       <c r="B632" s="3" t="b">
         <v>1</v>
@@ -20551,18 +20542,18 @@
         <v>1</v>
       </c>
       <c r="E632" s="3" t="s">
-        <v>2200</v>
+        <v>422</v>
       </c>
       <c r="F632" s="6" t="s">
-        <v>2201</v>
-      </c>
-      <c r="G632" s="3" t="s">
-        <v>2202</v>
+        <v>1751</v>
+      </c>
+      <c r="G632" t="s">
+        <v>1357</v>
       </c>
     </row>
     <row r="633" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A633" s="3" t="s">
-        <v>826</v>
+        <v>2275</v>
       </c>
       <c r="B633" s="3" t="b">
         <v>1</v>
@@ -20570,20 +20561,19 @@
       <c r="C633" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D633" s="3"/>
       <c r="E633" s="3" t="s">
-        <v>828</v>
+        <v>428</v>
       </c>
       <c r="F633" s="6" t="s">
-        <v>827</v>
-      </c>
-      <c r="G633" s="3" t="s">
-        <v>1493</v>
+        <v>2279</v>
+      </c>
+      <c r="G633" t="s">
+        <v>1359</v>
       </c>
     </row>
     <row r="634" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A634" s="3" t="s">
-        <v>823</v>
+        <v>2276</v>
       </c>
       <c r="B634" s="3" t="b">
         <v>1</v>
@@ -20591,20 +20581,19 @@
       <c r="C634" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D634" s="3"/>
       <c r="E634" s="3" t="s">
-        <v>825</v>
+        <v>443</v>
       </c>
       <c r="F634" s="6" t="s">
-        <v>824</v>
-      </c>
-      <c r="G634" s="3" t="s">
-        <v>1492</v>
+        <v>1747</v>
+      </c>
+      <c r="G634" t="s">
+        <v>1364</v>
       </c>
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>2287</v>
+        <v>2277</v>
       </c>
       <c r="B635" s="3" t="b">
         <v>1</v>
@@ -20612,178 +20601,144 @@
       <c r="C635" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E635" t="s">
-        <v>1739</v>
+      <c r="E635" s="3" t="s">
+        <v>434</v>
       </c>
       <c r="F635" s="6" t="s">
-        <v>2292</v>
+        <v>1750</v>
       </c>
       <c r="G635" t="s">
-        <v>1787</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
+        <v>2280</v>
+      </c>
+      <c r="B636" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C636" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E636" t="s">
+        <v>2282</v>
+      </c>
+      <c r="F636" s="6" t="s">
+        <v>2284</v>
+      </c>
+      <c r="G636" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>2281</v>
+      </c>
+      <c r="B637" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C637" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E637" t="s">
+        <v>2283</v>
+      </c>
+      <c r="F637" s="6" t="s">
+        <v>2285</v>
+      </c>
+      <c r="G637" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
         <v>2288</v>
       </c>
-      <c r="B636" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C636" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E636" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="F636" s="6" t="s">
-        <v>1751</v>
-      </c>
-      <c r="G636" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A637" s="3" t="s">
+      <c r="B638" t="b">
+        <v>1</v>
+      </c>
+      <c r="C638" t="b">
+        <v>1</v>
+      </c>
+      <c r="E638" t="s">
         <v>2289</v>
       </c>
-      <c r="B637" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C637" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E637" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="F637" s="6" t="s">
-        <v>2293</v>
-      </c>
-      <c r="G637" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A638" s="3" t="s">
+      <c r="F638" s="6" t="s">
         <v>2290</v>
       </c>
-      <c r="B638" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C638" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E638" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="F638" s="6" t="s">
-        <v>1747</v>
-      </c>
       <c r="G638" t="s">
-        <v>1364</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="639" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>2291</v>
-      </c>
-      <c r="B639" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C639" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E639" s="3" t="s">
-        <v>434</v>
+        <v>2056</v>
+      </c>
+      <c r="B639" t="b">
+        <v>1</v>
+      </c>
+      <c r="C639" t="b">
+        <v>1</v>
+      </c>
+      <c r="E639" t="s">
+        <v>2056</v>
       </c>
       <c r="F639" s="6" t="s">
-        <v>1750</v>
-      </c>
-      <c r="G639" t="s">
-        <v>1361</v>
+        <v>2057</v>
+      </c>
+      <c r="G639" s="3" t="s">
+        <v>2058</v>
       </c>
     </row>
     <row r="640" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>2294</v>
-      </c>
-      <c r="B640" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C640" s="3" t="b">
-        <v>1</v>
+        <v>2301</v>
+      </c>
+      <c r="B640" t="b">
+        <v>0</v>
+      </c>
+      <c r="C640" t="b">
+        <v>1</v>
+      </c>
+      <c r="D640" t="s">
+        <v>2306</v>
       </c>
       <c r="E640" t="s">
-        <v>2296</v>
+        <v>2301</v>
       </c>
       <c r="F640" s="6" t="s">
-        <v>2298</v>
+        <v>2304</v>
       </c>
       <c r="G640" t="s">
-        <v>2300</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="641" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>2295</v>
-      </c>
-      <c r="B641" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C641" s="3" t="b">
-        <v>1</v>
+        <v>2302</v>
+      </c>
+      <c r="B641" t="b">
+        <v>0</v>
+      </c>
+      <c r="C641" t="b">
+        <v>1</v>
+      </c>
+      <c r="D641" t="s">
+        <v>2306</v>
       </c>
       <c r="E641" t="s">
-        <v>2297</v>
+        <v>2303</v>
       </c>
       <c r="F641" s="6" t="s">
-        <v>2299</v>
+        <v>2305</v>
       </c>
       <c r="G641" t="s">
-        <v>2301</v>
-      </c>
-    </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A642" t="s">
-        <v>2302</v>
-      </c>
-      <c r="B642" t="b">
-        <v>1</v>
-      </c>
-      <c r="C642" t="b">
-        <v>1</v>
-      </c>
-      <c r="E642" t="s">
-        <v>2303</v>
-      </c>
-      <c r="F642" s="6" t="s">
-        <v>2304</v>
-      </c>
-      <c r="G642" t="s">
-        <v>2305</v>
-      </c>
-    </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A643" t="s">
-        <v>2070</v>
-      </c>
-      <c r="B643" t="b">
-        <v>1</v>
-      </c>
-      <c r="C643" t="b">
-        <v>1</v>
-      </c>
-      <c r="E643" t="s">
-        <v>2070</v>
-      </c>
-      <c r="F643" s="6" t="s">
-        <v>2071</v>
-      </c>
-      <c r="G643" s="3" t="s">
-        <v>2072</v>
+        <v>2308</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G525" xr:uid="{166F55E6-F4CB-49C4-A0B4-8593C255C448}"/>
+  <autoFilter ref="A1:G521" xr:uid="{166F55E6-F4CB-49C4-A0B4-8593C255C448}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Translations/Translations.xlsx
+++ b/Translations/Translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\source\repos\BSharp\Translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3E69D2-84E3-4E0F-9CAE-BBB40641C0F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A239595D-C9A4-4D43-82D3-5262F394050D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31995" yWindow="0" windowWidth="17790" windowHeight="14805" xr2:uid="{09F7BBB4-81EA-4503-B8DD-8985A501E98F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2571" uniqueCount="2309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2587" uniqueCount="2318">
   <si>
     <t>Key</t>
   </si>
@@ -6961,6 +6961,33 @@
   </si>
   <si>
     <t>定期</t>
+  </si>
+  <si>
+    <t>EntryClassifications</t>
+  </si>
+  <si>
+    <t>EntryClassifications_ForCredit</t>
+  </si>
+  <si>
+    <t>EntryClassifications_ForDebit</t>
+  </si>
+  <si>
+    <t>Entry Classification</t>
+  </si>
+  <si>
+    <t>Entry Classifications</t>
+  </si>
+  <si>
+    <t>EntryClassification</t>
+  </si>
+  <si>
+    <t>تصنيفات الأسطر</t>
+  </si>
+  <si>
+    <t>تصنيف السطر</t>
+  </si>
+  <si>
+    <t>进入分类</t>
   </si>
 </sst>
 </file>
@@ -7366,12 +7393,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FEE134-3B22-427F-8E5A-2A7F994BE2AC}">
-  <dimension ref="A1:G641"/>
+  <dimension ref="A1:G645"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A593" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A560" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B637" sqref="B637"/>
+      <selection pane="bottomLeft" activeCell="E634" sqref="E634"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20737,6 +20764,86 @@
         <v>2308</v>
       </c>
     </row>
+    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>2314</v>
+      </c>
+      <c r="B642" t="b">
+        <v>1</v>
+      </c>
+      <c r="C642" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E642" t="s">
+        <v>2312</v>
+      </c>
+      <c r="F642" s="6" t="s">
+        <v>2316</v>
+      </c>
+      <c r="G642" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A643" s="3" t="s">
+        <v>2309</v>
+      </c>
+      <c r="B643" t="b">
+        <v>1</v>
+      </c>
+      <c r="C643" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E643" t="s">
+        <v>2313</v>
+      </c>
+      <c r="F643" s="6" t="s">
+        <v>2315</v>
+      </c>
+      <c r="G643" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="644" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A644" s="3" t="s">
+        <v>2310</v>
+      </c>
+      <c r="B644" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C644" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E644" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F644" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="G644" s="3" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="645" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A645" s="3" t="s">
+        <v>2311</v>
+      </c>
+      <c r="B645" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C645" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E645" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F645" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="G645" s="3" t="s">
+        <v>1325</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G521" xr:uid="{166F55E6-F4CB-49C4-A0B4-8593C255C448}"/>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Translations/Translations.xlsx
+++ b/Translations/Translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\source\repos\BSharp\Translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A239595D-C9A4-4D43-82D3-5262F394050D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB327047-9304-4B43-889A-0F3C45B38535}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31995" yWindow="0" windowWidth="17790" windowHeight="14805" xr2:uid="{09F7BBB4-81EA-4503-B8DD-8985A501E98F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2587" uniqueCount="2318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2587" uniqueCount="2317">
   <si>
     <t>Key</t>
   </si>
@@ -5007,9 +5007,6 @@
     <t>Invalid</t>
   </si>
   <si>
-    <t>Posted</t>
-  </si>
-  <si>
     <t>Document_State_Draft</t>
   </si>
   <si>
@@ -5034,9 +5031,6 @@
     <t>Document_State_Invalid</t>
   </si>
   <si>
-    <t>Document_State_Posted</t>
-  </si>
-  <si>
     <t>ملغى</t>
   </si>
   <si>
@@ -5055,9 +5049,6 @@
     <t>خطأ</t>
   </si>
   <si>
-    <t>مرحل</t>
-  </si>
-  <si>
     <t>حالة القيد</t>
   </si>
   <si>
@@ -5130,45 +5121,18 @@
     <t>الملاحظات مشتركة</t>
   </si>
   <si>
-    <t>DocumentLine_ExternalReference</t>
-  </si>
-  <si>
-    <t>DocumentLine_LineType</t>
-  </si>
-  <si>
-    <t>DocumentLine_AdditionalReference</t>
-  </si>
-  <si>
-    <t>Line Type</t>
-  </si>
-  <si>
     <t>External Reference</t>
   </si>
   <si>
     <t>Additional Reference</t>
   </si>
   <si>
-    <t>نوع السطر</t>
-  </si>
-  <si>
     <t>رقم المرجع الخارجي</t>
   </si>
   <si>
     <t>مرجع إضافي</t>
   </si>
   <si>
-    <t>DocumentLine_RelatedResource</t>
-  </si>
-  <si>
-    <t>DocumentLine_RelatedAccount</t>
-  </si>
-  <si>
-    <t>DocumentLine_RelatedQuantity</t>
-  </si>
-  <si>
-    <t>DocumentLine_RelatedMoneyAmount</t>
-  </si>
-  <si>
     <t>Related Resource</t>
   </si>
   <si>
@@ -5193,48 +5157,6 @@
     <t>مبلغ نقدي ذو صلة</t>
   </si>
   <si>
-    <t>DocumentLineEntry_Account</t>
-  </si>
-  <si>
-    <t>DocumentLineEntry_IfrsEntryClassification</t>
-  </si>
-  <si>
-    <t>DocumentLineEntry_Agent</t>
-  </si>
-  <si>
-    <t>DocumentLineEntry_ResponsibilityCenter</t>
-  </si>
-  <si>
-    <t>DocumentLineEntry_Resource</t>
-  </si>
-  <si>
-    <t>DocumentLineEntry_BatchCode</t>
-  </si>
-  <si>
-    <t>DocumentLineEntry_MonetaryValue</t>
-  </si>
-  <si>
-    <t>DocumentLineEntry_Mass</t>
-  </si>
-  <si>
-    <t>DocumentLineEntry_Volume</t>
-  </si>
-  <si>
-    <t>DocumentLineEntry_Area</t>
-  </si>
-  <si>
-    <t>DocumentLineEntry_Length</t>
-  </si>
-  <si>
-    <t>DocumentLineEntry_Time</t>
-  </si>
-  <si>
-    <t>DocumentLineEntry_Count</t>
-  </si>
-  <si>
-    <t>DocumentLineEntry_Value</t>
-  </si>
-  <si>
     <t>Resource</t>
   </si>
   <si>
@@ -5361,9 +5283,6 @@
     <t>备注是常有的事</t>
   </si>
   <si>
-    <t>线路类型</t>
-  </si>
-  <si>
     <t>外部参考</t>
   </si>
   <si>
@@ -6988,6 +6907,84 @@
   </si>
   <si>
     <t>进入分类</t>
+  </si>
+  <si>
+    <t>Line_ExternalReference</t>
+  </si>
+  <si>
+    <t>Line_AdditionalReference</t>
+  </si>
+  <si>
+    <t>Line_RelatedResource</t>
+  </si>
+  <si>
+    <t>Line_RelatedAccount</t>
+  </si>
+  <si>
+    <t>Line_RelatedQuantity</t>
+  </si>
+  <si>
+    <t>Line_RelatedMoneyAmount</t>
+  </si>
+  <si>
+    <t>Entry_Account</t>
+  </si>
+  <si>
+    <t>Entry_IfrsEntryClassification</t>
+  </si>
+  <si>
+    <t>Entry_Agent</t>
+  </si>
+  <si>
+    <t>Entry_ResponsibilityCenter</t>
+  </si>
+  <si>
+    <t>Entry_Resource</t>
+  </si>
+  <si>
+    <t>Entry_BatchCode</t>
+  </si>
+  <si>
+    <t>Entry_MonetaryValue</t>
+  </si>
+  <si>
+    <t>Entry_Mass</t>
+  </si>
+  <si>
+    <t>Entry_Volume</t>
+  </si>
+  <si>
+    <t>Entry_Area</t>
+  </si>
+  <si>
+    <t>Entry_Length</t>
+  </si>
+  <si>
+    <t>Entry_Time</t>
+  </si>
+  <si>
+    <t>Entry_Count</t>
+  </si>
+  <si>
+    <t>Entry_Value</t>
+  </si>
+  <si>
+    <t>Document_State_Reviewed</t>
+  </si>
+  <si>
+    <t>Reviewed</t>
+  </si>
+  <si>
+    <t>مراجع</t>
+  </si>
+  <si>
+    <t>Document_State_Closed</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>مقفل</t>
   </si>
 </sst>
 </file>
@@ -7396,9 +7393,9 @@
   <dimension ref="A1:G645"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A560" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A397" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E634" sqref="E634"/>
+      <selection pane="bottomLeft" activeCell="A452" sqref="A452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9361,7 +9358,7 @@
         <v>162</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>1755</v>
+        <v>1729</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>1268</v>
@@ -10020,7 +10017,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>1790</v>
+        <v>1763</v>
       </c>
       <c r="B125" s="3" t="b">
         <v>1</v>
@@ -10030,13 +10027,13 @@
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="3" t="s">
-        <v>1791</v>
+        <v>1764</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>1792</v>
+        <v>1765</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>1793</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -10104,7 +10101,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>2235</v>
+        <v>2208</v>
       </c>
       <c r="B129" s="3" t="b">
         <v>1</v>
@@ -10114,13 +10111,13 @@
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="3" t="s">
-        <v>2236</v>
+        <v>2209</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>2238</v>
+        <v>2211</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>2237</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -14640,7 +14637,7 @@
     </row>
     <row r="345" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
-        <v>2293</v>
+        <v>2266</v>
       </c>
       <c r="B345" s="3" t="b">
         <v>1</v>
@@ -14649,13 +14646,13 @@
         <v>1</v>
       </c>
       <c r="E345" s="3" t="s">
-        <v>2294</v>
+        <v>2267</v>
       </c>
       <c r="F345" s="6" t="s">
-        <v>2296</v>
+        <v>2269</v>
       </c>
       <c r="G345" s="3" t="s">
-        <v>2295</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
@@ -15909,7 +15906,7 @@
       </c>
       <c r="D405" s="3"/>
       <c r="E405" s="3" t="s">
-        <v>2292</v>
+        <v>2265</v>
       </c>
       <c r="F405" s="6" t="s">
         <v>1198</v>
@@ -16046,7 +16043,7 @@
     </row>
     <row r="412" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A412" s="3" t="s">
-        <v>2239</v>
+        <v>2212</v>
       </c>
       <c r="B412" s="3" t="b">
         <v>1</v>
@@ -16670,7 +16667,7 @@
         <v>1644</v>
       </c>
       <c r="G441" s="3" t="s">
-        <v>1756</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
@@ -16691,7 +16688,7 @@
         <v>1646</v>
       </c>
       <c r="G442" s="3" t="s">
-        <v>1757</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
@@ -16709,7 +16706,7 @@
         <v>648</v>
       </c>
       <c r="F443" s="6" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="G443" s="3" t="s">
         <v>1436</v>
@@ -16717,7 +16714,7 @@
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="3" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B444" s="3" t="b">
         <v>1</v>
@@ -16733,12 +16730,12 @@
         <v>1146</v>
       </c>
       <c r="G444" s="3" t="s">
-        <v>1758</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="3" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="B445" s="3" t="b">
         <v>1</v>
@@ -16751,15 +16748,15 @@
         <v>1650</v>
       </c>
       <c r="F445" s="6" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="G445" s="3" t="s">
-        <v>1759</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="3" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B446" s="3" t="b">
         <v>1</v>
@@ -16772,15 +16769,15 @@
         <v>1651</v>
       </c>
       <c r="F446" s="6" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="G446" s="3" t="s">
-        <v>1760</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="3" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="B447" s="3" t="b">
         <v>1</v>
@@ -16793,15 +16790,15 @@
         <v>1652</v>
       </c>
       <c r="F447" s="6" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="G447" s="3" t="s">
-        <v>1761</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="3" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="B448" s="3" t="b">
         <v>1</v>
@@ -16814,15 +16811,15 @@
         <v>1653</v>
       </c>
       <c r="F448" s="6" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="G448" s="3" t="s">
-        <v>1762</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="3" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="B449" s="3" t="b">
         <v>1</v>
@@ -16835,15 +16832,15 @@
         <v>1654</v>
       </c>
       <c r="F449" s="6" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="G449" s="3" t="s">
-        <v>1763</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="3" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="B450" s="3" t="b">
         <v>1</v>
@@ -16856,15 +16853,15 @@
         <v>1655</v>
       </c>
       <c r="F450" s="6" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="G450" s="3" t="s">
-        <v>1764</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="3" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="B451" s="3" t="b">
         <v>1</v>
@@ -16877,15 +16874,15 @@
         <v>1656</v>
       </c>
       <c r="F451" s="6" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="G451" s="3" t="s">
-        <v>1765</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="3" t="s">
-        <v>1666</v>
+        <v>2311</v>
       </c>
       <c r="B452" s="3" t="b">
         <v>1</v>
@@ -16895,18 +16892,18 @@
       </c>
       <c r="D452" s="3"/>
       <c r="E452" s="3" t="s">
-        <v>1657</v>
+        <v>2312</v>
       </c>
       <c r="F452" s="6" t="s">
-        <v>1673</v>
+        <v>2313</v>
       </c>
       <c r="G452" s="3" t="s">
-        <v>1766</v>
-      </c>
-    </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A453" s="3" t="s">
-        <v>1676</v>
+        <v>2314</v>
       </c>
       <c r="B453" s="3" t="b">
         <v>1</v>
@@ -16914,20 +16911,19 @@
       <c r="C453" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D453" s="3"/>
       <c r="E453" s="3" t="s">
-        <v>1677</v>
+        <v>2315</v>
       </c>
       <c r="F453" s="6" t="s">
-        <v>1678</v>
+        <v>2316</v>
       </c>
       <c r="G453" s="3" t="s">
-        <v>1767</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="3" t="s">
-        <v>1679</v>
+        <v>1673</v>
       </c>
       <c r="B454" s="3" t="b">
         <v>1</v>
@@ -16937,18 +16933,18 @@
       </c>
       <c r="D454" s="3"/>
       <c r="E454" s="3" t="s">
-        <v>1681</v>
+        <v>1674</v>
       </c>
       <c r="F454" s="6" t="s">
-        <v>1680</v>
+        <v>1675</v>
       </c>
       <c r="G454" s="3" t="s">
-        <v>1768</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="3" t="s">
-        <v>1682</v>
+        <v>1676</v>
       </c>
       <c r="B455" s="3" t="b">
         <v>1</v>
@@ -16958,18 +16954,18 @@
       </c>
       <c r="D455" s="3"/>
       <c r="E455" s="3" t="s">
-        <v>1685</v>
+        <v>1678</v>
       </c>
       <c r="F455" s="6" t="s">
-        <v>832</v>
+        <v>1677</v>
       </c>
       <c r="G455" s="3" t="s">
-        <v>1769</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="3" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
       <c r="B456" s="3" t="b">
         <v>1</v>
@@ -16979,18 +16975,18 @@
       </c>
       <c r="D456" s="3"/>
       <c r="E456" s="3" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
       <c r="F456" s="6" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G456" s="3" t="s">
-        <v>1770</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="3" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
       <c r="B457" s="3" t="b">
         <v>1</v>
@@ -17000,18 +16996,18 @@
       </c>
       <c r="D457" s="3"/>
       <c r="E457" s="3" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
       <c r="F457" s="6" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G457" s="3" t="s">
-        <v>1771</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="3" t="s">
-        <v>1689</v>
+        <v>1681</v>
       </c>
       <c r="B458" s="3" t="b">
         <v>1</v>
@@ -17021,18 +17017,18 @@
       </c>
       <c r="D458" s="3"/>
       <c r="E458" s="3" t="s">
-        <v>1691</v>
+        <v>1684</v>
       </c>
       <c r="F458" s="6" t="s">
-        <v>1693</v>
+        <v>834</v>
       </c>
       <c r="G458" s="3" t="s">
-        <v>1772</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="3" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
       <c r="B459" s="3" t="b">
         <v>1</v>
@@ -17042,18 +17038,18 @@
       </c>
       <c r="D459" s="3"/>
       <c r="E459" s="3" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="F459" s="6" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
       <c r="G459" s="3" t="s">
-        <v>1773</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="3" t="s">
-        <v>1695</v>
+        <v>1687</v>
       </c>
       <c r="B460" s="3" t="b">
         <v>1</v>
@@ -17063,18 +17059,18 @@
       </c>
       <c r="D460" s="3"/>
       <c r="E460" s="3" t="s">
-        <v>1696</v>
+        <v>1689</v>
       </c>
       <c r="F460" s="6" t="s">
-        <v>1697</v>
+        <v>1691</v>
       </c>
       <c r="G460" s="3" t="s">
-        <v>1774</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="3" t="s">
-        <v>1699</v>
+        <v>1692</v>
       </c>
       <c r="B461" s="3" t="b">
         <v>1</v>
@@ -17084,18 +17080,18 @@
       </c>
       <c r="D461" s="3"/>
       <c r="E461" s="3" t="s">
-        <v>1701</v>
+        <v>1693</v>
       </c>
       <c r="F461" s="6" t="s">
-        <v>1704</v>
+        <v>1694</v>
       </c>
       <c r="G461" s="3" t="s">
-        <v>1775</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="3" t="s">
-        <v>1698</v>
+        <v>2291</v>
       </c>
       <c r="B462" s="3" t="b">
         <v>1</v>
@@ -17105,18 +17101,18 @@
       </c>
       <c r="D462" s="3"/>
       <c r="E462" s="3" t="s">
-        <v>1702</v>
+        <v>1695</v>
       </c>
       <c r="F462" s="6" t="s">
-        <v>1705</v>
+        <v>1697</v>
       </c>
       <c r="G462" s="3" t="s">
-        <v>1776</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="3" t="s">
-        <v>1700</v>
+        <v>2292</v>
       </c>
       <c r="B463" s="3" t="b">
         <v>1</v>
@@ -17126,18 +17122,18 @@
       </c>
       <c r="D463" s="3"/>
       <c r="E463" s="3" t="s">
-        <v>1703</v>
+        <v>1696</v>
       </c>
       <c r="F463" s="6" t="s">
-        <v>1706</v>
+        <v>1698</v>
       </c>
       <c r="G463" s="3" t="s">
-        <v>1777</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="3" t="s">
-        <v>1707</v>
+        <v>2293</v>
       </c>
       <c r="B464" s="3" t="b">
         <v>1</v>
@@ -17147,18 +17143,18 @@
       </c>
       <c r="D464" s="3"/>
       <c r="E464" s="3" t="s">
-        <v>1711</v>
+        <v>1699</v>
       </c>
       <c r="F464" s="6" t="s">
-        <v>1715</v>
+        <v>1703</v>
       </c>
       <c r="G464" s="3" t="s">
-        <v>1778</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="3" t="s">
-        <v>1708</v>
+        <v>2294</v>
       </c>
       <c r="B465" s="3" t="b">
         <v>1</v>
@@ -17168,18 +17164,18 @@
       </c>
       <c r="D465" s="3"/>
       <c r="E465" s="3" t="s">
-        <v>1712</v>
+        <v>1700</v>
       </c>
       <c r="F465" s="6" t="s">
-        <v>1716</v>
+        <v>1704</v>
       </c>
       <c r="G465" s="3" t="s">
-        <v>1779</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="3" t="s">
-        <v>1709</v>
+        <v>2295</v>
       </c>
       <c r="B466" s="3" t="b">
         <v>1</v>
@@ -17189,18 +17185,18 @@
       </c>
       <c r="D466" s="3"/>
       <c r="E466" s="3" t="s">
-        <v>1713</v>
+        <v>1701</v>
       </c>
       <c r="F466" s="6" t="s">
-        <v>1717</v>
+        <v>1705</v>
       </c>
       <c r="G466" s="3" t="s">
-        <v>1780</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="3" t="s">
-        <v>1710</v>
+        <v>2296</v>
       </c>
       <c r="B467" s="3" t="b">
         <v>1</v>
@@ -17210,18 +17206,18 @@
       </c>
       <c r="D467" s="3"/>
       <c r="E467" s="3" t="s">
-        <v>1714</v>
+        <v>1702</v>
       </c>
       <c r="F467" s="6" t="s">
-        <v>1718</v>
+        <v>1706</v>
       </c>
       <c r="G467" s="3" t="s">
-        <v>1781</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="3" t="s">
-        <v>1719</v>
+        <v>2297</v>
       </c>
       <c r="B468" s="3" t="b">
         <v>1</v>
@@ -17234,15 +17230,15 @@
         <v>1630</v>
       </c>
       <c r="F468" s="6" t="s">
-        <v>1740</v>
+        <v>1714</v>
       </c>
       <c r="G468" s="3" t="s">
-        <v>1782</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="3" t="s">
-        <v>1720</v>
+        <v>2298</v>
       </c>
       <c r="B469" s="3" t="b">
         <v>1</v>
@@ -17252,18 +17248,18 @@
       </c>
       <c r="D469" s="3"/>
       <c r="E469" s="3" t="s">
-        <v>1736</v>
+        <v>1710</v>
       </c>
       <c r="F469" s="6" t="s">
-        <v>1741</v>
+        <v>1715</v>
       </c>
       <c r="G469" s="3" t="s">
-        <v>1783</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="3" t="s">
-        <v>1721</v>
+        <v>2299</v>
       </c>
       <c r="B470" s="3" t="b">
         <v>1</v>
@@ -17284,7 +17280,7 @@
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="3" t="s">
-        <v>1722</v>
+        <v>2300</v>
       </c>
       <c r="B471" s="3" t="b">
         <v>1</v>
@@ -17294,18 +17290,18 @@
       </c>
       <c r="D471" s="3"/>
       <c r="E471" s="3" t="s">
-        <v>1737</v>
+        <v>1711</v>
       </c>
       <c r="F471" s="6" t="s">
-        <v>1742</v>
+        <v>1716</v>
       </c>
       <c r="G471" s="3" t="s">
-        <v>1784</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="3" t="s">
-        <v>1723</v>
+        <v>2301</v>
       </c>
       <c r="B472" s="3" t="b">
         <v>1</v>
@@ -17315,18 +17311,18 @@
       </c>
       <c r="D472" s="3"/>
       <c r="E472" s="3" t="s">
-        <v>1733</v>
+        <v>1707</v>
       </c>
       <c r="F472" s="6" t="s">
-        <v>1743</v>
+        <v>1717</v>
       </c>
       <c r="G472" s="3" t="s">
-        <v>1785</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="3" t="s">
-        <v>1724</v>
+        <v>2302</v>
       </c>
       <c r="B473" s="3" t="b">
         <v>1</v>
@@ -17336,18 +17332,18 @@
       </c>
       <c r="D473" s="3"/>
       <c r="E473" s="3" t="s">
-        <v>1738</v>
+        <v>1712</v>
       </c>
       <c r="F473" s="6" t="s">
-        <v>1744</v>
+        <v>1718</v>
       </c>
       <c r="G473" s="3" t="s">
-        <v>1786</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="3" t="s">
-        <v>1725</v>
+        <v>2303</v>
       </c>
       <c r="B474" s="3" t="b">
         <v>1</v>
@@ -17357,18 +17353,18 @@
       </c>
       <c r="D474" s="3"/>
       <c r="E474" s="3" t="s">
-        <v>1739</v>
+        <v>1713</v>
       </c>
       <c r="F474" s="6" t="s">
-        <v>1745</v>
+        <v>1719</v>
       </c>
       <c r="G474" s="3" t="s">
-        <v>1787</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="3" t="s">
-        <v>1726</v>
+        <v>2304</v>
       </c>
       <c r="B475" s="3" t="b">
         <v>1</v>
@@ -17381,7 +17377,7 @@
         <v>428</v>
       </c>
       <c r="F475" s="6" t="s">
-        <v>1746</v>
+        <v>1720</v>
       </c>
       <c r="G475" s="3" t="s">
         <v>1359</v>
@@ -17389,7 +17385,7 @@
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="3" t="s">
-        <v>1727</v>
+        <v>2305</v>
       </c>
       <c r="B476" s="3" t="b">
         <v>1</v>
@@ -17402,7 +17398,7 @@
         <v>443</v>
       </c>
       <c r="F476" s="6" t="s">
-        <v>1747</v>
+        <v>1721</v>
       </c>
       <c r="G476" s="3" t="s">
         <v>1364</v>
@@ -17410,7 +17406,7 @@
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="3" t="s">
-        <v>1728</v>
+        <v>2306</v>
       </c>
       <c r="B477" s="3" t="b">
         <v>1</v>
@@ -17420,18 +17416,18 @@
       </c>
       <c r="D477" s="3"/>
       <c r="E477" s="3" t="s">
-        <v>1734</v>
+        <v>1708</v>
       </c>
       <c r="F477" s="6" t="s">
-        <v>1748</v>
+        <v>1722</v>
       </c>
       <c r="G477" s="3" t="s">
-        <v>1788</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="3" t="s">
-        <v>1729</v>
+        <v>2307</v>
       </c>
       <c r="B478" s="3" t="b">
         <v>1</v>
@@ -17441,18 +17437,18 @@
       </c>
       <c r="D478" s="3"/>
       <c r="E478" s="3" t="s">
-        <v>1735</v>
+        <v>1709</v>
       </c>
       <c r="F478" s="6" t="s">
-        <v>1749</v>
+        <v>1723</v>
       </c>
       <c r="G478" s="3" t="s">
-        <v>1789</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="3" t="s">
-        <v>1730</v>
+        <v>2308</v>
       </c>
       <c r="B479" s="3" t="b">
         <v>1</v>
@@ -17465,7 +17461,7 @@
         <v>434</v>
       </c>
       <c r="F479" s="6" t="s">
-        <v>1750</v>
+        <v>1724</v>
       </c>
       <c r="G479" s="3" t="s">
         <v>1361</v>
@@ -17473,7 +17469,7 @@
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="3" t="s">
-        <v>1731</v>
+        <v>2309</v>
       </c>
       <c r="B480" s="3" t="b">
         <v>1</v>
@@ -17486,7 +17482,7 @@
         <v>422</v>
       </c>
       <c r="F480" s="6" t="s">
-        <v>1751</v>
+        <v>1725</v>
       </c>
       <c r="G480" s="3" t="s">
         <v>1357</v>
@@ -17494,7 +17490,7 @@
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="3" t="s">
-        <v>1732</v>
+        <v>2310</v>
       </c>
       <c r="B481" s="3" t="b">
         <v>1</v>
@@ -17528,7 +17524,7 @@
         <v>817</v>
       </c>
       <c r="F482" s="6" t="s">
-        <v>1754</v>
+        <v>1728</v>
       </c>
       <c r="G482" s="3" t="s">
         <v>1490</v>
@@ -17536,7 +17532,7 @@
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="3" t="s">
-        <v>1752</v>
+        <v>1726</v>
       </c>
       <c r="B483" s="3" t="b">
         <v>1</v>
@@ -17546,10 +17542,10 @@
       </c>
       <c r="D483" s="3"/>
       <c r="E483" s="3" t="s">
-        <v>1752</v>
+        <v>1726</v>
       </c>
       <c r="F483" s="6" t="s">
-        <v>1753</v>
+        <v>1727</v>
       </c>
       <c r="G483" s="3" t="s">
         <v>1490</v>
@@ -17557,7 +17553,7 @@
     </row>
     <row r="484" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A484" s="3" t="s">
-        <v>2062</v>
+        <v>2035</v>
       </c>
       <c r="B484" s="3" t="b">
         <v>1</v>
@@ -17566,18 +17562,18 @@
         <v>1</v>
       </c>
       <c r="E484" s="3" t="s">
-        <v>2064</v>
+        <v>2037</v>
       </c>
       <c r="F484" s="6" t="s">
-        <v>2066</v>
+        <v>2039</v>
       </c>
       <c r="G484" s="3" t="s">
-        <v>2068</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="485" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A485" s="3" t="s">
-        <v>2063</v>
+        <v>2036</v>
       </c>
       <c r="B485" s="3" t="b">
         <v>1</v>
@@ -17586,18 +17582,18 @@
         <v>1</v>
       </c>
       <c r="E485" s="3" t="s">
-        <v>2065</v>
+        <v>2038</v>
       </c>
       <c r="F485" s="6" t="s">
-        <v>2067</v>
+        <v>2040</v>
       </c>
       <c r="G485" s="3" t="s">
-        <v>2068</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="3" t="s">
-        <v>2190</v>
+        <v>2163</v>
       </c>
       <c r="B486" s="3" t="b">
         <v>1</v>
@@ -17618,7 +17614,7 @@
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="3" t="s">
-        <v>1794</v>
+        <v>1767</v>
       </c>
       <c r="B487" s="3" t="b">
         <v>1</v>
@@ -17628,18 +17624,18 @@
       </c>
       <c r="D487" s="3"/>
       <c r="E487" s="3" t="s">
-        <v>1799</v>
+        <v>1772</v>
       </c>
       <c r="F487" s="6" t="s">
-        <v>1800</v>
+        <v>1773</v>
       </c>
       <c r="G487" s="3" t="s">
-        <v>1803</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="3" t="s">
-        <v>1795</v>
+        <v>1768</v>
       </c>
       <c r="B488" s="3" t="b">
         <v>1</v>
@@ -17649,18 +17645,18 @@
       </c>
       <c r="D488" s="3"/>
       <c r="E488" s="3" t="s">
-        <v>1798</v>
+        <v>1771</v>
       </c>
       <c r="F488" s="6" t="s">
-        <v>1801</v>
+        <v>1774</v>
       </c>
       <c r="G488" s="3" t="s">
-        <v>1803</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="3" t="s">
-        <v>1796</v>
+        <v>1769</v>
       </c>
       <c r="B489" s="3" t="b">
         <v>1</v>
@@ -17670,18 +17666,18 @@
       </c>
       <c r="D489" s="3"/>
       <c r="E489" s="3" t="s">
-        <v>1797</v>
+        <v>1770</v>
       </c>
       <c r="F489" s="6" t="s">
-        <v>1802</v>
+        <v>1775</v>
       </c>
       <c r="G489" s="3" t="s">
-        <v>1804</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="3" t="s">
-        <v>1805</v>
+        <v>1778</v>
       </c>
       <c r="B490" s="3" t="b">
         <v>1</v>
@@ -17691,18 +17687,18 @@
       </c>
       <c r="D490" s="3"/>
       <c r="E490" s="3" t="s">
-        <v>1806</v>
+        <v>1779</v>
       </c>
       <c r="F490" s="6" t="s">
-        <v>1807</v>
+        <v>1780</v>
       </c>
       <c r="G490" s="3" t="s">
-        <v>1808</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="3" t="s">
-        <v>1809</v>
+        <v>1782</v>
       </c>
       <c r="B491" s="3" t="b">
         <v>1</v>
@@ -17712,18 +17708,18 @@
       </c>
       <c r="D491" s="3"/>
       <c r="E491" s="3" t="s">
-        <v>1810</v>
+        <v>1783</v>
       </c>
       <c r="F491" s="6" t="s">
-        <v>1811</v>
+        <v>1784</v>
       </c>
       <c r="G491" s="3" t="s">
-        <v>1812</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="3" t="s">
-        <v>1813</v>
+        <v>1786</v>
       </c>
       <c r="B492" s="3" t="b">
         <v>0</v>
@@ -17733,18 +17729,18 @@
       </c>
       <c r="D492" s="3"/>
       <c r="E492" s="3" t="s">
-        <v>1813</v>
+        <v>1786</v>
       </c>
       <c r="F492" s="6" t="s">
-        <v>1814</v>
+        <v>1787</v>
       </c>
       <c r="G492" s="3" t="s">
-        <v>1815</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="3" t="s">
-        <v>1816</v>
+        <v>1789</v>
       </c>
       <c r="B493" s="3" t="b">
         <v>0</v>
@@ -17754,18 +17750,18 @@
       </c>
       <c r="D493" s="3"/>
       <c r="E493" s="3" t="s">
-        <v>1817</v>
+        <v>1790</v>
       </c>
       <c r="F493" s="6" t="s">
-        <v>1818</v>
+        <v>1791</v>
       </c>
       <c r="G493" s="3" t="s">
-        <v>1819</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="3" t="s">
-        <v>1820</v>
+        <v>1793</v>
       </c>
       <c r="B494" s="3" t="b">
         <v>1</v>
@@ -17775,18 +17771,18 @@
       </c>
       <c r="D494" s="3"/>
       <c r="E494" s="3" t="s">
-        <v>1821</v>
+        <v>1794</v>
       </c>
       <c r="F494" s="6" t="s">
-        <v>1822</v>
+        <v>1795</v>
       </c>
       <c r="G494" s="3" t="s">
-        <v>1823</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="3" t="s">
-        <v>1824</v>
+        <v>1797</v>
       </c>
       <c r="B495" s="3" t="b">
         <v>1</v>
@@ -17796,18 +17792,18 @@
       </c>
       <c r="D495" s="3"/>
       <c r="E495" s="3" t="s">
-        <v>1825</v>
+        <v>1798</v>
       </c>
       <c r="F495" s="6" t="s">
-        <v>1826</v>
+        <v>1799</v>
       </c>
       <c r="G495" s="3" t="s">
-        <v>1827</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="3" t="s">
-        <v>2240</v>
+        <v>2213</v>
       </c>
       <c r="B496" s="3" t="b">
         <v>1</v>
@@ -17817,18 +17813,18 @@
       </c>
       <c r="D496" s="3"/>
       <c r="E496" s="3" t="s">
-        <v>1828</v>
+        <v>1801</v>
       </c>
       <c r="F496" s="6" t="s">
-        <v>1829</v>
+        <v>1802</v>
       </c>
       <c r="G496" s="3" t="s">
-        <v>1830</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="4" t="s">
-        <v>1835</v>
+        <v>1808</v>
       </c>
       <c r="B497" s="3" t="b">
         <v>0</v>
@@ -17838,18 +17834,18 @@
       </c>
       <c r="D497" s="3"/>
       <c r="E497" s="3" t="s">
-        <v>1836</v>
+        <v>1809</v>
       </c>
       <c r="F497" s="6" t="s">
-        <v>1837</v>
+        <v>1810</v>
       </c>
       <c r="G497" s="3" t="s">
-        <v>1838</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="3" t="s">
-        <v>1831</v>
+        <v>1804</v>
       </c>
       <c r="B498" s="3" t="b">
         <v>0</v>
@@ -17859,18 +17855,18 @@
       </c>
       <c r="D498" s="3"/>
       <c r="E498" s="3" t="s">
-        <v>1832</v>
+        <v>1805</v>
       </c>
       <c r="F498" s="6" t="s">
-        <v>1833</v>
+        <v>1806</v>
       </c>
       <c r="G498" s="3" t="s">
-        <v>1834</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="499" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A499" s="3" t="s">
-        <v>1839</v>
+        <v>1812</v>
       </c>
       <c r="B499" s="3" t="b">
         <v>1</v>
@@ -17879,18 +17875,18 @@
         <v>0</v>
       </c>
       <c r="E499" s="3" t="s">
-        <v>1840</v>
+        <v>1813</v>
       </c>
       <c r="F499" s="6" t="s">
-        <v>1841</v>
+        <v>1814</v>
       </c>
       <c r="G499" s="3" t="s">
-        <v>1845</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="3" t="s">
-        <v>1842</v>
+        <v>1815</v>
       </c>
       <c r="B500" s="3" t="b">
         <v>1</v>
@@ -17900,13 +17896,13 @@
       </c>
       <c r="D500" s="3"/>
       <c r="E500" s="3" t="s">
-        <v>1843</v>
+        <v>1816</v>
       </c>
       <c r="F500" s="6" t="s">
-        <v>1844</v>
+        <v>1817</v>
       </c>
       <c r="G500" s="3" t="s">
-        <v>1846</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
@@ -17924,15 +17920,15 @@
         <v>1630</v>
       </c>
       <c r="F501" s="6" t="s">
-        <v>1848</v>
+        <v>1821</v>
       </c>
       <c r="G501" s="3" t="s">
-        <v>1782</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" s="3" t="s">
-        <v>1847</v>
+        <v>1820</v>
       </c>
       <c r="B502" s="3" t="b">
         <v>1</v>
@@ -17942,18 +17938,18 @@
       </c>
       <c r="D502" s="3"/>
       <c r="E502" s="3" t="s">
-        <v>1847</v>
+        <v>1820</v>
       </c>
       <c r="F502" s="6" t="s">
-        <v>1849</v>
+        <v>1822</v>
       </c>
       <c r="G502" s="3" t="s">
-        <v>1850</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="3" t="s">
-        <v>1852</v>
+        <v>1825</v>
       </c>
       <c r="B503" s="3" t="b">
         <v>1</v>
@@ -17963,18 +17959,18 @@
       </c>
       <c r="D503" s="3"/>
       <c r="E503" s="3" t="s">
-        <v>1854</v>
+        <v>1827</v>
       </c>
       <c r="F503" s="6" t="s">
-        <v>1855</v>
+        <v>1828</v>
       </c>
       <c r="G503" s="3" t="s">
-        <v>1856</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="3" t="s">
-        <v>1853</v>
+        <v>1826</v>
       </c>
       <c r="B504" s="3" t="b">
         <v>1</v>
@@ -17995,7 +17991,7 @@
     </row>
     <row r="505" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A505" s="3" t="s">
-        <v>2297</v>
+        <v>2270</v>
       </c>
       <c r="B505" s="3" t="b">
         <v>1</v>
@@ -18004,18 +18000,18 @@
         <v>1</v>
       </c>
       <c r="E505" s="3" t="s">
-        <v>2298</v>
+        <v>2271</v>
       </c>
       <c r="F505" s="6" t="s">
-        <v>2299</v>
+        <v>2272</v>
       </c>
       <c r="G505" s="3" t="s">
-        <v>2300</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="3" t="s">
-        <v>1851</v>
+        <v>1824</v>
       </c>
       <c r="B506" s="3" t="b">
         <v>1</v>
@@ -18025,18 +18021,18 @@
       </c>
       <c r="D506" s="3"/>
       <c r="E506" s="3" t="s">
-        <v>1797</v>
+        <v>1770</v>
       </c>
       <c r="F506" s="6" t="s">
-        <v>1802</v>
+        <v>1775</v>
       </c>
       <c r="G506" s="3" t="s">
-        <v>1804</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" s="3" t="s">
-        <v>1857</v>
+        <v>1830</v>
       </c>
       <c r="B507" s="3" t="b">
         <v>1</v>
@@ -18046,18 +18042,18 @@
       </c>
       <c r="D507" s="3"/>
       <c r="E507" s="3" t="s">
-        <v>1860</v>
+        <v>1833</v>
       </c>
       <c r="F507" s="6" t="s">
-        <v>1858</v>
+        <v>1831</v>
       </c>
       <c r="G507" s="3" t="s">
-        <v>1874</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="3" t="s">
-        <v>1862</v>
+        <v>1835</v>
       </c>
       <c r="B508" s="3" t="b">
         <v>1</v>
@@ -18067,18 +18063,18 @@
       </c>
       <c r="D508" s="3"/>
       <c r="E508" s="3" t="s">
-        <v>1861</v>
+        <v>1834</v>
       </c>
       <c r="F508" s="6" t="s">
-        <v>1859</v>
+        <v>1832</v>
       </c>
       <c r="G508" s="3" t="s">
-        <v>1875</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="3" t="s">
-        <v>1863</v>
+        <v>1836</v>
       </c>
       <c r="B509" s="3" t="b">
         <v>1</v>
@@ -18088,18 +18084,18 @@
       </c>
       <c r="D509" s="3"/>
       <c r="E509" s="3" t="s">
-        <v>1866</v>
+        <v>1839</v>
       </c>
       <c r="F509" s="6" t="s">
-        <v>1869</v>
+        <v>1842</v>
       </c>
       <c r="G509" s="3" t="s">
-        <v>1876</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="3" t="s">
-        <v>1864</v>
+        <v>1837</v>
       </c>
       <c r="B510" s="3" t="b">
         <v>1</v>
@@ -18109,18 +18105,18 @@
       </c>
       <c r="D510" s="3"/>
       <c r="E510" s="3" t="s">
-        <v>1870</v>
+        <v>1843</v>
       </c>
       <c r="F510" s="6" t="s">
-        <v>1868</v>
+        <v>1841</v>
       </c>
       <c r="G510" s="3" t="s">
-        <v>1877</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="3" t="s">
-        <v>1865</v>
+        <v>1838</v>
       </c>
       <c r="B511" s="3" t="b">
         <v>1</v>
@@ -18130,18 +18126,18 @@
       </c>
       <c r="D511" s="3"/>
       <c r="E511" s="3" t="s">
-        <v>1871</v>
+        <v>1844</v>
       </c>
       <c r="F511" s="6" t="s">
-        <v>1867</v>
+        <v>1840</v>
       </c>
       <c r="G511" s="3" t="s">
-        <v>1878</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="3" t="s">
-        <v>1889</v>
+        <v>1862</v>
       </c>
       <c r="B512" s="3" t="b">
         <v>1</v>
@@ -18151,18 +18147,18 @@
       </c>
       <c r="D512" s="3"/>
       <c r="E512" s="3" t="s">
-        <v>1872</v>
+        <v>1845</v>
       </c>
       <c r="F512" s="6" t="s">
-        <v>1873</v>
+        <v>1846</v>
       </c>
       <c r="G512" s="3" t="s">
-        <v>1879</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" s="3" t="s">
-        <v>1880</v>
+        <v>1853</v>
       </c>
       <c r="B513" s="3" t="b">
         <v>1</v>
@@ -18183,7 +18179,7 @@
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" s="3" t="s">
-        <v>1881</v>
+        <v>1854</v>
       </c>
       <c r="B514" s="3" t="b">
         <v>1</v>
@@ -18199,12 +18195,12 @@
         <v>1146</v>
       </c>
       <c r="G514" s="3" t="s">
-        <v>1758</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="3" t="s">
-        <v>1882</v>
+        <v>1855</v>
       </c>
       <c r="B515" s="3" t="b">
         <v>1</v>
@@ -18214,18 +18210,18 @@
       </c>
       <c r="D515" s="3"/>
       <c r="E515" s="3" t="s">
-        <v>1884</v>
+        <v>1857</v>
       </c>
       <c r="F515" s="6" t="s">
-        <v>1886</v>
+        <v>1859</v>
       </c>
       <c r="G515" s="3" t="s">
-        <v>1887</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" s="3" t="s">
-        <v>1883</v>
+        <v>1856</v>
       </c>
       <c r="B516" s="3" t="b">
         <v>1</v>
@@ -18235,18 +18231,18 @@
       </c>
       <c r="D516" s="3"/>
       <c r="E516" s="3" t="s">
-        <v>1885</v>
+        <v>1858</v>
       </c>
       <c r="F516" s="6" t="s">
-        <v>1802</v>
+        <v>1775</v>
       </c>
       <c r="G516" s="3" t="s">
-        <v>1888</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="517" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A517" s="3" t="s">
-        <v>1892</v>
+        <v>1865</v>
       </c>
       <c r="B517" s="3" t="b">
         <v>0</v>
@@ -18255,18 +18251,18 @@
         <v>1</v>
       </c>
       <c r="E517" s="3" t="s">
-        <v>1890</v>
+        <v>1863</v>
       </c>
       <c r="F517" s="6" t="s">
-        <v>1893</v>
+        <v>1866</v>
       </c>
       <c r="G517" s="3" t="s">
-        <v>1891</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>1894</v>
+        <v>1867</v>
       </c>
       <c r="B518" t="b">
         <v>1</v>
@@ -18275,18 +18271,18 @@
         <v>1</v>
       </c>
       <c r="E518" s="3" t="s">
-        <v>1894</v>
+        <v>1867</v>
       </c>
       <c r="F518" s="6" t="s">
-        <v>1897</v>
+        <v>1870</v>
       </c>
       <c r="G518" t="s">
-        <v>1899</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>1895</v>
+        <v>1868</v>
       </c>
       <c r="B519" t="b">
         <v>1</v>
@@ -18295,18 +18291,18 @@
         <v>1</v>
       </c>
       <c r="E519" s="3" t="s">
-        <v>1896</v>
+        <v>1869</v>
       </c>
       <c r="F519" s="6" t="s">
-        <v>1898</v>
+        <v>1871</v>
       </c>
       <c r="G519" t="s">
-        <v>1900</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>1901</v>
+        <v>1874</v>
       </c>
       <c r="B520" t="b">
         <v>1</v>
@@ -18315,21 +18311,21 @@
         <v>0</v>
       </c>
       <c r="D520" t="s">
-        <v>1904</v>
+        <v>1877</v>
       </c>
       <c r="E520" s="3" t="s">
-        <v>1902</v>
+        <v>1875</v>
       </c>
       <c r="F520" s="6" t="s">
-        <v>1903</v>
+        <v>1876</v>
       </c>
       <c r="G520" s="3" t="s">
-        <v>1903</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" s="3" t="s">
-        <v>1901</v>
+        <v>1874</v>
       </c>
       <c r="B521" t="b">
         <v>0</v>
@@ -18338,21 +18334,21 @@
         <v>1</v>
       </c>
       <c r="D521" s="3" t="s">
-        <v>1904</v>
+        <v>1877</v>
       </c>
       <c r="E521" s="3" t="s">
-        <v>1905</v>
+        <v>1878</v>
       </c>
       <c r="F521" s="6" t="s">
-        <v>1906</v>
+        <v>1879</v>
       </c>
       <c r="G521" s="3" t="s">
-        <v>1906</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>1919</v>
+        <v>1892</v>
       </c>
       <c r="B522" t="b">
         <v>0</v>
@@ -18361,18 +18357,18 @@
         <v>1</v>
       </c>
       <c r="E522" t="s">
-        <v>1922</v>
+        <v>1895</v>
       </c>
       <c r="F522" s="6" t="s">
-        <v>1920</v>
+        <v>1893</v>
       </c>
       <c r="G522" s="3" t="s">
-        <v>1921</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>1931</v>
+        <v>1904</v>
       </c>
       <c r="B523" t="b">
         <v>0</v>
@@ -18381,18 +18377,18 @@
         <v>1</v>
       </c>
       <c r="E523" t="s">
-        <v>1931</v>
+        <v>1904</v>
       </c>
       <c r="F523" s="6" t="s">
-        <v>1932</v>
+        <v>1905</v>
       </c>
       <c r="G523" s="3" t="s">
-        <v>1933</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>1923</v>
+        <v>1896</v>
       </c>
       <c r="B524" s="3" t="b">
         <v>0</v>
@@ -18401,18 +18397,18 @@
         <v>1</v>
       </c>
       <c r="E524" t="s">
-        <v>1924</v>
+        <v>1897</v>
       </c>
       <c r="F524" s="6" t="s">
-        <v>1926</v>
+        <v>1899</v>
       </c>
       <c r="G524" t="s">
-        <v>1925</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>1927</v>
+        <v>1900</v>
       </c>
       <c r="B525" t="b">
         <v>0</v>
@@ -18421,18 +18417,18 @@
         <v>1</v>
       </c>
       <c r="E525" t="s">
-        <v>1928</v>
+        <v>1901</v>
       </c>
       <c r="F525" s="6" t="s">
-        <v>1929</v>
+        <v>1902</v>
       </c>
       <c r="G525" t="s">
-        <v>1930</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>1934</v>
+        <v>1907</v>
       </c>
       <c r="B526" s="3" t="b">
         <v>1</v>
@@ -18441,18 +18437,18 @@
         <v>1</v>
       </c>
       <c r="E526" t="s">
-        <v>1936</v>
+        <v>1909</v>
       </c>
       <c r="F526" s="6" t="s">
-        <v>1938</v>
+        <v>1911</v>
       </c>
       <c r="G526" t="s">
-        <v>2027</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>1935</v>
+        <v>1908</v>
       </c>
       <c r="B527" s="3" t="b">
         <v>1</v>
@@ -18461,13 +18457,13 @@
         <v>1</v>
       </c>
       <c r="E527" t="s">
-        <v>1937</v>
+        <v>1910</v>
       </c>
       <c r="F527" s="6" t="s">
-        <v>1939</v>
+        <v>1912</v>
       </c>
       <c r="G527" t="s">
-        <v>2027</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.25">
@@ -18492,7 +18488,7 @@
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>1946</v>
+        <v>1919</v>
       </c>
       <c r="B529" s="3" t="b">
         <v>1</v>
@@ -18501,18 +18497,18 @@
         <v>1</v>
       </c>
       <c r="E529" t="s">
-        <v>1854</v>
+        <v>1827</v>
       </c>
       <c r="F529" s="6" t="s">
-        <v>1855</v>
+        <v>1828</v>
       </c>
       <c r="G529" t="s">
-        <v>1856</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>1947</v>
+        <v>1920</v>
       </c>
       <c r="B530" s="3" t="b">
         <v>1</v>
@@ -18521,18 +18517,18 @@
         <v>1</v>
       </c>
       <c r="E530" t="s">
-        <v>1949</v>
+        <v>1922</v>
       </c>
       <c r="F530" s="6" t="s">
-        <v>1954</v>
+        <v>1927</v>
       </c>
       <c r="G530" t="s">
-        <v>2028</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>1948</v>
+        <v>1921</v>
       </c>
       <c r="B531" s="3" t="b">
         <v>1</v>
@@ -18541,18 +18537,18 @@
         <v>1</v>
       </c>
       <c r="E531" t="s">
-        <v>1950</v>
+        <v>1923</v>
       </c>
       <c r="F531" s="6" t="s">
-        <v>1955</v>
+        <v>1928</v>
       </c>
       <c r="G531" t="s">
-        <v>2029</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>1940</v>
+        <v>1913</v>
       </c>
       <c r="B532" s="3" t="b">
         <v>1</v>
@@ -18561,18 +18557,18 @@
         <v>1</v>
       </c>
       <c r="E532" t="s">
-        <v>1931</v>
+        <v>1904</v>
       </c>
       <c r="F532" s="6" t="s">
-        <v>1956</v>
+        <v>1929</v>
       </c>
       <c r="G532" t="s">
-        <v>1933</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>1941</v>
+        <v>1914</v>
       </c>
       <c r="B533" s="3" t="b">
         <v>1</v>
@@ -18581,18 +18577,18 @@
         <v>1</v>
       </c>
       <c r="E533" t="s">
-        <v>1951</v>
+        <v>1924</v>
       </c>
       <c r="F533" s="6" t="s">
-        <v>1957</v>
+        <v>1930</v>
       </c>
       <c r="G533" t="s">
-        <v>2030</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>1942</v>
+        <v>1915</v>
       </c>
       <c r="B534" s="3" t="b">
         <v>1</v>
@@ -18601,78 +18597,78 @@
         <v>1</v>
       </c>
       <c r="E534" t="s">
-        <v>2144</v>
+        <v>2117</v>
       </c>
       <c r="F534" s="6" t="s">
-        <v>2150</v>
+        <v>2123</v>
       </c>
       <c r="G534" t="s">
-        <v>2031</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="535" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A535" s="3" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B535" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C535" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E535" s="3" t="s">
+        <v>2118</v>
+      </c>
+      <c r="F535" s="6" t="s">
+        <v>2124</v>
+      </c>
+      <c r="G535" s="3" t="s">
         <v>2098</v>
-      </c>
-      <c r="B535" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C535" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E535" s="3" t="s">
-        <v>2145</v>
-      </c>
-      <c r="F535" s="6" t="s">
-        <v>2151</v>
-      </c>
-      <c r="G535" s="3" t="s">
-        <v>2125</v>
       </c>
     </row>
     <row r="536" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A536" s="3" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B536" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C536" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E536" s="3" t="s">
+        <v>2119</v>
+      </c>
+      <c r="F536" s="6" t="s">
+        <v>2125</v>
+      </c>
+      <c r="G536" s="3" t="s">
         <v>2099</v>
-      </c>
-      <c r="B536" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C536" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E536" s="3" t="s">
-        <v>2146</v>
-      </c>
-      <c r="F536" s="6" t="s">
-        <v>2152</v>
-      </c>
-      <c r="G536" s="3" t="s">
-        <v>2126</v>
       </c>
     </row>
     <row r="537" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A537" s="3" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B537" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C537" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E537" s="3" t="s">
+        <v>2120</v>
+      </c>
+      <c r="F537" s="6" t="s">
+        <v>2126</v>
+      </c>
+      <c r="G537" s="3" t="s">
         <v>2100</v>
-      </c>
-      <c r="B537" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C537" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E537" s="3" t="s">
-        <v>2147</v>
-      </c>
-      <c r="F537" s="6" t="s">
-        <v>2153</v>
-      </c>
-      <c r="G537" s="3" t="s">
-        <v>2127</v>
       </c>
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>1943</v>
+        <v>1916</v>
       </c>
       <c r="B538" s="3" t="b">
         <v>1</v>
@@ -18681,78 +18677,78 @@
         <v>1</v>
       </c>
       <c r="E538" t="s">
-        <v>2143</v>
+        <v>2116</v>
       </c>
       <c r="F538" s="6" t="s">
-        <v>2154</v>
+        <v>2127</v>
       </c>
       <c r="G538" t="s">
-        <v>2032</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="539" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A539" s="3" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B539" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C539" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E539" s="3" t="s">
+        <v>2115</v>
+      </c>
+      <c r="F539" s="6" t="s">
+        <v>2128</v>
+      </c>
+      <c r="G539" s="3" t="s">
         <v>2101</v>
-      </c>
-      <c r="B539" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C539" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E539" s="3" t="s">
-        <v>2142</v>
-      </c>
-      <c r="F539" s="6" t="s">
-        <v>2155</v>
-      </c>
-      <c r="G539" s="3" t="s">
-        <v>2128</v>
       </c>
     </row>
     <row r="540" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A540" s="3" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B540" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C540" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E540" s="3" t="s">
+        <v>2114</v>
+      </c>
+      <c r="F540" s="6" t="s">
+        <v>2129</v>
+      </c>
+      <c r="G540" s="3" t="s">
         <v>2102</v>
-      </c>
-      <c r="B540" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C540" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E540" s="3" t="s">
-        <v>2141</v>
-      </c>
-      <c r="F540" s="6" t="s">
-        <v>2156</v>
-      </c>
-      <c r="G540" s="3" t="s">
-        <v>2129</v>
       </c>
     </row>
     <row r="541" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A541" s="3" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B541" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C541" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E541" s="3" t="s">
+        <v>2113</v>
+      </c>
+      <c r="F541" s="6" t="s">
+        <v>2130</v>
+      </c>
+      <c r="G541" s="3" t="s">
         <v>2103</v>
-      </c>
-      <c r="B541" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C541" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E541" s="3" t="s">
-        <v>2140</v>
-      </c>
-      <c r="F541" s="6" t="s">
-        <v>2157</v>
-      </c>
-      <c r="G541" s="3" t="s">
-        <v>2130</v>
       </c>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>1944</v>
+        <v>1917</v>
       </c>
       <c r="B542" s="3" t="b">
         <v>1</v>
@@ -18761,78 +18757,78 @@
         <v>1</v>
       </c>
       <c r="E542" t="s">
-        <v>1952</v>
+        <v>1925</v>
       </c>
       <c r="F542" s="6" t="s">
-        <v>1959</v>
+        <v>1932</v>
       </c>
       <c r="G542" t="s">
-        <v>2033</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="543" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A543" s="3" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B543" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C543" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E543" s="3" t="s">
+        <v>2085</v>
+      </c>
+      <c r="F543" s="6" t="s">
+        <v>2091</v>
+      </c>
+      <c r="G543" s="3" t="s">
         <v>2104</v>
-      </c>
-      <c r="B543" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C543" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E543" s="3" t="s">
-        <v>2112</v>
-      </c>
-      <c r="F543" s="6" t="s">
-        <v>2118</v>
-      </c>
-      <c r="G543" s="3" t="s">
-        <v>2131</v>
       </c>
     </row>
     <row r="544" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A544" s="3" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B544" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C544" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E544" s="3" t="s">
+        <v>2121</v>
+      </c>
+      <c r="F544" s="6" t="s">
+        <v>2093</v>
+      </c>
+      <c r="G544" s="3" t="s">
         <v>2105</v>
-      </c>
-      <c r="B544" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C544" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E544" s="3" t="s">
-        <v>2148</v>
-      </c>
-      <c r="F544" s="6" t="s">
-        <v>2120</v>
-      </c>
-      <c r="G544" s="3" t="s">
-        <v>2132</v>
       </c>
     </row>
     <row r="545" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A545" s="3" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B545" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C545" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E545" s="3" t="s">
+        <v>2122</v>
+      </c>
+      <c r="F545" s="6" t="s">
+        <v>2092</v>
+      </c>
+      <c r="G545" s="3" t="s">
         <v>2106</v>
-      </c>
-      <c r="B545" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C545" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E545" s="3" t="s">
-        <v>2149</v>
-      </c>
-      <c r="F545" s="6" t="s">
-        <v>2119</v>
-      </c>
-      <c r="G545" s="3" t="s">
-        <v>2133</v>
       </c>
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>1945</v>
+        <v>1918</v>
       </c>
       <c r="B546" s="3" t="b">
         <v>1</v>
@@ -18841,118 +18837,118 @@
         <v>1</v>
       </c>
       <c r="E546" t="s">
-        <v>1953</v>
+        <v>1926</v>
       </c>
       <c r="F546" s="6" t="s">
-        <v>1958</v>
+        <v>1931</v>
       </c>
       <c r="G546" t="s">
-        <v>2034</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="547" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A547" s="3" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B547" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C547" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E547" s="3" t="s">
+        <v>2086</v>
+      </c>
+      <c r="F547" s="6" t="s">
+        <v>2094</v>
+      </c>
+      <c r="G547" s="3" t="s">
         <v>2107</v>
-      </c>
-      <c r="B547" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C547" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E547" s="3" t="s">
-        <v>2113</v>
-      </c>
-      <c r="F547" s="6" t="s">
-        <v>2121</v>
-      </c>
-      <c r="G547" s="3" t="s">
-        <v>2134</v>
       </c>
     </row>
     <row r="548" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A548" s="3" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B548" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C548" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E548" s="3" t="s">
+        <v>2087</v>
+      </c>
+      <c r="F548" s="6" t="s">
+        <v>2095</v>
+      </c>
+      <c r="G548" s="3" t="s">
         <v>2108</v>
-      </c>
-      <c r="B548" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C548" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E548" s="3" t="s">
-        <v>2114</v>
-      </c>
-      <c r="F548" s="6" t="s">
-        <v>2122</v>
-      </c>
-      <c r="G548" s="3" t="s">
-        <v>2135</v>
       </c>
     </row>
     <row r="549" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A549" s="3" t="s">
+        <v>2082</v>
+      </c>
+      <c r="B549" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C549" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E549" s="3" t="s">
+        <v>2088</v>
+      </c>
+      <c r="F549" s="6" t="s">
+        <v>2112</v>
+      </c>
+      <c r="G549" s="3" t="s">
         <v>2109</v>
-      </c>
-      <c r="B549" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C549" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E549" s="3" t="s">
-        <v>2115</v>
-      </c>
-      <c r="F549" s="6" t="s">
-        <v>2139</v>
-      </c>
-      <c r="G549" s="3" t="s">
-        <v>2136</v>
       </c>
     </row>
     <row r="550" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A550" s="3" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B550" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C550" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E550" s="3" t="s">
+        <v>2089</v>
+      </c>
+      <c r="F550" s="6" t="s">
+        <v>2096</v>
+      </c>
+      <c r="G550" s="3" t="s">
         <v>2110</v>
-      </c>
-      <c r="B550" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C550" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E550" s="3" t="s">
-        <v>2116</v>
-      </c>
-      <c r="F550" s="6" t="s">
-        <v>2123</v>
-      </c>
-      <c r="G550" s="3" t="s">
-        <v>2137</v>
       </c>
     </row>
     <row r="551" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A551" s="3" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B551" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C551" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E551" s="3" t="s">
+        <v>2090</v>
+      </c>
+      <c r="F551" s="6" t="s">
+        <v>2097</v>
+      </c>
+      <c r="G551" s="3" t="s">
         <v>2111</v>
-      </c>
-      <c r="B551" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C551" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E551" s="3" t="s">
-        <v>2117</v>
-      </c>
-      <c r="F551" s="6" t="s">
-        <v>2124</v>
-      </c>
-      <c r="G551" s="3" t="s">
-        <v>2138</v>
       </c>
     </row>
     <row r="552" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A552" s="3" t="s">
-        <v>2159</v>
+        <v>2132</v>
       </c>
       <c r="B552" s="3" t="b">
         <v>1</v>
@@ -18961,18 +18957,18 @@
         <v>1</v>
       </c>
       <c r="E552" s="3" t="s">
-        <v>2160</v>
+        <v>2133</v>
       </c>
       <c r="F552" s="6" t="s">
-        <v>2161</v>
+        <v>2134</v>
       </c>
       <c r="G552" s="3" t="s">
-        <v>2162</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>1960</v>
+        <v>1933</v>
       </c>
       <c r="B553" s="3" t="b">
         <v>1</v>
@@ -18981,18 +18977,18 @@
         <v>1</v>
       </c>
       <c r="E553" t="s">
-        <v>1973</v>
+        <v>1946</v>
       </c>
       <c r="F553" s="6" t="s">
-        <v>2007</v>
+        <v>1980</v>
       </c>
       <c r="G553" t="s">
-        <v>2035</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>1961</v>
+        <v>1934</v>
       </c>
       <c r="B554" s="3" t="b">
         <v>1</v>
@@ -19001,18 +18997,18 @@
         <v>1</v>
       </c>
       <c r="E554" t="s">
-        <v>1977</v>
+        <v>1950</v>
       </c>
       <c r="F554" s="6" t="s">
-        <v>2008</v>
+        <v>1981</v>
       </c>
       <c r="G554" t="s">
-        <v>2036</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>1962</v>
+        <v>1935</v>
       </c>
       <c r="B555" s="3" t="b">
         <v>1</v>
@@ -19021,13 +19017,13 @@
         <v>1</v>
       </c>
       <c r="E555" t="s">
-        <v>2056</v>
+        <v>2029</v>
       </c>
       <c r="F555" s="6" t="s">
-        <v>2057</v>
+        <v>2030</v>
       </c>
       <c r="G555" t="s">
-        <v>2058</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.25">
@@ -19052,7 +19048,7 @@
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>1963</v>
+        <v>1936</v>
       </c>
       <c r="B557" s="3" t="b">
         <v>1</v>
@@ -19061,18 +19057,18 @@
         <v>1</v>
       </c>
       <c r="E557" t="s">
-        <v>1978</v>
+        <v>1951</v>
       </c>
       <c r="F557" s="6" t="s">
-        <v>2009</v>
+        <v>1982</v>
       </c>
       <c r="G557" t="s">
-        <v>2037</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>1964</v>
+        <v>1937</v>
       </c>
       <c r="B558" s="3" t="b">
         <v>1</v>
@@ -19081,18 +19077,18 @@
         <v>1</v>
       </c>
       <c r="E558" t="s">
-        <v>1979</v>
+        <v>1952</v>
       </c>
       <c r="F558" s="6" t="s">
-        <v>2010</v>
+        <v>1983</v>
       </c>
       <c r="G558" t="s">
-        <v>2038</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>1965</v>
+        <v>1938</v>
       </c>
       <c r="B559" s="3" t="b">
         <v>1</v>
@@ -19101,18 +19097,18 @@
         <v>1</v>
       </c>
       <c r="E559" t="s">
-        <v>1980</v>
+        <v>1953</v>
       </c>
       <c r="F559" s="6" t="s">
-        <v>2011</v>
+        <v>1984</v>
       </c>
       <c r="G559" t="s">
-        <v>2039</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>1966</v>
+        <v>1939</v>
       </c>
       <c r="B560" s="3" t="b">
         <v>1</v>
@@ -19121,18 +19117,18 @@
         <v>1</v>
       </c>
       <c r="E560" t="s">
-        <v>1981</v>
+        <v>1954</v>
       </c>
       <c r="F560" s="6" t="s">
-        <v>2012</v>
+        <v>1985</v>
       </c>
       <c r="G560" t="s">
-        <v>2040</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>1967</v>
+        <v>1940</v>
       </c>
       <c r="B561" s="3" t="b">
         <v>1</v>
@@ -19141,18 +19137,18 @@
         <v>1</v>
       </c>
       <c r="E561" t="s">
-        <v>1982</v>
+        <v>1955</v>
       </c>
       <c r="F561" s="6" t="s">
-        <v>2013</v>
+        <v>1986</v>
       </c>
       <c r="G561" t="s">
-        <v>2041</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>1968</v>
+        <v>1941</v>
       </c>
       <c r="B562" s="3" t="b">
         <v>1</v>
@@ -19164,7 +19160,7 @@
         <v>882</v>
       </c>
       <c r="F562" s="6" t="s">
-        <v>2014</v>
+        <v>1987</v>
       </c>
       <c r="G562" t="s">
         <v>1539</v>
@@ -19172,7 +19168,7 @@
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>1969</v>
+        <v>1942</v>
       </c>
       <c r="B563" s="3" t="b">
         <v>1</v>
@@ -19181,18 +19177,18 @@
         <v>1</v>
       </c>
       <c r="E563" t="s">
-        <v>1974</v>
+        <v>1947</v>
       </c>
       <c r="F563" s="6" t="s">
-        <v>2015</v>
+        <v>1988</v>
       </c>
       <c r="G563" t="s">
-        <v>2055</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>1970</v>
+        <v>1943</v>
       </c>
       <c r="B564" s="3" t="b">
         <v>1</v>
@@ -19201,18 +19197,18 @@
         <v>1</v>
       </c>
       <c r="E564" t="s">
-        <v>1983</v>
+        <v>1956</v>
       </c>
       <c r="F564" s="6" t="s">
-        <v>2016</v>
+        <v>1989</v>
       </c>
       <c r="G564" t="s">
-        <v>2042</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>1971</v>
+        <v>1944</v>
       </c>
       <c r="B565" s="3" t="b">
         <v>1</v>
@@ -19221,18 +19217,18 @@
         <v>1</v>
       </c>
       <c r="E565" t="s">
-        <v>1975</v>
+        <v>1948</v>
       </c>
       <c r="F565" s="6" t="s">
-        <v>2158</v>
+        <v>2131</v>
       </c>
       <c r="G565" t="s">
-        <v>2043</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>1972</v>
+        <v>1945</v>
       </c>
       <c r="B566" s="3" t="b">
         <v>1</v>
@@ -19241,18 +19237,18 @@
         <v>1</v>
       </c>
       <c r="E566" t="s">
-        <v>1976</v>
+        <v>1949</v>
       </c>
       <c r="F566" s="6" t="s">
+        <v>1990</v>
+      </c>
+      <c r="G566" t="s">
         <v>2017</v>
-      </c>
-      <c r="G566" t="s">
-        <v>2044</v>
       </c>
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>1988</v>
+        <v>1961</v>
       </c>
       <c r="B567" t="b">
         <v>1</v>
@@ -19267,12 +19263,12 @@
         <v>1208</v>
       </c>
       <c r="G567" t="s">
-        <v>2045</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>1984</v>
+        <v>1957</v>
       </c>
       <c r="B568" t="b">
         <v>1</v>
@@ -19281,18 +19277,18 @@
         <v>1</v>
       </c>
       <c r="E568" t="s">
-        <v>1985</v>
+        <v>1958</v>
       </c>
       <c r="F568" s="6" t="s">
-        <v>2018</v>
+        <v>1991</v>
       </c>
       <c r="G568" t="s">
-        <v>2046</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>1986</v>
+        <v>1959</v>
       </c>
       <c r="B569" t="b">
         <v>1</v>
@@ -19301,18 +19297,18 @@
         <v>1</v>
       </c>
       <c r="E569" t="s">
-        <v>1987</v>
+        <v>1960</v>
       </c>
       <c r="F569" s="6" t="s">
-        <v>2019</v>
+        <v>1992</v>
       </c>
       <c r="G569" t="s">
-        <v>2047</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>1994</v>
+        <v>1967</v>
       </c>
       <c r="B570" s="3" t="b">
         <v>1</v>
@@ -19321,18 +19317,18 @@
         <v>1</v>
       </c>
       <c r="E570" t="s">
-        <v>1989</v>
+        <v>1962</v>
       </c>
       <c r="F570" s="6" t="s">
-        <v>2020</v>
+        <v>1993</v>
       </c>
       <c r="G570" t="s">
-        <v>2048</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>1995</v>
+        <v>1968</v>
       </c>
       <c r="B571" s="3" t="b">
         <v>1</v>
@@ -19341,18 +19337,18 @@
         <v>1</v>
       </c>
       <c r="E571" t="s">
-        <v>1990</v>
+        <v>1963</v>
       </c>
       <c r="F571" s="6" t="s">
-        <v>2021</v>
+        <v>1994</v>
       </c>
       <c r="G571" t="s">
-        <v>2049</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>1991</v>
+        <v>1964</v>
       </c>
       <c r="B572" s="3" t="b">
         <v>1</v>
@@ -19361,18 +19357,18 @@
         <v>1</v>
       </c>
       <c r="E572" t="s">
-        <v>1992</v>
+        <v>1965</v>
       </c>
       <c r="F572" s="6" t="s">
-        <v>2022</v>
+        <v>1995</v>
       </c>
       <c r="G572" t="s">
-        <v>2050</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>1993</v>
+        <v>1966</v>
       </c>
       <c r="B573" s="3" t="b">
         <v>1</v>
@@ -19381,18 +19377,18 @@
         <v>1</v>
       </c>
       <c r="E573" t="s">
+        <v>1997</v>
+      </c>
+      <c r="F573" s="6" t="s">
+        <v>1996</v>
+      </c>
+      <c r="G573" t="s">
         <v>2024</v>
-      </c>
-      <c r="F573" s="6" t="s">
-        <v>2023</v>
-      </c>
-      <c r="G573" t="s">
-        <v>2051</v>
       </c>
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>1996</v>
+        <v>1969</v>
       </c>
       <c r="B574" s="3" t="b">
         <v>1</v>
@@ -19412,7 +19408,7 @@
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>1997</v>
+        <v>1970</v>
       </c>
       <c r="B575" s="3" t="b">
         <v>1</v>
@@ -19421,18 +19417,18 @@
         <v>1</v>
       </c>
       <c r="E575" t="s">
-        <v>1908</v>
+        <v>1881</v>
       </c>
       <c r="F575" s="6" t="s">
-        <v>1912</v>
+        <v>1885</v>
       </c>
       <c r="G575" t="s">
-        <v>1916</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>1998</v>
+        <v>1971</v>
       </c>
       <c r="B576" s="3" t="b">
         <v>1</v>
@@ -19441,18 +19437,18 @@
         <v>1</v>
       </c>
       <c r="E576" t="s">
-        <v>1907</v>
+        <v>1880</v>
       </c>
       <c r="F576" s="6" t="s">
-        <v>1911</v>
+        <v>1884</v>
       </c>
       <c r="G576" t="s">
-        <v>1915</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>1999</v>
+        <v>1972</v>
       </c>
       <c r="B577" s="3" t="b">
         <v>1</v>
@@ -19461,18 +19457,18 @@
         <v>1</v>
       </c>
       <c r="E577" t="s">
-        <v>1910</v>
+        <v>1883</v>
       </c>
       <c r="F577" s="6" t="s">
-        <v>1914</v>
+        <v>1887</v>
       </c>
       <c r="G577" t="s">
-        <v>1918</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>2000</v>
+        <v>1973</v>
       </c>
       <c r="B578" s="3" t="b">
         <v>1</v>
@@ -19481,18 +19477,18 @@
         <v>1</v>
       </c>
       <c r="E578" t="s">
-        <v>1909</v>
+        <v>1882</v>
       </c>
       <c r="F578" s="6" t="s">
-        <v>1913</v>
+        <v>1886</v>
       </c>
       <c r="G578" t="s">
-        <v>1917</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>2001</v>
+        <v>1974</v>
       </c>
       <c r="B579" s="3" t="b">
         <v>1</v>
@@ -19501,18 +19497,18 @@
         <v>1</v>
       </c>
       <c r="E579" t="s">
-        <v>2002</v>
+        <v>1975</v>
       </c>
       <c r="F579" s="6" t="s">
+        <v>1998</v>
+      </c>
+      <c r="G579" t="s">
         <v>2025</v>
-      </c>
-      <c r="G579" t="s">
-        <v>2052</v>
       </c>
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>2003</v>
+        <v>1976</v>
       </c>
       <c r="B580" s="3" t="b">
         <v>1</v>
@@ -19521,18 +19517,18 @@
         <v>1</v>
       </c>
       <c r="E580" t="s">
-        <v>2005</v>
+        <v>1978</v>
       </c>
       <c r="F580" s="6" t="s">
+        <v>1999</v>
+      </c>
+      <c r="G580" t="s">
         <v>2026</v>
-      </c>
-      <c r="G580" t="s">
-        <v>2053</v>
       </c>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>2004</v>
+        <v>1977</v>
       </c>
       <c r="B581" s="3" t="b">
         <v>1</v>
@@ -19541,18 +19537,18 @@
         <v>1</v>
       </c>
       <c r="E581" t="s">
-        <v>2006</v>
+        <v>1979</v>
       </c>
       <c r="F581" s="6" t="s">
-        <v>1958</v>
+        <v>1931</v>
       </c>
       <c r="G581" t="s">
-        <v>2054</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>2056</v>
+        <v>2029</v>
       </c>
       <c r="B582" t="b">
         <v>0</v>
@@ -19561,18 +19557,18 @@
         <v>1</v>
       </c>
       <c r="E582" t="s">
-        <v>2056</v>
+        <v>2029</v>
       </c>
       <c r="F582" s="6" t="s">
-        <v>2057</v>
+        <v>2030</v>
       </c>
       <c r="G582" t="s">
-        <v>2058</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>2059</v>
+        <v>2032</v>
       </c>
       <c r="B583" t="b">
         <v>0</v>
@@ -19581,18 +19577,18 @@
         <v>1</v>
       </c>
       <c r="E583" t="s">
-        <v>2059</v>
+        <v>2032</v>
       </c>
       <c r="F583" s="6" t="s">
-        <v>2060</v>
+        <v>2033</v>
       </c>
       <c r="G583" t="s">
-        <v>2061</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>2069</v>
+        <v>2042</v>
       </c>
       <c r="B584" t="b">
         <v>1</v>
@@ -19601,18 +19597,18 @@
         <v>1</v>
       </c>
       <c r="E584" t="s">
-        <v>2069</v>
+        <v>2042</v>
       </c>
       <c r="F584" s="6" t="s">
-        <v>2072</v>
+        <v>2045</v>
       </c>
       <c r="G584" t="s">
-        <v>2073</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>2070</v>
+        <v>2043</v>
       </c>
       <c r="B585" s="3" t="b">
         <v>1</v>
@@ -19621,18 +19617,18 @@
         <v>1</v>
       </c>
       <c r="E585" t="s">
-        <v>2070</v>
+        <v>2043</v>
       </c>
       <c r="F585" s="6" t="s">
-        <v>2071</v>
+        <v>2044</v>
       </c>
       <c r="G585" t="s">
-        <v>2074</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>2081</v>
+        <v>2054</v>
       </c>
       <c r="B586" t="b">
         <v>0</v>
@@ -19641,18 +19637,18 @@
         <v>1</v>
       </c>
       <c r="E586" t="s">
-        <v>2081</v>
+        <v>2054</v>
       </c>
       <c r="F586" s="6" t="s">
-        <v>2013</v>
+        <v>1986</v>
       </c>
       <c r="G586" t="s">
-        <v>2088</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>2078</v>
+        <v>2051</v>
       </c>
       <c r="B587" t="b">
         <v>1</v>
@@ -19661,18 +19657,18 @@
         <v>1</v>
       </c>
       <c r="E587" t="s">
-        <v>2079</v>
+        <v>2052</v>
       </c>
       <c r="F587" s="6" t="s">
-        <v>2080</v>
+        <v>2053</v>
       </c>
       <c r="G587" t="s">
-        <v>2089</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588" s="3" t="s">
-        <v>2082</v>
+        <v>2055</v>
       </c>
       <c r="B588" t="b">
         <v>0</v>
@@ -19681,18 +19677,18 @@
         <v>1</v>
       </c>
       <c r="E588" t="s">
-        <v>2083</v>
+        <v>2056</v>
       </c>
       <c r="F588" s="6" t="s">
-        <v>2084</v>
+        <v>2057</v>
       </c>
       <c r="G588" t="s">
-        <v>2090</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>2085</v>
+        <v>2058</v>
       </c>
       <c r="B589" t="b">
         <v>0</v>
@@ -19701,18 +19697,18 @@
         <v>1</v>
       </c>
       <c r="E589" t="s">
-        <v>2086</v>
+        <v>2059</v>
       </c>
       <c r="F589" s="6" t="s">
-        <v>2087</v>
+        <v>2060</v>
       </c>
       <c r="G589" t="s">
-        <v>2091</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>2092</v>
+        <v>2065</v>
       </c>
       <c r="B590" t="b">
         <v>0</v>
@@ -19721,18 +19717,18 @@
         <v>1</v>
       </c>
       <c r="E590" t="s">
-        <v>2092</v>
+        <v>2065</v>
       </c>
       <c r="F590" s="6" t="s">
-        <v>2095</v>
+        <v>2068</v>
       </c>
       <c r="G590" t="s">
-        <v>2096</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>2093</v>
+        <v>2066</v>
       </c>
       <c r="B591" t="b">
         <v>0</v>
@@ -19741,13 +19737,13 @@
         <v>1</v>
       </c>
       <c r="E591" t="s">
-        <v>2093</v>
+        <v>2066</v>
       </c>
       <c r="F591" s="6" t="s">
-        <v>2094</v>
+        <v>2067</v>
       </c>
       <c r="G591" t="s">
-        <v>2097</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.25">
@@ -19772,7 +19768,7 @@
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>2163</v>
+        <v>2136</v>
       </c>
       <c r="B593" t="b">
         <v>0</v>
@@ -19781,18 +19777,18 @@
         <v>1</v>
       </c>
       <c r="E593" t="s">
-        <v>2164</v>
+        <v>2137</v>
       </c>
       <c r="F593" s="6" t="s">
-        <v>2165</v>
+        <v>2138</v>
       </c>
       <c r="G593" t="s">
-        <v>2169</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>2166</v>
+        <v>2139</v>
       </c>
       <c r="B594" t="b">
         <v>0</v>
@@ -19801,18 +19797,18 @@
         <v>1</v>
       </c>
       <c r="E594" t="s">
-        <v>2168</v>
+        <v>2141</v>
       </c>
       <c r="F594" s="6" t="s">
-        <v>2167</v>
+        <v>2140</v>
       </c>
       <c r="G594" t="s">
-        <v>2170</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>2171</v>
+        <v>2144</v>
       </c>
       <c r="B595" t="b">
         <v>0</v>
@@ -19821,18 +19817,18 @@
         <v>1</v>
       </c>
       <c r="E595" t="s">
-        <v>2172</v>
+        <v>2145</v>
       </c>
       <c r="F595" s="6" t="s">
-        <v>2173</v>
+        <v>2146</v>
       </c>
       <c r="G595" t="s">
-        <v>2174</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>2175</v>
+        <v>2148</v>
       </c>
       <c r="B596" t="b">
         <v>1</v>
@@ -19841,13 +19837,13 @@
         <v>0</v>
       </c>
       <c r="E596" t="s">
-        <v>2178</v>
+        <v>2151</v>
       </c>
       <c r="F596" s="6" t="s">
-        <v>2176</v>
+        <v>2149</v>
       </c>
       <c r="G596" t="s">
-        <v>2177</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.25">
@@ -19861,10 +19857,10 @@
         <v>1</v>
       </c>
       <c r="E597" t="s">
-        <v>2179</v>
+        <v>2152</v>
       </c>
       <c r="F597" s="6" t="s">
-        <v>2180</v>
+        <v>2153</v>
       </c>
       <c r="G597" t="s">
         <v>1226</v>
@@ -19872,7 +19868,7 @@
     </row>
     <row r="598" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A598" s="3" t="s">
-        <v>2195</v>
+        <v>2168</v>
       </c>
       <c r="B598" s="3" t="b">
         <v>1</v>
@@ -19881,18 +19877,18 @@
         <v>1</v>
       </c>
       <c r="E598" s="3" t="s">
-        <v>1737</v>
+        <v>1711</v>
       </c>
       <c r="F598" s="6" t="s">
-        <v>2198</v>
+        <v>2171</v>
       </c>
       <c r="G598" s="3" t="s">
-        <v>1784</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="599" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A599" s="3" t="s">
-        <v>2196</v>
+        <v>2169</v>
       </c>
       <c r="B599" s="3" t="b">
         <v>1</v>
@@ -19901,38 +19897,38 @@
         <v>1</v>
       </c>
       <c r="E599" s="3" t="s">
-        <v>2197</v>
+        <v>2170</v>
       </c>
       <c r="F599" s="6" t="s">
-        <v>2199</v>
+        <v>2172</v>
       </c>
       <c r="G599" s="3" t="s">
-        <v>1784</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B600" t="b">
+        <v>1</v>
+      </c>
+      <c r="C600" t="b">
+        <v>1</v>
+      </c>
+      <c r="E600" t="s">
+        <v>2166</v>
+      </c>
+      <c r="F600" s="6" t="s">
+        <v>2167</v>
+      </c>
+      <c r="G600" t="s">
         <v>2189</v>
-      </c>
-      <c r="B600" t="b">
-        <v>1</v>
-      </c>
-      <c r="C600" t="b">
-        <v>1</v>
-      </c>
-      <c r="E600" t="s">
-        <v>2193</v>
-      </c>
-      <c r="F600" s="6" t="s">
-        <v>2194</v>
-      </c>
-      <c r="G600" t="s">
-        <v>2216</v>
       </c>
     </row>
     <row r="601" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A601" s="3" t="s">
-        <v>2204</v>
+        <v>2177</v>
       </c>
       <c r="B601" s="3" t="b">
         <v>1</v>
@@ -19941,18 +19937,18 @@
         <v>1</v>
       </c>
       <c r="E601" s="3" t="s">
-        <v>2208</v>
+        <v>2181</v>
       </c>
       <c r="F601" s="6" t="s">
-        <v>2212</v>
+        <v>2185</v>
       </c>
       <c r="G601" s="3" t="s">
-        <v>2217</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="602" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A602" s="3" t="s">
-        <v>2205</v>
+        <v>2178</v>
       </c>
       <c r="B602" s="3" t="b">
         <v>1</v>
@@ -19961,18 +19957,18 @@
         <v>1</v>
       </c>
       <c r="E602" s="3" t="s">
-        <v>2209</v>
+        <v>2182</v>
       </c>
       <c r="F602" s="6" t="s">
-        <v>2213</v>
+        <v>2186</v>
       </c>
       <c r="G602" s="3" t="s">
-        <v>2218</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="603" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A603" s="3" t="s">
-        <v>2206</v>
+        <v>2179</v>
       </c>
       <c r="B603" s="3" t="b">
         <v>1</v>
@@ -19981,18 +19977,18 @@
         <v>1</v>
       </c>
       <c r="E603" s="3" t="s">
-        <v>2210</v>
+        <v>2183</v>
       </c>
       <c r="F603" s="6" t="s">
-        <v>2214</v>
+        <v>2187</v>
       </c>
       <c r="G603" s="3" t="s">
-        <v>2219</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="604" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A604" s="3" t="s">
-        <v>2207</v>
+        <v>2180</v>
       </c>
       <c r="B604" s="3" t="b">
         <v>1</v>
@@ -20001,18 +19997,18 @@
         <v>1</v>
       </c>
       <c r="E604" s="3" t="s">
-        <v>2211</v>
+        <v>2184</v>
       </c>
       <c r="F604" s="6" t="s">
-        <v>2215</v>
+        <v>2188</v>
       </c>
       <c r="G604" s="3" t="s">
-        <v>2220</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="605" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>2191</v>
+        <v>2164</v>
       </c>
       <c r="B605" t="b">
         <v>1</v>
@@ -20021,18 +20017,18 @@
         <v>1</v>
       </c>
       <c r="E605" t="s">
-        <v>2192</v>
+        <v>2165</v>
       </c>
       <c r="F605" s="6" t="s">
-        <v>2200</v>
+        <v>2173</v>
       </c>
       <c r="G605" t="s">
-        <v>2221</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="606" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>2201</v>
+        <v>2174</v>
       </c>
       <c r="B606" t="b">
         <v>1</v>
@@ -20041,18 +20037,18 @@
         <v>1</v>
       </c>
       <c r="E606" t="s">
-        <v>2202</v>
+        <v>2175</v>
       </c>
       <c r="F606" s="6" t="s">
-        <v>2203</v>
+        <v>2176</v>
       </c>
       <c r="G606" t="s">
-        <v>2222</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>2223</v>
+        <v>2196</v>
       </c>
       <c r="B607" t="b">
         <v>1</v>
@@ -20061,18 +20057,18 @@
         <v>1</v>
       </c>
       <c r="E607" t="s">
-        <v>2226</v>
+        <v>2199</v>
       </c>
       <c r="F607" s="6" t="s">
-        <v>2229</v>
+        <v>2202</v>
       </c>
       <c r="G607" t="s">
-        <v>2232</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="608" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>2224</v>
+        <v>2197</v>
       </c>
       <c r="B608" s="3" t="b">
         <v>1</v>
@@ -20081,18 +20077,18 @@
         <v>1</v>
       </c>
       <c r="E608" t="s">
-        <v>2227</v>
+        <v>2200</v>
       </c>
       <c r="F608" s="6" t="s">
-        <v>2230</v>
+        <v>2203</v>
       </c>
       <c r="G608" t="s">
-        <v>2233</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>2225</v>
+        <v>2198</v>
       </c>
       <c r="B609" s="3" t="b">
         <v>1</v>
@@ -20101,18 +20097,18 @@
         <v>1</v>
       </c>
       <c r="E609" t="s">
-        <v>2228</v>
+        <v>2201</v>
       </c>
       <c r="F609" s="6" t="s">
-        <v>2231</v>
+        <v>2204</v>
       </c>
       <c r="G609" t="s">
-        <v>2234</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>2241</v>
+        <v>2214</v>
       </c>
       <c r="B610" s="3" t="b">
         <v>1</v>
@@ -20121,18 +20117,18 @@
         <v>1</v>
       </c>
       <c r="E610" t="s">
-        <v>2242</v>
+        <v>2215</v>
       </c>
       <c r="F610" s="6" t="s">
-        <v>2243</v>
+        <v>2216</v>
       </c>
       <c r="G610" t="s">
-        <v>2244</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>2245</v>
+        <v>2218</v>
       </c>
       <c r="B611" t="b">
         <v>1</v>
@@ -20141,18 +20137,18 @@
         <v>1</v>
       </c>
       <c r="E611" t="s">
-        <v>2246</v>
+        <v>2219</v>
       </c>
       <c r="F611" s="6" t="s">
-        <v>2247</v>
+        <v>2220</v>
       </c>
       <c r="G611" t="s">
-        <v>2266</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>2248</v>
+        <v>2221</v>
       </c>
       <c r="B612" s="3" t="b">
         <v>1</v>
@@ -20161,18 +20157,18 @@
         <v>1</v>
       </c>
       <c r="E612" t="s">
-        <v>2254</v>
+        <v>2227</v>
       </c>
       <c r="F612" s="6" t="s">
-        <v>2260</v>
+        <v>2233</v>
       </c>
       <c r="G612" t="s">
-        <v>2267</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>2249</v>
+        <v>2222</v>
       </c>
       <c r="B613" s="3" t="b">
         <v>1</v>
@@ -20181,18 +20177,18 @@
         <v>1</v>
       </c>
       <c r="E613" t="s">
-        <v>2258</v>
+        <v>2231</v>
       </c>
       <c r="F613" s="6" t="s">
-        <v>2261</v>
+        <v>2234</v>
       </c>
       <c r="G613" t="s">
-        <v>2268</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="614" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>2250</v>
+        <v>2223</v>
       </c>
       <c r="B614" s="3" t="b">
         <v>1</v>
@@ -20201,18 +20197,18 @@
         <v>1</v>
       </c>
       <c r="E614" s="3" t="s">
-        <v>2255</v>
+        <v>2228</v>
       </c>
       <c r="F614" s="6" t="s">
-        <v>2262</v>
+        <v>2235</v>
       </c>
       <c r="G614" t="s">
-        <v>2269</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>2251</v>
+        <v>2224</v>
       </c>
       <c r="B615" s="3" t="b">
         <v>1</v>
@@ -20221,18 +20217,18 @@
         <v>1</v>
       </c>
       <c r="E615" s="3" t="s">
-        <v>2256</v>
+        <v>2229</v>
       </c>
       <c r="F615" s="6" t="s">
-        <v>2263</v>
+        <v>2236</v>
       </c>
       <c r="G615" t="s">
-        <v>2270</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>2252</v>
+        <v>2225</v>
       </c>
       <c r="B616" s="3" t="b">
         <v>1</v>
@@ -20241,18 +20237,18 @@
         <v>1</v>
       </c>
       <c r="E616" s="3" t="s">
-        <v>2257</v>
+        <v>2230</v>
       </c>
       <c r="F616" s="6" t="s">
-        <v>2264</v>
+        <v>2237</v>
       </c>
       <c r="G616" t="s">
-        <v>2271</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>2253</v>
+        <v>2226</v>
       </c>
       <c r="B617" s="3" t="b">
         <v>1</v>
@@ -20261,18 +20257,18 @@
         <v>1</v>
       </c>
       <c r="E617" s="3" t="s">
-        <v>2259</v>
+        <v>2232</v>
       </c>
       <c r="F617" s="6" t="s">
-        <v>2265</v>
+        <v>2238</v>
       </c>
       <c r="G617" t="s">
-        <v>2272</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A618" s="3" t="s">
-        <v>1733</v>
+        <v>1707</v>
       </c>
       <c r="B618" s="3" t="b">
         <v>1</v>
@@ -20282,18 +20278,18 @@
       </c>
       <c r="D618" s="3"/>
       <c r="E618" s="3" t="s">
-        <v>1733</v>
+        <v>1707</v>
       </c>
       <c r="F618" s="6" t="s">
-        <v>2077</v>
+        <v>2050</v>
       </c>
       <c r="G618" s="3" t="s">
-        <v>1785</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="619" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A619" s="3" t="s">
-        <v>2075</v>
+        <v>2048</v>
       </c>
       <c r="B619" s="3" t="b">
         <v>1</v>
@@ -20303,13 +20299,13 @@
       </c>
       <c r="D619" s="3"/>
       <c r="E619" s="3" t="s">
-        <v>2075</v>
+        <v>2048</v>
       </c>
       <c r="F619" s="6" t="s">
-        <v>2076</v>
+        <v>2049</v>
       </c>
       <c r="G619" s="3" t="s">
-        <v>1785</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="620" spans="1:7" x14ac:dyDescent="0.25">
@@ -20397,7 +20393,7 @@
     </row>
     <row r="624" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A624" s="3" t="s">
-        <v>2181</v>
+        <v>2154</v>
       </c>
       <c r="B624" s="3" t="b">
         <v>1</v>
@@ -20406,7 +20402,7 @@
         <v>1</v>
       </c>
       <c r="E624" s="3" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="F624" s="6" t="s">
         <v>832</v>
@@ -20417,7 +20413,7 @@
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625" s="3" t="s">
-        <v>2182</v>
+        <v>2155</v>
       </c>
       <c r="B625" s="3" t="b">
         <v>1</v>
@@ -20427,7 +20423,7 @@
       </c>
       <c r="D625" s="3"/>
       <c r="E625" s="3" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="F625" s="6" t="s">
         <v>833</v>
@@ -20438,7 +20434,7 @@
     </row>
     <row r="626" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A626" s="3" t="s">
-        <v>2183</v>
+        <v>2156</v>
       </c>
       <c r="B626" s="3" t="b">
         <v>1</v>
@@ -20447,7 +20443,7 @@
         <v>1</v>
       </c>
       <c r="E626" s="3" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="F626" s="6" t="s">
         <v>834</v>
@@ -20458,7 +20454,7 @@
     </row>
     <row r="627" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A627" s="3" t="s">
-        <v>2184</v>
+        <v>2157</v>
       </c>
       <c r="B627" s="3" t="b">
         <v>1</v>
@@ -20467,7 +20463,7 @@
         <v>1</v>
       </c>
       <c r="E627" s="3" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="F627" s="6" t="s">
         <v>835</v>
@@ -20478,7 +20474,7 @@
     </row>
     <row r="628" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A628" s="3" t="s">
-        <v>2185</v>
+        <v>2158</v>
       </c>
       <c r="B628" s="3" t="b">
         <v>1</v>
@@ -20487,13 +20483,13 @@
         <v>1</v>
       </c>
       <c r="E628" s="3" t="s">
-        <v>2186</v>
+        <v>2159</v>
       </c>
       <c r="F628" s="6" t="s">
-        <v>2187</v>
+        <v>2160</v>
       </c>
       <c r="G628" s="3" t="s">
-        <v>2188</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="629" spans="1:7" x14ac:dyDescent="0.25">
@@ -20540,7 +20536,7 @@
     </row>
     <row r="631" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>2273</v>
+        <v>2246</v>
       </c>
       <c r="B631" s="3" t="b">
         <v>1</v>
@@ -20549,18 +20545,18 @@
         <v>1</v>
       </c>
       <c r="E631" t="s">
-        <v>1739</v>
+        <v>1713</v>
       </c>
       <c r="F631" s="6" t="s">
-        <v>2278</v>
+        <v>2251</v>
       </c>
       <c r="G631" t="s">
-        <v>1787</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>2274</v>
+        <v>2247</v>
       </c>
       <c r="B632" s="3" t="b">
         <v>1</v>
@@ -20572,7 +20568,7 @@
         <v>422</v>
       </c>
       <c r="F632" s="6" t="s">
-        <v>1751</v>
+        <v>1725</v>
       </c>
       <c r="G632" t="s">
         <v>1357</v>
@@ -20580,7 +20576,7 @@
     </row>
     <row r="633" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A633" s="3" t="s">
-        <v>2275</v>
+        <v>2248</v>
       </c>
       <c r="B633" s="3" t="b">
         <v>1</v>
@@ -20592,7 +20588,7 @@
         <v>428</v>
       </c>
       <c r="F633" s="6" t="s">
-        <v>2279</v>
+        <v>2252</v>
       </c>
       <c r="G633" t="s">
         <v>1359</v>
@@ -20600,7 +20596,7 @@
     </row>
     <row r="634" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A634" s="3" t="s">
-        <v>2276</v>
+        <v>2249</v>
       </c>
       <c r="B634" s="3" t="b">
         <v>1</v>
@@ -20612,7 +20608,7 @@
         <v>443</v>
       </c>
       <c r="F634" s="6" t="s">
-        <v>1747</v>
+        <v>1721</v>
       </c>
       <c r="G634" t="s">
         <v>1364</v>
@@ -20620,7 +20616,7 @@
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>2277</v>
+        <v>2250</v>
       </c>
       <c r="B635" s="3" t="b">
         <v>1</v>
@@ -20632,7 +20628,7 @@
         <v>434</v>
       </c>
       <c r="F635" s="6" t="s">
-        <v>1750</v>
+        <v>1724</v>
       </c>
       <c r="G635" t="s">
         <v>1361</v>
@@ -20640,7 +20636,7 @@
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>2280</v>
+        <v>2253</v>
       </c>
       <c r="B636" s="3" t="b">
         <v>1</v>
@@ -20649,18 +20645,18 @@
         <v>1</v>
       </c>
       <c r="E636" t="s">
-        <v>2282</v>
+        <v>2255</v>
       </c>
       <c r="F636" s="6" t="s">
-        <v>2284</v>
+        <v>2257</v>
       </c>
       <c r="G636" t="s">
-        <v>2286</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="637" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>2281</v>
+        <v>2254</v>
       </c>
       <c r="B637" s="3" t="b">
         <v>1</v>
@@ -20669,18 +20665,18 @@
         <v>1</v>
       </c>
       <c r="E637" t="s">
-        <v>2283</v>
+        <v>2256</v>
       </c>
       <c r="F637" s="6" t="s">
-        <v>2285</v>
+        <v>2258</v>
       </c>
       <c r="G637" t="s">
-        <v>2287</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="638" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>2288</v>
+        <v>2261</v>
       </c>
       <c r="B638" t="b">
         <v>1</v>
@@ -20689,18 +20685,18 @@
         <v>1</v>
       </c>
       <c r="E638" t="s">
-        <v>2289</v>
+        <v>2262</v>
       </c>
       <c r="F638" s="6" t="s">
-        <v>2290</v>
+        <v>2263</v>
       </c>
       <c r="G638" t="s">
-        <v>2291</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="639" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>2056</v>
+        <v>2029</v>
       </c>
       <c r="B639" t="b">
         <v>1</v>
@@ -20709,18 +20705,18 @@
         <v>1</v>
       </c>
       <c r="E639" t="s">
-        <v>2056</v>
+        <v>2029</v>
       </c>
       <c r="F639" s="6" t="s">
-        <v>2057</v>
+        <v>2030</v>
       </c>
       <c r="G639" s="3" t="s">
-        <v>2058</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="640" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>2301</v>
+        <v>2274</v>
       </c>
       <c r="B640" t="b">
         <v>0</v>
@@ -20729,21 +20725,21 @@
         <v>1</v>
       </c>
       <c r="D640" t="s">
-        <v>2306</v>
+        <v>2279</v>
       </c>
       <c r="E640" t="s">
-        <v>2301</v>
+        <v>2274</v>
       </c>
       <c r="F640" s="6" t="s">
-        <v>2304</v>
+        <v>2277</v>
       </c>
       <c r="G640" t="s">
-        <v>2307</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="641" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>2302</v>
+        <v>2275</v>
       </c>
       <c r="B641" t="b">
         <v>0</v>
@@ -20752,21 +20748,21 @@
         <v>1</v>
       </c>
       <c r="D641" t="s">
-        <v>2306</v>
+        <v>2279</v>
       </c>
       <c r="E641" t="s">
-        <v>2303</v>
+        <v>2276</v>
       </c>
       <c r="F641" s="6" t="s">
-        <v>2305</v>
+        <v>2278</v>
       </c>
       <c r="G641" t="s">
-        <v>2308</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>2314</v>
+        <v>2287</v>
       </c>
       <c r="B642" t="b">
         <v>1</v>
@@ -20775,18 +20771,18 @@
         <v>1</v>
       </c>
       <c r="E642" t="s">
-        <v>2312</v>
+        <v>2285</v>
       </c>
       <c r="F642" s="6" t="s">
-        <v>2316</v>
+        <v>2289</v>
       </c>
       <c r="G642" t="s">
-        <v>2317</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="643" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A643" s="3" t="s">
-        <v>2309</v>
+        <v>2282</v>
       </c>
       <c r="B643" t="b">
         <v>1</v>
@@ -20795,18 +20791,18 @@
         <v>1</v>
       </c>
       <c r="E643" t="s">
-        <v>2313</v>
+        <v>2286</v>
       </c>
       <c r="F643" s="6" t="s">
-        <v>2315</v>
+        <v>2288</v>
       </c>
       <c r="G643" t="s">
-        <v>2317</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="644" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A644" s="3" t="s">
-        <v>2310</v>
+        <v>2283</v>
       </c>
       <c r="B644" s="3" t="b">
         <v>1</v>
@@ -20826,7 +20822,7 @@
     </row>
     <row r="645" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A645" s="3" t="s">
-        <v>2311</v>
+        <v>2284</v>
       </c>
       <c r="B645" s="3" t="b">
         <v>1</v>

--- a/Translations/Translations.xlsx
+++ b/Translations/Translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\source\repos\BSharp\Translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB327047-9304-4B43-889A-0F3C45B38535}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAD711F-3504-41FD-916D-7F5F2900CCB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31995" yWindow="0" windowWidth="17790" windowHeight="14805" xr2:uid="{09F7BBB4-81EA-4503-B8DD-8985A501E98F}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Translations" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$G$521</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$G$532</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2587" uniqueCount="2317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2631" uniqueCount="2345">
   <si>
     <t>Key</t>
   </si>
@@ -5133,66 +5133,24 @@
     <t>مرجع إضافي</t>
   </si>
   <si>
-    <t>Related Resource</t>
-  </si>
-  <si>
-    <t>Related Account</t>
-  </si>
-  <si>
-    <t>Related Quantity</t>
-  </si>
-  <si>
-    <t>Related Money Amount</t>
-  </si>
-  <si>
-    <t>مورد ذو صلة</t>
-  </si>
-  <si>
-    <t>حساب ذو صلة</t>
-  </si>
-  <si>
-    <t>كمية ذات صلة</t>
-  </si>
-  <si>
-    <t>مبلغ نقدي ذو صلة</t>
-  </si>
-  <si>
     <t>Resource</t>
   </si>
   <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>IFRS Classification</t>
-  </si>
-  <si>
     <t>Responsibility Center</t>
   </si>
   <si>
-    <t>Batch Code</t>
-  </si>
-  <si>
     <t>Monetary Value</t>
   </si>
   <si>
     <t>الحساب</t>
   </si>
   <si>
-    <t>تصنيف (IFRS)</t>
-  </si>
-  <si>
     <t>مركز التكلفة</t>
   </si>
   <si>
     <t>المورد</t>
   </si>
   <si>
-    <t>رقم الوثقة</t>
-  </si>
-  <si>
     <t>المبلغ النقدي</t>
   </si>
   <si>
@@ -5202,12 +5160,6 @@
     <t>الحجم</t>
   </si>
   <si>
-    <t>المساحة</t>
-  </si>
-  <si>
-    <t>المسافة</t>
-  </si>
-  <si>
     <t>الزمن</t>
   </si>
   <si>
@@ -5289,42 +5241,18 @@
     <t>其他参考</t>
   </si>
   <si>
-    <t>相关资源</t>
-  </si>
-  <si>
-    <t>相关帐户</t>
-  </si>
-  <si>
-    <t>相关产品数量</t>
-  </si>
-  <si>
-    <t>相关金额</t>
-  </si>
-  <si>
     <t>帐户</t>
   </si>
   <si>
-    <t>国际财务报告准则分类</t>
-  </si>
-  <si>
     <t>责任中心</t>
   </si>
   <si>
     <t>资源</t>
   </si>
   <si>
-    <t>批号</t>
-  </si>
-  <si>
     <t>货币价值</t>
   </si>
   <si>
-    <t>区域</t>
-  </si>
-  <si>
-    <t>长度</t>
-  </si>
-  <si>
     <t>Error_The01IsUsedInOneOrMoreAccounts</t>
   </si>
   <si>
@@ -5505,6 +5433,9 @@
     <t>حسابات</t>
   </si>
   <si>
+    <t>الذمة</t>
+  </si>
+  <si>
     <t>帐号</t>
   </si>
   <si>
@@ -6915,24 +6846,9 @@
     <t>Line_AdditionalReference</t>
   </si>
   <si>
-    <t>Line_RelatedResource</t>
-  </si>
-  <si>
-    <t>Line_RelatedAccount</t>
-  </si>
-  <si>
-    <t>Line_RelatedQuantity</t>
-  </si>
-  <si>
-    <t>Line_RelatedMoneyAmount</t>
-  </si>
-  <si>
     <t>Entry_Account</t>
   </si>
   <si>
-    <t>Entry_IfrsEntryClassification</t>
-  </si>
-  <si>
     <t>Entry_Agent</t>
   </si>
   <si>
@@ -6942,9 +6858,6 @@
     <t>Entry_Resource</t>
   </si>
   <si>
-    <t>Entry_BatchCode</t>
-  </si>
-  <si>
     <t>Entry_MonetaryValue</t>
   </si>
   <si>
@@ -6954,12 +6867,6 @@
     <t>Entry_Volume</t>
   </si>
   <si>
-    <t>Entry_Area</t>
-  </si>
-  <si>
-    <t>Entry_Length</t>
-  </si>
-  <si>
     <t>Entry_Time</t>
   </si>
   <si>
@@ -6985,6 +6892,183 @@
   </si>
   <si>
     <t>مقفل</t>
+  </si>
+  <si>
+    <t>Line_Currency</t>
+  </si>
+  <si>
+    <t>Line_Agent</t>
+  </si>
+  <si>
+    <t>Line_Resource</t>
+  </si>
+  <si>
+    <t>Line_Amount</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>المبلغ</t>
+  </si>
+  <si>
+    <t>Entry_ContractType</t>
+  </si>
+  <si>
+    <t>Contract Type</t>
+  </si>
+  <si>
+    <t>نوع العقد</t>
+  </si>
+  <si>
+    <t>合同类型</t>
+  </si>
+  <si>
+    <t>量</t>
+  </si>
+  <si>
+    <t>Entry_IsCurrent</t>
+  </si>
+  <si>
+    <t>Is Current</t>
+  </si>
+  <si>
+    <t>جار</t>
+  </si>
+  <si>
+    <t>是当前的</t>
+  </si>
+  <si>
+    <t>Entry_AccountIdentifier</t>
+  </si>
+  <si>
+    <t>Account Identifier</t>
+  </si>
+  <si>
+    <t>Entry_ResourceIdentifier</t>
+  </si>
+  <si>
+    <t>Resource Identifier</t>
+  </si>
+  <si>
+    <t>رقم تعريف الحساب</t>
+  </si>
+  <si>
+    <t>رقم تعريف المورد</t>
+  </si>
+  <si>
+    <t>Entry_Currency</t>
+  </si>
+  <si>
+    <t>Entry_EntryClassification</t>
+  </si>
+  <si>
+    <t>تصيف السطر</t>
+  </si>
+  <si>
+    <t>条目分类</t>
+  </si>
+  <si>
+    <t>Entry_DueDate</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>تاريخ الاستحقاق</t>
+  </si>
+  <si>
+    <t>Entry_ExternalReference</t>
+  </si>
+  <si>
+    <t>Entry_AdditionalReference</t>
+  </si>
+  <si>
+    <t>Entry_RelatedAgent</t>
+  </si>
+  <si>
+    <t>Entry_RelatedAgentName</t>
+  </si>
+  <si>
+    <t>Entry_RelatedAmount</t>
+  </si>
+  <si>
+    <t>Entry_RelatedDate</t>
+  </si>
+  <si>
+    <t>Entry_Time1</t>
+  </si>
+  <si>
+    <t>Entry_Time2</t>
+  </si>
+  <si>
+    <t>Related Agent</t>
+  </si>
+  <si>
+    <t>Related Amount</t>
+  </si>
+  <si>
+    <t>Related Date</t>
+  </si>
+  <si>
+    <t>Related Agent Name</t>
+  </si>
+  <si>
+    <t>Time 1</t>
+  </si>
+  <si>
+    <t>Time 2</t>
+  </si>
+  <si>
+    <t>المرجع الخارجي</t>
+  </si>
+  <si>
+    <t>المرجع الإضافي</t>
+  </si>
+  <si>
+    <t>الذمة المتعلقة</t>
+  </si>
+  <si>
+    <t>اسم الذمة المتعلقة</t>
+  </si>
+  <si>
+    <t>المبلغ المتعلق</t>
+  </si>
+  <si>
+    <t>التاريخ المتعلق</t>
+  </si>
+  <si>
+    <t>الزمن 1</t>
+  </si>
+  <si>
+    <t>الزمن 2</t>
+  </si>
+  <si>
+    <t>帐户标识符</t>
+  </si>
+  <si>
+    <t>资源标识符</t>
+  </si>
+  <si>
+    <t>截止日期</t>
+  </si>
+  <si>
+    <t>相关代理</t>
+  </si>
+  <si>
+    <t>相关代理机构名称</t>
+  </si>
+  <si>
+    <t>关联量</t>
+  </si>
+  <si>
+    <t>相关日期</t>
+  </si>
+  <si>
+    <t>时间1</t>
+  </si>
+  <si>
+    <t>时间2</t>
   </si>
 </sst>
 </file>
@@ -7390,12 +7474,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FEE134-3B22-427F-8E5A-2A7F994BE2AC}">
-  <dimension ref="A1:G645"/>
+  <dimension ref="A1:G656"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A397" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A428" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A452" sqref="A452"/>
+      <selection pane="bottomLeft" activeCell="F480" sqref="F480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9358,7 +9442,7 @@
         <v>162</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>1729</v>
+        <v>1713</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>1268</v>
@@ -10017,7 +10101,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>1763</v>
+        <v>1739</v>
       </c>
       <c r="B125" s="3" t="b">
         <v>1</v>
@@ -10027,13 +10111,13 @@
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="3" t="s">
-        <v>1764</v>
+        <v>1740</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>1765</v>
+        <v>1741</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>1766</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -10101,7 +10185,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>2208</v>
+        <v>2185</v>
       </c>
       <c r="B129" s="3" t="b">
         <v>1</v>
@@ -10111,13 +10195,13 @@
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="3" t="s">
-        <v>2209</v>
+        <v>2186</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>2211</v>
+        <v>2188</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>2210</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -14637,7 +14721,7 @@
     </row>
     <row r="345" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
-        <v>2266</v>
+        <v>2243</v>
       </c>
       <c r="B345" s="3" t="b">
         <v>1</v>
@@ -14646,13 +14730,13 @@
         <v>1</v>
       </c>
       <c r="E345" s="3" t="s">
-        <v>2267</v>
+        <v>2244</v>
       </c>
       <c r="F345" s="6" t="s">
-        <v>2269</v>
+        <v>2246</v>
       </c>
       <c r="G345" s="3" t="s">
-        <v>2268</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
@@ -15906,7 +15990,7 @@
       </c>
       <c r="D405" s="3"/>
       <c r="E405" s="3" t="s">
-        <v>2265</v>
+        <v>2242</v>
       </c>
       <c r="F405" s="6" t="s">
         <v>1198</v>
@@ -16043,7 +16127,7 @@
     </row>
     <row r="412" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A412" s="3" t="s">
-        <v>2212</v>
+        <v>2189</v>
       </c>
       <c r="B412" s="3" t="b">
         <v>1</v>
@@ -16667,7 +16751,7 @@
         <v>1644</v>
       </c>
       <c r="G441" s="3" t="s">
-        <v>1730</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
@@ -16688,7 +16772,7 @@
         <v>1646</v>
       </c>
       <c r="G442" s="3" t="s">
-        <v>1731</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
@@ -16730,7 +16814,7 @@
         <v>1146</v>
       </c>
       <c r="G444" s="3" t="s">
-        <v>1732</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
@@ -16751,7 +16835,7 @@
         <v>1665</v>
       </c>
       <c r="G445" s="3" t="s">
-        <v>1733</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
@@ -16772,7 +16856,7 @@
         <v>1672</v>
       </c>
       <c r="G446" s="3" t="s">
-        <v>1734</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
@@ -16793,7 +16877,7 @@
         <v>1666</v>
       </c>
       <c r="G447" s="3" t="s">
-        <v>1735</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
@@ -16814,7 +16898,7 @@
         <v>1667</v>
       </c>
       <c r="G448" s="3" t="s">
-        <v>1736</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
@@ -16835,7 +16919,7 @@
         <v>1668</v>
       </c>
       <c r="G449" s="3" t="s">
-        <v>1737</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
@@ -16856,7 +16940,7 @@
         <v>1669</v>
       </c>
       <c r="G450" s="3" t="s">
-        <v>1738</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
@@ -16877,12 +16961,12 @@
         <v>1670</v>
       </c>
       <c r="G451" s="3" t="s">
-        <v>1739</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="3" t="s">
-        <v>2311</v>
+        <v>2280</v>
       </c>
       <c r="B452" s="3" t="b">
         <v>1</v>
@@ -16892,18 +16976,18 @@
       </c>
       <c r="D452" s="3"/>
       <c r="E452" s="3" t="s">
-        <v>2312</v>
+        <v>2281</v>
       </c>
       <c r="F452" s="6" t="s">
-        <v>2313</v>
+        <v>2282</v>
       </c>
       <c r="G452" s="3" t="s">
-        <v>1740</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="453" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A453" s="3" t="s">
-        <v>2314</v>
+        <v>2283</v>
       </c>
       <c r="B453" s="3" t="b">
         <v>1</v>
@@ -16912,13 +16996,13 @@
         <v>1</v>
       </c>
       <c r="E453" s="3" t="s">
-        <v>2315</v>
+        <v>2284</v>
       </c>
       <c r="F453" s="6" t="s">
-        <v>2316</v>
+        <v>2285</v>
       </c>
       <c r="G453" s="3" t="s">
-        <v>1861</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
@@ -16939,7 +17023,7 @@
         <v>1675</v>
       </c>
       <c r="G454" s="3" t="s">
-        <v>1741</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
@@ -16960,7 +17044,7 @@
         <v>1677</v>
       </c>
       <c r="G455" s="3" t="s">
-        <v>1742</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
@@ -16981,7 +17065,7 @@
         <v>832</v>
       </c>
       <c r="G456" s="3" t="s">
-        <v>1743</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
@@ -17002,7 +17086,7 @@
         <v>833</v>
       </c>
       <c r="G457" s="3" t="s">
-        <v>1744</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
@@ -17023,7 +17107,7 @@
         <v>834</v>
       </c>
       <c r="G458" s="3" t="s">
-        <v>1745</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
@@ -17044,7 +17128,7 @@
         <v>1690</v>
       </c>
       <c r="G459" s="3" t="s">
-        <v>1746</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
@@ -17065,7 +17149,7 @@
         <v>1691</v>
       </c>
       <c r="G460" s="3" t="s">
-        <v>1747</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
@@ -17086,12 +17170,12 @@
         <v>1694</v>
       </c>
       <c r="G461" s="3" t="s">
-        <v>1748</v>
-      </c>
-    </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A462" s="3" t="s">
-        <v>2291</v>
+        <v>2286</v>
       </c>
       <c r="B462" s="3" t="b">
         <v>1</v>
@@ -17099,20 +17183,19 @@
       <c r="C462" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D462" s="3"/>
       <c r="E462" s="3" t="s">
-        <v>1695</v>
+        <v>809</v>
       </c>
       <c r="F462" s="6" t="s">
-        <v>1697</v>
+        <v>819</v>
       </c>
       <c r="G462" s="3" t="s">
-        <v>1749</v>
-      </c>
-    </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A463" s="3" t="s">
-        <v>2292</v>
+        <v>2287</v>
       </c>
       <c r="B463" s="3" t="b">
         <v>1</v>
@@ -17120,20 +17203,19 @@
       <c r="C463" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D463" s="3"/>
       <c r="E463" s="3" t="s">
-        <v>1696</v>
+        <v>23</v>
       </c>
       <c r="F463" s="6" t="s">
-        <v>1698</v>
+        <v>1799</v>
       </c>
       <c r="G463" s="3" t="s">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A464" s="3" t="s">
-        <v>2293</v>
+        <v>2288</v>
       </c>
       <c r="B464" s="3" t="b">
         <v>1</v>
@@ -17141,20 +17223,19 @@
       <c r="C464" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D464" s="3"/>
       <c r="E464" s="3" t="s">
         <v>1699</v>
       </c>
       <c r="F464" s="6" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="G464" s="3" t="s">
-        <v>1751</v>
-      </c>
-    </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A465" s="3" t="s">
-        <v>2294</v>
+        <v>2289</v>
       </c>
       <c r="B465" s="3" t="b">
         <v>1</v>
@@ -17162,20 +17243,19 @@
       <c r="C465" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D465" s="3"/>
       <c r="E465" s="3" t="s">
-        <v>1700</v>
+        <v>2290</v>
       </c>
       <c r="F465" s="6" t="s">
-        <v>1704</v>
+        <v>2291</v>
       </c>
       <c r="G465" s="3" t="s">
-        <v>1752</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="3" t="s">
-        <v>2295</v>
+        <v>2268</v>
       </c>
       <c r="B466" s="3" t="b">
         <v>1</v>
@@ -17185,18 +17265,18 @@
       </c>
       <c r="D466" s="3"/>
       <c r="E466" s="3" t="s">
-        <v>1701</v>
+        <v>1695</v>
       </c>
       <c r="F466" s="6" t="s">
-        <v>1705</v>
+        <v>1697</v>
       </c>
       <c r="G466" s="3" t="s">
-        <v>1753</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="3" t="s">
-        <v>2296</v>
+        <v>2269</v>
       </c>
       <c r="B467" s="3" t="b">
         <v>1</v>
@@ -17206,18 +17286,18 @@
       </c>
       <c r="D467" s="3"/>
       <c r="E467" s="3" t="s">
-        <v>1702</v>
+        <v>1696</v>
       </c>
       <c r="F467" s="6" t="s">
-        <v>1706</v>
+        <v>1698</v>
       </c>
       <c r="G467" s="3" t="s">
-        <v>1754</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="3" t="s">
-        <v>2297</v>
+        <v>2270</v>
       </c>
       <c r="B468" s="3" t="b">
         <v>1</v>
@@ -17230,36 +17310,35 @@
         <v>1630</v>
       </c>
       <c r="F468" s="6" t="s">
-        <v>1714</v>
+        <v>1702</v>
       </c>
       <c r="G468" s="3" t="s">
-        <v>1755</v>
-      </c>
-    </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A469" s="3" t="s">
+        <v>2297</v>
+      </c>
+      <c r="B469" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C469" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E469" s="3" t="s">
         <v>2298</v>
       </c>
-      <c r="B469" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C469" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D469" s="3"/>
-      <c r="E469" s="3" t="s">
-        <v>1710</v>
-      </c>
       <c r="F469" s="6" t="s">
-        <v>1715</v>
+        <v>2299</v>
       </c>
       <c r="G469" s="3" t="s">
-        <v>1756</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="3" t="s">
-        <v>2299</v>
+        <v>2308</v>
       </c>
       <c r="B470" s="3" t="b">
         <v>1</v>
@@ -17269,18 +17348,18 @@
       </c>
       <c r="D470" s="3"/>
       <c r="E470" s="3" t="s">
-        <v>23</v>
+        <v>2262</v>
       </c>
       <c r="F470" s="6" t="s">
-        <v>696</v>
+        <v>2309</v>
       </c>
       <c r="G470" s="3" t="s">
-        <v>1221</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="3" t="s">
-        <v>2300</v>
+        <v>2271</v>
       </c>
       <c r="B471" s="3" t="b">
         <v>1</v>
@@ -17290,18 +17369,18 @@
       </c>
       <c r="D471" s="3"/>
       <c r="E471" s="3" t="s">
-        <v>1711</v>
+        <v>23</v>
       </c>
       <c r="F471" s="6" t="s">
-        <v>1716</v>
+        <v>696</v>
       </c>
       <c r="G471" s="3" t="s">
-        <v>1757</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="3" t="s">
-        <v>2301</v>
+        <v>2272</v>
       </c>
       <c r="B472" s="3" t="b">
         <v>1</v>
@@ -17311,37 +17390,36 @@
       </c>
       <c r="D472" s="3"/>
       <c r="E472" s="3" t="s">
-        <v>1707</v>
+        <v>1700</v>
       </c>
       <c r="F472" s="6" t="s">
-        <v>1717</v>
+        <v>1703</v>
       </c>
       <c r="G472" s="3" t="s">
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A473" s="3" t="s">
+        <v>2301</v>
+      </c>
+      <c r="B473" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C473" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E473" s="3" t="s">
         <v>2302</v>
       </c>
-      <c r="B473" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C473" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D473" s="3"/>
-      <c r="E473" s="3" t="s">
-        <v>1712</v>
-      </c>
       <c r="F473" s="6" t="s">
-        <v>1718</v>
+        <v>2305</v>
       </c>
       <c r="G473" s="3" t="s">
-        <v>1759</v>
-      </c>
-    </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A474" s="3" t="s">
         <v>2303</v>
       </c>
@@ -17351,20 +17429,19 @@
       <c r="C474" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D474" s="3"/>
       <c r="E474" s="3" t="s">
-        <v>1713</v>
+        <v>2304</v>
       </c>
       <c r="F474" s="6" t="s">
-        <v>1719</v>
+        <v>2306</v>
       </c>
       <c r="G474" s="3" t="s">
-        <v>1760</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="3" t="s">
-        <v>2304</v>
+        <v>2273</v>
       </c>
       <c r="B475" s="3" t="b">
         <v>1</v>
@@ -17374,18 +17451,18 @@
       </c>
       <c r="D475" s="3"/>
       <c r="E475" s="3" t="s">
-        <v>428</v>
+        <v>1699</v>
       </c>
       <c r="F475" s="6" t="s">
-        <v>1720</v>
+        <v>1704</v>
       </c>
       <c r="G475" s="3" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A476" s="3" t="s">
-        <v>2305</v>
+        <v>2307</v>
       </c>
       <c r="B476" s="3" t="b">
         <v>1</v>
@@ -17393,20 +17470,19 @@
       <c r="C476" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D476" s="3"/>
       <c r="E476" s="3" t="s">
-        <v>443</v>
+        <v>809</v>
       </c>
       <c r="F476" s="6" t="s">
-        <v>1721</v>
+        <v>819</v>
       </c>
       <c r="G476" s="3" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A477" s="3" t="s">
-        <v>2306</v>
+        <v>2311</v>
       </c>
       <c r="B477" s="3" t="b">
         <v>1</v>
@@ -17414,20 +17490,19 @@
       <c r="C477" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D477" s="3"/>
       <c r="E477" s="3" t="s">
-        <v>1708</v>
+        <v>2312</v>
       </c>
       <c r="F477" s="6" t="s">
-        <v>1722</v>
+        <v>2313</v>
       </c>
       <c r="G477" s="3" t="s">
-        <v>1761</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="3" t="s">
-        <v>2307</v>
+        <v>2274</v>
       </c>
       <c r="B478" s="3" t="b">
         <v>1</v>
@@ -17437,18 +17512,18 @@
       </c>
       <c r="D478" s="3"/>
       <c r="E478" s="3" t="s">
-        <v>1709</v>
+        <v>1701</v>
       </c>
       <c r="F478" s="6" t="s">
-        <v>1723</v>
+        <v>1705</v>
       </c>
       <c r="G478" s="3" t="s">
-        <v>1762</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="3" t="s">
-        <v>2308</v>
+        <v>2275</v>
       </c>
       <c r="B479" s="3" t="b">
         <v>1</v>
@@ -17458,18 +17533,18 @@
       </c>
       <c r="D479" s="3"/>
       <c r="E479" s="3" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="F479" s="6" t="s">
-        <v>1724</v>
+        <v>1706</v>
       </c>
       <c r="G479" s="3" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="3" t="s">
-        <v>2309</v>
+        <v>2276</v>
       </c>
       <c r="B480" s="3" t="b">
         <v>1</v>
@@ -17479,18 +17554,18 @@
       </c>
       <c r="D480" s="3"/>
       <c r="E480" s="3" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="F480" s="6" t="s">
-        <v>1725</v>
+        <v>1707</v>
       </c>
       <c r="G480" s="3" t="s">
-        <v>1357</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="3" t="s">
-        <v>2310</v>
+        <v>2277</v>
       </c>
       <c r="B481" s="3" t="b">
         <v>1</v>
@@ -17500,18 +17575,18 @@
       </c>
       <c r="D481" s="3"/>
       <c r="E481" s="3" t="s">
-        <v>665</v>
+        <v>434</v>
       </c>
       <c r="F481" s="6" t="s">
-        <v>664</v>
+        <v>1708</v>
       </c>
       <c r="G481" s="3" t="s">
-        <v>1441</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="3" t="s">
-        <v>817</v>
+        <v>2278</v>
       </c>
       <c r="B482" s="3" t="b">
         <v>1</v>
@@ -17521,18 +17596,18 @@
       </c>
       <c r="D482" s="3"/>
       <c r="E482" s="3" t="s">
-        <v>817</v>
+        <v>422</v>
       </c>
       <c r="F482" s="6" t="s">
-        <v>1728</v>
+        <v>1709</v>
       </c>
       <c r="G482" s="3" t="s">
-        <v>1490</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="3" t="s">
-        <v>1726</v>
+        <v>2279</v>
       </c>
       <c r="B483" s="3" t="b">
         <v>1</v>
@@ -17542,18 +17617,18 @@
       </c>
       <c r="D483" s="3"/>
       <c r="E483" s="3" t="s">
-        <v>1726</v>
+        <v>665</v>
       </c>
       <c r="F483" s="6" t="s">
-        <v>1727</v>
+        <v>664</v>
       </c>
       <c r="G483" s="3" t="s">
-        <v>1490</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="484" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A484" s="3" t="s">
-        <v>2035</v>
+        <v>2314</v>
       </c>
       <c r="B484" s="3" t="b">
         <v>1</v>
@@ -17562,18 +17637,18 @@
         <v>1</v>
       </c>
       <c r="E484" s="3" t="s">
-        <v>2037</v>
+        <v>1695</v>
       </c>
       <c r="F484" s="6" t="s">
-        <v>2039</v>
+        <v>2328</v>
       </c>
       <c r="G484" s="3" t="s">
-        <v>2041</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="485" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A485" s="3" t="s">
-        <v>2036</v>
+        <v>2315</v>
       </c>
       <c r="B485" s="3" t="b">
         <v>1</v>
@@ -17582,18 +17657,18 @@
         <v>1</v>
       </c>
       <c r="E485" s="3" t="s">
-        <v>2038</v>
+        <v>1696</v>
       </c>
       <c r="F485" s="6" t="s">
-        <v>2040</v>
+        <v>2329</v>
       </c>
       <c r="G485" s="3" t="s">
-        <v>2041</v>
-      </c>
-    </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A486" s="3" t="s">
-        <v>2163</v>
+        <v>2316</v>
       </c>
       <c r="B486" s="3" t="b">
         <v>1</v>
@@ -17601,20 +17676,19 @@
       <c r="C486" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D486" s="3"/>
       <c r="E486" s="3" t="s">
-        <v>808</v>
+        <v>2322</v>
       </c>
       <c r="F486" s="6" t="s">
-        <v>807</v>
+        <v>2330</v>
       </c>
       <c r="G486" s="3" t="s">
-        <v>1487</v>
-      </c>
-    </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A487" s="3" t="s">
-        <v>1767</v>
+        <v>2317</v>
       </c>
       <c r="B487" s="3" t="b">
         <v>1</v>
@@ -17622,20 +17696,19 @@
       <c r="C487" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D487" s="3"/>
       <c r="E487" s="3" t="s">
-        <v>1772</v>
+        <v>2325</v>
       </c>
       <c r="F487" s="6" t="s">
-        <v>1773</v>
+        <v>2331</v>
       </c>
       <c r="G487" s="3" t="s">
-        <v>1776</v>
-      </c>
-    </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A488" s="3" t="s">
-        <v>1768</v>
+        <v>2318</v>
       </c>
       <c r="B488" s="3" t="b">
         <v>1</v>
@@ -17643,20 +17716,19 @@
       <c r="C488" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D488" s="3"/>
       <c r="E488" s="3" t="s">
-        <v>1771</v>
+        <v>2323</v>
       </c>
       <c r="F488" s="6" t="s">
-        <v>1774</v>
+        <v>2332</v>
       </c>
       <c r="G488" s="3" t="s">
-        <v>1776</v>
-      </c>
-    </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A489" s="3" t="s">
-        <v>1769</v>
+        <v>2319</v>
       </c>
       <c r="B489" s="3" t="b">
         <v>1</v>
@@ -17664,41 +17736,39 @@
       <c r="C489" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D489" s="3"/>
       <c r="E489" s="3" t="s">
-        <v>1770</v>
+        <v>2324</v>
       </c>
       <c r="F489" s="6" t="s">
-        <v>1775</v>
+        <v>2333</v>
       </c>
       <c r="G489" s="3" t="s">
-        <v>1777</v>
-      </c>
-    </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A490" s="3" t="s">
-        <v>1778</v>
+        <v>2320</v>
       </c>
       <c r="B490" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C490" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D490" s="3"/>
+        <v>1</v>
+      </c>
       <c r="E490" s="3" t="s">
-        <v>1779</v>
+        <v>2326</v>
       </c>
       <c r="F490" s="6" t="s">
-        <v>1780</v>
+        <v>2334</v>
       </c>
       <c r="G490" s="3" t="s">
-        <v>1781</v>
-      </c>
-    </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A491" s="3" t="s">
-        <v>1782</v>
+        <v>2321</v>
       </c>
       <c r="B491" s="3" t="b">
         <v>1</v>
@@ -17706,62 +17776,60 @@
       <c r="C491" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D491" s="3"/>
       <c r="E491" s="3" t="s">
-        <v>1783</v>
+        <v>2327</v>
       </c>
       <c r="F491" s="6" t="s">
-        <v>1784</v>
+        <v>2335</v>
       </c>
       <c r="G491" s="3" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A492" s="3" t="s">
-        <v>1786</v>
+        <v>2292</v>
       </c>
       <c r="B492" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C492" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D492" s="3"/>
       <c r="E492" s="3" t="s">
-        <v>1786</v>
+        <v>2293</v>
       </c>
       <c r="F492" s="6" t="s">
-        <v>1787</v>
+        <v>2294</v>
       </c>
       <c r="G492" s="3" t="s">
-        <v>1788</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="3" t="s">
-        <v>1789</v>
+        <v>817</v>
       </c>
       <c r="B493" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C493" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D493" s="3"/>
       <c r="E493" s="3" t="s">
-        <v>1790</v>
+        <v>817</v>
       </c>
       <c r="F493" s="6" t="s">
-        <v>1791</v>
+        <v>1712</v>
       </c>
       <c r="G493" s="3" t="s">
-        <v>1792</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="3" t="s">
-        <v>1793</v>
+        <v>1710</v>
       </c>
       <c r="B494" s="3" t="b">
         <v>1</v>
@@ -17771,18 +17839,18 @@
       </c>
       <c r="D494" s="3"/>
       <c r="E494" s="3" t="s">
-        <v>1794</v>
+        <v>1710</v>
       </c>
       <c r="F494" s="6" t="s">
-        <v>1795</v>
+        <v>1711</v>
       </c>
       <c r="G494" s="3" t="s">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A495" s="3" t="s">
-        <v>1797</v>
+        <v>2012</v>
       </c>
       <c r="B495" s="3" t="b">
         <v>1</v>
@@ -17790,20 +17858,19 @@
       <c r="C495" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D495" s="3"/>
       <c r="E495" s="3" t="s">
-        <v>1798</v>
+        <v>2014</v>
       </c>
       <c r="F495" s="6" t="s">
-        <v>1799</v>
+        <v>2016</v>
       </c>
       <c r="G495" s="3" t="s">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A496" s="3" t="s">
-        <v>2213</v>
+        <v>2013</v>
       </c>
       <c r="B496" s="3" t="b">
         <v>1</v>
@@ -17811,124 +17878,124 @@
       <c r="C496" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D496" s="3"/>
       <c r="E496" s="3" t="s">
-        <v>1801</v>
+        <v>2015</v>
       </c>
       <c r="F496" s="6" t="s">
-        <v>1802</v>
+        <v>2017</v>
       </c>
       <c r="G496" s="3" t="s">
-        <v>1803</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A497" s="4" t="s">
-        <v>1808</v>
+      <c r="A497" s="3" t="s">
+        <v>2140</v>
       </c>
       <c r="B497" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C497" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D497" s="3"/>
       <c r="E497" s="3" t="s">
-        <v>1809</v>
+        <v>808</v>
       </c>
       <c r="F497" s="6" t="s">
-        <v>1810</v>
+        <v>807</v>
       </c>
       <c r="G497" s="3" t="s">
-        <v>1811</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="3" t="s">
-        <v>1804</v>
+        <v>1743</v>
       </c>
       <c r="B498" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C498" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D498" s="3"/>
       <c r="E498" s="3" t="s">
-        <v>1805</v>
+        <v>1748</v>
       </c>
       <c r="F498" s="6" t="s">
-        <v>1806</v>
+        <v>1749</v>
       </c>
       <c r="G498" s="3" t="s">
-        <v>1807</v>
-      </c>
-    </row>
-    <row r="499" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" s="3" t="s">
-        <v>1812</v>
+        <v>1744</v>
       </c>
       <c r="B499" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C499" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D499" s="3"/>
       <c r="E499" s="3" t="s">
-        <v>1813</v>
+        <v>1747</v>
       </c>
       <c r="F499" s="6" t="s">
-        <v>1814</v>
+        <v>1750</v>
       </c>
       <c r="G499" s="3" t="s">
-        <v>1818</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="3" t="s">
-        <v>1815</v>
+        <v>1745</v>
       </c>
       <c r="B500" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C500" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D500" s="3"/>
       <c r="E500" s="3" t="s">
-        <v>1816</v>
+        <v>1746</v>
       </c>
       <c r="F500" s="6" t="s">
-        <v>1817</v>
+        <v>1751</v>
       </c>
       <c r="G500" s="3" t="s">
-        <v>1819</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="3" t="s">
-        <v>1630</v>
+        <v>1754</v>
       </c>
       <c r="B501" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C501" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D501" s="3"/>
       <c r="E501" s="3" t="s">
-        <v>1630</v>
+        <v>1755</v>
       </c>
       <c r="F501" s="6" t="s">
-        <v>1821</v>
+        <v>1756</v>
       </c>
       <c r="G501" s="3" t="s">
-        <v>1755</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" s="3" t="s">
-        <v>1820</v>
+        <v>1758</v>
       </c>
       <c r="B502" s="3" t="b">
         <v>1</v>
@@ -17938,60 +18005,60 @@
       </c>
       <c r="D502" s="3"/>
       <c r="E502" s="3" t="s">
-        <v>1820</v>
+        <v>1759</v>
       </c>
       <c r="F502" s="6" t="s">
-        <v>1822</v>
+        <v>1760</v>
       </c>
       <c r="G502" s="3" t="s">
-        <v>1823</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="3" t="s">
-        <v>1825</v>
+        <v>1762</v>
       </c>
       <c r="B503" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C503" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D503" s="3"/>
       <c r="E503" s="3" t="s">
-        <v>1827</v>
+        <v>1762</v>
       </c>
       <c r="F503" s="6" t="s">
-        <v>1828</v>
+        <v>1763</v>
       </c>
       <c r="G503" s="3" t="s">
-        <v>1829</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="3" t="s">
-        <v>1826</v>
+        <v>1765</v>
       </c>
       <c r="B504" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C504" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D504" s="3"/>
       <c r="E504" s="3" t="s">
-        <v>817</v>
+        <v>1766</v>
       </c>
       <c r="F504" s="6" t="s">
-        <v>439</v>
+        <v>1767</v>
       </c>
       <c r="G504" s="3" t="s">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="505" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="3" t="s">
-        <v>2270</v>
+        <v>1769</v>
       </c>
       <c r="B505" s="3" t="b">
         <v>1</v>
@@ -17999,19 +18066,20 @@
       <c r="C505" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="D505" s="3"/>
       <c r="E505" s="3" t="s">
-        <v>2271</v>
+        <v>1770</v>
       </c>
       <c r="F505" s="6" t="s">
-        <v>2272</v>
+        <v>1771</v>
       </c>
       <c r="G505" s="3" t="s">
-        <v>2273</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="3" t="s">
-        <v>1824</v>
+        <v>1773</v>
       </c>
       <c r="B506" s="3" t="b">
         <v>1</v>
@@ -18021,18 +18089,18 @@
       </c>
       <c r="D506" s="3"/>
       <c r="E506" s="3" t="s">
-        <v>1770</v>
+        <v>1774</v>
       </c>
       <c r="F506" s="6" t="s">
         <v>1775</v>
       </c>
       <c r="G506" s="3" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" s="3" t="s">
-        <v>1830</v>
+        <v>2190</v>
       </c>
       <c r="B507" s="3" t="b">
         <v>1</v>
@@ -18042,102 +18110,101 @@
       </c>
       <c r="D507" s="3"/>
       <c r="E507" s="3" t="s">
-        <v>1833</v>
+        <v>1777</v>
       </c>
       <c r="F507" s="6" t="s">
-        <v>1831</v>
+        <v>1778</v>
       </c>
       <c r="G507" s="3" t="s">
-        <v>1847</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A508" s="3" t="s">
-        <v>1835</v>
+      <c r="A508" s="4" t="s">
+        <v>1784</v>
       </c>
       <c r="B508" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C508" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D508" s="3"/>
       <c r="E508" s="3" t="s">
-        <v>1834</v>
+        <v>1785</v>
       </c>
       <c r="F508" s="6" t="s">
-        <v>1832</v>
+        <v>1786</v>
       </c>
       <c r="G508" s="3" t="s">
-        <v>1848</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="3" t="s">
-        <v>1836</v>
+        <v>1780</v>
       </c>
       <c r="B509" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C509" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D509" s="3"/>
       <c r="E509" s="3" t="s">
-        <v>1839</v>
+        <v>1781</v>
       </c>
       <c r="F509" s="6" t="s">
-        <v>1842</v>
+        <v>1782</v>
       </c>
       <c r="G509" s="3" t="s">
-        <v>1849</v>
-      </c>
-    </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A510" s="3" t="s">
-        <v>1837</v>
+        <v>1788</v>
       </c>
       <c r="B510" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C510" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D510" s="3"/>
+        <v>0</v>
+      </c>
       <c r="E510" s="3" t="s">
-        <v>1843</v>
+        <v>1789</v>
       </c>
       <c r="F510" s="6" t="s">
-        <v>1841</v>
+        <v>1790</v>
       </c>
       <c r="G510" s="3" t="s">
-        <v>1850</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="3" t="s">
-        <v>1838</v>
+        <v>1791</v>
       </c>
       <c r="B511" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C511" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D511" s="3"/>
       <c r="E511" s="3" t="s">
-        <v>1844</v>
+        <v>1792</v>
       </c>
       <c r="F511" s="6" t="s">
-        <v>1840</v>
+        <v>1793</v>
       </c>
       <c r="G511" s="3" t="s">
-        <v>1851</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="3" t="s">
-        <v>1862</v>
+        <v>1630</v>
       </c>
       <c r="B512" s="3" t="b">
         <v>1</v>
@@ -18147,18 +18214,18 @@
       </c>
       <c r="D512" s="3"/>
       <c r="E512" s="3" t="s">
-        <v>1845</v>
+        <v>1630</v>
       </c>
       <c r="F512" s="6" t="s">
-        <v>1846</v>
+        <v>1797</v>
       </c>
       <c r="G512" s="3" t="s">
-        <v>1852</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" s="3" t="s">
-        <v>1853</v>
+        <v>1796</v>
       </c>
       <c r="B513" s="3" t="b">
         <v>1</v>
@@ -18168,18 +18235,18 @@
       </c>
       <c r="D513" s="3"/>
       <c r="E513" s="3" t="s">
-        <v>648</v>
+        <v>1796</v>
       </c>
       <c r="F513" s="6" t="s">
-        <v>649</v>
+        <v>1798</v>
       </c>
       <c r="G513" s="3" t="s">
-        <v>1436</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" s="3" t="s">
-        <v>1854</v>
+        <v>1802</v>
       </c>
       <c r="B514" s="3" t="b">
         <v>1</v>
@@ -18189,18 +18256,18 @@
       </c>
       <c r="D514" s="3"/>
       <c r="E514" s="3" t="s">
-        <v>1649</v>
+        <v>1804</v>
       </c>
       <c r="F514" s="6" t="s">
-        <v>1146</v>
+        <v>1805</v>
       </c>
       <c r="G514" s="3" t="s">
-        <v>1732</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="3" t="s">
-        <v>1855</v>
+        <v>1803</v>
       </c>
       <c r="B515" s="3" t="b">
         <v>1</v>
@@ -18210,18 +18277,18 @@
       </c>
       <c r="D515" s="3"/>
       <c r="E515" s="3" t="s">
-        <v>1857</v>
+        <v>817</v>
       </c>
       <c r="F515" s="6" t="s">
-        <v>1859</v>
+        <v>439</v>
       </c>
       <c r="G515" s="3" t="s">
-        <v>1860</v>
-      </c>
-    </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A516" s="3" t="s">
-        <v>1856</v>
+        <v>2247</v>
       </c>
       <c r="B516" s="3" t="b">
         <v>1</v>
@@ -18229,206 +18296,208 @@
       <c r="C516" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D516" s="3"/>
       <c r="E516" s="3" t="s">
-        <v>1858</v>
+        <v>2248</v>
       </c>
       <c r="F516" s="6" t="s">
-        <v>1775</v>
+        <v>2249</v>
       </c>
       <c r="G516" s="3" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="517" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" s="3" t="s">
-        <v>1865</v>
+        <v>1801</v>
       </c>
       <c r="B517" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C517" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="D517" s="3"/>
       <c r="E517" s="3" t="s">
-        <v>1863</v>
+        <v>1746</v>
       </c>
       <c r="F517" s="6" t="s">
-        <v>1866</v>
+        <v>1751</v>
       </c>
       <c r="G517" s="3" t="s">
-        <v>1864</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A518" t="s">
-        <v>1867</v>
-      </c>
-      <c r="B518" t="b">
-        <v>1</v>
-      </c>
-      <c r="C518" t="b">
-        <v>1</v>
-      </c>
+      <c r="A518" s="3" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B518" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C518" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D518" s="3"/>
       <c r="E518" s="3" t="s">
-        <v>1867</v>
+        <v>1810</v>
       </c>
       <c r="F518" s="6" t="s">
-        <v>1870</v>
-      </c>
-      <c r="G518" t="s">
-        <v>1872</v>
+        <v>1808</v>
+      </c>
+      <c r="G518" s="3" t="s">
+        <v>1824</v>
       </c>
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A519" t="s">
-        <v>1868</v>
-      </c>
-      <c r="B519" t="b">
-        <v>1</v>
-      </c>
-      <c r="C519" t="b">
-        <v>1</v>
-      </c>
+      <c r="A519" s="3" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B519" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C519" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D519" s="3"/>
       <c r="E519" s="3" t="s">
-        <v>1869</v>
+        <v>1811</v>
       </c>
       <c r="F519" s="6" t="s">
-        <v>1871</v>
-      </c>
-      <c r="G519" t="s">
-        <v>1873</v>
+        <v>1809</v>
+      </c>
+      <c r="G519" s="3" t="s">
+        <v>1825</v>
       </c>
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A520" t="s">
-        <v>1874</v>
-      </c>
-      <c r="B520" t="b">
-        <v>1</v>
-      </c>
-      <c r="C520" t="b">
-        <v>0</v>
-      </c>
-      <c r="D520" t="s">
-        <v>1877</v>
-      </c>
+      <c r="A520" s="3" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B520" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C520" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D520" s="3"/>
       <c r="E520" s="3" t="s">
-        <v>1875</v>
+        <v>1816</v>
       </c>
       <c r="F520" s="6" t="s">
-        <v>1876</v>
+        <v>1819</v>
       </c>
       <c r="G520" s="3" t="s">
-        <v>1876</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" s="3" t="s">
-        <v>1874</v>
-      </c>
-      <c r="B521" t="b">
-        <v>0</v>
-      </c>
-      <c r="C521" t="b">
-        <v>1</v>
-      </c>
-      <c r="D521" s="3" t="s">
-        <v>1877</v>
-      </c>
+        <v>1814</v>
+      </c>
+      <c r="B521" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C521" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D521" s="3"/>
       <c r="E521" s="3" t="s">
-        <v>1878</v>
+        <v>1820</v>
       </c>
       <c r="F521" s="6" t="s">
-        <v>1879</v>
+        <v>1818</v>
       </c>
       <c r="G521" s="3" t="s">
-        <v>1879</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A522" t="s">
-        <v>1892</v>
-      </c>
-      <c r="B522" t="b">
-        <v>0</v>
-      </c>
-      <c r="C522" t="b">
-        <v>1</v>
-      </c>
-      <c r="E522" t="s">
-        <v>1895</v>
+      <c r="A522" s="3" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B522" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C522" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D522" s="3"/>
+      <c r="E522" s="3" t="s">
+        <v>1821</v>
       </c>
       <c r="F522" s="6" t="s">
-        <v>1893</v>
+        <v>1817</v>
       </c>
       <c r="G522" s="3" t="s">
-        <v>1894</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A523" t="s">
-        <v>1904</v>
-      </c>
-      <c r="B523" t="b">
-        <v>0</v>
-      </c>
-      <c r="C523" t="b">
-        <v>1</v>
-      </c>
-      <c r="E523" t="s">
-        <v>1904</v>
+      <c r="A523" s="3" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B523" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C523" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D523" s="3"/>
+      <c r="E523" s="3" t="s">
+        <v>1822</v>
       </c>
       <c r="F523" s="6" t="s">
-        <v>1905</v>
+        <v>1823</v>
       </c>
       <c r="G523" s="3" t="s">
-        <v>1906</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A524" t="s">
-        <v>1896</v>
+      <c r="A524" s="3" t="s">
+        <v>1830</v>
       </c>
       <c r="B524" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C524" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E524" t="s">
-        <v>1897</v>
+      <c r="D524" s="3"/>
+      <c r="E524" s="3" t="s">
+        <v>648</v>
       </c>
       <c r="F524" s="6" t="s">
-        <v>1899</v>
-      </c>
-      <c r="G524" t="s">
-        <v>1898</v>
+        <v>649</v>
+      </c>
+      <c r="G524" s="3" t="s">
+        <v>1436</v>
       </c>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A525" t="s">
-        <v>1900</v>
-      </c>
-      <c r="B525" t="b">
-        <v>0</v>
-      </c>
-      <c r="C525" t="b">
-        <v>1</v>
-      </c>
-      <c r="E525" t="s">
-        <v>1901</v>
+      <c r="A525" s="3" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B525" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C525" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D525" s="3"/>
+      <c r="E525" s="3" t="s">
+        <v>1649</v>
       </c>
       <c r="F525" s="6" t="s">
-        <v>1902</v>
-      </c>
-      <c r="G525" t="s">
-        <v>1903</v>
+        <v>1146</v>
+      </c>
+      <c r="G525" s="3" t="s">
+        <v>1716</v>
       </c>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A526" t="s">
-        <v>1907</v>
+      <c r="A526" s="3" t="s">
+        <v>1832</v>
       </c>
       <c r="B526" s="3" t="b">
         <v>1</v>
@@ -18436,19 +18505,20 @@
       <c r="C526" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E526" t="s">
-        <v>1909</v>
+      <c r="D526" s="3"/>
+      <c r="E526" s="3" t="s">
+        <v>1834</v>
       </c>
       <c r="F526" s="6" t="s">
-        <v>1911</v>
-      </c>
-      <c r="G526" t="s">
-        <v>2000</v>
+        <v>1836</v>
+      </c>
+      <c r="G526" s="3" t="s">
+        <v>1837</v>
       </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A527" t="s">
-        <v>1908</v>
+      <c r="A527" s="3" t="s">
+        <v>1833</v>
       </c>
       <c r="B527" s="3" t="b">
         <v>1</v>
@@ -18456,199 +18526,206 @@
       <c r="C527" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E527" t="s">
-        <v>1910</v>
+      <c r="D527" s="3"/>
+      <c r="E527" s="3" t="s">
+        <v>1835</v>
       </c>
       <c r="F527" s="6" t="s">
-        <v>1912</v>
-      </c>
-      <c r="G527" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A528" t="s">
-        <v>42</v>
+        <v>1751</v>
+      </c>
+      <c r="G527" s="3" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="528" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A528" s="3" t="s">
+        <v>1842</v>
       </c>
       <c r="B528" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C528" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E528" t="s">
-        <v>42</v>
+      <c r="E528" s="3" t="s">
+        <v>1840</v>
       </c>
       <c r="F528" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G528" t="s">
-        <v>1227</v>
+        <v>1843</v>
+      </c>
+      <c r="G528" s="3" t="s">
+        <v>1841</v>
       </c>
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>1919</v>
-      </c>
-      <c r="B529" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C529" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E529" t="s">
-        <v>1827</v>
+        <v>1844</v>
+      </c>
+      <c r="B529" t="b">
+        <v>1</v>
+      </c>
+      <c r="C529" t="b">
+        <v>1</v>
+      </c>
+      <c r="E529" s="3" t="s">
+        <v>1844</v>
       </c>
       <c r="F529" s="6" t="s">
-        <v>1828</v>
+        <v>1847</v>
       </c>
       <c r="G529" t="s">
-        <v>1829</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>1920</v>
-      </c>
-      <c r="B530" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C530" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E530" t="s">
-        <v>1922</v>
+        <v>1845</v>
+      </c>
+      <c r="B530" t="b">
+        <v>1</v>
+      </c>
+      <c r="C530" t="b">
+        <v>1</v>
+      </c>
+      <c r="E530" s="3" t="s">
+        <v>1846</v>
       </c>
       <c r="F530" s="6" t="s">
-        <v>1927</v>
+        <v>1848</v>
       </c>
       <c r="G530" t="s">
-        <v>2001</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>1921</v>
-      </c>
-      <c r="B531" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C531" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E531" t="s">
-        <v>1923</v>
+        <v>1851</v>
+      </c>
+      <c r="B531" t="b">
+        <v>1</v>
+      </c>
+      <c r="C531" t="b">
+        <v>0</v>
+      </c>
+      <c r="D531" t="s">
+        <v>1854</v>
+      </c>
+      <c r="E531" s="3" t="s">
+        <v>1852</v>
       </c>
       <c r="F531" s="6" t="s">
-        <v>1928</v>
-      </c>
-      <c r="G531" t="s">
-        <v>2002</v>
+        <v>1853</v>
+      </c>
+      <c r="G531" s="3" t="s">
+        <v>1853</v>
       </c>
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A532" t="s">
-        <v>1913</v>
-      </c>
-      <c r="B532" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C532" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E532" t="s">
-        <v>1904</v>
+      <c r="A532" s="3" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B532" t="b">
+        <v>0</v>
+      </c>
+      <c r="C532" t="b">
+        <v>1</v>
+      </c>
+      <c r="D532" s="3" t="s">
+        <v>1854</v>
+      </c>
+      <c r="E532" s="3" t="s">
+        <v>1855</v>
       </c>
       <c r="F532" s="6" t="s">
-        <v>1929</v>
-      </c>
-      <c r="G532" t="s">
-        <v>1906</v>
+        <v>1856</v>
+      </c>
+      <c r="G532" s="3" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>1914</v>
-      </c>
-      <c r="B533" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C533" s="3" t="b">
+        <v>1869</v>
+      </c>
+      <c r="B533" t="b">
+        <v>0</v>
+      </c>
+      <c r="C533" t="b">
         <v>1</v>
       </c>
       <c r="E533" t="s">
-        <v>1924</v>
+        <v>1872</v>
       </c>
       <c r="F533" s="6" t="s">
-        <v>1930</v>
-      </c>
-      <c r="G533" t="s">
-        <v>2003</v>
+        <v>1870</v>
+      </c>
+      <c r="G533" s="3" t="s">
+        <v>1871</v>
       </c>
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>1915</v>
-      </c>
-      <c r="B534" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C534" s="3" t="b">
+        <v>1881</v>
+      </c>
+      <c r="B534" t="b">
+        <v>0</v>
+      </c>
+      <c r="C534" t="b">
         <v>1</v>
       </c>
       <c r="E534" t="s">
-        <v>2117</v>
+        <v>1881</v>
       </c>
       <c r="F534" s="6" t="s">
-        <v>2123</v>
-      </c>
-      <c r="G534" t="s">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="535" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A535" s="3" t="s">
-        <v>2071</v>
+        <v>1882</v>
+      </c>
+      <c r="G534" s="3" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>1873</v>
       </c>
       <c r="B535" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C535" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E535" s="3" t="s">
-        <v>2118</v>
+      <c r="E535" t="s">
+        <v>1874</v>
       </c>
       <c r="F535" s="6" t="s">
-        <v>2124</v>
-      </c>
-      <c r="G535" s="3" t="s">
-        <v>2098</v>
-      </c>
-    </row>
-    <row r="536" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A536" s="3" t="s">
-        <v>2072</v>
-      </c>
-      <c r="B536" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C536" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E536" s="3" t="s">
-        <v>2119</v>
+        <v>1876</v>
+      </c>
+      <c r="G535" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B536" t="b">
+        <v>0</v>
+      </c>
+      <c r="C536" t="b">
+        <v>1</v>
+      </c>
+      <c r="E536" t="s">
+        <v>1878</v>
       </c>
       <c r="F536" s="6" t="s">
-        <v>2125</v>
-      </c>
-      <c r="G536" s="3" t="s">
-        <v>2099</v>
-      </c>
-    </row>
-    <row r="537" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A537" s="3" t="s">
-        <v>2073</v>
+        <v>1879</v>
+      </c>
+      <c r="G536" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>1884</v>
       </c>
       <c r="B537" s="3" t="b">
         <v>1</v>
@@ -18656,19 +18733,19 @@
       <c r="C537" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E537" s="3" t="s">
-        <v>2120</v>
+      <c r="E537" t="s">
+        <v>1886</v>
       </c>
       <c r="F537" s="6" t="s">
-        <v>2126</v>
-      </c>
-      <c r="G537" s="3" t="s">
-        <v>2100</v>
+        <v>1888</v>
+      </c>
+      <c r="G537" t="s">
+        <v>1977</v>
       </c>
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>1916</v>
+        <v>1885</v>
       </c>
       <c r="B538" s="3" t="b">
         <v>1</v>
@@ -18677,18 +18754,18 @@
         <v>1</v>
       </c>
       <c r="E538" t="s">
-        <v>2116</v>
+        <v>1887</v>
       </c>
       <c r="F538" s="6" t="s">
-        <v>2127</v>
+        <v>1889</v>
       </c>
       <c r="G538" t="s">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="539" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A539" s="3" t="s">
-        <v>2074</v>
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>42</v>
       </c>
       <c r="B539" s="3" t="b">
         <v>1</v>
@@ -18696,19 +18773,19 @@
       <c r="C539" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E539" s="3" t="s">
-        <v>2115</v>
+      <c r="E539" t="s">
+        <v>42</v>
       </c>
       <c r="F539" s="6" t="s">
-        <v>2128</v>
-      </c>
-      <c r="G539" s="3" t="s">
-        <v>2101</v>
-      </c>
-    </row>
-    <row r="540" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A540" s="3" t="s">
-        <v>2075</v>
+        <v>110</v>
+      </c>
+      <c r="G539" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>1896</v>
       </c>
       <c r="B540" s="3" t="b">
         <v>1</v>
@@ -18716,19 +18793,19 @@
       <c r="C540" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E540" s="3" t="s">
-        <v>2114</v>
+      <c r="E540" t="s">
+        <v>1804</v>
       </c>
       <c r="F540" s="6" t="s">
-        <v>2129</v>
-      </c>
-      <c r="G540" s="3" t="s">
-        <v>2102</v>
-      </c>
-    </row>
-    <row r="541" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A541" s="3" t="s">
-        <v>2076</v>
+        <v>1805</v>
+      </c>
+      <c r="G540" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>1897</v>
       </c>
       <c r="B541" s="3" t="b">
         <v>1</v>
@@ -18736,19 +18813,19 @@
       <c r="C541" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E541" s="3" t="s">
-        <v>2113</v>
+      <c r="E541" t="s">
+        <v>1899</v>
       </c>
       <c r="F541" s="6" t="s">
-        <v>2130</v>
-      </c>
-      <c r="G541" s="3" t="s">
-        <v>2103</v>
+        <v>1904</v>
+      </c>
+      <c r="G541" t="s">
+        <v>1978</v>
       </c>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>1917</v>
+        <v>1898</v>
       </c>
       <c r="B542" s="3" t="b">
         <v>1</v>
@@ -18757,18 +18834,18 @@
         <v>1</v>
       </c>
       <c r="E542" t="s">
-        <v>1925</v>
+        <v>1900</v>
       </c>
       <c r="F542" s="6" t="s">
-        <v>1932</v>
+        <v>1905</v>
       </c>
       <c r="G542" t="s">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="543" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A543" s="3" t="s">
-        <v>2077</v>
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>1890</v>
       </c>
       <c r="B543" s="3" t="b">
         <v>1</v>
@@ -18776,19 +18853,19 @@
       <c r="C543" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E543" s="3" t="s">
-        <v>2085</v>
+      <c r="E543" t="s">
+        <v>1881</v>
       </c>
       <c r="F543" s="6" t="s">
-        <v>2091</v>
-      </c>
-      <c r="G543" s="3" t="s">
-        <v>2104</v>
-      </c>
-    </row>
-    <row r="544" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A544" s="3" t="s">
-        <v>2078</v>
+        <v>1906</v>
+      </c>
+      <c r="G543" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>1891</v>
       </c>
       <c r="B544" s="3" t="b">
         <v>1</v>
@@ -18796,19 +18873,19 @@
       <c r="C544" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E544" s="3" t="s">
-        <v>2121</v>
+      <c r="E544" t="s">
+        <v>1901</v>
       </c>
       <c r="F544" s="6" t="s">
-        <v>2093</v>
-      </c>
-      <c r="G544" s="3" t="s">
-        <v>2105</v>
-      </c>
-    </row>
-    <row r="545" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A545" s="3" t="s">
-        <v>2079</v>
+        <v>1907</v>
+      </c>
+      <c r="G544" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>1892</v>
       </c>
       <c r="B545" s="3" t="b">
         <v>1</v>
@@ -18816,19 +18893,19 @@
       <c r="C545" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E545" s="3" t="s">
-        <v>2122</v>
+      <c r="E545" t="s">
+        <v>2094</v>
       </c>
       <c r="F545" s="6" t="s">
-        <v>2092</v>
-      </c>
-      <c r="G545" s="3" t="s">
-        <v>2106</v>
-      </c>
-    </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A546" t="s">
-        <v>1918</v>
+        <v>2100</v>
+      </c>
+      <c r="G545" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A546" s="3" t="s">
+        <v>2048</v>
       </c>
       <c r="B546" s="3" t="b">
         <v>1</v>
@@ -18836,19 +18913,19 @@
       <c r="C546" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E546" t="s">
-        <v>1926</v>
+      <c r="E546" s="3" t="s">
+        <v>2095</v>
       </c>
       <c r="F546" s="6" t="s">
-        <v>1931</v>
-      </c>
-      <c r="G546" t="s">
-        <v>2007</v>
+        <v>2101</v>
+      </c>
+      <c r="G546" s="3" t="s">
+        <v>2075</v>
       </c>
     </row>
     <row r="547" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A547" s="3" t="s">
-        <v>2080</v>
+        <v>2049</v>
       </c>
       <c r="B547" s="3" t="b">
         <v>1</v>
@@ -18857,18 +18934,18 @@
         <v>1</v>
       </c>
       <c r="E547" s="3" t="s">
-        <v>2086</v>
+        <v>2096</v>
       </c>
       <c r="F547" s="6" t="s">
-        <v>2094</v>
+        <v>2102</v>
       </c>
       <c r="G547" s="3" t="s">
-        <v>2107</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="548" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A548" s="3" t="s">
-        <v>2081</v>
+        <v>2050</v>
       </c>
       <c r="B548" s="3" t="b">
         <v>1</v>
@@ -18877,18 +18954,18 @@
         <v>1</v>
       </c>
       <c r="E548" s="3" t="s">
-        <v>2087</v>
+        <v>2097</v>
       </c>
       <c r="F548" s="6" t="s">
-        <v>2095</v>
+        <v>2103</v>
       </c>
       <c r="G548" s="3" t="s">
-        <v>2108</v>
-      </c>
-    </row>
-    <row r="549" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A549" s="3" t="s">
-        <v>2082</v>
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>1893</v>
       </c>
       <c r="B549" s="3" t="b">
         <v>1</v>
@@ -18896,19 +18973,19 @@
       <c r="C549" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E549" s="3" t="s">
-        <v>2088</v>
+      <c r="E549" t="s">
+        <v>2093</v>
       </c>
       <c r="F549" s="6" t="s">
-        <v>2112</v>
-      </c>
-      <c r="G549" s="3" t="s">
-        <v>2109</v>
+        <v>2104</v>
+      </c>
+      <c r="G549" t="s">
+        <v>1982</v>
       </c>
     </row>
     <row r="550" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A550" s="3" t="s">
-        <v>2083</v>
+        <v>2051</v>
       </c>
       <c r="B550" s="3" t="b">
         <v>1</v>
@@ -18917,18 +18994,18 @@
         <v>1</v>
       </c>
       <c r="E550" s="3" t="s">
-        <v>2089</v>
+        <v>2092</v>
       </c>
       <c r="F550" s="6" t="s">
-        <v>2096</v>
+        <v>2105</v>
       </c>
       <c r="G550" s="3" t="s">
-        <v>2110</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="551" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A551" s="3" t="s">
-        <v>2084</v>
+        <v>2052</v>
       </c>
       <c r="B551" s="3" t="b">
         <v>1</v>
@@ -18937,18 +19014,18 @@
         <v>1</v>
       </c>
       <c r="E551" s="3" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="F551" s="6" t="s">
-        <v>2097</v>
+        <v>2106</v>
       </c>
       <c r="G551" s="3" t="s">
-        <v>2111</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="552" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A552" s="3" t="s">
-        <v>2132</v>
+        <v>2053</v>
       </c>
       <c r="B552" s="3" t="b">
         <v>1</v>
@@ -18957,18 +19034,18 @@
         <v>1</v>
       </c>
       <c r="E552" s="3" t="s">
-        <v>2133</v>
+        <v>2090</v>
       </c>
       <c r="F552" s="6" t="s">
-        <v>2134</v>
+        <v>2107</v>
       </c>
       <c r="G552" s="3" t="s">
-        <v>2135</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>1933</v>
+        <v>1894</v>
       </c>
       <c r="B553" s="3" t="b">
         <v>1</v>
@@ -18977,18 +19054,18 @@
         <v>1</v>
       </c>
       <c r="E553" t="s">
-        <v>1946</v>
+        <v>1902</v>
       </c>
       <c r="F553" s="6" t="s">
-        <v>1980</v>
+        <v>1909</v>
       </c>
       <c r="G553" t="s">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A554" t="s">
-        <v>1934</v>
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A554" s="3" t="s">
+        <v>2054</v>
       </c>
       <c r="B554" s="3" t="b">
         <v>1</v>
@@ -18996,19 +19073,19 @@
       <c r="C554" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E554" t="s">
-        <v>1950</v>
+      <c r="E554" s="3" t="s">
+        <v>2062</v>
       </c>
       <c r="F554" s="6" t="s">
-        <v>1981</v>
-      </c>
-      <c r="G554" t="s">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A555" t="s">
-        <v>1935</v>
+        <v>2068</v>
+      </c>
+      <c r="G554" s="3" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A555" s="3" t="s">
+        <v>2055</v>
       </c>
       <c r="B555" s="3" t="b">
         <v>1</v>
@@ -19016,19 +19093,19 @@
       <c r="C555" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E555" t="s">
-        <v>2029</v>
+      <c r="E555" s="3" t="s">
+        <v>2098</v>
       </c>
       <c r="F555" s="6" t="s">
-        <v>2030</v>
-      </c>
-      <c r="G555" t="s">
-        <v>2031</v>
-      </c>
-    </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A556" t="s">
-        <v>320</v>
+        <v>2070</v>
+      </c>
+      <c r="G555" s="3" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A556" s="3" t="s">
+        <v>2056</v>
       </c>
       <c r="B556" s="3" t="b">
         <v>1</v>
@@ -19036,19 +19113,19 @@
       <c r="C556" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E556" t="s">
-        <v>320</v>
+      <c r="E556" s="3" t="s">
+        <v>2099</v>
       </c>
       <c r="F556" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="G556" t="s">
-        <v>1322</v>
+        <v>2069</v>
+      </c>
+      <c r="G556" s="3" t="s">
+        <v>2083</v>
       </c>
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>1936</v>
+        <v>1895</v>
       </c>
       <c r="B557" s="3" t="b">
         <v>1</v>
@@ -19057,18 +19134,18 @@
         <v>1</v>
       </c>
       <c r="E557" t="s">
-        <v>1951</v>
+        <v>1903</v>
       </c>
       <c r="F557" s="6" t="s">
-        <v>1982</v>
+        <v>1908</v>
       </c>
       <c r="G557" t="s">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A558" t="s">
-        <v>1937</v>
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A558" s="3" t="s">
+        <v>2057</v>
       </c>
       <c r="B558" s="3" t="b">
         <v>1</v>
@@ -19076,19 +19153,19 @@
       <c r="C558" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E558" t="s">
-        <v>1952</v>
+      <c r="E558" s="3" t="s">
+        <v>2063</v>
       </c>
       <c r="F558" s="6" t="s">
-        <v>1983</v>
-      </c>
-      <c r="G558" t="s">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A559" t="s">
-        <v>1938</v>
+        <v>2071</v>
+      </c>
+      <c r="G558" s="3" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="559" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A559" s="3" t="s">
+        <v>2058</v>
       </c>
       <c r="B559" s="3" t="b">
         <v>1</v>
@@ -19096,19 +19173,19 @@
       <c r="C559" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E559" t="s">
-        <v>1953</v>
+      <c r="E559" s="3" t="s">
+        <v>2064</v>
       </c>
       <c r="F559" s="6" t="s">
-        <v>1984</v>
-      </c>
-      <c r="G559" t="s">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A560" t="s">
-        <v>1939</v>
+        <v>2072</v>
+      </c>
+      <c r="G559" s="3" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="560" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A560" s="3" t="s">
+        <v>2059</v>
       </c>
       <c r="B560" s="3" t="b">
         <v>1</v>
@@ -19116,19 +19193,19 @@
       <c r="C560" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E560" t="s">
-        <v>1954</v>
+      <c r="E560" s="3" t="s">
+        <v>2065</v>
       </c>
       <c r="F560" s="6" t="s">
-        <v>1985</v>
-      </c>
-      <c r="G560" t="s">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A561" t="s">
-        <v>1940</v>
+        <v>2089</v>
+      </c>
+      <c r="G560" s="3" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A561" s="3" t="s">
+        <v>2060</v>
       </c>
       <c r="B561" s="3" t="b">
         <v>1</v>
@@ -19136,19 +19213,19 @@
       <c r="C561" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E561" t="s">
-        <v>1955</v>
+      <c r="E561" s="3" t="s">
+        <v>2066</v>
       </c>
       <c r="F561" s="6" t="s">
-        <v>1986</v>
-      </c>
-      <c r="G561" t="s">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A562" t="s">
-        <v>1941</v>
+        <v>2073</v>
+      </c>
+      <c r="G561" s="3" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A562" s="3" t="s">
+        <v>2061</v>
       </c>
       <c r="B562" s="3" t="b">
         <v>1</v>
@@ -19156,19 +19233,19 @@
       <c r="C562" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E562" t="s">
-        <v>882</v>
+      <c r="E562" s="3" t="s">
+        <v>2067</v>
       </c>
       <c r="F562" s="6" t="s">
-        <v>1987</v>
-      </c>
-      <c r="G562" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A563" t="s">
-        <v>1942</v>
+        <v>2074</v>
+      </c>
+      <c r="G562" s="3" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="563" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A563" s="3" t="s">
+        <v>2109</v>
       </c>
       <c r="B563" s="3" t="b">
         <v>1</v>
@@ -19176,19 +19253,19 @@
       <c r="C563" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E563" t="s">
-        <v>1947</v>
+      <c r="E563" s="3" t="s">
+        <v>2110</v>
       </c>
       <c r="F563" s="6" t="s">
-        <v>1988</v>
-      </c>
-      <c r="G563" t="s">
-        <v>2028</v>
+        <v>2111</v>
+      </c>
+      <c r="G563" s="3" t="s">
+        <v>2112</v>
       </c>
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>1943</v>
+        <v>1910</v>
       </c>
       <c r="B564" s="3" t="b">
         <v>1</v>
@@ -19197,18 +19274,18 @@
         <v>1</v>
       </c>
       <c r="E564" t="s">
-        <v>1956</v>
+        <v>1923</v>
       </c>
       <c r="F564" s="6" t="s">
-        <v>1989</v>
+        <v>1957</v>
       </c>
       <c r="G564" t="s">
-        <v>2015</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>1944</v>
+        <v>1911</v>
       </c>
       <c r="B565" s="3" t="b">
         <v>1</v>
@@ -19217,18 +19294,18 @@
         <v>1</v>
       </c>
       <c r="E565" t="s">
-        <v>1948</v>
+        <v>1927</v>
       </c>
       <c r="F565" s="6" t="s">
-        <v>2131</v>
+        <v>1958</v>
       </c>
       <c r="G565" t="s">
-        <v>2016</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>1945</v>
+        <v>1912</v>
       </c>
       <c r="B566" s="3" t="b">
         <v>1</v>
@@ -19237,78 +19314,78 @@
         <v>1</v>
       </c>
       <c r="E566" t="s">
-        <v>1949</v>
+        <v>2006</v>
       </c>
       <c r="F566" s="6" t="s">
-        <v>1990</v>
+        <v>2007</v>
       </c>
       <c r="G566" t="s">
-        <v>2017</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>1961</v>
-      </c>
-      <c r="B567" t="b">
-        <v>1</v>
-      </c>
-      <c r="C567" t="b">
+        <v>320</v>
+      </c>
+      <c r="B567" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C567" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E567" t="s">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="F567" s="6" t="s">
-        <v>1208</v>
+        <v>319</v>
       </c>
       <c r="G567" t="s">
-        <v>2018</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>1957</v>
-      </c>
-      <c r="B568" t="b">
-        <v>1</v>
-      </c>
-      <c r="C568" t="b">
+        <v>1913</v>
+      </c>
+      <c r="B568" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C568" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E568" t="s">
-        <v>1958</v>
+        <v>1928</v>
       </c>
       <c r="F568" s="6" t="s">
-        <v>1991</v>
+        <v>1959</v>
       </c>
       <c r="G568" t="s">
-        <v>2019</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>1959</v>
-      </c>
-      <c r="B569" t="b">
-        <v>1</v>
-      </c>
-      <c r="C569" t="b">
+        <v>1914</v>
+      </c>
+      <c r="B569" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C569" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E569" t="s">
+        <v>1929</v>
+      </c>
+      <c r="F569" s="6" t="s">
         <v>1960</v>
       </c>
-      <c r="F569" s="6" t="s">
-        <v>1992</v>
-      </c>
       <c r="G569" t="s">
-        <v>2020</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>1967</v>
+        <v>1915</v>
       </c>
       <c r="B570" s="3" t="b">
         <v>1</v>
@@ -19317,18 +19394,18 @@
         <v>1</v>
       </c>
       <c r="E570" t="s">
-        <v>1962</v>
+        <v>1930</v>
       </c>
       <c r="F570" s="6" t="s">
-        <v>1993</v>
+        <v>1961</v>
       </c>
       <c r="G570" t="s">
-        <v>2021</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>1968</v>
+        <v>1916</v>
       </c>
       <c r="B571" s="3" t="b">
         <v>1</v>
@@ -19337,18 +19414,18 @@
         <v>1</v>
       </c>
       <c r="E571" t="s">
-        <v>1963</v>
+        <v>1931</v>
       </c>
       <c r="F571" s="6" t="s">
-        <v>1994</v>
+        <v>1962</v>
       </c>
       <c r="G571" t="s">
-        <v>2022</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>1964</v>
+        <v>1917</v>
       </c>
       <c r="B572" s="3" t="b">
         <v>1</v>
@@ -19357,18 +19434,18 @@
         <v>1</v>
       </c>
       <c r="E572" t="s">
-        <v>1965</v>
+        <v>1932</v>
       </c>
       <c r="F572" s="6" t="s">
-        <v>1995</v>
+        <v>1963</v>
       </c>
       <c r="G572" t="s">
-        <v>2023</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>1966</v>
+        <v>1918</v>
       </c>
       <c r="B573" s="3" t="b">
         <v>1</v>
@@ -19377,18 +19454,18 @@
         <v>1</v>
       </c>
       <c r="E573" t="s">
-        <v>1997</v>
+        <v>882</v>
       </c>
       <c r="F573" s="6" t="s">
-        <v>1996</v>
+        <v>1964</v>
       </c>
       <c r="G573" t="s">
-        <v>2024</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>1969</v>
+        <v>1919</v>
       </c>
       <c r="B574" s="3" t="b">
         <v>1</v>
@@ -19397,18 +19474,18 @@
         <v>1</v>
       </c>
       <c r="E574" t="s">
-        <v>422</v>
+        <v>1924</v>
       </c>
       <c r="F574" s="6" t="s">
-        <v>421</v>
+        <v>1965</v>
       </c>
       <c r="G574" t="s">
-        <v>1357</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>1970</v>
+        <v>1920</v>
       </c>
       <c r="B575" s="3" t="b">
         <v>1</v>
@@ -19417,18 +19494,18 @@
         <v>1</v>
       </c>
       <c r="E575" t="s">
-        <v>1881</v>
+        <v>1933</v>
       </c>
       <c r="F575" s="6" t="s">
-        <v>1885</v>
+        <v>1966</v>
       </c>
       <c r="G575" t="s">
-        <v>1889</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>1971</v>
+        <v>1921</v>
       </c>
       <c r="B576" s="3" t="b">
         <v>1</v>
@@ -19437,18 +19514,18 @@
         <v>1</v>
       </c>
       <c r="E576" t="s">
-        <v>1880</v>
+        <v>1925</v>
       </c>
       <c r="F576" s="6" t="s">
-        <v>1884</v>
+        <v>2108</v>
       </c>
       <c r="G576" t="s">
-        <v>1888</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>1972</v>
+        <v>1922</v>
       </c>
       <c r="B577" s="3" t="b">
         <v>1</v>
@@ -19457,78 +19534,78 @@
         <v>1</v>
       </c>
       <c r="E577" t="s">
-        <v>1883</v>
+        <v>1926</v>
       </c>
       <c r="F577" s="6" t="s">
-        <v>1887</v>
+        <v>1967</v>
       </c>
       <c r="G577" t="s">
-        <v>1891</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>1973</v>
-      </c>
-      <c r="B578" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C578" s="3" t="b">
+        <v>1938</v>
+      </c>
+      <c r="B578" t="b">
+        <v>1</v>
+      </c>
+      <c r="C578" t="b">
         <v>1</v>
       </c>
       <c r="E578" t="s">
-        <v>1882</v>
+        <v>0</v>
       </c>
       <c r="F578" s="6" t="s">
-        <v>1886</v>
+        <v>1208</v>
       </c>
       <c r="G578" t="s">
-        <v>1890</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>1974</v>
-      </c>
-      <c r="B579" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C579" s="3" t="b">
+        <v>1934</v>
+      </c>
+      <c r="B579" t="b">
+        <v>1</v>
+      </c>
+      <c r="C579" t="b">
         <v>1</v>
       </c>
       <c r="E579" t="s">
-        <v>1975</v>
+        <v>1935</v>
       </c>
       <c r="F579" s="6" t="s">
-        <v>1998</v>
+        <v>1968</v>
       </c>
       <c r="G579" t="s">
-        <v>2025</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>1976</v>
-      </c>
-      <c r="B580" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C580" s="3" t="b">
+        <v>1936</v>
+      </c>
+      <c r="B580" t="b">
+        <v>1</v>
+      </c>
+      <c r="C580" t="b">
         <v>1</v>
       </c>
       <c r="E580" t="s">
-        <v>1978</v>
+        <v>1937</v>
       </c>
       <c r="F580" s="6" t="s">
-        <v>1999</v>
+        <v>1969</v>
       </c>
       <c r="G580" t="s">
-        <v>2026</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>1977</v>
+        <v>1944</v>
       </c>
       <c r="B581" s="3" t="b">
         <v>1</v>
@@ -19537,78 +19614,78 @@
         <v>1</v>
       </c>
       <c r="E581" t="s">
-        <v>1979</v>
+        <v>1939</v>
       </c>
       <c r="F581" s="6" t="s">
-        <v>1931</v>
+        <v>1970</v>
       </c>
       <c r="G581" t="s">
-        <v>2027</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>2029</v>
-      </c>
-      <c r="B582" t="b">
-        <v>0</v>
-      </c>
-      <c r="C582" t="b">
+        <v>1945</v>
+      </c>
+      <c r="B582" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C582" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E582" t="s">
-        <v>2029</v>
+        <v>1940</v>
       </c>
       <c r="F582" s="6" t="s">
-        <v>2030</v>
+        <v>1971</v>
       </c>
       <c r="G582" t="s">
-        <v>2031</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>2032</v>
-      </c>
-      <c r="B583" t="b">
-        <v>0</v>
-      </c>
-      <c r="C583" t="b">
+        <v>1941</v>
+      </c>
+      <c r="B583" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C583" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E583" t="s">
-        <v>2032</v>
+        <v>1942</v>
       </c>
       <c r="F583" s="6" t="s">
-        <v>2033</v>
+        <v>1972</v>
       </c>
       <c r="G583" t="s">
-        <v>2034</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>2042</v>
-      </c>
-      <c r="B584" t="b">
-        <v>1</v>
-      </c>
-      <c r="C584" t="b">
+        <v>1943</v>
+      </c>
+      <c r="B584" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C584" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E584" t="s">
-        <v>2042</v>
+        <v>1974</v>
       </c>
       <c r="F584" s="6" t="s">
-        <v>2045</v>
+        <v>1973</v>
       </c>
       <c r="G584" t="s">
-        <v>2046</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>2043</v>
+        <v>1946</v>
       </c>
       <c r="B585" s="3" t="b">
         <v>1</v>
@@ -19617,158 +19694,158 @@
         <v>1</v>
       </c>
       <c r="E585" t="s">
-        <v>2043</v>
+        <v>422</v>
       </c>
       <c r="F585" s="6" t="s">
-        <v>2044</v>
+        <v>421</v>
       </c>
       <c r="G585" t="s">
-        <v>2047</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>2054</v>
-      </c>
-      <c r="B586" t="b">
-        <v>0</v>
-      </c>
-      <c r="C586" t="b">
+        <v>1947</v>
+      </c>
+      <c r="B586" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C586" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E586" t="s">
-        <v>2054</v>
+        <v>1858</v>
       </c>
       <c r="F586" s="6" t="s">
-        <v>1986</v>
+        <v>1862</v>
       </c>
       <c r="G586" t="s">
-        <v>2061</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>2051</v>
-      </c>
-      <c r="B587" t="b">
-        <v>1</v>
-      </c>
-      <c r="C587" t="b">
+        <v>1948</v>
+      </c>
+      <c r="B587" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C587" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E587" t="s">
-        <v>2052</v>
+        <v>1857</v>
       </c>
       <c r="F587" s="6" t="s">
-        <v>2053</v>
+        <v>1861</v>
       </c>
       <c r="G587" t="s">
-        <v>2062</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A588" s="3" t="s">
-        <v>2055</v>
-      </c>
-      <c r="B588" t="b">
-        <v>0</v>
-      </c>
-      <c r="C588" t="b">
+      <c r="A588" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B588" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C588" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E588" t="s">
-        <v>2056</v>
+        <v>1860</v>
       </c>
       <c r="F588" s="6" t="s">
-        <v>2057</v>
+        <v>1864</v>
       </c>
       <c r="G588" t="s">
-        <v>2063</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>2058</v>
-      </c>
-      <c r="B589" t="b">
-        <v>0</v>
-      </c>
-      <c r="C589" t="b">
+        <v>1950</v>
+      </c>
+      <c r="B589" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C589" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E589" t="s">
-        <v>2059</v>
+        <v>1859</v>
       </c>
       <c r="F589" s="6" t="s">
-        <v>2060</v>
+        <v>1863</v>
       </c>
       <c r="G589" t="s">
-        <v>2064</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>2065</v>
-      </c>
-      <c r="B590" t="b">
-        <v>0</v>
-      </c>
-      <c r="C590" t="b">
+        <v>1951</v>
+      </c>
+      <c r="B590" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C590" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E590" t="s">
-        <v>2065</v>
+        <v>1952</v>
       </c>
       <c r="F590" s="6" t="s">
-        <v>2068</v>
+        <v>1975</v>
       </c>
       <c r="G590" t="s">
-        <v>2069</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>2066</v>
-      </c>
-      <c r="B591" t="b">
-        <v>0</v>
-      </c>
-      <c r="C591" t="b">
+        <v>1953</v>
+      </c>
+      <c r="B591" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C591" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E591" t="s">
-        <v>2066</v>
+        <v>1955</v>
       </c>
       <c r="F591" s="6" t="s">
-        <v>2067</v>
+        <v>1976</v>
       </c>
       <c r="G591" t="s">
-        <v>2070</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>970</v>
-      </c>
-      <c r="B592" t="b">
-        <v>0</v>
-      </c>
-      <c r="C592" t="b">
+        <v>1954</v>
+      </c>
+      <c r="B592" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C592" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E592" t="s">
-        <v>970</v>
+        <v>1956</v>
       </c>
       <c r="F592" s="6" t="s">
-        <v>1207</v>
+        <v>1908</v>
       </c>
       <c r="G592" t="s">
-        <v>1620</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>2136</v>
+        <v>2006</v>
       </c>
       <c r="B593" t="b">
         <v>0</v>
@@ -19777,18 +19854,18 @@
         <v>1</v>
       </c>
       <c r="E593" t="s">
-        <v>2137</v>
+        <v>2006</v>
       </c>
       <c r="F593" s="6" t="s">
-        <v>2138</v>
+        <v>2007</v>
       </c>
       <c r="G593" t="s">
-        <v>2142</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>2139</v>
+        <v>2009</v>
       </c>
       <c r="B594" t="b">
         <v>0</v>
@@ -19797,298 +19874,298 @@
         <v>1</v>
       </c>
       <c r="E594" t="s">
-        <v>2141</v>
+        <v>2009</v>
       </c>
       <c r="F594" s="6" t="s">
-        <v>2140</v>
+        <v>2010</v>
       </c>
       <c r="G594" t="s">
-        <v>2143</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>2144</v>
+        <v>2019</v>
       </c>
       <c r="B595" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C595" t="b">
         <v>1</v>
       </c>
       <c r="E595" t="s">
-        <v>2145</v>
+        <v>2019</v>
       </c>
       <c r="F595" s="6" t="s">
-        <v>2146</v>
+        <v>2022</v>
       </c>
       <c r="G595" t="s">
-        <v>2147</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>2148</v>
-      </c>
-      <c r="B596" t="b">
-        <v>1</v>
-      </c>
-      <c r="C596" t="b">
-        <v>0</v>
+        <v>2020</v>
+      </c>
+      <c r="B596" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C596" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="E596" t="s">
-        <v>2151</v>
+        <v>2020</v>
       </c>
       <c r="F596" s="6" t="s">
-        <v>2149</v>
+        <v>2021</v>
       </c>
       <c r="G596" t="s">
-        <v>2150</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>37</v>
+        <v>2031</v>
       </c>
       <c r="B597" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C597" t="b">
         <v>1</v>
       </c>
       <c r="E597" t="s">
-        <v>2152</v>
+        <v>2031</v>
       </c>
       <c r="F597" s="6" t="s">
-        <v>2153</v>
+        <v>1963</v>
       </c>
       <c r="G597" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="598" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A598" s="3" t="s">
-        <v>2168</v>
-      </c>
-      <c r="B598" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C598" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E598" s="3" t="s">
-        <v>1711</v>
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B598" t="b">
+        <v>1</v>
+      </c>
+      <c r="C598" t="b">
+        <v>1</v>
+      </c>
+      <c r="E598" t="s">
+        <v>2029</v>
       </c>
       <c r="F598" s="6" t="s">
-        <v>2171</v>
-      </c>
-      <c r="G598" s="3" t="s">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="599" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2030</v>
+      </c>
+      <c r="G598" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A599" s="3" t="s">
-        <v>2169</v>
-      </c>
-      <c r="B599" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C599" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E599" s="3" t="s">
-        <v>2170</v>
+        <v>2032</v>
+      </c>
+      <c r="B599" t="b">
+        <v>0</v>
+      </c>
+      <c r="C599" t="b">
+        <v>1</v>
+      </c>
+      <c r="E599" t="s">
+        <v>2033</v>
       </c>
       <c r="F599" s="6" t="s">
-        <v>2172</v>
-      </c>
-      <c r="G599" s="3" t="s">
-        <v>1757</v>
+        <v>2034</v>
+      </c>
+      <c r="G599" t="s">
+        <v>2040</v>
       </c>
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>2162</v>
+        <v>2035</v>
       </c>
       <c r="B600" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C600" t="b">
         <v>1</v>
       </c>
       <c r="E600" t="s">
-        <v>2166</v>
+        <v>2036</v>
       </c>
       <c r="F600" s="6" t="s">
-        <v>2167</v>
+        <v>2037</v>
       </c>
       <c r="G600" t="s">
-        <v>2189</v>
-      </c>
-    </row>
-    <row r="601" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A601" s="3" t="s">
-        <v>2177</v>
-      </c>
-      <c r="B601" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C601" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E601" s="3" t="s">
-        <v>2181</v>
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B601" t="b">
+        <v>0</v>
+      </c>
+      <c r="C601" t="b">
+        <v>1</v>
+      </c>
+      <c r="E601" t="s">
+        <v>2042</v>
       </c>
       <c r="F601" s="6" t="s">
-        <v>2185</v>
-      </c>
-      <c r="G601" s="3" t="s">
-        <v>2190</v>
-      </c>
-    </row>
-    <row r="602" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A602" s="3" t="s">
-        <v>2178</v>
-      </c>
-      <c r="B602" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C602" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E602" s="3" t="s">
-        <v>2182</v>
+        <v>2045</v>
+      </c>
+      <c r="G601" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B602" t="b">
+        <v>0</v>
+      </c>
+      <c r="C602" t="b">
+        <v>1</v>
+      </c>
+      <c r="E602" t="s">
+        <v>2043</v>
       </c>
       <c r="F602" s="6" t="s">
-        <v>2186</v>
-      </c>
-      <c r="G602" s="3" t="s">
-        <v>2191</v>
-      </c>
-    </row>
-    <row r="603" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A603" s="3" t="s">
-        <v>2179</v>
-      </c>
-      <c r="B603" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C603" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E603" s="3" t="s">
-        <v>2183</v>
+        <v>2044</v>
+      </c>
+      <c r="G602" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>970</v>
+      </c>
+      <c r="B603" t="b">
+        <v>0</v>
+      </c>
+      <c r="C603" t="b">
+        <v>1</v>
+      </c>
+      <c r="E603" t="s">
+        <v>970</v>
       </c>
       <c r="F603" s="6" t="s">
-        <v>2187</v>
-      </c>
-      <c r="G603" s="3" t="s">
-        <v>2192</v>
-      </c>
-    </row>
-    <row r="604" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A604" s="3" t="s">
-        <v>2180</v>
-      </c>
-      <c r="B604" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C604" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E604" s="3" t="s">
-        <v>2184</v>
+        <v>1207</v>
+      </c>
+      <c r="G603" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B604" t="b">
+        <v>0</v>
+      </c>
+      <c r="C604" t="b">
+        <v>1</v>
+      </c>
+      <c r="E604" t="s">
+        <v>2114</v>
       </c>
       <c r="F604" s="6" t="s">
-        <v>2188</v>
-      </c>
-      <c r="G604" s="3" t="s">
-        <v>2193</v>
+        <v>2115</v>
+      </c>
+      <c r="G604" t="s">
+        <v>2119</v>
       </c>
     </row>
     <row r="605" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>2164</v>
+        <v>2116</v>
       </c>
       <c r="B605" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C605" t="b">
         <v>1</v>
       </c>
       <c r="E605" t="s">
-        <v>2165</v>
+        <v>2118</v>
       </c>
       <c r="F605" s="6" t="s">
-        <v>2173</v>
+        <v>2117</v>
       </c>
       <c r="G605" t="s">
-        <v>2194</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="606" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>2174</v>
+        <v>2121</v>
       </c>
       <c r="B606" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C606" t="b">
         <v>1</v>
       </c>
       <c r="E606" t="s">
-        <v>2175</v>
+        <v>2122</v>
       </c>
       <c r="F606" s="6" t="s">
-        <v>2176</v>
+        <v>2123</v>
       </c>
       <c r="G606" t="s">
-        <v>2195</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>2196</v>
+        <v>2125</v>
       </c>
       <c r="B607" t="b">
         <v>1</v>
       </c>
-      <c r="C607" s="3" t="b">
-        <v>1</v>
+      <c r="C607" t="b">
+        <v>0</v>
       </c>
       <c r="E607" t="s">
-        <v>2199</v>
+        <v>2128</v>
       </c>
       <c r="F607" s="6" t="s">
-        <v>2202</v>
+        <v>2126</v>
       </c>
       <c r="G607" t="s">
-        <v>2205</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="608" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>2197</v>
-      </c>
-      <c r="B608" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C608" s="3" t="b">
+        <v>37</v>
+      </c>
+      <c r="B608" t="b">
+        <v>1</v>
+      </c>
+      <c r="C608" t="b">
         <v>1</v>
       </c>
       <c r="E608" t="s">
-        <v>2200</v>
+        <v>2129</v>
       </c>
       <c r="F608" s="6" t="s">
-        <v>2203</v>
+        <v>2130</v>
       </c>
       <c r="G608" t="s">
-        <v>2206</v>
-      </c>
-    </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A609" t="s">
-        <v>2198</v>
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="609" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A609" s="3" t="s">
+        <v>2145</v>
       </c>
       <c r="B609" s="3" t="b">
         <v>1</v>
@@ -20096,19 +20173,19 @@
       <c r="C609" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E609" t="s">
-        <v>2201</v>
+      <c r="E609" s="3" t="s">
+        <v>1700</v>
       </c>
       <c r="F609" s="6" t="s">
-        <v>2204</v>
-      </c>
-      <c r="G609" t="s">
-        <v>2207</v>
-      </c>
-    </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A610" t="s">
-        <v>2214</v>
+        <v>2148</v>
+      </c>
+      <c r="G609" s="3" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="610" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A610" s="3" t="s">
+        <v>2146</v>
       </c>
       <c r="B610" s="3" t="b">
         <v>1</v>
@@ -20116,19 +20193,19 @@
       <c r="C610" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E610" t="s">
-        <v>2215</v>
+      <c r="E610" s="3" t="s">
+        <v>2147</v>
       </c>
       <c r="F610" s="6" t="s">
-        <v>2216</v>
-      </c>
-      <c r="G610" t="s">
-        <v>2217</v>
+        <v>2149</v>
+      </c>
+      <c r="G610" s="3" t="s">
+        <v>1736</v>
       </c>
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>2218</v>
+        <v>2139</v>
       </c>
       <c r="B611" t="b">
         <v>1</v>
@@ -20137,18 +20214,18 @@
         <v>1</v>
       </c>
       <c r="E611" t="s">
-        <v>2219</v>
+        <v>2143</v>
       </c>
       <c r="F611" s="6" t="s">
-        <v>2220</v>
+        <v>2144</v>
       </c>
       <c r="G611" t="s">
-        <v>2239</v>
-      </c>
-    </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A612" t="s">
-        <v>2221</v>
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="612" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A612" s="3" t="s">
+        <v>2154</v>
       </c>
       <c r="B612" s="3" t="b">
         <v>1</v>
@@ -20156,19 +20233,19 @@
       <c r="C612" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E612" t="s">
-        <v>2227</v>
+      <c r="E612" s="3" t="s">
+        <v>2158</v>
       </c>
       <c r="F612" s="6" t="s">
-        <v>2233</v>
-      </c>
-      <c r="G612" t="s">
-        <v>2240</v>
-      </c>
-    </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A613" t="s">
-        <v>2222</v>
+        <v>2162</v>
+      </c>
+      <c r="G612" s="3" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="613" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A613" s="3" t="s">
+        <v>2155</v>
       </c>
       <c r="B613" s="3" t="b">
         <v>1</v>
@@ -20176,19 +20253,19 @@
       <c r="C613" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E613" t="s">
-        <v>2231</v>
+      <c r="E613" s="3" t="s">
+        <v>2159</v>
       </c>
       <c r="F613" s="6" t="s">
-        <v>2234</v>
-      </c>
-      <c r="G613" t="s">
-        <v>2241</v>
-      </c>
-    </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A614" t="s">
-        <v>2223</v>
+        <v>2163</v>
+      </c>
+      <c r="G613" s="3" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="614" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A614" s="3" t="s">
+        <v>2156</v>
       </c>
       <c r="B614" s="3" t="b">
         <v>1</v>
@@ -20197,18 +20274,18 @@
         <v>1</v>
       </c>
       <c r="E614" s="3" t="s">
-        <v>2228</v>
+        <v>2160</v>
       </c>
       <c r="F614" s="6" t="s">
-        <v>2235</v>
-      </c>
-      <c r="G614" t="s">
-        <v>2242</v>
-      </c>
-    </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A615" t="s">
-        <v>2224</v>
+        <v>2164</v>
+      </c>
+      <c r="G614" s="3" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="615" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A615" s="3" t="s">
+        <v>2157</v>
       </c>
       <c r="B615" s="3" t="b">
         <v>1</v>
@@ -20217,79 +20294,78 @@
         <v>1</v>
       </c>
       <c r="E615" s="3" t="s">
-        <v>2229</v>
+        <v>2161</v>
       </c>
       <c r="F615" s="6" t="s">
-        <v>2236</v>
-      </c>
-      <c r="G615" t="s">
-        <v>2243</v>
+        <v>2165</v>
+      </c>
+      <c r="G615" s="3" t="s">
+        <v>2170</v>
       </c>
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>2225</v>
-      </c>
-      <c r="B616" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C616" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E616" s="3" t="s">
-        <v>2230</v>
+        <v>2141</v>
+      </c>
+      <c r="B616" t="b">
+        <v>1</v>
+      </c>
+      <c r="C616" t="b">
+        <v>1</v>
+      </c>
+      <c r="E616" t="s">
+        <v>2142</v>
       </c>
       <c r="F616" s="6" t="s">
-        <v>2237</v>
+        <v>2150</v>
       </c>
       <c r="G616" t="s">
-        <v>2244</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>2226</v>
-      </c>
-      <c r="B617" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C617" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E617" s="3" t="s">
-        <v>2232</v>
+        <v>2151</v>
+      </c>
+      <c r="B617" t="b">
+        <v>1</v>
+      </c>
+      <c r="C617" t="b">
+        <v>1</v>
+      </c>
+      <c r="E617" t="s">
+        <v>2152</v>
       </c>
       <c r="F617" s="6" t="s">
-        <v>2238</v>
+        <v>2153</v>
       </c>
       <c r="G617" t="s">
-        <v>2245</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A618" s="3" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B618" s="3" t="b">
+      <c r="A618" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B618" t="b">
         <v>1</v>
       </c>
       <c r="C618" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D618" s="3"/>
-      <c r="E618" s="3" t="s">
-        <v>1707</v>
+      <c r="E618" t="s">
+        <v>2176</v>
       </c>
       <c r="F618" s="6" t="s">
-        <v>2050</v>
-      </c>
-      <c r="G618" s="3" t="s">
-        <v>1758</v>
+        <v>2179</v>
+      </c>
+      <c r="G618" t="s">
+        <v>2182</v>
       </c>
     </row>
     <row r="619" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A619" s="3" t="s">
-        <v>2048</v>
+      <c r="A619" t="s">
+        <v>2174</v>
       </c>
       <c r="B619" s="3" t="b">
         <v>1</v>
@@ -20297,20 +20373,19 @@
       <c r="C619" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D619" s="3"/>
-      <c r="E619" s="3" t="s">
-        <v>2048</v>
+      <c r="E619" t="s">
+        <v>2177</v>
       </c>
       <c r="F619" s="6" t="s">
-        <v>2049</v>
-      </c>
-      <c r="G619" s="3" t="s">
-        <v>1758</v>
+        <v>2180</v>
+      </c>
+      <c r="G619" t="s">
+        <v>2183</v>
       </c>
     </row>
     <row r="620" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A620" s="3" t="s">
-        <v>816</v>
+      <c r="A620" t="s">
+        <v>2175</v>
       </c>
       <c r="B620" s="3" t="b">
         <v>1</v>
@@ -20318,20 +20393,19 @@
       <c r="C620" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D620" s="3"/>
-      <c r="E620" s="3" t="s">
-        <v>817</v>
+      <c r="E620" t="s">
+        <v>2178</v>
       </c>
       <c r="F620" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="G620" s="3" t="s">
-        <v>1490</v>
+        <v>2181</v>
+      </c>
+      <c r="G620" t="s">
+        <v>2184</v>
       </c>
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A621" s="3" t="s">
-        <v>829</v>
+      <c r="A621" t="s">
+        <v>2191</v>
       </c>
       <c r="B621" s="3" t="b">
         <v>1</v>
@@ -20339,41 +20413,39 @@
       <c r="C621" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D621" s="3"/>
-      <c r="E621" s="3" t="s">
-        <v>831</v>
+      <c r="E621" t="s">
+        <v>2192</v>
       </c>
       <c r="F621" s="6" t="s">
-        <v>830</v>
-      </c>
-      <c r="G621" s="3" t="s">
-        <v>1494</v>
+        <v>2193</v>
+      </c>
+      <c r="G621" t="s">
+        <v>2194</v>
       </c>
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A622" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="B622" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C622" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D622" s="3"/>
-      <c r="E622" s="3" t="s">
-        <v>809</v>
+      <c r="A622" t="s">
+        <v>2195</v>
+      </c>
+      <c r="B622" t="b">
+        <v>1</v>
+      </c>
+      <c r="C622" t="b">
+        <v>1</v>
+      </c>
+      <c r="E622" t="s">
+        <v>2196</v>
       </c>
       <c r="F622" s="6" t="s">
-        <v>819</v>
-      </c>
-      <c r="G622" s="3" t="s">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="623" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A623" s="3" t="s">
-        <v>820</v>
+        <v>2197</v>
+      </c>
+      <c r="G622" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>2198</v>
       </c>
       <c r="B623" s="3" t="b">
         <v>1</v>
@@ -20381,19 +20453,19 @@
       <c r="C623" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E623" s="3" t="s">
-        <v>822</v>
+      <c r="E623" t="s">
+        <v>2204</v>
       </c>
       <c r="F623" s="6" t="s">
-        <v>821</v>
-      </c>
-      <c r="G623" s="3" t="s">
-        <v>1491</v>
-      </c>
-    </row>
-    <row r="624" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A624" s="3" t="s">
-        <v>2154</v>
+        <v>2210</v>
+      </c>
+      <c r="G623" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>2199</v>
       </c>
       <c r="B624" s="3" t="b">
         <v>1</v>
@@ -20401,19 +20473,19 @@
       <c r="C624" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E624" s="3" t="s">
-        <v>1682</v>
+      <c r="E624" t="s">
+        <v>2208</v>
       </c>
       <c r="F624" s="6" t="s">
-        <v>832</v>
-      </c>
-      <c r="G624" s="3" t="s">
-        <v>1495</v>
+        <v>2211</v>
+      </c>
+      <c r="G624" t="s">
+        <v>2218</v>
       </c>
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A625" s="3" t="s">
-        <v>2155</v>
+      <c r="A625" t="s">
+        <v>2200</v>
       </c>
       <c r="B625" s="3" t="b">
         <v>1</v>
@@ -20421,20 +20493,19 @@
       <c r="C625" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D625" s="3"/>
       <c r="E625" s="3" t="s">
-        <v>1683</v>
+        <v>2205</v>
       </c>
       <c r="F625" s="6" t="s">
-        <v>833</v>
-      </c>
-      <c r="G625" s="3" t="s">
-        <v>1496</v>
-      </c>
-    </row>
-    <row r="626" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A626" s="3" t="s">
-        <v>2156</v>
+        <v>2212</v>
+      </c>
+      <c r="G625" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>2201</v>
       </c>
       <c r="B626" s="3" t="b">
         <v>1</v>
@@ -20443,18 +20514,18 @@
         <v>1</v>
       </c>
       <c r="E626" s="3" t="s">
-        <v>1684</v>
+        <v>2206</v>
       </c>
       <c r="F626" s="6" t="s">
-        <v>834</v>
-      </c>
-      <c r="G626" s="3" t="s">
-        <v>1497</v>
-      </c>
-    </row>
-    <row r="627" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A627" s="3" t="s">
-        <v>2157</v>
+        <v>2213</v>
+      </c>
+      <c r="G626" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>2202</v>
       </c>
       <c r="B627" s="3" t="b">
         <v>1</v>
@@ -20463,18 +20534,18 @@
         <v>1</v>
       </c>
       <c r="E627" s="3" t="s">
-        <v>1685</v>
+        <v>2207</v>
       </c>
       <c r="F627" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="G627" s="3" t="s">
-        <v>1498</v>
-      </c>
-    </row>
-    <row r="628" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A628" s="3" t="s">
-        <v>2158</v>
+        <v>2214</v>
+      </c>
+      <c r="G627" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>2203</v>
       </c>
       <c r="B628" s="3" t="b">
         <v>1</v>
@@ -20483,18 +20554,18 @@
         <v>1</v>
       </c>
       <c r="E628" s="3" t="s">
-        <v>2159</v>
+        <v>2209</v>
       </c>
       <c r="F628" s="6" t="s">
-        <v>2160</v>
-      </c>
-      <c r="G628" s="3" t="s">
-        <v>2161</v>
+        <v>2215</v>
+      </c>
+      <c r="G628" t="s">
+        <v>2222</v>
       </c>
     </row>
     <row r="629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A629" s="3" t="s">
-        <v>826</v>
+        <v>1699</v>
       </c>
       <c r="B629" s="3" t="b">
         <v>1</v>
@@ -20504,18 +20575,18 @@
       </c>
       <c r="D629" s="3"/>
       <c r="E629" s="3" t="s">
-        <v>828</v>
+        <v>1699</v>
       </c>
       <c r="F629" s="6" t="s">
-        <v>827</v>
+        <v>2027</v>
       </c>
       <c r="G629" s="3" t="s">
-        <v>1493</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="630" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A630" s="3" t="s">
-        <v>823</v>
+        <v>2025</v>
       </c>
       <c r="B630" s="3" t="b">
         <v>1</v>
@@ -20525,18 +20596,18 @@
       </c>
       <c r="D630" s="3"/>
       <c r="E630" s="3" t="s">
-        <v>825</v>
+        <v>2025</v>
       </c>
       <c r="F630" s="6" t="s">
-        <v>824</v>
+        <v>2026</v>
       </c>
       <c r="G630" s="3" t="s">
-        <v>1492</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="631" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A631" t="s">
-        <v>2246</v>
+      <c r="A631" s="3" t="s">
+        <v>816</v>
       </c>
       <c r="B631" s="3" t="b">
         <v>1</v>
@@ -20544,19 +20615,20 @@
       <c r="C631" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E631" t="s">
-        <v>1713</v>
+      <c r="D631" s="3"/>
+      <c r="E631" s="3" t="s">
+        <v>817</v>
       </c>
       <c r="F631" s="6" t="s">
-        <v>2251</v>
-      </c>
-      <c r="G631" t="s">
-        <v>1760</v>
+        <v>439</v>
+      </c>
+      <c r="G631" s="3" t="s">
+        <v>1490</v>
       </c>
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A632" t="s">
-        <v>2247</v>
+      <c r="A632" s="3" t="s">
+        <v>829</v>
       </c>
       <c r="B632" s="3" t="b">
         <v>1</v>
@@ -20564,19 +20636,20 @@
       <c r="C632" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="D632" s="3"/>
       <c r="E632" s="3" t="s">
-        <v>422</v>
+        <v>831</v>
       </c>
       <c r="F632" s="6" t="s">
-        <v>1725</v>
-      </c>
-      <c r="G632" t="s">
-        <v>1357</v>
+        <v>830</v>
+      </c>
+      <c r="G632" s="3" t="s">
+        <v>1494</v>
       </c>
     </row>
     <row r="633" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A633" s="3" t="s">
-        <v>2248</v>
+        <v>818</v>
       </c>
       <c r="B633" s="3" t="b">
         <v>1</v>
@@ -20584,19 +20657,20 @@
       <c r="C633" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="D633" s="3"/>
       <c r="E633" s="3" t="s">
-        <v>428</v>
+        <v>809</v>
       </c>
       <c r="F633" s="6" t="s">
-        <v>2252</v>
-      </c>
-      <c r="G633" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
+        <v>819</v>
+      </c>
+      <c r="G633" s="3" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="634" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A634" s="3" t="s">
-        <v>2249</v>
+        <v>820</v>
       </c>
       <c r="B634" s="3" t="b">
         <v>1</v>
@@ -20605,18 +20679,18 @@
         <v>1</v>
       </c>
       <c r="E634" s="3" t="s">
-        <v>443</v>
+        <v>822</v>
       </c>
       <c r="F634" s="6" t="s">
-        <v>1721</v>
-      </c>
-      <c r="G634" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A635" t="s">
-        <v>2250</v>
+        <v>821</v>
+      </c>
+      <c r="G634" s="3" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="635" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A635" s="3" t="s">
+        <v>2131</v>
       </c>
       <c r="B635" s="3" t="b">
         <v>1</v>
@@ -20625,18 +20699,18 @@
         <v>1</v>
       </c>
       <c r="E635" s="3" t="s">
-        <v>434</v>
+        <v>1682</v>
       </c>
       <c r="F635" s="6" t="s">
-        <v>1724</v>
-      </c>
-      <c r="G635" t="s">
-        <v>1361</v>
+        <v>832</v>
+      </c>
+      <c r="G635" s="3" t="s">
+        <v>1495</v>
       </c>
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A636" t="s">
-        <v>2253</v>
+      <c r="A636" s="3" t="s">
+        <v>2132</v>
       </c>
       <c r="B636" s="3" t="b">
         <v>1</v>
@@ -20644,19 +20718,20 @@
       <c r="C636" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E636" t="s">
-        <v>2255</v>
+      <c r="D636" s="3"/>
+      <c r="E636" s="3" t="s">
+        <v>1683</v>
       </c>
       <c r="F636" s="6" t="s">
-        <v>2257</v>
-      </c>
-      <c r="G636" t="s">
-        <v>2259</v>
-      </c>
-    </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A637" t="s">
-        <v>2254</v>
+        <v>833</v>
+      </c>
+      <c r="G636" s="3" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="637" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A637" s="3" t="s">
+        <v>2133</v>
       </c>
       <c r="B637" s="3" t="b">
         <v>1</v>
@@ -20664,145 +20739,141 @@
       <c r="C637" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E637" t="s">
-        <v>2256</v>
+      <c r="E637" s="3" t="s">
+        <v>1684</v>
       </c>
       <c r="F637" s="6" t="s">
-        <v>2258</v>
-      </c>
-      <c r="G637" t="s">
-        <v>2260</v>
-      </c>
-    </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A638" t="s">
-        <v>2261</v>
-      </c>
-      <c r="B638" t="b">
-        <v>1</v>
-      </c>
-      <c r="C638" t="b">
-        <v>1</v>
-      </c>
-      <c r="E638" t="s">
-        <v>2262</v>
+        <v>834</v>
+      </c>
+      <c r="G637" s="3" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="638" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A638" s="3" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B638" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C638" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E638" s="3" t="s">
+        <v>1685</v>
       </c>
       <c r="F638" s="6" t="s">
-        <v>2263</v>
-      </c>
-      <c r="G638" t="s">
-        <v>2264</v>
-      </c>
-    </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A639" t="s">
-        <v>2029</v>
-      </c>
-      <c r="B639" t="b">
-        <v>1</v>
-      </c>
-      <c r="C639" t="b">
-        <v>1</v>
-      </c>
-      <c r="E639" t="s">
-        <v>2029</v>
+        <v>835</v>
+      </c>
+      <c r="G638" s="3" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="639" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A639" s="3" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B639" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C639" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E639" s="3" t="s">
+        <v>2136</v>
       </c>
       <c r="F639" s="6" t="s">
-        <v>2030</v>
+        <v>2137</v>
       </c>
       <c r="G639" s="3" t="s">
-        <v>2031</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="640" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A640" t="s">
-        <v>2274</v>
-      </c>
-      <c r="B640" t="b">
-        <v>0</v>
-      </c>
-      <c r="C640" t="b">
-        <v>1</v>
-      </c>
-      <c r="D640" t="s">
-        <v>2279</v>
-      </c>
-      <c r="E640" t="s">
-        <v>2274</v>
+      <c r="A640" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="B640" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C640" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D640" s="3"/>
+      <c r="E640" s="3" t="s">
+        <v>828</v>
       </c>
       <c r="F640" s="6" t="s">
-        <v>2277</v>
-      </c>
-      <c r="G640" t="s">
-        <v>2280</v>
+        <v>827</v>
+      </c>
+      <c r="G640" s="3" t="s">
+        <v>1493</v>
       </c>
     </row>
     <row r="641" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A641" t="s">
-        <v>2275</v>
-      </c>
-      <c r="B641" t="b">
-        <v>0</v>
-      </c>
-      <c r="C641" t="b">
-        <v>1</v>
-      </c>
-      <c r="D641" t="s">
-        <v>2279</v>
-      </c>
-      <c r="E641" t="s">
-        <v>2276</v>
+      <c r="A641" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="B641" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C641" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D641" s="3"/>
+      <c r="E641" s="3" t="s">
+        <v>825</v>
       </c>
       <c r="F641" s="6" t="s">
-        <v>2278</v>
-      </c>
-      <c r="G641" t="s">
-        <v>2281</v>
+        <v>824</v>
+      </c>
+      <c r="G641" s="3" t="s">
+        <v>1492</v>
       </c>
     </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>2287</v>
-      </c>
-      <c r="B642" t="b">
+        <v>2223</v>
+      </c>
+      <c r="B642" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C642" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E642" t="s">
-        <v>2285</v>
+        <v>1701</v>
       </c>
       <c r="F642" s="6" t="s">
-        <v>2289</v>
+        <v>2228</v>
       </c>
       <c r="G642" t="s">
-        <v>2290</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="643" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A643" s="3" t="s">
-        <v>2282</v>
-      </c>
-      <c r="B643" t="b">
+      <c r="A643" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B643" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C643" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E643" t="s">
-        <v>2286</v>
+      <c r="E643" s="3" t="s">
+        <v>422</v>
       </c>
       <c r="F643" s="6" t="s">
-        <v>2288</v>
+        <v>1709</v>
       </c>
       <c r="G643" t="s">
-        <v>2290</v>
-      </c>
-    </row>
-    <row r="644" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A644" s="3" t="s">
-        <v>2283</v>
+        <v>2225</v>
       </c>
       <c r="B644" s="3" t="b">
         <v>1</v>
@@ -20811,37 +20882,263 @@
         <v>1</v>
       </c>
       <c r="E644" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="F644" s="6" t="s">
+        <v>2229</v>
+      </c>
+      <c r="G644" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A645" s="3" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B645" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C645" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E645" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="F645" s="6" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G645" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B646" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C646" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E646" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="F646" s="6" t="s">
+        <v>1708</v>
+      </c>
+      <c r="G646" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B647" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C647" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E647" t="s">
+        <v>2232</v>
+      </c>
+      <c r="F647" s="6" t="s">
+        <v>2234</v>
+      </c>
+      <c r="G647" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B648" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C648" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E648" t="s">
+        <v>2233</v>
+      </c>
+      <c r="F648" s="6" t="s">
+        <v>2235</v>
+      </c>
+      <c r="G648" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B649" t="b">
+        <v>1</v>
+      </c>
+      <c r="C649" t="b">
+        <v>1</v>
+      </c>
+      <c r="E649" t="s">
+        <v>2239</v>
+      </c>
+      <c r="F649" s="6" t="s">
+        <v>2240</v>
+      </c>
+      <c r="G649" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B650" t="b">
+        <v>1</v>
+      </c>
+      <c r="C650" t="b">
+        <v>1</v>
+      </c>
+      <c r="E650" t="s">
+        <v>2006</v>
+      </c>
+      <c r="F650" s="6" t="s">
+        <v>2007</v>
+      </c>
+      <c r="G650" s="3" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B651" t="b">
+        <v>0</v>
+      </c>
+      <c r="C651" t="b">
+        <v>1</v>
+      </c>
+      <c r="D651" t="s">
+        <v>2256</v>
+      </c>
+      <c r="E651" t="s">
+        <v>2251</v>
+      </c>
+      <c r="F651" s="6" t="s">
+        <v>2254</v>
+      </c>
+      <c r="G651" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B652" t="b">
+        <v>0</v>
+      </c>
+      <c r="C652" t="b">
+        <v>1</v>
+      </c>
+      <c r="D652" t="s">
+        <v>2256</v>
+      </c>
+      <c r="E652" t="s">
+        <v>2253</v>
+      </c>
+      <c r="F652" s="6" t="s">
+        <v>2255</v>
+      </c>
+      <c r="G652" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B653" t="b">
+        <v>1</v>
+      </c>
+      <c r="C653" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E653" t="s">
+        <v>2262</v>
+      </c>
+      <c r="F653" s="6" t="s">
+        <v>2266</v>
+      </c>
+      <c r="G653" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A654" s="3" t="s">
+        <v>2259</v>
+      </c>
+      <c r="B654" t="b">
+        <v>1</v>
+      </c>
+      <c r="C654" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E654" t="s">
+        <v>2263</v>
+      </c>
+      <c r="F654" s="6" t="s">
+        <v>2265</v>
+      </c>
+      <c r="G654" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="655" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A655" s="3" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B655" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C655" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E655" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="F644" s="6" t="s">
+      <c r="F655" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="G644" s="3" t="s">
+      <c r="G655" s="3" t="s">
         <v>1324</v>
       </c>
     </row>
-    <row r="645" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A645" s="3" t="s">
-        <v>2284</v>
-      </c>
-      <c r="B645" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C645" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E645" s="3" t="s">
+    <row r="656" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A656" s="3" t="s">
+        <v>2261</v>
+      </c>
+      <c r="B656" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C656" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E656" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="F645" s="6" t="s">
+      <c r="F656" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="G645" s="3" t="s">
+      <c r="G656" s="3" t="s">
         <v>1325</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G521" xr:uid="{166F55E6-F4CB-49C4-A0B4-8593C255C448}"/>
+  <autoFilter ref="A1:G532" xr:uid="{166F55E6-F4CB-49C4-A0B4-8593C255C448}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Translations/Translations.xlsx
+++ b/Translations/Translations.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\source\repos\BSharp\Translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAD711F-3504-41FD-916D-7F5F2900CCB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E456A1-8F86-4956-8F88-81E5038532A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31995" yWindow="0" windowWidth="17790" windowHeight="14805" xr2:uid="{09F7BBB4-81EA-4503-B8DD-8985A501E98F}"/>
+    <workbookView xWindow="22020" yWindow="450" windowWidth="17790" windowHeight="14805" xr2:uid="{09F7BBB4-81EA-4503-B8DD-8985A501E98F}"/>
   </bookViews>
   <sheets>
     <sheet name="Translations" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$G$532</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$G$535</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2631" uniqueCount="2345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="2357">
   <si>
     <t>Key</t>
   </si>
@@ -7069,6 +7069,42 @@
   </si>
   <si>
     <t>时间2</t>
+  </si>
+  <si>
+    <t>Error_TheDateCannotBeInTheFuture</t>
+  </si>
+  <si>
+    <t>The date cannot be in the future</t>
+  </si>
+  <si>
+    <t>التاريخ لا يمكن أن يكون في المستقبل</t>
+  </si>
+  <si>
+    <t>Settings_ArchiveDate</t>
+  </si>
+  <si>
+    <t>Archive Date</t>
+  </si>
+  <si>
+    <t>تاريخ الأِرشفة</t>
+  </si>
+  <si>
+    <t>Settings_FunctionalCurrencyDescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The primary currency used when generating and spending cash </t>
+  </si>
+  <si>
+    <t>Settings_ArchiveDateDescription</t>
+  </si>
+  <si>
+    <t>Modifying transactions before this date is not allowed</t>
+  </si>
+  <si>
+    <t>العملة الرئيسية المستخدمة في المعاملات النقدية</t>
+  </si>
+  <si>
+    <t>يمنع النظام تعديل أي معاملات قبل هذا التاريخ</t>
   </si>
 </sst>
 </file>
@@ -7474,12 +7510,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FEE134-3B22-427F-8E5A-2A7F994BE2AC}">
-  <dimension ref="A1:G656"/>
+  <dimension ref="A1:G660"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A428" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A316" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F480" sqref="F480"/>
+      <selection pane="bottomLeft" activeCell="F349" sqref="F349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14739,72 +14775,63 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
-        <v>1041</v>
+        <v>2351</v>
       </c>
       <c r="B346" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C346" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D346" s="3"/>
       <c r="E346" s="3" t="s">
-        <v>933</v>
+        <v>2352</v>
       </c>
       <c r="F346" s="6" t="s">
-        <v>1169</v>
+        <v>2355</v>
       </c>
       <c r="G346" s="3" t="s">
-        <v>1583</v>
-      </c>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
-        <v>1042</v>
+        <v>2348</v>
       </c>
       <c r="B347" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C347" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D347" s="3"/>
       <c r="E347" s="3" t="s">
-        <v>934</v>
+        <v>2349</v>
       </c>
       <c r="F347" s="6" t="s">
-        <v>1170</v>
-      </c>
-      <c r="G347" s="3" t="s">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
-        <v>1043</v>
+        <v>2353</v>
       </c>
       <c r="B348" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C348" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D348" s="3"/>
       <c r="E348" s="3" t="s">
-        <v>935</v>
+        <v>2354</v>
       </c>
       <c r="F348" s="6" t="s">
-        <v>1171</v>
-      </c>
-      <c r="G348" s="3" t="s">
-        <v>1585</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="B349" s="3" t="b">
         <v>0</v>
@@ -14814,18 +14841,18 @@
       </c>
       <c r="D349" s="3"/>
       <c r="E349" s="3" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="F349" s="6" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="G349" s="3" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="B350" s="3" t="b">
         <v>0</v>
@@ -14835,18 +14862,18 @@
       </c>
       <c r="D350" s="3"/>
       <c r="E350" s="3" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="F350" s="6" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="G350" s="3" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="B351" s="3" t="b">
         <v>0</v>
@@ -14856,18 +14883,18 @@
       </c>
       <c r="D351" s="3"/>
       <c r="E351" s="3" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="F351" s="6" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="G351" s="3" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="B352" s="3" t="b">
         <v>0</v>
@@ -14877,18 +14904,18 @@
       </c>
       <c r="D352" s="3"/>
       <c r="E352" s="3" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="F352" s="6" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="G352" s="3" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="B353" s="3" t="b">
         <v>0</v>
@@ -14898,18 +14925,18 @@
       </c>
       <c r="D353" s="3"/>
       <c r="E353" s="3" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="F353" s="6" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="G353" s="3" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="B354" s="3" t="b">
         <v>0</v>
@@ -14919,18 +14946,18 @@
       </c>
       <c r="D354" s="3"/>
       <c r="E354" s="3" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="F354" s="6" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="G354" s="3" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="B355" s="3" t="b">
         <v>0</v>
@@ -14940,18 +14967,18 @@
       </c>
       <c r="D355" s="3"/>
       <c r="E355" s="3" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="F355" s="6" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="G355" s="3" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="B356" s="3" t="b">
         <v>0</v>
@@ -14961,18 +14988,18 @@
       </c>
       <c r="D356" s="3"/>
       <c r="E356" s="3" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="F356" s="6" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="G356" s="3" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="B357" s="3" t="b">
         <v>0</v>
@@ -14982,18 +15009,18 @@
       </c>
       <c r="D357" s="3"/>
       <c r="E357" s="3" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="F357" s="6" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="G357" s="3" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="B358" s="3" t="b">
         <v>0</v>
@@ -15003,18 +15030,18 @@
       </c>
       <c r="D358" s="3"/>
       <c r="E358" s="3" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="F358" s="6" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="G358" s="3" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="B359" s="3" t="b">
         <v>0</v>
@@ -15024,18 +15051,18 @@
       </c>
       <c r="D359" s="3"/>
       <c r="E359" s="3" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="F359" s="6" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="G359" s="3" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="B360" s="3" t="b">
         <v>0</v>
@@ -15045,18 +15072,18 @@
       </c>
       <c r="D360" s="3"/>
       <c r="E360" s="3" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="F360" s="6" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="G360" s="3" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="B361" s="3" t="b">
         <v>0</v>
@@ -15066,18 +15093,18 @@
       </c>
       <c r="D361" s="3"/>
       <c r="E361" s="3" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="F361" s="6" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="G361" s="3" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="B362" s="3" t="b">
         <v>0</v>
@@ -15087,18 +15114,18 @@
       </c>
       <c r="D362" s="3"/>
       <c r="E362" s="3" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="F362" s="6" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="G362" s="3" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="B363" s="3" t="b">
         <v>0</v>
@@ -15108,18 +15135,18 @@
       </c>
       <c r="D363" s="3"/>
       <c r="E363" s="3" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="F363" s="6" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="G363" s="3" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="B364" s="3" t="b">
         <v>0</v>
@@ -15129,102 +15156,102 @@
       </c>
       <c r="D364" s="3"/>
       <c r="E364" s="3" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="F364" s="6" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="G364" s="3" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
-        <v>625</v>
+        <v>1057</v>
       </c>
       <c r="B365" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C365" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D365" s="3"/>
       <c r="E365" s="3" t="s">
-        <v>625</v>
+        <v>949</v>
       </c>
       <c r="F365" s="6" t="s">
-        <v>626</v>
+        <v>1185</v>
       </c>
       <c r="G365" s="3" t="s">
-        <v>1428</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
-        <v>627</v>
+        <v>1058</v>
       </c>
       <c r="B366" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C366" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D366" s="3"/>
       <c r="E366" s="3" t="s">
-        <v>629</v>
+        <v>950</v>
       </c>
       <c r="F366" s="6" t="s">
-        <v>628</v>
+        <v>1186</v>
       </c>
       <c r="G366" s="3" t="s">
-        <v>1429</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
-        <v>630</v>
+        <v>1059</v>
       </c>
       <c r="B367" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C367" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D367" s="3"/>
       <c r="E367" s="3" t="s">
-        <v>632</v>
+        <v>951</v>
       </c>
       <c r="F367" s="6" t="s">
-        <v>631</v>
+        <v>1187</v>
       </c>
       <c r="G367" s="3" t="s">
-        <v>1430</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="B368" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C368" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D368" s="3"/>
       <c r="E368" s="3" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="F368" s="6" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="G368" s="3" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="B369" s="3" t="b">
         <v>1</v>
@@ -15234,18 +15261,18 @@
       </c>
       <c r="D369" s="3"/>
       <c r="E369" s="3" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="F369" s="6" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="G369" s="3" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="B370" s="3" t="b">
         <v>1</v>
@@ -15255,18 +15282,18 @@
       </c>
       <c r="D370" s="3"/>
       <c r="E370" s="3" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="F370" s="6" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="G370" s="3" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="B371" s="3" t="b">
         <v>1</v>
@@ -15276,102 +15303,102 @@
       </c>
       <c r="D371" s="3"/>
       <c r="E371" s="3" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="F371" s="6" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="G371" s="3" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="B372" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C372" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D372" s="3"/>
       <c r="E372" s="3" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="F372" s="6" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="G372" s="3" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
-        <v>780</v>
+        <v>639</v>
       </c>
       <c r="B373" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C373" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D373" s="3"/>
       <c r="E373" s="3" t="s">
-        <v>782</v>
+        <v>641</v>
       </c>
       <c r="F373" s="6" t="s">
-        <v>781</v>
+        <v>640</v>
       </c>
       <c r="G373" s="3" t="s">
-        <v>1478</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
-        <v>783</v>
+        <v>642</v>
       </c>
       <c r="B374" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C374" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D374" s="3"/>
       <c r="E374" s="3" t="s">
-        <v>2</v>
+        <v>644</v>
       </c>
       <c r="F374" s="6" t="s">
-        <v>784</v>
+        <v>643</v>
       </c>
       <c r="G374" s="3" t="s">
-        <v>1479</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
-        <v>777</v>
+        <v>645</v>
       </c>
       <c r="B375" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C375" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D375" s="3"/>
       <c r="E375" s="3" t="s">
-        <v>779</v>
+        <v>647</v>
       </c>
       <c r="F375" s="6" t="s">
-        <v>778</v>
+        <v>646</v>
       </c>
       <c r="G375" s="3" t="s">
-        <v>1477</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
-        <v>772</v>
+        <v>780</v>
       </c>
       <c r="B376" s="3" t="b">
         <v>1</v>
@@ -15381,18 +15408,18 @@
       </c>
       <c r="D376" s="3"/>
       <c r="E376" s="3" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="F376" s="6" t="s">
-        <v>773</v>
+        <v>781</v>
       </c>
       <c r="G376" s="3" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="3" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="B377" s="3" t="b">
         <v>1</v>
@@ -15402,18 +15429,18 @@
       </c>
       <c r="D377" s="3"/>
       <c r="E377" s="3" t="s">
-        <v>723</v>
+        <v>2</v>
       </c>
       <c r="F377" s="6" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="G377" s="3" t="s">
-        <v>1459</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
-        <v>648</v>
+        <v>777</v>
       </c>
       <c r="B378" s="3" t="b">
         <v>1</v>
@@ -15423,102 +15450,102 @@
       </c>
       <c r="D378" s="3"/>
       <c r="E378" s="3" t="s">
-        <v>648</v>
+        <v>779</v>
       </c>
       <c r="F378" s="6" t="s">
-        <v>649</v>
+        <v>778</v>
       </c>
       <c r="G378" s="3" t="s">
-        <v>1436</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
-        <v>1060</v>
+        <v>772</v>
       </c>
       <c r="B379" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C379" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D379" s="3"/>
       <c r="E379" s="3" t="s">
-        <v>952</v>
+        <v>774</v>
       </c>
       <c r="F379" s="6" t="s">
-        <v>1188</v>
+        <v>773</v>
       </c>
       <c r="G379" s="3" t="s">
-        <v>1602</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
-        <v>1061</v>
+        <v>775</v>
       </c>
       <c r="B380" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C380" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D380" s="3"/>
       <c r="E380" s="3" t="s">
-        <v>953</v>
+        <v>723</v>
       </c>
       <c r="F380" s="6" t="s">
-        <v>1189</v>
+        <v>776</v>
       </c>
       <c r="G380" s="3" t="s">
-        <v>1603</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B381" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C381" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D381" s="3"/>
       <c r="E381" s="3" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="F381" s="6" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G381" s="3" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="s">
-        <v>653</v>
+        <v>1060</v>
       </c>
       <c r="B382" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C382" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D382" s="3"/>
       <c r="E382" s="3" t="s">
-        <v>655</v>
+        <v>952</v>
       </c>
       <c r="F382" s="6" t="s">
-        <v>654</v>
+        <v>1188</v>
       </c>
       <c r="G382" s="3" t="s">
-        <v>1438</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
-        <v>954</v>
+        <v>1061</v>
       </c>
       <c r="B383" s="3" t="b">
         <v>0</v>
@@ -15528,81 +15555,81 @@
       </c>
       <c r="D383" s="3"/>
       <c r="E383" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F383" s="6" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="G383" s="3" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B384" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C384" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D384" s="3"/>
       <c r="E384" s="3" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="F384" s="6" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="G384" s="3" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="B385" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C385" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D385" s="3"/>
       <c r="E385" s="3" t="s">
-        <v>8</v>
+        <v>655</v>
       </c>
       <c r="F385" s="6" t="s">
-        <v>319</v>
+        <v>654</v>
       </c>
       <c r="G385" s="3" t="s">
-        <v>1365</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="3" t="s">
-        <v>660</v>
+        <v>954</v>
       </c>
       <c r="B386" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C386" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D386" s="3"/>
       <c r="E386" s="3" t="s">
-        <v>662</v>
+        <v>954</v>
       </c>
       <c r="F386" s="6" t="s">
-        <v>661</v>
+        <v>1190</v>
       </c>
       <c r="G386" s="3" t="s">
-        <v>1440</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="3" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="B387" s="3" t="b">
         <v>1</v>
@@ -15612,123 +15639,123 @@
       </c>
       <c r="D387" s="3"/>
       <c r="E387" s="3" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="F387" s="6" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="G387" s="3" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="3" t="s">
-        <v>955</v>
+        <v>659</v>
       </c>
       <c r="B388" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C388" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D388" s="3"/>
       <c r="E388" s="3" t="s">
-        <v>955</v>
+        <v>8</v>
       </c>
       <c r="F388" s="6" t="s">
-        <v>1191</v>
+        <v>319</v>
       </c>
       <c r="G388" s="3" t="s">
-        <v>1605</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="3" t="s">
-        <v>956</v>
+        <v>660</v>
       </c>
       <c r="B389" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C389" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D389" s="3"/>
       <c r="E389" s="3" t="s">
-        <v>956</v>
+        <v>662</v>
       </c>
       <c r="F389" s="6" t="s">
-        <v>1192</v>
+        <v>661</v>
       </c>
       <c r="G389" s="3" t="s">
-        <v>1606</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="3" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B390" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C390" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D390" s="3"/>
       <c r="E390" s="3" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="F390" s="6" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="G390" s="3" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="3" t="s">
-        <v>669</v>
+        <v>955</v>
       </c>
       <c r="B391" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C391" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D391" s="3"/>
       <c r="E391" s="3" t="s">
-        <v>671</v>
+        <v>955</v>
       </c>
       <c r="F391" s="6" t="s">
-        <v>670</v>
+        <v>1191</v>
       </c>
       <c r="G391" s="3" t="s">
-        <v>1443</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="3" t="s">
-        <v>672</v>
+        <v>956</v>
       </c>
       <c r="B392" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C392" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D392" s="3"/>
       <c r="E392" s="3" t="s">
-        <v>674</v>
+        <v>956</v>
       </c>
       <c r="F392" s="6" t="s">
-        <v>673</v>
+        <v>1192</v>
       </c>
       <c r="G392" s="3" t="s">
-        <v>1444</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="3" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="B393" s="3" t="b">
         <v>1</v>
@@ -15738,81 +15765,81 @@
       </c>
       <c r="D393" s="3"/>
       <c r="E393" s="3" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="F393" s="6" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="G393" s="3" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
-        <v>957</v>
+        <v>669</v>
       </c>
       <c r="B394" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C394" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D394" s="3"/>
       <c r="E394" s="3" t="s">
-        <v>957</v>
+        <v>671</v>
       </c>
       <c r="F394" s="6" t="s">
-        <v>1193</v>
+        <v>670</v>
       </c>
       <c r="G394" s="3" t="s">
-        <v>1607</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="3" t="s">
-        <v>958</v>
+        <v>672</v>
       </c>
       <c r="B395" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C395" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D395" s="3"/>
       <c r="E395" s="3" t="s">
-        <v>958</v>
+        <v>674</v>
       </c>
       <c r="F395" s="6" t="s">
-        <v>1194</v>
+        <v>673</v>
       </c>
       <c r="G395" s="3" t="s">
-        <v>1608</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="3" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B396" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C396" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D396" s="3"/>
       <c r="E396" s="3" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="F396" s="6" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="G396" s="3" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="3" t="s">
-        <v>1062</v>
+        <v>957</v>
       </c>
       <c r="B397" s="3" t="b">
         <v>0</v>
@@ -15822,81 +15849,81 @@
       </c>
       <c r="D397" s="3"/>
       <c r="E397" s="3" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="F397" s="6" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="G397" s="3" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="3" t="s">
-        <v>681</v>
+        <v>958</v>
       </c>
       <c r="B398" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C398" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D398" s="3"/>
       <c r="E398" s="3" t="s">
-        <v>681</v>
+        <v>958</v>
       </c>
       <c r="F398" s="6" t="s">
-        <v>682</v>
+        <v>1194</v>
       </c>
       <c r="G398" s="3" t="s">
-        <v>1447</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="3" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="B399" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C399" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D399" s="3"/>
       <c r="E399" s="3" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="F399" s="6" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="G399" s="3" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="3" t="s">
-        <v>686</v>
+        <v>1062</v>
       </c>
       <c r="B400" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C400" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D400" s="3"/>
       <c r="E400" s="3" t="s">
-        <v>688</v>
+        <v>959</v>
       </c>
       <c r="F400" s="6" t="s">
-        <v>687</v>
+        <v>1195</v>
       </c>
       <c r="G400" s="3" t="s">
-        <v>1449</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="3" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="B401" s="3" t="b">
         <v>1</v>
@@ -15906,18 +15933,18 @@
       </c>
       <c r="D401" s="3"/>
       <c r="E401" s="3" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="F401" s="6" t="s">
-        <v>1213</v>
+        <v>682</v>
       </c>
       <c r="G401" s="3" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="3" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="B402" s="3" t="b">
         <v>1</v>
@@ -15927,81 +15954,81 @@
       </c>
       <c r="D402" s="3"/>
       <c r="E402" s="3" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="F402" s="6" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="G402" s="3" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="3" t="s">
-        <v>960</v>
+        <v>686</v>
       </c>
       <c r="B403" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C403" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D403" s="3"/>
       <c r="E403" s="3" t="s">
-        <v>960</v>
+        <v>688</v>
       </c>
       <c r="F403" s="6" t="s">
-        <v>1196</v>
+        <v>687</v>
       </c>
       <c r="G403" s="3" t="s">
-        <v>1610</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="3" t="s">
-        <v>1063</v>
+        <v>689</v>
       </c>
       <c r="B404" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C404" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D404" s="3"/>
       <c r="E404" s="3" t="s">
-        <v>961</v>
+        <v>690</v>
       </c>
       <c r="F404" s="6" t="s">
-        <v>1197</v>
+        <v>1213</v>
       </c>
       <c r="G404" s="3" t="s">
-        <v>1611</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="3" t="s">
-        <v>1064</v>
+        <v>691</v>
       </c>
       <c r="B405" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C405" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D405" s="3"/>
       <c r="E405" s="3" t="s">
-        <v>2242</v>
+        <v>693</v>
       </c>
       <c r="F405" s="6" t="s">
-        <v>1198</v>
+        <v>692</v>
       </c>
       <c r="G405" s="3" t="s">
-        <v>1612</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="B406" s="3" t="b">
         <v>0</v>
@@ -16011,81 +16038,81 @@
       </c>
       <c r="D406" s="3"/>
       <c r="E406" s="3" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="F406" s="6" t="s">
-        <v>1207</v>
+        <v>1196</v>
       </c>
       <c r="G406" s="3" t="s">
-        <v>1620</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="3" t="s">
-        <v>590</v>
+        <v>1063</v>
       </c>
       <c r="B407" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C407" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D407" s="3"/>
       <c r="E407" s="3" t="s">
-        <v>590</v>
+        <v>961</v>
       </c>
       <c r="F407" s="6" t="s">
-        <v>694</v>
+        <v>1197</v>
       </c>
       <c r="G407" s="3" t="s">
-        <v>1415</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
-        <v>695</v>
+        <v>1064</v>
       </c>
       <c r="B408" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C408" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D408" s="3"/>
       <c r="E408" s="3" t="s">
-        <v>23</v>
+        <v>2242</v>
       </c>
       <c r="F408" s="6" t="s">
-        <v>696</v>
+        <v>1198</v>
       </c>
       <c r="G408" s="3" t="s">
-        <v>1221</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="3" t="s">
-        <v>697</v>
+        <v>970</v>
       </c>
       <c r="B409" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C409" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D409" s="3"/>
       <c r="E409" s="3" t="s">
-        <v>699</v>
+        <v>970</v>
       </c>
       <c r="F409" s="6" t="s">
-        <v>698</v>
+        <v>1207</v>
       </c>
       <c r="G409" s="3" t="s">
-        <v>1452</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="3" t="s">
-        <v>700</v>
+        <v>590</v>
       </c>
       <c r="B410" s="3" t="b">
         <v>1</v>
@@ -16095,18 +16122,18 @@
       </c>
       <c r="D410" s="3"/>
       <c r="E410" s="3" t="s">
-        <v>702</v>
+        <v>590</v>
       </c>
       <c r="F410" s="6" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="G410" s="3" t="s">
-        <v>1453</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="3" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="B411" s="3" t="b">
         <v>1</v>
@@ -16116,18 +16143,18 @@
       </c>
       <c r="D411" s="3"/>
       <c r="E411" s="3" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="F411" s="6" t="s">
-        <v>135</v>
+        <v>696</v>
       </c>
       <c r="G411" s="3" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="412" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="3" t="s">
-        <v>2189</v>
+        <v>697</v>
       </c>
       <c r="B412" s="3" t="b">
         <v>1</v>
@@ -16135,19 +16162,20 @@
       <c r="C412" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="D412" s="3"/>
       <c r="E412" s="3" t="s">
-        <v>790</v>
+        <v>699</v>
       </c>
       <c r="F412" s="6" t="s">
-        <v>789</v>
+        <v>698</v>
       </c>
       <c r="G412" s="3" t="s">
-        <v>1481</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="3" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B413" s="3" t="b">
         <v>1</v>
@@ -16157,18 +16185,18 @@
       </c>
       <c r="D413" s="3"/>
       <c r="E413" s="3" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="F413" s="6" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="G413" s="3" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="3" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B414" s="3" t="b">
         <v>1</v>
@@ -16178,18 +16206,18 @@
       </c>
       <c r="D414" s="3"/>
       <c r="E414" s="3" t="s">
-        <v>709</v>
+        <v>134</v>
       </c>
       <c r="F414" s="6" t="s">
-        <v>708</v>
+        <v>135</v>
       </c>
       <c r="G414" s="3" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A415" s="3" t="s">
-        <v>710</v>
+        <v>2189</v>
       </c>
       <c r="B415" s="3" t="b">
         <v>1</v>
@@ -16197,83 +16225,82 @@
       <c r="C415" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D415" s="3"/>
       <c r="E415" s="3" t="s">
-        <v>591</v>
+        <v>790</v>
       </c>
       <c r="F415" s="6" t="s">
-        <v>711</v>
+        <v>789</v>
       </c>
       <c r="G415" s="3" t="s">
-        <v>1385</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="3" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="B416" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C416" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D416" s="3"/>
       <c r="E416" s="3" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="F416" s="6" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="G416" s="3" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="3" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="B417" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C417" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D417" s="3"/>
       <c r="E417" s="3" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="F417" s="6" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="G417" s="3" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="3" t="s">
-        <v>1065</v>
+        <v>710</v>
       </c>
       <c r="B418" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C418" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D418" s="3"/>
       <c r="E418" s="3" t="s">
-        <v>962</v>
+        <v>591</v>
       </c>
       <c r="F418" s="6" t="s">
-        <v>1199</v>
+        <v>711</v>
       </c>
       <c r="G418" s="3" t="s">
-        <v>1640</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="3" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="B419" s="3" t="b">
         <v>1</v>
@@ -16283,18 +16310,18 @@
       </c>
       <c r="D419" s="3"/>
       <c r="E419" s="3" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="F419" s="6" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="G419" s="3" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="3" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="B420" s="3" t="b">
         <v>1</v>
@@ -16304,60 +16331,60 @@
       </c>
       <c r="D420" s="3"/>
       <c r="E420" s="3" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="F420" s="6" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="G420" s="3" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="3" t="s">
-        <v>724</v>
+        <v>1065</v>
       </c>
       <c r="B421" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C421" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D421" s="3"/>
       <c r="E421" s="3" t="s">
-        <v>726</v>
+        <v>962</v>
       </c>
       <c r="F421" s="6" t="s">
-        <v>725</v>
+        <v>1199</v>
       </c>
       <c r="G421" s="3" t="s">
-        <v>1460</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="3" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="B422" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C422" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D422" s="3"/>
       <c r="E422" s="3" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="F422" s="6" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="G422" s="3" t="s">
-        <v>1415</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="3" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="B423" s="3" t="b">
         <v>1</v>
@@ -16367,18 +16394,18 @@
       </c>
       <c r="D423" s="3"/>
       <c r="E423" s="3" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="F423" s="6" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="G423" s="3" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="3" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="B424" s="3" t="b">
         <v>1</v>
@@ -16388,165 +16415,165 @@
       </c>
       <c r="D424" s="3"/>
       <c r="E424" s="3" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="F424" s="6" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="G424" s="3" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="3" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="B425" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C425" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D425" s="3"/>
       <c r="E425" s="3" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="F425" s="6" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="G425" s="3" t="s">
-        <v>1463</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="3" t="s">
-        <v>506</v>
+        <v>729</v>
       </c>
       <c r="B426" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C426" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D426" s="3"/>
       <c r="E426" s="3" t="s">
-        <v>506</v>
+        <v>731</v>
       </c>
       <c r="F426" s="6" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="G426" s="3" t="s">
-        <v>1387</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="3" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="B427" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C427" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D427" s="3"/>
       <c r="E427" s="3" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="F427" s="6" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="G427" s="3" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="3" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="B428" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C428" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D428" s="3"/>
       <c r="E428" s="3" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="F428" s="6" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="G428" s="3" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="3" t="s">
-        <v>1066</v>
+        <v>506</v>
       </c>
       <c r="B429" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C429" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D429" s="3"/>
       <c r="E429" s="3" t="s">
-        <v>963</v>
+        <v>506</v>
       </c>
       <c r="F429" s="6" t="s">
-        <v>1200</v>
+        <v>737</v>
       </c>
       <c r="G429" s="3" t="s">
-        <v>1613</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="3" t="s">
-        <v>1067</v>
+        <v>738</v>
       </c>
       <c r="B430" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C430" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D430" s="3"/>
       <c r="E430" s="3" t="s">
-        <v>964</v>
+        <v>740</v>
       </c>
       <c r="F430" s="6" t="s">
-        <v>1201</v>
+        <v>739</v>
       </c>
       <c r="G430" s="3" t="s">
-        <v>1614</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="3" t="s">
-        <v>1068</v>
+        <v>741</v>
       </c>
       <c r="B431" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C431" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D431" s="3"/>
       <c r="E431" s="3" t="s">
-        <v>965</v>
+        <v>741</v>
       </c>
       <c r="F431" s="6" t="s">
-        <v>1202</v>
+        <v>742</v>
       </c>
       <c r="G431" s="3" t="s">
-        <v>1615</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="3" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="B432" s="3" t="b">
         <v>0</v>
@@ -16556,102 +16583,102 @@
       </c>
       <c r="D432" s="3"/>
       <c r="E432" s="3" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="F432" s="6" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="G432" s="3" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="3" t="s">
-        <v>743</v>
+        <v>1067</v>
       </c>
       <c r="B433" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C433" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D433" s="3"/>
       <c r="E433" s="3" t="s">
-        <v>743</v>
+        <v>964</v>
       </c>
       <c r="F433" s="6" t="s">
-        <v>744</v>
+        <v>1201</v>
       </c>
       <c r="G433" s="3" t="s">
-        <v>1466</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="3" t="s">
-        <v>745</v>
+        <v>1068</v>
       </c>
       <c r="B434" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C434" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D434" s="3"/>
       <c r="E434" s="3" t="s">
-        <v>747</v>
+        <v>965</v>
       </c>
       <c r="F434" s="6" t="s">
-        <v>746</v>
+        <v>1202</v>
       </c>
       <c r="G434" s="3" t="s">
-        <v>1467</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="3" t="s">
-        <v>748</v>
+        <v>1069</v>
       </c>
       <c r="B435" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C435" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D435" s="3"/>
       <c r="E435" s="3" t="s">
-        <v>750</v>
+        <v>966</v>
       </c>
       <c r="F435" s="6" t="s">
-        <v>749</v>
+        <v>1203</v>
       </c>
       <c r="G435" s="3" t="s">
-        <v>1468</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="3" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="B436" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C436" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D436" s="3"/>
       <c r="E436" s="3" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="F436" s="6" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="G436" s="3" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="3" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="B437" s="3" t="b">
         <v>1</v>
@@ -16661,18 +16688,18 @@
       </c>
       <c r="D437" s="3"/>
       <c r="E437" s="3" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="F437" s="6" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="G437" s="3" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="3" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="B438" s="3" t="b">
         <v>1</v>
@@ -16682,18 +16709,18 @@
       </c>
       <c r="D438" s="3"/>
       <c r="E438" s="3" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="F438" s="6" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="G438" s="3" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="3" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="B439" s="3" t="b">
         <v>1</v>
@@ -16703,18 +16730,18 @@
       </c>
       <c r="D439" s="3"/>
       <c r="E439" s="3" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="F439" s="6" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="G439" s="3" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="3" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="B440" s="3" t="b">
         <v>1</v>
@@ -16724,81 +16751,81 @@
       </c>
       <c r="D440" s="3"/>
       <c r="E440" s="3" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="F440" s="6" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="G440" s="3" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="3" t="s">
-        <v>1642</v>
+        <v>757</v>
       </c>
       <c r="B441" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C441" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D441" s="3"/>
       <c r="E441" s="3" t="s">
-        <v>1643</v>
+        <v>759</v>
       </c>
       <c r="F441" s="6" t="s">
-        <v>1644</v>
+        <v>758</v>
       </c>
       <c r="G441" s="3" t="s">
-        <v>1714</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="3" t="s">
-        <v>1645</v>
+        <v>760</v>
       </c>
       <c r="B442" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C442" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D442" s="3"/>
       <c r="E442" s="3" t="s">
-        <v>1647</v>
+        <v>762</v>
       </c>
       <c r="F442" s="6" t="s">
-        <v>1646</v>
+        <v>761</v>
       </c>
       <c r="G442" s="3" t="s">
-        <v>1715</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="3" t="s">
-        <v>1648</v>
+        <v>763</v>
       </c>
       <c r="B443" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C443" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D443" s="3"/>
       <c r="E443" s="3" t="s">
-        <v>648</v>
+        <v>765</v>
       </c>
       <c r="F443" s="6" t="s">
-        <v>1671</v>
+        <v>764</v>
       </c>
       <c r="G443" s="3" t="s">
-        <v>1436</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="3" t="s">
-        <v>1657</v>
+        <v>1642</v>
       </c>
       <c r="B444" s="3" t="b">
         <v>1</v>
@@ -16808,18 +16835,18 @@
       </c>
       <c r="D444" s="3"/>
       <c r="E444" s="3" t="s">
-        <v>1649</v>
+        <v>1643</v>
       </c>
       <c r="F444" s="6" t="s">
-        <v>1146</v>
+        <v>1644</v>
       </c>
       <c r="G444" s="3" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="3" t="s">
-        <v>1658</v>
+        <v>1645</v>
       </c>
       <c r="B445" s="3" t="b">
         <v>1</v>
@@ -16829,18 +16856,18 @@
       </c>
       <c r="D445" s="3"/>
       <c r="E445" s="3" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="F445" s="6" t="s">
-        <v>1665</v>
+        <v>1646</v>
       </c>
       <c r="G445" s="3" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="3" t="s">
-        <v>1659</v>
+        <v>1648</v>
       </c>
       <c r="B446" s="3" t="b">
         <v>1</v>
@@ -16850,18 +16877,18 @@
       </c>
       <c r="D446" s="3"/>
       <c r="E446" s="3" t="s">
-        <v>1651</v>
+        <v>648</v>
       </c>
       <c r="F446" s="6" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="G446" s="3" t="s">
-        <v>1718</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="3" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="B447" s="3" t="b">
         <v>1</v>
@@ -16871,18 +16898,18 @@
       </c>
       <c r="D447" s="3"/>
       <c r="E447" s="3" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="F447" s="6" t="s">
-        <v>1666</v>
+        <v>1146</v>
       </c>
       <c r="G447" s="3" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="3" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="B448" s="3" t="b">
         <v>1</v>
@@ -16892,18 +16919,18 @@
       </c>
       <c r="D448" s="3"/>
       <c r="E448" s="3" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="F448" s="6" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="G448" s="3" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="3" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
       <c r="B449" s="3" t="b">
         <v>1</v>
@@ -16913,18 +16940,18 @@
       </c>
       <c r="D449" s="3"/>
       <c r="E449" s="3" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="F449" s="6" t="s">
-        <v>1668</v>
+        <v>1672</v>
       </c>
       <c r="G449" s="3" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="3" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="B450" s="3" t="b">
         <v>1</v>
@@ -16934,18 +16961,18 @@
       </c>
       <c r="D450" s="3"/>
       <c r="E450" s="3" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="F450" s="6" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
       <c r="G450" s="3" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="3" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
       <c r="B451" s="3" t="b">
         <v>1</v>
@@ -16955,18 +16982,18 @@
       </c>
       <c r="D451" s="3"/>
       <c r="E451" s="3" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="F451" s="6" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="G451" s="3" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="3" t="s">
-        <v>2280</v>
+        <v>1662</v>
       </c>
       <c r="B452" s="3" t="b">
         <v>1</v>
@@ -16976,18 +17003,18 @@
       </c>
       <c r="D452" s="3"/>
       <c r="E452" s="3" t="s">
-        <v>2281</v>
+        <v>1654</v>
       </c>
       <c r="F452" s="6" t="s">
-        <v>2282</v>
+        <v>1668</v>
       </c>
       <c r="G452" s="3" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="453" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="3" t="s">
-        <v>2283</v>
+        <v>1663</v>
       </c>
       <c r="B453" s="3" t="b">
         <v>1</v>
@@ -16995,19 +17022,20 @@
       <c r="C453" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="D453" s="3"/>
       <c r="E453" s="3" t="s">
-        <v>2284</v>
+        <v>1655</v>
       </c>
       <c r="F453" s="6" t="s">
-        <v>2285</v>
+        <v>1669</v>
       </c>
       <c r="G453" s="3" t="s">
-        <v>1838</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="3" t="s">
-        <v>1673</v>
+        <v>1664</v>
       </c>
       <c r="B454" s="3" t="b">
         <v>1</v>
@@ -17017,18 +17045,18 @@
       </c>
       <c r="D454" s="3"/>
       <c r="E454" s="3" t="s">
-        <v>1674</v>
+        <v>1656</v>
       </c>
       <c r="F454" s="6" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
       <c r="G454" s="3" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="3" t="s">
-        <v>1676</v>
+        <v>2280</v>
       </c>
       <c r="B455" s="3" t="b">
         <v>1</v>
@@ -17038,18 +17066,18 @@
       </c>
       <c r="D455" s="3"/>
       <c r="E455" s="3" t="s">
-        <v>1678</v>
+        <v>2281</v>
       </c>
       <c r="F455" s="6" t="s">
-        <v>1677</v>
+        <v>2282</v>
       </c>
       <c r="G455" s="3" t="s">
-        <v>1726</v>
-      </c>
-    </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A456" s="3" t="s">
-        <v>1679</v>
+        <v>2283</v>
       </c>
       <c r="B456" s="3" t="b">
         <v>1</v>
@@ -17057,20 +17085,19 @@
       <c r="C456" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D456" s="3"/>
       <c r="E456" s="3" t="s">
-        <v>1682</v>
+        <v>2284</v>
       </c>
       <c r="F456" s="6" t="s">
-        <v>832</v>
+        <v>2285</v>
       </c>
       <c r="G456" s="3" t="s">
-        <v>1727</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="3" t="s">
-        <v>1680</v>
+        <v>1673</v>
       </c>
       <c r="B457" s="3" t="b">
         <v>1</v>
@@ -17080,18 +17107,18 @@
       </c>
       <c r="D457" s="3"/>
       <c r="E457" s="3" t="s">
-        <v>1683</v>
+        <v>1674</v>
       </c>
       <c r="F457" s="6" t="s">
-        <v>833</v>
+        <v>1675</v>
       </c>
       <c r="G457" s="3" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="3" t="s">
-        <v>1681</v>
+        <v>1676</v>
       </c>
       <c r="B458" s="3" t="b">
         <v>1</v>
@@ -17101,18 +17128,18 @@
       </c>
       <c r="D458" s="3"/>
       <c r="E458" s="3" t="s">
-        <v>1684</v>
+        <v>1678</v>
       </c>
       <c r="F458" s="6" t="s">
-        <v>834</v>
+        <v>1677</v>
       </c>
       <c r="G458" s="3" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="3" t="s">
-        <v>1686</v>
+        <v>1679</v>
       </c>
       <c r="B459" s="3" t="b">
         <v>1</v>
@@ -17122,18 +17149,18 @@
       </c>
       <c r="D459" s="3"/>
       <c r="E459" s="3" t="s">
-        <v>1688</v>
+        <v>1682</v>
       </c>
       <c r="F459" s="6" t="s">
-        <v>1690</v>
+        <v>832</v>
       </c>
       <c r="G459" s="3" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="3" t="s">
-        <v>1687</v>
+        <v>1680</v>
       </c>
       <c r="B460" s="3" t="b">
         <v>1</v>
@@ -17143,18 +17170,18 @@
       </c>
       <c r="D460" s="3"/>
       <c r="E460" s="3" t="s">
-        <v>1689</v>
+        <v>1683</v>
       </c>
       <c r="F460" s="6" t="s">
-        <v>1691</v>
+        <v>833</v>
       </c>
       <c r="G460" s="3" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="3" t="s">
-        <v>1692</v>
+        <v>1681</v>
       </c>
       <c r="B461" s="3" t="b">
         <v>1</v>
@@ -17164,181 +17191,182 @@
       </c>
       <c r="D461" s="3"/>
       <c r="E461" s="3" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F461" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="G461" s="3" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A462" s="3" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B462" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C462" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D462" s="3"/>
+      <c r="E462" s="3" t="s">
+        <v>1688</v>
+      </c>
+      <c r="F462" s="6" t="s">
+        <v>1690</v>
+      </c>
+      <c r="G462" s="3" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A463" s="3" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B463" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C463" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D463" s="3"/>
+      <c r="E463" s="3" t="s">
+        <v>1689</v>
+      </c>
+      <c r="F463" s="6" t="s">
+        <v>1691</v>
+      </c>
+      <c r="G463" s="3" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A464" s="3" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B464" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C464" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D464" s="3"/>
+      <c r="E464" s="3" t="s">
         <v>1693</v>
       </c>
-      <c r="F461" s="6" t="s">
+      <c r="F464" s="6" t="s">
         <v>1694</v>
       </c>
-      <c r="G461" s="3" t="s">
+      <c r="G464" s="3" t="s">
         <v>1732</v>
-      </c>
-    </row>
-    <row r="462" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A462" s="3" t="s">
-        <v>2286</v>
-      </c>
-      <c r="B462" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C462" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E462" s="3" t="s">
-        <v>809</v>
-      </c>
-      <c r="F462" s="6" t="s">
-        <v>819</v>
-      </c>
-      <c r="G462" s="3" t="s">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="463" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A463" s="3" t="s">
-        <v>2287</v>
-      </c>
-      <c r="B463" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C463" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E463" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F463" s="6" t="s">
-        <v>1799</v>
-      </c>
-      <c r="G463" s="3" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="464" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A464" s="3" t="s">
-        <v>2288</v>
-      </c>
-      <c r="B464" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C464" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E464" s="3" t="s">
-        <v>1699</v>
-      </c>
-      <c r="F464" s="6" t="s">
-        <v>1704</v>
-      </c>
-      <c r="G464" s="3" t="s">
-        <v>1737</v>
       </c>
     </row>
     <row r="465" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A465" s="3" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B465" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C465" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E465" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="F465" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="G465" s="3" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A466" s="3" t="s">
+        <v>2287</v>
+      </c>
+      <c r="B466" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C466" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E466" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F466" s="6" t="s">
+        <v>1799</v>
+      </c>
+      <c r="G466" s="3" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A467" s="3" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B467" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C467" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E467" s="3" t="s">
+        <v>1699</v>
+      </c>
+      <c r="F467" s="6" t="s">
+        <v>1704</v>
+      </c>
+      <c r="G467" s="3" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A468" s="3" t="s">
         <v>2289</v>
       </c>
-      <c r="B465" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C465" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E465" s="3" t="s">
+      <c r="B468" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C468" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E468" s="3" t="s">
         <v>2290</v>
       </c>
-      <c r="F465" s="6" t="s">
+      <c r="F468" s="6" t="s">
         <v>2291</v>
       </c>
-      <c r="G465" s="3" t="s">
+      <c r="G468" s="3" t="s">
         <v>2296</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A466" s="3" t="s">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A469" s="3" t="s">
         <v>2268</v>
       </c>
-      <c r="B466" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C466" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D466" s="3"/>
-      <c r="E466" s="3" t="s">
+      <c r="B469" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C469" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D469" s="3"/>
+      <c r="E469" s="3" t="s">
         <v>1695</v>
       </c>
-      <c r="F466" s="6" t="s">
+      <c r="F469" s="6" t="s">
         <v>1697</v>
       </c>
-      <c r="G466" s="3" t="s">
+      <c r="G469" s="3" t="s">
         <v>1733</v>
-      </c>
-    </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A467" s="3" t="s">
-        <v>2269</v>
-      </c>
-      <c r="B467" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C467" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D467" s="3"/>
-      <c r="E467" s="3" t="s">
-        <v>1696</v>
-      </c>
-      <c r="F467" s="6" t="s">
-        <v>1698</v>
-      </c>
-      <c r="G467" s="3" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A468" s="3" t="s">
-        <v>2270</v>
-      </c>
-      <c r="B468" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C468" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D468" s="3"/>
-      <c r="E468" s="3" t="s">
-        <v>1630</v>
-      </c>
-      <c r="F468" s="6" t="s">
-        <v>1702</v>
-      </c>
-      <c r="G468" s="3" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="469" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A469" s="3" t="s">
-        <v>2297</v>
-      </c>
-      <c r="B469" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C469" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E469" s="3" t="s">
-        <v>2298</v>
-      </c>
-      <c r="F469" s="6" t="s">
-        <v>2299</v>
-      </c>
-      <c r="G469" s="3" t="s">
-        <v>2300</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="3" t="s">
-        <v>2308</v>
+        <v>2269</v>
       </c>
       <c r="B470" s="3" t="b">
         <v>1</v>
@@ -17348,18 +17376,18 @@
       </c>
       <c r="D470" s="3"/>
       <c r="E470" s="3" t="s">
-        <v>2262</v>
+        <v>1696</v>
       </c>
       <c r="F470" s="6" t="s">
-        <v>2309</v>
+        <v>1698</v>
       </c>
       <c r="G470" s="3" t="s">
-        <v>2310</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="3" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="B471" s="3" t="b">
         <v>1</v>
@@ -17369,79 +17397,80 @@
       </c>
       <c r="D471" s="3"/>
       <c r="E471" s="3" t="s">
+        <v>1630</v>
+      </c>
+      <c r="F471" s="6" t="s">
+        <v>1702</v>
+      </c>
+      <c r="G471" s="3" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A472" s="3" t="s">
+        <v>2297</v>
+      </c>
+      <c r="B472" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C472" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E472" s="3" t="s">
+        <v>2298</v>
+      </c>
+      <c r="F472" s="6" t="s">
+        <v>2299</v>
+      </c>
+      <c r="G472" s="3" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A473" s="3" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B473" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C473" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D473" s="3"/>
+      <c r="E473" s="3" t="s">
+        <v>2262</v>
+      </c>
+      <c r="F473" s="6" t="s">
+        <v>2309</v>
+      </c>
+      <c r="G473" s="3" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A474" s="3" t="s">
+        <v>2271</v>
+      </c>
+      <c r="B474" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C474" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D474" s="3"/>
+      <c r="E474" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F471" s="6" t="s">
+      <c r="F474" s="6" t="s">
         <v>696</v>
       </c>
-      <c r="G471" s="3" t="s">
+      <c r="G474" s="3" t="s">
         <v>1221</v>
-      </c>
-    </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A472" s="3" t="s">
-        <v>2272</v>
-      </c>
-      <c r="B472" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C472" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D472" s="3"/>
-      <c r="E472" s="3" t="s">
-        <v>1700</v>
-      </c>
-      <c r="F472" s="6" t="s">
-        <v>1703</v>
-      </c>
-      <c r="G472" s="3" t="s">
-        <v>1736</v>
-      </c>
-    </row>
-    <row r="473" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A473" s="3" t="s">
-        <v>2301</v>
-      </c>
-      <c r="B473" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C473" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E473" s="3" t="s">
-        <v>2302</v>
-      </c>
-      <c r="F473" s="6" t="s">
-        <v>2305</v>
-      </c>
-      <c r="G473" s="3" t="s">
-        <v>2336</v>
-      </c>
-    </row>
-    <row r="474" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A474" s="3" t="s">
-        <v>2303</v>
-      </c>
-      <c r="B474" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C474" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E474" s="3" t="s">
-        <v>2304</v>
-      </c>
-      <c r="F474" s="6" t="s">
-        <v>2306</v>
-      </c>
-      <c r="G474" s="3" t="s">
-        <v>2337</v>
       </c>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="3" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="B475" s="3" t="b">
         <v>1</v>
@@ -17451,18 +17480,18 @@
       </c>
       <c r="D475" s="3"/>
       <c r="E475" s="3" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="F475" s="6" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="G475" s="3" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="476" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A476" s="3" t="s">
-        <v>2307</v>
+        <v>2301</v>
       </c>
       <c r="B476" s="3" t="b">
         <v>1</v>
@@ -17471,18 +17500,18 @@
         <v>1</v>
       </c>
       <c r="E476" s="3" t="s">
-        <v>809</v>
+        <v>2302</v>
       </c>
       <c r="F476" s="6" t="s">
-        <v>819</v>
+        <v>2305</v>
       </c>
       <c r="G476" s="3" t="s">
-        <v>1488</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="477" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A477" s="3" t="s">
-        <v>2311</v>
+        <v>2303</v>
       </c>
       <c r="B477" s="3" t="b">
         <v>1</v>
@@ -17491,18 +17520,18 @@
         <v>1</v>
       </c>
       <c r="E477" s="3" t="s">
-        <v>2312</v>
+        <v>2304</v>
       </c>
       <c r="F477" s="6" t="s">
-        <v>2313</v>
+        <v>2306</v>
       </c>
       <c r="G477" s="3" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="3" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="B478" s="3" t="b">
         <v>1</v>
@@ -17512,18 +17541,18 @@
       </c>
       <c r="D478" s="3"/>
       <c r="E478" s="3" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="F478" s="6" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="G478" s="3" t="s">
-        <v>1738</v>
-      </c>
-    </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A479" s="3" t="s">
-        <v>2275</v>
+        <v>2307</v>
       </c>
       <c r="B479" s="3" t="b">
         <v>1</v>
@@ -17531,20 +17560,19 @@
       <c r="C479" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D479" s="3"/>
       <c r="E479" s="3" t="s">
-        <v>428</v>
+        <v>809</v>
       </c>
       <c r="F479" s="6" t="s">
-        <v>1706</v>
+        <v>819</v>
       </c>
       <c r="G479" s="3" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A480" s="3" t="s">
-        <v>2276</v>
+        <v>2311</v>
       </c>
       <c r="B480" s="3" t="b">
         <v>1</v>
@@ -17552,20 +17580,19 @@
       <c r="C480" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D480" s="3"/>
       <c r="E480" s="3" t="s">
-        <v>443</v>
+        <v>2312</v>
       </c>
       <c r="F480" s="6" t="s">
-        <v>1707</v>
+        <v>2313</v>
       </c>
       <c r="G480" s="3" t="s">
-        <v>1364</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="3" t="s">
-        <v>2277</v>
+        <v>2274</v>
       </c>
       <c r="B481" s="3" t="b">
         <v>1</v>
@@ -17575,18 +17602,18 @@
       </c>
       <c r="D481" s="3"/>
       <c r="E481" s="3" t="s">
-        <v>434</v>
+        <v>1701</v>
       </c>
       <c r="F481" s="6" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="G481" s="3" t="s">
-        <v>1361</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="3" t="s">
-        <v>2278</v>
+        <v>2275</v>
       </c>
       <c r="B482" s="3" t="b">
         <v>1</v>
@@ -17596,18 +17623,18 @@
       </c>
       <c r="D482" s="3"/>
       <c r="E482" s="3" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="F482" s="6" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="G482" s="3" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="3" t="s">
-        <v>2279</v>
+        <v>2276</v>
       </c>
       <c r="B483" s="3" t="b">
         <v>1</v>
@@ -17617,78 +17644,81 @@
       </c>
       <c r="D483" s="3"/>
       <c r="E483" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="F483" s="6" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G483" s="3" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A484" s="3" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B484" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C484" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D484" s="3"/>
+      <c r="E484" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="F484" s="6" t="s">
+        <v>1708</v>
+      </c>
+      <c r="G484" s="3" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A485" s="3" t="s">
+        <v>2278</v>
+      </c>
+      <c r="B485" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C485" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D485" s="3"/>
+      <c r="E485" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="F485" s="6" t="s">
+        <v>1709</v>
+      </c>
+      <c r="G485" s="3" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A486" s="3" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B486" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C486" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D486" s="3"/>
+      <c r="E486" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="F483" s="6" t="s">
+      <c r="F486" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="G483" s="3" t="s">
+      <c r="G486" s="3" t="s">
         <v>1441</v>
-      </c>
-    </row>
-    <row r="484" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A484" s="3" t="s">
-        <v>2314</v>
-      </c>
-      <c r="B484" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C484" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E484" s="3" t="s">
-        <v>1695</v>
-      </c>
-      <c r="F484" s="6" t="s">
-        <v>2328</v>
-      </c>
-      <c r="G484" s="3" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="485" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A485" s="3" t="s">
-        <v>2315</v>
-      </c>
-      <c r="B485" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C485" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E485" s="3" t="s">
-        <v>1696</v>
-      </c>
-      <c r="F485" s="6" t="s">
-        <v>2329</v>
-      </c>
-      <c r="G485" s="3" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="486" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A486" s="3" t="s">
-        <v>2316</v>
-      </c>
-      <c r="B486" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C486" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E486" s="3" t="s">
-        <v>2322</v>
-      </c>
-      <c r="F486" s="6" t="s">
-        <v>2330</v>
-      </c>
-      <c r="G486" s="3" t="s">
-        <v>2339</v>
       </c>
     </row>
     <row r="487" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A487" s="3" t="s">
-        <v>2317</v>
+        <v>2314</v>
       </c>
       <c r="B487" s="3" t="b">
         <v>1</v>
@@ -17697,18 +17727,18 @@
         <v>1</v>
       </c>
       <c r="E487" s="3" t="s">
-        <v>2325</v>
+        <v>1695</v>
       </c>
       <c r="F487" s="6" t="s">
-        <v>2331</v>
+        <v>2328</v>
       </c>
       <c r="G487" s="3" t="s">
-        <v>2340</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="488" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A488" s="3" t="s">
-        <v>2318</v>
+        <v>2315</v>
       </c>
       <c r="B488" s="3" t="b">
         <v>1</v>
@@ -17717,18 +17747,18 @@
         <v>1</v>
       </c>
       <c r="E488" s="3" t="s">
-        <v>2323</v>
+        <v>1696</v>
       </c>
       <c r="F488" s="6" t="s">
-        <v>2332</v>
+        <v>2329</v>
       </c>
       <c r="G488" s="3" t="s">
-        <v>2341</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="489" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A489" s="3" t="s">
-        <v>2319</v>
+        <v>2316</v>
       </c>
       <c r="B489" s="3" t="b">
         <v>1</v>
@@ -17737,18 +17767,18 @@
         <v>1</v>
       </c>
       <c r="E489" s="3" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
       <c r="F489" s="6" t="s">
-        <v>2333</v>
+        <v>2330</v>
       </c>
       <c r="G489" s="3" t="s">
-        <v>2342</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="490" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A490" s="3" t="s">
-        <v>2320</v>
+        <v>2317</v>
       </c>
       <c r="B490" s="3" t="b">
         <v>1</v>
@@ -17757,18 +17787,18 @@
         <v>1</v>
       </c>
       <c r="E490" s="3" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="F490" s="6" t="s">
-        <v>2334</v>
+        <v>2331</v>
       </c>
       <c r="G490" s="3" t="s">
-        <v>2343</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="491" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A491" s="3" t="s">
-        <v>2321</v>
+        <v>2318</v>
       </c>
       <c r="B491" s="3" t="b">
         <v>1</v>
@@ -17777,18 +17807,18 @@
         <v>1</v>
       </c>
       <c r="E491" s="3" t="s">
-        <v>2327</v>
+        <v>2323</v>
       </c>
       <c r="F491" s="6" t="s">
-        <v>2335</v>
+        <v>2332</v>
       </c>
       <c r="G491" s="3" t="s">
-        <v>2344</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="492" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A492" s="3" t="s">
-        <v>2292</v>
+        <v>2319</v>
       </c>
       <c r="B492" s="3" t="b">
         <v>1</v>
@@ -17797,18 +17827,18 @@
         <v>1</v>
       </c>
       <c r="E492" s="3" t="s">
-        <v>2293</v>
+        <v>2324</v>
       </c>
       <c r="F492" s="6" t="s">
-        <v>2294</v>
+        <v>2333</v>
       </c>
       <c r="G492" s="3" t="s">
-        <v>2295</v>
-      </c>
-    </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A493" s="3" t="s">
-        <v>817</v>
+        <v>2320</v>
       </c>
       <c r="B493" s="3" t="b">
         <v>1</v>
@@ -17816,20 +17846,19 @@
       <c r="C493" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D493" s="3"/>
       <c r="E493" s="3" t="s">
-        <v>817</v>
+        <v>2326</v>
       </c>
       <c r="F493" s="6" t="s">
-        <v>1712</v>
+        <v>2334</v>
       </c>
       <c r="G493" s="3" t="s">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A494" s="3" t="s">
-        <v>1710</v>
+        <v>2321</v>
       </c>
       <c r="B494" s="3" t="b">
         <v>1</v>
@@ -17837,20 +17866,19 @@
       <c r="C494" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D494" s="3"/>
       <c r="E494" s="3" t="s">
-        <v>1710</v>
+        <v>2327</v>
       </c>
       <c r="F494" s="6" t="s">
-        <v>1711</v>
+        <v>2335</v>
       </c>
       <c r="G494" s="3" t="s">
-        <v>1490</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="495" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A495" s="3" t="s">
-        <v>2012</v>
+        <v>2292</v>
       </c>
       <c r="B495" s="3" t="b">
         <v>1</v>
@@ -17859,18 +17887,18 @@
         <v>1</v>
       </c>
       <c r="E495" s="3" t="s">
-        <v>2014</v>
+        <v>2293</v>
       </c>
       <c r="F495" s="6" t="s">
-        <v>2016</v>
+        <v>2294</v>
       </c>
       <c r="G495" s="3" t="s">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="496" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="3" t="s">
-        <v>2013</v>
+        <v>817</v>
       </c>
       <c r="B496" s="3" t="b">
         <v>1</v>
@@ -17878,19 +17906,20 @@
       <c r="C496" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="D496" s="3"/>
       <c r="E496" s="3" t="s">
-        <v>2015</v>
+        <v>817</v>
       </c>
       <c r="F496" s="6" t="s">
-        <v>2017</v>
+        <v>1712</v>
       </c>
       <c r="G496" s="3" t="s">
-        <v>2018</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="3" t="s">
-        <v>2140</v>
+        <v>1710</v>
       </c>
       <c r="B497" s="3" t="b">
         <v>1</v>
@@ -17900,18 +17929,18 @@
       </c>
       <c r="D497" s="3"/>
       <c r="E497" s="3" t="s">
-        <v>808</v>
+        <v>1710</v>
       </c>
       <c r="F497" s="6" t="s">
-        <v>807</v>
+        <v>1711</v>
       </c>
       <c r="G497" s="3" t="s">
-        <v>1487</v>
-      </c>
-    </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A498" s="3" t="s">
-        <v>1743</v>
+        <v>2012</v>
       </c>
       <c r="B498" s="3" t="b">
         <v>1</v>
@@ -17919,20 +17948,19 @@
       <c r="C498" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D498" s="3"/>
       <c r="E498" s="3" t="s">
-        <v>1748</v>
+        <v>2014</v>
       </c>
       <c r="F498" s="6" t="s">
-        <v>1749</v>
+        <v>2016</v>
       </c>
       <c r="G498" s="3" t="s">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A499" s="3" t="s">
-        <v>1744</v>
+        <v>2013</v>
       </c>
       <c r="B499" s="3" t="b">
         <v>1</v>
@@ -17940,20 +17968,19 @@
       <c r="C499" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D499" s="3"/>
       <c r="E499" s="3" t="s">
-        <v>1747</v>
+        <v>2015</v>
       </c>
       <c r="F499" s="6" t="s">
-        <v>1750</v>
+        <v>2017</v>
       </c>
       <c r="G499" s="3" t="s">
-        <v>1752</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="3" t="s">
-        <v>1745</v>
+        <v>2140</v>
       </c>
       <c r="B500" s="3" t="b">
         <v>1</v>
@@ -17963,39 +17990,39 @@
       </c>
       <c r="D500" s="3"/>
       <c r="E500" s="3" t="s">
-        <v>1746</v>
+        <v>808</v>
       </c>
       <c r="F500" s="6" t="s">
-        <v>1751</v>
+        <v>807</v>
       </c>
       <c r="G500" s="3" t="s">
-        <v>1753</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="3" t="s">
-        <v>1754</v>
+        <v>1743</v>
       </c>
       <c r="B501" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C501" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D501" s="3"/>
       <c r="E501" s="3" t="s">
-        <v>1755</v>
+        <v>1748</v>
       </c>
       <c r="F501" s="6" t="s">
-        <v>1756</v>
+        <v>1749</v>
       </c>
       <c r="G501" s="3" t="s">
-        <v>1757</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" s="3" t="s">
-        <v>1758</v>
+        <v>1744</v>
       </c>
       <c r="B502" s="3" t="b">
         <v>1</v>
@@ -18005,60 +18032,60 @@
       </c>
       <c r="D502" s="3"/>
       <c r="E502" s="3" t="s">
-        <v>1759</v>
+        <v>1747</v>
       </c>
       <c r="F502" s="6" t="s">
-        <v>1760</v>
+        <v>1750</v>
       </c>
       <c r="G502" s="3" t="s">
-        <v>1761</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="3" t="s">
-        <v>1762</v>
+        <v>1745</v>
       </c>
       <c r="B503" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C503" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D503" s="3"/>
       <c r="E503" s="3" t="s">
-        <v>1762</v>
+        <v>1746</v>
       </c>
       <c r="F503" s="6" t="s">
-        <v>1763</v>
+        <v>1751</v>
       </c>
       <c r="G503" s="3" t="s">
-        <v>1764</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="3" t="s">
-        <v>1765</v>
+        <v>1754</v>
       </c>
       <c r="B504" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C504" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D504" s="3"/>
       <c r="E504" s="3" t="s">
-        <v>1766</v>
+        <v>1755</v>
       </c>
       <c r="F504" s="6" t="s">
-        <v>1767</v>
+        <v>1756</v>
       </c>
       <c r="G504" s="3" t="s">
-        <v>1768</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="3" t="s">
-        <v>1769</v>
+        <v>1758</v>
       </c>
       <c r="B505" s="3" t="b">
         <v>1</v>
@@ -18068,206 +18095,206 @@
       </c>
       <c r="D505" s="3"/>
       <c r="E505" s="3" t="s">
-        <v>1770</v>
+        <v>1759</v>
       </c>
       <c r="F505" s="6" t="s">
-        <v>1771</v>
+        <v>1760</v>
       </c>
       <c r="G505" s="3" t="s">
-        <v>1772</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="3" t="s">
-        <v>1773</v>
+        <v>1762</v>
       </c>
       <c r="B506" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C506" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D506" s="3"/>
       <c r="E506" s="3" t="s">
-        <v>1774</v>
+        <v>1762</v>
       </c>
       <c r="F506" s="6" t="s">
-        <v>1775</v>
+        <v>1763</v>
       </c>
       <c r="G506" s="3" t="s">
-        <v>1776</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" s="3" t="s">
-        <v>2190</v>
+        <v>1765</v>
       </c>
       <c r="B507" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C507" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D507" s="3"/>
       <c r="E507" s="3" t="s">
-        <v>1777</v>
+        <v>1766</v>
       </c>
       <c r="F507" s="6" t="s">
-        <v>1778</v>
+        <v>1767</v>
       </c>
       <c r="G507" s="3" t="s">
-        <v>1779</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A508" s="4" t="s">
-        <v>1784</v>
+      <c r="A508" s="3" t="s">
+        <v>1769</v>
       </c>
       <c r="B508" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C508" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D508" s="3"/>
       <c r="E508" s="3" t="s">
-        <v>1785</v>
+        <v>1770</v>
       </c>
       <c r="F508" s="6" t="s">
-        <v>1786</v>
+        <v>1771</v>
       </c>
       <c r="G508" s="3" t="s">
-        <v>1787</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="3" t="s">
-        <v>1780</v>
+        <v>1773</v>
       </c>
       <c r="B509" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C509" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D509" s="3"/>
       <c r="E509" s="3" t="s">
-        <v>1781</v>
+        <v>1774</v>
       </c>
       <c r="F509" s="6" t="s">
-        <v>1782</v>
+        <v>1775</v>
       </c>
       <c r="G509" s="3" t="s">
-        <v>1783</v>
-      </c>
-    </row>
-    <row r="510" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="3" t="s">
-        <v>1788</v>
+        <v>2190</v>
       </c>
       <c r="B510" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C510" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D510" s="3"/>
       <c r="E510" s="3" t="s">
-        <v>1789</v>
+        <v>1777</v>
       </c>
       <c r="F510" s="6" t="s">
-        <v>1790</v>
+        <v>1778</v>
       </c>
       <c r="G510" s="3" t="s">
-        <v>1794</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A511" s="3" t="s">
-        <v>1791</v>
+      <c r="A511" s="4" t="s">
+        <v>1784</v>
       </c>
       <c r="B511" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C511" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D511" s="3"/>
       <c r="E511" s="3" t="s">
-        <v>1792</v>
+        <v>1785</v>
       </c>
       <c r="F511" s="6" t="s">
-        <v>1793</v>
+        <v>1786</v>
       </c>
       <c r="G511" s="3" t="s">
-        <v>1795</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="3" t="s">
-        <v>1630</v>
+        <v>1780</v>
       </c>
       <c r="B512" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C512" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D512" s="3"/>
       <c r="E512" s="3" t="s">
-        <v>1630</v>
+        <v>1781</v>
       </c>
       <c r="F512" s="6" t="s">
-        <v>1797</v>
+        <v>1782</v>
       </c>
       <c r="G512" s="3" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A513" s="3" t="s">
-        <v>1796</v>
+        <v>1788</v>
       </c>
       <c r="B513" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C513" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D513" s="3"/>
+        <v>0</v>
+      </c>
       <c r="E513" s="3" t="s">
-        <v>1796</v>
+        <v>1789</v>
       </c>
       <c r="F513" s="6" t="s">
-        <v>1798</v>
+        <v>1790</v>
       </c>
       <c r="G513" s="3" t="s">
-        <v>1800</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" s="3" t="s">
-        <v>1802</v>
+        <v>1791</v>
       </c>
       <c r="B514" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C514" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D514" s="3"/>
       <c r="E514" s="3" t="s">
-        <v>1804</v>
+        <v>1792</v>
       </c>
       <c r="F514" s="6" t="s">
-        <v>1805</v>
+        <v>1793</v>
       </c>
       <c r="G514" s="3" t="s">
-        <v>1806</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="3" t="s">
-        <v>1803</v>
+        <v>1630</v>
       </c>
       <c r="B515" s="3" t="b">
         <v>1</v>
@@ -18277,18 +18304,18 @@
       </c>
       <c r="D515" s="3"/>
       <c r="E515" s="3" t="s">
-        <v>817</v>
+        <v>1630</v>
       </c>
       <c r="F515" s="6" t="s">
-        <v>439</v>
+        <v>1797</v>
       </c>
       <c r="G515" s="3" t="s">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="516" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" s="3" t="s">
-        <v>2247</v>
+        <v>1796</v>
       </c>
       <c r="B516" s="3" t="b">
         <v>1</v>
@@ -18296,19 +18323,20 @@
       <c r="C516" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="D516" s="3"/>
       <c r="E516" s="3" t="s">
-        <v>2248</v>
+        <v>1796</v>
       </c>
       <c r="F516" s="6" t="s">
-        <v>2249</v>
+        <v>1798</v>
       </c>
       <c r="G516" s="3" t="s">
-        <v>2250</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" s="3" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="B517" s="3" t="b">
         <v>1</v>
@@ -18318,18 +18346,18 @@
       </c>
       <c r="D517" s="3"/>
       <c r="E517" s="3" t="s">
-        <v>1746</v>
+        <v>1804</v>
       </c>
       <c r="F517" s="6" t="s">
-        <v>1751</v>
+        <v>1805</v>
       </c>
       <c r="G517" s="3" t="s">
-        <v>1753</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" s="3" t="s">
-        <v>1807</v>
+        <v>1803</v>
       </c>
       <c r="B518" s="3" t="b">
         <v>1</v>
@@ -18339,18 +18367,18 @@
       </c>
       <c r="D518" s="3"/>
       <c r="E518" s="3" t="s">
-        <v>1810</v>
+        <v>817</v>
       </c>
       <c r="F518" s="6" t="s">
-        <v>1808</v>
+        <v>439</v>
       </c>
       <c r="G518" s="3" t="s">
-        <v>1824</v>
-      </c>
-    </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A519" s="3" t="s">
-        <v>1812</v>
+        <v>2247</v>
       </c>
       <c r="B519" s="3" t="b">
         <v>1</v>
@@ -18358,20 +18386,19 @@
       <c r="C519" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D519" s="3"/>
       <c r="E519" s="3" t="s">
-        <v>1811</v>
+        <v>2248</v>
       </c>
       <c r="F519" s="6" t="s">
-        <v>1809</v>
+        <v>2249</v>
       </c>
       <c r="G519" s="3" t="s">
-        <v>1825</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" s="3" t="s">
-        <v>1813</v>
+        <v>1801</v>
       </c>
       <c r="B520" s="3" t="b">
         <v>1</v>
@@ -18381,18 +18408,18 @@
       </c>
       <c r="D520" s="3"/>
       <c r="E520" s="3" t="s">
-        <v>1816</v>
+        <v>1746</v>
       </c>
       <c r="F520" s="6" t="s">
-        <v>1819</v>
+        <v>1751</v>
       </c>
       <c r="G520" s="3" t="s">
-        <v>1826</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" s="3" t="s">
-        <v>1814</v>
+        <v>1807</v>
       </c>
       <c r="B521" s="3" t="b">
         <v>1</v>
@@ -18402,18 +18429,18 @@
       </c>
       <c r="D521" s="3"/>
       <c r="E521" s="3" t="s">
-        <v>1820</v>
+        <v>1810</v>
       </c>
       <c r="F521" s="6" t="s">
-        <v>1818</v>
+        <v>1808</v>
       </c>
       <c r="G521" s="3" t="s">
-        <v>1827</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" s="3" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
       <c r="B522" s="3" t="b">
         <v>1</v>
@@ -18423,18 +18450,18 @@
       </c>
       <c r="D522" s="3"/>
       <c r="E522" s="3" t="s">
-        <v>1821</v>
+        <v>1811</v>
       </c>
       <c r="F522" s="6" t="s">
-        <v>1817</v>
+        <v>1809</v>
       </c>
       <c r="G522" s="3" t="s">
-        <v>1828</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" s="3" t="s">
-        <v>1839</v>
+        <v>1813</v>
       </c>
       <c r="B523" s="3" t="b">
         <v>1</v>
@@ -18444,18 +18471,18 @@
       </c>
       <c r="D523" s="3"/>
       <c r="E523" s="3" t="s">
-        <v>1822</v>
+        <v>1816</v>
       </c>
       <c r="F523" s="6" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
       <c r="G523" s="3" t="s">
-        <v>1829</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" s="3" t="s">
-        <v>1830</v>
+        <v>1814</v>
       </c>
       <c r="B524" s="3" t="b">
         <v>1</v>
@@ -18465,18 +18492,18 @@
       </c>
       <c r="D524" s="3"/>
       <c r="E524" s="3" t="s">
-        <v>648</v>
+        <v>1820</v>
       </c>
       <c r="F524" s="6" t="s">
-        <v>649</v>
+        <v>1818</v>
       </c>
       <c r="G524" s="3" t="s">
-        <v>1436</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" s="3" t="s">
-        <v>1831</v>
+        <v>1815</v>
       </c>
       <c r="B525" s="3" t="b">
         <v>1</v>
@@ -18486,18 +18513,18 @@
       </c>
       <c r="D525" s="3"/>
       <c r="E525" s="3" t="s">
-        <v>1649</v>
+        <v>1821</v>
       </c>
       <c r="F525" s="6" t="s">
-        <v>1146</v>
+        <v>1817</v>
       </c>
       <c r="G525" s="3" t="s">
-        <v>1716</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" s="3" t="s">
-        <v>1832</v>
+        <v>1839</v>
       </c>
       <c r="B526" s="3" t="b">
         <v>1</v>
@@ -18507,18 +18534,18 @@
       </c>
       <c r="D526" s="3"/>
       <c r="E526" s="3" t="s">
-        <v>1834</v>
+        <v>1822</v>
       </c>
       <c r="F526" s="6" t="s">
-        <v>1836</v>
+        <v>1823</v>
       </c>
       <c r="G526" s="3" t="s">
-        <v>1837</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" s="3" t="s">
-        <v>1833</v>
+        <v>1830</v>
       </c>
       <c r="B527" s="3" t="b">
         <v>1</v>
@@ -18528,184 +18555,187 @@
       </c>
       <c r="D527" s="3"/>
       <c r="E527" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="F527" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="G527" s="3" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A528" s="3" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B528" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C528" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D528" s="3"/>
+      <c r="E528" s="3" t="s">
+        <v>1649</v>
+      </c>
+      <c r="F528" s="6" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G528" s="3" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A529" s="3" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B529" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C529" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D529" s="3"/>
+      <c r="E529" s="3" t="s">
+        <v>1834</v>
+      </c>
+      <c r="F529" s="6" t="s">
+        <v>1836</v>
+      </c>
+      <c r="G529" s="3" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A530" s="3" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B530" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C530" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D530" s="3"/>
+      <c r="E530" s="3" t="s">
         <v>1835</v>
       </c>
-      <c r="F527" s="6" t="s">
+      <c r="F530" s="6" t="s">
         <v>1751</v>
       </c>
-      <c r="G527" s="3" t="s">
+      <c r="G530" s="3" t="s">
         <v>1838</v>
       </c>
     </row>
-    <row r="528" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A528" s="3" t="s">
+    <row r="531" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A531" s="3" t="s">
         <v>1842</v>
       </c>
-      <c r="B528" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C528" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E528" s="3" t="s">
+      <c r="B531" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C531" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E531" s="3" t="s">
         <v>1840</v>
       </c>
-      <c r="F528" s="6" t="s">
+      <c r="F531" s="6" t="s">
         <v>1843</v>
       </c>
-      <c r="G528" s="3" t="s">
+      <c r="G531" s="3" t="s">
         <v>1841</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A529" t="s">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
         <v>1844</v>
       </c>
-      <c r="B529" t="b">
-        <v>1</v>
-      </c>
-      <c r="C529" t="b">
-        <v>1</v>
-      </c>
-      <c r="E529" s="3" t="s">
+      <c r="B532" t="b">
+        <v>1</v>
+      </c>
+      <c r="C532" t="b">
+        <v>1</v>
+      </c>
+      <c r="E532" s="3" t="s">
         <v>1844</v>
       </c>
-      <c r="F529" s="6" t="s">
+      <c r="F532" s="6" t="s">
         <v>1847</v>
       </c>
-      <c r="G529" t="s">
+      <c r="G532" t="s">
         <v>1849</v>
-      </c>
-    </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A530" t="s">
-        <v>1845</v>
-      </c>
-      <c r="B530" t="b">
-        <v>1</v>
-      </c>
-      <c r="C530" t="b">
-        <v>1</v>
-      </c>
-      <c r="E530" s="3" t="s">
-        <v>1846</v>
-      </c>
-      <c r="F530" s="6" t="s">
-        <v>1848</v>
-      </c>
-      <c r="G530" t="s">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A531" t="s">
-        <v>1851</v>
-      </c>
-      <c r="B531" t="b">
-        <v>1</v>
-      </c>
-      <c r="C531" t="b">
-        <v>0</v>
-      </c>
-      <c r="D531" t="s">
-        <v>1854</v>
-      </c>
-      <c r="E531" s="3" t="s">
-        <v>1852</v>
-      </c>
-      <c r="F531" s="6" t="s">
-        <v>1853</v>
-      </c>
-      <c r="G531" s="3" t="s">
-        <v>1853</v>
-      </c>
-    </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A532" s="3" t="s">
-        <v>1851</v>
-      </c>
-      <c r="B532" t="b">
-        <v>0</v>
-      </c>
-      <c r="C532" t="b">
-        <v>1</v>
-      </c>
-      <c r="D532" s="3" t="s">
-        <v>1854</v>
-      </c>
-      <c r="E532" s="3" t="s">
-        <v>1855</v>
-      </c>
-      <c r="F532" s="6" t="s">
-        <v>1856</v>
-      </c>
-      <c r="G532" s="3" t="s">
-        <v>1856</v>
       </c>
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>1869</v>
+        <v>1845</v>
       </c>
       <c r="B533" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C533" t="b">
         <v>1</v>
       </c>
-      <c r="E533" t="s">
-        <v>1872</v>
+      <c r="E533" s="3" t="s">
+        <v>1846</v>
       </c>
       <c r="F533" s="6" t="s">
-        <v>1870</v>
-      </c>
-      <c r="G533" s="3" t="s">
-        <v>1871</v>
+        <v>1848</v>
+      </c>
+      <c r="G533" t="s">
+        <v>1850</v>
       </c>
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>1881</v>
+        <v>1851</v>
       </c>
       <c r="B534" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C534" t="b">
-        <v>1</v>
-      </c>
-      <c r="E534" t="s">
-        <v>1881</v>
+        <v>0</v>
+      </c>
+      <c r="D534" t="s">
+        <v>1854</v>
+      </c>
+      <c r="E534" s="3" t="s">
+        <v>1852</v>
       </c>
       <c r="F534" s="6" t="s">
-        <v>1882</v>
+        <v>1853</v>
       </c>
       <c r="G534" s="3" t="s">
-        <v>1883</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A535" t="s">
-        <v>1873</v>
-      </c>
-      <c r="B535" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C535" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E535" t="s">
-        <v>1874</v>
+      <c r="A535" s="3" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B535" t="b">
+        <v>0</v>
+      </c>
+      <c r="C535" t="b">
+        <v>1</v>
+      </c>
+      <c r="D535" s="3" t="s">
+        <v>1854</v>
+      </c>
+      <c r="E535" s="3" t="s">
+        <v>1855</v>
       </c>
       <c r="F535" s="6" t="s">
-        <v>1876</v>
-      </c>
-      <c r="G535" t="s">
-        <v>1875</v>
+        <v>1856</v>
+      </c>
+      <c r="G535" s="3" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>1877</v>
+        <v>1869</v>
       </c>
       <c r="B536" t="b">
         <v>0</v>
@@ -18714,78 +18744,78 @@
         <v>1</v>
       </c>
       <c r="E536" t="s">
-        <v>1878</v>
+        <v>1872</v>
       </c>
       <c r="F536" s="6" t="s">
-        <v>1879</v>
-      </c>
-      <c r="G536" t="s">
-        <v>1880</v>
+        <v>1870</v>
+      </c>
+      <c r="G536" s="3" t="s">
+        <v>1871</v>
       </c>
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>1884</v>
-      </c>
-      <c r="B537" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C537" s="3" t="b">
+        <v>1881</v>
+      </c>
+      <c r="B537" t="b">
+        <v>0</v>
+      </c>
+      <c r="C537" t="b">
         <v>1</v>
       </c>
       <c r="E537" t="s">
-        <v>1886</v>
+        <v>1881</v>
       </c>
       <c r="F537" s="6" t="s">
-        <v>1888</v>
-      </c>
-      <c r="G537" t="s">
-        <v>1977</v>
+        <v>1882</v>
+      </c>
+      <c r="G537" s="3" t="s">
+        <v>1883</v>
       </c>
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>1885</v>
+        <v>1873</v>
       </c>
       <c r="B538" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C538" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E538" t="s">
-        <v>1887</v>
+        <v>1874</v>
       </c>
       <c r="F538" s="6" t="s">
-        <v>1889</v>
+        <v>1876</v>
       </c>
       <c r="G538" t="s">
-        <v>1977</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>42</v>
-      </c>
-      <c r="B539" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C539" s="3" t="b">
+        <v>1877</v>
+      </c>
+      <c r="B539" t="b">
+        <v>0</v>
+      </c>
+      <c r="C539" t="b">
         <v>1</v>
       </c>
       <c r="E539" t="s">
-        <v>42</v>
+        <v>1878</v>
       </c>
       <c r="F539" s="6" t="s">
-        <v>110</v>
+        <v>1879</v>
       </c>
       <c r="G539" t="s">
-        <v>1227</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>1896</v>
+        <v>1884</v>
       </c>
       <c r="B540" s="3" t="b">
         <v>1</v>
@@ -18794,18 +18824,18 @@
         <v>1</v>
       </c>
       <c r="E540" t="s">
-        <v>1804</v>
+        <v>1886</v>
       </c>
       <c r="F540" s="6" t="s">
-        <v>1805</v>
+        <v>1888</v>
       </c>
       <c r="G540" t="s">
-        <v>1806</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>1897</v>
+        <v>1885</v>
       </c>
       <c r="B541" s="3" t="b">
         <v>1</v>
@@ -18814,18 +18844,18 @@
         <v>1</v>
       </c>
       <c r="E541" t="s">
-        <v>1899</v>
+        <v>1887</v>
       </c>
       <c r="F541" s="6" t="s">
-        <v>1904</v>
+        <v>1889</v>
       </c>
       <c r="G541" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>1898</v>
+        <v>42</v>
       </c>
       <c r="B542" s="3" t="b">
         <v>1</v>
@@ -18834,18 +18864,18 @@
         <v>1</v>
       </c>
       <c r="E542" t="s">
-        <v>1900</v>
+        <v>42</v>
       </c>
       <c r="F542" s="6" t="s">
-        <v>1905</v>
+        <v>110</v>
       </c>
       <c r="G542" t="s">
-        <v>1979</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>1890</v>
+        <v>1896</v>
       </c>
       <c r="B543" s="3" t="b">
         <v>1</v>
@@ -18854,18 +18884,18 @@
         <v>1</v>
       </c>
       <c r="E543" t="s">
-        <v>1881</v>
+        <v>1804</v>
       </c>
       <c r="F543" s="6" t="s">
-        <v>1906</v>
+        <v>1805</v>
       </c>
       <c r="G543" t="s">
-        <v>1883</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>1891</v>
+        <v>1897</v>
       </c>
       <c r="B544" s="3" t="b">
         <v>1</v>
@@ -18874,118 +18904,118 @@
         <v>1</v>
       </c>
       <c r="E544" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="F544" s="6" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="G544" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B545" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C545" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E545" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F545" s="6" t="s">
+        <v>1905</v>
+      </c>
+      <c r="G545" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B546" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C546" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E546" t="s">
+        <v>1881</v>
+      </c>
+      <c r="F546" s="6" t="s">
+        <v>1906</v>
+      </c>
+      <c r="G546" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B547" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C547" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E547" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F547" s="6" t="s">
+        <v>1907</v>
+      </c>
+      <c r="G547" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
         <v>1892</v>
       </c>
-      <c r="B545" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C545" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E545" t="s">
+      <c r="B548" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C548" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E548" t="s">
         <v>2094</v>
       </c>
-      <c r="F545" s="6" t="s">
+      <c r="F548" s="6" t="s">
         <v>2100</v>
       </c>
-      <c r="G545" t="s">
+      <c r="G548" t="s">
         <v>1981</v>
       </c>
     </row>
-    <row r="546" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A546" s="3" t="s">
+    <row r="549" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A549" s="3" t="s">
         <v>2048</v>
       </c>
-      <c r="B546" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C546" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E546" s="3" t="s">
+      <c r="B549" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C549" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E549" s="3" t="s">
         <v>2095</v>
       </c>
-      <c r="F546" s="6" t="s">
+      <c r="F549" s="6" t="s">
         <v>2101</v>
       </c>
-      <c r="G546" s="3" t="s">
+      <c r="G549" s="3" t="s">
         <v>2075</v>
-      </c>
-    </row>
-    <row r="547" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A547" s="3" t="s">
-        <v>2049</v>
-      </c>
-      <c r="B547" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C547" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E547" s="3" t="s">
-        <v>2096</v>
-      </c>
-      <c r="F547" s="6" t="s">
-        <v>2102</v>
-      </c>
-      <c r="G547" s="3" t="s">
-        <v>2076</v>
-      </c>
-    </row>
-    <row r="548" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A548" s="3" t="s">
-        <v>2050</v>
-      </c>
-      <c r="B548" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C548" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E548" s="3" t="s">
-        <v>2097</v>
-      </c>
-      <c r="F548" s="6" t="s">
-        <v>2103</v>
-      </c>
-      <c r="G548" s="3" t="s">
-        <v>2077</v>
-      </c>
-    </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A549" t="s">
-        <v>1893</v>
-      </c>
-      <c r="B549" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C549" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E549" t="s">
-        <v>2093</v>
-      </c>
-      <c r="F549" s="6" t="s">
-        <v>2104</v>
-      </c>
-      <c r="G549" t="s">
-        <v>1982</v>
       </c>
     </row>
     <row r="550" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A550" s="3" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
       <c r="B550" s="3" t="b">
         <v>1</v>
@@ -18994,18 +19024,18 @@
         <v>1</v>
       </c>
       <c r="E550" s="3" t="s">
-        <v>2092</v>
+        <v>2096</v>
       </c>
       <c r="F550" s="6" t="s">
-        <v>2105</v>
+        <v>2102</v>
       </c>
       <c r="G550" s="3" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="551" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A551" s="3" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="B551" s="3" t="b">
         <v>1</v>
@@ -19014,18 +19044,18 @@
         <v>1</v>
       </c>
       <c r="E551" s="3" t="s">
-        <v>2091</v>
+        <v>2097</v>
       </c>
       <c r="F551" s="6" t="s">
-        <v>2106</v>
+        <v>2103</v>
       </c>
       <c r="G551" s="3" t="s">
-        <v>2079</v>
-      </c>
-    </row>
-    <row r="552" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A552" s="3" t="s">
-        <v>2053</v>
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>1893</v>
       </c>
       <c r="B552" s="3" t="b">
         <v>1</v>
@@ -19033,19 +19063,19 @@
       <c r="C552" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E552" s="3" t="s">
-        <v>2090</v>
+      <c r="E552" t="s">
+        <v>2093</v>
       </c>
       <c r="F552" s="6" t="s">
-        <v>2107</v>
-      </c>
-      <c r="G552" s="3" t="s">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A553" t="s">
-        <v>1894</v>
+        <v>2104</v>
+      </c>
+      <c r="G552" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A553" s="3" t="s">
+        <v>2051</v>
       </c>
       <c r="B553" s="3" t="b">
         <v>1</v>
@@ -19053,19 +19083,19 @@
       <c r="C553" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E553" t="s">
-        <v>1902</v>
+      <c r="E553" s="3" t="s">
+        <v>2092</v>
       </c>
       <c r="F553" s="6" t="s">
-        <v>1909</v>
-      </c>
-      <c r="G553" t="s">
-        <v>1983</v>
+        <v>2105</v>
+      </c>
+      <c r="G553" s="3" t="s">
+        <v>2078</v>
       </c>
     </row>
     <row r="554" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A554" s="3" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="B554" s="3" t="b">
         <v>1</v>
@@ -19074,18 +19104,18 @@
         <v>1</v>
       </c>
       <c r="E554" s="3" t="s">
-        <v>2062</v>
+        <v>2091</v>
       </c>
       <c r="F554" s="6" t="s">
-        <v>2068</v>
+        <v>2106</v>
       </c>
       <c r="G554" s="3" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="555" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A555" s="3" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="B555" s="3" t="b">
         <v>1</v>
@@ -19094,18 +19124,18 @@
         <v>1</v>
       </c>
       <c r="E555" s="3" t="s">
-        <v>2098</v>
+        <v>2090</v>
       </c>
       <c r="F555" s="6" t="s">
-        <v>2070</v>
+        <v>2107</v>
       </c>
       <c r="G555" s="3" t="s">
-        <v>2082</v>
-      </c>
-    </row>
-    <row r="556" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A556" s="3" t="s">
-        <v>2056</v>
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>1894</v>
       </c>
       <c r="B556" s="3" t="b">
         <v>1</v>
@@ -19113,19 +19143,19 @@
       <c r="C556" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E556" s="3" t="s">
-        <v>2099</v>
+      <c r="E556" t="s">
+        <v>1902</v>
       </c>
       <c r="F556" s="6" t="s">
-        <v>2069</v>
-      </c>
-      <c r="G556" s="3" t="s">
-        <v>2083</v>
-      </c>
-    </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A557" t="s">
-        <v>1895</v>
+        <v>1909</v>
+      </c>
+      <c r="G556" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="557" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A557" s="3" t="s">
+        <v>2054</v>
       </c>
       <c r="B557" s="3" t="b">
         <v>1</v>
@@ -19133,19 +19163,19 @@
       <c r="C557" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E557" t="s">
-        <v>1903</v>
+      <c r="E557" s="3" t="s">
+        <v>2062</v>
       </c>
       <c r="F557" s="6" t="s">
-        <v>1908</v>
-      </c>
-      <c r="G557" t="s">
-        <v>1984</v>
+        <v>2068</v>
+      </c>
+      <c r="G557" s="3" t="s">
+        <v>2081</v>
       </c>
     </row>
     <row r="558" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A558" s="3" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="B558" s="3" t="b">
         <v>1</v>
@@ -19154,18 +19184,18 @@
         <v>1</v>
       </c>
       <c r="E558" s="3" t="s">
-        <v>2063</v>
+        <v>2098</v>
       </c>
       <c r="F558" s="6" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="G558" s="3" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="559" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A559" s="3" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="B559" s="3" t="b">
         <v>1</v>
@@ -19174,18 +19204,18 @@
         <v>1</v>
       </c>
       <c r="E559" s="3" t="s">
-        <v>2064</v>
+        <v>2099</v>
       </c>
       <c r="F559" s="6" t="s">
-        <v>2072</v>
+        <v>2069</v>
       </c>
       <c r="G559" s="3" t="s">
-        <v>2085</v>
-      </c>
-    </row>
-    <row r="560" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A560" s="3" t="s">
-        <v>2059</v>
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>1895</v>
       </c>
       <c r="B560" s="3" t="b">
         <v>1</v>
@@ -19193,19 +19223,19 @@
       <c r="C560" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E560" s="3" t="s">
-        <v>2065</v>
+      <c r="E560" t="s">
+        <v>1903</v>
       </c>
       <c r="F560" s="6" t="s">
-        <v>2089</v>
-      </c>
-      <c r="G560" s="3" t="s">
-        <v>2086</v>
+        <v>1908</v>
+      </c>
+      <c r="G560" t="s">
+        <v>1984</v>
       </c>
     </row>
     <row r="561" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A561" s="3" t="s">
-        <v>2060</v>
+        <v>2057</v>
       </c>
       <c r="B561" s="3" t="b">
         <v>1</v>
@@ -19214,18 +19244,18 @@
         <v>1</v>
       </c>
       <c r="E561" s="3" t="s">
-        <v>2066</v>
+        <v>2063</v>
       </c>
       <c r="F561" s="6" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="G561" s="3" t="s">
-        <v>2087</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="562" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A562" s="3" t="s">
-        <v>2061</v>
+        <v>2058</v>
       </c>
       <c r="B562" s="3" t="b">
         <v>1</v>
@@ -19234,98 +19264,98 @@
         <v>1</v>
       </c>
       <c r="E562" s="3" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
       <c r="F562" s="6" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="G562" s="3" t="s">
-        <v>2088</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="563" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A563" s="3" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B563" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C563" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E563" s="3" t="s">
+        <v>2065</v>
+      </c>
+      <c r="F563" s="6" t="s">
+        <v>2089</v>
+      </c>
+      <c r="G563" s="3" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="564" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A564" s="3" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B564" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C564" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E564" s="3" t="s">
+        <v>2066</v>
+      </c>
+      <c r="F564" s="6" t="s">
+        <v>2073</v>
+      </c>
+      <c r="G564" s="3" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="565" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A565" s="3" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B565" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C565" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E565" s="3" t="s">
+        <v>2067</v>
+      </c>
+      <c r="F565" s="6" t="s">
+        <v>2074</v>
+      </c>
+      <c r="G565" s="3" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="566" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A566" s="3" t="s">
         <v>2109</v>
       </c>
-      <c r="B563" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C563" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E563" s="3" t="s">
+      <c r="B566" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C566" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E566" s="3" t="s">
         <v>2110</v>
       </c>
-      <c r="F563" s="6" t="s">
+      <c r="F566" s="6" t="s">
         <v>2111</v>
       </c>
-      <c r="G563" s="3" t="s">
+      <c r="G566" s="3" t="s">
         <v>2112</v>
-      </c>
-    </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A564" t="s">
-        <v>1910</v>
-      </c>
-      <c r="B564" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C564" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E564" t="s">
-        <v>1923</v>
-      </c>
-      <c r="F564" s="6" t="s">
-        <v>1957</v>
-      </c>
-      <c r="G564" t="s">
-        <v>1985</v>
-      </c>
-    </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A565" t="s">
-        <v>1911</v>
-      </c>
-      <c r="B565" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C565" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E565" t="s">
-        <v>1927</v>
-      </c>
-      <c r="F565" s="6" t="s">
-        <v>1958</v>
-      </c>
-      <c r="G565" t="s">
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A566" t="s">
-        <v>1912</v>
-      </c>
-      <c r="B566" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C566" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E566" t="s">
-        <v>2006</v>
-      </c>
-      <c r="F566" s="6" t="s">
-        <v>2007</v>
-      </c>
-      <c r="G566" t="s">
-        <v>2008</v>
       </c>
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>320</v>
+        <v>1910</v>
       </c>
       <c r="B567" s="3" t="b">
         <v>1</v>
@@ -19334,18 +19364,18 @@
         <v>1</v>
       </c>
       <c r="E567" t="s">
-        <v>320</v>
+        <v>1923</v>
       </c>
       <c r="F567" s="6" t="s">
-        <v>319</v>
+        <v>1957</v>
       </c>
       <c r="G567" t="s">
-        <v>1322</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="B568" s="3" t="b">
         <v>1</v>
@@ -19354,18 +19384,18 @@
         <v>1</v>
       </c>
       <c r="E568" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="F568" s="6" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="G568" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="B569" s="3" t="b">
         <v>1</v>
@@ -19374,18 +19404,18 @@
         <v>1</v>
       </c>
       <c r="E569" t="s">
-        <v>1929</v>
+        <v>2006</v>
       </c>
       <c r="F569" s="6" t="s">
-        <v>1960</v>
+        <v>2007</v>
       </c>
       <c r="G569" t="s">
-        <v>1988</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>1915</v>
+        <v>320</v>
       </c>
       <c r="B570" s="3" t="b">
         <v>1</v>
@@ -19394,18 +19424,18 @@
         <v>1</v>
       </c>
       <c r="E570" t="s">
-        <v>1930</v>
+        <v>320</v>
       </c>
       <c r="F570" s="6" t="s">
-        <v>1961</v>
+        <v>319</v>
       </c>
       <c r="G570" t="s">
-        <v>1989</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>1916</v>
+        <v>1913</v>
       </c>
       <c r="B571" s="3" t="b">
         <v>1</v>
@@ -19414,18 +19444,18 @@
         <v>1</v>
       </c>
       <c r="E571" t="s">
-        <v>1931</v>
+        <v>1928</v>
       </c>
       <c r="F571" s="6" t="s">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="G571" t="s">
-        <v>1990</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
       <c r="B572" s="3" t="b">
         <v>1</v>
@@ -19434,18 +19464,18 @@
         <v>1</v>
       </c>
       <c r="E572" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="F572" s="6" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
       <c r="G572" t="s">
-        <v>1991</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>1918</v>
+        <v>1915</v>
       </c>
       <c r="B573" s="3" t="b">
         <v>1</v>
@@ -19454,18 +19484,18 @@
         <v>1</v>
       </c>
       <c r="E573" t="s">
-        <v>882</v>
+        <v>1930</v>
       </c>
       <c r="F573" s="6" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="G573" t="s">
-        <v>1539</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>1919</v>
+        <v>1916</v>
       </c>
       <c r="B574" s="3" t="b">
         <v>1</v>
@@ -19474,18 +19504,18 @@
         <v>1</v>
       </c>
       <c r="E574" t="s">
-        <v>1924</v>
+        <v>1931</v>
       </c>
       <c r="F574" s="6" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="G574" t="s">
-        <v>2005</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>1920</v>
+        <v>1917</v>
       </c>
       <c r="B575" s="3" t="b">
         <v>1</v>
@@ -19494,18 +19524,18 @@
         <v>1</v>
       </c>
       <c r="E575" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="F575" s="6" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
       <c r="G575" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>1921</v>
+        <v>1918</v>
       </c>
       <c r="B576" s="3" t="b">
         <v>1</v>
@@ -19514,18 +19544,18 @@
         <v>1</v>
       </c>
       <c r="E576" t="s">
-        <v>1925</v>
+        <v>882</v>
       </c>
       <c r="F576" s="6" t="s">
-        <v>2108</v>
+        <v>1964</v>
       </c>
       <c r="G576" t="s">
-        <v>1993</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>1922</v>
+        <v>1919</v>
       </c>
       <c r="B577" s="3" t="b">
         <v>1</v>
@@ -19534,138 +19564,138 @@
         <v>1</v>
       </c>
       <c r="E577" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="F577" s="6" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="G577" t="s">
-        <v>1994</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>1938</v>
-      </c>
-      <c r="B578" t="b">
-        <v>1</v>
-      </c>
-      <c r="C578" t="b">
+        <v>1920</v>
+      </c>
+      <c r="B578" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C578" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E578" t="s">
-        <v>0</v>
+        <v>1933</v>
       </c>
       <c r="F578" s="6" t="s">
-        <v>1208</v>
+        <v>1966</v>
       </c>
       <c r="G578" t="s">
-        <v>1995</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>1934</v>
-      </c>
-      <c r="B579" t="b">
-        <v>1</v>
-      </c>
-      <c r="C579" t="b">
+        <v>1921</v>
+      </c>
+      <c r="B579" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C579" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E579" t="s">
-        <v>1935</v>
+        <v>1925</v>
       </c>
       <c r="F579" s="6" t="s">
-        <v>1968</v>
+        <v>2108</v>
       </c>
       <c r="G579" t="s">
-        <v>1996</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>1936</v>
-      </c>
-      <c r="B580" t="b">
-        <v>1</v>
-      </c>
-      <c r="C580" t="b">
+        <v>1922</v>
+      </c>
+      <c r="B580" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C580" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E580" t="s">
-        <v>1937</v>
+        <v>1926</v>
       </c>
       <c r="F580" s="6" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="G580" t="s">
-        <v>1997</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>1944</v>
-      </c>
-      <c r="B581" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C581" s="3" t="b">
+        <v>1938</v>
+      </c>
+      <c r="B581" t="b">
+        <v>1</v>
+      </c>
+      <c r="C581" t="b">
         <v>1</v>
       </c>
       <c r="E581" t="s">
-        <v>1939</v>
+        <v>0</v>
       </c>
       <c r="F581" s="6" t="s">
-        <v>1970</v>
+        <v>1208</v>
       </c>
       <c r="G581" t="s">
-        <v>1998</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>1945</v>
-      </c>
-      <c r="B582" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C582" s="3" t="b">
+        <v>1934</v>
+      </c>
+      <c r="B582" t="b">
+        <v>1</v>
+      </c>
+      <c r="C582" t="b">
         <v>1</v>
       </c>
       <c r="E582" t="s">
-        <v>1940</v>
+        <v>1935</v>
       </c>
       <c r="F582" s="6" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="G582" t="s">
-        <v>1999</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>1941</v>
-      </c>
-      <c r="B583" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C583" s="3" t="b">
+        <v>1936</v>
+      </c>
+      <c r="B583" t="b">
+        <v>1</v>
+      </c>
+      <c r="C583" t="b">
         <v>1</v>
       </c>
       <c r="E583" t="s">
-        <v>1942</v>
+        <v>1937</v>
       </c>
       <c r="F583" s="6" t="s">
-        <v>1972</v>
+        <v>1969</v>
       </c>
       <c r="G583" t="s">
-        <v>2000</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="B584" s="3" t="b">
         <v>1</v>
@@ -19674,18 +19704,18 @@
         <v>1</v>
       </c>
       <c r="E584" t="s">
-        <v>1974</v>
+        <v>1939</v>
       </c>
       <c r="F584" s="6" t="s">
-        <v>1973</v>
+        <v>1970</v>
       </c>
       <c r="G584" t="s">
-        <v>2001</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B585" s="3" t="b">
         <v>1</v>
@@ -19694,18 +19724,18 @@
         <v>1</v>
       </c>
       <c r="E585" t="s">
-        <v>422</v>
+        <v>1940</v>
       </c>
       <c r="F585" s="6" t="s">
-        <v>421</v>
+        <v>1971</v>
       </c>
       <c r="G585" t="s">
-        <v>1357</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>1947</v>
+        <v>1941</v>
       </c>
       <c r="B586" s="3" t="b">
         <v>1</v>
@@ -19714,18 +19744,18 @@
         <v>1</v>
       </c>
       <c r="E586" t="s">
-        <v>1858</v>
+        <v>1942</v>
       </c>
       <c r="F586" s="6" t="s">
-        <v>1862</v>
+        <v>1972</v>
       </c>
       <c r="G586" t="s">
-        <v>1866</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>1948</v>
+        <v>1943</v>
       </c>
       <c r="B587" s="3" t="b">
         <v>1</v>
@@ -19734,18 +19764,18 @@
         <v>1</v>
       </c>
       <c r="E587" t="s">
-        <v>1857</v>
+        <v>1974</v>
       </c>
       <c r="F587" s="6" t="s">
-        <v>1861</v>
+        <v>1973</v>
       </c>
       <c r="G587" t="s">
-        <v>1865</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>1949</v>
+        <v>1946</v>
       </c>
       <c r="B588" s="3" t="b">
         <v>1</v>
@@ -19754,18 +19784,18 @@
         <v>1</v>
       </c>
       <c r="E588" t="s">
-        <v>1860</v>
+        <v>422</v>
       </c>
       <c r="F588" s="6" t="s">
-        <v>1864</v>
+        <v>421</v>
       </c>
       <c r="G588" t="s">
-        <v>1868</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>1950</v>
+        <v>1947</v>
       </c>
       <c r="B589" s="3" t="b">
         <v>1</v>
@@ -19774,18 +19804,18 @@
         <v>1</v>
       </c>
       <c r="E589" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="F589" s="6" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="G589" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>1951</v>
+        <v>1948</v>
       </c>
       <c r="B590" s="3" t="b">
         <v>1</v>
@@ -19794,18 +19824,18 @@
         <v>1</v>
       </c>
       <c r="E590" t="s">
-        <v>1952</v>
+        <v>1857</v>
       </c>
       <c r="F590" s="6" t="s">
-        <v>1975</v>
+        <v>1861</v>
       </c>
       <c r="G590" t="s">
-        <v>2002</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>1953</v>
+        <v>1949</v>
       </c>
       <c r="B591" s="3" t="b">
         <v>1</v>
@@ -19814,18 +19844,18 @@
         <v>1</v>
       </c>
       <c r="E591" t="s">
-        <v>1955</v>
+        <v>1860</v>
       </c>
       <c r="F591" s="6" t="s">
-        <v>1976</v>
+        <v>1864</v>
       </c>
       <c r="G591" t="s">
-        <v>2003</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>1954</v>
+        <v>1950</v>
       </c>
       <c r="B592" s="3" t="b">
         <v>1</v>
@@ -19834,98 +19864,98 @@
         <v>1</v>
       </c>
       <c r="E592" t="s">
-        <v>1956</v>
+        <v>1859</v>
       </c>
       <c r="F592" s="6" t="s">
-        <v>1908</v>
+        <v>1863</v>
       </c>
       <c r="G592" t="s">
-        <v>2004</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>2006</v>
-      </c>
-      <c r="B593" t="b">
-        <v>0</v>
-      </c>
-      <c r="C593" t="b">
+        <v>1951</v>
+      </c>
+      <c r="B593" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C593" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E593" t="s">
-        <v>2006</v>
+        <v>1952</v>
       </c>
       <c r="F593" s="6" t="s">
-        <v>2007</v>
+        <v>1975</v>
       </c>
       <c r="G593" t="s">
-        <v>2008</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>2009</v>
-      </c>
-      <c r="B594" t="b">
-        <v>0</v>
-      </c>
-      <c r="C594" t="b">
+        <v>1953</v>
+      </c>
+      <c r="B594" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C594" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E594" t="s">
-        <v>2009</v>
+        <v>1955</v>
       </c>
       <c r="F594" s="6" t="s">
-        <v>2010</v>
+        <v>1976</v>
       </c>
       <c r="G594" t="s">
-        <v>2011</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>2019</v>
-      </c>
-      <c r="B595" t="b">
-        <v>1</v>
-      </c>
-      <c r="C595" t="b">
+        <v>1954</v>
+      </c>
+      <c r="B595" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C595" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E595" t="s">
-        <v>2019</v>
+        <v>1956</v>
       </c>
       <c r="F595" s="6" t="s">
-        <v>2022</v>
+        <v>1908</v>
       </c>
       <c r="G595" t="s">
-        <v>2023</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>2020</v>
-      </c>
-      <c r="B596" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C596" s="3" t="b">
+        <v>2006</v>
+      </c>
+      <c r="B596" t="b">
+        <v>0</v>
+      </c>
+      <c r="C596" t="b">
         <v>1</v>
       </c>
       <c r="E596" t="s">
-        <v>2020</v>
+        <v>2006</v>
       </c>
       <c r="F596" s="6" t="s">
-        <v>2021</v>
+        <v>2007</v>
       </c>
       <c r="G596" t="s">
-        <v>2024</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>2031</v>
+        <v>2009</v>
       </c>
       <c r="B597" t="b">
         <v>0</v>
@@ -19934,18 +19964,18 @@
         <v>1</v>
       </c>
       <c r="E597" t="s">
-        <v>2031</v>
+        <v>2009</v>
       </c>
       <c r="F597" s="6" t="s">
-        <v>1963</v>
+        <v>2010</v>
       </c>
       <c r="G597" t="s">
-        <v>2038</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>2028</v>
+        <v>2019</v>
       </c>
       <c r="B598" t="b">
         <v>1</v>
@@ -19954,38 +19984,38 @@
         <v>1</v>
       </c>
       <c r="E598" t="s">
-        <v>2029</v>
+        <v>2019</v>
       </c>
       <c r="F598" s="6" t="s">
-        <v>2030</v>
+        <v>2022</v>
       </c>
       <c r="G598" t="s">
-        <v>2039</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A599" s="3" t="s">
-        <v>2032</v>
-      </c>
-      <c r="B599" t="b">
-        <v>0</v>
-      </c>
-      <c r="C599" t="b">
+      <c r="A599" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B599" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C599" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E599" t="s">
-        <v>2033</v>
+        <v>2020</v>
       </c>
       <c r="F599" s="6" t="s">
-        <v>2034</v>
+        <v>2021</v>
       </c>
       <c r="G599" t="s">
-        <v>2040</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>2035</v>
+        <v>2031</v>
       </c>
       <c r="B600" t="b">
         <v>0</v>
@@ -19994,38 +20024,38 @@
         <v>1</v>
       </c>
       <c r="E600" t="s">
-        <v>2036</v>
+        <v>2031</v>
       </c>
       <c r="F600" s="6" t="s">
-        <v>2037</v>
+        <v>1963</v>
       </c>
       <c r="G600" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="601" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>2042</v>
+        <v>2028</v>
       </c>
       <c r="B601" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C601" t="b">
         <v>1</v>
       </c>
       <c r="E601" t="s">
-        <v>2042</v>
+        <v>2029</v>
       </c>
       <c r="F601" s="6" t="s">
-        <v>2045</v>
+        <v>2030</v>
       </c>
       <c r="G601" t="s">
-        <v>2046</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="602" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A602" t="s">
-        <v>2043</v>
+      <c r="A602" s="3" t="s">
+        <v>2032</v>
       </c>
       <c r="B602" t="b">
         <v>0</v>
@@ -20034,18 +20064,18 @@
         <v>1</v>
       </c>
       <c r="E602" t="s">
-        <v>2043</v>
+        <v>2033</v>
       </c>
       <c r="F602" s="6" t="s">
-        <v>2044</v>
+        <v>2034</v>
       </c>
       <c r="G602" t="s">
-        <v>2047</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="603" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>970</v>
+        <v>2035</v>
       </c>
       <c r="B603" t="b">
         <v>0</v>
@@ -20054,18 +20084,18 @@
         <v>1</v>
       </c>
       <c r="E603" t="s">
-        <v>970</v>
+        <v>2036</v>
       </c>
       <c r="F603" s="6" t="s">
-        <v>1207</v>
+        <v>2037</v>
       </c>
       <c r="G603" t="s">
-        <v>1620</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>2113</v>
+        <v>2042</v>
       </c>
       <c r="B604" t="b">
         <v>0</v>
@@ -20074,18 +20104,18 @@
         <v>1</v>
       </c>
       <c r="E604" t="s">
-        <v>2114</v>
+        <v>2042</v>
       </c>
       <c r="F604" s="6" t="s">
-        <v>2115</v>
+        <v>2045</v>
       </c>
       <c r="G604" t="s">
-        <v>2119</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="605" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>2116</v>
+        <v>2043</v>
       </c>
       <c r="B605" t="b">
         <v>0</v>
@@ -20094,18 +20124,18 @@
         <v>1</v>
       </c>
       <c r="E605" t="s">
-        <v>2118</v>
+        <v>2043</v>
       </c>
       <c r="F605" s="6" t="s">
-        <v>2117</v>
+        <v>2044</v>
       </c>
       <c r="G605" t="s">
-        <v>2120</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="606" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>2121</v>
+        <v>970</v>
       </c>
       <c r="B606" t="b">
         <v>0</v>
@@ -20114,98 +20144,98 @@
         <v>1</v>
       </c>
       <c r="E606" t="s">
-        <v>2122</v>
+        <v>970</v>
       </c>
       <c r="F606" s="6" t="s">
-        <v>2123</v>
+        <v>1207</v>
       </c>
       <c r="G606" t="s">
-        <v>2124</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>2125</v>
+        <v>2113</v>
       </c>
       <c r="B607" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C607" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E607" t="s">
-        <v>2128</v>
+        <v>2114</v>
       </c>
       <c r="F607" s="6" t="s">
-        <v>2126</v>
+        <v>2115</v>
       </c>
       <c r="G607" t="s">
-        <v>2127</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="608" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>37</v>
+        <v>2116</v>
       </c>
       <c r="B608" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C608" t="b">
         <v>1</v>
       </c>
       <c r="E608" t="s">
-        <v>2129</v>
+        <v>2118</v>
       </c>
       <c r="F608" s="6" t="s">
-        <v>2130</v>
+        <v>2117</v>
       </c>
       <c r="G608" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="609" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A609" s="3" t="s">
-        <v>2145</v>
-      </c>
-      <c r="B609" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C609" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E609" s="3" t="s">
-        <v>1700</v>
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>2121</v>
+      </c>
+      <c r="B609" t="b">
+        <v>0</v>
+      </c>
+      <c r="C609" t="b">
+        <v>1</v>
+      </c>
+      <c r="E609" t="s">
+        <v>2122</v>
       </c>
       <c r="F609" s="6" t="s">
-        <v>2148</v>
-      </c>
-      <c r="G609" s="3" t="s">
-        <v>1736</v>
-      </c>
-    </row>
-    <row r="610" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A610" s="3" t="s">
-        <v>2146</v>
-      </c>
-      <c r="B610" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C610" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E610" s="3" t="s">
-        <v>2147</v>
+        <v>2123</v>
+      </c>
+      <c r="G609" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B610" t="b">
+        <v>1</v>
+      </c>
+      <c r="C610" t="b">
+        <v>0</v>
+      </c>
+      <c r="E610" t="s">
+        <v>2128</v>
       </c>
       <c r="F610" s="6" t="s">
-        <v>2149</v>
-      </c>
-      <c r="G610" s="3" t="s">
-        <v>1736</v>
+        <v>2126</v>
+      </c>
+      <c r="G610" t="s">
+        <v>2127</v>
       </c>
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>2139</v>
+        <v>37</v>
       </c>
       <c r="B611" t="b">
         <v>1</v>
@@ -20214,18 +20244,18 @@
         <v>1</v>
       </c>
       <c r="E611" t="s">
-        <v>2143</v>
+        <v>2129</v>
       </c>
       <c r="F611" s="6" t="s">
-        <v>2144</v>
+        <v>2130</v>
       </c>
       <c r="G611" t="s">
-        <v>2166</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="612" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A612" s="3" t="s">
-        <v>2154</v>
+        <v>2145</v>
       </c>
       <c r="B612" s="3" t="b">
         <v>1</v>
@@ -20234,18 +20264,18 @@
         <v>1</v>
       </c>
       <c r="E612" s="3" t="s">
-        <v>2158</v>
+        <v>1700</v>
       </c>
       <c r="F612" s="6" t="s">
-        <v>2162</v>
+        <v>2148</v>
       </c>
       <c r="G612" s="3" t="s">
-        <v>2167</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="613" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A613" s="3" t="s">
-        <v>2155</v>
+        <v>2146</v>
       </c>
       <c r="B613" s="3" t="b">
         <v>1</v>
@@ -20254,198 +20284,198 @@
         <v>1</v>
       </c>
       <c r="E613" s="3" t="s">
-        <v>2159</v>
+        <v>2147</v>
       </c>
       <c r="F613" s="6" t="s">
-        <v>2163</v>
+        <v>2149</v>
       </c>
       <c r="G613" s="3" t="s">
-        <v>2168</v>
-      </c>
-    </row>
-    <row r="614" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A614" s="3" t="s">
-        <v>2156</v>
-      </c>
-      <c r="B614" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C614" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E614" s="3" t="s">
-        <v>2160</v>
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>2139</v>
+      </c>
+      <c r="B614" t="b">
+        <v>1</v>
+      </c>
+      <c r="C614" t="b">
+        <v>1</v>
+      </c>
+      <c r="E614" t="s">
+        <v>2143</v>
       </c>
       <c r="F614" s="6" t="s">
-        <v>2164</v>
-      </c>
-      <c r="G614" s="3" t="s">
-        <v>2169</v>
+        <v>2144</v>
+      </c>
+      <c r="G614" t="s">
+        <v>2166</v>
       </c>
     </row>
     <row r="615" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A615" s="3" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B615" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C615" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E615" s="3" t="s">
+        <v>2158</v>
+      </c>
+      <c r="F615" s="6" t="s">
+        <v>2162</v>
+      </c>
+      <c r="G615" s="3" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="616" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A616" s="3" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B616" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C616" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E616" s="3" t="s">
+        <v>2159</v>
+      </c>
+      <c r="F616" s="6" t="s">
+        <v>2163</v>
+      </c>
+      <c r="G616" s="3" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="617" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A617" s="3" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B617" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C617" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E617" s="3" t="s">
+        <v>2160</v>
+      </c>
+      <c r="F617" s="6" t="s">
+        <v>2164</v>
+      </c>
+      <c r="G617" s="3" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="618" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A618" s="3" t="s">
         <v>2157</v>
       </c>
-      <c r="B615" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C615" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E615" s="3" t="s">
+      <c r="B618" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C618" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E618" s="3" t="s">
         <v>2161</v>
       </c>
-      <c r="F615" s="6" t="s">
+      <c r="F618" s="6" t="s">
         <v>2165</v>
       </c>
-      <c r="G615" s="3" t="s">
+      <c r="G618" s="3" t="s">
         <v>2170</v>
-      </c>
-    </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A616" t="s">
-        <v>2141</v>
-      </c>
-      <c r="B616" t="b">
-        <v>1</v>
-      </c>
-      <c r="C616" t="b">
-        <v>1</v>
-      </c>
-      <c r="E616" t="s">
-        <v>2142</v>
-      </c>
-      <c r="F616" s="6" t="s">
-        <v>2150</v>
-      </c>
-      <c r="G616" t="s">
-        <v>2171</v>
-      </c>
-    </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A617" t="s">
-        <v>2151</v>
-      </c>
-      <c r="B617" t="b">
-        <v>1</v>
-      </c>
-      <c r="C617" t="b">
-        <v>1</v>
-      </c>
-      <c r="E617" t="s">
-        <v>2152</v>
-      </c>
-      <c r="F617" s="6" t="s">
-        <v>2153</v>
-      </c>
-      <c r="G617" t="s">
-        <v>2172</v>
-      </c>
-    </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A618" t="s">
-        <v>2173</v>
-      </c>
-      <c r="B618" t="b">
-        <v>1</v>
-      </c>
-      <c r="C618" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E618" t="s">
-        <v>2176</v>
-      </c>
-      <c r="F618" s="6" t="s">
-        <v>2179</v>
-      </c>
-      <c r="G618" t="s">
-        <v>2182</v>
       </c>
     </row>
     <row r="619" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>2174</v>
-      </c>
-      <c r="B619" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C619" s="3" t="b">
+        <v>2141</v>
+      </c>
+      <c r="B619" t="b">
+        <v>1</v>
+      </c>
+      <c r="C619" t="b">
         <v>1</v>
       </c>
       <c r="E619" t="s">
-        <v>2177</v>
+        <v>2142</v>
       </c>
       <c r="F619" s="6" t="s">
-        <v>2180</v>
+        <v>2150</v>
       </c>
       <c r="G619" t="s">
-        <v>2183</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="620" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>2175</v>
-      </c>
-      <c r="B620" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C620" s="3" t="b">
+        <v>2151</v>
+      </c>
+      <c r="B620" t="b">
+        <v>1</v>
+      </c>
+      <c r="C620" t="b">
         <v>1</v>
       </c>
       <c r="E620" t="s">
-        <v>2178</v>
+        <v>2152</v>
       </c>
       <c r="F620" s="6" t="s">
-        <v>2181</v>
+        <v>2153</v>
       </c>
       <c r="G620" t="s">
-        <v>2184</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>2191</v>
-      </c>
-      <c r="B621" s="3" t="b">
+        <v>2173</v>
+      </c>
+      <c r="B621" t="b">
         <v>1</v>
       </c>
       <c r="C621" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E621" t="s">
-        <v>2192</v>
+        <v>2176</v>
       </c>
       <c r="F621" s="6" t="s">
-        <v>2193</v>
+        <v>2179</v>
       </c>
       <c r="G621" t="s">
-        <v>2194</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>2195</v>
-      </c>
-      <c r="B622" t="b">
-        <v>1</v>
-      </c>
-      <c r="C622" t="b">
+        <v>2174</v>
+      </c>
+      <c r="B622" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C622" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E622" t="s">
-        <v>2196</v>
+        <v>2177</v>
       </c>
       <c r="F622" s="6" t="s">
-        <v>2197</v>
+        <v>2180</v>
       </c>
       <c r="G622" t="s">
-        <v>2216</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>2198</v>
+        <v>2175</v>
       </c>
       <c r="B623" s="3" t="b">
         <v>1</v>
@@ -20454,18 +20484,18 @@
         <v>1</v>
       </c>
       <c r="E623" t="s">
-        <v>2204</v>
+        <v>2178</v>
       </c>
       <c r="F623" s="6" t="s">
-        <v>2210</v>
+        <v>2181</v>
       </c>
       <c r="G623" t="s">
-        <v>2217</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>2199</v>
+        <v>2191</v>
       </c>
       <c r="B624" s="3" t="b">
         <v>1</v>
@@ -20474,38 +20504,38 @@
         <v>1</v>
       </c>
       <c r="E624" t="s">
-        <v>2208</v>
+        <v>2192</v>
       </c>
       <c r="F624" s="6" t="s">
-        <v>2211</v>
+        <v>2193</v>
       </c>
       <c r="G624" t="s">
-        <v>2218</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>2200</v>
-      </c>
-      <c r="B625" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C625" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E625" s="3" t="s">
-        <v>2205</v>
+        <v>2195</v>
+      </c>
+      <c r="B625" t="b">
+        <v>1</v>
+      </c>
+      <c r="C625" t="b">
+        <v>1</v>
+      </c>
+      <c r="E625" t="s">
+        <v>2196</v>
       </c>
       <c r="F625" s="6" t="s">
-        <v>2212</v>
+        <v>2197</v>
       </c>
       <c r="G625" t="s">
-        <v>2219</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="626" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>2201</v>
+        <v>2198</v>
       </c>
       <c r="B626" s="3" t="b">
         <v>1</v>
@@ -20513,19 +20543,19 @@
       <c r="C626" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E626" s="3" t="s">
-        <v>2206</v>
+      <c r="E626" t="s">
+        <v>2204</v>
       </c>
       <c r="F626" s="6" t="s">
-        <v>2213</v>
+        <v>2210</v>
       </c>
       <c r="G626" t="s">
-        <v>2220</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>2202</v>
+        <v>2199</v>
       </c>
       <c r="B627" s="3" t="b">
         <v>1</v>
@@ -20533,102 +20563,99 @@
       <c r="C627" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E627" s="3" t="s">
-        <v>2207</v>
+      <c r="E627" t="s">
+        <v>2208</v>
       </c>
       <c r="F627" s="6" t="s">
-        <v>2214</v>
+        <v>2211</v>
       </c>
       <c r="G627" t="s">
-        <v>2221</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="628" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
+        <v>2200</v>
+      </c>
+      <c r="B628" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C628" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E628" s="3" t="s">
+        <v>2205</v>
+      </c>
+      <c r="F628" s="6" t="s">
+        <v>2212</v>
+      </c>
+      <c r="G628" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>2201</v>
+      </c>
+      <c r="B629" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C629" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E629" s="3" t="s">
+        <v>2206</v>
+      </c>
+      <c r="F629" s="6" t="s">
+        <v>2213</v>
+      </c>
+      <c r="G629" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>2202</v>
+      </c>
+      <c r="B630" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C630" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E630" s="3" t="s">
+        <v>2207</v>
+      </c>
+      <c r="F630" s="6" t="s">
+        <v>2214</v>
+      </c>
+      <c r="G630" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
         <v>2203</v>
       </c>
-      <c r="B628" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C628" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E628" s="3" t="s">
+      <c r="B631" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C631" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E631" s="3" t="s">
         <v>2209</v>
       </c>
-      <c r="F628" s="6" t="s">
+      <c r="F631" s="6" t="s">
         <v>2215</v>
       </c>
-      <c r="G628" t="s">
+      <c r="G631" t="s">
         <v>2222</v>
-      </c>
-    </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A629" s="3" t="s">
-        <v>1699</v>
-      </c>
-      <c r="B629" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C629" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D629" s="3"/>
-      <c r="E629" s="3" t="s">
-        <v>1699</v>
-      </c>
-      <c r="F629" s="6" t="s">
-        <v>2027</v>
-      </c>
-      <c r="G629" s="3" t="s">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A630" s="3" t="s">
-        <v>2025</v>
-      </c>
-      <c r="B630" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C630" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D630" s="3"/>
-      <c r="E630" s="3" t="s">
-        <v>2025</v>
-      </c>
-      <c r="F630" s="6" t="s">
-        <v>2026</v>
-      </c>
-      <c r="G630" s="3" t="s">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A631" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="B631" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C631" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D631" s="3"/>
-      <c r="E631" s="3" t="s">
-        <v>817</v>
-      </c>
-      <c r="F631" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="G631" s="3" t="s">
-        <v>1490</v>
       </c>
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A632" s="3" t="s">
-        <v>829</v>
+        <v>1699</v>
       </c>
       <c r="B632" s="3" t="b">
         <v>1</v>
@@ -20638,18 +20665,18 @@
       </c>
       <c r="D632" s="3"/>
       <c r="E632" s="3" t="s">
-        <v>831</v>
+        <v>1699</v>
       </c>
       <c r="F632" s="6" t="s">
-        <v>830</v>
+        <v>2027</v>
       </c>
       <c r="G632" s="3" t="s">
-        <v>1494</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="633" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A633" s="3" t="s">
-        <v>818</v>
+        <v>2025</v>
       </c>
       <c r="B633" s="3" t="b">
         <v>1</v>
@@ -20659,18 +20686,18 @@
       </c>
       <c r="D633" s="3"/>
       <c r="E633" s="3" t="s">
-        <v>809</v>
+        <v>2025</v>
       </c>
       <c r="F633" s="6" t="s">
-        <v>819</v>
+        <v>2026</v>
       </c>
       <c r="G633" s="3" t="s">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="634" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A634" s="3" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="B634" s="3" t="b">
         <v>1</v>
@@ -20678,19 +20705,20 @@
       <c r="C634" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="D634" s="3"/>
       <c r="E634" s="3" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="F634" s="6" t="s">
-        <v>821</v>
+        <v>439</v>
       </c>
       <c r="G634" s="3" t="s">
-        <v>1491</v>
-      </c>
-    </row>
-    <row r="635" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635" s="3" t="s">
-        <v>2131</v>
+        <v>829</v>
       </c>
       <c r="B635" s="3" t="b">
         <v>1</v>
@@ -20698,19 +20726,20 @@
       <c r="C635" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="D635" s="3"/>
       <c r="E635" s="3" t="s">
-        <v>1682</v>
+        <v>831</v>
       </c>
       <c r="F635" s="6" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G635" s="3" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A636" s="3" t="s">
-        <v>2132</v>
+        <v>818</v>
       </c>
       <c r="B636" s="3" t="b">
         <v>1</v>
@@ -20720,18 +20749,18 @@
       </c>
       <c r="D636" s="3"/>
       <c r="E636" s="3" t="s">
-        <v>1683</v>
+        <v>809</v>
       </c>
       <c r="F636" s="6" t="s">
-        <v>833</v>
+        <v>819</v>
       </c>
       <c r="G636" s="3" t="s">
-        <v>1496</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="637" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A637" s="3" t="s">
-        <v>2133</v>
+        <v>820</v>
       </c>
       <c r="B637" s="3" t="b">
         <v>1</v>
@@ -20740,140 +20769,140 @@
         <v>1</v>
       </c>
       <c r="E637" s="3" t="s">
-        <v>1684</v>
+        <v>822</v>
       </c>
       <c r="F637" s="6" t="s">
-        <v>834</v>
+        <v>821</v>
       </c>
       <c r="G637" s="3" t="s">
-        <v>1497</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="638" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A638" s="3" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B638" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C638" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E638" s="3" t="s">
+        <v>1682</v>
+      </c>
+      <c r="F638" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="G638" s="3" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A639" s="3" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B639" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C639" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D639" s="3"/>
+      <c r="E639" s="3" t="s">
+        <v>1683</v>
+      </c>
+      <c r="F639" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="G639" s="3" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="640" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A640" s="3" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B640" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C640" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E640" s="3" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F640" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="G640" s="3" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="641" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A641" s="3" t="s">
         <v>2134</v>
       </c>
-      <c r="B638" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C638" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E638" s="3" t="s">
+      <c r="B641" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C641" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E641" s="3" t="s">
         <v>1685</v>
       </c>
-      <c r="F638" s="6" t="s">
+      <c r="F641" s="6" t="s">
         <v>835</v>
       </c>
-      <c r="G638" s="3" t="s">
+      <c r="G641" s="3" t="s">
         <v>1498</v>
       </c>
     </row>
-    <row r="639" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A639" s="3" t="s">
+    <row r="642" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A642" s="3" t="s">
         <v>2135</v>
       </c>
-      <c r="B639" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C639" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E639" s="3" t="s">
+      <c r="B642" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C642" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E642" s="3" t="s">
         <v>2136</v>
       </c>
-      <c r="F639" s="6" t="s">
+      <c r="F642" s="6" t="s">
         <v>2137</v>
       </c>
-      <c r="G639" s="3" t="s">
+      <c r="G642" s="3" t="s">
         <v>2138</v>
       </c>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A640" s="3" t="s">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A643" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="B640" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C640" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D640" s="3"/>
-      <c r="E640" s="3" t="s">
+      <c r="B643" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C643" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D643" s="3"/>
+      <c r="E643" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="F640" s="6" t="s">
+      <c r="F643" s="6" t="s">
         <v>827</v>
       </c>
-      <c r="G640" s="3" t="s">
+      <c r="G643" s="3" t="s">
         <v>1493</v>
-      </c>
-    </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A641" s="3" t="s">
-        <v>823</v>
-      </c>
-      <c r="B641" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C641" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D641" s="3"/>
-      <c r="E641" s="3" t="s">
-        <v>825</v>
-      </c>
-      <c r="F641" s="6" t="s">
-        <v>824</v>
-      </c>
-      <c r="G641" s="3" t="s">
-        <v>1492</v>
-      </c>
-    </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A642" t="s">
-        <v>2223</v>
-      </c>
-      <c r="B642" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C642" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E642" t="s">
-        <v>1701</v>
-      </c>
-      <c r="F642" s="6" t="s">
-        <v>2228</v>
-      </c>
-      <c r="G642" t="s">
-        <v>1738</v>
-      </c>
-    </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A643" t="s">
-        <v>2224</v>
-      </c>
-      <c r="B643" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C643" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E643" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="F643" s="6" t="s">
-        <v>1709</v>
-      </c>
-      <c r="G643" t="s">
-        <v>1357</v>
       </c>
     </row>
     <row r="644" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A644" s="3" t="s">
-        <v>2225</v>
+        <v>823</v>
       </c>
       <c r="B644" s="3" t="b">
         <v>1</v>
@@ -20881,19 +20910,20 @@
       <c r="C644" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="D644" s="3"/>
       <c r="E644" s="3" t="s">
-        <v>428</v>
+        <v>825</v>
       </c>
       <c r="F644" s="6" t="s">
-        <v>2229</v>
-      </c>
-      <c r="G644" t="s">
-        <v>1359</v>
+        <v>824</v>
+      </c>
+      <c r="G644" s="3" t="s">
+        <v>1492</v>
       </c>
     </row>
     <row r="645" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A645" s="3" t="s">
-        <v>2226</v>
+      <c r="A645" t="s">
+        <v>2223</v>
       </c>
       <c r="B645" s="3" t="b">
         <v>1</v>
@@ -20901,19 +20931,19 @@
       <c r="C645" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E645" s="3" t="s">
-        <v>443</v>
+      <c r="E645" t="s">
+        <v>1701</v>
       </c>
       <c r="F645" s="6" t="s">
-        <v>1707</v>
+        <v>2228</v>
       </c>
       <c r="G645" t="s">
-        <v>1364</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="646" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>2227</v>
+        <v>2224</v>
       </c>
       <c r="B646" s="3" t="b">
         <v>1</v>
@@ -20922,18 +20952,18 @@
         <v>1</v>
       </c>
       <c r="E646" s="3" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="F646" s="6" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="G646" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="647" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A647" t="s">
-        <v>2230</v>
+      <c r="A647" s="3" t="s">
+        <v>2225</v>
       </c>
       <c r="B647" s="3" t="b">
         <v>1</v>
@@ -20941,19 +20971,19 @@
       <c r="C647" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E647" t="s">
-        <v>2232</v>
+      <c r="E647" s="3" t="s">
+        <v>428</v>
       </c>
       <c r="F647" s="6" t="s">
-        <v>2234</v>
+        <v>2229</v>
       </c>
       <c r="G647" t="s">
-        <v>2236</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="648" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A648" t="s">
-        <v>2231</v>
+      <c r="A648" s="3" t="s">
+        <v>2226</v>
       </c>
       <c r="B648" s="3" t="b">
         <v>1</v>
@@ -20961,184 +20991,261 @@
       <c r="C648" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E648" t="s">
-        <v>2233</v>
+      <c r="E648" s="3" t="s">
+        <v>443</v>
       </c>
       <c r="F648" s="6" t="s">
-        <v>2235</v>
+        <v>1707</v>
       </c>
       <c r="G648" t="s">
-        <v>2237</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="649" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>2238</v>
-      </c>
-      <c r="B649" t="b">
-        <v>1</v>
-      </c>
-      <c r="C649" t="b">
-        <v>1</v>
-      </c>
-      <c r="E649" t="s">
-        <v>2239</v>
+        <v>2227</v>
+      </c>
+      <c r="B649" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C649" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E649" s="3" t="s">
+        <v>434</v>
       </c>
       <c r="F649" s="6" t="s">
-        <v>2240</v>
+        <v>1708</v>
       </c>
       <c r="G649" t="s">
-        <v>2241</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="650" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>2006</v>
-      </c>
-      <c r="B650" t="b">
-        <v>1</v>
-      </c>
-      <c r="C650" t="b">
+        <v>2230</v>
+      </c>
+      <c r="B650" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C650" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E650" t="s">
-        <v>2006</v>
+        <v>2232</v>
       </c>
       <c r="F650" s="6" t="s">
-        <v>2007</v>
-      </c>
-      <c r="G650" s="3" t="s">
-        <v>2008</v>
+        <v>2234</v>
+      </c>
+      <c r="G650" t="s">
+        <v>2236</v>
       </c>
     </row>
     <row r="651" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>2251</v>
-      </c>
-      <c r="B651" t="b">
-        <v>0</v>
-      </c>
-      <c r="C651" t="b">
-        <v>1</v>
-      </c>
-      <c r="D651" t="s">
-        <v>2256</v>
+        <v>2231</v>
+      </c>
+      <c r="B651" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C651" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="E651" t="s">
-        <v>2251</v>
+        <v>2233</v>
       </c>
       <c r="F651" s="6" t="s">
-        <v>2254</v>
+        <v>2235</v>
       </c>
       <c r="G651" t="s">
-        <v>2257</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="652" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>2252</v>
+        <v>2238</v>
       </c>
       <c r="B652" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C652" t="b">
         <v>1</v>
       </c>
-      <c r="D652" t="s">
-        <v>2256</v>
-      </c>
       <c r="E652" t="s">
-        <v>2253</v>
+        <v>2239</v>
       </c>
       <c r="F652" s="6" t="s">
-        <v>2255</v>
+        <v>2240</v>
       </c>
       <c r="G652" t="s">
-        <v>2258</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="653" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B653" t="b">
+        <v>1</v>
+      </c>
+      <c r="C653" t="b">
+        <v>1</v>
+      </c>
+      <c r="E653" t="s">
+        <v>2006</v>
+      </c>
+      <c r="F653" s="6" t="s">
+        <v>2007</v>
+      </c>
+      <c r="G653" s="3" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B654" t="b">
+        <v>0</v>
+      </c>
+      <c r="C654" t="b">
+        <v>1</v>
+      </c>
+      <c r="D654" t="s">
+        <v>2256</v>
+      </c>
+      <c r="E654" t="s">
+        <v>2251</v>
+      </c>
+      <c r="F654" s="6" t="s">
+        <v>2254</v>
+      </c>
+      <c r="G654" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B655" t="b">
+        <v>0</v>
+      </c>
+      <c r="C655" t="b">
+        <v>1</v>
+      </c>
+      <c r="D655" t="s">
+        <v>2256</v>
+      </c>
+      <c r="E655" t="s">
+        <v>2253</v>
+      </c>
+      <c r="F655" s="6" t="s">
+        <v>2255</v>
+      </c>
+      <c r="G655" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
         <v>2264</v>
       </c>
-      <c r="B653" t="b">
-        <v>1</v>
-      </c>
-      <c r="C653" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E653" t="s">
+      <c r="B656" t="b">
+        <v>1</v>
+      </c>
+      <c r="C656" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E656" t="s">
         <v>2262</v>
       </c>
-      <c r="F653" s="6" t="s">
+      <c r="F656" s="6" t="s">
         <v>2266</v>
       </c>
-      <c r="G653" t="s">
+      <c r="G656" t="s">
         <v>2267</v>
       </c>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A654" s="3" t="s">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A657" s="3" t="s">
         <v>2259</v>
       </c>
-      <c r="B654" t="b">
-        <v>1</v>
-      </c>
-      <c r="C654" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E654" t="s">
+      <c r="B657" t="b">
+        <v>1</v>
+      </c>
+      <c r="C657" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E657" t="s">
         <v>2263</v>
       </c>
-      <c r="F654" s="6" t="s">
+      <c r="F657" s="6" t="s">
         <v>2265</v>
       </c>
-      <c r="G654" t="s">
+      <c r="G657" t="s">
         <v>2267</v>
       </c>
     </row>
-    <row r="655" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A655" s="3" t="s">
+    <row r="658" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A658" s="3" t="s">
         <v>2260</v>
       </c>
-      <c r="B655" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C655" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E655" s="3" t="s">
+      <c r="B658" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C658" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E658" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="F655" s="6" t="s">
+      <c r="F658" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="G655" s="3" t="s">
+      <c r="G658" s="3" t="s">
         <v>1324</v>
       </c>
     </row>
-    <row r="656" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A656" s="3" t="s">
+    <row r="659" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A659" s="3" t="s">
         <v>2261</v>
       </c>
-      <c r="B656" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C656" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E656" s="3" t="s">
+      <c r="B659" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C659" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E659" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="F656" s="6" t="s">
+      <c r="F659" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="G656" s="3" t="s">
+      <c r="G659" s="3" t="s">
         <v>1325</v>
       </c>
     </row>
+    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>2345</v>
+      </c>
+      <c r="B660" t="b">
+        <v>0</v>
+      </c>
+      <c r="C660" t="b">
+        <v>1</v>
+      </c>
+      <c r="E660" t="s">
+        <v>2346</v>
+      </c>
+      <c r="F660" s="6" t="s">
+        <v>2347</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G532" xr:uid="{166F55E6-F4CB-49C4-A0B4-8593C255C448}"/>
+  <autoFilter ref="A1:G535" xr:uid="{166F55E6-F4CB-49C4-A0B4-8593C255C448}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Translations/Translations.xlsx
+++ b/Translations/Translations.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\source\repos\BSharp\Translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E456A1-8F86-4956-8F88-81E5038532A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5218A6-EA69-4147-AA1F-05452CF84A29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22020" yWindow="450" windowWidth="17790" windowHeight="14805" xr2:uid="{09F7BBB4-81EA-4503-B8DD-8985A501E98F}"/>
+    <workbookView xWindow="32475" yWindow="7950" windowWidth="23265" windowHeight="19890" xr2:uid="{09F7BBB4-81EA-4503-B8DD-8985A501E98F}"/>
   </bookViews>
   <sheets>
     <sheet name="Translations" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$G$535</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$G$536</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="2357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="2364">
   <si>
     <t>Key</t>
   </si>
@@ -7071,9 +7071,6 @@
     <t>时间2</t>
   </si>
   <si>
-    <t>Error_TheDateCannotBeInTheFuture</t>
-  </si>
-  <si>
     <t>The date cannot be in the future</t>
   </si>
   <si>
@@ -7105,6 +7102,30 @@
   </si>
   <si>
     <t>يمنع النظام تعديل أي معاملات قبل هذا التاريخ</t>
+  </si>
+  <si>
+    <t>Error_DateCannotBeInTheFuture</t>
+  </si>
+  <si>
+    <t>The date cannot be before the archive date {0}</t>
+  </si>
+  <si>
+    <t>Error_DateCannotBeBeforeArchiveDate0</t>
+  </si>
+  <si>
+    <t>التاريخ لا يمكن أن يكون قبل تاريخ الأرشفة</t>
+  </si>
+  <si>
+    <t>The amount {0} does not match the value {1} even though both are in {2}</t>
+  </si>
+  <si>
+    <t>المبلغ {0} لا يساوي القيمة {1} مع أن العملة هي {2} لكليهما</t>
+  </si>
+  <si>
+    <t>Error_TheAmount0DoesNotMatchTheValue1EvenThoughBothIn2</t>
+  </si>
+  <si>
+    <t>Account_Currency</t>
   </si>
 </sst>
 </file>
@@ -7510,12 +7531,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FEE134-3B22-427F-8E5A-2A7F994BE2AC}">
-  <dimension ref="A1:G660"/>
+  <dimension ref="A1:G663"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A316" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A519" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F349" sqref="F349"/>
+      <selection pane="bottomLeft" activeCell="G521" sqref="G521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14777,19 +14798,19 @@
     </row>
     <row r="346" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B346" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C346" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E346" s="3" t="s">
         <v>2351</v>
       </c>
-      <c r="B346" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C346" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E346" s="3" t="s">
-        <v>2352</v>
-      </c>
       <c r="F346" s="6" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="G346" s="3" t="s">
         <v>2245</v>
@@ -14797,36 +14818,36 @@
     </row>
     <row r="347" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
+        <v>2347</v>
+      </c>
+      <c r="B347" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C347" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E347" s="3" t="s">
         <v>2348</v>
       </c>
-      <c r="B347" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C347" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E347" s="3" t="s">
+      <c r="F347" s="6" t="s">
         <v>2349</v>
-      </c>
-      <c r="F347" s="6" t="s">
-        <v>2350</v>
       </c>
     </row>
     <row r="348" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
+        <v>2352</v>
+      </c>
+      <c r="B348" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C348" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E348" s="3" t="s">
         <v>2353</v>
       </c>
-      <c r="B348" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C348" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E348" s="3" t="s">
-        <v>2354</v>
-      </c>
       <c r="F348" s="6" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
@@ -18417,9 +18438,9 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A521" s="3" t="s">
-        <v>1807</v>
+        <v>2363</v>
       </c>
       <c r="B521" s="3" t="b">
         <v>1</v>
@@ -18427,20 +18448,19 @@
       <c r="C521" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D521" s="3"/>
       <c r="E521" s="3" t="s">
-        <v>1810</v>
+        <v>809</v>
       </c>
       <c r="F521" s="6" t="s">
-        <v>1808</v>
+        <v>819</v>
       </c>
       <c r="G521" s="3" t="s">
-        <v>1824</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" s="3" t="s">
-        <v>1812</v>
+        <v>1807</v>
       </c>
       <c r="B522" s="3" t="b">
         <v>1</v>
@@ -18450,18 +18470,18 @@
       </c>
       <c r="D522" s="3"/>
       <c r="E522" s="3" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="F522" s="6" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="G522" s="3" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" s="3" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="B523" s="3" t="b">
         <v>1</v>
@@ -18471,18 +18491,18 @@
       </c>
       <c r="D523" s="3"/>
       <c r="E523" s="3" t="s">
-        <v>1816</v>
+        <v>1811</v>
       </c>
       <c r="F523" s="6" t="s">
-        <v>1819</v>
+        <v>1809</v>
       </c>
       <c r="G523" s="3" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" s="3" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="B524" s="3" t="b">
         <v>1</v>
@@ -18492,18 +18512,18 @@
       </c>
       <c r="D524" s="3"/>
       <c r="E524" s="3" t="s">
-        <v>1820</v>
+        <v>1816</v>
       </c>
       <c r="F524" s="6" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="G524" s="3" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" s="3" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="B525" s="3" t="b">
         <v>1</v>
@@ -18513,18 +18533,18 @@
       </c>
       <c r="D525" s="3"/>
       <c r="E525" s="3" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="F525" s="6" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="G525" s="3" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" s="3" t="s">
-        <v>1839</v>
+        <v>1815</v>
       </c>
       <c r="B526" s="3" t="b">
         <v>1</v>
@@ -18534,18 +18554,18 @@
       </c>
       <c r="D526" s="3"/>
       <c r="E526" s="3" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="F526" s="6" t="s">
-        <v>1823</v>
+        <v>1817</v>
       </c>
       <c r="G526" s="3" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" s="3" t="s">
-        <v>1830</v>
+        <v>1839</v>
       </c>
       <c r="B527" s="3" t="b">
         <v>1</v>
@@ -18555,18 +18575,18 @@
       </c>
       <c r="D527" s="3"/>
       <c r="E527" s="3" t="s">
-        <v>648</v>
+        <v>1822</v>
       </c>
       <c r="F527" s="6" t="s">
-        <v>649</v>
+        <v>1823</v>
       </c>
       <c r="G527" s="3" t="s">
-        <v>1436</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" s="3" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B528" s="3" t="b">
         <v>1</v>
@@ -18576,18 +18596,18 @@
       </c>
       <c r="D528" s="3"/>
       <c r="E528" s="3" t="s">
-        <v>1649</v>
+        <v>648</v>
       </c>
       <c r="F528" s="6" t="s">
-        <v>1146</v>
+        <v>649</v>
       </c>
       <c r="G528" s="3" t="s">
-        <v>1716</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" s="3" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="B529" s="3" t="b">
         <v>1</v>
@@ -18597,18 +18617,18 @@
       </c>
       <c r="D529" s="3"/>
       <c r="E529" s="3" t="s">
-        <v>1834</v>
+        <v>1649</v>
       </c>
       <c r="F529" s="6" t="s">
-        <v>1836</v>
+        <v>1146</v>
       </c>
       <c r="G529" s="3" t="s">
-        <v>1837</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" s="3" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="B530" s="3" t="b">
         <v>1</v>
@@ -18618,58 +18638,59 @@
       </c>
       <c r="D530" s="3"/>
       <c r="E530" s="3" t="s">
+        <v>1834</v>
+      </c>
+      <c r="F530" s="6" t="s">
+        <v>1836</v>
+      </c>
+      <c r="G530" s="3" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A531" s="3" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B531" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C531" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D531" s="3"/>
+      <c r="E531" s="3" t="s">
         <v>1835</v>
       </c>
-      <c r="F530" s="6" t="s">
+      <c r="F531" s="6" t="s">
         <v>1751</v>
       </c>
-      <c r="G530" s="3" t="s">
+      <c r="G531" s="3" t="s">
         <v>1838</v>
       </c>
     </row>
-    <row r="531" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A531" s="3" t="s">
+    <row r="532" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A532" s="3" t="s">
         <v>1842</v>
       </c>
-      <c r="B531" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C531" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E531" s="3" t="s">
+      <c r="B532" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C532" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E532" s="3" t="s">
         <v>1840</v>
       </c>
-      <c r="F531" s="6" t="s">
+      <c r="F532" s="6" t="s">
         <v>1843</v>
       </c>
-      <c r="G531" s="3" t="s">
+      <c r="G532" s="3" t="s">
         <v>1841</v>
-      </c>
-    </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A532" t="s">
-        <v>1844</v>
-      </c>
-      <c r="B532" t="b">
-        <v>1</v>
-      </c>
-      <c r="C532" t="b">
-        <v>1</v>
-      </c>
-      <c r="E532" s="3" t="s">
-        <v>1844</v>
-      </c>
-      <c r="F532" s="6" t="s">
-        <v>1847</v>
-      </c>
-      <c r="G532" t="s">
-        <v>1849</v>
       </c>
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="B533" t="b">
         <v>1</v>
@@ -18678,84 +18699,84 @@
         <v>1</v>
       </c>
       <c r="E533" s="3" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="F533" s="6" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="G533" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B534" t="b">
+        <v>1</v>
+      </c>
+      <c r="C534" t="b">
+        <v>1</v>
+      </c>
+      <c r="E534" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="F534" s="6" t="s">
+        <v>1848</v>
+      </c>
+      <c r="G534" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
         <v>1851</v>
       </c>
-      <c r="B534" t="b">
-        <v>1</v>
-      </c>
-      <c r="C534" t="b">
-        <v>0</v>
-      </c>
-      <c r="D534" t="s">
+      <c r="B535" t="b">
+        <v>1</v>
+      </c>
+      <c r="C535" t="b">
+        <v>0</v>
+      </c>
+      <c r="D535" t="s">
         <v>1854</v>
       </c>
-      <c r="E534" s="3" t="s">
+      <c r="E535" s="3" t="s">
         <v>1852</v>
       </c>
-      <c r="F534" s="6" t="s">
+      <c r="F535" s="6" t="s">
         <v>1853</v>
       </c>
-      <c r="G534" s="3" t="s">
+      <c r="G535" s="3" t="s">
         <v>1853</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A535" s="3" t="s">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A536" s="3" t="s">
         <v>1851</v>
       </c>
-      <c r="B535" t="b">
-        <v>0</v>
-      </c>
-      <c r="C535" t="b">
-        <v>1</v>
-      </c>
-      <c r="D535" s="3" t="s">
+      <c r="B536" t="b">
+        <v>0</v>
+      </c>
+      <c r="C536" t="b">
+        <v>1</v>
+      </c>
+      <c r="D536" s="3" t="s">
         <v>1854</v>
       </c>
-      <c r="E535" s="3" t="s">
+      <c r="E536" s="3" t="s">
         <v>1855</v>
       </c>
-      <c r="F535" s="6" t="s">
+      <c r="F536" s="6" t="s">
         <v>1856</v>
       </c>
-      <c r="G535" s="3" t="s">
+      <c r="G536" s="3" t="s">
         <v>1856</v>
-      </c>
-    </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A536" t="s">
-        <v>1869</v>
-      </c>
-      <c r="B536" t="b">
-        <v>0</v>
-      </c>
-      <c r="C536" t="b">
-        <v>1</v>
-      </c>
-      <c r="E536" t="s">
-        <v>1872</v>
-      </c>
-      <c r="F536" s="6" t="s">
-        <v>1870</v>
-      </c>
-      <c r="G536" s="3" t="s">
-        <v>1871</v>
       </c>
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>1881</v>
+        <v>1869</v>
       </c>
       <c r="B537" t="b">
         <v>0</v>
@@ -18764,78 +18785,78 @@
         <v>1</v>
       </c>
       <c r="E537" t="s">
-        <v>1881</v>
+        <v>1872</v>
       </c>
       <c r="F537" s="6" t="s">
-        <v>1882</v>
+        <v>1870</v>
       </c>
       <c r="G537" s="3" t="s">
-        <v>1883</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>1873</v>
-      </c>
-      <c r="B538" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C538" s="3" t="b">
+        <v>1881</v>
+      </c>
+      <c r="B538" t="b">
+        <v>0</v>
+      </c>
+      <c r="C538" t="b">
         <v>1</v>
       </c>
       <c r="E538" t="s">
-        <v>1874</v>
+        <v>1881</v>
       </c>
       <c r="F538" s="6" t="s">
-        <v>1876</v>
-      </c>
-      <c r="G538" t="s">
-        <v>1875</v>
+        <v>1882</v>
+      </c>
+      <c r="G538" s="3" t="s">
+        <v>1883</v>
       </c>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>1877</v>
-      </c>
-      <c r="B539" t="b">
-        <v>0</v>
-      </c>
-      <c r="C539" t="b">
+        <v>1873</v>
+      </c>
+      <c r="B539" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C539" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E539" t="s">
-        <v>1878</v>
+        <v>1874</v>
       </c>
       <c r="F539" s="6" t="s">
-        <v>1879</v>
+        <v>1876</v>
       </c>
       <c r="G539" t="s">
-        <v>1880</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>1884</v>
-      </c>
-      <c r="B540" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C540" s="3" t="b">
+        <v>1877</v>
+      </c>
+      <c r="B540" t="b">
+        <v>0</v>
+      </c>
+      <c r="C540" t="b">
         <v>1</v>
       </c>
       <c r="E540" t="s">
-        <v>1886</v>
+        <v>1878</v>
       </c>
       <c r="F540" s="6" t="s">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="G540" t="s">
-        <v>1977</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="B541" s="3" t="b">
         <v>1</v>
@@ -18844,10 +18865,10 @@
         <v>1</v>
       </c>
       <c r="E541" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="F541" s="6" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="G541" t="s">
         <v>1977</v>
@@ -18855,7 +18876,7 @@
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>42</v>
+        <v>1885</v>
       </c>
       <c r="B542" s="3" t="b">
         <v>1</v>
@@ -18864,18 +18885,18 @@
         <v>1</v>
       </c>
       <c r="E542" t="s">
-        <v>42</v>
+        <v>1887</v>
       </c>
       <c r="F542" s="6" t="s">
-        <v>110</v>
+        <v>1889</v>
       </c>
       <c r="G542" t="s">
-        <v>1227</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>1896</v>
+        <v>42</v>
       </c>
       <c r="B543" s="3" t="b">
         <v>1</v>
@@ -18884,18 +18905,18 @@
         <v>1</v>
       </c>
       <c r="E543" t="s">
-        <v>1804</v>
+        <v>42</v>
       </c>
       <c r="F543" s="6" t="s">
-        <v>1805</v>
+        <v>110</v>
       </c>
       <c r="G543" t="s">
-        <v>1806</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="B544" s="3" t="b">
         <v>1</v>
@@ -18904,18 +18925,18 @@
         <v>1</v>
       </c>
       <c r="E544" t="s">
-        <v>1899</v>
+        <v>1804</v>
       </c>
       <c r="F544" s="6" t="s">
-        <v>1904</v>
+        <v>1805</v>
       </c>
       <c r="G544" t="s">
-        <v>1978</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B545" s="3" t="b">
         <v>1</v>
@@ -18924,18 +18945,18 @@
         <v>1</v>
       </c>
       <c r="E545" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="F545" s="6" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="G545" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>1890</v>
+        <v>1898</v>
       </c>
       <c r="B546" s="3" t="b">
         <v>1</v>
@@ -18944,18 +18965,18 @@
         <v>1</v>
       </c>
       <c r="E546" t="s">
-        <v>1881</v>
+        <v>1900</v>
       </c>
       <c r="F546" s="6" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="G546" t="s">
-        <v>1883</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="B547" s="3" t="b">
         <v>1</v>
@@ -18964,58 +18985,58 @@
         <v>1</v>
       </c>
       <c r="E547" t="s">
-        <v>1901</v>
+        <v>1881</v>
       </c>
       <c r="F547" s="6" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="G547" t="s">
-        <v>1980</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B548" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C548" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E548" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F548" s="6" t="s">
+        <v>1907</v>
+      </c>
+      <c r="G548" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
         <v>1892</v>
       </c>
-      <c r="B548" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C548" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E548" t="s">
+      <c r="B549" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C549" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E549" t="s">
         <v>2094</v>
       </c>
-      <c r="F548" s="6" t="s">
+      <c r="F549" s="6" t="s">
         <v>2100</v>
       </c>
-      <c r="G548" t="s">
+      <c r="G549" t="s">
         <v>1981</v>
-      </c>
-    </row>
-    <row r="549" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A549" s="3" t="s">
-        <v>2048</v>
-      </c>
-      <c r="B549" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C549" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E549" s="3" t="s">
-        <v>2095</v>
-      </c>
-      <c r="F549" s="6" t="s">
-        <v>2101</v>
-      </c>
-      <c r="G549" s="3" t="s">
-        <v>2075</v>
       </c>
     </row>
     <row r="550" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A550" s="3" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="B550" s="3" t="b">
         <v>1</v>
@@ -19024,78 +19045,78 @@
         <v>1</v>
       </c>
       <c r="E550" s="3" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="F550" s="6" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="G550" s="3" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="551" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A551" s="3" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B551" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C551" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E551" s="3" t="s">
+        <v>2096</v>
+      </c>
+      <c r="F551" s="6" t="s">
+        <v>2102</v>
+      </c>
+      <c r="G551" s="3" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A552" s="3" t="s">
         <v>2050</v>
       </c>
-      <c r="B551" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C551" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E551" s="3" t="s">
+      <c r="B552" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C552" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E552" s="3" t="s">
         <v>2097</v>
       </c>
-      <c r="F551" s="6" t="s">
+      <c r="F552" s="6" t="s">
         <v>2103</v>
       </c>
-      <c r="G551" s="3" t="s">
+      <c r="G552" s="3" t="s">
         <v>2077</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A552" t="s">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
         <v>1893</v>
       </c>
-      <c r="B552" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C552" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E552" t="s">
+      <c r="B553" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C553" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E553" t="s">
         <v>2093</v>
       </c>
-      <c r="F552" s="6" t="s">
+      <c r="F553" s="6" t="s">
         <v>2104</v>
       </c>
-      <c r="G552" t="s">
+      <c r="G553" t="s">
         <v>1982</v>
-      </c>
-    </row>
-    <row r="553" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A553" s="3" t="s">
-        <v>2051</v>
-      </c>
-      <c r="B553" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C553" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E553" s="3" t="s">
-        <v>2092</v>
-      </c>
-      <c r="F553" s="6" t="s">
-        <v>2105</v>
-      </c>
-      <c r="G553" s="3" t="s">
-        <v>2078</v>
       </c>
     </row>
     <row r="554" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A554" s="3" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="B554" s="3" t="b">
         <v>1</v>
@@ -19104,78 +19125,78 @@
         <v>1</v>
       </c>
       <c r="E554" s="3" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="F554" s="6" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="G554" s="3" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="555" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A555" s="3" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B555" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C555" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E555" s="3" t="s">
+        <v>2091</v>
+      </c>
+      <c r="F555" s="6" t="s">
+        <v>2106</v>
+      </c>
+      <c r="G555" s="3" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A556" s="3" t="s">
         <v>2053</v>
       </c>
-      <c r="B555" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C555" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E555" s="3" t="s">
+      <c r="B556" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C556" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E556" s="3" t="s">
         <v>2090</v>
       </c>
-      <c r="F555" s="6" t="s">
+      <c r="F556" s="6" t="s">
         <v>2107</v>
       </c>
-      <c r="G555" s="3" t="s">
+      <c r="G556" s="3" t="s">
         <v>2080</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A556" t="s">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
         <v>1894</v>
       </c>
-      <c r="B556" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C556" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E556" t="s">
+      <c r="B557" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C557" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E557" t="s">
         <v>1902</v>
       </c>
-      <c r="F556" s="6" t="s">
+      <c r="F557" s="6" t="s">
         <v>1909</v>
       </c>
-      <c r="G556" t="s">
+      <c r="G557" t="s">
         <v>1983</v>
-      </c>
-    </row>
-    <row r="557" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A557" s="3" t="s">
-        <v>2054</v>
-      </c>
-      <c r="B557" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C557" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E557" s="3" t="s">
-        <v>2062</v>
-      </c>
-      <c r="F557" s="6" t="s">
-        <v>2068</v>
-      </c>
-      <c r="G557" s="3" t="s">
-        <v>2081</v>
       </c>
     </row>
     <row r="558" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A558" s="3" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="B558" s="3" t="b">
         <v>1</v>
@@ -19184,78 +19205,78 @@
         <v>1</v>
       </c>
       <c r="E558" s="3" t="s">
-        <v>2098</v>
+        <v>2062</v>
       </c>
       <c r="F558" s="6" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="G558" s="3" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="559" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A559" s="3" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B559" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C559" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E559" s="3" t="s">
+        <v>2098</v>
+      </c>
+      <c r="F559" s="6" t="s">
+        <v>2070</v>
+      </c>
+      <c r="G559" s="3" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="560" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A560" s="3" t="s">
         <v>2056</v>
       </c>
-      <c r="B559" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C559" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E559" s="3" t="s">
+      <c r="B560" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C560" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E560" s="3" t="s">
         <v>2099</v>
       </c>
-      <c r="F559" s="6" t="s">
+      <c r="F560" s="6" t="s">
         <v>2069</v>
       </c>
-      <c r="G559" s="3" t="s">
+      <c r="G560" s="3" t="s">
         <v>2083</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A560" t="s">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
         <v>1895</v>
       </c>
-      <c r="B560" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C560" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E560" t="s">
+      <c r="B561" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C561" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E561" t="s">
         <v>1903</v>
       </c>
-      <c r="F560" s="6" t="s">
+      <c r="F561" s="6" t="s">
         <v>1908</v>
       </c>
-      <c r="G560" t="s">
+      <c r="G561" t="s">
         <v>1984</v>
-      </c>
-    </row>
-    <row r="561" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A561" s="3" t="s">
-        <v>2057</v>
-      </c>
-      <c r="B561" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C561" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E561" s="3" t="s">
-        <v>2063</v>
-      </c>
-      <c r="F561" s="6" t="s">
-        <v>2071</v>
-      </c>
-      <c r="G561" s="3" t="s">
-        <v>2084</v>
       </c>
     </row>
     <row r="562" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A562" s="3" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="B562" s="3" t="b">
         <v>1</v>
@@ -19264,18 +19285,18 @@
         <v>1</v>
       </c>
       <c r="E562" s="3" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="F562" s="6" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="G562" s="3" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="563" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A563" s="3" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="B563" s="3" t="b">
         <v>1</v>
@@ -19284,18 +19305,18 @@
         <v>1</v>
       </c>
       <c r="E563" s="3" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="F563" s="6" t="s">
-        <v>2089</v>
+        <v>2072</v>
       </c>
       <c r="G563" s="3" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="564" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A564" s="3" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="B564" s="3" t="b">
         <v>1</v>
@@ -19304,18 +19325,18 @@
         <v>1</v>
       </c>
       <c r="E564" s="3" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="F564" s="6" t="s">
-        <v>2073</v>
+        <v>2089</v>
       </c>
       <c r="G564" s="3" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="565" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A565" s="3" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="B565" s="3" t="b">
         <v>1</v>
@@ -19324,58 +19345,58 @@
         <v>1</v>
       </c>
       <c r="E565" s="3" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="F565" s="6" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="G565" s="3" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="566" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A566" s="3" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B566" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C566" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E566" s="3" t="s">
+        <v>2067</v>
+      </c>
+      <c r="F566" s="6" t="s">
+        <v>2074</v>
+      </c>
+      <c r="G566" s="3" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="567" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A567" s="3" t="s">
         <v>2109</v>
       </c>
-      <c r="B566" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C566" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E566" s="3" t="s">
+      <c r="B567" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C567" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E567" s="3" t="s">
         <v>2110</v>
       </c>
-      <c r="F566" s="6" t="s">
+      <c r="F567" s="6" t="s">
         <v>2111</v>
       </c>
-      <c r="G566" s="3" t="s">
+      <c r="G567" s="3" t="s">
         <v>2112</v>
-      </c>
-    </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A567" t="s">
-        <v>1910</v>
-      </c>
-      <c r="B567" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C567" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E567" t="s">
-        <v>1923</v>
-      </c>
-      <c r="F567" s="6" t="s">
-        <v>1957</v>
-      </c>
-      <c r="G567" t="s">
-        <v>1985</v>
       </c>
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="B568" s="3" t="b">
         <v>1</v>
@@ -19384,18 +19405,18 @@
         <v>1</v>
       </c>
       <c r="E568" t="s">
-        <v>1927</v>
+        <v>1923</v>
       </c>
       <c r="F568" s="6" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="G568" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="B569" s="3" t="b">
         <v>1</v>
@@ -19404,18 +19425,18 @@
         <v>1</v>
       </c>
       <c r="E569" t="s">
-        <v>2006</v>
+        <v>1927</v>
       </c>
       <c r="F569" s="6" t="s">
-        <v>2007</v>
+        <v>1958</v>
       </c>
       <c r="G569" t="s">
-        <v>2008</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>320</v>
+        <v>1912</v>
       </c>
       <c r="B570" s="3" t="b">
         <v>1</v>
@@ -19424,18 +19445,18 @@
         <v>1</v>
       </c>
       <c r="E570" t="s">
-        <v>320</v>
+        <v>2006</v>
       </c>
       <c r="F570" s="6" t="s">
-        <v>319</v>
+        <v>2007</v>
       </c>
       <c r="G570" t="s">
-        <v>1322</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>1913</v>
+        <v>320</v>
       </c>
       <c r="B571" s="3" t="b">
         <v>1</v>
@@ -19444,18 +19465,18 @@
         <v>1</v>
       </c>
       <c r="E571" t="s">
-        <v>1928</v>
+        <v>320</v>
       </c>
       <c r="F571" s="6" t="s">
-        <v>1959</v>
+        <v>319</v>
       </c>
       <c r="G571" t="s">
-        <v>1987</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B572" s="3" t="b">
         <v>1</v>
@@ -19464,18 +19485,18 @@
         <v>1</v>
       </c>
       <c r="E572" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="F572" s="6" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="G572" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B573" s="3" t="b">
         <v>1</v>
@@ -19484,18 +19505,18 @@
         <v>1</v>
       </c>
       <c r="E573" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="F573" s="6" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="G573" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="B574" s="3" t="b">
         <v>1</v>
@@ -19504,18 +19525,18 @@
         <v>1</v>
       </c>
       <c r="E574" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="F574" s="6" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="G574" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="B575" s="3" t="b">
         <v>1</v>
@@ -19524,18 +19545,18 @@
         <v>1</v>
       </c>
       <c r="E575" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="F575" s="6" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="G575" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="B576" s="3" t="b">
         <v>1</v>
@@ -19544,18 +19565,18 @@
         <v>1</v>
       </c>
       <c r="E576" t="s">
-        <v>882</v>
+        <v>1932</v>
       </c>
       <c r="F576" s="6" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="G576" t="s">
-        <v>1539</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="B577" s="3" t="b">
         <v>1</v>
@@ -19564,18 +19585,18 @@
         <v>1</v>
       </c>
       <c r="E577" t="s">
-        <v>1924</v>
+        <v>882</v>
       </c>
       <c r="F577" s="6" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="G577" t="s">
-        <v>2005</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="B578" s="3" t="b">
         <v>1</v>
@@ -19584,18 +19605,18 @@
         <v>1</v>
       </c>
       <c r="E578" t="s">
-        <v>1933</v>
+        <v>1924</v>
       </c>
       <c r="F578" s="6" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="G578" t="s">
-        <v>1992</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="B579" s="3" t="b">
         <v>1</v>
@@ -19604,18 +19625,18 @@
         <v>1</v>
       </c>
       <c r="E579" t="s">
-        <v>1925</v>
+        <v>1933</v>
       </c>
       <c r="F579" s="6" t="s">
-        <v>2108</v>
+        <v>1966</v>
       </c>
       <c r="G579" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="B580" s="3" t="b">
         <v>1</v>
@@ -19624,38 +19645,38 @@
         <v>1</v>
       </c>
       <c r="E580" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="F580" s="6" t="s">
-        <v>1967</v>
+        <v>2108</v>
       </c>
       <c r="G580" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>1938</v>
-      </c>
-      <c r="B581" t="b">
-        <v>1</v>
-      </c>
-      <c r="C581" t="b">
+        <v>1922</v>
+      </c>
+      <c r="B581" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C581" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E581" t="s">
-        <v>0</v>
+        <v>1926</v>
       </c>
       <c r="F581" s="6" t="s">
-        <v>1208</v>
+        <v>1967</v>
       </c>
       <c r="G581" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>1934</v>
+        <v>1938</v>
       </c>
       <c r="B582" t="b">
         <v>1</v>
@@ -19664,18 +19685,18 @@
         <v>1</v>
       </c>
       <c r="E582" t="s">
-        <v>1935</v>
+        <v>0</v>
       </c>
       <c r="F582" s="6" t="s">
-        <v>1968</v>
+        <v>1208</v>
       </c>
       <c r="G582" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="B583" t="b">
         <v>1</v>
@@ -19684,38 +19705,38 @@
         <v>1</v>
       </c>
       <c r="E583" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="F583" s="6" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="G583" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>1944</v>
-      </c>
-      <c r="B584" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C584" s="3" t="b">
+        <v>1936</v>
+      </c>
+      <c r="B584" t="b">
+        <v>1</v>
+      </c>
+      <c r="C584" t="b">
         <v>1</v>
       </c>
       <c r="E584" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="F584" s="6" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="G584" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="B585" s="3" t="b">
         <v>1</v>
@@ -19724,18 +19745,18 @@
         <v>1</v>
       </c>
       <c r="E585" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="F585" s="6" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="G585" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>1941</v>
+        <v>1945</v>
       </c>
       <c r="B586" s="3" t="b">
         <v>1</v>
@@ -19744,18 +19765,18 @@
         <v>1</v>
       </c>
       <c r="E586" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="F586" s="6" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="G586" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="B587" s="3" t="b">
         <v>1</v>
@@ -19764,18 +19785,18 @@
         <v>1</v>
       </c>
       <c r="E587" t="s">
-        <v>1974</v>
+        <v>1942</v>
       </c>
       <c r="F587" s="6" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="G587" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>1946</v>
+        <v>1943</v>
       </c>
       <c r="B588" s="3" t="b">
         <v>1</v>
@@ -19784,18 +19805,18 @@
         <v>1</v>
       </c>
       <c r="E588" t="s">
-        <v>422</v>
+        <v>1974</v>
       </c>
       <c r="F588" s="6" t="s">
-        <v>421</v>
+        <v>1973</v>
       </c>
       <c r="G588" t="s">
-        <v>1357</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B589" s="3" t="b">
         <v>1</v>
@@ -19804,18 +19825,18 @@
         <v>1</v>
       </c>
       <c r="E589" t="s">
-        <v>1858</v>
+        <v>422</v>
       </c>
       <c r="F589" s="6" t="s">
-        <v>1862</v>
+        <v>421</v>
       </c>
       <c r="G589" t="s">
-        <v>1866</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B590" s="3" t="b">
         <v>1</v>
@@ -19824,18 +19845,18 @@
         <v>1</v>
       </c>
       <c r="E590" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="F590" s="6" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="G590" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B591" s="3" t="b">
         <v>1</v>
@@ -19844,18 +19865,18 @@
         <v>1</v>
       </c>
       <c r="E591" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="F591" s="6" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="G591" t="s">
-        <v>1868</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B592" s="3" t="b">
         <v>1</v>
@@ -19864,18 +19885,18 @@
         <v>1</v>
       </c>
       <c r="E592" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="F592" s="6" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="G592" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="B593" s="3" t="b">
         <v>1</v>
@@ -19884,18 +19905,18 @@
         <v>1</v>
       </c>
       <c r="E593" t="s">
-        <v>1952</v>
+        <v>1859</v>
       </c>
       <c r="F593" s="6" t="s">
-        <v>1975</v>
+        <v>1863</v>
       </c>
       <c r="G593" t="s">
-        <v>2002</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="B594" s="3" t="b">
         <v>1</v>
@@ -19904,18 +19925,18 @@
         <v>1</v>
       </c>
       <c r="E594" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="F594" s="6" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="G594" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="B595" s="3" t="b">
         <v>1</v>
@@ -19924,38 +19945,38 @@
         <v>1</v>
       </c>
       <c r="E595" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="F595" s="6" t="s">
-        <v>1908</v>
+        <v>1976</v>
       </c>
       <c r="G595" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>2006</v>
-      </c>
-      <c r="B596" t="b">
-        <v>0</v>
-      </c>
-      <c r="C596" t="b">
+        <v>1954</v>
+      </c>
+      <c r="B596" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C596" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E596" t="s">
-        <v>2006</v>
+        <v>1956</v>
       </c>
       <c r="F596" s="6" t="s">
-        <v>2007</v>
+        <v>1908</v>
       </c>
       <c r="G596" t="s">
-        <v>2008</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="B597" t="b">
         <v>0</v>
@@ -19964,138 +19985,138 @@
         <v>1</v>
       </c>
       <c r="E597" t="s">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="F597" s="6" t="s">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="G597" t="s">
-        <v>2011</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="B598" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C598" t="b">
         <v>1</v>
       </c>
       <c r="E598" t="s">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="F598" s="6" t="s">
-        <v>2022</v>
+        <v>2010</v>
       </c>
       <c r="G598" t="s">
-        <v>2023</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>2020</v>
-      </c>
-      <c r="B599" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C599" s="3" t="b">
+        <v>2019</v>
+      </c>
+      <c r="B599" t="b">
+        <v>1</v>
+      </c>
+      <c r="C599" t="b">
         <v>1</v>
       </c>
       <c r="E599" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F599" s="6" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="G599" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>2031</v>
-      </c>
-      <c r="B600" t="b">
-        <v>0</v>
-      </c>
-      <c r="C600" t="b">
+        <v>2020</v>
+      </c>
+      <c r="B600" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C600" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E600" t="s">
-        <v>2031</v>
+        <v>2020</v>
       </c>
       <c r="F600" s="6" t="s">
-        <v>1963</v>
+        <v>2021</v>
       </c>
       <c r="G600" t="s">
-        <v>2038</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="601" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B601" t="b">
+        <v>0</v>
+      </c>
+      <c r="C601" t="b">
+        <v>1</v>
+      </c>
+      <c r="E601" t="s">
+        <v>2031</v>
+      </c>
+      <c r="F601" s="6" t="s">
+        <v>1963</v>
+      </c>
+      <c r="G601" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
         <v>2028</v>
       </c>
-      <c r="B601" t="b">
-        <v>1</v>
-      </c>
-      <c r="C601" t="b">
-        <v>1</v>
-      </c>
-      <c r="E601" t="s">
+      <c r="B602" t="b">
+        <v>1</v>
+      </c>
+      <c r="C602" t="b">
+        <v>1</v>
+      </c>
+      <c r="E602" t="s">
         <v>2029</v>
       </c>
-      <c r="F601" s="6" t="s">
+      <c r="F602" s="6" t="s">
         <v>2030</v>
       </c>
-      <c r="G601" t="s">
+      <c r="G602" t="s">
         <v>2039</v>
       </c>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A602" s="3" t="s">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A603" s="3" t="s">
         <v>2032</v>
       </c>
-      <c r="B602" t="b">
-        <v>0</v>
-      </c>
-      <c r="C602" t="b">
-        <v>1</v>
-      </c>
-      <c r="E602" t="s">
+      <c r="B603" t="b">
+        <v>0</v>
+      </c>
+      <c r="C603" t="b">
+        <v>1</v>
+      </c>
+      <c r="E603" t="s">
         <v>2033</v>
       </c>
-      <c r="F602" s="6" t="s">
+      <c r="F603" s="6" t="s">
         <v>2034</v>
       </c>
-      <c r="G602" t="s">
+      <c r="G603" t="s">
         <v>2040</v>
-      </c>
-    </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A603" t="s">
-        <v>2035</v>
-      </c>
-      <c r="B603" t="b">
-        <v>0</v>
-      </c>
-      <c r="C603" t="b">
-        <v>1</v>
-      </c>
-      <c r="E603" t="s">
-        <v>2036</v>
-      </c>
-      <c r="F603" s="6" t="s">
-        <v>2037</v>
-      </c>
-      <c r="G603" t="s">
-        <v>2041</v>
       </c>
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>2042</v>
+        <v>2035</v>
       </c>
       <c r="B604" t="b">
         <v>0</v>
@@ -20104,18 +20125,18 @@
         <v>1</v>
       </c>
       <c r="E604" t="s">
-        <v>2042</v>
+        <v>2036</v>
       </c>
       <c r="F604" s="6" t="s">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="G604" t="s">
-        <v>2046</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="605" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="B605" t="b">
         <v>0</v>
@@ -20124,18 +20145,18 @@
         <v>1</v>
       </c>
       <c r="E605" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="F605" s="6" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="G605" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="606" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>970</v>
+        <v>2043</v>
       </c>
       <c r="B606" t="b">
         <v>0</v>
@@ -20144,18 +20165,18 @@
         <v>1</v>
       </c>
       <c r="E606" t="s">
-        <v>970</v>
+        <v>2043</v>
       </c>
       <c r="F606" s="6" t="s">
-        <v>1207</v>
+        <v>2044</v>
       </c>
       <c r="G606" t="s">
-        <v>1620</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>2113</v>
+        <v>970</v>
       </c>
       <c r="B607" t="b">
         <v>0</v>
@@ -20164,18 +20185,18 @@
         <v>1</v>
       </c>
       <c r="E607" t="s">
-        <v>2114</v>
+        <v>970</v>
       </c>
       <c r="F607" s="6" t="s">
-        <v>2115</v>
+        <v>1207</v>
       </c>
       <c r="G607" t="s">
-        <v>2119</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="608" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
       <c r="B608" t="b">
         <v>0</v>
@@ -20184,18 +20205,18 @@
         <v>1</v>
       </c>
       <c r="E608" t="s">
-        <v>2118</v>
+        <v>2114</v>
       </c>
       <c r="F608" s="6" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="G608" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>2121</v>
+        <v>2116</v>
       </c>
       <c r="B609" t="b">
         <v>0</v>
@@ -20204,78 +20225,78 @@
         <v>1</v>
       </c>
       <c r="E609" t="s">
-        <v>2122</v>
+        <v>2118</v>
       </c>
       <c r="F609" s="6" t="s">
-        <v>2123</v>
+        <v>2117</v>
       </c>
       <c r="G609" t="s">
-        <v>2124</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>2125</v>
+        <v>2121</v>
       </c>
       <c r="B610" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C610" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E610" t="s">
-        <v>2128</v>
+        <v>2122</v>
       </c>
       <c r="F610" s="6" t="s">
-        <v>2126</v>
+        <v>2123</v>
       </c>
       <c r="G610" t="s">
-        <v>2127</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B611" t="b">
+        <v>1</v>
+      </c>
+      <c r="C611" t="b">
+        <v>0</v>
+      </c>
+      <c r="E611" t="s">
+        <v>2128</v>
+      </c>
+      <c r="F611" s="6" t="s">
+        <v>2126</v>
+      </c>
+      <c r="G611" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
         <v>37</v>
       </c>
-      <c r="B611" t="b">
-        <v>1</v>
-      </c>
-      <c r="C611" t="b">
-        <v>1</v>
-      </c>
-      <c r="E611" t="s">
+      <c r="B612" t="b">
+        <v>1</v>
+      </c>
+      <c r="C612" t="b">
+        <v>1</v>
+      </c>
+      <c r="E612" t="s">
         <v>2129</v>
       </c>
-      <c r="F611" s="6" t="s">
+      <c r="F612" s="6" t="s">
         <v>2130</v>
       </c>
-      <c r="G611" t="s">
+      <c r="G612" t="s">
         <v>1226</v>
-      </c>
-    </row>
-    <row r="612" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A612" s="3" t="s">
-        <v>2145</v>
-      </c>
-      <c r="B612" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C612" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E612" s="3" t="s">
-        <v>1700</v>
-      </c>
-      <c r="F612" s="6" t="s">
-        <v>2148</v>
-      </c>
-      <c r="G612" s="3" t="s">
-        <v>1736</v>
       </c>
     </row>
     <row r="613" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A613" s="3" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="B613" s="3" t="b">
         <v>1</v>
@@ -20284,58 +20305,58 @@
         <v>1</v>
       </c>
       <c r="E613" s="3" t="s">
-        <v>2147</v>
+        <v>1700</v>
       </c>
       <c r="F613" s="6" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="G613" s="3" t="s">
         <v>1736</v>
       </c>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A614" t="s">
+    <row r="614" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A614" s="3" t="s">
+        <v>2146</v>
+      </c>
+      <c r="B614" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C614" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E614" s="3" t="s">
+        <v>2147</v>
+      </c>
+      <c r="F614" s="6" t="s">
+        <v>2149</v>
+      </c>
+      <c r="G614" s="3" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
         <v>2139</v>
       </c>
-      <c r="B614" t="b">
-        <v>1</v>
-      </c>
-      <c r="C614" t="b">
-        <v>1</v>
-      </c>
-      <c r="E614" t="s">
+      <c r="B615" t="b">
+        <v>1</v>
+      </c>
+      <c r="C615" t="b">
+        <v>1</v>
+      </c>
+      <c r="E615" t="s">
         <v>2143</v>
       </c>
-      <c r="F614" s="6" t="s">
+      <c r="F615" s="6" t="s">
         <v>2144</v>
       </c>
-      <c r="G614" t="s">
+      <c r="G615" t="s">
         <v>2166</v>
-      </c>
-    </row>
-    <row r="615" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A615" s="3" t="s">
-        <v>2154</v>
-      </c>
-      <c r="B615" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C615" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E615" s="3" t="s">
-        <v>2158</v>
-      </c>
-      <c r="F615" s="6" t="s">
-        <v>2162</v>
-      </c>
-      <c r="G615" s="3" t="s">
-        <v>2167</v>
       </c>
     </row>
     <row r="616" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A616" s="3" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="B616" s="3" t="b">
         <v>1</v>
@@ -20344,18 +20365,18 @@
         <v>1</v>
       </c>
       <c r="E616" s="3" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="F616" s="6" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="G616" s="3" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="617" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A617" s="3" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="B617" s="3" t="b">
         <v>1</v>
@@ -20364,58 +20385,58 @@
         <v>1</v>
       </c>
       <c r="E617" s="3" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="F617" s="6" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="G617" s="3" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="618" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A618" s="3" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B618" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C618" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E618" s="3" t="s">
+        <v>2160</v>
+      </c>
+      <c r="F618" s="6" t="s">
+        <v>2164</v>
+      </c>
+      <c r="G618" s="3" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="619" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A619" s="3" t="s">
         <v>2157</v>
       </c>
-      <c r="B618" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C618" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E618" s="3" t="s">
+      <c r="B619" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C619" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E619" s="3" t="s">
         <v>2161</v>
       </c>
-      <c r="F618" s="6" t="s">
+      <c r="F619" s="6" t="s">
         <v>2165</v>
       </c>
-      <c r="G618" s="3" t="s">
+      <c r="G619" s="3" t="s">
         <v>2170</v>
-      </c>
-    </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A619" t="s">
-        <v>2141</v>
-      </c>
-      <c r="B619" t="b">
-        <v>1</v>
-      </c>
-      <c r="C619" t="b">
-        <v>1</v>
-      </c>
-      <c r="E619" t="s">
-        <v>2142</v>
-      </c>
-      <c r="F619" s="6" t="s">
-        <v>2150</v>
-      </c>
-      <c r="G619" t="s">
-        <v>2171</v>
       </c>
     </row>
     <row r="620" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>2151</v>
+        <v>2141</v>
       </c>
       <c r="B620" t="b">
         <v>1</v>
@@ -20424,58 +20445,58 @@
         <v>1</v>
       </c>
       <c r="E620" t="s">
-        <v>2152</v>
+        <v>2142</v>
       </c>
       <c r="F620" s="6" t="s">
-        <v>2153</v>
+        <v>2150</v>
       </c>
       <c r="G620" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>2173</v>
+        <v>2151</v>
       </c>
       <c r="B621" t="b">
         <v>1</v>
       </c>
-      <c r="C621" s="3" t="b">
+      <c r="C621" t="b">
         <v>1</v>
       </c>
       <c r="E621" t="s">
-        <v>2176</v>
+        <v>2152</v>
       </c>
       <c r="F621" s="6" t="s">
-        <v>2179</v>
+        <v>2153</v>
       </c>
       <c r="G621" t="s">
-        <v>2182</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>2174</v>
-      </c>
-      <c r="B622" s="3" t="b">
+        <v>2173</v>
+      </c>
+      <c r="B622" t="b">
         <v>1</v>
       </c>
       <c r="C622" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E622" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="F622" s="6" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="G622" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="B623" s="3" t="b">
         <v>1</v>
@@ -20484,18 +20505,18 @@
         <v>1</v>
       </c>
       <c r="E623" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="F623" s="6" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="G623" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>2191</v>
+        <v>2175</v>
       </c>
       <c r="B624" s="3" t="b">
         <v>1</v>
@@ -20504,58 +20525,58 @@
         <v>1</v>
       </c>
       <c r="E624" t="s">
-        <v>2192</v>
+        <v>2178</v>
       </c>
       <c r="F624" s="6" t="s">
-        <v>2193</v>
+        <v>2181</v>
       </c>
       <c r="G624" t="s">
-        <v>2194</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>2195</v>
-      </c>
-      <c r="B625" t="b">
-        <v>1</v>
-      </c>
-      <c r="C625" t="b">
+        <v>2191</v>
+      </c>
+      <c r="B625" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C625" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E625" t="s">
-        <v>2196</v>
+        <v>2192</v>
       </c>
       <c r="F625" s="6" t="s">
-        <v>2197</v>
+        <v>2193</v>
       </c>
       <c r="G625" t="s">
-        <v>2216</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="626" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>2198</v>
-      </c>
-      <c r="B626" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C626" s="3" t="b">
+        <v>2195</v>
+      </c>
+      <c r="B626" t="b">
+        <v>1</v>
+      </c>
+      <c r="C626" t="b">
         <v>1</v>
       </c>
       <c r="E626" t="s">
-        <v>2204</v>
+        <v>2196</v>
       </c>
       <c r="F626" s="6" t="s">
-        <v>2210</v>
+        <v>2197</v>
       </c>
       <c r="G626" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="B627" s="3" t="b">
         <v>1</v>
@@ -20564,18 +20585,18 @@
         <v>1</v>
       </c>
       <c r="E627" t="s">
-        <v>2208</v>
+        <v>2204</v>
       </c>
       <c r="F627" s="6" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="G627" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="628" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="B628" s="3" t="b">
         <v>1</v>
@@ -20583,19 +20604,19 @@
       <c r="C628" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E628" s="3" t="s">
-        <v>2205</v>
+      <c r="E628" t="s">
+        <v>2208</v>
       </c>
       <c r="F628" s="6" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="G628" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="B629" s="3" t="b">
         <v>1</v>
@@ -20604,18 +20625,18 @@
         <v>1</v>
       </c>
       <c r="E629" s="3" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="F629" s="6" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="G629" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="630" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="B630" s="3" t="b">
         <v>1</v>
@@ -20624,59 +20645,58 @@
         <v>1</v>
       </c>
       <c r="E630" s="3" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="F630" s="6" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="G630" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="631" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
+        <v>2202</v>
+      </c>
+      <c r="B631" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C631" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E631" s="3" t="s">
+        <v>2207</v>
+      </c>
+      <c r="F631" s="6" t="s">
+        <v>2214</v>
+      </c>
+      <c r="G631" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
         <v>2203</v>
       </c>
-      <c r="B631" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C631" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E631" s="3" t="s">
+      <c r="B632" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C632" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E632" s="3" t="s">
         <v>2209</v>
       </c>
-      <c r="F631" s="6" t="s">
+      <c r="F632" s="6" t="s">
         <v>2215</v>
       </c>
-      <c r="G631" t="s">
+      <c r="G632" t="s">
         <v>2222</v>
-      </c>
-    </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A632" s="3" t="s">
-        <v>1699</v>
-      </c>
-      <c r="B632" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C632" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D632" s="3"/>
-      <c r="E632" s="3" t="s">
-        <v>1699</v>
-      </c>
-      <c r="F632" s="6" t="s">
-        <v>2027</v>
-      </c>
-      <c r="G632" s="3" t="s">
-        <v>1737</v>
       </c>
     </row>
     <row r="633" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A633" s="3" t="s">
-        <v>2025</v>
+        <v>1699</v>
       </c>
       <c r="B633" s="3" t="b">
         <v>1</v>
@@ -20686,10 +20706,10 @@
       </c>
       <c r="D633" s="3"/>
       <c r="E633" s="3" t="s">
-        <v>2025</v>
+        <v>1699</v>
       </c>
       <c r="F633" s="6" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="G633" s="3" t="s">
         <v>1737</v>
@@ -20697,7 +20717,7 @@
     </row>
     <row r="634" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A634" s="3" t="s">
-        <v>816</v>
+        <v>2025</v>
       </c>
       <c r="B634" s="3" t="b">
         <v>1</v>
@@ -20707,18 +20727,18 @@
       </c>
       <c r="D634" s="3"/>
       <c r="E634" s="3" t="s">
-        <v>817</v>
+        <v>2025</v>
       </c>
       <c r="F634" s="6" t="s">
-        <v>439</v>
+        <v>2026</v>
       </c>
       <c r="G634" s="3" t="s">
-        <v>1490</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635" s="3" t="s">
-        <v>829</v>
+        <v>816</v>
       </c>
       <c r="B635" s="3" t="b">
         <v>1</v>
@@ -20728,18 +20748,18 @@
       </c>
       <c r="D635" s="3"/>
       <c r="E635" s="3" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="F635" s="6" t="s">
-        <v>830</v>
+        <v>439</v>
       </c>
       <c r="G635" s="3" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A636" s="3" t="s">
-        <v>818</v>
+        <v>829</v>
       </c>
       <c r="B636" s="3" t="b">
         <v>1</v>
@@ -20749,99 +20769,100 @@
       </c>
       <c r="D636" s="3"/>
       <c r="E636" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="F636" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="G636" s="3" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A637" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="B637" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C637" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D637" s="3"/>
+      <c r="E637" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="F636" s="6" t="s">
+      <c r="F637" s="6" t="s">
         <v>819</v>
       </c>
-      <c r="G636" s="3" t="s">
+      <c r="G637" s="3" t="s">
         <v>1488</v>
-      </c>
-    </row>
-    <row r="637" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A637" s="3" t="s">
-        <v>820</v>
-      </c>
-      <c r="B637" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C637" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E637" s="3" t="s">
-        <v>822</v>
-      </c>
-      <c r="F637" s="6" t="s">
-        <v>821</v>
-      </c>
-      <c r="G637" s="3" t="s">
-        <v>1491</v>
       </c>
     </row>
     <row r="638" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A638" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="B638" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C638" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E638" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="F638" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="G638" s="3" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="639" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A639" s="3" t="s">
         <v>2131</v>
       </c>
-      <c r="B638" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C638" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E638" s="3" t="s">
+      <c r="B639" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C639" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E639" s="3" t="s">
         <v>1682</v>
       </c>
-      <c r="F638" s="6" t="s">
+      <c r="F639" s="6" t="s">
         <v>832</v>
       </c>
-      <c r="G638" s="3" t="s">
+      <c r="G639" s="3" t="s">
         <v>1495</v>
       </c>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A639" s="3" t="s">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A640" s="3" t="s">
         <v>2132</v>
       </c>
-      <c r="B639" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C639" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D639" s="3"/>
-      <c r="E639" s="3" t="s">
+      <c r="B640" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C640" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D640" s="3"/>
+      <c r="E640" s="3" t="s">
         <v>1683</v>
       </c>
-      <c r="F639" s="6" t="s">
+      <c r="F640" s="6" t="s">
         <v>833</v>
       </c>
-      <c r="G639" s="3" t="s">
+      <c r="G640" s="3" t="s">
         <v>1496</v>
-      </c>
-    </row>
-    <row r="640" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A640" s="3" t="s">
-        <v>2133</v>
-      </c>
-      <c r="B640" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C640" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E640" s="3" t="s">
-        <v>1684</v>
-      </c>
-      <c r="F640" s="6" t="s">
-        <v>834</v>
-      </c>
-      <c r="G640" s="3" t="s">
-        <v>1497</v>
       </c>
     </row>
     <row r="641" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A641" s="3" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="B641" s="3" t="b">
         <v>1</v>
@@ -20850,59 +20871,58 @@
         <v>1</v>
       </c>
       <c r="E641" s="3" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F641" s="6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G641" s="3" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="642" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A642" s="3" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B642" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C642" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E642" s="3" t="s">
+        <v>1685</v>
+      </c>
+      <c r="F642" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="G642" s="3" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="643" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A643" s="3" t="s">
         <v>2135</v>
       </c>
-      <c r="B642" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C642" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E642" s="3" t="s">
+      <c r="B643" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C643" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E643" s="3" t="s">
         <v>2136</v>
       </c>
-      <c r="F642" s="6" t="s">
+      <c r="F643" s="6" t="s">
         <v>2137</v>
       </c>
-      <c r="G642" s="3" t="s">
+      <c r="G643" s="3" t="s">
         <v>2138</v>
-      </c>
-    </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A643" s="3" t="s">
-        <v>826</v>
-      </c>
-      <c r="B643" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C643" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D643" s="3"/>
-      <c r="E643" s="3" t="s">
-        <v>828</v>
-      </c>
-      <c r="F643" s="6" t="s">
-        <v>827</v>
-      </c>
-      <c r="G643" s="3" t="s">
-        <v>1493</v>
       </c>
     </row>
     <row r="644" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A644" s="3" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="B644" s="3" t="b">
         <v>1</v>
@@ -20912,118 +20932,119 @@
       </c>
       <c r="D644" s="3"/>
       <c r="E644" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="F644" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="G644" s="3" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A645" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="B645" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C645" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D645" s="3"/>
+      <c r="E645" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="F644" s="6" t="s">
+      <c r="F645" s="6" t="s">
         <v>824</v>
       </c>
-      <c r="G644" s="3" t="s">
+      <c r="G645" s="3" t="s">
         <v>1492</v>
-      </c>
-    </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A645" t="s">
-        <v>2223</v>
-      </c>
-      <c r="B645" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C645" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E645" t="s">
-        <v>1701</v>
-      </c>
-      <c r="F645" s="6" t="s">
-        <v>2228</v>
-      </c>
-      <c r="G645" t="s">
-        <v>1738</v>
       </c>
     </row>
     <row r="646" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B646" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C646" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E646" t="s">
+        <v>1701</v>
+      </c>
+      <c r="F646" s="6" t="s">
+        <v>2228</v>
+      </c>
+      <c r="G646" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
         <v>2224</v>
       </c>
-      <c r="B646" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C646" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E646" s="3" t="s">
+      <c r="B647" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C647" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E647" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="F646" s="6" t="s">
+      <c r="F647" s="6" t="s">
         <v>1709</v>
       </c>
-      <c r="G646" t="s">
+      <c r="G647" t="s">
         <v>1357</v>
-      </c>
-    </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A647" s="3" t="s">
-        <v>2225</v>
-      </c>
-      <c r="B647" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C647" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E647" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="F647" s="6" t="s">
-        <v>2229</v>
-      </c>
-      <c r="G647" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="648" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A648" s="3" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B648" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C648" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E648" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="F648" s="6" t="s">
+        <v>2229</v>
+      </c>
+      <c r="G648" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A649" s="3" t="s">
         <v>2226</v>
       </c>
-      <c r="B648" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C648" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E648" s="3" t="s">
+      <c r="B649" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C649" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E649" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="F648" s="6" t="s">
+      <c r="F649" s="6" t="s">
         <v>1707</v>
       </c>
-      <c r="G648" t="s">
+      <c r="G649" t="s">
         <v>1364</v>
-      </c>
-    </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A649" t="s">
-        <v>2227</v>
-      </c>
-      <c r="B649" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C649" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E649" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="F649" s="6" t="s">
-        <v>1708</v>
-      </c>
-      <c r="G649" t="s">
-        <v>1361</v>
       </c>
     </row>
     <row r="650" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>2230</v>
+        <v>2227</v>
       </c>
       <c r="B650" s="3" t="b">
         <v>1</v>
@@ -21031,19 +21052,19 @@
       <c r="C650" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E650" t="s">
-        <v>2232</v>
+      <c r="E650" s="3" t="s">
+        <v>434</v>
       </c>
       <c r="F650" s="6" t="s">
-        <v>2234</v>
+        <v>1708</v>
       </c>
       <c r="G650" t="s">
-        <v>2236</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="651" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="B651" s="3" t="b">
         <v>1</v>
@@ -21052,38 +21073,38 @@
         <v>1</v>
       </c>
       <c r="E651" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="F651" s="6" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="G651" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="652" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>2238</v>
-      </c>
-      <c r="B652" t="b">
-        <v>1</v>
-      </c>
-      <c r="C652" t="b">
+        <v>2231</v>
+      </c>
+      <c r="B652" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C652" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E652" t="s">
-        <v>2239</v>
+        <v>2233</v>
       </c>
       <c r="F652" s="6" t="s">
-        <v>2240</v>
+        <v>2235</v>
       </c>
       <c r="G652" t="s">
-        <v>2241</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="653" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>2006</v>
+        <v>2238</v>
       </c>
       <c r="B653" t="b">
         <v>1</v>
@@ -21092,41 +21113,38 @@
         <v>1</v>
       </c>
       <c r="E653" t="s">
-        <v>2006</v>
+        <v>2239</v>
       </c>
       <c r="F653" s="6" t="s">
-        <v>2007</v>
-      </c>
-      <c r="G653" s="3" t="s">
-        <v>2008</v>
+        <v>2240</v>
+      </c>
+      <c r="G653" t="s">
+        <v>2241</v>
       </c>
     </row>
     <row r="654" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
-        <v>2251</v>
+        <v>2006</v>
       </c>
       <c r="B654" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C654" t="b">
         <v>1</v>
       </c>
-      <c r="D654" t="s">
-        <v>2256</v>
-      </c>
       <c r="E654" t="s">
-        <v>2251</v>
+        <v>2006</v>
       </c>
       <c r="F654" s="6" t="s">
-        <v>2254</v>
-      </c>
-      <c r="G654" t="s">
-        <v>2257</v>
+        <v>2007</v>
+      </c>
+      <c r="G654" s="3" t="s">
+        <v>2008</v>
       </c>
     </row>
     <row r="655" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="B655" t="b">
         <v>0</v>
@@ -21138,114 +21156,171 @@
         <v>2256</v>
       </c>
       <c r="E655" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="F655" s="6" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="G655" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="656" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B656" t="b">
+        <v>0</v>
+      </c>
+      <c r="C656" t="b">
+        <v>1</v>
+      </c>
+      <c r="D656" t="s">
+        <v>2256</v>
+      </c>
+      <c r="E656" t="s">
+        <v>2253</v>
+      </c>
+      <c r="F656" s="6" t="s">
+        <v>2255</v>
+      </c>
+      <c r="G656" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
         <v>2264</v>
       </c>
-      <c r="B656" t="b">
-        <v>1</v>
-      </c>
-      <c r="C656" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E656" t="s">
+      <c r="B657" t="b">
+        <v>1</v>
+      </c>
+      <c r="C657" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E657" t="s">
         <v>2262</v>
       </c>
-      <c r="F656" s="6" t="s">
+      <c r="F657" s="6" t="s">
         <v>2266</v>
-      </c>
-      <c r="G656" t="s">
-        <v>2267</v>
-      </c>
-    </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A657" s="3" t="s">
-        <v>2259</v>
-      </c>
-      <c r="B657" t="b">
-        <v>1</v>
-      </c>
-      <c r="C657" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E657" t="s">
-        <v>2263</v>
-      </c>
-      <c r="F657" s="6" t="s">
-        <v>2265</v>
       </c>
       <c r="G657" t="s">
         <v>2267</v>
       </c>
     </row>
-    <row r="658" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A658" s="3" t="s">
-        <v>2260</v>
-      </c>
-      <c r="B658" s="3" t="b">
+        <v>2259</v>
+      </c>
+      <c r="B658" t="b">
         <v>1</v>
       </c>
       <c r="C658" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E658" s="3" t="s">
-        <v>326</v>
+      <c r="E658" t="s">
+        <v>2263</v>
       </c>
       <c r="F658" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="G658" s="3" t="s">
-        <v>1324</v>
+        <v>2265</v>
+      </c>
+      <c r="G658" t="s">
+        <v>2267</v>
       </c>
     </row>
     <row r="659" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A659" s="3" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B659" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C659" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E659" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F659" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="G659" s="3" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="660" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A660" s="3" t="s">
         <v>2261</v>
       </c>
-      <c r="B659" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C659" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E659" s="3" t="s">
+      <c r="B660" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C660" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E660" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="F659" s="6" t="s">
+      <c r="F660" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="G659" s="3" t="s">
+      <c r="G660" s="3" t="s">
         <v>1325</v>
       </c>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A660" t="s">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B661" t="b">
+        <v>1</v>
+      </c>
+      <c r="C661" t="b">
+        <v>1</v>
+      </c>
+      <c r="E661" t="s">
         <v>2345</v>
       </c>
-      <c r="B660" t="b">
-        <v>0</v>
-      </c>
-      <c r="C660" t="b">
-        <v>1</v>
-      </c>
-      <c r="E660" t="s">
+      <c r="F661" s="6" t="s">
         <v>2346</v>
       </c>
-      <c r="F660" s="6" t="s">
-        <v>2347</v>
+    </row>
+    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>2358</v>
+      </c>
+      <c r="B662" t="b">
+        <v>1</v>
+      </c>
+      <c r="C662" t="b">
+        <v>0</v>
+      </c>
+      <c r="E662" t="s">
+        <v>2357</v>
+      </c>
+      <c r="F662" s="6" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A663" t="s">
+        <v>2362</v>
+      </c>
+      <c r="B663" t="b">
+        <v>1</v>
+      </c>
+      <c r="C663" t="b">
+        <v>0</v>
+      </c>
+      <c r="E663" t="s">
+        <v>2360</v>
+      </c>
+      <c r="F663" s="6" t="s">
+        <v>2361</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G535" xr:uid="{166F55E6-F4CB-49C4-A0B4-8593C255C448}"/>
+  <autoFilter ref="A1:G536" xr:uid="{166F55E6-F4CB-49C4-A0B4-8593C255C448}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Translations/Translations.xlsx
+++ b/Translations/Translations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\source\repos\BSharp\Translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66914FFA-6E81-4889-A0CC-E6637C24419C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CAC03C-E421-4FDA-9319-09676F66A87A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32475" yWindow="7950" windowWidth="23265" windowHeight="19890" xr2:uid="{09F7BBB4-81EA-4503-B8DD-8985A501E98F}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$G$536</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2661" uniqueCount="2371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2667" uniqueCount="2377">
   <si>
     <t>Key</t>
   </si>
@@ -7125,9 +7126,6 @@
     <t>تلما</t>
   </si>
   <si>
-    <t>Tellma</t>
-  </si>
-  <si>
     <t>IncludeVoid</t>
   </si>
   <si>
@@ -7147,6 +7145,27 @@
   </si>
   <si>
     <t>包括空</t>
+  </si>
+  <si>
+    <t>tellma</t>
+  </si>
+  <si>
+    <t>Debit</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Cr.</t>
+  </si>
+  <si>
+    <t>Dr.</t>
+  </si>
+  <si>
+    <t>مدين</t>
+  </si>
+  <si>
+    <t>دائن</t>
   </si>
 </sst>
 </file>
@@ -7552,12 +7571,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FEE134-3B22-427F-8E5A-2A7F994BE2AC}">
-  <dimension ref="A1:G664"/>
+  <dimension ref="A1:G666"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A620" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A635" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F648" sqref="F648"/>
+      <selection pane="bottomLeft" activeCell="E665" sqref="E665:E666"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8005,7 +8024,7 @@
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>2363</v>
+        <v>2370</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>2362</v>
@@ -21306,7 +21325,7 @@
         <v>2344</v>
       </c>
       <c r="G661" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="662" spans="1:7" x14ac:dyDescent="0.25">
@@ -21326,7 +21345,7 @@
         <v>2357</v>
       </c>
       <c r="G662" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="663" spans="1:7" x14ac:dyDescent="0.25">
@@ -21346,27 +21365,61 @@
         <v>2359</v>
       </c>
       <c r="G663" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="664" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A664" s="3" t="s">
+        <v>2363</v>
+      </c>
+      <c r="B664" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C664" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E664" s="3" t="s">
         <v>2364</v>
       </c>
-      <c r="B664" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C664" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E664" s="3" t="s">
+      <c r="F664" s="6" t="s">
         <v>2365</v>
       </c>
-      <c r="F664" s="6" t="s">
-        <v>2366</v>
-      </c>
       <c r="G664" s="3" t="s">
-        <v>2370</v>
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
+        <v>2371</v>
+      </c>
+      <c r="B665" t="b">
+        <v>0</v>
+      </c>
+      <c r="C665" t="b">
+        <v>1</v>
+      </c>
+      <c r="E665" t="s">
+        <v>2374</v>
+      </c>
+      <c r="F665" s="6" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A666" t="s">
+        <v>2372</v>
+      </c>
+      <c r="B666" t="b">
+        <v>0</v>
+      </c>
+      <c r="C666" t="b">
+        <v>1</v>
+      </c>
+      <c r="E666" t="s">
+        <v>2373</v>
+      </c>
+      <c r="F666" s="6" t="s">
+        <v>2376</v>
       </c>
     </row>
   </sheetData>

--- a/Translations/Translations.xlsx
+++ b/Translations/Translations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\source\repos\BSharp\Translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CAC03C-E421-4FDA-9319-09676F66A87A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C29AB8-2E09-4A49-A180-CB3A9A90AB99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32475" yWindow="7950" windowWidth="23265" windowHeight="19890" xr2:uid="{09F7BBB4-81EA-4503-B8DD-8985A501E98F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09F7BBB4-81EA-4503-B8DD-8985A501E98F}"/>
   </bookViews>
   <sheets>
     <sheet name="Translations" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$G$536</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -7147,9 +7146,6 @@
     <t>包括空</t>
   </si>
   <si>
-    <t>tellma</t>
-  </si>
-  <si>
     <t>Debit</t>
   </si>
   <si>
@@ -7166,6 +7162,9 @@
   </si>
   <si>
     <t>دائن</t>
+  </si>
+  <si>
+    <t>Tellma</t>
   </si>
 </sst>
 </file>
@@ -7574,9 +7573,9 @@
   <dimension ref="A1:G666"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A635" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E665" sqref="E665:E666"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8024,7 +8023,7 @@
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>2370</v>
+        <v>2376</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>2362</v>
@@ -21390,7 +21389,7 @@
     </row>
     <row r="665" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="B665" t="b">
         <v>0</v>
@@ -21399,27 +21398,27 @@
         <v>1</v>
       </c>
       <c r="E665" t="s">
+        <v>2373</v>
+      </c>
+      <c r="F665" s="6" t="s">
         <v>2374</v>
-      </c>
-      <c r="F665" s="6" t="s">
-        <v>2375</v>
       </c>
     </row>
     <row r="666" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
+        <v>2371</v>
+      </c>
+      <c r="B666" t="b">
+        <v>0</v>
+      </c>
+      <c r="C666" t="b">
+        <v>1</v>
+      </c>
+      <c r="E666" t="s">
         <v>2372</v>
       </c>
-      <c r="B666" t="b">
-        <v>0</v>
-      </c>
-      <c r="C666" t="b">
-        <v>1</v>
-      </c>
-      <c r="E666" t="s">
-        <v>2373</v>
-      </c>
       <c r="F666" s="6" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
     </row>
   </sheetData>

--- a/Translations/Translations.xlsx
+++ b/Translations/Translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\source\repos\BSharp\Translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C29AB8-2E09-4A49-A180-CB3A9A90AB99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCB3025-69E3-450D-9139-FC3EA1326308}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09F7BBB4-81EA-4503-B8DD-8985A501E98F}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Translations" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$G$536</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$G$537</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2667" uniqueCount="2377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2685" uniqueCount="2390">
   <si>
     <t>Key</t>
   </si>
@@ -7165,6 +7165,45 @@
   </si>
   <si>
     <t>Tellma</t>
+  </si>
+  <si>
+    <t>Signature_SignedAt</t>
+  </si>
+  <si>
+    <t>Signature_Role</t>
+  </si>
+  <si>
+    <t>Signature_Agent</t>
+  </si>
+  <si>
+    <t>Signed At</t>
+  </si>
+  <si>
+    <t>On Behalf Of</t>
+  </si>
+  <si>
+    <t>بالنيابة عن</t>
+  </si>
+  <si>
+    <t>زمن التوقيع</t>
+  </si>
+  <si>
+    <t>博士</t>
+  </si>
+  <si>
+    <t>铬</t>
+  </si>
+  <si>
+    <t>签署于</t>
+  </si>
+  <si>
+    <t>代表</t>
+  </si>
+  <si>
+    <t>Document_Signatures</t>
+  </si>
+  <si>
+    <t>التوقيعات</t>
   </si>
 </sst>
 </file>
@@ -7570,12 +7609,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FEE134-3B22-427F-8E5A-2A7F994BE2AC}">
-  <dimension ref="A1:G666"/>
+  <dimension ref="A1:G670"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A435" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="G465" sqref="G465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17325,7 +17364,7 @@
     </row>
     <row r="465" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A465" s="3" t="s">
-        <v>2284</v>
+        <v>2388</v>
       </c>
       <c r="B465" s="3" t="b">
         <v>1</v>
@@ -17334,18 +17373,18 @@
         <v>1</v>
       </c>
       <c r="E465" s="3" t="s">
-        <v>807</v>
+        <v>623</v>
       </c>
       <c r="F465" s="6" t="s">
-        <v>817</v>
+        <v>2389</v>
       </c>
       <c r="G465" s="3" t="s">
-        <v>1486</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="466" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A466" s="3" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="B466" s="3" t="b">
         <v>1</v>
@@ -17354,18 +17393,18 @@
         <v>1</v>
       </c>
       <c r="E466" s="3" t="s">
-        <v>23</v>
+        <v>807</v>
       </c>
       <c r="F466" s="6" t="s">
-        <v>1797</v>
+        <v>817</v>
       </c>
       <c r="G466" s="3" t="s">
-        <v>1219</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="467" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A467" s="3" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="B467" s="3" t="b">
         <v>1</v>
@@ -17374,59 +17413,58 @@
         <v>1</v>
       </c>
       <c r="E467" s="3" t="s">
-        <v>1697</v>
+        <v>23</v>
       </c>
       <c r="F467" s="6" t="s">
-        <v>1702</v>
+        <v>1797</v>
       </c>
       <c r="G467" s="3" t="s">
-        <v>1735</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="468" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A468" s="3" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B468" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C468" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E468" s="3" t="s">
+        <v>1697</v>
+      </c>
+      <c r="F468" s="6" t="s">
+        <v>1702</v>
+      </c>
+      <c r="G468" s="3" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A469" s="3" t="s">
         <v>2287</v>
       </c>
-      <c r="B468" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C468" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E468" s="3" t="s">
+      <c r="B469" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C469" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E469" s="3" t="s">
         <v>2288</v>
       </c>
-      <c r="F468" s="6" t="s">
+      <c r="F469" s="6" t="s">
         <v>2289</v>
       </c>
-      <c r="G468" s="3" t="s">
+      <c r="G469" s="3" t="s">
         <v>2294</v>
-      </c>
-    </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A469" s="3" t="s">
-        <v>2266</v>
-      </c>
-      <c r="B469" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C469" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D469" s="3"/>
-      <c r="E469" s="3" t="s">
-        <v>1693</v>
-      </c>
-      <c r="F469" s="6" t="s">
-        <v>1695</v>
-      </c>
-      <c r="G469" s="3" t="s">
-        <v>1731</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="3" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="B470" s="3" t="b">
         <v>1</v>
@@ -17436,18 +17474,18 @@
       </c>
       <c r="D470" s="3"/>
       <c r="E470" s="3" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F470" s="6" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="G470" s="3" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="3" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="B471" s="3" t="b">
         <v>1</v>
@@ -17457,59 +17495,59 @@
       </c>
       <c r="D471" s="3"/>
       <c r="E471" s="3" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F471" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="G471" s="3" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A472" s="3" t="s">
+        <v>2268</v>
+      </c>
+      <c r="B472" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C472" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D472" s="3"/>
+      <c r="E472" s="3" t="s">
         <v>1628</v>
       </c>
-      <c r="F471" s="6" t="s">
+      <c r="F472" s="6" t="s">
         <v>1700</v>
       </c>
-      <c r="G471" s="3" t="s">
+      <c r="G472" s="3" t="s">
         <v>1733</v>
       </c>
     </row>
-    <row r="472" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A472" s="3" t="s">
+    <row r="473" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A473" s="3" t="s">
         <v>2295</v>
       </c>
-      <c r="B472" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C472" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E472" s="3" t="s">
+      <c r="B473" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C473" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E473" s="3" t="s">
         <v>2296</v>
       </c>
-      <c r="F472" s="6" t="s">
+      <c r="F473" s="6" t="s">
         <v>2297</v>
       </c>
-      <c r="G472" s="3" t="s">
+      <c r="G473" s="3" t="s">
         <v>2298</v>
-      </c>
-    </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A473" s="3" t="s">
-        <v>2306</v>
-      </c>
-      <c r="B473" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C473" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D473" s="3"/>
-      <c r="E473" s="3" t="s">
-        <v>2260</v>
-      </c>
-      <c r="F473" s="6" t="s">
-        <v>2307</v>
-      </c>
-      <c r="G473" s="3" t="s">
-        <v>2308</v>
       </c>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="3" t="s">
-        <v>2269</v>
+        <v>2306</v>
       </c>
       <c r="B474" s="3" t="b">
         <v>1</v>
@@ -17519,18 +17557,18 @@
       </c>
       <c r="D474" s="3"/>
       <c r="E474" s="3" t="s">
-        <v>23</v>
+        <v>2260</v>
       </c>
       <c r="F474" s="6" t="s">
-        <v>694</v>
+        <v>2307</v>
       </c>
       <c r="G474" s="3" t="s">
-        <v>1219</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="3" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="B475" s="3" t="b">
         <v>1</v>
@@ -17540,140 +17578,140 @@
       </c>
       <c r="D475" s="3"/>
       <c r="E475" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F475" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="G475" s="3" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A476" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B476" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C476" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D476" s="3"/>
+      <c r="E476" s="3" t="s">
         <v>1698</v>
       </c>
-      <c r="F475" s="6" t="s">
+      <c r="F476" s="6" t="s">
         <v>1701</v>
       </c>
-      <c r="G475" s="3" t="s">
+      <c r="G476" s="3" t="s">
         <v>1734</v>
-      </c>
-    </row>
-    <row r="476" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A476" s="3" t="s">
-        <v>2299</v>
-      </c>
-      <c r="B476" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C476" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E476" s="3" t="s">
-        <v>2300</v>
-      </c>
-      <c r="F476" s="6" t="s">
-        <v>2303</v>
-      </c>
-      <c r="G476" s="3" t="s">
-        <v>2334</v>
       </c>
     </row>
     <row r="477" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A477" s="3" t="s">
+        <v>2299</v>
+      </c>
+      <c r="B477" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C477" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E477" s="3" t="s">
+        <v>2300</v>
+      </c>
+      <c r="F477" s="6" t="s">
+        <v>2303</v>
+      </c>
+      <c r="G477" s="3" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A478" s="3" t="s">
         <v>2301</v>
       </c>
-      <c r="B477" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C477" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E477" s="3" t="s">
+      <c r="B478" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C478" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E478" s="3" t="s">
         <v>2302</v>
       </c>
-      <c r="F477" s="6" t="s">
+      <c r="F478" s="6" t="s">
         <v>2304</v>
       </c>
-      <c r="G477" s="3" t="s">
+      <c r="G478" s="3" t="s">
         <v>2335</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A478" s="3" t="s">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A479" s="3" t="s">
         <v>2271</v>
       </c>
-      <c r="B478" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C478" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D478" s="3"/>
-      <c r="E478" s="3" t="s">
+      <c r="B479" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C479" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D479" s="3"/>
+      <c r="E479" s="3" t="s">
         <v>1697</v>
       </c>
-      <c r="F478" s="6" t="s">
+      <c r="F479" s="6" t="s">
         <v>1702</v>
       </c>
-      <c r="G478" s="3" t="s">
+      <c r="G479" s="3" t="s">
         <v>1735</v>
-      </c>
-    </row>
-    <row r="479" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A479" s="3" t="s">
-        <v>2305</v>
-      </c>
-      <c r="B479" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C479" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E479" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="F479" s="6" t="s">
-        <v>817</v>
-      </c>
-      <c r="G479" s="3" t="s">
-        <v>1486</v>
       </c>
     </row>
     <row r="480" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A480" s="3" t="s">
+        <v>2305</v>
+      </c>
+      <c r="B480" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C480" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E480" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="F480" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="G480" s="3" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A481" s="3" t="s">
         <v>2309</v>
       </c>
-      <c r="B480" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C480" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E480" s="3" t="s">
+      <c r="B481" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C481" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E481" s="3" t="s">
         <v>2310</v>
       </c>
-      <c r="F480" s="6" t="s">
+      <c r="F481" s="6" t="s">
         <v>2311</v>
       </c>
-      <c r="G480" s="3" t="s">
+      <c r="G481" s="3" t="s">
         <v>2336</v>
-      </c>
-    </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A481" s="3" t="s">
-        <v>2272</v>
-      </c>
-      <c r="B481" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C481" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D481" s="3"/>
-      <c r="E481" s="3" t="s">
-        <v>1699</v>
-      </c>
-      <c r="F481" s="6" t="s">
-        <v>1703</v>
-      </c>
-      <c r="G481" s="3" t="s">
-        <v>1736</v>
       </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="3" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="B482" s="3" t="b">
         <v>1</v>
@@ -17683,18 +17721,18 @@
       </c>
       <c r="D482" s="3"/>
       <c r="E482" s="3" t="s">
-        <v>426</v>
+        <v>1699</v>
       </c>
       <c r="F482" s="6" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="G482" s="3" t="s">
-        <v>1357</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="3" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="B483" s="3" t="b">
         <v>1</v>
@@ -17704,18 +17742,18 @@
       </c>
       <c r="D483" s="3"/>
       <c r="E483" s="3" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="F483" s="6" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="G483" s="3" t="s">
-        <v>1362</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="3" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="B484" s="3" t="b">
         <v>1</v>
@@ -17725,18 +17763,18 @@
       </c>
       <c r="D484" s="3"/>
       <c r="E484" s="3" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="F484" s="6" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="G484" s="3" t="s">
-        <v>1359</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="3" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="B485" s="3" t="b">
         <v>1</v>
@@ -17746,18 +17784,18 @@
       </c>
       <c r="D485" s="3"/>
       <c r="E485" s="3" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="F485" s="6" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="G485" s="3" t="s">
-        <v>1355</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="3" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="B486" s="3" t="b">
         <v>1</v>
@@ -17767,38 +17805,39 @@
       </c>
       <c r="D486" s="3"/>
       <c r="E486" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="F486" s="6" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G486" s="3" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A487" s="3" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B487" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C487" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D487" s="3"/>
+      <c r="E487" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="F486" s="6" t="s">
+      <c r="F487" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="G486" s="3" t="s">
+      <c r="G487" s="3" t="s">
         <v>1439</v>
-      </c>
-    </row>
-    <row r="487" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A487" s="3" t="s">
-        <v>2312</v>
-      </c>
-      <c r="B487" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C487" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E487" s="3" t="s">
-        <v>1693</v>
-      </c>
-      <c r="F487" s="6" t="s">
-        <v>2326</v>
-      </c>
-      <c r="G487" s="3" t="s">
-        <v>1731</v>
       </c>
     </row>
     <row r="488" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A488" s="3" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="B488" s="3" t="b">
         <v>1</v>
@@ -17807,18 +17846,18 @@
         <v>1</v>
       </c>
       <c r="E488" s="3" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F488" s="6" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="G488" s="3" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="489" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A489" s="3" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="B489" s="3" t="b">
         <v>1</v>
@@ -17827,18 +17866,18 @@
         <v>1</v>
       </c>
       <c r="E489" s="3" t="s">
-        <v>2320</v>
+        <v>1694</v>
       </c>
       <c r="F489" s="6" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="G489" s="3" t="s">
-        <v>2337</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="490" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A490" s="3" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="B490" s="3" t="b">
         <v>1</v>
@@ -17847,18 +17886,18 @@
         <v>1</v>
       </c>
       <c r="E490" s="3" t="s">
-        <v>2323</v>
+        <v>2320</v>
       </c>
       <c r="F490" s="6" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="G490" s="3" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="491" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A491" s="3" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="B491" s="3" t="b">
         <v>1</v>
@@ -17867,18 +17906,18 @@
         <v>1</v>
       </c>
       <c r="E491" s="3" t="s">
-        <v>2321</v>
+        <v>2323</v>
       </c>
       <c r="F491" s="6" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="G491" s="3" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="492" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A492" s="3" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="B492" s="3" t="b">
         <v>1</v>
@@ -17887,18 +17926,18 @@
         <v>1</v>
       </c>
       <c r="E492" s="3" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="F492" s="6" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="G492" s="3" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="493" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A493" s="3" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="B493" s="3" t="b">
         <v>1</v>
@@ -17907,18 +17946,18 @@
         <v>1</v>
       </c>
       <c r="E493" s="3" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
       <c r="F493" s="6" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="G493" s="3" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="494" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A494" s="3" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="B494" s="3" t="b">
         <v>1</v>
@@ -17927,59 +17966,58 @@
         <v>1</v>
       </c>
       <c r="E494" s="3" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="F494" s="6" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="G494" s="3" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="495" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A495" s="3" t="s">
+        <v>2319</v>
+      </c>
+      <c r="B495" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C495" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E495" s="3" t="s">
+        <v>2325</v>
+      </c>
+      <c r="F495" s="6" t="s">
+        <v>2333</v>
+      </c>
+      <c r="G495" s="3" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A496" s="3" t="s">
         <v>2290</v>
       </c>
-      <c r="B495" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C495" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E495" s="3" t="s">
+      <c r="B496" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C496" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E496" s="3" t="s">
         <v>2291</v>
       </c>
-      <c r="F495" s="6" t="s">
+      <c r="F496" s="6" t="s">
         <v>2292</v>
       </c>
-      <c r="G495" s="3" t="s">
+      <c r="G496" s="3" t="s">
         <v>2293</v>
-      </c>
-    </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A496" s="3" t="s">
-        <v>815</v>
-      </c>
-      <c r="B496" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C496" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D496" s="3"/>
-      <c r="E496" s="3" t="s">
-        <v>815</v>
-      </c>
-      <c r="F496" s="6" t="s">
-        <v>1710</v>
-      </c>
-      <c r="G496" s="3" t="s">
-        <v>1488</v>
       </c>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="3" t="s">
-        <v>1708</v>
+        <v>815</v>
       </c>
       <c r="B497" s="3" t="b">
         <v>1</v>
@@ -17989,18 +18027,18 @@
       </c>
       <c r="D497" s="3"/>
       <c r="E497" s="3" t="s">
-        <v>1708</v>
+        <v>815</v>
       </c>
       <c r="F497" s="6" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="G497" s="3" t="s">
         <v>1488</v>
       </c>
     </row>
-    <row r="498" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="3" t="s">
-        <v>2010</v>
+        <v>1708</v>
       </c>
       <c r="B498" s="3" t="b">
         <v>1</v>
@@ -18008,19 +18046,20 @@
       <c r="C498" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="D498" s="3"/>
       <c r="E498" s="3" t="s">
-        <v>2012</v>
+        <v>1708</v>
       </c>
       <c r="F498" s="6" t="s">
-        <v>2014</v>
+        <v>1709</v>
       </c>
       <c r="G498" s="3" t="s">
-        <v>2016</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="499" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A499" s="3" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B499" s="3" t="b">
         <v>1</v>
@@ -18029,18 +18068,18 @@
         <v>1</v>
       </c>
       <c r="E499" s="3" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F499" s="6" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G499" s="3" t="s">
         <v>2016</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A500" s="3" t="s">
-        <v>2138</v>
+        <v>2011</v>
       </c>
       <c r="B500" s="3" t="b">
         <v>1</v>
@@ -18048,20 +18087,19 @@
       <c r="C500" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D500" s="3"/>
       <c r="E500" s="3" t="s">
-        <v>806</v>
+        <v>2013</v>
       </c>
       <c r="F500" s="6" t="s">
-        <v>805</v>
+        <v>2015</v>
       </c>
       <c r="G500" s="3" t="s">
-        <v>1485</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="3" t="s">
-        <v>1741</v>
+        <v>2138</v>
       </c>
       <c r="B501" s="3" t="b">
         <v>1</v>
@@ -18071,18 +18109,18 @@
       </c>
       <c r="D501" s="3"/>
       <c r="E501" s="3" t="s">
-        <v>1746</v>
+        <v>806</v>
       </c>
       <c r="F501" s="6" t="s">
-        <v>1747</v>
+        <v>805</v>
       </c>
       <c r="G501" s="3" t="s">
-        <v>1750</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" s="3" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="B502" s="3" t="b">
         <v>1</v>
@@ -18092,10 +18130,10 @@
       </c>
       <c r="D502" s="3"/>
       <c r="E502" s="3" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="F502" s="6" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="G502" s="3" t="s">
         <v>1750</v>
@@ -18103,7 +18141,7 @@
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="3" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="B503" s="3" t="b">
         <v>1</v>
@@ -18113,81 +18151,81 @@
       </c>
       <c r="D503" s="3"/>
       <c r="E503" s="3" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="F503" s="6" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="G503" s="3" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="3" t="s">
-        <v>1752</v>
+        <v>1743</v>
       </c>
       <c r="B504" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C504" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D504" s="3"/>
       <c r="E504" s="3" t="s">
-        <v>1753</v>
+        <v>1744</v>
       </c>
       <c r="F504" s="6" t="s">
-        <v>1754</v>
+        <v>1749</v>
       </c>
       <c r="G504" s="3" t="s">
-        <v>1755</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="3" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
       <c r="B505" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C505" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D505" s="3"/>
       <c r="E505" s="3" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
       <c r="F505" s="6" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
       <c r="G505" s="3" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="3" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
       <c r="B506" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C506" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D506" s="3"/>
       <c r="E506" s="3" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
       <c r="F506" s="6" t="s">
-        <v>1761</v>
+        <v>1758</v>
       </c>
       <c r="G506" s="3" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" s="3" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="B507" s="3" t="b">
         <v>0</v>
@@ -18197,39 +18235,39 @@
       </c>
       <c r="D507" s="3"/>
       <c r="E507" s="3" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
       <c r="F507" s="6" t="s">
-        <v>1765</v>
+        <v>1761</v>
       </c>
       <c r="G507" s="3" t="s">
-        <v>1766</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="3" t="s">
-        <v>1767</v>
+        <v>1763</v>
       </c>
       <c r="B508" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C508" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D508" s="3"/>
       <c r="E508" s="3" t="s">
-        <v>1768</v>
+        <v>1764</v>
       </c>
       <c r="F508" s="6" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
       <c r="G508" s="3" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="3" t="s">
-        <v>1771</v>
+        <v>1767</v>
       </c>
       <c r="B509" s="3" t="b">
         <v>1</v>
@@ -18239,18 +18277,18 @@
       </c>
       <c r="D509" s="3"/>
       <c r="E509" s="3" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
       <c r="F509" s="6" t="s">
-        <v>1773</v>
+        <v>1769</v>
       </c>
       <c r="G509" s="3" t="s">
-        <v>1774</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="3" t="s">
-        <v>2188</v>
+        <v>1771</v>
       </c>
       <c r="B510" s="3" t="b">
         <v>1</v>
@@ -18260,39 +18298,39 @@
       </c>
       <c r="D510" s="3"/>
       <c r="E510" s="3" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
       <c r="F510" s="6" t="s">
-        <v>1776</v>
+        <v>1773</v>
       </c>
       <c r="G510" s="3" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A511" s="4" t="s">
-        <v>1782</v>
+      <c r="A511" s="3" t="s">
+        <v>2188</v>
       </c>
       <c r="B511" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C511" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D511" s="3"/>
       <c r="E511" s="3" t="s">
-        <v>1783</v>
+        <v>1775</v>
       </c>
       <c r="F511" s="6" t="s">
-        <v>1784</v>
+        <v>1776</v>
       </c>
       <c r="G511" s="3" t="s">
-        <v>1785</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A512" s="3" t="s">
-        <v>1778</v>
+      <c r="A512" s="4" t="s">
+        <v>1782</v>
       </c>
       <c r="B512" s="3" t="b">
         <v>0</v>
@@ -18302,80 +18340,80 @@
       </c>
       <c r="D512" s="3"/>
       <c r="E512" s="3" t="s">
+        <v>1783</v>
+      </c>
+      <c r="F512" s="6" t="s">
+        <v>1784</v>
+      </c>
+      <c r="G512" s="3" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A513" s="3" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B513" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C513" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D513" s="3"/>
+      <c r="E513" s="3" t="s">
         <v>1779</v>
       </c>
-      <c r="F512" s="6" t="s">
+      <c r="F513" s="6" t="s">
         <v>1780</v>
       </c>
-      <c r="G512" s="3" t="s">
+      <c r="G513" s="3" t="s">
         <v>1781</v>
       </c>
     </row>
-    <row r="513" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A513" s="3" t="s">
+    <row r="514" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A514" s="3" t="s">
         <v>1786</v>
       </c>
-      <c r="B513" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C513" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E513" s="3" t="s">
+      <c r="B514" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C514" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E514" s="3" t="s">
         <v>1787</v>
       </c>
-      <c r="F513" s="6" t="s">
+      <c r="F514" s="6" t="s">
         <v>1788</v>
       </c>
-      <c r="G513" s="3" t="s">
+      <c r="G514" s="3" t="s">
         <v>1792</v>
-      </c>
-    </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A514" s="3" t="s">
-        <v>1789</v>
-      </c>
-      <c r="B514" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C514" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D514" s="3"/>
-      <c r="E514" s="3" t="s">
-        <v>1790</v>
-      </c>
-      <c r="F514" s="6" t="s">
-        <v>1791</v>
-      </c>
-      <c r="G514" s="3" t="s">
-        <v>1793</v>
       </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="3" t="s">
-        <v>1628</v>
+        <v>1789</v>
       </c>
       <c r="B515" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C515" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D515" s="3"/>
       <c r="E515" s="3" t="s">
-        <v>1628</v>
+        <v>1790</v>
       </c>
       <c r="F515" s="6" t="s">
-        <v>1795</v>
+        <v>1791</v>
       </c>
       <c r="G515" s="3" t="s">
-        <v>1733</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" s="3" t="s">
-        <v>1794</v>
+        <v>1628</v>
       </c>
       <c r="B516" s="3" t="b">
         <v>1</v>
@@ -18385,18 +18423,18 @@
       </c>
       <c r="D516" s="3"/>
       <c r="E516" s="3" t="s">
-        <v>1794</v>
+        <v>1628</v>
       </c>
       <c r="F516" s="6" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="G516" s="3" t="s">
-        <v>1798</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" s="3" t="s">
-        <v>1800</v>
+        <v>1794</v>
       </c>
       <c r="B517" s="3" t="b">
         <v>1</v>
@@ -18406,18 +18444,18 @@
       </c>
       <c r="D517" s="3"/>
       <c r="E517" s="3" t="s">
-        <v>1802</v>
+        <v>1794</v>
       </c>
       <c r="F517" s="6" t="s">
-        <v>1803</v>
+        <v>1796</v>
       </c>
       <c r="G517" s="3" t="s">
-        <v>1804</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" s="3" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="B518" s="3" t="b">
         <v>1</v>
@@ -18427,100 +18465,100 @@
       </c>
       <c r="D518" s="3"/>
       <c r="E518" s="3" t="s">
+        <v>1802</v>
+      </c>
+      <c r="F518" s="6" t="s">
+        <v>1803</v>
+      </c>
+      <c r="G518" s="3" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A519" s="3" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B519" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C519" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D519" s="3"/>
+      <c r="E519" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="F518" s="6" t="s">
+      <c r="F519" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="G518" s="3" t="s">
+      <c r="G519" s="3" t="s">
         <v>1488</v>
       </c>
     </row>
-    <row r="519" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A519" s="3" t="s">
+    <row r="520" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A520" s="3" t="s">
         <v>2245</v>
       </c>
-      <c r="B519" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C519" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E519" s="3" t="s">
+      <c r="B520" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C520" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E520" s="3" t="s">
         <v>2246</v>
       </c>
-      <c r="F519" s="6" t="s">
+      <c r="F520" s="6" t="s">
         <v>2247</v>
       </c>
-      <c r="G519" s="3" t="s">
+      <c r="G520" s="3" t="s">
         <v>2248</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A520" s="3" t="s">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A521" s="3" t="s">
         <v>1799</v>
       </c>
-      <c r="B520" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C520" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D520" s="3"/>
-      <c r="E520" s="3" t="s">
+      <c r="B521" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C521" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D521" s="3"/>
+      <c r="E521" s="3" t="s">
         <v>1744</v>
       </c>
-      <c r="F520" s="6" t="s">
+      <c r="F521" s="6" t="s">
         <v>1749</v>
       </c>
-      <c r="G520" s="3" t="s">
+      <c r="G521" s="3" t="s">
         <v>1751</v>
       </c>
     </row>
-    <row r="521" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A521" s="3" t="s">
+    <row r="522" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A522" s="3" t="s">
         <v>2361</v>
       </c>
-      <c r="B521" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C521" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E521" s="3" t="s">
+      <c r="B522" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C522" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E522" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="F521" s="6" t="s">
+      <c r="F522" s="6" t="s">
         <v>817</v>
       </c>
-      <c r="G521" s="3" t="s">
+      <c r="G522" s="3" t="s">
         <v>1486</v>
-      </c>
-    </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A522" s="3" t="s">
-        <v>1805</v>
-      </c>
-      <c r="B522" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C522" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D522" s="3"/>
-      <c r="E522" s="3" t="s">
-        <v>1808</v>
-      </c>
-      <c r="F522" s="6" t="s">
-        <v>1806</v>
-      </c>
-      <c r="G522" s="3" t="s">
-        <v>1822</v>
       </c>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" s="3" t="s">
-        <v>1810</v>
+        <v>1805</v>
       </c>
       <c r="B523" s="3" t="b">
         <v>1</v>
@@ -18530,18 +18568,18 @@
       </c>
       <c r="D523" s="3"/>
       <c r="E523" s="3" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="F523" s="6" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="G523" s="3" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" s="3" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="B524" s="3" t="b">
         <v>1</v>
@@ -18551,18 +18589,18 @@
       </c>
       <c r="D524" s="3"/>
       <c r="E524" s="3" t="s">
-        <v>1814</v>
+        <v>1809</v>
       </c>
       <c r="F524" s="6" t="s">
-        <v>1817</v>
+        <v>1807</v>
       </c>
       <c r="G524" s="3" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" s="3" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="B525" s="3" t="b">
         <v>1</v>
@@ -18572,18 +18610,18 @@
       </c>
       <c r="D525" s="3"/>
       <c r="E525" s="3" t="s">
-        <v>1818</v>
+        <v>1814</v>
       </c>
       <c r="F525" s="6" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="G525" s="3" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" s="3" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="B526" s="3" t="b">
         <v>1</v>
@@ -18593,18 +18631,18 @@
       </c>
       <c r="D526" s="3"/>
       <c r="E526" s="3" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="F526" s="6" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="G526" s="3" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" s="3" t="s">
-        <v>1837</v>
+        <v>1813</v>
       </c>
       <c r="B527" s="3" t="b">
         <v>1</v>
@@ -18614,18 +18652,18 @@
       </c>
       <c r="D527" s="3"/>
       <c r="E527" s="3" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="F527" s="6" t="s">
-        <v>1821</v>
+        <v>1815</v>
       </c>
       <c r="G527" s="3" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" s="3" t="s">
-        <v>1828</v>
+        <v>1837</v>
       </c>
       <c r="B528" s="3" t="b">
         <v>1</v>
@@ -18635,18 +18673,18 @@
       </c>
       <c r="D528" s="3"/>
       <c r="E528" s="3" t="s">
-        <v>646</v>
+        <v>1820</v>
       </c>
       <c r="F528" s="6" t="s">
-        <v>647</v>
+        <v>1821</v>
       </c>
       <c r="G528" s="3" t="s">
-        <v>1434</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" s="3" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="B529" s="3" t="b">
         <v>1</v>
@@ -18656,18 +18694,18 @@
       </c>
       <c r="D529" s="3"/>
       <c r="E529" s="3" t="s">
-        <v>1647</v>
+        <v>646</v>
       </c>
       <c r="F529" s="6" t="s">
-        <v>1144</v>
+        <v>647</v>
       </c>
       <c r="G529" s="3" t="s">
-        <v>1714</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" s="3" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="B530" s="3" t="b">
         <v>1</v>
@@ -18677,18 +18715,18 @@
       </c>
       <c r="D530" s="3"/>
       <c r="E530" s="3" t="s">
-        <v>1832</v>
+        <v>1647</v>
       </c>
       <c r="F530" s="6" t="s">
-        <v>1834</v>
+        <v>1144</v>
       </c>
       <c r="G530" s="3" t="s">
-        <v>1835</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" s="3" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B531" s="3" t="b">
         <v>1</v>
@@ -18698,58 +18736,59 @@
       </c>
       <c r="D531" s="3"/>
       <c r="E531" s="3" t="s">
+        <v>1832</v>
+      </c>
+      <c r="F531" s="6" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G531" s="3" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A532" s="3" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B532" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C532" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D532" s="3"/>
+      <c r="E532" s="3" t="s">
         <v>1833</v>
       </c>
-      <c r="F531" s="6" t="s">
+      <c r="F532" s="6" t="s">
         <v>1749</v>
       </c>
-      <c r="G531" s="3" t="s">
+      <c r="G532" s="3" t="s">
         <v>1836</v>
       </c>
     </row>
-    <row r="532" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A532" s="3" t="s">
+    <row r="533" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A533" s="3" t="s">
         <v>1840</v>
       </c>
-      <c r="B532" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C532" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E532" s="3" t="s">
+      <c r="B533" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C533" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E533" s="3" t="s">
         <v>1838</v>
       </c>
-      <c r="F532" s="6" t="s">
+      <c r="F533" s="6" t="s">
         <v>1841</v>
       </c>
-      <c r="G532" s="3" t="s">
+      <c r="G533" s="3" t="s">
         <v>1839</v>
-      </c>
-    </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A533" t="s">
-        <v>1842</v>
-      </c>
-      <c r="B533" t="b">
-        <v>1</v>
-      </c>
-      <c r="C533" t="b">
-        <v>1</v>
-      </c>
-      <c r="E533" s="3" t="s">
-        <v>1842</v>
-      </c>
-      <c r="F533" s="6" t="s">
-        <v>1845</v>
-      </c>
-      <c r="G533" t="s">
-        <v>1847</v>
       </c>
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="B534" t="b">
         <v>1</v>
@@ -18758,84 +18797,84 @@
         <v>1</v>
       </c>
       <c r="E534" s="3" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="F534" s="6" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="G534" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B535" t="b">
+        <v>1</v>
+      </c>
+      <c r="C535" t="b">
+        <v>1</v>
+      </c>
+      <c r="E535" s="3" t="s">
+        <v>1844</v>
+      </c>
+      <c r="F535" s="6" t="s">
+        <v>1846</v>
+      </c>
+      <c r="G535" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
         <v>1849</v>
       </c>
-      <c r="B535" t="b">
-        <v>1</v>
-      </c>
-      <c r="C535" t="b">
-        <v>0</v>
-      </c>
-      <c r="D535" t="s">
+      <c r="B536" t="b">
+        <v>1</v>
+      </c>
+      <c r="C536" t="b">
+        <v>0</v>
+      </c>
+      <c r="D536" t="s">
         <v>1852</v>
       </c>
-      <c r="E535" s="3" t="s">
+      <c r="E536" s="3" t="s">
         <v>1850</v>
       </c>
-      <c r="F535" s="6" t="s">
+      <c r="F536" s="6" t="s">
         <v>1851</v>
       </c>
-      <c r="G535" s="3" t="s">
+      <c r="G536" s="3" t="s">
         <v>1851</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A536" s="3" t="s">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A537" s="3" t="s">
         <v>1849</v>
       </c>
-      <c r="B536" t="b">
-        <v>0</v>
-      </c>
-      <c r="C536" t="b">
-        <v>1</v>
-      </c>
-      <c r="D536" s="3" t="s">
+      <c r="B537" t="b">
+        <v>0</v>
+      </c>
+      <c r="C537" t="b">
+        <v>1</v>
+      </c>
+      <c r="D537" s="3" t="s">
         <v>1852</v>
       </c>
-      <c r="E536" s="3" t="s">
+      <c r="E537" s="3" t="s">
         <v>1853</v>
       </c>
-      <c r="F536" s="6" t="s">
+      <c r="F537" s="6" t="s">
         <v>1854</v>
       </c>
-      <c r="G536" s="3" t="s">
+      <c r="G537" s="3" t="s">
         <v>1854</v>
-      </c>
-    </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A537" t="s">
-        <v>1867</v>
-      </c>
-      <c r="B537" t="b">
-        <v>0</v>
-      </c>
-      <c r="C537" t="b">
-        <v>1</v>
-      </c>
-      <c r="E537" t="s">
-        <v>1870</v>
-      </c>
-      <c r="F537" s="6" t="s">
-        <v>1868</v>
-      </c>
-      <c r="G537" s="3" t="s">
-        <v>1869</v>
       </c>
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>1879</v>
+        <v>1867</v>
       </c>
       <c r="B538" t="b">
         <v>0</v>
@@ -18844,78 +18883,78 @@
         <v>1</v>
       </c>
       <c r="E538" t="s">
-        <v>1879</v>
+        <v>1870</v>
       </c>
       <c r="F538" s="6" t="s">
-        <v>1880</v>
+        <v>1868</v>
       </c>
       <c r="G538" s="3" t="s">
-        <v>1881</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>1871</v>
-      </c>
-      <c r="B539" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C539" s="3" t="b">
+        <v>1879</v>
+      </c>
+      <c r="B539" t="b">
+        <v>0</v>
+      </c>
+      <c r="C539" t="b">
         <v>1</v>
       </c>
       <c r="E539" t="s">
-        <v>1872</v>
+        <v>1879</v>
       </c>
       <c r="F539" s="6" t="s">
-        <v>1874</v>
-      </c>
-      <c r="G539" t="s">
-        <v>1873</v>
+        <v>1880</v>
+      </c>
+      <c r="G539" s="3" t="s">
+        <v>1881</v>
       </c>
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>1875</v>
-      </c>
-      <c r="B540" t="b">
-        <v>0</v>
-      </c>
-      <c r="C540" t="b">
+        <v>1871</v>
+      </c>
+      <c r="B540" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C540" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E540" t="s">
-        <v>1876</v>
+        <v>1872</v>
       </c>
       <c r="F540" s="6" t="s">
-        <v>1877</v>
+        <v>1874</v>
       </c>
       <c r="G540" t="s">
-        <v>1878</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>1882</v>
-      </c>
-      <c r="B541" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C541" s="3" t="b">
+        <v>1875</v>
+      </c>
+      <c r="B541" t="b">
+        <v>0</v>
+      </c>
+      <c r="C541" t="b">
         <v>1</v>
       </c>
       <c r="E541" t="s">
-        <v>1884</v>
+        <v>1876</v>
       </c>
       <c r="F541" s="6" t="s">
-        <v>1886</v>
+        <v>1877</v>
       </c>
       <c r="G541" t="s">
-        <v>1975</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B542" s="3" t="b">
         <v>1</v>
@@ -18924,10 +18963,10 @@
         <v>1</v>
       </c>
       <c r="E542" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="F542" s="6" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="G542" t="s">
         <v>1975</v>
@@ -18935,7 +18974,7 @@
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>42</v>
+        <v>1883</v>
       </c>
       <c r="B543" s="3" t="b">
         <v>1</v>
@@ -18944,18 +18983,18 @@
         <v>1</v>
       </c>
       <c r="E543" t="s">
-        <v>42</v>
+        <v>1885</v>
       </c>
       <c r="F543" s="6" t="s">
-        <v>108</v>
+        <v>1887</v>
       </c>
       <c r="G543" t="s">
-        <v>1225</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>1894</v>
+        <v>42</v>
       </c>
       <c r="B544" s="3" t="b">
         <v>1</v>
@@ -18964,18 +19003,18 @@
         <v>1</v>
       </c>
       <c r="E544" t="s">
-        <v>1802</v>
+        <v>42</v>
       </c>
       <c r="F544" s="6" t="s">
-        <v>1803</v>
+        <v>108</v>
       </c>
       <c r="G544" t="s">
-        <v>1804</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="B545" s="3" t="b">
         <v>1</v>
@@ -18984,18 +19023,18 @@
         <v>1</v>
       </c>
       <c r="E545" t="s">
-        <v>1897</v>
+        <v>1802</v>
       </c>
       <c r="F545" s="6" t="s">
-        <v>1902</v>
+        <v>1803</v>
       </c>
       <c r="G545" t="s">
-        <v>1976</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="B546" s="3" t="b">
         <v>1</v>
@@ -19004,18 +19043,18 @@
         <v>1</v>
       </c>
       <c r="E546" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="F546" s="6" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="G546" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>1888</v>
+        <v>1896</v>
       </c>
       <c r="B547" s="3" t="b">
         <v>1</v>
@@ -19024,18 +19063,18 @@
         <v>1</v>
       </c>
       <c r="E547" t="s">
-        <v>1879</v>
+        <v>1898</v>
       </c>
       <c r="F547" s="6" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="G547" t="s">
-        <v>1881</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B548" s="3" t="b">
         <v>1</v>
@@ -19044,58 +19083,58 @@
         <v>1</v>
       </c>
       <c r="E548" t="s">
-        <v>1899</v>
+        <v>1879</v>
       </c>
       <c r="F548" s="6" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="G548" t="s">
-        <v>1978</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B549" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C549" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E549" t="s">
+        <v>1899</v>
+      </c>
+      <c r="F549" s="6" t="s">
+        <v>1905</v>
+      </c>
+      <c r="G549" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
         <v>1890</v>
       </c>
-      <c r="B549" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C549" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E549" t="s">
+      <c r="B550" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C550" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E550" t="s">
         <v>2092</v>
       </c>
-      <c r="F549" s="6" t="s">
+      <c r="F550" s="6" t="s">
         <v>2098</v>
       </c>
-      <c r="G549" t="s">
+      <c r="G550" t="s">
         <v>1979</v>
-      </c>
-    </row>
-    <row r="550" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A550" s="3" t="s">
-        <v>2046</v>
-      </c>
-      <c r="B550" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C550" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E550" s="3" t="s">
-        <v>2093</v>
-      </c>
-      <c r="F550" s="6" t="s">
-        <v>2099</v>
-      </c>
-      <c r="G550" s="3" t="s">
-        <v>2073</v>
       </c>
     </row>
     <row r="551" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A551" s="3" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="B551" s="3" t="b">
         <v>1</v>
@@ -19104,78 +19143,78 @@
         <v>1</v>
       </c>
       <c r="E551" s="3" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="F551" s="6" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="G551" s="3" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="552" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A552" s="3" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B552" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C552" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E552" s="3" t="s">
+        <v>2094</v>
+      </c>
+      <c r="F552" s="6" t="s">
+        <v>2100</v>
+      </c>
+      <c r="G552" s="3" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A553" s="3" t="s">
         <v>2048</v>
       </c>
-      <c r="B552" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C552" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E552" s="3" t="s">
+      <c r="B553" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C553" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E553" s="3" t="s">
         <v>2095</v>
       </c>
-      <c r="F552" s="6" t="s">
+      <c r="F553" s="6" t="s">
         <v>2101</v>
       </c>
-      <c r="G552" s="3" t="s">
+      <c r="G553" s="3" t="s">
         <v>2075</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A553" t="s">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
         <v>1891</v>
       </c>
-      <c r="B553" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C553" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E553" t="s">
+      <c r="B554" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C554" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E554" t="s">
         <v>2091</v>
       </c>
-      <c r="F553" s="6" t="s">
+      <c r="F554" s="6" t="s">
         <v>2102</v>
       </c>
-      <c r="G553" t="s">
+      <c r="G554" t="s">
         <v>1980</v>
-      </c>
-    </row>
-    <row r="554" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A554" s="3" t="s">
-        <v>2049</v>
-      </c>
-      <c r="B554" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C554" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E554" s="3" t="s">
-        <v>2090</v>
-      </c>
-      <c r="F554" s="6" t="s">
-        <v>2103</v>
-      </c>
-      <c r="G554" s="3" t="s">
-        <v>2076</v>
       </c>
     </row>
     <row r="555" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A555" s="3" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="B555" s="3" t="b">
         <v>1</v>
@@ -19184,78 +19223,78 @@
         <v>1</v>
       </c>
       <c r="E555" s="3" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="F555" s="6" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="G555" s="3" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="556" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A556" s="3" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B556" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C556" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E556" s="3" t="s">
+        <v>2089</v>
+      </c>
+      <c r="F556" s="6" t="s">
+        <v>2104</v>
+      </c>
+      <c r="G556" s="3" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="557" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A557" s="3" t="s">
         <v>2051</v>
       </c>
-      <c r="B556" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C556" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E556" s="3" t="s">
+      <c r="B557" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C557" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E557" s="3" t="s">
         <v>2088</v>
       </c>
-      <c r="F556" s="6" t="s">
+      <c r="F557" s="6" t="s">
         <v>2105</v>
       </c>
-      <c r="G556" s="3" t="s">
+      <c r="G557" s="3" t="s">
         <v>2078</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A557" t="s">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
         <v>1892</v>
       </c>
-      <c r="B557" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C557" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E557" t="s">
+      <c r="B558" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C558" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E558" t="s">
         <v>1900</v>
       </c>
-      <c r="F557" s="6" t="s">
+      <c r="F558" s="6" t="s">
         <v>1907</v>
       </c>
-      <c r="G557" t="s">
+      <c r="G558" t="s">
         <v>1981</v>
-      </c>
-    </row>
-    <row r="558" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A558" s="3" t="s">
-        <v>2052</v>
-      </c>
-      <c r="B558" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C558" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E558" s="3" t="s">
-        <v>2060</v>
-      </c>
-      <c r="F558" s="6" t="s">
-        <v>2066</v>
-      </c>
-      <c r="G558" s="3" t="s">
-        <v>2079</v>
       </c>
     </row>
     <row r="559" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A559" s="3" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="B559" s="3" t="b">
         <v>1</v>
@@ -19264,78 +19303,78 @@
         <v>1</v>
       </c>
       <c r="E559" s="3" t="s">
-        <v>2096</v>
+        <v>2060</v>
       </c>
       <c r="F559" s="6" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="G559" s="3" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="560" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A560" s="3" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B560" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C560" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E560" s="3" t="s">
+        <v>2096</v>
+      </c>
+      <c r="F560" s="6" t="s">
+        <v>2068</v>
+      </c>
+      <c r="G560" s="3" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A561" s="3" t="s">
         <v>2054</v>
       </c>
-      <c r="B560" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C560" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E560" s="3" t="s">
+      <c r="B561" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C561" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E561" s="3" t="s">
         <v>2097</v>
       </c>
-      <c r="F560" s="6" t="s">
+      <c r="F561" s="6" t="s">
         <v>2067</v>
       </c>
-      <c r="G560" s="3" t="s">
+      <c r="G561" s="3" t="s">
         <v>2081</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A561" t="s">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
         <v>1893</v>
       </c>
-      <c r="B561" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C561" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E561" t="s">
+      <c r="B562" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C562" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E562" t="s">
         <v>1901</v>
       </c>
-      <c r="F561" s="6" t="s">
+      <c r="F562" s="6" t="s">
         <v>1906</v>
       </c>
-      <c r="G561" t="s">
+      <c r="G562" t="s">
         <v>1982</v>
-      </c>
-    </row>
-    <row r="562" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A562" s="3" t="s">
-        <v>2055</v>
-      </c>
-      <c r="B562" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C562" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E562" s="3" t="s">
-        <v>2061</v>
-      </c>
-      <c r="F562" s="6" t="s">
-        <v>2069</v>
-      </c>
-      <c r="G562" s="3" t="s">
-        <v>2082</v>
       </c>
     </row>
     <row r="563" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A563" s="3" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="B563" s="3" t="b">
         <v>1</v>
@@ -19344,18 +19383,18 @@
         <v>1</v>
       </c>
       <c r="E563" s="3" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="F563" s="6" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="G563" s="3" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="564" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A564" s="3" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="B564" s="3" t="b">
         <v>1</v>
@@ -19364,18 +19403,18 @@
         <v>1</v>
       </c>
       <c r="E564" s="3" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="F564" s="6" t="s">
-        <v>2087</v>
+        <v>2070</v>
       </c>
       <c r="G564" s="3" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="565" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A565" s="3" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="B565" s="3" t="b">
         <v>1</v>
@@ -19384,18 +19423,18 @@
         <v>1</v>
       </c>
       <c r="E565" s="3" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="F565" s="6" t="s">
-        <v>2071</v>
+        <v>2087</v>
       </c>
       <c r="G565" s="3" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="566" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A566" s="3" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="B566" s="3" t="b">
         <v>1</v>
@@ -19404,58 +19443,58 @@
         <v>1</v>
       </c>
       <c r="E566" s="3" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="F566" s="6" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="G566" s="3" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="567" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A567" s="3" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B567" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C567" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E567" s="3" t="s">
+        <v>2065</v>
+      </c>
+      <c r="F567" s="6" t="s">
+        <v>2072</v>
+      </c>
+      <c r="G567" s="3" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="568" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A568" s="3" t="s">
         <v>2107</v>
       </c>
-      <c r="B567" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C567" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E567" s="3" t="s">
+      <c r="B568" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C568" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E568" s="3" t="s">
         <v>2108</v>
       </c>
-      <c r="F567" s="6" t="s">
+      <c r="F568" s="6" t="s">
         <v>2109</v>
       </c>
-      <c r="G567" s="3" t="s">
+      <c r="G568" s="3" t="s">
         <v>2110</v>
-      </c>
-    </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A568" t="s">
-        <v>1908</v>
-      </c>
-      <c r="B568" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C568" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E568" t="s">
-        <v>1921</v>
-      </c>
-      <c r="F568" s="6" t="s">
-        <v>1955</v>
-      </c>
-      <c r="G568" t="s">
-        <v>1983</v>
       </c>
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="B569" s="3" t="b">
         <v>1</v>
@@ -19464,18 +19503,18 @@
         <v>1</v>
       </c>
       <c r="E569" t="s">
-        <v>1925</v>
+        <v>1921</v>
       </c>
       <c r="F569" s="6" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="G569" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="B570" s="3" t="b">
         <v>1</v>
@@ -19484,18 +19523,18 @@
         <v>1</v>
       </c>
       <c r="E570" t="s">
-        <v>2004</v>
+        <v>1925</v>
       </c>
       <c r="F570" s="6" t="s">
-        <v>2005</v>
+        <v>1956</v>
       </c>
       <c r="G570" t="s">
-        <v>2006</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>318</v>
+        <v>1910</v>
       </c>
       <c r="B571" s="3" t="b">
         <v>1</v>
@@ -19504,18 +19543,18 @@
         <v>1</v>
       </c>
       <c r="E571" t="s">
-        <v>318</v>
+        <v>2004</v>
       </c>
       <c r="F571" s="6" t="s">
-        <v>317</v>
+        <v>2005</v>
       </c>
       <c r="G571" t="s">
-        <v>1320</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>1911</v>
+        <v>318</v>
       </c>
       <c r="B572" s="3" t="b">
         <v>1</v>
@@ -19524,18 +19563,18 @@
         <v>1</v>
       </c>
       <c r="E572" t="s">
-        <v>1926</v>
+        <v>318</v>
       </c>
       <c r="F572" s="6" t="s">
-        <v>1957</v>
+        <v>317</v>
       </c>
       <c r="G572" t="s">
-        <v>1985</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="B573" s="3" t="b">
         <v>1</v>
@@ -19544,18 +19583,18 @@
         <v>1</v>
       </c>
       <c r="E573" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="F573" s="6" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="G573" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="B574" s="3" t="b">
         <v>1</v>
@@ -19564,18 +19603,18 @@
         <v>1</v>
       </c>
       <c r="E574" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="F574" s="6" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="G574" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B575" s="3" t="b">
         <v>1</v>
@@ -19584,18 +19623,18 @@
         <v>1</v>
       </c>
       <c r="E575" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="F575" s="6" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="G575" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="B576" s="3" t="b">
         <v>1</v>
@@ -19604,18 +19643,18 @@
         <v>1</v>
       </c>
       <c r="E576" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="F576" s="6" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="G576" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="B577" s="3" t="b">
         <v>1</v>
@@ -19624,18 +19663,18 @@
         <v>1</v>
       </c>
       <c r="E577" t="s">
-        <v>880</v>
+        <v>1930</v>
       </c>
       <c r="F577" s="6" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="G577" t="s">
-        <v>1537</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="B578" s="3" t="b">
         <v>1</v>
@@ -19644,18 +19683,18 @@
         <v>1</v>
       </c>
       <c r="E578" t="s">
-        <v>1922</v>
+        <v>880</v>
       </c>
       <c r="F578" s="6" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="G578" t="s">
-        <v>2003</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="B579" s="3" t="b">
         <v>1</v>
@@ -19664,18 +19703,18 @@
         <v>1</v>
       </c>
       <c r="E579" t="s">
-        <v>1931</v>
+        <v>1922</v>
       </c>
       <c r="F579" s="6" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="G579" t="s">
-        <v>1990</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="B580" s="3" t="b">
         <v>1</v>
@@ -19684,18 +19723,18 @@
         <v>1</v>
       </c>
       <c r="E580" t="s">
-        <v>1923</v>
+        <v>1931</v>
       </c>
       <c r="F580" s="6" t="s">
-        <v>2106</v>
+        <v>1964</v>
       </c>
       <c r="G580" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="B581" s="3" t="b">
         <v>1</v>
@@ -19704,38 +19743,38 @@
         <v>1</v>
       </c>
       <c r="E581" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="F581" s="6" t="s">
-        <v>1965</v>
+        <v>2106</v>
       </c>
       <c r="G581" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>1936</v>
-      </c>
-      <c r="B582" t="b">
-        <v>1</v>
-      </c>
-      <c r="C582" t="b">
+        <v>1920</v>
+      </c>
+      <c r="B582" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C582" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E582" t="s">
-        <v>0</v>
+        <v>1924</v>
       </c>
       <c r="F582" s="6" t="s">
-        <v>1206</v>
+        <v>1965</v>
       </c>
       <c r="G582" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>1932</v>
+        <v>1936</v>
       </c>
       <c r="B583" t="b">
         <v>1</v>
@@ -19744,18 +19783,18 @@
         <v>1</v>
       </c>
       <c r="E583" t="s">
-        <v>1933</v>
+        <v>0</v>
       </c>
       <c r="F583" s="6" t="s">
-        <v>1966</v>
+        <v>1206</v>
       </c>
       <c r="G583" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="B584" t="b">
         <v>1</v>
@@ -19764,38 +19803,38 @@
         <v>1</v>
       </c>
       <c r="E584" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="F584" s="6" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="G584" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>1942</v>
-      </c>
-      <c r="B585" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C585" s="3" t="b">
+        <v>1934</v>
+      </c>
+      <c r="B585" t="b">
+        <v>1</v>
+      </c>
+      <c r="C585" t="b">
         <v>1</v>
       </c>
       <c r="E585" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="F585" s="6" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="G585" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="B586" s="3" t="b">
         <v>1</v>
@@ -19804,18 +19843,18 @@
         <v>1</v>
       </c>
       <c r="E586" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="F586" s="6" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="G586" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>1939</v>
+        <v>1943</v>
       </c>
       <c r="B587" s="3" t="b">
         <v>1</v>
@@ -19824,18 +19863,18 @@
         <v>1</v>
       </c>
       <c r="E587" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="F587" s="6" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="G587" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="B588" s="3" t="b">
         <v>1</v>
@@ -19844,18 +19883,18 @@
         <v>1</v>
       </c>
       <c r="E588" t="s">
-        <v>1972</v>
+        <v>1940</v>
       </c>
       <c r="F588" s="6" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="G588" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>1944</v>
+        <v>1941</v>
       </c>
       <c r="B589" s="3" t="b">
         <v>1</v>
@@ -19864,18 +19903,18 @@
         <v>1</v>
       </c>
       <c r="E589" t="s">
-        <v>420</v>
+        <v>1972</v>
       </c>
       <c r="F589" s="6" t="s">
-        <v>419</v>
+        <v>1971</v>
       </c>
       <c r="G589" t="s">
-        <v>1355</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="B590" s="3" t="b">
         <v>1</v>
@@ -19884,18 +19923,18 @@
         <v>1</v>
       </c>
       <c r="E590" t="s">
-        <v>1856</v>
+        <v>420</v>
       </c>
       <c r="F590" s="6" t="s">
-        <v>1860</v>
+        <v>419</v>
       </c>
       <c r="G590" t="s">
-        <v>1864</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B591" s="3" t="b">
         <v>1</v>
@@ -19904,18 +19943,18 @@
         <v>1</v>
       </c>
       <c r="E591" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="F591" s="6" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="G591" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B592" s="3" t="b">
         <v>1</v>
@@ -19924,18 +19963,18 @@
         <v>1</v>
       </c>
       <c r="E592" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="F592" s="6" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="G592" t="s">
-        <v>1866</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B593" s="3" t="b">
         <v>1</v>
@@ -19944,18 +19983,18 @@
         <v>1</v>
       </c>
       <c r="E593" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="F593" s="6" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="G593" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B594" s="3" t="b">
         <v>1</v>
@@ -19964,18 +20003,18 @@
         <v>1</v>
       </c>
       <c r="E594" t="s">
-        <v>1950</v>
+        <v>1857</v>
       </c>
       <c r="F594" s="6" t="s">
-        <v>1973</v>
+        <v>1861</v>
       </c>
       <c r="G594" t="s">
-        <v>2000</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="B595" s="3" t="b">
         <v>1</v>
@@ -19984,18 +20023,18 @@
         <v>1</v>
       </c>
       <c r="E595" t="s">
-        <v>1953</v>
+        <v>1950</v>
       </c>
       <c r="F595" s="6" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="G595" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="B596" s="3" t="b">
         <v>1</v>
@@ -20004,38 +20043,38 @@
         <v>1</v>
       </c>
       <c r="E596" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="F596" s="6" t="s">
-        <v>1906</v>
+        <v>1974</v>
       </c>
       <c r="G596" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>2004</v>
-      </c>
-      <c r="B597" t="b">
-        <v>0</v>
-      </c>
-      <c r="C597" t="b">
+        <v>1952</v>
+      </c>
+      <c r="B597" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C597" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E597" t="s">
-        <v>2004</v>
+        <v>1954</v>
       </c>
       <c r="F597" s="6" t="s">
-        <v>2005</v>
+        <v>1906</v>
       </c>
       <c r="G597" t="s">
-        <v>2006</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="B598" t="b">
         <v>0</v>
@@ -20044,138 +20083,138 @@
         <v>1</v>
       </c>
       <c r="E598" t="s">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="F598" s="6" t="s">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="G598" t="s">
-        <v>2009</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>2017</v>
+        <v>2007</v>
       </c>
       <c r="B599" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C599" t="b">
         <v>1</v>
       </c>
       <c r="E599" t="s">
-        <v>2017</v>
+        <v>2007</v>
       </c>
       <c r="F599" s="6" t="s">
-        <v>2020</v>
+        <v>2008</v>
       </c>
       <c r="G599" t="s">
-        <v>2021</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>2018</v>
-      </c>
-      <c r="B600" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C600" s="3" t="b">
+        <v>2017</v>
+      </c>
+      <c r="B600" t="b">
+        <v>1</v>
+      </c>
+      <c r="C600" t="b">
         <v>1</v>
       </c>
       <c r="E600" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="F600" s="6" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G600" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="601" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>2029</v>
-      </c>
-      <c r="B601" t="b">
-        <v>0</v>
-      </c>
-      <c r="C601" t="b">
+        <v>2018</v>
+      </c>
+      <c r="B601" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C601" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E601" t="s">
-        <v>2029</v>
+        <v>2018</v>
       </c>
       <c r="F601" s="6" t="s">
-        <v>1961</v>
+        <v>2019</v>
       </c>
       <c r="G601" t="s">
-        <v>2036</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="602" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B602" t="b">
+        <v>0</v>
+      </c>
+      <c r="C602" t="b">
+        <v>1</v>
+      </c>
+      <c r="E602" t="s">
+        <v>2029</v>
+      </c>
+      <c r="F602" s="6" t="s">
+        <v>1961</v>
+      </c>
+      <c r="G602" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
         <v>2026</v>
       </c>
-      <c r="B602" t="b">
-        <v>1</v>
-      </c>
-      <c r="C602" t="b">
-        <v>1</v>
-      </c>
-      <c r="E602" t="s">
+      <c r="B603" t="b">
+        <v>1</v>
+      </c>
+      <c r="C603" t="b">
+        <v>1</v>
+      </c>
+      <c r="E603" t="s">
         <v>2027</v>
       </c>
-      <c r="F602" s="6" t="s">
+      <c r="F603" s="6" t="s">
         <v>2028</v>
       </c>
-      <c r="G602" t="s">
+      <c r="G603" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A603" s="3" t="s">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A604" s="3" t="s">
         <v>2030</v>
       </c>
-      <c r="B603" t="b">
-        <v>0</v>
-      </c>
-      <c r="C603" t="b">
-        <v>1</v>
-      </c>
-      <c r="E603" t="s">
+      <c r="B604" t="b">
+        <v>0</v>
+      </c>
+      <c r="C604" t="b">
+        <v>1</v>
+      </c>
+      <c r="E604" t="s">
         <v>2031</v>
       </c>
-      <c r="F603" s="6" t="s">
+      <c r="F604" s="6" t="s">
         <v>2032</v>
       </c>
-      <c r="G603" t="s">
+      <c r="G604" t="s">
         <v>2038</v>
-      </c>
-    </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A604" t="s">
-        <v>2033</v>
-      </c>
-      <c r="B604" t="b">
-        <v>0</v>
-      </c>
-      <c r="C604" t="b">
-        <v>1</v>
-      </c>
-      <c r="E604" t="s">
-        <v>2034</v>
-      </c>
-      <c r="F604" s="6" t="s">
-        <v>2035</v>
-      </c>
-      <c r="G604" t="s">
-        <v>2039</v>
       </c>
     </row>
     <row r="605" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>2040</v>
+        <v>2033</v>
       </c>
       <c r="B605" t="b">
         <v>0</v>
@@ -20184,18 +20223,18 @@
         <v>1</v>
       </c>
       <c r="E605" t="s">
-        <v>2040</v>
+        <v>2034</v>
       </c>
       <c r="F605" s="6" t="s">
-        <v>2043</v>
+        <v>2035</v>
       </c>
       <c r="G605" t="s">
-        <v>2044</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="606" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="B606" t="b">
         <v>0</v>
@@ -20204,18 +20243,18 @@
         <v>1</v>
       </c>
       <c r="E606" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="F606" s="6" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="G606" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>968</v>
+        <v>2041</v>
       </c>
       <c r="B607" t="b">
         <v>0</v>
@@ -20224,18 +20263,18 @@
         <v>1</v>
       </c>
       <c r="E607" t="s">
-        <v>968</v>
+        <v>2041</v>
       </c>
       <c r="F607" s="6" t="s">
-        <v>1205</v>
+        <v>2042</v>
       </c>
       <c r="G607" t="s">
-        <v>1618</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="608" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>2111</v>
+        <v>968</v>
       </c>
       <c r="B608" t="b">
         <v>0</v>
@@ -20244,18 +20283,18 @@
         <v>1</v>
       </c>
       <c r="E608" t="s">
-        <v>2112</v>
+        <v>968</v>
       </c>
       <c r="F608" s="6" t="s">
-        <v>2113</v>
+        <v>1205</v>
       </c>
       <c r="G608" t="s">
-        <v>2117</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>2114</v>
+        <v>2111</v>
       </c>
       <c r="B609" t="b">
         <v>0</v>
@@ -20264,18 +20303,18 @@
         <v>1</v>
       </c>
       <c r="E609" t="s">
-        <v>2116</v>
+        <v>2112</v>
       </c>
       <c r="F609" s="6" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="G609" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>2119</v>
+        <v>2114</v>
       </c>
       <c r="B610" t="b">
         <v>0</v>
@@ -20284,78 +20323,78 @@
         <v>1</v>
       </c>
       <c r="E610" t="s">
-        <v>2120</v>
+        <v>2116</v>
       </c>
       <c r="F610" s="6" t="s">
-        <v>2121</v>
+        <v>2115</v>
       </c>
       <c r="G610" t="s">
-        <v>2122</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>2123</v>
+        <v>2119</v>
       </c>
       <c r="B611" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C611" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E611" t="s">
-        <v>2126</v>
+        <v>2120</v>
       </c>
       <c r="F611" s="6" t="s">
-        <v>2124</v>
+        <v>2121</v>
       </c>
       <c r="G611" t="s">
-        <v>2125</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B612" t="b">
+        <v>1</v>
+      </c>
+      <c r="C612" t="b">
+        <v>0</v>
+      </c>
+      <c r="E612" t="s">
+        <v>2126</v>
+      </c>
+      <c r="F612" s="6" t="s">
+        <v>2124</v>
+      </c>
+      <c r="G612" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
         <v>37</v>
       </c>
-      <c r="B612" t="b">
-        <v>1</v>
-      </c>
-      <c r="C612" t="b">
-        <v>1</v>
-      </c>
-      <c r="E612" t="s">
+      <c r="B613" t="b">
+        <v>1</v>
+      </c>
+      <c r="C613" t="b">
+        <v>1</v>
+      </c>
+      <c r="E613" t="s">
         <v>2127</v>
       </c>
-      <c r="F612" s="6" t="s">
+      <c r="F613" s="6" t="s">
         <v>2128</v>
       </c>
-      <c r="G612" t="s">
+      <c r="G613" t="s">
         <v>1224</v>
-      </c>
-    </row>
-    <row r="613" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A613" s="3" t="s">
-        <v>2143</v>
-      </c>
-      <c r="B613" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C613" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E613" s="3" t="s">
-        <v>1698</v>
-      </c>
-      <c r="F613" s="6" t="s">
-        <v>2146</v>
-      </c>
-      <c r="G613" s="3" t="s">
-        <v>1734</v>
       </c>
     </row>
     <row r="614" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A614" s="3" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="B614" s="3" t="b">
         <v>1</v>
@@ -20364,58 +20403,58 @@
         <v>1</v>
       </c>
       <c r="E614" s="3" t="s">
-        <v>2145</v>
+        <v>1698</v>
       </c>
       <c r="F614" s="6" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="G614" s="3" t="s">
         <v>1734</v>
       </c>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A615" t="s">
+    <row r="615" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A615" s="3" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B615" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C615" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E615" s="3" t="s">
+        <v>2145</v>
+      </c>
+      <c r="F615" s="6" t="s">
+        <v>2147</v>
+      </c>
+      <c r="G615" s="3" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
         <v>2137</v>
       </c>
-      <c r="B615" t="b">
-        <v>1</v>
-      </c>
-      <c r="C615" t="b">
-        <v>1</v>
-      </c>
-      <c r="E615" t="s">
+      <c r="B616" t="b">
+        <v>1</v>
+      </c>
+      <c r="C616" t="b">
+        <v>1</v>
+      </c>
+      <c r="E616" t="s">
         <v>2141</v>
       </c>
-      <c r="F615" s="6" t="s">
+      <c r="F616" s="6" t="s">
         <v>2142</v>
       </c>
-      <c r="G615" t="s">
+      <c r="G616" t="s">
         <v>2164</v>
-      </c>
-    </row>
-    <row r="616" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A616" s="3" t="s">
-        <v>2152</v>
-      </c>
-      <c r="B616" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C616" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E616" s="3" t="s">
-        <v>2156</v>
-      </c>
-      <c r="F616" s="6" t="s">
-        <v>2160</v>
-      </c>
-      <c r="G616" s="3" t="s">
-        <v>2165</v>
       </c>
     </row>
     <row r="617" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A617" s="3" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="B617" s="3" t="b">
         <v>1</v>
@@ -20424,18 +20463,18 @@
         <v>1</v>
       </c>
       <c r="E617" s="3" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="F617" s="6" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="G617" s="3" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="618" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A618" s="3" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="B618" s="3" t="b">
         <v>1</v>
@@ -20444,58 +20483,58 @@
         <v>1</v>
       </c>
       <c r="E618" s="3" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="F618" s="6" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="G618" s="3" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="619" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A619" s="3" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B619" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C619" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E619" s="3" t="s">
+        <v>2158</v>
+      </c>
+      <c r="F619" s="6" t="s">
+        <v>2162</v>
+      </c>
+      <c r="G619" s="3" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="620" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A620" s="3" t="s">
         <v>2155</v>
       </c>
-      <c r="B619" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C619" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E619" s="3" t="s">
+      <c r="B620" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C620" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E620" s="3" t="s">
         <v>2159</v>
       </c>
-      <c r="F619" s="6" t="s">
+      <c r="F620" s="6" t="s">
         <v>2163</v>
       </c>
-      <c r="G619" s="3" t="s">
+      <c r="G620" s="3" t="s">
         <v>2168</v>
-      </c>
-    </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A620" t="s">
-        <v>2139</v>
-      </c>
-      <c r="B620" t="b">
-        <v>1</v>
-      </c>
-      <c r="C620" t="b">
-        <v>1</v>
-      </c>
-      <c r="E620" t="s">
-        <v>2140</v>
-      </c>
-      <c r="F620" s="6" t="s">
-        <v>2148</v>
-      </c>
-      <c r="G620" t="s">
-        <v>2169</v>
       </c>
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>2149</v>
+        <v>2139</v>
       </c>
       <c r="B621" t="b">
         <v>1</v>
@@ -20504,58 +20543,58 @@
         <v>1</v>
       </c>
       <c r="E621" t="s">
-        <v>2150</v>
+        <v>2140</v>
       </c>
       <c r="F621" s="6" t="s">
-        <v>2151</v>
+        <v>2148</v>
       </c>
       <c r="G621" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>2171</v>
+        <v>2149</v>
       </c>
       <c r="B622" t="b">
         <v>1</v>
       </c>
-      <c r="C622" s="3" t="b">
+      <c r="C622" t="b">
         <v>1</v>
       </c>
       <c r="E622" t="s">
-        <v>2174</v>
+        <v>2150</v>
       </c>
       <c r="F622" s="6" t="s">
-        <v>2177</v>
+        <v>2151</v>
       </c>
       <c r="G622" t="s">
-        <v>2180</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>2172</v>
-      </c>
-      <c r="B623" s="3" t="b">
+        <v>2171</v>
+      </c>
+      <c r="B623" t="b">
         <v>1</v>
       </c>
       <c r="C623" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E623" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="F623" s="6" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="G623" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="B624" s="3" t="b">
         <v>1</v>
@@ -20564,18 +20603,18 @@
         <v>1</v>
       </c>
       <c r="E624" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="F624" s="6" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="G624" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>2189</v>
+        <v>2173</v>
       </c>
       <c r="B625" s="3" t="b">
         <v>1</v>
@@ -20584,58 +20623,58 @@
         <v>1</v>
       </c>
       <c r="E625" t="s">
-        <v>2190</v>
+        <v>2176</v>
       </c>
       <c r="F625" s="6" t="s">
-        <v>2191</v>
+        <v>2179</v>
       </c>
       <c r="G625" t="s">
-        <v>2192</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="626" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>2193</v>
-      </c>
-      <c r="B626" t="b">
-        <v>1</v>
-      </c>
-      <c r="C626" t="b">
+        <v>2189</v>
+      </c>
+      <c r="B626" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C626" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E626" t="s">
-        <v>2194</v>
+        <v>2190</v>
       </c>
       <c r="F626" s="6" t="s">
-        <v>2195</v>
+        <v>2191</v>
       </c>
       <c r="G626" t="s">
-        <v>2214</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>2196</v>
-      </c>
-      <c r="B627" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C627" s="3" t="b">
+        <v>2193</v>
+      </c>
+      <c r="B627" t="b">
+        <v>1</v>
+      </c>
+      <c r="C627" t="b">
         <v>1</v>
       </c>
       <c r="E627" t="s">
-        <v>2202</v>
+        <v>2194</v>
       </c>
       <c r="F627" s="6" t="s">
-        <v>2208</v>
+        <v>2195</v>
       </c>
       <c r="G627" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="628" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="B628" s="3" t="b">
         <v>1</v>
@@ -20644,18 +20683,18 @@
         <v>1</v>
       </c>
       <c r="E628" t="s">
-        <v>2206</v>
+        <v>2202</v>
       </c>
       <c r="F628" s="6" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="G628" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="B629" s="3" t="b">
         <v>1</v>
@@ -20663,19 +20702,19 @@
       <c r="C629" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E629" s="3" t="s">
-        <v>2203</v>
+      <c r="E629" t="s">
+        <v>2206</v>
       </c>
       <c r="F629" s="6" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="G629" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="630" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="B630" s="3" t="b">
         <v>1</v>
@@ -20684,18 +20723,18 @@
         <v>1</v>
       </c>
       <c r="E630" s="3" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="F630" s="6" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="G630" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="631" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="B631" s="3" t="b">
         <v>1</v>
@@ -20704,59 +20743,58 @@
         <v>1</v>
       </c>
       <c r="E631" s="3" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="F631" s="6" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="G631" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
+        <v>2200</v>
+      </c>
+      <c r="B632" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C632" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E632" s="3" t="s">
+        <v>2205</v>
+      </c>
+      <c r="F632" s="6" t="s">
+        <v>2212</v>
+      </c>
+      <c r="G632" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
         <v>2201</v>
       </c>
-      <c r="B632" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C632" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E632" s="3" t="s">
+      <c r="B633" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C633" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E633" s="3" t="s">
         <v>2207</v>
       </c>
-      <c r="F632" s="6" t="s">
+      <c r="F633" s="6" t="s">
         <v>2213</v>
       </c>
-      <c r="G632" t="s">
+      <c r="G633" t="s">
         <v>2220</v>
-      </c>
-    </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A633" s="3" t="s">
-        <v>1697</v>
-      </c>
-      <c r="B633" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C633" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D633" s="3"/>
-      <c r="E633" s="3" t="s">
-        <v>1697</v>
-      </c>
-      <c r="F633" s="6" t="s">
-        <v>2025</v>
-      </c>
-      <c r="G633" s="3" t="s">
-        <v>1735</v>
       </c>
     </row>
     <row r="634" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A634" s="3" t="s">
-        <v>2023</v>
+        <v>1697</v>
       </c>
       <c r="B634" s="3" t="b">
         <v>1</v>
@@ -20766,10 +20804,10 @@
       </c>
       <c r="D634" s="3"/>
       <c r="E634" s="3" t="s">
-        <v>2023</v>
+        <v>1697</v>
       </c>
       <c r="F634" s="6" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="G634" s="3" t="s">
         <v>1735</v>
@@ -20777,7 +20815,7 @@
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635" s="3" t="s">
-        <v>814</v>
+        <v>2023</v>
       </c>
       <c r="B635" s="3" t="b">
         <v>1</v>
@@ -20787,18 +20825,18 @@
       </c>
       <c r="D635" s="3"/>
       <c r="E635" s="3" t="s">
-        <v>815</v>
+        <v>2023</v>
       </c>
       <c r="F635" s="6" t="s">
-        <v>437</v>
+        <v>2024</v>
       </c>
       <c r="G635" s="3" t="s">
-        <v>1488</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A636" s="3" t="s">
-        <v>827</v>
+        <v>814</v>
       </c>
       <c r="B636" s="3" t="b">
         <v>1</v>
@@ -20808,18 +20846,18 @@
       </c>
       <c r="D636" s="3"/>
       <c r="E636" s="3" t="s">
-        <v>829</v>
+        <v>815</v>
       </c>
       <c r="F636" s="6" t="s">
-        <v>828</v>
+        <v>437</v>
       </c>
       <c r="G636" s="3" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="637" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A637" s="3" t="s">
-        <v>816</v>
+        <v>827</v>
       </c>
       <c r="B637" s="3" t="b">
         <v>1</v>
@@ -20829,99 +20867,100 @@
       </c>
       <c r="D637" s="3"/>
       <c r="E637" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="F637" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="G637" s="3" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A638" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="B638" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C638" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D638" s="3"/>
+      <c r="E638" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="F637" s="6" t="s">
+      <c r="F638" s="6" t="s">
         <v>817</v>
       </c>
-      <c r="G637" s="3" t="s">
+      <c r="G638" s="3" t="s">
         <v>1486</v>
-      </c>
-    </row>
-    <row r="638" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A638" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="B638" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C638" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E638" s="3" t="s">
-        <v>820</v>
-      </c>
-      <c r="F638" s="6" t="s">
-        <v>819</v>
-      </c>
-      <c r="G638" s="3" t="s">
-        <v>1489</v>
       </c>
     </row>
     <row r="639" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A639" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="B639" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C639" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E639" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="F639" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="G639" s="3" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="640" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A640" s="3" t="s">
         <v>2129</v>
       </c>
-      <c r="B639" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C639" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E639" s="3" t="s">
+      <c r="B640" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C640" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E640" s="3" t="s">
         <v>1680</v>
       </c>
-      <c r="F639" s="6" t="s">
+      <c r="F640" s="6" t="s">
         <v>830</v>
       </c>
-      <c r="G639" s="3" t="s">
+      <c r="G640" s="3" t="s">
         <v>1493</v>
       </c>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A640" s="3" t="s">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A641" s="3" t="s">
         <v>2130</v>
       </c>
-      <c r="B640" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C640" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D640" s="3"/>
-      <c r="E640" s="3" t="s">
+      <c r="B641" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C641" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D641" s="3"/>
+      <c r="E641" s="3" t="s">
         <v>1681</v>
       </c>
-      <c r="F640" s="6" t="s">
+      <c r="F641" s="6" t="s">
         <v>831</v>
       </c>
-      <c r="G640" s="3" t="s">
+      <c r="G641" s="3" t="s">
         <v>1494</v>
-      </c>
-    </row>
-    <row r="641" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A641" s="3" t="s">
-        <v>2131</v>
-      </c>
-      <c r="B641" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C641" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E641" s="3" t="s">
-        <v>1682</v>
-      </c>
-      <c r="F641" s="6" t="s">
-        <v>832</v>
-      </c>
-      <c r="G641" s="3" t="s">
-        <v>1495</v>
       </c>
     </row>
     <row r="642" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A642" s="3" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="B642" s="3" t="b">
         <v>1</v>
@@ -20930,59 +20969,58 @@
         <v>1</v>
       </c>
       <c r="E642" s="3" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F642" s="6" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G642" s="3" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="643" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A643" s="3" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B643" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C643" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E643" s="3" t="s">
+        <v>1683</v>
+      </c>
+      <c r="F643" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="G643" s="3" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="644" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A644" s="3" t="s">
         <v>2133</v>
       </c>
-      <c r="B643" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C643" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E643" s="3" t="s">
+      <c r="B644" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C644" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E644" s="3" t="s">
         <v>2134</v>
       </c>
-      <c r="F643" s="6" t="s">
+      <c r="F644" s="6" t="s">
         <v>2135</v>
       </c>
-      <c r="G643" s="3" t="s">
+      <c r="G644" s="3" t="s">
         <v>2136</v>
-      </c>
-    </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A644" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="B644" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C644" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D644" s="3"/>
-      <c r="E644" s="3" t="s">
-        <v>826</v>
-      </c>
-      <c r="F644" s="6" t="s">
-        <v>825</v>
-      </c>
-      <c r="G644" s="3" t="s">
-        <v>1491</v>
       </c>
     </row>
     <row r="645" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A645" s="3" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="B645" s="3" t="b">
         <v>1</v>
@@ -20992,118 +21030,119 @@
       </c>
       <c r="D645" s="3"/>
       <c r="E645" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="F645" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="G645" s="3" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A646" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="B646" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C646" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D646" s="3"/>
+      <c r="E646" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="F645" s="6" t="s">
+      <c r="F646" s="6" t="s">
         <v>822</v>
       </c>
-      <c r="G645" s="3" t="s">
+      <c r="G646" s="3" t="s">
         <v>1490</v>
-      </c>
-    </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A646" t="s">
-        <v>2221</v>
-      </c>
-      <c r="B646" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C646" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E646" t="s">
-        <v>1699</v>
-      </c>
-      <c r="F646" s="6" t="s">
-        <v>2226</v>
-      </c>
-      <c r="G646" t="s">
-        <v>1736</v>
       </c>
     </row>
     <row r="647" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B647" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C647" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E647" t="s">
+        <v>1699</v>
+      </c>
+      <c r="F647" s="6" t="s">
+        <v>2226</v>
+      </c>
+      <c r="G647" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
         <v>2222</v>
       </c>
-      <c r="B647" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C647" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E647" s="3" t="s">
+      <c r="B648" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C648" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E648" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="F647" s="6" t="s">
+      <c r="F648" s="6" t="s">
         <v>1707</v>
       </c>
-      <c r="G647" t="s">
+      <c r="G648" t="s">
         <v>1355</v>
-      </c>
-    </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A648" s="3" t="s">
-        <v>2223</v>
-      </c>
-      <c r="B648" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C648" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E648" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="F648" s="6" t="s">
-        <v>2227</v>
-      </c>
-      <c r="G648" t="s">
-        <v>1357</v>
       </c>
     </row>
     <row r="649" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A649" s="3" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B649" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C649" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E649" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="F649" s="6" t="s">
+        <v>2227</v>
+      </c>
+      <c r="G649" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A650" s="3" t="s">
         <v>2224</v>
       </c>
-      <c r="B649" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C649" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E649" s="3" t="s">
+      <c r="B650" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C650" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E650" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="F649" s="6" t="s">
+      <c r="F650" s="6" t="s">
         <v>1705</v>
       </c>
-      <c r="G649" t="s">
+      <c r="G650" t="s">
         <v>1362</v>
-      </c>
-    </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A650" t="s">
-        <v>2225</v>
-      </c>
-      <c r="B650" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C650" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E650" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="F650" s="6" t="s">
-        <v>1706</v>
-      </c>
-      <c r="G650" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="651" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>2228</v>
+        <v>2225</v>
       </c>
       <c r="B651" s="3" t="b">
         <v>1</v>
@@ -21111,19 +21150,19 @@
       <c r="C651" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E651" t="s">
-        <v>2230</v>
+      <c r="E651" s="3" t="s">
+        <v>432</v>
       </c>
       <c r="F651" s="6" t="s">
-        <v>2232</v>
+        <v>1706</v>
       </c>
       <c r="G651" t="s">
-        <v>2234</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="652" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="B652" s="3" t="b">
         <v>1</v>
@@ -21132,38 +21171,38 @@
         <v>1</v>
       </c>
       <c r="E652" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="F652" s="6" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="G652" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="653" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>2236</v>
-      </c>
-      <c r="B653" t="b">
-        <v>1</v>
-      </c>
-      <c r="C653" t="b">
+        <v>2229</v>
+      </c>
+      <c r="B653" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C653" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E653" t="s">
-        <v>2237</v>
+        <v>2231</v>
       </c>
       <c r="F653" s="6" t="s">
-        <v>2238</v>
+        <v>2233</v>
       </c>
       <c r="G653" t="s">
-        <v>2239</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="654" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
-        <v>2004</v>
+        <v>2236</v>
       </c>
       <c r="B654" t="b">
         <v>1</v>
@@ -21172,41 +21211,38 @@
         <v>1</v>
       </c>
       <c r="E654" t="s">
-        <v>2004</v>
+        <v>2237</v>
       </c>
       <c r="F654" s="6" t="s">
-        <v>2005</v>
-      </c>
-      <c r="G654" s="3" t="s">
-        <v>2006</v>
+        <v>2238</v>
+      </c>
+      <c r="G654" t="s">
+        <v>2239</v>
       </c>
     </row>
     <row r="655" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
-        <v>2249</v>
+        <v>2004</v>
       </c>
       <c r="B655" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C655" t="b">
         <v>1</v>
       </c>
-      <c r="D655" t="s">
-        <v>2254</v>
-      </c>
       <c r="E655" t="s">
-        <v>2249</v>
+        <v>2004</v>
       </c>
       <c r="F655" s="6" t="s">
-        <v>2252</v>
-      </c>
-      <c r="G655" t="s">
-        <v>2255</v>
+        <v>2005</v>
+      </c>
+      <c r="G655" s="3" t="s">
+        <v>2006</v>
       </c>
     </row>
     <row r="656" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="B656" t="b">
         <v>0</v>
@@ -21218,211 +21254,300 @@
         <v>2254</v>
       </c>
       <c r="E656" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="F656" s="6" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="G656" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
+        <v>2250</v>
+      </c>
+      <c r="B657" t="b">
+        <v>0</v>
+      </c>
+      <c r="C657" t="b">
+        <v>1</v>
+      </c>
+      <c r="D657" t="s">
+        <v>2254</v>
+      </c>
+      <c r="E657" t="s">
+        <v>2251</v>
+      </c>
+      <c r="F657" s="6" t="s">
+        <v>2253</v>
+      </c>
+      <c r="G657" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
         <v>2262</v>
       </c>
-      <c r="B657" t="b">
-        <v>1</v>
-      </c>
-      <c r="C657" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E657" t="s">
+      <c r="B658" t="b">
+        <v>1</v>
+      </c>
+      <c r="C658" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E658" t="s">
         <v>2260</v>
       </c>
-      <c r="F657" s="6" t="s">
+      <c r="F658" s="6" t="s">
         <v>2264</v>
-      </c>
-      <c r="G657" t="s">
-        <v>2265</v>
-      </c>
-    </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A658" s="3" t="s">
-        <v>2257</v>
-      </c>
-      <c r="B658" t="b">
-        <v>1</v>
-      </c>
-      <c r="C658" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E658" t="s">
-        <v>2261</v>
-      </c>
-      <c r="F658" s="6" t="s">
-        <v>2263</v>
       </c>
       <c r="G658" t="s">
         <v>2265</v>
       </c>
     </row>
-    <row r="659" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A659" s="3" t="s">
-        <v>2258</v>
-      </c>
-      <c r="B659" s="3" t="b">
+        <v>2257</v>
+      </c>
+      <c r="B659" t="b">
         <v>1</v>
       </c>
       <c r="C659" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E659" s="3" t="s">
-        <v>324</v>
+      <c r="E659" t="s">
+        <v>2261</v>
       </c>
       <c r="F659" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="G659" s="3" t="s">
-        <v>1322</v>
+        <v>2263</v>
+      </c>
+      <c r="G659" t="s">
+        <v>2265</v>
       </c>
     </row>
     <row r="660" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A660" s="3" t="s">
+        <v>2258</v>
+      </c>
+      <c r="B660" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C660" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E660" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="F660" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="G660" s="3" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="661" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A661" s="3" t="s">
         <v>2259</v>
       </c>
-      <c r="B660" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C660" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E660" s="3" t="s">
+      <c r="B661" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C661" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E661" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="F660" s="6" t="s">
+      <c r="F661" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="G660" s="3" t="s">
+      <c r="G661" s="3" t="s">
         <v>1323</v>
-      </c>
-    </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A661" t="s">
-        <v>2354</v>
-      </c>
-      <c r="B661" t="b">
-        <v>1</v>
-      </c>
-      <c r="C661" t="b">
-        <v>1</v>
-      </c>
-      <c r="E661" t="s">
-        <v>2343</v>
-      </c>
-      <c r="F661" s="6" t="s">
-        <v>2344</v>
-      </c>
-      <c r="G661" t="s">
-        <v>2366</v>
       </c>
     </row>
     <row r="662" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="B662" t="b">
         <v>1</v>
       </c>
       <c r="C662" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E662" t="s">
-        <v>2355</v>
+        <v>2343</v>
       </c>
       <c r="F662" s="6" t="s">
-        <v>2357</v>
+        <v>2344</v>
       </c>
       <c r="G662" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="663" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B663" t="b">
+        <v>1</v>
+      </c>
+      <c r="C663" t="b">
+        <v>0</v>
+      </c>
+      <c r="E663" t="s">
+        <v>2355</v>
+      </c>
+      <c r="F663" s="6" t="s">
+        <v>2357</v>
+      </c>
+      <c r="G663" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A664" t="s">
         <v>2360</v>
       </c>
-      <c r="B663" t="b">
-        <v>1</v>
-      </c>
-      <c r="C663" t="b">
-        <v>0</v>
-      </c>
-      <c r="E663" t="s">
+      <c r="B664" t="b">
+        <v>1</v>
+      </c>
+      <c r="C664" t="b">
+        <v>0</v>
+      </c>
+      <c r="E664" t="s">
         <v>2358</v>
       </c>
-      <c r="F663" s="6" t="s">
+      <c r="F664" s="6" t="s">
         <v>2359</v>
       </c>
-      <c r="G663" t="s">
+      <c r="G664" t="s">
         <v>2368</v>
       </c>
     </row>
-    <row r="664" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A664" s="3" t="s">
+    <row r="665" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A665" s="3" t="s">
         <v>2363</v>
       </c>
-      <c r="B664" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C664" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E664" s="3" t="s">
+      <c r="B665" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C665" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E665" s="3" t="s">
         <v>2364</v>
       </c>
-      <c r="F664" s="6" t="s">
+      <c r="F665" s="6" t="s">
         <v>2365</v>
       </c>
-      <c r="G664" s="3" t="s">
+      <c r="G665" s="3" t="s">
         <v>2369</v>
-      </c>
-    </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A665" t="s">
-        <v>2370</v>
-      </c>
-      <c r="B665" t="b">
-        <v>0</v>
-      </c>
-      <c r="C665" t="b">
-        <v>1</v>
-      </c>
-      <c r="E665" t="s">
-        <v>2373</v>
-      </c>
-      <c r="F665" s="6" t="s">
-        <v>2374</v>
       </c>
     </row>
     <row r="666" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
+        <v>2370</v>
+      </c>
+      <c r="B666" t="b">
+        <v>0</v>
+      </c>
+      <c r="C666" t="b">
+        <v>1</v>
+      </c>
+      <c r="E666" t="s">
+        <v>2373</v>
+      </c>
+      <c r="F666" s="6" t="s">
+        <v>2374</v>
+      </c>
+      <c r="G666" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A667" t="s">
         <v>2371</v>
       </c>
-      <c r="B666" t="b">
-        <v>0</v>
-      </c>
-      <c r="C666" t="b">
-        <v>1</v>
-      </c>
-      <c r="E666" t="s">
+      <c r="B667" t="b">
+        <v>0</v>
+      </c>
+      <c r="C667" t="b">
+        <v>1</v>
+      </c>
+      <c r="E667" t="s">
         <v>2372</v>
       </c>
-      <c r="F666" s="6" t="s">
+      <c r="F667" s="6" t="s">
         <v>2375</v>
       </c>
+      <c r="G667" t="s">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A668" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B668" t="b">
+        <v>1</v>
+      </c>
+      <c r="C668" t="b">
+        <v>1</v>
+      </c>
+      <c r="E668" t="s">
+        <v>2380</v>
+      </c>
+      <c r="F668" s="6" t="s">
+        <v>2383</v>
+      </c>
+      <c r="G668" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A669" t="s">
+        <v>2378</v>
+      </c>
+      <c r="B669" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C669" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E669" t="s">
+        <v>497</v>
+      </c>
+      <c r="F669" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="G669" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A670" t="s">
+        <v>2379</v>
+      </c>
+      <c r="B670" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C670" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E670" t="s">
+        <v>2381</v>
+      </c>
+      <c r="F670" s="6" t="s">
+        <v>2382</v>
+      </c>
+      <c r="G670" t="s">
+        <v>2387</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G536" xr:uid="{166F55E6-F4CB-49C4-A0B4-8593C255C448}"/>
+  <autoFilter ref="A1:G537" xr:uid="{166F55E6-F4CB-49C4-A0B4-8593C255C448}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Translations/Translations.xlsx
+++ b/Translations/Translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\source\repos\BSharp\Translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCB3025-69E3-450D-9139-FC3EA1326308}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A090CC4B-7FBE-4366-8E19-10646E95FA74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09F7BBB4-81EA-4503-B8DD-8985A501E98F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2685" uniqueCount="2390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2689" uniqueCount="2394">
   <si>
     <t>Key</t>
   </si>
@@ -7204,6 +7204,18 @@
   </si>
   <si>
     <t>التوقيعات</t>
+  </si>
+  <si>
+    <t>OnBehalfOf</t>
+  </si>
+  <si>
+    <t>A short hand when someone signs on behalf of another</t>
+  </si>
+  <si>
+    <t>ع/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.p. </t>
   </si>
 </sst>
 </file>
@@ -7609,12 +7621,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FEE134-3B22-427F-8E5A-2A7F994BE2AC}">
-  <dimension ref="A1:G670"/>
+  <dimension ref="A1:G671"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A435" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A641" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G465" sqref="G465"/>
+      <selection pane="bottomLeft" activeCell="E673" sqref="E673"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21546,6 +21558,26 @@
         <v>2387</v>
       </c>
     </row>
+    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
+        <v>2390</v>
+      </c>
+      <c r="B671" t="b">
+        <v>0</v>
+      </c>
+      <c r="C671" t="b">
+        <v>1</v>
+      </c>
+      <c r="D671" t="s">
+        <v>2391</v>
+      </c>
+      <c r="E671" t="s">
+        <v>2393</v>
+      </c>
+      <c r="F671" s="6" t="s">
+        <v>2392</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G537" xr:uid="{166F55E6-F4CB-49C4-A0B4-8593C255C448}"/>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Translations/Translations.xlsx
+++ b/Translations/Translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\source\repos\BSharp\Translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A090CC4B-7FBE-4366-8E19-10646E95FA74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96D3005-7807-4464-BC2D-B52A7E9F6BB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09F7BBB4-81EA-4503-B8DD-8985A501E98F}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Translations" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$G$537</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Translations!$A$1:$G$673</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2689" uniqueCount="2394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2698" uniqueCount="2399">
   <si>
     <t>Key</t>
   </si>
@@ -5172,9 +5172,6 @@
     <t>تعذر حذف بيان من نوع {0} لأنه مستخدم</t>
   </si>
   <si>
-    <t>序列号</t>
-  </si>
-  <si>
     <t>日期</t>
   </si>
   <si>
@@ -7216,6 +7213,24 @@
   </si>
   <si>
     <t xml:space="preserve">p.p. </t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>Documents</t>
+  </si>
+  <si>
+    <t>مستند</t>
+  </si>
+  <si>
+    <t>مستندات</t>
+  </si>
+  <si>
+    <t>文献</t>
+  </si>
+  <si>
+    <t>文件资料</t>
   </si>
 </sst>
 </file>
@@ -7621,12 +7636,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FEE134-3B22-427F-8E5A-2A7F994BE2AC}">
-  <dimension ref="A1:G671"/>
+  <dimension ref="A1:G673"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A641" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A416" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E673" sqref="E673"/>
+      <selection pane="bottomLeft" activeCell="E427" sqref="E427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8074,10 +8089,10 @@
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>1627</v>
@@ -10248,7 +10263,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="B125" s="3" t="b">
         <v>1</v>
@@ -10258,13 +10273,13 @@
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="3" t="s">
+        <v>1737</v>
+      </c>
+      <c r="F125" s="6" t="s">
         <v>1738</v>
       </c>
-      <c r="F125" s="6" t="s">
+      <c r="G125" s="3" t="s">
         <v>1739</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>1740</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -10332,7 +10347,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="B129" s="3" t="b">
         <v>1</v>
@@ -10342,13 +10357,13 @@
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="3" t="s">
+        <v>2183</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>2185</v>
+      </c>
+      <c r="G129" s="3" t="s">
         <v>2184</v>
-      </c>
-      <c r="F129" s="6" t="s">
-        <v>2186</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>2185</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -14868,76 +14883,76 @@
     </row>
     <row r="345" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
+        <v>2240</v>
+      </c>
+      <c r="B345" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C345" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E345" s="3" t="s">
         <v>2241</v>
       </c>
-      <c r="B345" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C345" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E345" s="3" t="s">
+      <c r="F345" s="6" t="s">
+        <v>2243</v>
+      </c>
+      <c r="G345" s="3" t="s">
         <v>2242</v>
-      </c>
-      <c r="F345" s="6" t="s">
-        <v>2244</v>
-      </c>
-      <c r="G345" s="3" t="s">
-        <v>2243</v>
       </c>
     </row>
     <row r="346" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
+        <v>2347</v>
+      </c>
+      <c r="B346" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C346" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E346" s="3" t="s">
         <v>2348</v>
       </c>
-      <c r="B346" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C346" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E346" s="3" t="s">
-        <v>2349</v>
-      </c>
       <c r="F346" s="6" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="G346" s="3" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="347" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
+        <v>2344</v>
+      </c>
+      <c r="B347" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C347" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E347" s="3" t="s">
         <v>2345</v>
       </c>
-      <c r="B347" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C347" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E347" s="3" t="s">
+      <c r="F347" s="6" t="s">
         <v>2346</v>
-      </c>
-      <c r="F347" s="6" t="s">
-        <v>2347</v>
       </c>
     </row>
     <row r="348" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B348" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C348" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E348" s="3" t="s">
         <v>2350</v>
       </c>
-      <c r="B348" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C348" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E348" s="3" t="s">
-        <v>2351</v>
-      </c>
       <c r="F348" s="6" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
@@ -16191,7 +16206,7 @@
       </c>
       <c r="D408" s="3"/>
       <c r="E408" s="3" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="F408" s="6" t="s">
         <v>1196</v>
@@ -16328,7 +16343,7 @@
     </row>
     <row r="415" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A415" s="3" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="B415" s="3" t="b">
         <v>1</v>
@@ -16934,9 +16949,9 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A444" s="3" t="s">
-        <v>1640</v>
+        <v>2393</v>
       </c>
       <c r="B444" s="3" t="b">
         <v>1</v>
@@ -16944,20 +16959,19 @@
       <c r="C444" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D444" s="3"/>
       <c r="E444" s="3" t="s">
-        <v>1641</v>
+        <v>2393</v>
       </c>
       <c r="F444" s="6" t="s">
-        <v>1642</v>
+        <v>2395</v>
       </c>
       <c r="G444" s="3" t="s">
-        <v>1712</v>
-      </c>
-    </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A445" s="3" t="s">
-        <v>1643</v>
+        <v>2394</v>
       </c>
       <c r="B445" s="3" t="b">
         <v>1</v>
@@ -16965,20 +16979,19 @@
       <c r="C445" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D445" s="3"/>
       <c r="E445" s="3" t="s">
-        <v>1645</v>
+        <v>2394</v>
       </c>
       <c r="F445" s="6" t="s">
-        <v>1644</v>
+        <v>2396</v>
       </c>
       <c r="G445" s="3" t="s">
-        <v>1713</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="3" t="s">
-        <v>1646</v>
+        <v>1640</v>
       </c>
       <c r="B446" s="3" t="b">
         <v>1</v>
@@ -16988,18 +17001,18 @@
       </c>
       <c r="D446" s="3"/>
       <c r="E446" s="3" t="s">
-        <v>646</v>
+        <v>1641</v>
       </c>
       <c r="F446" s="6" t="s">
-        <v>1669</v>
+        <v>1642</v>
       </c>
       <c r="G446" s="3" t="s">
-        <v>1434</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="3" t="s">
-        <v>1655</v>
+        <v>1643</v>
       </c>
       <c r="B447" s="3" t="b">
         <v>1</v>
@@ -17009,18 +17022,18 @@
       </c>
       <c r="D447" s="3"/>
       <c r="E447" s="3" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="F447" s="6" t="s">
-        <v>1144</v>
+        <v>1644</v>
       </c>
       <c r="G447" s="3" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="3" t="s">
-        <v>1656</v>
+        <v>1646</v>
       </c>
       <c r="B448" s="3" t="b">
         <v>1</v>
@@ -17030,18 +17043,18 @@
       </c>
       <c r="D448" s="3"/>
       <c r="E448" s="3" t="s">
-        <v>1648</v>
+        <v>646</v>
       </c>
       <c r="F448" s="6" t="s">
-        <v>1663</v>
+        <v>1669</v>
       </c>
       <c r="G448" s="3" t="s">
-        <v>1715</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="3" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="B449" s="3" t="b">
         <v>1</v>
@@ -17051,18 +17064,18 @@
       </c>
       <c r="D449" s="3"/>
       <c r="E449" s="3" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="F449" s="6" t="s">
-        <v>1670</v>
+        <v>1144</v>
       </c>
       <c r="G449" s="3" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="3" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="B450" s="3" t="b">
         <v>1</v>
@@ -17072,18 +17085,18 @@
       </c>
       <c r="D450" s="3"/>
       <c r="E450" s="3" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="F450" s="6" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="G450" s="3" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="3" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="B451" s="3" t="b">
         <v>1</v>
@@ -17093,18 +17106,18 @@
       </c>
       <c r="D451" s="3"/>
       <c r="E451" s="3" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="F451" s="6" t="s">
-        <v>1665</v>
+        <v>1670</v>
       </c>
       <c r="G451" s="3" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="3" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="B452" s="3" t="b">
         <v>1</v>
@@ -17114,18 +17127,18 @@
       </c>
       <c r="D452" s="3"/>
       <c r="E452" s="3" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="F452" s="6" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="G452" s="3" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="3" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="B453" s="3" t="b">
         <v>1</v>
@@ -17135,18 +17148,18 @@
       </c>
       <c r="D453" s="3"/>
       <c r="E453" s="3" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="F453" s="6" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="G453" s="3" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="3" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="B454" s="3" t="b">
         <v>1</v>
@@ -17156,18 +17169,18 @@
       </c>
       <c r="D454" s="3"/>
       <c r="E454" s="3" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="F454" s="6" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="G454" s="3" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="3" t="s">
-        <v>2278</v>
+        <v>1661</v>
       </c>
       <c r="B455" s="3" t="b">
         <v>1</v>
@@ -17177,18 +17190,18 @@
       </c>
       <c r="D455" s="3"/>
       <c r="E455" s="3" t="s">
-        <v>2279</v>
+        <v>1653</v>
       </c>
       <c r="F455" s="6" t="s">
-        <v>2280</v>
+        <v>1667</v>
       </c>
       <c r="G455" s="3" t="s">
-        <v>1722</v>
-      </c>
-    </row>
-    <row r="456" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="3" t="s">
-        <v>2281</v>
+        <v>1662</v>
       </c>
       <c r="B456" s="3" t="b">
         <v>1</v>
@@ -17196,19 +17209,20 @@
       <c r="C456" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="D456" s="3"/>
       <c r="E456" s="3" t="s">
-        <v>2282</v>
+        <v>1654</v>
       </c>
       <c r="F456" s="6" t="s">
-        <v>2283</v>
+        <v>1668</v>
       </c>
       <c r="G456" s="3" t="s">
-        <v>1836</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="3" t="s">
-        <v>1671</v>
+        <v>2277</v>
       </c>
       <c r="B457" s="3" t="b">
         <v>1</v>
@@ -17218,18 +17232,18 @@
       </c>
       <c r="D457" s="3"/>
       <c r="E457" s="3" t="s">
-        <v>1672</v>
+        <v>2278</v>
       </c>
       <c r="F457" s="6" t="s">
-        <v>1673</v>
+        <v>2279</v>
       </c>
       <c r="G457" s="3" t="s">
-        <v>1723</v>
-      </c>
-    </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A458" s="3" t="s">
-        <v>1674</v>
+        <v>2280</v>
       </c>
       <c r="B458" s="3" t="b">
         <v>1</v>
@@ -17237,20 +17251,19 @@
       <c r="C458" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D458" s="3"/>
       <c r="E458" s="3" t="s">
-        <v>1676</v>
+        <v>2281</v>
       </c>
       <c r="F458" s="6" t="s">
-        <v>1675</v>
+        <v>2282</v>
       </c>
       <c r="G458" s="3" t="s">
-        <v>1724</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="3" t="s">
-        <v>1677</v>
+        <v>1671</v>
       </c>
       <c r="B459" s="3" t="b">
         <v>1</v>
@@ -17260,18 +17273,18 @@
       </c>
       <c r="D459" s="3"/>
       <c r="E459" s="3" t="s">
-        <v>1680</v>
+        <v>1672</v>
       </c>
       <c r="F459" s="6" t="s">
-        <v>830</v>
+        <v>1673</v>
       </c>
       <c r="G459" s="3" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="3" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
       <c r="B460" s="3" t="b">
         <v>1</v>
@@ -17281,18 +17294,18 @@
       </c>
       <c r="D460" s="3"/>
       <c r="E460" s="3" t="s">
-        <v>1681</v>
+        <v>1676</v>
       </c>
       <c r="F460" s="6" t="s">
-        <v>831</v>
+        <v>1675</v>
       </c>
       <c r="G460" s="3" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="3" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="B461" s="3" t="b">
         <v>1</v>
@@ -17302,18 +17315,18 @@
       </c>
       <c r="D461" s="3"/>
       <c r="E461" s="3" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="F461" s="6" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G461" s="3" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="3" t="s">
-        <v>1684</v>
+        <v>1678</v>
       </c>
       <c r="B462" s="3" t="b">
         <v>1</v>
@@ -17323,18 +17336,18 @@
       </c>
       <c r="D462" s="3"/>
       <c r="E462" s="3" t="s">
-        <v>1686</v>
+        <v>1681</v>
       </c>
       <c r="F462" s="6" t="s">
-        <v>1688</v>
+        <v>831</v>
       </c>
       <c r="G462" s="3" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="3" t="s">
-        <v>1685</v>
+        <v>1679</v>
       </c>
       <c r="B463" s="3" t="b">
         <v>1</v>
@@ -17344,18 +17357,18 @@
       </c>
       <c r="D463" s="3"/>
       <c r="E463" s="3" t="s">
-        <v>1687</v>
+        <v>1682</v>
       </c>
       <c r="F463" s="6" t="s">
-        <v>1689</v>
+        <v>832</v>
       </c>
       <c r="G463" s="3" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="3" t="s">
-        <v>1690</v>
+        <v>1684</v>
       </c>
       <c r="B464" s="3" t="b">
         <v>1</v>
@@ -17365,58 +17378,60 @@
       </c>
       <c r="D464" s="3"/>
       <c r="E464" s="3" t="s">
+        <v>1686</v>
+      </c>
+      <c r="F464" s="6" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G464" s="3" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A465" s="3" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B465" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C465" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D465" s="3"/>
+      <c r="E465" s="3" t="s">
+        <v>1687</v>
+      </c>
+      <c r="F465" s="6" t="s">
+        <v>1689</v>
+      </c>
+      <c r="G465" s="3" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A466" s="3" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B466" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C466" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D466" s="3"/>
+      <c r="E466" s="3" t="s">
         <v>1691</v>
       </c>
-      <c r="F464" s="6" t="s">
+      <c r="F466" s="6" t="s">
         <v>1692</v>
       </c>
-      <c r="G464" s="3" t="s">
-        <v>1730</v>
-      </c>
-    </row>
-    <row r="465" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A465" s="3" t="s">
-        <v>2388</v>
-      </c>
-      <c r="B465" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C465" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E465" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="F465" s="6" t="s">
-        <v>2389</v>
-      </c>
-      <c r="G465" s="3" t="s">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="466" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A466" s="3" t="s">
-        <v>2284</v>
-      </c>
-      <c r="B466" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C466" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E466" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="F466" s="6" t="s">
-        <v>817</v>
-      </c>
       <c r="G466" s="3" t="s">
-        <v>1486</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="467" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A467" s="3" t="s">
-        <v>2285</v>
+        <v>2387</v>
       </c>
       <c r="B467" s="3" t="b">
         <v>1</v>
@@ -17425,18 +17440,18 @@
         <v>1</v>
       </c>
       <c r="E467" s="3" t="s">
-        <v>23</v>
+        <v>623</v>
       </c>
       <c r="F467" s="6" t="s">
-        <v>1797</v>
+        <v>2388</v>
       </c>
       <c r="G467" s="3" t="s">
-        <v>1219</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="468" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A468" s="3" t="s">
-        <v>2286</v>
+        <v>2283</v>
       </c>
       <c r="B468" s="3" t="b">
         <v>1</v>
@@ -17445,80 +17460,78 @@
         <v>1</v>
       </c>
       <c r="E468" s="3" t="s">
-        <v>1697</v>
+        <v>807</v>
       </c>
       <c r="F468" s="6" t="s">
-        <v>1702</v>
+        <v>817</v>
       </c>
       <c r="G468" s="3" t="s">
-        <v>1735</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="469" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A469" s="3" t="s">
+        <v>2284</v>
+      </c>
+      <c r="B469" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C469" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E469" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F469" s="6" t="s">
+        <v>1796</v>
+      </c>
+      <c r="G469" s="3" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A470" s="3" t="s">
+        <v>2285</v>
+      </c>
+      <c r="B470" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C470" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E470" s="3" t="s">
+        <v>1697</v>
+      </c>
+      <c r="F470" s="6" t="s">
+        <v>1702</v>
+      </c>
+      <c r="G470" s="3" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A471" s="3" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B471" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C471" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E471" s="3" t="s">
         <v>2287</v>
       </c>
-      <c r="B469" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C469" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E469" s="3" t="s">
+      <c r="F471" s="6" t="s">
         <v>2288</v>
       </c>
-      <c r="F469" s="6" t="s">
-        <v>2289</v>
-      </c>
-      <c r="G469" s="3" t="s">
-        <v>2294</v>
-      </c>
-    </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A470" s="3" t="s">
-        <v>2266</v>
-      </c>
-      <c r="B470" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C470" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D470" s="3"/>
-      <c r="E470" s="3" t="s">
-        <v>1693</v>
-      </c>
-      <c r="F470" s="6" t="s">
-        <v>1695</v>
-      </c>
-      <c r="G470" s="3" t="s">
-        <v>1731</v>
-      </c>
-    </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A471" s="3" t="s">
-        <v>2267</v>
-      </c>
-      <c r="B471" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C471" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D471" s="3"/>
-      <c r="E471" s="3" t="s">
-        <v>1694</v>
-      </c>
-      <c r="F471" s="6" t="s">
-        <v>1696</v>
-      </c>
       <c r="G471" s="3" t="s">
-        <v>1732</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="3" t="s">
-        <v>2268</v>
+        <v>2265</v>
       </c>
       <c r="B472" s="3" t="b">
         <v>1</v>
@@ -17528,18 +17541,18 @@
       </c>
       <c r="D472" s="3"/>
       <c r="E472" s="3" t="s">
-        <v>1628</v>
+        <v>1693</v>
       </c>
       <c r="F472" s="6" t="s">
-        <v>1700</v>
+        <v>1695</v>
       </c>
       <c r="G472" s="3" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="473" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="3" t="s">
-        <v>2295</v>
+        <v>2266</v>
       </c>
       <c r="B473" s="3" t="b">
         <v>1</v>
@@ -17547,19 +17560,20 @@
       <c r="C473" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="D473" s="3"/>
       <c r="E473" s="3" t="s">
-        <v>2296</v>
+        <v>1694</v>
       </c>
       <c r="F473" s="6" t="s">
-        <v>2297</v>
+        <v>1696</v>
       </c>
       <c r="G473" s="3" t="s">
-        <v>2298</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="3" t="s">
-        <v>2306</v>
+        <v>2267</v>
       </c>
       <c r="B474" s="3" t="b">
         <v>1</v>
@@ -17569,18 +17583,18 @@
       </c>
       <c r="D474" s="3"/>
       <c r="E474" s="3" t="s">
-        <v>2260</v>
+        <v>1628</v>
       </c>
       <c r="F474" s="6" t="s">
-        <v>2307</v>
+        <v>1700</v>
       </c>
       <c r="G474" s="3" t="s">
-        <v>2308</v>
-      </c>
-    </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A475" s="3" t="s">
-        <v>2269</v>
+        <v>2294</v>
       </c>
       <c r="B475" s="3" t="b">
         <v>1</v>
@@ -17588,20 +17602,19 @@
       <c r="C475" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D475" s="3"/>
       <c r="E475" s="3" t="s">
-        <v>23</v>
+        <v>2295</v>
       </c>
       <c r="F475" s="6" t="s">
-        <v>694</v>
+        <v>2296</v>
       </c>
       <c r="G475" s="3" t="s">
-        <v>1219</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="3" t="s">
-        <v>2270</v>
+        <v>2305</v>
       </c>
       <c r="B476" s="3" t="b">
         <v>1</v>
@@ -17611,79 +17624,80 @@
       </c>
       <c r="D476" s="3"/>
       <c r="E476" s="3" t="s">
+        <v>2259</v>
+      </c>
+      <c r="F476" s="6" t="s">
+        <v>2306</v>
+      </c>
+      <c r="G476" s="3" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A477" s="3" t="s">
+        <v>2268</v>
+      </c>
+      <c r="B477" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C477" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D477" s="3"/>
+      <c r="E477" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F477" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="G477" s="3" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A478" s="3" t="s">
+        <v>2269</v>
+      </c>
+      <c r="B478" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C478" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D478" s="3"/>
+      <c r="E478" s="3" t="s">
         <v>1698</v>
       </c>
-      <c r="F476" s="6" t="s">
+      <c r="F478" s="6" t="s">
         <v>1701</v>
       </c>
-      <c r="G476" s="3" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="477" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A477" s="3" t="s">
+      <c r="G478" s="3" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A479" s="3" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B479" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C479" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E479" s="3" t="s">
         <v>2299</v>
       </c>
-      <c r="B477" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C477" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E477" s="3" t="s">
-        <v>2300</v>
-      </c>
-      <c r="F477" s="6" t="s">
-        <v>2303</v>
-      </c>
-      <c r="G477" s="3" t="s">
-        <v>2334</v>
-      </c>
-    </row>
-    <row r="478" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A478" s="3" t="s">
-        <v>2301</v>
-      </c>
-      <c r="B478" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C478" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E478" s="3" t="s">
+      <c r="F479" s="6" t="s">
         <v>2302</v>
       </c>
-      <c r="F478" s="6" t="s">
-        <v>2304</v>
-      </c>
-      <c r="G478" s="3" t="s">
-        <v>2335</v>
-      </c>
-    </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A479" s="3" t="s">
-        <v>2271</v>
-      </c>
-      <c r="B479" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C479" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D479" s="3"/>
-      <c r="E479" s="3" t="s">
-        <v>1697</v>
-      </c>
-      <c r="F479" s="6" t="s">
-        <v>1702</v>
-      </c>
       <c r="G479" s="3" t="s">
-        <v>1735</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="480" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A480" s="3" t="s">
-        <v>2305</v>
+        <v>2300</v>
       </c>
       <c r="B480" s="3" t="b">
         <v>1</v>
@@ -17692,80 +17706,79 @@
         <v>1</v>
       </c>
       <c r="E480" s="3" t="s">
+        <v>2301</v>
+      </c>
+      <c r="F480" s="6" t="s">
+        <v>2303</v>
+      </c>
+      <c r="G480" s="3" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A481" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B481" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C481" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D481" s="3"/>
+      <c r="E481" s="3" t="s">
+        <v>1697</v>
+      </c>
+      <c r="F481" s="6" t="s">
+        <v>1702</v>
+      </c>
+      <c r="G481" s="3" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A482" s="3" t="s">
+        <v>2304</v>
+      </c>
+      <c r="B482" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C482" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E482" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="F480" s="6" t="s">
+      <c r="F482" s="6" t="s">
         <v>817</v>
       </c>
-      <c r="G480" s="3" t="s">
+      <c r="G482" s="3" t="s">
         <v>1486</v>
       </c>
     </row>
-    <row r="481" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A481" s="3" t="s">
+    <row r="483" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A483" s="3" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B483" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C483" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E483" s="3" t="s">
         <v>2309</v>
       </c>
-      <c r="B481" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C481" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E481" s="3" t="s">
+      <c r="F483" s="6" t="s">
         <v>2310</v>
       </c>
-      <c r="F481" s="6" t="s">
-        <v>2311</v>
-      </c>
-      <c r="G481" s="3" t="s">
-        <v>2336</v>
-      </c>
-    </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A482" s="3" t="s">
-        <v>2272</v>
-      </c>
-      <c r="B482" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C482" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D482" s="3"/>
-      <c r="E482" s="3" t="s">
-        <v>1699</v>
-      </c>
-      <c r="F482" s="6" t="s">
-        <v>1703</v>
-      </c>
-      <c r="G482" s="3" t="s">
-        <v>1736</v>
-      </c>
-    </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A483" s="3" t="s">
-        <v>2273</v>
-      </c>
-      <c r="B483" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C483" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D483" s="3"/>
-      <c r="E483" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="F483" s="6" t="s">
-        <v>1704</v>
-      </c>
       <c r="G483" s="3" t="s">
-        <v>1357</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="3" t="s">
-        <v>2274</v>
+        <v>2271</v>
       </c>
       <c r="B484" s="3" t="b">
         <v>1</v>
@@ -17775,18 +17788,18 @@
       </c>
       <c r="D484" s="3"/>
       <c r="E484" s="3" t="s">
-        <v>441</v>
+        <v>1699</v>
       </c>
       <c r="F484" s="6" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="G484" s="3" t="s">
-        <v>1362</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="3" t="s">
-        <v>2275</v>
+        <v>2272</v>
       </c>
       <c r="B485" s="3" t="b">
         <v>1</v>
@@ -17796,18 +17809,18 @@
       </c>
       <c r="D485" s="3"/>
       <c r="E485" s="3" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="F485" s="6" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="G485" s="3" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="3" t="s">
-        <v>2276</v>
+        <v>2273</v>
       </c>
       <c r="B486" s="3" t="b">
         <v>1</v>
@@ -17817,18 +17830,18 @@
       </c>
       <c r="D486" s="3"/>
       <c r="E486" s="3" t="s">
-        <v>420</v>
+        <v>441</v>
       </c>
       <c r="F486" s="6" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="G486" s="3" t="s">
-        <v>1355</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="3" t="s">
-        <v>2277</v>
+        <v>2274</v>
       </c>
       <c r="B487" s="3" t="b">
         <v>1</v>
@@ -17838,58 +17851,60 @@
       </c>
       <c r="D487" s="3"/>
       <c r="E487" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F487" s="6" t="s">
+        <v>1706</v>
+      </c>
+      <c r="G487" s="3" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A488" s="3" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B488" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C488" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D488" s="3"/>
+      <c r="E488" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="F488" s="6" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G488" s="3" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A489" s="3" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B489" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C489" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D489" s="3"/>
+      <c r="E489" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="F487" s="6" t="s">
+      <c r="F489" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="G487" s="3" t="s">
+      <c r="G489" s="3" t="s">
         <v>1439</v>
-      </c>
-    </row>
-    <row r="488" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A488" s="3" t="s">
-        <v>2312</v>
-      </c>
-      <c r="B488" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C488" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E488" s="3" t="s">
-        <v>1693</v>
-      </c>
-      <c r="F488" s="6" t="s">
-        <v>2326</v>
-      </c>
-      <c r="G488" s="3" t="s">
-        <v>1731</v>
-      </c>
-    </row>
-    <row r="489" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A489" s="3" t="s">
-        <v>2313</v>
-      </c>
-      <c r="B489" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C489" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E489" s="3" t="s">
-        <v>1694</v>
-      </c>
-      <c r="F489" s="6" t="s">
-        <v>2327</v>
-      </c>
-      <c r="G489" s="3" t="s">
-        <v>1732</v>
       </c>
     </row>
     <row r="490" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A490" s="3" t="s">
-        <v>2314</v>
+        <v>2311</v>
       </c>
       <c r="B490" s="3" t="b">
         <v>1</v>
@@ -17898,18 +17913,18 @@
         <v>1</v>
       </c>
       <c r="E490" s="3" t="s">
-        <v>2320</v>
+        <v>1693</v>
       </c>
       <c r="F490" s="6" t="s">
-        <v>2328</v>
+        <v>2325</v>
       </c>
       <c r="G490" s="3" t="s">
-        <v>2337</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="491" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A491" s="3" t="s">
-        <v>2315</v>
+        <v>2312</v>
       </c>
       <c r="B491" s="3" t="b">
         <v>1</v>
@@ -17918,18 +17933,18 @@
         <v>1</v>
       </c>
       <c r="E491" s="3" t="s">
-        <v>2323</v>
+        <v>1694</v>
       </c>
       <c r="F491" s="6" t="s">
-        <v>2329</v>
+        <v>2326</v>
       </c>
       <c r="G491" s="3" t="s">
-        <v>2338</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="492" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A492" s="3" t="s">
-        <v>2316</v>
+        <v>2313</v>
       </c>
       <c r="B492" s="3" t="b">
         <v>1</v>
@@ -17938,18 +17953,18 @@
         <v>1</v>
       </c>
       <c r="E492" s="3" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="F492" s="6" t="s">
-        <v>2330</v>
+        <v>2327</v>
       </c>
       <c r="G492" s="3" t="s">
-        <v>2339</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="493" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A493" s="3" t="s">
-        <v>2317</v>
+        <v>2314</v>
       </c>
       <c r="B493" s="3" t="b">
         <v>1</v>
@@ -17961,15 +17976,15 @@
         <v>2322</v>
       </c>
       <c r="F493" s="6" t="s">
-        <v>2331</v>
+        <v>2328</v>
       </c>
       <c r="G493" s="3" t="s">
-        <v>2340</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="494" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A494" s="3" t="s">
-        <v>2318</v>
+        <v>2315</v>
       </c>
       <c r="B494" s="3" t="b">
         <v>1</v>
@@ -17978,18 +17993,18 @@
         <v>1</v>
       </c>
       <c r="E494" s="3" t="s">
-        <v>2324</v>
+        <v>2320</v>
       </c>
       <c r="F494" s="6" t="s">
-        <v>2332</v>
+        <v>2329</v>
       </c>
       <c r="G494" s="3" t="s">
-        <v>2341</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="495" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A495" s="3" t="s">
-        <v>2319</v>
+        <v>2316</v>
       </c>
       <c r="B495" s="3" t="b">
         <v>1</v>
@@ -17998,162 +18013,160 @@
         <v>1</v>
       </c>
       <c r="E495" s="3" t="s">
-        <v>2325</v>
+        <v>2321</v>
       </c>
       <c r="F495" s="6" t="s">
-        <v>2333</v>
+        <v>2330</v>
       </c>
       <c r="G495" s="3" t="s">
-        <v>2342</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="496" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A496" s="3" t="s">
+        <v>2317</v>
+      </c>
+      <c r="B496" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C496" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E496" s="3" t="s">
+        <v>2323</v>
+      </c>
+      <c r="F496" s="6" t="s">
+        <v>2331</v>
+      </c>
+      <c r="G496" s="3" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A497" s="3" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B497" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C497" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E497" s="3" t="s">
+        <v>2324</v>
+      </c>
+      <c r="F497" s="6" t="s">
+        <v>2332</v>
+      </c>
+      <c r="G497" s="3" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A498" s="3" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B498" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C498" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E498" s="3" t="s">
         <v>2290</v>
       </c>
-      <c r="B496" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C496" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E496" s="3" t="s">
+      <c r="F498" s="6" t="s">
         <v>2291</v>
       </c>
-      <c r="F496" s="6" t="s">
+      <c r="G498" s="3" t="s">
         <v>2292</v>
       </c>
-      <c r="G496" s="3" t="s">
-        <v>2293</v>
-      </c>
-    </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A497" s="3" t="s">
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A499" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="B497" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C497" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D497" s="3"/>
-      <c r="E497" s="3" t="s">
+      <c r="B499" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C499" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D499" s="3"/>
+      <c r="E499" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="F497" s="6" t="s">
+      <c r="F499" s="6" t="s">
         <v>1710</v>
       </c>
-      <c r="G497" s="3" t="s">
+      <c r="G499" s="3" t="s">
         <v>1488</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A498" s="3" t="s">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A500" s="3" t="s">
         <v>1708</v>
       </c>
-      <c r="B498" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C498" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D498" s="3"/>
-      <c r="E498" s="3" t="s">
+      <c r="B500" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C500" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D500" s="3"/>
+      <c r="E500" s="3" t="s">
         <v>1708</v>
       </c>
-      <c r="F498" s="6" t="s">
+      <c r="F500" s="6" t="s">
         <v>1709</v>
       </c>
-      <c r="G498" s="3" t="s">
+      <c r="G500" s="3" t="s">
         <v>1488</v>
       </c>
     </row>
-    <row r="499" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A499" s="3" t="s">
+    <row r="501" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A501" s="3" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B501" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C501" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E501" s="3" t="s">
+        <v>2011</v>
+      </c>
+      <c r="F501" s="6" t="s">
+        <v>2013</v>
+      </c>
+      <c r="G501" s="3" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A502" s="3" t="s">
         <v>2010</v>
       </c>
-      <c r="B499" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C499" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E499" s="3" t="s">
+      <c r="B502" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C502" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E502" s="3" t="s">
         <v>2012</v>
       </c>
-      <c r="F499" s="6" t="s">
+      <c r="F502" s="6" t="s">
         <v>2014</v>
       </c>
-      <c r="G499" s="3" t="s">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="500" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A500" s="3" t="s">
-        <v>2011</v>
-      </c>
-      <c r="B500" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C500" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E500" s="3" t="s">
-        <v>2013</v>
-      </c>
-      <c r="F500" s="6" t="s">
+      <c r="G502" s="3" t="s">
         <v>2015</v>
-      </c>
-      <c r="G500" s="3" t="s">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A501" s="3" t="s">
-        <v>2138</v>
-      </c>
-      <c r="B501" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C501" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D501" s="3"/>
-      <c r="E501" s="3" t="s">
-        <v>806</v>
-      </c>
-      <c r="F501" s="6" t="s">
-        <v>805</v>
-      </c>
-      <c r="G501" s="3" t="s">
-        <v>1485</v>
-      </c>
-    </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A502" s="3" t="s">
-        <v>1741</v>
-      </c>
-      <c r="B502" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C502" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D502" s="3"/>
-      <c r="E502" s="3" t="s">
-        <v>1746</v>
-      </c>
-      <c r="F502" s="6" t="s">
-        <v>1747</v>
-      </c>
-      <c r="G502" s="3" t="s">
-        <v>1750</v>
       </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="3" t="s">
-        <v>1742</v>
+        <v>2137</v>
       </c>
       <c r="B503" s="3" t="b">
         <v>1</v>
@@ -18163,18 +18176,18 @@
       </c>
       <c r="D503" s="3"/>
       <c r="E503" s="3" t="s">
-        <v>1745</v>
+        <v>806</v>
       </c>
       <c r="F503" s="6" t="s">
-        <v>1748</v>
+        <v>805</v>
       </c>
       <c r="G503" s="3" t="s">
-        <v>1750</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="3" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="B504" s="3" t="b">
         <v>1</v>
@@ -18184,39 +18197,39 @@
       </c>
       <c r="D504" s="3"/>
       <c r="E504" s="3" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="F504" s="6" t="s">
+        <v>1746</v>
+      </c>
+      <c r="G504" s="3" t="s">
         <v>1749</v>
-      </c>
-      <c r="G504" s="3" t="s">
-        <v>1751</v>
       </c>
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="3" t="s">
-        <v>1752</v>
+        <v>1741</v>
       </c>
       <c r="B505" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C505" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D505" s="3"/>
       <c r="E505" s="3" t="s">
-        <v>1753</v>
+        <v>1744</v>
       </c>
       <c r="F505" s="6" t="s">
-        <v>1754</v>
+        <v>1747</v>
       </c>
       <c r="G505" s="3" t="s">
-        <v>1755</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="3" t="s">
-        <v>1756</v>
+        <v>1742</v>
       </c>
       <c r="B506" s="3" t="b">
         <v>1</v>
@@ -18226,102 +18239,102 @@
       </c>
       <c r="D506" s="3"/>
       <c r="E506" s="3" t="s">
-        <v>1757</v>
+        <v>1743</v>
       </c>
       <c r="F506" s="6" t="s">
-        <v>1758</v>
+        <v>1748</v>
       </c>
       <c r="G506" s="3" t="s">
-        <v>1759</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" s="3" t="s">
-        <v>1760</v>
+        <v>1751</v>
       </c>
       <c r="B507" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C507" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D507" s="3"/>
       <c r="E507" s="3" t="s">
-        <v>1760</v>
+        <v>1752</v>
       </c>
       <c r="F507" s="6" t="s">
-        <v>1761</v>
+        <v>1753</v>
       </c>
       <c r="G507" s="3" t="s">
-        <v>1762</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="3" t="s">
-        <v>1763</v>
+        <v>1755</v>
       </c>
       <c r="B508" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C508" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D508" s="3"/>
       <c r="E508" s="3" t="s">
-        <v>1764</v>
+        <v>1756</v>
       </c>
       <c r="F508" s="6" t="s">
-        <v>1765</v>
+        <v>1757</v>
       </c>
       <c r="G508" s="3" t="s">
-        <v>1766</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="3" t="s">
-        <v>1767</v>
+        <v>1759</v>
       </c>
       <c r="B509" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C509" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D509" s="3"/>
       <c r="E509" s="3" t="s">
-        <v>1768</v>
+        <v>1759</v>
       </c>
       <c r="F509" s="6" t="s">
-        <v>1769</v>
+        <v>1760</v>
       </c>
       <c r="G509" s="3" t="s">
-        <v>1770</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="3" t="s">
-        <v>1771</v>
+        <v>1762</v>
       </c>
       <c r="B510" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C510" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D510" s="3"/>
       <c r="E510" s="3" t="s">
-        <v>1772</v>
+        <v>1763</v>
       </c>
       <c r="F510" s="6" t="s">
-        <v>1773</v>
+        <v>1764</v>
       </c>
       <c r="G510" s="3" t="s">
-        <v>1774</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="3" t="s">
-        <v>2188</v>
+        <v>1766</v>
       </c>
       <c r="B511" s="3" t="b">
         <v>1</v>
@@ -18331,143 +18344,143 @@
       </c>
       <c r="D511" s="3"/>
       <c r="E511" s="3" t="s">
-        <v>1775</v>
+        <v>1767</v>
       </c>
       <c r="F511" s="6" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="G511" s="3" t="s">
-        <v>1777</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A512" s="4" t="s">
-        <v>1782</v>
+      <c r="A512" s="3" t="s">
+        <v>1770</v>
       </c>
       <c r="B512" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C512" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D512" s="3"/>
       <c r="E512" s="3" t="s">
-        <v>1783</v>
+        <v>1771</v>
       </c>
       <c r="F512" s="6" t="s">
-        <v>1784</v>
+        <v>1772</v>
       </c>
       <c r="G512" s="3" t="s">
-        <v>1785</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" s="3" t="s">
-        <v>1778</v>
+        <v>2187</v>
       </c>
       <c r="B513" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C513" s="3" t="b">
         <v>1</v>
       </c>
       <c r="D513" s="3"/>
       <c r="E513" s="3" t="s">
-        <v>1779</v>
+        <v>1774</v>
       </c>
       <c r="F513" s="6" t="s">
-        <v>1780</v>
+        <v>1775</v>
       </c>
       <c r="G513" s="3" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A514" s="4" t="s">
         <v>1781</v>
       </c>
-    </row>
-    <row r="514" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A514" s="3" t="s">
-        <v>1786</v>
-      </c>
       <c r="B514" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C514" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D514" s="3"/>
       <c r="E514" s="3" t="s">
-        <v>1787</v>
+        <v>1782</v>
       </c>
       <c r="F514" s="6" t="s">
-        <v>1788</v>
+        <v>1783</v>
       </c>
       <c r="G514" s="3" t="s">
-        <v>1792</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="3" t="s">
-        <v>1789</v>
+        <v>1777</v>
       </c>
       <c r="B515" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C515" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D515" s="3"/>
       <c r="E515" s="3" t="s">
-        <v>1790</v>
+        <v>1778</v>
       </c>
       <c r="F515" s="6" t="s">
+        <v>1779</v>
+      </c>
+      <c r="G515" s="3" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A516" s="3" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B516" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C516" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E516" s="3" t="s">
+        <v>1786</v>
+      </c>
+      <c r="F516" s="6" t="s">
+        <v>1787</v>
+      </c>
+      <c r="G516" s="3" t="s">
         <v>1791</v>
-      </c>
-      <c r="G515" s="3" t="s">
-        <v>1793</v>
-      </c>
-    </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A516" s="3" t="s">
-        <v>1628</v>
-      </c>
-      <c r="B516" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C516" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D516" s="3"/>
-      <c r="E516" s="3" t="s">
-        <v>1628</v>
-      </c>
-      <c r="F516" s="6" t="s">
-        <v>1795</v>
-      </c>
-      <c r="G516" s="3" t="s">
-        <v>1733</v>
       </c>
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" s="3" t="s">
-        <v>1794</v>
+        <v>1788</v>
       </c>
       <c r="B517" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C517" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D517" s="3"/>
       <c r="E517" s="3" t="s">
-        <v>1794</v>
+        <v>1789</v>
       </c>
       <c r="F517" s="6" t="s">
-        <v>1796</v>
+        <v>1790</v>
       </c>
       <c r="G517" s="3" t="s">
-        <v>1798</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" s="3" t="s">
-        <v>1800</v>
+        <v>1628</v>
       </c>
       <c r="B518" s="3" t="b">
         <v>1</v>
@@ -18477,18 +18490,18 @@
       </c>
       <c r="D518" s="3"/>
       <c r="E518" s="3" t="s">
-        <v>1802</v>
+        <v>1628</v>
       </c>
       <c r="F518" s="6" t="s">
-        <v>1803</v>
+        <v>1794</v>
       </c>
       <c r="G518" s="3" t="s">
-        <v>1804</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" s="3" t="s">
-        <v>1801</v>
+        <v>1793</v>
       </c>
       <c r="B519" s="3" t="b">
         <v>1</v>
@@ -18498,18 +18511,18 @@
       </c>
       <c r="D519" s="3"/>
       <c r="E519" s="3" t="s">
-        <v>815</v>
+        <v>1793</v>
       </c>
       <c r="F519" s="6" t="s">
-        <v>437</v>
+        <v>1795</v>
       </c>
       <c r="G519" s="3" t="s">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="520" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" s="3" t="s">
-        <v>2245</v>
+        <v>1799</v>
       </c>
       <c r="B520" s="3" t="b">
         <v>1</v>
@@ -18517,19 +18530,20 @@
       <c r="C520" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="D520" s="3"/>
       <c r="E520" s="3" t="s">
-        <v>2246</v>
+        <v>1801</v>
       </c>
       <c r="F520" s="6" t="s">
-        <v>2247</v>
+        <v>1802</v>
       </c>
       <c r="G520" s="3" t="s">
-        <v>2248</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" s="3" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="B521" s="3" t="b">
         <v>1</v>
@@ -18539,18 +18553,18 @@
       </c>
       <c r="D521" s="3"/>
       <c r="E521" s="3" t="s">
-        <v>1744</v>
+        <v>815</v>
       </c>
       <c r="F521" s="6" t="s">
-        <v>1749</v>
+        <v>437</v>
       </c>
       <c r="G521" s="3" t="s">
-        <v>1751</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="522" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A522" s="3" t="s">
-        <v>2361</v>
+        <v>2244</v>
       </c>
       <c r="B522" s="3" t="b">
         <v>1</v>
@@ -18559,18 +18573,18 @@
         <v>1</v>
       </c>
       <c r="E522" s="3" t="s">
-        <v>807</v>
+        <v>2245</v>
       </c>
       <c r="F522" s="6" t="s">
-        <v>817</v>
+        <v>2246</v>
       </c>
       <c r="G522" s="3" t="s">
-        <v>1486</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" s="3" t="s">
-        <v>1805</v>
+        <v>1798</v>
       </c>
       <c r="B523" s="3" t="b">
         <v>1</v>
@@ -18580,18 +18594,18 @@
       </c>
       <c r="D523" s="3"/>
       <c r="E523" s="3" t="s">
-        <v>1808</v>
+        <v>1743</v>
       </c>
       <c r="F523" s="6" t="s">
-        <v>1806</v>
+        <v>1748</v>
       </c>
       <c r="G523" s="3" t="s">
-        <v>1822</v>
-      </c>
-    </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A524" s="3" t="s">
-        <v>1810</v>
+        <v>2360</v>
       </c>
       <c r="B524" s="3" t="b">
         <v>1</v>
@@ -18599,20 +18613,19 @@
       <c r="C524" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="D524" s="3"/>
       <c r="E524" s="3" t="s">
-        <v>1809</v>
+        <v>807</v>
       </c>
       <c r="F524" s="6" t="s">
-        <v>1807</v>
+        <v>817</v>
       </c>
       <c r="G524" s="3" t="s">
-        <v>1823</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" s="3" t="s">
-        <v>1811</v>
+        <v>1804</v>
       </c>
       <c r="B525" s="3" t="b">
         <v>1</v>
@@ -18622,18 +18635,18 @@
       </c>
       <c r="D525" s="3"/>
       <c r="E525" s="3" t="s">
-        <v>1814</v>
+        <v>1807</v>
       </c>
       <c r="F525" s="6" t="s">
-        <v>1817</v>
+        <v>1805</v>
       </c>
       <c r="G525" s="3" t="s">
-        <v>1824</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" s="3" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
       <c r="B526" s="3" t="b">
         <v>1</v>
@@ -18643,18 +18656,18 @@
       </c>
       <c r="D526" s="3"/>
       <c r="E526" s="3" t="s">
-        <v>1818</v>
+        <v>1808</v>
       </c>
       <c r="F526" s="6" t="s">
-        <v>1816</v>
+        <v>1806</v>
       </c>
       <c r="G526" s="3" t="s">
-        <v>1825</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" s="3" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
       <c r="B527" s="3" t="b">
         <v>1</v>
@@ -18664,18 +18677,18 @@
       </c>
       <c r="D527" s="3"/>
       <c r="E527" s="3" t="s">
-        <v>1819</v>
+        <v>1813</v>
       </c>
       <c r="F527" s="6" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="G527" s="3" t="s">
-        <v>1826</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" s="3" t="s">
-        <v>1837</v>
+        <v>1811</v>
       </c>
       <c r="B528" s="3" t="b">
         <v>1</v>
@@ -18685,18 +18698,18 @@
       </c>
       <c r="D528" s="3"/>
       <c r="E528" s="3" t="s">
-        <v>1820</v>
+        <v>1817</v>
       </c>
       <c r="F528" s="6" t="s">
-        <v>1821</v>
+        <v>1815</v>
       </c>
       <c r="G528" s="3" t="s">
-        <v>1827</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" s="3" t="s">
-        <v>1828</v>
+        <v>1812</v>
       </c>
       <c r="B529" s="3" t="b">
         <v>1</v>
@@ -18706,18 +18719,18 @@
       </c>
       <c r="D529" s="3"/>
       <c r="E529" s="3" t="s">
-        <v>646</v>
+        <v>1818</v>
       </c>
       <c r="F529" s="6" t="s">
-        <v>647</v>
+        <v>1814</v>
       </c>
       <c r="G529" s="3" t="s">
-        <v>1434</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" s="3" t="s">
-        <v>1829</v>
+        <v>1836</v>
       </c>
       <c r="B530" s="3" t="b">
         <v>1</v>
@@ -18727,18 +18740,18 @@
       </c>
       <c r="D530" s="3"/>
       <c r="E530" s="3" t="s">
-        <v>1647</v>
+        <v>1819</v>
       </c>
       <c r="F530" s="6" t="s">
-        <v>1144</v>
+        <v>1820</v>
       </c>
       <c r="G530" s="3" t="s">
-        <v>1714</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" s="3" t="s">
-        <v>1830</v>
+        <v>1827</v>
       </c>
       <c r="B531" s="3" t="b">
         <v>1</v>
@@ -18748,18 +18761,18 @@
       </c>
       <c r="D531" s="3"/>
       <c r="E531" s="3" t="s">
-        <v>1832</v>
+        <v>646</v>
       </c>
       <c r="F531" s="6" t="s">
-        <v>1834</v>
+        <v>647</v>
       </c>
       <c r="G531" s="3" t="s">
-        <v>1835</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" s="3" t="s">
-        <v>1831</v>
+        <v>1828</v>
       </c>
       <c r="B532" s="3" t="b">
         <v>1</v>
@@ -18769,144 +18782,143 @@
       </c>
       <c r="D532" s="3"/>
       <c r="E532" s="3" t="s">
+        <v>1647</v>
+      </c>
+      <c r="F532" s="6" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G532" s="3" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A533" s="3" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B533" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C533" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D533" s="3"/>
+      <c r="E533" s="3" t="s">
+        <v>1831</v>
+      </c>
+      <c r="F533" s="6" t="s">
         <v>1833</v>
       </c>
-      <c r="F532" s="6" t="s">
-        <v>1749</v>
-      </c>
-      <c r="G532" s="3" t="s">
-        <v>1836</v>
-      </c>
-    </row>
-    <row r="533" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A533" s="3" t="s">
+      <c r="G533" s="3" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A534" s="3" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B534" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C534" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D534" s="3"/>
+      <c r="E534" s="3" t="s">
+        <v>1832</v>
+      </c>
+      <c r="F534" s="6" t="s">
+        <v>1748</v>
+      </c>
+      <c r="G534" s="3" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A535" s="3" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B535" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C535" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E535" s="3" t="s">
+        <v>1837</v>
+      </c>
+      <c r="F535" s="6" t="s">
         <v>1840</v>
       </c>
-      <c r="B533" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C533" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E533" s="3" t="s">
+      <c r="G535" s="3" t="s">
         <v>1838</v>
-      </c>
-      <c r="F533" s="6" t="s">
-        <v>1841</v>
-      </c>
-      <c r="G533" s="3" t="s">
-        <v>1839</v>
-      </c>
-    </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A534" t="s">
-        <v>1842</v>
-      </c>
-      <c r="B534" t="b">
-        <v>1</v>
-      </c>
-      <c r="C534" t="b">
-        <v>1</v>
-      </c>
-      <c r="E534" s="3" t="s">
-        <v>1842</v>
-      </c>
-      <c r="F534" s="6" t="s">
-        <v>1845</v>
-      </c>
-      <c r="G534" t="s">
-        <v>1847</v>
-      </c>
-    </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A535" t="s">
-        <v>1843</v>
-      </c>
-      <c r="B535" t="b">
-        <v>1</v>
-      </c>
-      <c r="C535" t="b">
-        <v>1</v>
-      </c>
-      <c r="E535" s="3" t="s">
-        <v>1844</v>
-      </c>
-      <c r="F535" s="6" t="s">
-        <v>1846</v>
-      </c>
-      <c r="G535" t="s">
-        <v>1848</v>
       </c>
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>1849</v>
+        <v>1841</v>
       </c>
       <c r="B536" t="b">
         <v>1</v>
       </c>
       <c r="C536" t="b">
-        <v>0</v>
-      </c>
-      <c r="D536" t="s">
-        <v>1852</v>
+        <v>1</v>
       </c>
       <c r="E536" s="3" t="s">
-        <v>1850</v>
+        <v>1841</v>
       </c>
       <c r="F536" s="6" t="s">
-        <v>1851</v>
-      </c>
-      <c r="G536" s="3" t="s">
-        <v>1851</v>
+        <v>1844</v>
+      </c>
+      <c r="G536" t="s">
+        <v>1846</v>
       </c>
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A537" s="3" t="s">
-        <v>1849</v>
+      <c r="A537" t="s">
+        <v>1842</v>
       </c>
       <c r="B537" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C537" t="b">
         <v>1</v>
       </c>
-      <c r="D537" s="3" t="s">
-        <v>1852</v>
-      </c>
       <c r="E537" s="3" t="s">
-        <v>1853</v>
+        <v>1843</v>
       </c>
       <c r="F537" s="6" t="s">
-        <v>1854</v>
-      </c>
-      <c r="G537" s="3" t="s">
-        <v>1854</v>
+        <v>1845</v>
+      </c>
+      <c r="G537" t="s">
+        <v>1847</v>
       </c>
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>1867</v>
+        <v>1848</v>
       </c>
       <c r="B538" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C538" t="b">
-        <v>1</v>
-      </c>
-      <c r="E538" t="s">
-        <v>1870</v>
+        <v>0</v>
+      </c>
+      <c r="D538" t="s">
+        <v>1851</v>
+      </c>
+      <c r="E538" s="3" t="s">
+        <v>1849</v>
       </c>
       <c r="F538" s="6" t="s">
-        <v>1868</v>
+        <v>1850</v>
       </c>
       <c r="G538" s="3" t="s">
-        <v>1869</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A539" t="s">
-        <v>1879</v>
+      <c r="A539" s="3" t="s">
+        <v>1848</v>
       </c>
       <c r="B539" t="b">
         <v>0</v>
@@ -18914,39 +18926,42 @@
       <c r="C539" t="b">
         <v>1</v>
       </c>
-      <c r="E539" t="s">
-        <v>1879</v>
+      <c r="D539" s="3" t="s">
+        <v>1851</v>
+      </c>
+      <c r="E539" s="3" t="s">
+        <v>1852</v>
       </c>
       <c r="F539" s="6" t="s">
-        <v>1880</v>
+        <v>1853</v>
       </c>
       <c r="G539" s="3" t="s">
-        <v>1881</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>1871</v>
-      </c>
-      <c r="B540" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C540" s="3" t="b">
+        <v>1866</v>
+      </c>
+      <c r="B540" t="b">
+        <v>0</v>
+      </c>
+      <c r="C540" t="b">
         <v>1</v>
       </c>
       <c r="E540" t="s">
-        <v>1872</v>
+        <v>1869</v>
       </c>
       <c r="F540" s="6" t="s">
-        <v>1874</v>
-      </c>
-      <c r="G540" t="s">
-        <v>1873</v>
+        <v>1867</v>
+      </c>
+      <c r="G540" s="3" t="s">
+        <v>1868</v>
       </c>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="B541" t="b">
         <v>0</v>
@@ -18955,58 +18970,58 @@
         <v>1</v>
       </c>
       <c r="E541" t="s">
-        <v>1876</v>
+        <v>1878</v>
       </c>
       <c r="F541" s="6" t="s">
-        <v>1877</v>
-      </c>
-      <c r="G541" t="s">
-        <v>1878</v>
+        <v>1879</v>
+      </c>
+      <c r="G541" s="3" t="s">
+        <v>1880</v>
       </c>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>1882</v>
+        <v>1870</v>
       </c>
       <c r="B542" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C542" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E542" t="s">
-        <v>1884</v>
+        <v>1871</v>
       </c>
       <c r="F542" s="6" t="s">
-        <v>1886</v>
+        <v>1873</v>
       </c>
       <c r="G542" t="s">
-        <v>1975</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>1883</v>
-      </c>
-      <c r="B543" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C543" s="3" t="b">
+        <v>1874</v>
+      </c>
+      <c r="B543" t="b">
+        <v>0</v>
+      </c>
+      <c r="C543" t="b">
         <v>1</v>
       </c>
       <c r="E543" t="s">
-        <v>1885</v>
+        <v>1875</v>
       </c>
       <c r="F543" s="6" t="s">
-        <v>1887</v>
+        <v>1876</v>
       </c>
       <c r="G543" t="s">
-        <v>1975</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>42</v>
+        <v>1881</v>
       </c>
       <c r="B544" s="3" t="b">
         <v>1</v>
@@ -19015,18 +19030,18 @@
         <v>1</v>
       </c>
       <c r="E544" t="s">
-        <v>42</v>
+        <v>1883</v>
       </c>
       <c r="F544" s="6" t="s">
-        <v>108</v>
+        <v>1885</v>
       </c>
       <c r="G544" t="s">
-        <v>1225</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>1894</v>
+        <v>1882</v>
       </c>
       <c r="B545" s="3" t="b">
         <v>1</v>
@@ -19035,18 +19050,18 @@
         <v>1</v>
       </c>
       <c r="E545" t="s">
-        <v>1802</v>
+        <v>1884</v>
       </c>
       <c r="F545" s="6" t="s">
-        <v>1803</v>
+        <v>1886</v>
       </c>
       <c r="G545" t="s">
-        <v>1804</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>1895</v>
+        <v>42</v>
       </c>
       <c r="B546" s="3" t="b">
         <v>1</v>
@@ -19055,18 +19070,18 @@
         <v>1</v>
       </c>
       <c r="E546" t="s">
-        <v>1897</v>
+        <v>42</v>
       </c>
       <c r="F546" s="6" t="s">
-        <v>1902</v>
+        <v>108</v>
       </c>
       <c r="G546" t="s">
-        <v>1976</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>1896</v>
+        <v>1893</v>
       </c>
       <c r="B547" s="3" t="b">
         <v>1</v>
@@ -19075,18 +19090,18 @@
         <v>1</v>
       </c>
       <c r="E547" t="s">
-        <v>1898</v>
+        <v>1801</v>
       </c>
       <c r="F547" s="6" t="s">
-        <v>1903</v>
+        <v>1802</v>
       </c>
       <c r="G547" t="s">
-        <v>1977</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>1888</v>
+        <v>1894</v>
       </c>
       <c r="B548" s="3" t="b">
         <v>1</v>
@@ -19095,18 +19110,18 @@
         <v>1</v>
       </c>
       <c r="E548" t="s">
-        <v>1879</v>
+        <v>1896</v>
       </c>
       <c r="F548" s="6" t="s">
-        <v>1904</v>
+        <v>1901</v>
       </c>
       <c r="G548" t="s">
-        <v>1881</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>1889</v>
+        <v>1895</v>
       </c>
       <c r="B549" s="3" t="b">
         <v>1</v>
@@ -19115,18 +19130,18 @@
         <v>1</v>
       </c>
       <c r="E549" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="F549" s="6" t="s">
-        <v>1905</v>
+        <v>1902</v>
       </c>
       <c r="G549" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>1890</v>
+        <v>1887</v>
       </c>
       <c r="B550" s="3" t="b">
         <v>1</v>
@@ -19135,18 +19150,18 @@
         <v>1</v>
       </c>
       <c r="E550" t="s">
-        <v>2092</v>
+        <v>1878</v>
       </c>
       <c r="F550" s="6" t="s">
-        <v>2098</v>
+        <v>1903</v>
       </c>
       <c r="G550" t="s">
-        <v>1979</v>
-      </c>
-    </row>
-    <row r="551" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A551" s="3" t="s">
-        <v>2046</v>
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>1888</v>
       </c>
       <c r="B551" s="3" t="b">
         <v>1</v>
@@ -19154,19 +19169,19 @@
       <c r="C551" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E551" s="3" t="s">
-        <v>2093</v>
+      <c r="E551" t="s">
+        <v>1898</v>
       </c>
       <c r="F551" s="6" t="s">
-        <v>2099</v>
-      </c>
-      <c r="G551" s="3" t="s">
-        <v>2073</v>
-      </c>
-    </row>
-    <row r="552" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A552" s="3" t="s">
-        <v>2047</v>
+        <v>1904</v>
+      </c>
+      <c r="G551" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>1889</v>
       </c>
       <c r="B552" s="3" t="b">
         <v>1</v>
@@ -19174,19 +19189,19 @@
       <c r="C552" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E552" s="3" t="s">
-        <v>2094</v>
+      <c r="E552" t="s">
+        <v>2091</v>
       </c>
       <c r="F552" s="6" t="s">
-        <v>2100</v>
-      </c>
-      <c r="G552" s="3" t="s">
-        <v>2074</v>
+        <v>2097</v>
+      </c>
+      <c r="G552" t="s">
+        <v>1978</v>
       </c>
     </row>
     <row r="553" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A553" s="3" t="s">
-        <v>2048</v>
+        <v>2045</v>
       </c>
       <c r="B553" s="3" t="b">
         <v>1</v>
@@ -19195,18 +19210,18 @@
         <v>1</v>
       </c>
       <c r="E553" s="3" t="s">
-        <v>2095</v>
+        <v>2092</v>
       </c>
       <c r="F553" s="6" t="s">
-        <v>2101</v>
+        <v>2098</v>
       </c>
       <c r="G553" s="3" t="s">
-        <v>2075</v>
-      </c>
-    </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A554" t="s">
-        <v>1891</v>
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A554" s="3" t="s">
+        <v>2046</v>
       </c>
       <c r="B554" s="3" t="b">
         <v>1</v>
@@ -19214,19 +19229,19 @@
       <c r="C554" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E554" t="s">
-        <v>2091</v>
+      <c r="E554" s="3" t="s">
+        <v>2093</v>
       </c>
       <c r="F554" s="6" t="s">
-        <v>2102</v>
-      </c>
-      <c r="G554" t="s">
-        <v>1980</v>
+        <v>2099</v>
+      </c>
+      <c r="G554" s="3" t="s">
+        <v>2073</v>
       </c>
     </row>
     <row r="555" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A555" s="3" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="B555" s="3" t="b">
         <v>1</v>
@@ -19235,38 +19250,38 @@
         <v>1</v>
       </c>
       <c r="E555" s="3" t="s">
+        <v>2094</v>
+      </c>
+      <c r="F555" s="6" t="s">
+        <v>2100</v>
+      </c>
+      <c r="G555" s="3" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B556" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C556" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E556" t="s">
         <v>2090</v>
       </c>
-      <c r="F555" s="6" t="s">
-        <v>2103</v>
-      </c>
-      <c r="G555" s="3" t="s">
-        <v>2076</v>
-      </c>
-    </row>
-    <row r="556" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A556" s="3" t="s">
-        <v>2050</v>
-      </c>
-      <c r="B556" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C556" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E556" s="3" t="s">
-        <v>2089</v>
-      </c>
       <c r="F556" s="6" t="s">
-        <v>2104</v>
-      </c>
-      <c r="G556" s="3" t="s">
-        <v>2077</v>
+        <v>2101</v>
+      </c>
+      <c r="G556" t="s">
+        <v>1979</v>
       </c>
     </row>
     <row r="557" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A557" s="3" t="s">
-        <v>2051</v>
+        <v>2048</v>
       </c>
       <c r="B557" s="3" t="b">
         <v>1</v>
@@ -19275,38 +19290,38 @@
         <v>1</v>
       </c>
       <c r="E557" s="3" t="s">
+        <v>2089</v>
+      </c>
+      <c r="F557" s="6" t="s">
+        <v>2102</v>
+      </c>
+      <c r="G557" s="3" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A558" s="3" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B558" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C558" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E558" s="3" t="s">
         <v>2088</v>
       </c>
-      <c r="F557" s="6" t="s">
-        <v>2105</v>
-      </c>
-      <c r="G557" s="3" t="s">
-        <v>2078</v>
-      </c>
-    </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A558" t="s">
-        <v>1892</v>
-      </c>
-      <c r="B558" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C558" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E558" t="s">
-        <v>1900</v>
-      </c>
       <c r="F558" s="6" t="s">
-        <v>1907</v>
-      </c>
-      <c r="G558" t="s">
-        <v>1981</v>
+        <v>2103</v>
+      </c>
+      <c r="G558" s="3" t="s">
+        <v>2076</v>
       </c>
     </row>
     <row r="559" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A559" s="3" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="B559" s="3" t="b">
         <v>1</v>
@@ -19315,18 +19330,18 @@
         <v>1</v>
       </c>
       <c r="E559" s="3" t="s">
-        <v>2060</v>
+        <v>2087</v>
       </c>
       <c r="F559" s="6" t="s">
-        <v>2066</v>
+        <v>2104</v>
       </c>
       <c r="G559" s="3" t="s">
-        <v>2079</v>
-      </c>
-    </row>
-    <row r="560" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A560" s="3" t="s">
-        <v>2053</v>
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>1891</v>
       </c>
       <c r="B560" s="3" t="b">
         <v>1</v>
@@ -19334,19 +19349,19 @@
       <c r="C560" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E560" s="3" t="s">
-        <v>2096</v>
+      <c r="E560" t="s">
+        <v>1899</v>
       </c>
       <c r="F560" s="6" t="s">
-        <v>2068</v>
-      </c>
-      <c r="G560" s="3" t="s">
-        <v>2080</v>
+        <v>1906</v>
+      </c>
+      <c r="G560" t="s">
+        <v>1980</v>
       </c>
     </row>
     <row r="561" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A561" s="3" t="s">
-        <v>2054</v>
+        <v>2051</v>
       </c>
       <c r="B561" s="3" t="b">
         <v>1</v>
@@ -19355,38 +19370,38 @@
         <v>1</v>
       </c>
       <c r="E561" s="3" t="s">
-        <v>2097</v>
+        <v>2059</v>
       </c>
       <c r="F561" s="6" t="s">
+        <v>2065</v>
+      </c>
+      <c r="G561" s="3" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A562" s="3" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B562" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C562" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E562" s="3" t="s">
+        <v>2095</v>
+      </c>
+      <c r="F562" s="6" t="s">
         <v>2067</v>
       </c>
-      <c r="G561" s="3" t="s">
-        <v>2081</v>
-      </c>
-    </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A562" t="s">
-        <v>1893</v>
-      </c>
-      <c r="B562" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C562" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E562" t="s">
-        <v>1901</v>
-      </c>
-      <c r="F562" s="6" t="s">
-        <v>1906</v>
-      </c>
-      <c r="G562" t="s">
-        <v>1982</v>
+      <c r="G562" s="3" t="s">
+        <v>2079</v>
       </c>
     </row>
     <row r="563" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A563" s="3" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="B563" s="3" t="b">
         <v>1</v>
@@ -19395,18 +19410,18 @@
         <v>1</v>
       </c>
       <c r="E563" s="3" t="s">
-        <v>2061</v>
+        <v>2096</v>
       </c>
       <c r="F563" s="6" t="s">
-        <v>2069</v>
+        <v>2066</v>
       </c>
       <c r="G563" s="3" t="s">
-        <v>2082</v>
-      </c>
-    </row>
-    <row r="564" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A564" s="3" t="s">
-        <v>2056</v>
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>1892</v>
       </c>
       <c r="B564" s="3" t="b">
         <v>1</v>
@@ -19414,19 +19429,19 @@
       <c r="C564" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E564" s="3" t="s">
-        <v>2062</v>
+      <c r="E564" t="s">
+        <v>1900</v>
       </c>
       <c r="F564" s="6" t="s">
-        <v>2070</v>
-      </c>
-      <c r="G564" s="3" t="s">
-        <v>2083</v>
+        <v>1905</v>
+      </c>
+      <c r="G564" t="s">
+        <v>1981</v>
       </c>
     </row>
     <row r="565" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A565" s="3" t="s">
-        <v>2057</v>
+        <v>2054</v>
       </c>
       <c r="B565" s="3" t="b">
         <v>1</v>
@@ -19435,18 +19450,18 @@
         <v>1</v>
       </c>
       <c r="E565" s="3" t="s">
-        <v>2063</v>
+        <v>2060</v>
       </c>
       <c r="F565" s="6" t="s">
-        <v>2087</v>
+        <v>2068</v>
       </c>
       <c r="G565" s="3" t="s">
-        <v>2084</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="566" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A566" s="3" t="s">
-        <v>2058</v>
+        <v>2055</v>
       </c>
       <c r="B566" s="3" t="b">
         <v>1</v>
@@ -19455,18 +19470,18 @@
         <v>1</v>
       </c>
       <c r="E566" s="3" t="s">
-        <v>2064</v>
+        <v>2061</v>
       </c>
       <c r="F566" s="6" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="G566" s="3" t="s">
-        <v>2085</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="567" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A567" s="3" t="s">
-        <v>2059</v>
+        <v>2056</v>
       </c>
       <c r="B567" s="3" t="b">
         <v>1</v>
@@ -19475,78 +19490,78 @@
         <v>1</v>
       </c>
       <c r="E567" s="3" t="s">
-        <v>2065</v>
+        <v>2062</v>
       </c>
       <c r="F567" s="6" t="s">
-        <v>2072</v>
+        <v>2086</v>
       </c>
       <c r="G567" s="3" t="s">
-        <v>2086</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="568" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A568" s="3" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B568" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C568" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E568" s="3" t="s">
+        <v>2063</v>
+      </c>
+      <c r="F568" s="6" t="s">
+        <v>2070</v>
+      </c>
+      <c r="G568" s="3" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="569" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A569" s="3" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B569" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C569" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E569" s="3" t="s">
+        <v>2064</v>
+      </c>
+      <c r="F569" s="6" t="s">
+        <v>2071</v>
+      </c>
+      <c r="G569" s="3" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="570" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A570" s="3" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B570" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C570" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E570" s="3" t="s">
         <v>2107</v>
       </c>
-      <c r="B568" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C568" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E568" s="3" t="s">
+      <c r="F570" s="6" t="s">
         <v>2108</v>
       </c>
-      <c r="F568" s="6" t="s">
+      <c r="G570" s="3" t="s">
         <v>2109</v>
-      </c>
-      <c r="G568" s="3" t="s">
-        <v>2110</v>
-      </c>
-    </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A569" t="s">
-        <v>1908</v>
-      </c>
-      <c r="B569" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C569" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E569" t="s">
-        <v>1921</v>
-      </c>
-      <c r="F569" s="6" t="s">
-        <v>1955</v>
-      </c>
-      <c r="G569" t="s">
-        <v>1983</v>
-      </c>
-    </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A570" t="s">
-        <v>1909</v>
-      </c>
-      <c r="B570" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C570" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E570" t="s">
-        <v>1925</v>
-      </c>
-      <c r="F570" s="6" t="s">
-        <v>1956</v>
-      </c>
-      <c r="G570" t="s">
-        <v>1984</v>
       </c>
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>1910</v>
+        <v>1907</v>
       </c>
       <c r="B571" s="3" t="b">
         <v>1</v>
@@ -19555,18 +19570,18 @@
         <v>1</v>
       </c>
       <c r="E571" t="s">
-        <v>2004</v>
+        <v>1920</v>
       </c>
       <c r="F571" s="6" t="s">
-        <v>2005</v>
+        <v>1954</v>
       </c>
       <c r="G571" t="s">
-        <v>2006</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>318</v>
+        <v>1908</v>
       </c>
       <c r="B572" s="3" t="b">
         <v>1</v>
@@ -19575,18 +19590,18 @@
         <v>1</v>
       </c>
       <c r="E572" t="s">
-        <v>318</v>
+        <v>1924</v>
       </c>
       <c r="F572" s="6" t="s">
-        <v>317</v>
+        <v>1955</v>
       </c>
       <c r="G572" t="s">
-        <v>1320</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="B573" s="3" t="b">
         <v>1</v>
@@ -19595,18 +19610,18 @@
         <v>1</v>
       </c>
       <c r="E573" t="s">
-        <v>1926</v>
+        <v>2003</v>
       </c>
       <c r="F573" s="6" t="s">
-        <v>1957</v>
+        <v>2004</v>
       </c>
       <c r="G573" t="s">
-        <v>1985</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>1912</v>
+        <v>318</v>
       </c>
       <c r="B574" s="3" t="b">
         <v>1</v>
@@ -19615,18 +19630,18 @@
         <v>1</v>
       </c>
       <c r="E574" t="s">
-        <v>1927</v>
+        <v>318</v>
       </c>
       <c r="F574" s="6" t="s">
-        <v>1958</v>
+        <v>317</v>
       </c>
       <c r="G574" t="s">
-        <v>1986</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>1913</v>
+        <v>1910</v>
       </c>
       <c r="B575" s="3" t="b">
         <v>1</v>
@@ -19635,18 +19650,18 @@
         <v>1</v>
       </c>
       <c r="E575" t="s">
-        <v>1928</v>
+        <v>1925</v>
       </c>
       <c r="F575" s="6" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
       <c r="G575" t="s">
-        <v>1987</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>1914</v>
+        <v>1911</v>
       </c>
       <c r="B576" s="3" t="b">
         <v>1</v>
@@ -19655,18 +19670,18 @@
         <v>1</v>
       </c>
       <c r="E576" t="s">
-        <v>1929</v>
+        <v>1926</v>
       </c>
       <c r="F576" s="6" t="s">
-        <v>1960</v>
+        <v>1957</v>
       </c>
       <c r="G576" t="s">
-        <v>1988</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>1915</v>
+        <v>1912</v>
       </c>
       <c r="B577" s="3" t="b">
         <v>1</v>
@@ -19675,18 +19690,18 @@
         <v>1</v>
       </c>
       <c r="E577" t="s">
-        <v>1930</v>
+        <v>1927</v>
       </c>
       <c r="F577" s="6" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="G577" t="s">
-        <v>1989</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>1916</v>
+        <v>1913</v>
       </c>
       <c r="B578" s="3" t="b">
         <v>1</v>
@@ -19695,18 +19710,18 @@
         <v>1</v>
       </c>
       <c r="E578" t="s">
-        <v>880</v>
+        <v>1928</v>
       </c>
       <c r="F578" s="6" t="s">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="G578" t="s">
-        <v>1537</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
       <c r="B579" s="3" t="b">
         <v>1</v>
@@ -19715,18 +19730,18 @@
         <v>1</v>
       </c>
       <c r="E579" t="s">
-        <v>1922</v>
+        <v>1929</v>
       </c>
       <c r="F579" s="6" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
       <c r="G579" t="s">
-        <v>2003</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>1918</v>
+        <v>1915</v>
       </c>
       <c r="B580" s="3" t="b">
         <v>1</v>
@@ -19735,18 +19750,18 @@
         <v>1</v>
       </c>
       <c r="E580" t="s">
-        <v>1931</v>
+        <v>880</v>
       </c>
       <c r="F580" s="6" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="G580" t="s">
-        <v>1990</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>1919</v>
+        <v>1916</v>
       </c>
       <c r="B581" s="3" t="b">
         <v>1</v>
@@ -19755,18 +19770,18 @@
         <v>1</v>
       </c>
       <c r="E581" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="F581" s="6" t="s">
-        <v>2106</v>
+        <v>1962</v>
       </c>
       <c r="G581" t="s">
-        <v>1991</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>1920</v>
+        <v>1917</v>
       </c>
       <c r="B582" s="3" t="b">
         <v>1</v>
@@ -19775,58 +19790,58 @@
         <v>1</v>
       </c>
       <c r="E582" t="s">
-        <v>1924</v>
+        <v>1930</v>
       </c>
       <c r="F582" s="6" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="G582" t="s">
-        <v>1992</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>1936</v>
-      </c>
-      <c r="B583" t="b">
-        <v>1</v>
-      </c>
-      <c r="C583" t="b">
+        <v>1918</v>
+      </c>
+      <c r="B583" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C583" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E583" t="s">
-        <v>0</v>
+        <v>1922</v>
       </c>
       <c r="F583" s="6" t="s">
-        <v>1206</v>
+        <v>2105</v>
       </c>
       <c r="G583" t="s">
-        <v>1993</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>1932</v>
-      </c>
-      <c r="B584" t="b">
-        <v>1</v>
-      </c>
-      <c r="C584" t="b">
+        <v>1919</v>
+      </c>
+      <c r="B584" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C584" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E584" t="s">
-        <v>1933</v>
+        <v>1923</v>
       </c>
       <c r="F584" s="6" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="G584" t="s">
-        <v>1994</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="B585" t="b">
         <v>1</v>
@@ -19835,58 +19850,58 @@
         <v>1</v>
       </c>
       <c r="E585" t="s">
-        <v>1935</v>
+        <v>0</v>
       </c>
       <c r="F585" s="6" t="s">
-        <v>1967</v>
+        <v>1206</v>
       </c>
       <c r="G585" t="s">
-        <v>1995</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>1942</v>
-      </c>
-      <c r="B586" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C586" s="3" t="b">
+        <v>1931</v>
+      </c>
+      <c r="B586" t="b">
+        <v>1</v>
+      </c>
+      <c r="C586" t="b">
         <v>1</v>
       </c>
       <c r="E586" t="s">
-        <v>1937</v>
+        <v>1932</v>
       </c>
       <c r="F586" s="6" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="G586" t="s">
-        <v>1996</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>1943</v>
-      </c>
-      <c r="B587" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C587" s="3" t="b">
+        <v>1933</v>
+      </c>
+      <c r="B587" t="b">
+        <v>1</v>
+      </c>
+      <c r="C587" t="b">
         <v>1</v>
       </c>
       <c r="E587" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
       <c r="F587" s="6" t="s">
-        <v>1969</v>
+        <v>1966</v>
       </c>
       <c r="G587" t="s">
-        <v>1997</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>1939</v>
+        <v>1941</v>
       </c>
       <c r="B588" s="3" t="b">
         <v>1</v>
@@ -19895,18 +19910,18 @@
         <v>1</v>
       </c>
       <c r="E588" t="s">
-        <v>1940</v>
+        <v>1936</v>
       </c>
       <c r="F588" s="6" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
       <c r="G588" t="s">
-        <v>1998</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="B589" s="3" t="b">
         <v>1</v>
@@ -19915,18 +19930,18 @@
         <v>1</v>
       </c>
       <c r="E589" t="s">
-        <v>1972</v>
+        <v>1937</v>
       </c>
       <c r="F589" s="6" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="G589" t="s">
-        <v>1999</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>1944</v>
+        <v>1938</v>
       </c>
       <c r="B590" s="3" t="b">
         <v>1</v>
@@ -19935,18 +19950,18 @@
         <v>1</v>
       </c>
       <c r="E590" t="s">
-        <v>420</v>
+        <v>1939</v>
       </c>
       <c r="F590" s="6" t="s">
-        <v>419</v>
+        <v>1969</v>
       </c>
       <c r="G590" t="s">
-        <v>1355</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>1945</v>
+        <v>1940</v>
       </c>
       <c r="B591" s="3" t="b">
         <v>1</v>
@@ -19955,18 +19970,18 @@
         <v>1</v>
       </c>
       <c r="E591" t="s">
-        <v>1856</v>
+        <v>1971</v>
       </c>
       <c r="F591" s="6" t="s">
-        <v>1860</v>
+        <v>1970</v>
       </c>
       <c r="G591" t="s">
-        <v>1864</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>1946</v>
+        <v>1943</v>
       </c>
       <c r="B592" s="3" t="b">
         <v>1</v>
@@ -19975,18 +19990,18 @@
         <v>1</v>
       </c>
       <c r="E592" t="s">
-        <v>1855</v>
+        <v>420</v>
       </c>
       <c r="F592" s="6" t="s">
-        <v>1859</v>
+        <v>419</v>
       </c>
       <c r="G592" t="s">
-        <v>1863</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>1947</v>
+        <v>1944</v>
       </c>
       <c r="B593" s="3" t="b">
         <v>1</v>
@@ -19995,18 +20010,18 @@
         <v>1</v>
       </c>
       <c r="E593" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="F593" s="6" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="G593" t="s">
-        <v>1866</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>1948</v>
+        <v>1945</v>
       </c>
       <c r="B594" s="3" t="b">
         <v>1</v>
@@ -20015,18 +20030,18 @@
         <v>1</v>
       </c>
       <c r="E594" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="F594" s="6" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="G594" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>1949</v>
+        <v>1946</v>
       </c>
       <c r="B595" s="3" t="b">
         <v>1</v>
@@ -20035,18 +20050,18 @@
         <v>1</v>
       </c>
       <c r="E595" t="s">
-        <v>1950</v>
+        <v>1857</v>
       </c>
       <c r="F595" s="6" t="s">
-        <v>1973</v>
+        <v>1861</v>
       </c>
       <c r="G595" t="s">
-        <v>2000</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>1951</v>
+        <v>1947</v>
       </c>
       <c r="B596" s="3" t="b">
         <v>1</v>
@@ -20055,18 +20070,18 @@
         <v>1</v>
       </c>
       <c r="E596" t="s">
-        <v>1953</v>
+        <v>1856</v>
       </c>
       <c r="F596" s="6" t="s">
-        <v>1974</v>
+        <v>1860</v>
       </c>
       <c r="G596" t="s">
-        <v>2001</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>1952</v>
+        <v>1948</v>
       </c>
       <c r="B597" s="3" t="b">
         <v>1</v>
@@ -20075,139 +20090,139 @@
         <v>1</v>
       </c>
       <c r="E597" t="s">
-        <v>1954</v>
+        <v>1949</v>
       </c>
       <c r="F597" s="6" t="s">
-        <v>1906</v>
+        <v>1972</v>
       </c>
       <c r="G597" t="s">
-        <v>2002</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>2004</v>
-      </c>
-      <c r="B598" t="b">
-        <v>0</v>
-      </c>
-      <c r="C598" t="b">
+        <v>1950</v>
+      </c>
+      <c r="B598" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C598" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E598" t="s">
-        <v>2004</v>
+        <v>1952</v>
       </c>
       <c r="F598" s="6" t="s">
-        <v>2005</v>
+        <v>1973</v>
       </c>
       <c r="G598" t="s">
-        <v>2006</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>2007</v>
-      </c>
-      <c r="B599" t="b">
-        <v>0</v>
-      </c>
-      <c r="C599" t="b">
+        <v>1951</v>
+      </c>
+      <c r="B599" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C599" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E599" t="s">
-        <v>2007</v>
+        <v>1953</v>
       </c>
       <c r="F599" s="6" t="s">
-        <v>2008</v>
+        <v>1905</v>
       </c>
       <c r="G599" t="s">
-        <v>2009</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>2017</v>
+        <v>2003</v>
       </c>
       <c r="B600" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C600" t="b">
         <v>1</v>
       </c>
       <c r="E600" t="s">
-        <v>2017</v>
+        <v>2003</v>
       </c>
       <c r="F600" s="6" t="s">
-        <v>2020</v>
+        <v>2004</v>
       </c>
       <c r="G600" t="s">
-        <v>2021</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="601" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>2018</v>
-      </c>
-      <c r="B601" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C601" s="3" t="b">
+        <v>2006</v>
+      </c>
+      <c r="B601" t="b">
+        <v>0</v>
+      </c>
+      <c r="C601" t="b">
         <v>1</v>
       </c>
       <c r="E601" t="s">
-        <v>2018</v>
+        <v>2006</v>
       </c>
       <c r="F601" s="6" t="s">
-        <v>2019</v>
+        <v>2007</v>
       </c>
       <c r="G601" t="s">
-        <v>2022</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="602" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>2029</v>
+        <v>2016</v>
       </c>
       <c r="B602" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C602" t="b">
         <v>1</v>
       </c>
       <c r="E602" t="s">
-        <v>2029</v>
+        <v>2016</v>
       </c>
       <c r="F602" s="6" t="s">
-        <v>1961</v>
+        <v>2019</v>
       </c>
       <c r="G602" t="s">
-        <v>2036</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="603" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>2026</v>
-      </c>
-      <c r="B603" t="b">
-        <v>1</v>
-      </c>
-      <c r="C603" t="b">
+        <v>2017</v>
+      </c>
+      <c r="B603" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C603" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E603" t="s">
-        <v>2027</v>
+        <v>2017</v>
       </c>
       <c r="F603" s="6" t="s">
+        <v>2018</v>
+      </c>
+      <c r="G603" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
         <v>2028</v>
       </c>
-      <c r="G603" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A604" s="3" t="s">
-        <v>2030</v>
-      </c>
       <c r="B604" t="b">
         <v>0</v>
       </c>
@@ -20215,38 +20230,38 @@
         <v>1</v>
       </c>
       <c r="E604" t="s">
-        <v>2031</v>
+        <v>2028</v>
       </c>
       <c r="F604" s="6" t="s">
-        <v>2032</v>
+        <v>1960</v>
       </c>
       <c r="G604" t="s">
-        <v>2038</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="605" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>2033</v>
+        <v>2025</v>
       </c>
       <c r="B605" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C605" t="b">
         <v>1</v>
       </c>
       <c r="E605" t="s">
-        <v>2034</v>
+        <v>2026</v>
       </c>
       <c r="F605" s="6" t="s">
-        <v>2035</v>
+        <v>2027</v>
       </c>
       <c r="G605" t="s">
-        <v>2039</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="606" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A606" t="s">
-        <v>2040</v>
+      <c r="A606" s="3" t="s">
+        <v>2029</v>
       </c>
       <c r="B606" t="b">
         <v>0</v>
@@ -20255,18 +20270,18 @@
         <v>1</v>
       </c>
       <c r="E606" t="s">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="F606" s="6" t="s">
-        <v>2043</v>
+        <v>2031</v>
       </c>
       <c r="G606" t="s">
-        <v>2044</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>2041</v>
+        <v>2032</v>
       </c>
       <c r="B607" t="b">
         <v>0</v>
@@ -20275,18 +20290,18 @@
         <v>1</v>
       </c>
       <c r="E607" t="s">
-        <v>2041</v>
+        <v>2033</v>
       </c>
       <c r="F607" s="6" t="s">
-        <v>2042</v>
+        <v>2034</v>
       </c>
       <c r="G607" t="s">
-        <v>2045</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="608" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>968</v>
+        <v>2039</v>
       </c>
       <c r="B608" t="b">
         <v>0</v>
@@ -20295,18 +20310,18 @@
         <v>1</v>
       </c>
       <c r="E608" t="s">
-        <v>968</v>
+        <v>2039</v>
       </c>
       <c r="F608" s="6" t="s">
-        <v>1205</v>
+        <v>2042</v>
       </c>
       <c r="G608" t="s">
-        <v>1618</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>2111</v>
+        <v>2040</v>
       </c>
       <c r="B609" t="b">
         <v>0</v>
@@ -20315,18 +20330,18 @@
         <v>1</v>
       </c>
       <c r="E609" t="s">
-        <v>2112</v>
+        <v>2040</v>
       </c>
       <c r="F609" s="6" t="s">
-        <v>2113</v>
+        <v>2041</v>
       </c>
       <c r="G609" t="s">
-        <v>2117</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>2114</v>
+        <v>968</v>
       </c>
       <c r="B610" t="b">
         <v>0</v>
@@ -20335,18 +20350,18 @@
         <v>1</v>
       </c>
       <c r="E610" t="s">
-        <v>2116</v>
+        <v>968</v>
       </c>
       <c r="F610" s="6" t="s">
-        <v>2115</v>
+        <v>1205</v>
       </c>
       <c r="G610" t="s">
-        <v>2118</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>2119</v>
+        <v>2110</v>
       </c>
       <c r="B611" t="b">
         <v>0</v>
@@ -20355,118 +20370,118 @@
         <v>1</v>
       </c>
       <c r="E611" t="s">
-        <v>2120</v>
+        <v>2111</v>
       </c>
       <c r="F611" s="6" t="s">
-        <v>2121</v>
+        <v>2112</v>
       </c>
       <c r="G611" t="s">
-        <v>2122</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>2123</v>
+        <v>2113</v>
       </c>
       <c r="B612" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C612" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E612" t="s">
-        <v>2126</v>
+        <v>2115</v>
       </c>
       <c r="F612" s="6" t="s">
-        <v>2124</v>
+        <v>2114</v>
       </c>
       <c r="G612" t="s">
-        <v>2125</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B613" t="b">
+        <v>0</v>
+      </c>
+      <c r="C613" t="b">
+        <v>1</v>
+      </c>
+      <c r="E613" t="s">
+        <v>2119</v>
+      </c>
+      <c r="F613" s="6" t="s">
+        <v>2120</v>
+      </c>
+      <c r="G613" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>2122</v>
+      </c>
+      <c r="B614" t="b">
+        <v>1</v>
+      </c>
+      <c r="C614" t="b">
+        <v>0</v>
+      </c>
+      <c r="E614" t="s">
+        <v>2125</v>
+      </c>
+      <c r="F614" s="6" t="s">
+        <v>2123</v>
+      </c>
+      <c r="G614" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
         <v>37</v>
       </c>
-      <c r="B613" t="b">
-        <v>1</v>
-      </c>
-      <c r="C613" t="b">
-        <v>1</v>
-      </c>
-      <c r="E613" t="s">
+      <c r="B615" t="b">
+        <v>1</v>
+      </c>
+      <c r="C615" t="b">
+        <v>1</v>
+      </c>
+      <c r="E615" t="s">
+        <v>2126</v>
+      </c>
+      <c r="F615" s="6" t="s">
         <v>2127</v>
       </c>
-      <c r="F613" s="6" t="s">
-        <v>2128</v>
-      </c>
-      <c r="G613" t="s">
+      <c r="G615" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="614" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A614" s="3" t="s">
-        <v>2143</v>
-      </c>
-      <c r="B614" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C614" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E614" s="3" t="s">
+    <row r="616" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A616" s="3" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B616" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C616" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E616" s="3" t="s">
         <v>1698</v>
       </c>
-      <c r="F614" s="6" t="s">
-        <v>2146</v>
-      </c>
-      <c r="G614" s="3" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="615" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A615" s="3" t="s">
-        <v>2144</v>
-      </c>
-      <c r="B615" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C615" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E615" s="3" t="s">
+      <c r="F616" s="6" t="s">
         <v>2145</v>
       </c>
-      <c r="F615" s="6" t="s">
-        <v>2147</v>
-      </c>
-      <c r="G615" s="3" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A616" t="s">
-        <v>2137</v>
-      </c>
-      <c r="B616" t="b">
-        <v>1</v>
-      </c>
-      <c r="C616" t="b">
-        <v>1</v>
-      </c>
-      <c r="E616" t="s">
-        <v>2141</v>
-      </c>
-      <c r="F616" s="6" t="s">
-        <v>2142</v>
-      </c>
-      <c r="G616" t="s">
-        <v>2164</v>
+      <c r="G616" s="3" t="s">
+        <v>1733</v>
       </c>
     </row>
     <row r="617" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A617" s="3" t="s">
-        <v>2152</v>
+        <v>2143</v>
       </c>
       <c r="B617" s="3" t="b">
         <v>1</v>
@@ -20475,38 +20490,38 @@
         <v>1</v>
       </c>
       <c r="E617" s="3" t="s">
-        <v>2156</v>
+        <v>2144</v>
       </c>
       <c r="F617" s="6" t="s">
-        <v>2160</v>
+        <v>2146</v>
       </c>
       <c r="G617" s="3" t="s">
-        <v>2165</v>
-      </c>
-    </row>
-    <row r="618" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A618" s="3" t="s">
-        <v>2153</v>
-      </c>
-      <c r="B618" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C618" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E618" s="3" t="s">
-        <v>2157</v>
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B618" t="b">
+        <v>1</v>
+      </c>
+      <c r="C618" t="b">
+        <v>1</v>
+      </c>
+      <c r="E618" t="s">
+        <v>2140</v>
       </c>
       <c r="F618" s="6" t="s">
-        <v>2161</v>
-      </c>
-      <c r="G618" s="3" t="s">
-        <v>2166</v>
+        <v>2141</v>
+      </c>
+      <c r="G618" t="s">
+        <v>2163</v>
       </c>
     </row>
     <row r="619" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A619" s="3" t="s">
-        <v>2154</v>
+        <v>2151</v>
       </c>
       <c r="B619" s="3" t="b">
         <v>1</v>
@@ -20515,18 +20530,18 @@
         <v>1</v>
       </c>
       <c r="E619" s="3" t="s">
-        <v>2158</v>
+        <v>2155</v>
       </c>
       <c r="F619" s="6" t="s">
-        <v>2162</v>
+        <v>2159</v>
       </c>
       <c r="G619" s="3" t="s">
-        <v>2167</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="620" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A620" s="3" t="s">
-        <v>2155</v>
+        <v>2152</v>
       </c>
       <c r="B620" s="3" t="b">
         <v>1</v>
@@ -20535,118 +20550,118 @@
         <v>1</v>
       </c>
       <c r="E620" s="3" t="s">
-        <v>2159</v>
+        <v>2156</v>
       </c>
       <c r="F620" s="6" t="s">
-        <v>2163</v>
+        <v>2160</v>
       </c>
       <c r="G620" s="3" t="s">
-        <v>2168</v>
-      </c>
-    </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A621" t="s">
-        <v>2139</v>
-      </c>
-      <c r="B621" t="b">
-        <v>1</v>
-      </c>
-      <c r="C621" t="b">
-        <v>1</v>
-      </c>
-      <c r="E621" t="s">
-        <v>2140</v>
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="621" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A621" s="3" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B621" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C621" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E621" s="3" t="s">
+        <v>2157</v>
       </c>
       <c r="F621" s="6" t="s">
-        <v>2148</v>
-      </c>
-      <c r="G621" t="s">
-        <v>2169</v>
-      </c>
-    </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A622" t="s">
-        <v>2149</v>
-      </c>
-      <c r="B622" t="b">
-        <v>1</v>
-      </c>
-      <c r="C622" t="b">
-        <v>1</v>
-      </c>
-      <c r="E622" t="s">
-        <v>2150</v>
+        <v>2161</v>
+      </c>
+      <c r="G621" s="3" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="622" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A622" s="3" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B622" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C622" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E622" s="3" t="s">
+        <v>2158</v>
       </c>
       <c r="F622" s="6" t="s">
-        <v>2151</v>
-      </c>
-      <c r="G622" t="s">
-        <v>2170</v>
+        <v>2162</v>
+      </c>
+      <c r="G622" s="3" t="s">
+        <v>2167</v>
       </c>
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>2171</v>
+        <v>2138</v>
       </c>
       <c r="B623" t="b">
         <v>1</v>
       </c>
-      <c r="C623" s="3" t="b">
+      <c r="C623" t="b">
         <v>1</v>
       </c>
       <c r="E623" t="s">
-        <v>2174</v>
+        <v>2139</v>
       </c>
       <c r="F623" s="6" t="s">
-        <v>2177</v>
+        <v>2147</v>
       </c>
       <c r="G623" t="s">
-        <v>2180</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>2172</v>
-      </c>
-      <c r="B624" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C624" s="3" t="b">
+        <v>2148</v>
+      </c>
+      <c r="B624" t="b">
+        <v>1</v>
+      </c>
+      <c r="C624" t="b">
         <v>1</v>
       </c>
       <c r="E624" t="s">
-        <v>2175</v>
+        <v>2149</v>
       </c>
       <c r="F624" s="6" t="s">
-        <v>2178</v>
+        <v>2150</v>
       </c>
       <c r="G624" t="s">
-        <v>2181</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B625" t="b">
+        <v>1</v>
+      </c>
+      <c r="C625" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E625" t="s">
         <v>2173</v>
       </c>
-      <c r="B625" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C625" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E625" t="s">
+      <c r="F625" s="6" t="s">
         <v>2176</v>
       </c>
-      <c r="F625" s="6" t="s">
+      <c r="G625" t="s">
         <v>2179</v>
-      </c>
-      <c r="G625" t="s">
-        <v>2182</v>
       </c>
     </row>
     <row r="626" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>2189</v>
+        <v>2171</v>
       </c>
       <c r="B626" s="3" t="b">
         <v>1</v>
@@ -20655,38 +20670,38 @@
         <v>1</v>
       </c>
       <c r="E626" t="s">
-        <v>2190</v>
+        <v>2174</v>
       </c>
       <c r="F626" s="6" t="s">
-        <v>2191</v>
+        <v>2177</v>
       </c>
       <c r="G626" t="s">
-        <v>2192</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>2193</v>
-      </c>
-      <c r="B627" t="b">
-        <v>1</v>
-      </c>
-      <c r="C627" t="b">
+        <v>2172</v>
+      </c>
+      <c r="B627" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C627" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E627" t="s">
-        <v>2194</v>
+        <v>2175</v>
       </c>
       <c r="F627" s="6" t="s">
-        <v>2195</v>
+        <v>2178</v>
       </c>
       <c r="G627" t="s">
-        <v>2214</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="628" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>2196</v>
+        <v>2188</v>
       </c>
       <c r="B628" s="3" t="b">
         <v>1</v>
@@ -20695,38 +20710,38 @@
         <v>1</v>
       </c>
       <c r="E628" t="s">
-        <v>2202</v>
+        <v>2189</v>
       </c>
       <c r="F628" s="6" t="s">
-        <v>2208</v>
+        <v>2190</v>
       </c>
       <c r="G628" t="s">
-        <v>2215</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>2197</v>
-      </c>
-      <c r="B629" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C629" s="3" t="b">
+        <v>2192</v>
+      </c>
+      <c r="B629" t="b">
+        <v>1</v>
+      </c>
+      <c r="C629" t="b">
         <v>1</v>
       </c>
       <c r="E629" t="s">
-        <v>2206</v>
+        <v>2193</v>
       </c>
       <c r="F629" s="6" t="s">
-        <v>2209</v>
+        <v>2194</v>
       </c>
       <c r="G629" t="s">
-        <v>2216</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="630" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>2198</v>
+        <v>2195</v>
       </c>
       <c r="B630" s="3" t="b">
         <v>1</v>
@@ -20734,19 +20749,19 @@
       <c r="C630" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E630" s="3" t="s">
-        <v>2203</v>
+      <c r="E630" t="s">
+        <v>2201</v>
       </c>
       <c r="F630" s="6" t="s">
-        <v>2210</v>
+        <v>2207</v>
       </c>
       <c r="G630" t="s">
-        <v>2217</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="631" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>2199</v>
+        <v>2196</v>
       </c>
       <c r="B631" s="3" t="b">
         <v>1</v>
@@ -20754,19 +20769,19 @@
       <c r="C631" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E631" s="3" t="s">
-        <v>2204</v>
+      <c r="E631" t="s">
+        <v>2205</v>
       </c>
       <c r="F631" s="6" t="s">
-        <v>2211</v>
+        <v>2208</v>
       </c>
       <c r="G631" t="s">
-        <v>2218</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>2200</v>
+        <v>2197</v>
       </c>
       <c r="B632" s="3" t="b">
         <v>1</v>
@@ -20775,18 +20790,18 @@
         <v>1</v>
       </c>
       <c r="E6